--- a/vrp_dss/Solve Times Summary.xlsx
+++ b/vrp_dss/Solve Times Summary.xlsx
@@ -8,19 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Aaron\Documents\Git Repositories\VRP-DSS\vrp_dss\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{006269EF-2117-483D-9EC0-E7CC7C9DFCA7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8369DE26-365A-4E68-AD82-DEA9C4168EFF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{18316527-73F8-47E3-AF1E-1BC2AB2B2005}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Graphs" sheetId="3" r:id="rId1"/>
+    <sheet name="Graphs" sheetId="1" r:id="rId1"/>
     <sheet name="Run Data" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -34,39 +31,715 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="79">
+  <si>
+    <t># Customers</t>
+  </si>
+  <si>
+    <t># Vehicles</t>
+  </si>
+  <si>
+    <t>Average Time (s)</t>
+  </si>
+  <si>
+    <t>Min Time (s)</t>
+  </si>
+  <si>
+    <t>Max Time (s)</t>
+  </si>
+  <si>
+    <t>Std. Dev.</t>
+  </si>
+  <si>
+    <t># Stores</t>
+  </si>
   <si>
     <t>Run #</t>
   </si>
   <si>
-    <t># Stores</t>
+    <t>Solve time (m)</t>
+  </si>
+  <si>
+    <t>Solve time (s)</t>
   </si>
   <si>
     <t>Solve Time (ms)</t>
   </si>
   <si>
-    <t>Solve time (s)</t>
-  </si>
-  <si>
-    <t>Solve time (m)</t>
-  </si>
-  <si>
-    <t># Vehicles</t>
-  </si>
-  <si>
-    <t>Average Time (s)</t>
-  </si>
-  <si>
-    <t>Min Time (s)</t>
-  </si>
-  <si>
-    <t>Max Time (s)</t>
-  </si>
-  <si>
-    <t>Std. Dev.</t>
-  </si>
-  <si>
-    <t># Customers</t>
+    <t>CPLEX Generated Text File</t>
+  </si>
+  <si>
+    <t>Math Objective (evaluated by meta)</t>
+  </si>
+  <si>
+    <t>Meta Routes</t>
+  </si>
+  <si>
+    <t>Meta Solve Time</t>
+  </si>
+  <si>
+    <t>Meta Objective</t>
+  </si>
+  <si>
+    <t>Meta Difference (%)</t>
+  </si>
+  <si>
+    <t>Input:
+Customer 1 has 5 pallets demand and window 0-24 at (-5.625091957, 77.494351875) and average unload time 0.120062083
+Customer 2 has 1 pallets demand and window 0-24 at (-74.947356113, -90.297220513) and average unload time 0.13783966
+Customer 3 has 2 pallets demand and window 0-24 at (65.963866866, 89.447508748) and average unload time 0.08489104
+Customer 4 has 6 pallets demand and window 0-24 at (-78.352102862, -88.540717846) and average unload time 0.073224009
+Customer 5 has 3 pallets demand and window 0-24 at (-12.578803162, 38.310314123) and average unload time 0.050518294
+Customer 6 has 6 pallets demand and window 0-24 at (-27.891071828, -34.925848307) and average unload time 0.137518692
+Customer 7 has 5 pallets demand and window 0-24 at (41.199789007, 15.609028382) and average unload time 0.133996586
+Customer 8 has 2 pallets demand and window 0-24 at (80.823773225, 87.591443267) and average unload time 0.072205814
+Customer 9 has 9 pallets demand and window 0-24 at (-48.780827845, -4.360561463) and average unload time 0.02442236
+Vehicle SP1 is a 11 metre with capacity 30, distance cost 0.796243095, and time cost 10.888817567
+Vehicle SP2 is a 8 metre with capacity 22, distance cost 1.474713917, and time cost 13.939857705
+Vehicle SP3 is a 8 metre with capacity 22, distance cost 1.474713917, and time cost 13.939857705
+Output:
+Vehicle SP1 travels from Depot to 7 to deliver 5 pallets. Expected unload start time is 5.084413751
+Vehicle SP1 travels from 1 to 5 to deliver 3 pallets. Expected unload start time is 9.287892399
+Vehicle SP1 travels from 2 to 6 to deliver 6 pallets. Expected unload start time is 12.758954084
+Vehicle SP1 travels from 3 to 1 to deliver 5 pallets. Expected unload start time is 8.190128639
+Vehicle SP1 travels from 4 to 2 to deliver 1 pallets. Expected unload start time is 11.712794999
+Vehicle SP1 travels from 5 to 4 to deliver 6 pallets. Expected unload start time is 11.225561746
+Vehicle SP1 travels from 6 to DepotReturn to deliver 0 pallets. Expected unload start time is 14.142765444
+Vehicle SP1 travels from 7 to 8 to deliver 2 pallets. Expected unload start time is 6.78149272
+Vehicle SP1 travels from 8 to 3 to deliver 2 pallets. Expected unload start time is 7.113096509
+Vehicle SP3 travels from Depot to 9 to deliver 9 pallets. Expected unload start time is 1.854583028
+Vehicle SP3 travels from 9 to DepotReturn to deliver 0 pallets. Expected unload start time is 2.686575985
+Objective value: 573.068278715
+Solve time: 641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11 metre (capacity 30):
+7 (5) -&gt; 8 (2) -&gt; 3 (2) -&gt; 1 (5) -&gt; 5 (3) -&gt; 4 (6) -&gt; 2 (1)
+8 metre (capacity 22):
+6 (6) -&gt; 9 (9)
+</t>
+  </si>
+  <si>
+    <t>Input:
+Customer 1 has 7 pallets demand and window 12-13 at (-6.644654407, -37.706863539) and average unload time 0.017702007
+Customer 2 has 3 pallets demand and window 0-24 at (-14.51883681, -4.939054912) and average unload time 0.100061023
+Customer 3 has 6 pallets demand and window 0-24 at (-33.108810919, 90.628679863) and average unload time 0.074228608
+Customer 4 has 2 pallets demand and window 0-24 at (7.33373709, 94.377846493) and average unload time 0.159146219
+Customer 5 has 3 pallets demand and window 0-24 at (-54.109588492, 75.197500021) and average unload time 0.063706742
+Customer 6 has 6 pallets demand and window 0-24 at (25.751127767, -94.578965671) and average unload time 0.047978631
+Customer 7 has 8 pallets demand and window 0-24 at (-95.403529717, 37.044830017) and average unload time 0.119057538
+Customer 8 has 8 pallets demand and window 0-24 at (22.956145847, 48.267948881) and average unload time 0.037466502
+Customer 9 has 1 pallets demand and window 0-24 at (-37.848926748, 2.926531102) and average unload time 0.0959835
+Vehicle SP1 is a Rigid with capacity 16, distance cost 1.093582924, and time cost 14.937395452
+Vehicle SP2 is a 8 metre with capacity 22, distance cost 0.867575776, and time cost 9.83032622
+Vehicle SP3 is a 11 metre with capacity 30, distance cost 1.140261613, and time cost 10.759973941
+Output:
+Vehicle SP2 travels from Depot to 6 to deliver 6 pallets. Expected unload start time is 10.893982189
+Vehicle SP2 travels from 1 to 2 to deliver 3 pallets. Expected unload start time is 12.545171842
+Vehicle SP2 travels from 2 to DepotReturn to deliver 0 pallets. Expected unload start time is 13.037054093
+Vehicle SP2 travels from 6 to 1 to deliver 7 pallets. Expected unload start time is 12
+Vehicle SP3 travels from Depot to 8 to deliver 8 pallets. Expected unload start time is 4.771858506
+Vehicle SP3 travels from 3 to 5 to deliver 3 pallets. Expected unload start time is 7.277267832
+Vehicle SP3 travels from 4 to 3 to deliver 6 pallets. Expected unload start time is 6.506138898
+Vehicle SP3 travels from 5 to 7 to deliver 8 pallets. Expected unload start time is 8.171152222
+Vehicle SP3 travels from 7 to 9 to deliver 1 pallets. Expected unload start time is 9.959954136
+Vehicle SP3 travels from 8 to 4 to deliver 2 pallets. Expected unload start time is 5.680147002
+Vehicle SP3 travels from 9 to DepotReturn to deliver 0 pallets. Expected unload start time is 10.530461384
+Objective value: 576.785106383
+Solve time: 903</t>
+  </si>
+  <si>
+    <t>Input:
+Customer 1 has 5 pallets demand and window 21-22 at (52.242025697, -37.558585418) and average unload time 0.060925028
+Customer 2 has 2 pallets demand and window 0-24 at (80.08666625, 89.79908273) and average unload time 0.060846624
+Customer 3 has 3 pallets demand and window 0-24 at (-76.004541665, 56.254022023) and average unload time 0.133882725
+Customer 4 has 1 pallets demand and window 0-24 at (-38.970221632, 47.864183667) and average unload time 0.136567037
+Customer 5 has 1 pallets demand and window 0-24 at (-12.545645201, 95.706405588) and average unload time 0.033671477
+Customer 6 has 3 pallets demand and window 0-24 at (-77.815274566, -60.686567365) and average unload time 0.056171014
+Customer 7 has 3 pallets demand and window 0-24 at (-63.286724196, 43.14620552) and average unload time 0.050397432
+Customer 8 has 2 pallets demand and window 0-24 at (-77.959312108, 88.184070164) and average unload time 0.051806891
+Customer 9 has 4 pallets demand and window 14-15 at (-33.625187943, 9.906037379) and average unload time 0.128376737
+Vehicle SP1 is a Rigid with capacity 16, distance cost 1.217404153, and time cost 12.605782265
+Vehicle SP2 is a Rigid with capacity 16, distance cost 1.217404153, and time cost 12.605782265
+Vehicle SP3 is a Rigid with capacity 16, distance cost 1.217404153, and time cost 12.605782265
+Output:
+Vehicle SP1 travels from Depot to 6 to deliver 3 pallets. Expected unload start time is 13.790447845
+Vehicle SP1 travels from 1 to DepotReturn to deliver 0 pallets. Expected unload start time is 22.108898551
+Vehicle SP1 travels from 6 to 9 to deliver 4 pallets. Expected unload start time is 15
+Vehicle SP1 travels from 9 to 1 to deliver 5 pallets. Expected unload start time is 21
+Vehicle SP2 travels from Depot to 2 to deliver 2 pallets. Expected unload start time is 2.622536337
+Vehicle SP2 travels from 2 to 5 to deliver 1 pallets. Expected unload start time is 3.904485591
+Vehicle SP2 travels from 3 to 7 to deliver 3 pallets. Expected unload start time is 5.894646003
+Vehicle SP2 travels from 4 to DepotReturn to deliver 0 pallets. Expected unload start time is 7.263560377
+Vehicle SP2 travels from 5 to 8 to deliver 2 pallets. Expected unload start time is 4.761216656
+Vehicle SP2 travels from 7 to 4 to deliver 1 pallets. Expected unload start time is 6.355462976
+Vehicle SP2 travels from 8 to 3 to deliver 3 pallets. Expected unload start time is 5.264703289
+Objective value: 943.34840135
+Solve time: 630</t>
+  </si>
+  <si>
+    <t>Input:
+Customer 1 has 3 pallets demand and window 0-24 at (55.199752706, 92.270516551) and average unload time 0.082580617
+Customer 2 has 7 pallets demand and window 0-24 at (-9.219046993, 9.340488372) and average unload time 0.027865968
+Customer 3 has 7 pallets demand and window 0-24 at (53.201243029, 33.724291533) and average unload time 0.034162186
+Customer 4 has 8 pallets demand and window 0-24 at (-2.07351141, 20.526012657) and average unload time 0.145305141
+Customer 5 has 5 pallets demand and window 0-24 at (-51.458822894, -93.177875885) and average unload time 0.070482563
+Customer 6 has 2 pallets demand and window 0-24 at (24.378519797, 56.694081281) and average unload time 0.032860335
+Customer 7 has 4 pallets demand and window 0-24 at (40.226127555, 33.812743626) and average unload time 0.103525148
+Customer 8 has 8 pallets demand and window 0-24 at (-37.340658293, -51.906510567) and average unload time 0.159275759
+Customer 9 has 5 pallets demand and window 0-24 at (87.001338102, -1.82168258) and average unload time 0.155082471
+Vehicle SP1 is a 11 metre with capacity 30, distance cost 1.385606652, and time cost 13.494372209
+Vehicle SP2 is a Rigid with capacity 16, distance cost 0.789950237, and time cost 8.668385641
+Vehicle SP3 is a 8 metre with capacity 22, distance cost 0.928967671, and time cost 9.695140341
+Output:
+Vehicle SP1 travels from Depot to 2 to deliver 7 pallets. Expected unload start time is 2.173934945
+Vehicle SP1 travels from 2 to 4 to deliver 8 pallets. Expected unload start time is 2.534910214
+Vehicle SP1 travels from 4 to DepotReturn to deliver 0 pallets. Expected unload start time is 3.955232322
+Vehicle SP2 travels from Depot to 5 to deliver 5 pallets. Expected unload start time is 3.60959428
+Vehicle SP2 travels from 5 to 8 to deliver 8 pallets. Expected unload start time is 4.507249039
+Vehicle SP2 travels from 8 to DepotReturn to deliver 0 pallets. Expected unload start time is 6.580733165
+Vehicle SP3 travels from Depot to 6 to deliver 2 pallets. Expected unload start time is 19.052114944
+Vehicle SP3 travels from 1 to 7 to deliver 4 pallets. Expected unload start time is 20.708271276
+Vehicle SP3 travels from 3 to 9 to deliver 5 pallets. Expected unload start time is 22.136832549
+Vehicle SP3 travels from 6 to 1 to deliver 3 pallets. Expected unload start time is 19.706216754
+Vehicle SP3 travels from 7 to 3 to deliver 7 pallets. Expected unload start time is 21.284564578
+Vehicle SP3 travels from 9 to DepotReturn to deliver 0 pallets. Expected unload start time is 24
+Objective value: 547.761878407
+Solve time: 1531</t>
+  </si>
+  <si>
+    <t>Input:
+Customer 1 has 7 pallets demand and window 21-22 at (-89.28625092, -19.528047969) and average unload time 0.088997757
+Customer 2 has 4 pallets demand and window 0-24 at (-79.777105548, -9.173939447) and average unload time 0.037538711
+Customer 3 has 7 pallets demand and window 16-17 at (-33.418152765, 58.403208605) and average unload time 0.066067793
+Customer 4 has 2 pallets demand and window 21-22 at (-67.423165675, 5.262700744) and average unload time 0.036023941
+Customer 5 has 4 pallets demand and window 0-24 at (98.914487242, 88.355578019) and average unload time 0.095917834
+Customer 6 has 5 pallets demand and window 0-24 at (25.446939165, 21.79538432) and average unload time 0.024113694
+Customer 7 has 3 pallets demand and window 0-24 at (7.056143873, -94.900328213) and average unload time 0.160292982
+Customer 8 has 5 pallets demand and window 0-24 at (40.65728247, -98.782766593) and average unload time 0.093057304
+Customer 9 has 4 pallets demand and window 0-24 at (-29.999410591, 44.744931797) and average unload time 0.040302171
+Vehicle SP1 is a 8 metre with capacity 22, distance cost 1.258715184, and time cost 9.290447785
+Vehicle SP2 is a 8 metre with capacity 22, distance cost 1.258715184, and time cost 9.290447785
+Vehicle SP3 is a Rigid with capacity 16, distance cost 1.192043969, and time cost 12.274343946
+Output:
+Vehicle SP1 travels from Depot to 6 to deliver 5 pallets. Expected unload start time is 13.13618955
+Vehicle SP1 travels from 3 to 9 to deliver 4 pallets. Expected unload start time is 17.21408686
+Vehicle SP1 travels from 4 to DepotReturn to deliver 0 pallets. Expected unload start time is 22.28163343
+Vehicle SP1 travels from 5 to 3 to deliver 7 pallets. Expected unload start time is 16.575616781
+Vehicle SP1 travels from 6 to 5 to deliver 4 pallets. Expected unload start time is 14.495945003
+Vehicle SP1 travels from 9 to 4 to deliver 2 pallets. Expected unload start time is 21.364232506
+Vehicle SP2 travels from Depot to 8 to deliver 5 pallets. Expected unload start time is 18.903391314
+Vehicle SP2 travels from 1 to 2 to deliver 4 pallets. Expected unload start time is 22.600110017
+Vehicle SP2 travels from 2 to DepotReturn to deliver 0 pallets. Expected unload start time is 23.754050488
+Vehicle SP2 travels from 7 to 1 to deliver 7 pallets. Expected unload start time is 21.801398918
+Vehicle SP2 travels from 8 to 7 to deliver 3 pallets. Expected unload start time is 19.791486493
+Objective value: 979.546880192
+Solve time: 2543</t>
+  </si>
+  <si>
+    <t>Input:
+Customer 1 has 1 pallets demand and window 0-24 at (-28.036245659, -17.225052327) and average unload time 0.085209225
+Customer 2 has 2 pallets demand and window 0-24 at (6.541253413, 26.809224103) and average unload time 0.083426014
+Customer 3 has 8 pallets demand and window 0-24 at (-52.993129312, 60.816420932) and average unload time 0.031200118
+Customer 4 has 2 pallets demand and window 0-24 at (-26.68221185, -31.581039335) and average unload time 0.160122462
+Customer 5 has 8 pallets demand and window 0-24 at (-38.012863243, 54.408587385) and average unload time 0.102961038
+Customer 6 has 3 pallets demand and window 0-24 at (-64.239811877, 5.087250814) and average unload time 0.029552876
+Customer 7 has 8 pallets demand and window 0-24 at (-78.765896186, 19.51995595) and average unload time 0.05673099
+Customer 8 has 3 pallets demand and window 0-24 at (44.259367176, 67.001160548) and average unload time 0.098376949
+Customer 9 has 2 pallets demand and window 0-24 at (19.599437022, -1.403263413) and average unload time 0.117583924
+Vehicle SP1 is a 8 metre with capacity 22, distance cost 0.938588771, and time cost 8.318682999
+Vehicle SP2 is a 11 metre with capacity 30, distance cost 1.198179843, and time cost 12.236575487
+Vehicle SP3 is a Rigid with capacity 16, distance cost 0.852943858, and time cost 8.391208035
+Output:
+Vehicle SP1 travels from Depot to 5 to deliver 8 pallets. Expected unload start time is 1.683427341
+Vehicle SP1 travels from 2 to DepotReturn to deliver 0 pallets. Expected unload start time is 5.67440387
+Vehicle SP1 travels from 3 to 8 to deliver 3 pallets. Expected unload start time is 4.178493666
+Vehicle SP1 travels from 5 to 3 to deliver 8 pallets. Expected unload start time is 2.710780773
+Vehicle SP1 travels from 8 to 2 to deliver 2 pallets. Expected unload start time is 5.16260563
+Vehicle SP3 travels from Depot to 7 to deliver 8 pallets. Expected unload start time is 1.683245642
+Vehicle SP3 travels from 1 to 4 to deliver 2 pallets. Expected unload start time is 3.278757186
+Vehicle SP3 travels from 4 to 9 to deliver 2 pallets. Expected unload start time is 4.289641441
+Vehicle SP3 travels from 6 to 1 to deliver 1 pallets. Expected unload start time is 3.013301702
+Vehicle SP3 travels from 7 to 6 to deliver 3 pallets. Expected unload start time is 2.393056844
+Vehicle SP3 travels from 9 to DepotReturn to deliver 0 pallets. Expected unload start time is 4.770429385
+Objective value: 456.272158277
+Solve time: 3773</t>
+  </si>
+  <si>
+    <t>Input:
+Customer 1 has 7 pallets demand and window 0-24 at (-98.295543185, 28.838680271) and average unload time 0.083568028
+Customer 2 has 5 pallets demand and window 0-24 at (96.821349354, 63.117438185) and average unload time 0.154661074
+Customer 3 has 4 pallets demand and window 7-8 at (97.216978838, 83.925177555) and average unload time 0.139958536
+Customer 4 has 1 pallets demand and window 0-24 at (-88.163994032, 77.205049211) and average unload time 0.095396073
+Customer 5 has 4 pallets demand and window 0-24 at (-8.699768513, 95.259228286) and average unload time 0.09703133
+Customer 6 has 5 pallets demand and window 0-24 at (7.063486625, 29.899217106) and average unload time 0.138400927
+Customer 7 has 4 pallets demand and window 0-24 at (-42.340526342, -76.733334433) and average unload time 0.055918578
+Customer 8 has 5 pallets demand and window 0-24 at (28.874725285, 43.538279874) and average unload time 0.158006715
+Customer 9 has 2 pallets demand and window 0-24 at (97.816526146, 67.10313042) and average unload time 0.144491724
+Vehicle SP1 is a 11 metre with capacity 30, distance cost 1.406355449, and time cost 8.172318788
+Vehicle SP2 is a Rigid with capacity 16, distance cost 1.121860194, and time cost 11.033705054
+Vehicle SP3 is a Rigid with capacity 16, distance cost 1.121860194, and time cost 11.033705054
+Output:
+Vehicle SP1 travels from Depot to 2 to deliver 5 pallets. Expected unload start time is 5.675951392
+Vehicle SP1 travels from 2 to 9 to deliver 2 pallets. Expected unload start time is 6.500607453
+Vehicle SP1 travels from 3 to 8 to deliver 5 pallets. Expected unload start time is 8.552129868
+Vehicle SP1 travels from 6 to DepotReturn to deliver 0 pallets. Expected unload start time is 10.739753364
+Vehicle SP1 travels from 8 to 6 to deliver 5 pallets. Expected unload start time is 9.663720728
+Vehicle SP1 travels from 9 to 3 to deliver 4 pallets. Expected unload start time is 7
+Vehicle SP2 travels from Depot to 5 to deliver 4 pallets. Expected unload start time is 0.981476253
+Vehicle SP2 travels from 1 to 7 to deliver 4 pallets. Expected unload start time is 5.179841892
+Vehicle SP2 travels from 4 to 1 to deliver 7 pallets. Expected unload start time is 3.101316329
+Vehicle SP2 travels from 5 to 4 to deliver 1 pallets. Expected unload start time is 2.388218628
+Vehicle SP2 travels from 7 to DepotReturn to deliver 0 pallets. Expected unload start time is 6.499013009
+Objective value: 883.239440793
+Solve time: 3816</t>
+  </si>
+  <si>
+    <t>Input:
+Customer 1 has 3 pallets demand and window 0-24 at (-23.498030785, -43.856113603) and average unload time 0.027194175
+Customer 2 has 6 pallets demand and window 0-24 at (-42.128056612, -6.3881824) and average unload time 0.10469054
+Customer 3 has 4 pallets demand and window 0-24 at (-28.447896907, -82.395985978) and average unload time 0.133794218
+Customer 4 has 8 pallets demand and window 18-19 at (-8.071222481, 60.450597312) and average unload time 0.125079448
+Customer 5 has 7 pallets demand and window 11-12 at (-13.987889762, 78.726906583) and average unload time 0.115873077
+Customer 6 has 8 pallets demand and window 0-24 at (73.37704875, -1.017657956) and average unload time 0.061360482
+Customer 7 has 8 pallets demand and window 17-18 at (50.515733871, -24.98392526) and average unload time 0.138882183
+Customer 8 has 8 pallets demand and window 0-24 at (-37.382049308, 59.184789059) and average unload time 0.049230978
+Customer 9 has 3 pallets demand and window 0-24 at (-32.073023358, 18.506660692) and average unload time 0.157897097
+Vehicle SP1 is a Rigid with capacity 16, distance cost 1.391749975, and time cost 7.990959105
+Vehicle SP2 is a 11 metre with capacity 30, distance cost 0.876921746, and time cost 13.74369752
+Vehicle SP3 is a 8 metre with capacity 22, distance cost 0.920394129, and time cost 11.80192324
+Output:
+Vehicle SP1 travels from Depot to 7 to deliver 6 pallets. Expected unload start time is 17
+Vehicle SP1 travels from 6 to DepotReturn to deliver 0 pallets. Expected unload start time is 19.655494737
+Vehicle SP1 travels from 7 to 6 to deliver 8 pallets. Expected unload start time is 18.247309567
+Vehicle SP2 travels from Depot to 9 to deliver 3 pallets. Expected unload start time is 9.528115334
+Vehicle SP2 travels from 4 to DepotReturn to deliver 0 pallets. Expected unload start time is 19.762973617
+Vehicle SP2 travels from 5 to 4 to deliver 8 pallets. Expected unload start time is 18
+Vehicle SP2 travels from 8 to 5 to deliver 7 pallets. Expected unload start time is 11.289474264
+Vehicle SP2 travels from 9 to 8 to deliver 8 pallets. Expected unload start time is 10.51459555
+Vehicle SP3 travels from Depot to 2 to deliver 6 pallets. Expected unload start time is 14.52598026
+Vehicle SP3 travels from 1 to 3 to deliver 4 pallets. Expected unload start time is 16.244462033
+Vehicle SP3 travels from 2 to 1 to deliver 3 pallets. Expected unload start time is 15.677174006
+Vehicle SP3 travels from 3 to 7 to deliver 2 pallets. Expected unload start time is 18
+Vehicle SP3 travels from 7 to DepotReturn to deliver 0 pallets. Expected unload start time is 18.982218486
+Objective value: 674.552529342
+Solve time: 2016</t>
+  </si>
+  <si>
+    <t>Input:
+Customer 1 has 1 pallets demand and window 0-24 at (11.834520083, -34.69497582) and average unload time 0.12405363
+Customer 2 has 3 pallets demand and window 0-24 at (41.605570864, -6.837804372) and average unload time 0.084174776
+Customer 3 has 2 pallets demand and window 0-24 at (49.137565848, -98.744237743) and average unload time 0.023682467
+Customer 4 has 7 pallets demand and window 0-24 at (-15.247758841, -11.424281151) and average unload time 0.062313629
+Customer 5 has 6 pallets demand and window 0-24 at (19.481063592, -15.934477677) and average unload time 0.080422101
+Customer 6 has 7 pallets demand and window 0-24 at (52.746074388, -86.665776016) and average unload time 0.0924843
+Customer 7 has 2 pallets demand and window 0-24 at (-53.285214813, 74.566670395) and average unload time 0.111332598
+Customer 8 has 4 pallets demand and window 15-16 at (71.682839032, -32.000895689) and average unload time 0.13230102
+Customer 9 has 2 pallets demand and window 0-24 at (85.797636292, 34.928659846) and average unload time 0.066455263
+Vehicle SP1 is a Rigid with capacity 16, distance cost 0.881355464, and time cost 12.97673142
+Vehicle SP2 is a Rigid with capacity 16, distance cost 0.881355464, and time cost 12.97673142
+Vehicle SP3 is a 11 metre with capacity 30, distance cost 1.478781298, and time cost 13.61829347
+Output:
+Vehicle SP1 travels from Depot to 1 to deliver 1 pallets. Expected unload start time is 13.373962783
+Vehicle SP1 travels from 1 to 3 to deliver 2 pallets. Expected unload start time is 14.424520694
+Vehicle SP1 travels from 3 to 6 to deliver 7 pallets. Expected unload start time is 14.629460299
+Vehicle SP1 travels from 6 to 8 to deliver 4 pallets. Expected unload start time is 16
+Vehicle SP1 travels from 8 to DepotReturn to deliver 0 pallets. Expected unload start time is 17.510472929
+Vehicle SP2 travels from Depot to 7 to deliver 2 pallets. Expected unload start time is 2.193756855
+Vehicle SP2 travels from 2 to 5 to deliver 6 pallets. Expected unload start time is 5.668714203
+Vehicle SP2 travels from 5 to DepotReturn to deliver 0 pallets. Expected unload start time is 6.46584462
+Vehicle SP2 travels from 7 to 9 to deliver 2 pallets. Expected unload start time is 4.224183587
+Vehicle SP2 travels from 9 to 2 to deliver 3 pallets. Expected unload start time is 5.117169785
+Vehicle SP3 travels from Depot to 4 to deliver 7 pallets. Expected unload start time is 0.878984584
+Vehicle SP3 travels from 4 to DepotReturn to deliver 0 pallets. Expected unload start time is 1.553339713
+Objective value: 604.108253426
+Solve time: 1630</t>
+  </si>
+  <si>
+    <t>Input:
+Customer 1 has 4 pallets demand and window 0-24 at (-99.384142277, 45.343950296) and average unload time 0.032665165
+Customer 2 has 6 pallets demand and window 17-18 at (26.906318094, 93.004308817) and average unload time 0.072299486
+Customer 3 has 3 pallets demand and window 0-24 at (39.793715646, 36.264311174) and average unload time 0.161174762
+Customer 4 has 1 pallets demand and window 0-24 at (-45.584629966, 73.541804588) and average unload time 0.076915755
+Customer 5 has 4 pallets demand and window 15-16 at (92.119950497, 71.722666783) and average unload time 0.03681219
+Customer 6 has 5 pallets demand and window 0-24 at (-55.135378164, 46.926938175) and average unload time 0.036623955
+Customer 7 has 1 pallets demand and window 0-24 at (86.668141625, -74.823457892) and average unload time 0.129965851
+Customer 8 has 1 pallets demand and window 0-24 at (79.494514253, -71.872661892) and average unload time 0.133865056
+Customer 9 has 4 pallets demand and window 0-24 at (46.837818675, 77.049469898) and average unload time 0.163891254
+Vehicle SP1 is a 11 metre with capacity 30, distance cost 0.887695141, and time cost 11.885378503
+Vehicle SP2 is a 8 metre with capacity 22, distance cost 0.840698825, and time cost 8.869332308
+Vehicle SP3 is a 8 metre with capacity 22, distance cost 0.840698825, and time cost 8.869332308
+Output:
+Vehicle SP1 travels from Depot to 8 to deliver 1 pallets. Expected unload start time is 12.858421861
+Vehicle SP1 travels from 1 to 6 to deliver 5 pallets. Expected unload start time is 20.749808698
+Vehicle SP1 travels from 2 to 4 to deliver 1 pallets. Expected unload start time is 19.229502548
+Vehicle SP1 travels from 3 to 5 to deliver 4 pallets. Expected unload start time is 16
+Vehicle SP1 travels from 4 to 1 to deliver 4 pallets. Expected unload start time is 20.065684655
+Vehicle SP1 travels from 5 to 9 to deliver 4 pallets. Expected unload start time is 16.717178347
+Vehicle SP1 travels from 6 to DepotReturn to deliver 0 pallets. Expected unload start time is 21.837953288
+Vehicle SP1 travels from 7 to 3 to deliver 3 pallets. Expected unload start time is 14.726367945
+Vehicle SP1 travels from 8 to 7 to deliver 1 pallets. Expected unload start time is 13.089247062
+Vehicle SP1 travels from 9 to 2 to deliver 6 pallets. Expected unload start time is 17.857478693
+Objective value: 566.836248779
+Solve time: 976</t>
+  </si>
+  <si>
+    <t>Input:
+Customer 1 has 2 pallets demand and window 0-24 at (58.136684707, -26.441764245) and average unload time 0.032763661
+Customer 2 has 7 pallets demand and window 0-24 at (-77.096934301, -54.358144462) and average unload time 0.14806159
+Customer 3 has 1 pallets demand and window 0-24 at (-33.146269773, -7.753749214) and average unload time 0.095463657
+Customer 4 has 5 pallets demand and window 0-24 at (-88.699565429, 28.971606178) and average unload time 0.097431793
+Customer 5 has 4 pallets demand and window 0-24 at (-85.563897921, 38.136155836) and average unload time 0.042896975
+Customer 6 has 5 pallets demand and window 0-24 at (72.180161191, 83.848102005) and average unload time 0.11480309
+Customer 7 has 2 pallets demand and window 0-24 at (15.254529139, -90.29246243) and average unload time 0.090187027
+Customer 8 has 2 pallets demand and window 0-24 at (81.001856574, 65.177375203) and average unload time 0.152539253
+Customer 9 has 5 pallets demand and window 9-10 at (-10.618826821, 64.993717494) and average unload time 0.058308821
+Customer 10 has 7 pallets demand and window 0-24 at (-45.10751855, -61.309276312) and average unload time 0.125640255
+Customer 11 has 3 pallets demand and window 0-24 at (69.388990094, 13.749597423) and average unload time 0.058823878
+Customer 12 has 3 pallets demand and window 0-24 at (-45.167077703, 83.110546919) and average unload time 0.108844869
+Vehicle SP1 is a 11 metre with capacity 30, distance cost 1.189868305, and time cost 12.59651053
+Vehicle SP2 is a 11 metre with capacity 30, distance cost 1.189868305, and time cost 12.59651053
+Vehicle SP3 is a Rigid with capacity 16, distance cost 0.718181403, and time cost 7.083074547
+Output:
+Vehicle SP1 travels from Depot to 9 to deliver 3 pallets. Expected unload start time is 9
+Vehicle SP1 travels from 2 to 10 to deliver 7 pallets. Expected unload start time is 14.021879745
+Vehicle SP1 travels from 3 to DepotReturn to deliver 0 pallets. Expected unload start time is 16.108276352
+Vehicle SP1 travels from 4 to 2 to deliver 7 pallets. Expected unload start time is 12.576249519
+Vehicle SP1 travels from 5 to 4 to deliver 5 pallets. Expected unload start time is 11.037420126
+Vehicle SP1 travels from 9 to 12 to deliver 3 pallets. Expected unload start time is 9.662554836
+Vehicle SP1 travels from 10 to 3 to deliver 1 pallets. Expected unload start time is 15.587299067
+Vehicle SP1 travels from 12 to 5 to deliver 4 pallets. Expected unload start time is 10.744755429
+Vehicle SP3 travels from Depot to 7 to deliver 2 pallets. Expected unload start time is 5.236757462
+Vehicle SP3 travels from 1 to 11 to deliver 3 pallets. Expected unload start time is 6.965795994
+Vehicle SP3 travels from 6 to 9 to deliver 2 pallets. Expected unload start time is 10
+Vehicle SP3 travels from 7 to 1 to deliver 2 pallets. Expected unload start time is 6.378558753
+Vehicle SP3 travels from 8 to 6 to deliver 5 pallets. Expected unload start time is 8.364502668
+Vehicle SP3 travels from 9 to DepotReturn to deliver 0 pallets. Expected unload start time is 10.939811005
+Vehicle SP3 travels from 11 to 8 to deliver 2 pallets. Expected unload start time is 7.801300419
+Objective value: 784.2446733
+Solve time: 2359</t>
+  </si>
+  <si>
+    <t>Input:
+Customer 1 has 2 pallets demand and window 0-24 at (86.117323523, 65.481263002) and average unload time 0.088372233
+Customer 2 has 1 pallets demand and window 0-24 at (11.386501748, 9.118109776) and average unload time 0.135651791
+Customer 3 has 3 pallets demand and window 0-24 at (-83.038914509, -54.086114592) and average unload time 0.142420069
+Customer 4 has 4 pallets demand and window 0-24 at (-12.061799309, 52.815222792) and average unload time 0.047976475
+Customer 5 has 4 pallets demand and window 0-24 at (-7.099027444, 81.712006187) and average unload time 0.030167357
+Customer 6 has 3 pallets demand and window 20-21 at (-1.317010856, 26.505204508) and average unload time 0.122575167
+Customer 7 has 3 pallets demand and window 0-24 at (56.649920959, 6.281035802) and average unload time 0.158655377
+Customer 8 has 3 pallets demand and window 0-24 at (-77.574870936, 73.68215215) and average unload time 0.157509373
+Customer 9 has 1 pallets demand and window 0-24 at (-42.356552226, 45.816070468) and average unload time 0.064872657
+Customer 10 has 2 pallets demand and window 0-24 at (-57.296054691, 15.965186213) and average unload time 0.112501542
+Customer 11 has 2 pallets demand and window 0-24 at (76.894936111, 4.803673156) and average unload time 0.050803723
+Customer 12 has 2 pallets demand and window 0-24 at (-73.279703944, -10.807017454) and average unload time 0.149062821
+Vehicle SP1 is a 8 metre with capacity 22, distance cost 1.105811318, and time cost 13.645681258
+Vehicle SP2 is a Rigid with capacity 16, distance cost 0.715369757, and time cost 8.270423873
+Vehicle SP3 is a 11 metre with capacity 30, distance cost 1.339517775, and time cost 11.301841195
+Output:
+Vehicle SP1 travels from Depot to 2 to deliver 1 pallets. Expected unload start time is 16.305158422
+Vehicle SP1 travels from 1 to 5 to deliver 4 pallets. Expected unload start time is 19.96568298
+Vehicle SP1 travels from 2 to 7 to deliver 3 pallets. Expected unload start time is 17.007713273
+Vehicle SP1 travels from 4 to 6 to deliver 3 pallets. Expected unload start time is 21
+Vehicle SP1 travels from 5 to 4 to deliver 4 pallets. Expected unload start time is 20.452850447
+Vehicle SP1 travels from 6 to DepotReturn to deliver 0 pallets. Expected unload start time is 21.69944931
+Vehicle SP1 travels from 7 to 11 to deliver 2 pallets. Expected unload start time is 17.737415007
+Vehicle SP1 travels from 11 to 1 to deliver 2 pallets. Expected unload start time is 18.606202999
+Vehicle SP2 travels from Depot to 3 to deliver 3 pallets. Expected unload start time is 2.023356668
+Vehicle SP2 travels from 3 to 12 to deliver 2 pallets. Expected unload start time is 3.005189125
+Vehicle SP2 travels from 8 to 9 to deliver 1 pallets. Expected unload start time is 5.716667299
+Vehicle SP2 travels from 9 to DepotReturn to deliver 0 pallets. Expected unload start time is 6.561482845
+Vehicle SP2 travels from 10 to 8 to deliver 3 pallets. Expected unload start time is 4.682772478
+Vehicle SP2 travels from 12 to 10 to deliver 2 pallets. Expected unload start time is 3.69307189
+Objective value: 613.378326109
+Solve time: 8640</t>
+  </si>
+  <si>
+    <t>Input:
+Customer 1 has 4 pallets demand and window 0-24 at (-95.616703662, -14.90802781) and average unload time 0.164037861
+Customer 2 has 1 pallets demand and window 0-24 at (60.574613574, 15.084761202) and average unload time 0.046722152
+Customer 3 has 5 pallets demand and window 0-24 at (38.903806148, -6.244411379) and average unload time 0.12387024
+Customer 4 has 1 pallets demand and window 0-24 at (82.618616793, 91.986613719) and average unload time 0.163432495
+Customer 5 has 3 pallets demand and window 0-24 at (-64.569227931, -35.02548619) and average unload time 0.017744501
+Customer 6 has 2 pallets demand and window 0-24 at (28.55399114, 49.51590747) and average unload time 0.045236223
+Customer 7 has 1 pallets demand and window 0-24 at (13.900357526, -72.632931412) and average unload time 0.154511811
+Customer 8 has 2 pallets demand and window 0-24 at (78.650216526, -53.710114764) and average unload time 0.146290115
+Customer 9 has 3 pallets demand and window 0-24 at (9.028883805, 31.501159304) and average unload time 0.056475417
+Customer 10 has 3 pallets demand and window 0-24 at (36.708957002, 41.023413062) and average unload time 0.101814173
+Customer 11 has 4 pallets demand and window 0-24 at (35.774116101, -8.332906265) and average unload time 0.024458822
+Customer 12 has 5 pallets demand and window 0-24 at (-31.401690001, 29.31165252) and average unload time 0.026281485
+Vehicle SP1 is a 11 metre with capacity 30, distance cost 1.307276887, and time cost 7.965817878
+Vehicle SP2 is a 8 metre with capacity 22, distance cost 1.348352342, and time cost 10.47674768
+Vehicle SP3 is a Rigid with capacity 16, distance cost 0.978947144, and time cost 7.825834562
+Output:
+Vehicle SP1 travels from Depot to 11 to deliver 4 pallets. Expected unload start time is 0.866198409
+Vehicle SP1 travels from 2 to 4 to deliver 1 pallets. Expected unload start time is 3.057207572
+Vehicle SP1 travels from 3 to 2 to deliver 1 pallets. Expected unload start time is 2.010498467
+Vehicle SP1 travels from 4 to 10 to deliver 3 pallets. Expected unload start time is 4.078047558
+Vehicle SP1 travels from 6 to 9 to deliver 3 pallets. Expected unload start time is 4.953213942
+Vehicle SP1 travels from 9 to DepotReturn to deliver 0 pallets. Expected unload start time is 5.53225964
+Vehicle SP1 travels from 10 to 6 to deliver 2 pallets. Expected unload start time is 4.530664469
+Vehicle SP1 travels from 11 to 3 to deliver 5 pallets. Expected unload start time is 1.011065554
+Vehicle SP3 travels from Depot to 8 to deliver 2 pallets. Expected unload start time is 1.511854422
+Vehicle SP3 travels from 1 to 12 to deliver 5 pallets. Expected unload start time is 6.036297845
+Vehicle SP3 travels from 5 to 1 to deliver 4 pallets. Expected unload start time is 4.405551284
+Vehicle SP3 travels from 7 to 5 to deliver 3 pallets. Expected unload start time is 3.889875576
+Vehicle SP3 travels from 8 to 7 to deliver 1 pallets. Expected unload start time is 2.647662938
+Vehicle SP3 travels from 12 to DepotReturn to deliver 0 pallets. Expected unload start time is 6.704658352
+Objective value: 791.185916429
+Solve time: 1565</t>
+  </si>
+  <si>
+    <t>Input:
+Customer 1 has 4 pallets demand and window 0-24 at (-75.904887286, -33.901246897) and average unload time 0.036907913
+Customer 2 has 6 pallets demand and window 0-24 at (35.865499648, 34.318194739) and average unload time 0.099555942
+Customer 3 has 1 pallets demand and window 7-8 at (-45.439845304, -57.829814824) and average unload time 0.135135367
+Customer 4 has 5 pallets demand and window 0-24 at (-49.038719368, 74.20390258) and average unload time 0.124904078
+Customer 5 has 8 pallets demand and window 0-24 at (-96.771962331, 19.003606624) and average unload time 0.020950346
+Customer 6 has 7 pallets demand and window 0-24 at (25.523352131, 63.165207519) and average unload time 0.067005513
+Customer 7 has 4 pallets demand and window 0-24 at (-80.131132949, -52.768444104) and average unload time 0.160780693
+Customer 8 has 5 pallets demand and window 0-24 at (10.69903155, 61.634753428) and average unload time 0.138298246
+Customer 9 has 3 pallets demand and window 0-24 at (6.558687414, 63.856178085) and average unload time 0.165840326
+Customer 10 has 5 pallets demand and window 0-24 at (-82.108738454, 79.105351146) and average unload time 0.11362577
+Customer 11 has 8 pallets demand and window 0-24 at (94.509655321, -58.892451018) and average unload time 0.104296894
+Customer 12 has 1 pallets demand and window 0-24 at (-73.823311462, -49.915151327) and average unload time 0.119401005
+Vehicle SP1 is a 11 metre with capacity 30, distance cost 1.030656201, and time cost 11.647081329
+Vehicle SP2 is a 11 metre with capacity 30, distance cost 1.030656201, and time cost 11.647081329
+Vehicle SP3 is a 11 metre with capacity 30, distance cost 1.030656201, and time cost 11.647081329
+Output:
+Vehicle SP1 travels from Depot to 9 to deliver 3 pallets. Expected unload start time is 17.178202075
+Vehicle SP1 travels from 2 to 11 to deliver 8 pallets. Expected unload start time is 21.438225438
+Vehicle SP1 travels from 6 to 2 to deliver 6 pallets. Expected unload start time is 19.464336036
+Vehicle SP1 travels from 8 to 6 to deliver 7 pallets. Expected unload start time is 18.612236138
+Vehicle SP1 travels from 9 to 8 to deliver 5 pallets. Expected unload start time is 17.734455998
+Vehicle SP1 travels from 11 to DepotReturn to deliver 0 pallets. Expected unload start time is 23.66456389
+Vehicle SP2 travels from Depot to 3 to deliver 1 pallets. Expected unload start time is 7
+Vehicle SP2 travels from 1 to 5 to deliver 8 pallets. Expected unload start time is 9.452735891
+Vehicle SP2 travels from 3 to 12 to deliver 1 pallets. Expected unload start time is 7.503464162
+Vehicle SP2 travels from 4 to DepotReturn to deliver 0 pallets. Expected unload start time is 13.115985085
+Vehicle SP2 travels from 5 to 10 to deliver 5 pallets. Expected unload start time is 10.393646273
+Vehicle SP2 travels from 7 to 1 to deliver 4 pallets. Expected unload start time is 8.594211497
+Vehicle SP2 travels from 10 to 4 to deliver 5 pallets. Expected unload start time is 11.3796661
+Vehicle SP2 travels from 12 to 7 to deliver 4 pallets. Expected unload start time is 7.709404439
+Objective value: 750.874249065
+Solve time: 5289</t>
+  </si>
+  <si>
+    <t>Input:
+Customer 1 has 4 pallets demand and window 0-24 at (92.548667144, -73.357619901) and average unload time 0.017126286
+Customer 2 has 5 pallets demand and window 0-24 at (-82.174744291, -40.392993107) and average unload time 0.039157449
+Customer 3 has 1 pallets demand and window 0-24 at (98.60219856, 30.795887454) and average unload time 0.109698391
+Customer 4 has 3 pallets demand and window 0-24 at (9.340767359, -4.281575518) and average unload time 0.103485874
+Customer 5 has 3 pallets demand and window 0-24 at (0.52016853, 11.912121382) and average unload time 0.067915279
+Customer 6 has 1 pallets demand and window 0-24 at (26.675194947, 54.778317546) and average unload time 0.12947012
+Customer 7 has 2 pallets demand and window 0-24 at (77.325532086, -39.027597763) and average unload time 0.162717697
+Customer 8 has 3 pallets demand and window 0-24 at (-5.322273946, 72.791050058) and average unload time 0.047500614
+Customer 9 has 1 pallets demand and window 0-24 at (-11.02803494, -72.996487792) and average unload time 0.116089802
+Customer 10 has 5 pallets demand and window 0-24 at (90.140395094, 53.663028102) and average unload time 0.110889208
+Customer 11 has 2 pallets demand and window 0-24 at (-39.84926661, 97.629414115) and average unload time 0.108312424
+Customer 12 has 4 pallets demand and window 0-24 at (-57.721835769, 99.587993509) and average unload time 0.155609479
+Vehicle SP1 is a 8 metre with capacity 22, distance cost 1.094894511, and time cost 7.647030743
+Vehicle SP2 is a 11 metre with capacity 30, distance cost 1.244930608, and time cost 11.178722916
+Vehicle SP3 is a Rigid with capacity 16, distance cost 1.257635831, and time cost 13.305321033
+Output:
+Vehicle SP1 travels from Depot to 4 to deliver 3 pallets. Expected unload start time is 23.459040621
+Vehicle SP1 travels from 4 to 5 to deliver 3 pallets. Expected unload start time is 24
+Vehicle SP1 travels from 5 to DepotReturn to deliver 0 pallets. Expected unload start time is 24.352789251
+Vehicle SP2 travels from Depot to 2 to deliver 5 pallets. Expected unload start time is 1.789878485
+Vehicle SP2 travels from 1 to 7 to deliver 2 pallets. Expected unload start time is 4.912668014
+Vehicle SP2 travels from 2 to 9 to deliver 1 pallets. Expected unload start time is 2.96393286
+Vehicle SP2 travels from 3 to 10 to deliver 5 pallets. Expected unload start time is 6.564999262
+Vehicle SP2 travels from 6 to 8 to deliver 3 pallets. Expected unload start time is 8.501342382
+Vehicle SP2 travels from 7 to 3 to deliver 1 pallets. Expected unload start time is 6.150519126
+Vehicle SP2 travels from 8 to 11 to deliver 2 pallets. Expected unload start time is 9.17550694
+Vehicle SP2 travels from 9 to 1 to deliver 4 pallets. Expected unload start time is 4.374739308
+Vehicle SP2 travels from 10 to 6 to deliver 1 pallets. Expected unload start time is 7.912882789
+Vehicle SP2 travels from 11 to 12 to deliver 4 pallets. Expected unload start time is 9.616876351
+Vehicle SP2 travels from 12 to DepotReturn to deliver 0 pallets. Expected unload start time is 11.678149448
+Objective value: 909.070915683
+Solve time: 7905</t>
+  </si>
+  <si>
+    <t>Input:
+Customer 1 has 3 pallets demand and window 0-24 at (37.652672576, 35.912239711) and average unload time 0.042599216
+Customer 2 has 6 pallets demand and window 16-17 at (-11.389300044, -74.418600401) and average unload time 0.139676652
+Customer 3 has 3 pallets demand and window 0-24 at (32.078964613, -74.767833741) and average unload time 0.081881391
+Customer 4 has 6 pallets demand and window 0-24 at (-46.19662806, -10.333480366) and average unload time 0.070599869
+Customer 5 has 7 pallets demand and window 0-24 at (41.663142713, -52.316607614) and average unload time 0.123150209
+Customer 6 has 2 pallets demand and window 0-24 at (-96.41491141, -66.273754058) and average unload time 0.102654692
+Customer 7 has 3 pallets demand and window 0-24 at (41.765437884, 62.420951806) and average unload time 0.126725978
+Customer 8 has 6 pallets demand and window 0-24 at (44.217159643, -35.20491399) and average unload time 0.077101587
+Customer 9 has 3 pallets demand and window 0-24 at (95.16719932, 89.00238381) and average unload time 0.150508328
+Customer 10 has 5 pallets demand and window 0-24 at (45.989232769, -23.708430578) and average unload time 0.166087738
+Customer 11 has 3 pallets demand and window 0-24 at (85.759380661, 12.580634432) and average unload time 0.026851312
+Customer 12 has 5 pallets demand and window 19-20 at (13.233280445, 46.159029325) and average unload time 0.083919279
+Vehicle SP1 is a 8 metre with capacity 22, distance cost 1.244320154, and time cost 10.772827988
+Vehicle SP2 is a 8 metre with capacity 22, distance cost 1.244320154, and time cost 10.772827988
+Vehicle SP3 is a 11 metre with capacity 30, distance cost 0.832252107, and time cost 14.949155781
+Output:
+Vehicle SP1 travels from Depot to 10 to deliver 5 pallets. Expected unload start time is 12.507803074
+Vehicle SP1 travels from 2 to DepotReturn to deliver 0 pallets. Expected unload start time is 17.19946863
+Vehicle SP1 travels from 3 to 2 to deliver 1 pallets. Expected unload start time is 16.118728398
+Vehicle SP1 travels from 5 to 3 to deliver 3 pallets. Expected unload start time is 15.329713381
+Vehicle SP1 travels from 8 to 5 to deliver 7 pallets. Expected unload start time is 14.162520041
+Vehicle SP1 travels from 10 to 8 to deliver 6 pallets. Expected unload start time is 13.483644962
+Vehicle SP3 travels from Depot to 4 to deliver 6 pallets. Expected unload start time is 14.363726049
+Vehicle SP3 travels from 1 to DepotReturn to deliver 0 pallets. Expected unload start time is 24.13373653
+Vehicle SP3 travels from 2 to 12 to deliver 5 pallets. Expected unload start time is 19.23670805
+Vehicle SP3 travels from 4 to 6 to deliver 2 pallets. Expected unload start time is 15.727005247
+Vehicle SP3 travels from 6 to 2 to deliver 5 pallets. Expected unload start time is 17
+Vehicle SP3 travels from 7 to 9 to deliver 3 pallets. Expected unload start time is 21.192641183
+Vehicle SP3 travels from 9 to 11 to deliver 3 pallets. Expected unload start time is 22.606649189
+Vehicle SP3 travels from 11 to 1 to deliver 3 pallets. Expected unload start time is 23.355528829
+Vehicle SP3 travels from 12 to 7 to deliver 3 pallets. Expected unload start time is 20.066817486
+Objective value: 805.729627885
+Solve time: 2023</t>
+  </si>
+  <si>
+    <t>Input:
+Customer 1 has 1 pallets demand and window 14-15 at (-60.507168905, -25.526932952) and average unload time 0.037034357
+Customer 2 has 1 pallets demand and window 0-24 at (-38.189779923, -94.309764347) and average unload time 0.115327914
+Customer 3 has 4 pallets demand and window 0-24 at (-74.910619843, -73.3252013) and average unload time 0.132937853
+Customer 4 has 4 pallets demand and window 0-24 at (38.821132083, 53.458202703) and average unload time 0.090394102
+Customer 5 has 3 pallets demand and window 0-24 at (83.423829878, 67.098255883) and average unload time 0.140649525
+Customer 6 has 5 pallets demand and window 0-24 at (64.613585345, -94.943504967) and average unload time 0.094746423
+Customer 7 has 6 pallets demand and window 0-24 at (77.664393945, -95.71897065) and average unload time 0.026822226
+Customer 8 has 2 pallets demand and window 0-24 at (81.400233235, 9.810572514) and average unload time 0.065393663
+Customer 9 has 3 pallets demand and window 0-24 at (-4.455340437, -79.27703137) and average unload time 0.128110057
+Customer 10 has 5 pallets demand and window 0-24 at (37.530836044, 2.454189788) and average unload time 0.12640122
+Customer 11 has 5 pallets demand and window 0-24 at (28.95071548, -92.484593427) and average unload time 0.124947212
+Customer 12 has 2 pallets demand and window 0-24 at (-78.15775898, -81.622366279) and average unload time 0.146475928
+Vehicle SP1 is a 11 metre with capacity 30, distance cost 1.028382282, and time cost 7.461307044
+Vehicle SP2 is a Rigid with capacity 16, distance cost 0.958236836, and time cost 12.651470464
+Vehicle SP3 is a 8 metre with capacity 22, distance cost 1.148904583, and time cost 8.596049958
+Output:
+Vehicle SP1 travels from Depot to 1 to deliver 1 pallets. Expected unload start time is 14
+Vehicle SP1 travels from 1 to 3 to deliver 4 pallets. Expected unload start time is 14.661050314
+Vehicle SP1 travels from 2 to 9 to deliver 3 pallets. Expected unload start time is 16.698276898
+Vehicle SP1 travels from 3 to 12 to deliver 2 pallets. Expected unload start time is 15.304175854
+Vehicle SP1 travels from 6 to 7 to deliver 6 pallets. Expected unload start time is 19.240369787
+Vehicle SP1 travels from 7 to DepotReturn to deliver 0 pallets. Expected unload start time is 20.942096337
+Vehicle SP1 travels from 9 to 11 to deliver 5 pallets. Expected unload start time is 17.531634538
+Vehicle SP1 travels from 11 to 6 to deliver 5 pallets. Expected unload start time is 18.603214832
+Vehicle SP1 travels from 12 to 2 to deliver 1 pallets. Expected unload start time is 16.121295118
+Vehicle SP2 travels from Depot to 10 to deliver 5 pallets. Expected unload start time is 2.639166148
+Vehicle SP2 travels from 4 to DepotReturn to deliver 0 pallets. Expected unload start time is 6.866911377
+Vehicle SP2 travels from 5 to 4 to deliver 4 pallets. Expected unload start time is 5.679496406
+Vehicle SP2 travels from 8 to 5 to deliver 3 pallets. Expected unload start time is 4.67452611
+Vehicle SP2 travels from 10 to 8 to deliver 2 pallets. Expected unload start time is 3.82719613
+Objective value: 683.459790607
+Solve time: 3644</t>
+  </si>
+  <si>
+    <t>Input:
+Customer 1 has 7 pallets demand and window 0-24 at (-96.976225809, 35.392978003) and average unload time 0.108952464
+Customer 2 has 5 pallets demand and window 0-24 at (92.805812899, -11.557704117) and average unload time 0.154347468
+Customer 3 has 4 pallets demand and window 0-24 at (96.253615335, -51.11900683) and average unload time 0.036324849
+Customer 4 has 2 pallets demand and window 0-24 at (77.372293068, 60.185631192) and average unload time 0.123839806
+Customer 5 has 5 pallets demand and window 0-24 at (52.239480919, 33.729206953) and average unload time 0.096280247
+Customer 6 has 7 pallets demand and window 0-24 at (-79.341873904, 95.001549567) and average unload time 0.096969592
+Customer 7 has 5 pallets demand and window 0-24 at (73.631219313, 68.646819041) and average unload time 0.136760287
+Customer 8 has 5 pallets demand and window 0-24 at (5.351441457, 99.852709283) and average unload time 0.136049259
+Customer 9 has 7 pallets demand and window 0-24 at (99.990405193, 43.89394004) and average unload time 0.119619213
+Customer 10 has 7 pallets demand and window 0-24 at (-75.338522218, -82.792238402) and average unload time 0.043494272
+Customer 11 has 5 pallets demand and window 0-24 at (-95.51753004, -50.791695921) and average unload time 0.095183702
+Customer 12 has 7 pallets demand and window 0-24 at (22.571139784, -41.754104901) and average unload time 0.022537691
+Vehicle SP1 is a 8 metre with capacity 22, distance cost 1.092602798, and time cost 8.519132061
+Vehicle SP2 is a 11 metre with capacity 30, distance cost 0.993721682, and time cost 9.497152383
+Vehicle SP3 is a 8 metre with capacity 22, distance cost 1.092602798, and time cost 8.519132061
+Output:
+Vehicle SP1 travels from Depot to 1 to deliver 7 pallets. Expected unload start time is 4.386266934
+Vehicle SP1 travels from 1 to 6 to deliver 7 pallets. Expected unload start time is 5.925962995
+Vehicle SP1 travels from 6 to 8 to deliver 5 pallets. Expected unload start time is 7.665151845
+Vehicle SP1 travels from 8 to DepotReturn to deliver 0 pallets. Expected unload start time is 9.59534823
+Vehicle SP2 travels from Depot to 3 to deliver 4 pallets. Expected unload start time is 7.019418397
+Vehicle SP2 travels from 2 to 9 to deliver 7 pallets. Expected unload start time is 9.131785147
+Vehicle SP2 travels from 3 to 2 to deliver 5 pallets. Expected unload start time is 7.661108519
+Vehicle SP2 travels from 4 to 7 to deliver 5 pallets. Expected unload start time is 10.680874621
+Vehicle SP2 travels from 5 to DepotReturn to deliver 0 pallets. Expected unload start time is 13.135220862
+Vehicle SP2 travels from 7 to 5 to deliver 5 pallets. Expected unload start time is 11.87654245
+Vehicle SP2 travels from 9 to 4 to deliver 2 pallets. Expected unload start time is 10.317553231
+Vehicle SP3 travels from Depot to 11 to deliver 5 pallets. Expected unload start time is 21.419698522
+Vehicle SP3 travels from 10 to 12 to deliver 7 pallets. Expected unload start time is 24
+Vehicle SP3 travels from 11 to 10 to deliver 7 pallets. Expected unload start time is 22.368511558
+Vehicle SP3 travels from 12 to DepotReturn to deliver 0 pallets. Expected unload start time is 24.75106783
+Objective value: 1082.162880112
+Solve time: 11599</t>
+  </si>
+  <si>
+    <t>Input:
+Customer 1 has 3 pallets demand and window 0-24 at (-35.450068632, -1.394236418) and average unload time 0.166319408
+Customer 2 has 5 pallets demand and window 0-24 at (63.063748607, 33.189197656) and average unload time 0.063055616
+Customer 3 has 2 pallets demand and window 0-24 at (78.640654292, 54.045009655) and average unload time 0.046304619
+Customer 4 has 2 pallets demand and window 0-24 at (-88.867457882, 76.118252768) and average unload time 0.093108163
+Customer 5 has 1 pallets demand and window 0-24 at (-91.065776286, 65.034047009) and average unload time 0.105846947
+Customer 6 has 6 pallets demand and window 0-24 at (-86.40099174, -45.509770042) and average unload time 0.166419515
+Customer 7 has 6 pallets demand and window 0-24 at (92.849202238, 99.763476167) and average unload time 0.144205261
+Customer 8 has 7 pallets demand and window 0-24 at (-87.444818156, 98.128096577) and average unload time 0.10897667
+Customer 9 has 4 pallets demand and window 0-24 at (-95.413651187, 97.989425334) and average unload time 0.142781547
+Customer 10 has 5 pallets demand and window 0-24 at (30.746221605, -51.482436848) and average unload time 0.108400445
+Customer 11 has 2 pallets demand and window 0-24 at (-10.412616904, 24.957177283) and average unload time 0.131956793
+Customer 12 has 3 pallets demand and window 0-24 at (-66.043473607, -5.084246687) and average unload time 0.115980936
+Vehicle SP1 is a 8 metre with capacity 22, distance cost 1.31773308, and time cost 12.345665484
+Vehicle SP2 is a 11 metre with capacity 30, distance cost 1.227142931, and time cost 10.988527235
+Vehicle SP3 is a 11 metre with capacity 30, distance cost 1.227142931, and time cost 10.988527235
+Output:
+Vehicle SP2 travels from Depot to 10 to deliver 5 pallets. Expected unload start time is 3.523300691
+Vehicle SP2 travels from 2 to 3 to deliver 2 pallets. Expected unload start time is 5.838835442
+Vehicle SP2 travels from 3 to 7 to deliver 6 pallets. Expected unload start time is 6.529888105
+Vehicle SP2 travels from 7 to DepotReturn to deliver 0 pallets. Expected unload start time is 9.09868787
+Vehicle SP2 travels from 10 to 2 to deliver 5 pallets. Expected unload start time is 5.1981718
+Vehicle SP3 travels from Depot to 1 to deliver 3 pallets. Expected unload start time is 4.758177123
+Vehicle SP3 travels from 1 to 12 to deliver 3 pallets. Expected unload start time is 5.642324548
+Vehicle SP3 travels from 4 to 9 to deliver 4 pallets. Expected unload start time is 9.656274592
+Vehicle SP3 travels from 5 to 4 to deliver 2 pallets. Expected unload start time is 9.184685474
+Vehicle SP3 travels from 6 to 5 to deliver 1 pallets. Expected unload start time is 8.937587298
+Vehicle SP3 travels from 8 to 11 to deliver 2 pallets. Expected unload start time is 12.417922137
+Vehicle SP3 travels from 9 to 8 to deliver 7 pallets. Expected unload start time is 10.327026273
+Vehicle SP3 travels from 11 to DepotReturn to deliver 0 pallets. Expected unload start time is 13.019863848
+Vehicle SP3 travels from 12 to 6 to deliver 6 pallets. Expected unload start time is 6.556042746
+Objective value: 952.746718211
+Solve time: 66931</t>
+  </si>
+  <si>
+    <t>Input:
+Customer 1 has 2 pallets demand and window 0-24 at (-98.001222908, -29.660115378) and average unload time 0.156079186
+Customer 2 has 3 pallets demand and window 0-24 at (17.133939688, 57.382881877) and average unload time 0.105203899
+Customer 3 has 1 pallets demand and window 0-24 at (61.973379172, -24.953469019) and average unload time 0.150232476
+Customer 4 has 4 pallets demand and window 0-24 at (-55.331618422, -64.551524523) and average unload time 0.021205328
+Customer 5 has 4 pallets demand and window 0-24 at (-41.205957158, -85.517995336) and average unload time 0.054125114
+Customer 6 has 3 pallets demand and window 0-24 at (54.260446008, 49.784641617) and average unload time 0.063134073
+Customer 7 has 1 pallets demand and window 18-19 at (83.723772876, -17.824712021) and average unload time 0.105527726
+Customer 8 has 5 pallets demand and window 0-24 at (-98.752729824, -46.647053928) and average unload time 0.040437842
+Customer 9 has 2 pallets demand and window 0-24 at (-91.482503988, 97.206739761) and average unload time 0.160845673
+Customer 10 has 1 pallets demand and window 20-21 at (8.850429712, 51.898695186) and average unload time 0.044482461
+Customer 11 has 3 pallets demand and window 0-24 at (-1.348890895, 32.978489609) and average unload time 0.122477924
+Customer 12 has 2 pallets demand and window 0-24 at (70.00830006, -10.760710865) and average unload time 0.062032051
+Vehicle SP1 is a Rigid with capacity 16, distance cost 1.037797634, and time cost 9.10396918
+Vehicle SP2 is a 11 metre with capacity 30, distance cost 1.442046537, and time cost 10.906801047
+Vehicle SP3 is a 11 metre with capacity 30, distance cost 1.442046537, and time cost 10.906801047
+Output:
+Vehicle SP1 travels from Depot to 6 to deliver 3 pallets. Expected unload start time is 17.504313699
+Vehicle SP1 travels from 2 to 9 to deliver 2 pallets. Expected unload start time is 21.885878971
+Vehicle SP1 travels from 6 to 7 to deliver 1 pallets. Expected unload start time is 18.61559514
+Vehicle SP1 travels from 7 to 10 to deliver 0 pallets. Expected unload start time is 20
+Vehicle SP1 travels from 9 to DepotReturn to deliver 0 pallets. Expected unload start time is 23.876130643
+Vehicle SP1 travels from 10 to 2 to deliver 3 pallets. Expected unload start time is 20.124180338
+Vehicle SP2 travels from Depot to 1 to deliver 2 pallets. Expected unload start time is 14.857942026
+Vehicle SP2 travels from 1 to 8 to deliver 5 pallets. Expected unload start time is 15.382644822
+Vehicle SP2 travels from 3 to 7 to deliver 0 pallets. Expected unload start time is 18.721122866
+Vehicle SP2 travels from 4 to 5 to deliver 4 pallets. Expected unload start time is 16.572763412
+Vehicle SP2 travels from 5 to 3 to deliver 1 pallets. Expected unload start time is 18.284779943
+Vehicle SP2 travels from 7 to 10 to deliver 1 pallets. Expected unload start time is 20
+Vehicle SP2 travels from 8 to 4 to deliver 4 pallets. Expected unload start time is 16.171930032
+Vehicle SP2 travels from 10 to DepotReturn to deliver 0 pallets. Expected unload start time is 20.702581602
+Vehicle SP3 travels from Depot to 12 to deliver 2 pallets. Expected unload start time is 18.683089495
+Vehicle SP3 travels from 7 to 10 to deliver 0 pallets. Expected unload start time is 20.278877134
+Vehicle SP3 travels from 10 to 11 to deliver 3 pallets. Expected unload start time is 20.547554543
+Vehicle SP3 travels from 11 to DepotReturn to deliver 0 pallets. Expected unload start time is 21.327564118
+Vehicle SP3 travels from 12 to 7 to deliver 0 pallets. Expected unload start time is 19
+Objective value: 1604.457014441
+Solve time: 32942</t>
   </si>
   <si>
     <t>Input:
@@ -484,657 +1157,6 @@
 Vehicle SP2 travels from 13 to 3 to deliver 3 pallets. Expected unload start time is 2.45626362
 Objective value: 739.534771131
 Solve time: 81641</t>
-  </si>
-  <si>
-    <t>Input:
-Customer 1 has 2 pallets demand and window 0-24 at (58.136684707, -26.441764245) and average unload time 0.032763661
-Customer 2 has 7 pallets demand and window 0-24 at (-77.096934301, -54.358144462) and average unload time 0.14806159
-Customer 3 has 1 pallets demand and window 0-24 at (-33.146269773, -7.753749214) and average unload time 0.095463657
-Customer 4 has 5 pallets demand and window 0-24 at (-88.699565429, 28.971606178) and average unload time 0.097431793
-Customer 5 has 4 pallets demand and window 0-24 at (-85.563897921, 38.136155836) and average unload time 0.042896975
-Customer 6 has 5 pallets demand and window 0-24 at (72.180161191, 83.848102005) and average unload time 0.11480309
-Customer 7 has 2 pallets demand and window 0-24 at (15.254529139, -90.29246243) and average unload time 0.090187027
-Customer 8 has 2 pallets demand and window 0-24 at (81.001856574, 65.177375203) and average unload time 0.152539253
-Customer 9 has 5 pallets demand and window 9-10 at (-10.618826821, 64.993717494) and average unload time 0.058308821
-Customer 10 has 7 pallets demand and window 0-24 at (-45.10751855, -61.309276312) and average unload time 0.125640255
-Customer 11 has 3 pallets demand and window 0-24 at (69.388990094, 13.749597423) and average unload time 0.058823878
-Customer 12 has 3 pallets demand and window 0-24 at (-45.167077703, 83.110546919) and average unload time 0.108844869
-Vehicle SP1 is a 11 metre with capacity 30, distance cost 1.189868305, and time cost 12.59651053
-Vehicle SP2 is a 11 metre with capacity 30, distance cost 1.189868305, and time cost 12.59651053
-Vehicle SP3 is a Rigid with capacity 16, distance cost 0.718181403, and time cost 7.083074547
-Output:
-Vehicle SP1 travels from Depot to 9 to deliver 3 pallets. Expected unload start time is 9
-Vehicle SP1 travels from 2 to 10 to deliver 7 pallets. Expected unload start time is 14.021879745
-Vehicle SP1 travels from 3 to DepotReturn to deliver 0 pallets. Expected unload start time is 16.108276352
-Vehicle SP1 travels from 4 to 2 to deliver 7 pallets. Expected unload start time is 12.576249519
-Vehicle SP1 travels from 5 to 4 to deliver 5 pallets. Expected unload start time is 11.037420126
-Vehicle SP1 travels from 9 to 12 to deliver 3 pallets. Expected unload start time is 9.662554836
-Vehicle SP1 travels from 10 to 3 to deliver 1 pallets. Expected unload start time is 15.587299067
-Vehicle SP1 travels from 12 to 5 to deliver 4 pallets. Expected unload start time is 10.744755429
-Vehicle SP3 travels from Depot to 7 to deliver 2 pallets. Expected unload start time is 5.236757462
-Vehicle SP3 travels from 1 to 11 to deliver 3 pallets. Expected unload start time is 6.965795994
-Vehicle SP3 travels from 6 to 9 to deliver 2 pallets. Expected unload start time is 10
-Vehicle SP3 travels from 7 to 1 to deliver 2 pallets. Expected unload start time is 6.378558753
-Vehicle SP3 travels from 8 to 6 to deliver 5 pallets. Expected unload start time is 8.364502668
-Vehicle SP3 travels from 9 to DepotReturn to deliver 0 pallets. Expected unload start time is 10.939811005
-Vehicle SP3 travels from 11 to 8 to deliver 2 pallets. Expected unload start time is 7.801300419
-Objective value: 784.2446733
-Solve time: 2359</t>
-  </si>
-  <si>
-    <t>Input:
-Customer 1 has 2 pallets demand and window 0-24 at (86.117323523, 65.481263002) and average unload time 0.088372233
-Customer 2 has 1 pallets demand and window 0-24 at (11.386501748, 9.118109776) and average unload time 0.135651791
-Customer 3 has 3 pallets demand and window 0-24 at (-83.038914509, -54.086114592) and average unload time 0.142420069
-Customer 4 has 4 pallets demand and window 0-24 at (-12.061799309, 52.815222792) and average unload time 0.047976475
-Customer 5 has 4 pallets demand and window 0-24 at (-7.099027444, 81.712006187) and average unload time 0.030167357
-Customer 6 has 3 pallets demand and window 20-21 at (-1.317010856, 26.505204508) and average unload time 0.122575167
-Customer 7 has 3 pallets demand and window 0-24 at (56.649920959, 6.281035802) and average unload time 0.158655377
-Customer 8 has 3 pallets demand and window 0-24 at (-77.574870936, 73.68215215) and average unload time 0.157509373
-Customer 9 has 1 pallets demand and window 0-24 at (-42.356552226, 45.816070468) and average unload time 0.064872657
-Customer 10 has 2 pallets demand and window 0-24 at (-57.296054691, 15.965186213) and average unload time 0.112501542
-Customer 11 has 2 pallets demand and window 0-24 at (76.894936111, 4.803673156) and average unload time 0.050803723
-Customer 12 has 2 pallets demand and window 0-24 at (-73.279703944, -10.807017454) and average unload time 0.149062821
-Vehicle SP1 is a 8 metre with capacity 22, distance cost 1.105811318, and time cost 13.645681258
-Vehicle SP2 is a Rigid with capacity 16, distance cost 0.715369757, and time cost 8.270423873
-Vehicle SP3 is a 11 metre with capacity 30, distance cost 1.339517775, and time cost 11.301841195
-Output:
-Vehicle SP1 travels from Depot to 2 to deliver 1 pallets. Expected unload start time is 16.305158422
-Vehicle SP1 travels from 1 to 5 to deliver 4 pallets. Expected unload start time is 19.96568298
-Vehicle SP1 travels from 2 to 7 to deliver 3 pallets. Expected unload start time is 17.007713273
-Vehicle SP1 travels from 4 to 6 to deliver 3 pallets. Expected unload start time is 21
-Vehicle SP1 travels from 5 to 4 to deliver 4 pallets. Expected unload start time is 20.452850447
-Vehicle SP1 travels from 6 to DepotReturn to deliver 0 pallets. Expected unload start time is 21.69944931
-Vehicle SP1 travels from 7 to 11 to deliver 2 pallets. Expected unload start time is 17.737415007
-Vehicle SP1 travels from 11 to 1 to deliver 2 pallets. Expected unload start time is 18.606202999
-Vehicle SP2 travels from Depot to 3 to deliver 3 pallets. Expected unload start time is 2.023356668
-Vehicle SP2 travels from 3 to 12 to deliver 2 pallets. Expected unload start time is 3.005189125
-Vehicle SP2 travels from 8 to 9 to deliver 1 pallets. Expected unload start time is 5.716667299
-Vehicle SP2 travels from 9 to DepotReturn to deliver 0 pallets. Expected unload start time is 6.561482845
-Vehicle SP2 travels from 10 to 8 to deliver 3 pallets. Expected unload start time is 4.682772478
-Vehicle SP2 travels from 12 to 10 to deliver 2 pallets. Expected unload start time is 3.69307189
-Objective value: 613.378326109
-Solve time: 8640</t>
-  </si>
-  <si>
-    <t>Input:
-Customer 1 has 4 pallets demand and window 0-24 at (-95.616703662, -14.90802781) and average unload time 0.164037861
-Customer 2 has 1 pallets demand and window 0-24 at (60.574613574, 15.084761202) and average unload time 0.046722152
-Customer 3 has 5 pallets demand and window 0-24 at (38.903806148, -6.244411379) and average unload time 0.12387024
-Customer 4 has 1 pallets demand and window 0-24 at (82.618616793, 91.986613719) and average unload time 0.163432495
-Customer 5 has 3 pallets demand and window 0-24 at (-64.569227931, -35.02548619) and average unload time 0.017744501
-Customer 6 has 2 pallets demand and window 0-24 at (28.55399114, 49.51590747) and average unload time 0.045236223
-Customer 7 has 1 pallets demand and window 0-24 at (13.900357526, -72.632931412) and average unload time 0.154511811
-Customer 8 has 2 pallets demand and window 0-24 at (78.650216526, -53.710114764) and average unload time 0.146290115
-Customer 9 has 3 pallets demand and window 0-24 at (9.028883805, 31.501159304) and average unload time 0.056475417
-Customer 10 has 3 pallets demand and window 0-24 at (36.708957002, 41.023413062) and average unload time 0.101814173
-Customer 11 has 4 pallets demand and window 0-24 at (35.774116101, -8.332906265) and average unload time 0.024458822
-Customer 12 has 5 pallets demand and window 0-24 at (-31.401690001, 29.31165252) and average unload time 0.026281485
-Vehicle SP1 is a 11 metre with capacity 30, distance cost 1.307276887, and time cost 7.965817878
-Vehicle SP2 is a 8 metre with capacity 22, distance cost 1.348352342, and time cost 10.47674768
-Vehicle SP3 is a Rigid with capacity 16, distance cost 0.978947144, and time cost 7.825834562
-Output:
-Vehicle SP1 travels from Depot to 11 to deliver 4 pallets. Expected unload start time is 0.866198409
-Vehicle SP1 travels from 2 to 4 to deliver 1 pallets. Expected unload start time is 3.057207572
-Vehicle SP1 travels from 3 to 2 to deliver 1 pallets. Expected unload start time is 2.010498467
-Vehicle SP1 travels from 4 to 10 to deliver 3 pallets. Expected unload start time is 4.078047558
-Vehicle SP1 travels from 6 to 9 to deliver 3 pallets. Expected unload start time is 4.953213942
-Vehicle SP1 travels from 9 to DepotReturn to deliver 0 pallets. Expected unload start time is 5.53225964
-Vehicle SP1 travels from 10 to 6 to deliver 2 pallets. Expected unload start time is 4.530664469
-Vehicle SP1 travels from 11 to 3 to deliver 5 pallets. Expected unload start time is 1.011065554
-Vehicle SP3 travels from Depot to 8 to deliver 2 pallets. Expected unload start time is 1.511854422
-Vehicle SP3 travels from 1 to 12 to deliver 5 pallets. Expected unload start time is 6.036297845
-Vehicle SP3 travels from 5 to 1 to deliver 4 pallets. Expected unload start time is 4.405551284
-Vehicle SP3 travels from 7 to 5 to deliver 3 pallets. Expected unload start time is 3.889875576
-Vehicle SP3 travels from 8 to 7 to deliver 1 pallets. Expected unload start time is 2.647662938
-Vehicle SP3 travels from 12 to DepotReturn to deliver 0 pallets. Expected unload start time is 6.704658352
-Objective value: 791.185916429
-Solve time: 1565</t>
-  </si>
-  <si>
-    <t>Input:
-Customer 1 has 4 pallets demand and window 0-24 at (-75.904887286, -33.901246897) and average unload time 0.036907913
-Customer 2 has 6 pallets demand and window 0-24 at (35.865499648, 34.318194739) and average unload time 0.099555942
-Customer 3 has 1 pallets demand and window 7-8 at (-45.439845304, -57.829814824) and average unload time 0.135135367
-Customer 4 has 5 pallets demand and window 0-24 at (-49.038719368, 74.20390258) and average unload time 0.124904078
-Customer 5 has 8 pallets demand and window 0-24 at (-96.771962331, 19.003606624) and average unload time 0.020950346
-Customer 6 has 7 pallets demand and window 0-24 at (25.523352131, 63.165207519) and average unload time 0.067005513
-Customer 7 has 4 pallets demand and window 0-24 at (-80.131132949, -52.768444104) and average unload time 0.160780693
-Customer 8 has 5 pallets demand and window 0-24 at (10.69903155, 61.634753428) and average unload time 0.138298246
-Customer 9 has 3 pallets demand and window 0-24 at (6.558687414, 63.856178085) and average unload time 0.165840326
-Customer 10 has 5 pallets demand and window 0-24 at (-82.108738454, 79.105351146) and average unload time 0.11362577
-Customer 11 has 8 pallets demand and window 0-24 at (94.509655321, -58.892451018) and average unload time 0.104296894
-Customer 12 has 1 pallets demand and window 0-24 at (-73.823311462, -49.915151327) and average unload time 0.119401005
-Vehicle SP1 is a 11 metre with capacity 30, distance cost 1.030656201, and time cost 11.647081329
-Vehicle SP2 is a 11 metre with capacity 30, distance cost 1.030656201, and time cost 11.647081329
-Vehicle SP3 is a 11 metre with capacity 30, distance cost 1.030656201, and time cost 11.647081329
-Output:
-Vehicle SP1 travels from Depot to 9 to deliver 3 pallets. Expected unload start time is 17.178202075
-Vehicle SP1 travels from 2 to 11 to deliver 8 pallets. Expected unload start time is 21.438225438
-Vehicle SP1 travels from 6 to 2 to deliver 6 pallets. Expected unload start time is 19.464336036
-Vehicle SP1 travels from 8 to 6 to deliver 7 pallets. Expected unload start time is 18.612236138
-Vehicle SP1 travels from 9 to 8 to deliver 5 pallets. Expected unload start time is 17.734455998
-Vehicle SP1 travels from 11 to DepotReturn to deliver 0 pallets. Expected unload start time is 23.66456389
-Vehicle SP2 travels from Depot to 3 to deliver 1 pallets. Expected unload start time is 7
-Vehicle SP2 travels from 1 to 5 to deliver 8 pallets. Expected unload start time is 9.452735891
-Vehicle SP2 travels from 3 to 12 to deliver 1 pallets. Expected unload start time is 7.503464162
-Vehicle SP2 travels from 4 to DepotReturn to deliver 0 pallets. Expected unload start time is 13.115985085
-Vehicle SP2 travels from 5 to 10 to deliver 5 pallets. Expected unload start time is 10.393646273
-Vehicle SP2 travels from 7 to 1 to deliver 4 pallets. Expected unload start time is 8.594211497
-Vehicle SP2 travels from 10 to 4 to deliver 5 pallets. Expected unload start time is 11.3796661
-Vehicle SP2 travels from 12 to 7 to deliver 4 pallets. Expected unload start time is 7.709404439
-Objective value: 750.874249065
-Solve time: 5289</t>
-  </si>
-  <si>
-    <t>Input:
-Customer 1 has 4 pallets demand and window 0-24 at (92.548667144, -73.357619901) and average unload time 0.017126286
-Customer 2 has 5 pallets demand and window 0-24 at (-82.174744291, -40.392993107) and average unload time 0.039157449
-Customer 3 has 1 pallets demand and window 0-24 at (98.60219856, 30.795887454) and average unload time 0.109698391
-Customer 4 has 3 pallets demand and window 0-24 at (9.340767359, -4.281575518) and average unload time 0.103485874
-Customer 5 has 3 pallets demand and window 0-24 at (0.52016853, 11.912121382) and average unload time 0.067915279
-Customer 6 has 1 pallets demand and window 0-24 at (26.675194947, 54.778317546) and average unload time 0.12947012
-Customer 7 has 2 pallets demand and window 0-24 at (77.325532086, -39.027597763) and average unload time 0.162717697
-Customer 8 has 3 pallets demand and window 0-24 at (-5.322273946, 72.791050058) and average unload time 0.047500614
-Customer 9 has 1 pallets demand and window 0-24 at (-11.02803494, -72.996487792) and average unload time 0.116089802
-Customer 10 has 5 pallets demand and window 0-24 at (90.140395094, 53.663028102) and average unload time 0.110889208
-Customer 11 has 2 pallets demand and window 0-24 at (-39.84926661, 97.629414115) and average unload time 0.108312424
-Customer 12 has 4 pallets demand and window 0-24 at (-57.721835769, 99.587993509) and average unload time 0.155609479
-Vehicle SP1 is a 8 metre with capacity 22, distance cost 1.094894511, and time cost 7.647030743
-Vehicle SP2 is a 11 metre with capacity 30, distance cost 1.244930608, and time cost 11.178722916
-Vehicle SP3 is a Rigid with capacity 16, distance cost 1.257635831, and time cost 13.305321033
-Output:
-Vehicle SP1 travels from Depot to 4 to deliver 3 pallets. Expected unload start time is 23.459040621
-Vehicle SP1 travels from 4 to 5 to deliver 3 pallets. Expected unload start time is 24
-Vehicle SP1 travels from 5 to DepotReturn to deliver 0 pallets. Expected unload start time is 24.352789251
-Vehicle SP2 travels from Depot to 2 to deliver 5 pallets. Expected unload start time is 1.789878485
-Vehicle SP2 travels from 1 to 7 to deliver 2 pallets. Expected unload start time is 4.912668014
-Vehicle SP2 travels from 2 to 9 to deliver 1 pallets. Expected unload start time is 2.96393286
-Vehicle SP2 travels from 3 to 10 to deliver 5 pallets. Expected unload start time is 6.564999262
-Vehicle SP2 travels from 6 to 8 to deliver 3 pallets. Expected unload start time is 8.501342382
-Vehicle SP2 travels from 7 to 3 to deliver 1 pallets. Expected unload start time is 6.150519126
-Vehicle SP2 travels from 8 to 11 to deliver 2 pallets. Expected unload start time is 9.17550694
-Vehicle SP2 travels from 9 to 1 to deliver 4 pallets. Expected unload start time is 4.374739308
-Vehicle SP2 travels from 10 to 6 to deliver 1 pallets. Expected unload start time is 7.912882789
-Vehicle SP2 travels from 11 to 12 to deliver 4 pallets. Expected unload start time is 9.616876351
-Vehicle SP2 travels from 12 to DepotReturn to deliver 0 pallets. Expected unload start time is 11.678149448
-Objective value: 909.070915683
-Solve time: 7905</t>
-  </si>
-  <si>
-    <t>Input:
-Customer 1 has 3 pallets demand and window 0-24 at (37.652672576, 35.912239711) and average unload time 0.042599216
-Customer 2 has 6 pallets demand and window 16-17 at (-11.389300044, -74.418600401) and average unload time 0.139676652
-Customer 3 has 3 pallets demand and window 0-24 at (32.078964613, -74.767833741) and average unload time 0.081881391
-Customer 4 has 6 pallets demand and window 0-24 at (-46.19662806, -10.333480366) and average unload time 0.070599869
-Customer 5 has 7 pallets demand and window 0-24 at (41.663142713, -52.316607614) and average unload time 0.123150209
-Customer 6 has 2 pallets demand and window 0-24 at (-96.41491141, -66.273754058) and average unload time 0.102654692
-Customer 7 has 3 pallets demand and window 0-24 at (41.765437884, 62.420951806) and average unload time 0.126725978
-Customer 8 has 6 pallets demand and window 0-24 at (44.217159643, -35.20491399) and average unload time 0.077101587
-Customer 9 has 3 pallets demand and window 0-24 at (95.16719932, 89.00238381) and average unload time 0.150508328
-Customer 10 has 5 pallets demand and window 0-24 at (45.989232769, -23.708430578) and average unload time 0.166087738
-Customer 11 has 3 pallets demand and window 0-24 at (85.759380661, 12.580634432) and average unload time 0.026851312
-Customer 12 has 5 pallets demand and window 19-20 at (13.233280445, 46.159029325) and average unload time 0.083919279
-Vehicle SP1 is a 8 metre with capacity 22, distance cost 1.244320154, and time cost 10.772827988
-Vehicle SP2 is a 8 metre with capacity 22, distance cost 1.244320154, and time cost 10.772827988
-Vehicle SP3 is a 11 metre with capacity 30, distance cost 0.832252107, and time cost 14.949155781
-Output:
-Vehicle SP1 travels from Depot to 10 to deliver 5 pallets. Expected unload start time is 12.507803074
-Vehicle SP1 travels from 2 to DepotReturn to deliver 0 pallets. Expected unload start time is 17.19946863
-Vehicle SP1 travels from 3 to 2 to deliver 1 pallets. Expected unload start time is 16.118728398
-Vehicle SP1 travels from 5 to 3 to deliver 3 pallets. Expected unload start time is 15.329713381
-Vehicle SP1 travels from 8 to 5 to deliver 7 pallets. Expected unload start time is 14.162520041
-Vehicle SP1 travels from 10 to 8 to deliver 6 pallets. Expected unload start time is 13.483644962
-Vehicle SP3 travels from Depot to 4 to deliver 6 pallets. Expected unload start time is 14.363726049
-Vehicle SP3 travels from 1 to DepotReturn to deliver 0 pallets. Expected unload start time is 24.13373653
-Vehicle SP3 travels from 2 to 12 to deliver 5 pallets. Expected unload start time is 19.23670805
-Vehicle SP3 travels from 4 to 6 to deliver 2 pallets. Expected unload start time is 15.727005247
-Vehicle SP3 travels from 6 to 2 to deliver 5 pallets. Expected unload start time is 17
-Vehicle SP3 travels from 7 to 9 to deliver 3 pallets. Expected unload start time is 21.192641183
-Vehicle SP3 travels from 9 to 11 to deliver 3 pallets. Expected unload start time is 22.606649189
-Vehicle SP3 travels from 11 to 1 to deliver 3 pallets. Expected unload start time is 23.355528829
-Vehicle SP3 travels from 12 to 7 to deliver 3 pallets. Expected unload start time is 20.066817486
-Objective value: 805.729627885
-Solve time: 2023</t>
-  </si>
-  <si>
-    <t>Input:
-Customer 1 has 1 pallets demand and window 14-15 at (-60.507168905, -25.526932952) and average unload time 0.037034357
-Customer 2 has 1 pallets demand and window 0-24 at (-38.189779923, -94.309764347) and average unload time 0.115327914
-Customer 3 has 4 pallets demand and window 0-24 at (-74.910619843, -73.3252013) and average unload time 0.132937853
-Customer 4 has 4 pallets demand and window 0-24 at (38.821132083, 53.458202703) and average unload time 0.090394102
-Customer 5 has 3 pallets demand and window 0-24 at (83.423829878, 67.098255883) and average unload time 0.140649525
-Customer 6 has 5 pallets demand and window 0-24 at (64.613585345, -94.943504967) and average unload time 0.094746423
-Customer 7 has 6 pallets demand and window 0-24 at (77.664393945, -95.71897065) and average unload time 0.026822226
-Customer 8 has 2 pallets demand and window 0-24 at (81.400233235, 9.810572514) and average unload time 0.065393663
-Customer 9 has 3 pallets demand and window 0-24 at (-4.455340437, -79.27703137) and average unload time 0.128110057
-Customer 10 has 5 pallets demand and window 0-24 at (37.530836044, 2.454189788) and average unload time 0.12640122
-Customer 11 has 5 pallets demand and window 0-24 at (28.95071548, -92.484593427) and average unload time 0.124947212
-Customer 12 has 2 pallets demand and window 0-24 at (-78.15775898, -81.622366279) and average unload time 0.146475928
-Vehicle SP1 is a 11 metre with capacity 30, distance cost 1.028382282, and time cost 7.461307044
-Vehicle SP2 is a Rigid with capacity 16, distance cost 0.958236836, and time cost 12.651470464
-Vehicle SP3 is a 8 metre with capacity 22, distance cost 1.148904583, and time cost 8.596049958
-Output:
-Vehicle SP1 travels from Depot to 1 to deliver 1 pallets. Expected unload start time is 14
-Vehicle SP1 travels from 1 to 3 to deliver 4 pallets. Expected unload start time is 14.661050314
-Vehicle SP1 travels from 2 to 9 to deliver 3 pallets. Expected unload start time is 16.698276898
-Vehicle SP1 travels from 3 to 12 to deliver 2 pallets. Expected unload start time is 15.304175854
-Vehicle SP1 travels from 6 to 7 to deliver 6 pallets. Expected unload start time is 19.240369787
-Vehicle SP1 travels from 7 to DepotReturn to deliver 0 pallets. Expected unload start time is 20.942096337
-Vehicle SP1 travels from 9 to 11 to deliver 5 pallets. Expected unload start time is 17.531634538
-Vehicle SP1 travels from 11 to 6 to deliver 5 pallets. Expected unload start time is 18.603214832
-Vehicle SP1 travels from 12 to 2 to deliver 1 pallets. Expected unload start time is 16.121295118
-Vehicle SP2 travels from Depot to 10 to deliver 5 pallets. Expected unload start time is 2.639166148
-Vehicle SP2 travels from 4 to DepotReturn to deliver 0 pallets. Expected unload start time is 6.866911377
-Vehicle SP2 travels from 5 to 4 to deliver 4 pallets. Expected unload start time is 5.679496406
-Vehicle SP2 travels from 8 to 5 to deliver 3 pallets. Expected unload start time is 4.67452611
-Vehicle SP2 travels from 10 to 8 to deliver 2 pallets. Expected unload start time is 3.82719613
-Objective value: 683.459790607
-Solve time: 3644</t>
-  </si>
-  <si>
-    <t>Input:
-Customer 1 has 7 pallets demand and window 0-24 at (-96.976225809, 35.392978003) and average unload time 0.108952464
-Customer 2 has 5 pallets demand and window 0-24 at (92.805812899, -11.557704117) and average unload time 0.154347468
-Customer 3 has 4 pallets demand and window 0-24 at (96.253615335, -51.11900683) and average unload time 0.036324849
-Customer 4 has 2 pallets demand and window 0-24 at (77.372293068, 60.185631192) and average unload time 0.123839806
-Customer 5 has 5 pallets demand and window 0-24 at (52.239480919, 33.729206953) and average unload time 0.096280247
-Customer 6 has 7 pallets demand and window 0-24 at (-79.341873904, 95.001549567) and average unload time 0.096969592
-Customer 7 has 5 pallets demand and window 0-24 at (73.631219313, 68.646819041) and average unload time 0.136760287
-Customer 8 has 5 pallets demand and window 0-24 at (5.351441457, 99.852709283) and average unload time 0.136049259
-Customer 9 has 7 pallets demand and window 0-24 at (99.990405193, 43.89394004) and average unload time 0.119619213
-Customer 10 has 7 pallets demand and window 0-24 at (-75.338522218, -82.792238402) and average unload time 0.043494272
-Customer 11 has 5 pallets demand and window 0-24 at (-95.51753004, -50.791695921) and average unload time 0.095183702
-Customer 12 has 7 pallets demand and window 0-24 at (22.571139784, -41.754104901) and average unload time 0.022537691
-Vehicle SP1 is a 8 metre with capacity 22, distance cost 1.092602798, and time cost 8.519132061
-Vehicle SP2 is a 11 metre with capacity 30, distance cost 0.993721682, and time cost 9.497152383
-Vehicle SP3 is a 8 metre with capacity 22, distance cost 1.092602798, and time cost 8.519132061
-Output:
-Vehicle SP1 travels from Depot to 1 to deliver 7 pallets. Expected unload start time is 4.386266934
-Vehicle SP1 travels from 1 to 6 to deliver 7 pallets. Expected unload start time is 5.925962995
-Vehicle SP1 travels from 6 to 8 to deliver 5 pallets. Expected unload start time is 7.665151845
-Vehicle SP1 travels from 8 to DepotReturn to deliver 0 pallets. Expected unload start time is 9.59534823
-Vehicle SP2 travels from Depot to 3 to deliver 4 pallets. Expected unload start time is 7.019418397
-Vehicle SP2 travels from 2 to 9 to deliver 7 pallets. Expected unload start time is 9.131785147
-Vehicle SP2 travels from 3 to 2 to deliver 5 pallets. Expected unload start time is 7.661108519
-Vehicle SP2 travels from 4 to 7 to deliver 5 pallets. Expected unload start time is 10.680874621
-Vehicle SP2 travels from 5 to DepotReturn to deliver 0 pallets. Expected unload start time is 13.135220862
-Vehicle SP2 travels from 7 to 5 to deliver 5 pallets. Expected unload start time is 11.87654245
-Vehicle SP2 travels from 9 to 4 to deliver 2 pallets. Expected unload start time is 10.317553231
-Vehicle SP3 travels from Depot to 11 to deliver 5 pallets. Expected unload start time is 21.419698522
-Vehicle SP3 travels from 10 to 12 to deliver 7 pallets. Expected unload start time is 24
-Vehicle SP3 travels from 11 to 10 to deliver 7 pallets. Expected unload start time is 22.368511558
-Vehicle SP3 travels from 12 to DepotReturn to deliver 0 pallets. Expected unload start time is 24.75106783
-Objective value: 1082.162880112
-Solve time: 11599</t>
-  </si>
-  <si>
-    <t>Input:
-Customer 1 has 3 pallets demand and window 0-24 at (-35.450068632, -1.394236418) and average unload time 0.166319408
-Customer 2 has 5 pallets demand and window 0-24 at (63.063748607, 33.189197656) and average unload time 0.063055616
-Customer 3 has 2 pallets demand and window 0-24 at (78.640654292, 54.045009655) and average unload time 0.046304619
-Customer 4 has 2 pallets demand and window 0-24 at (-88.867457882, 76.118252768) and average unload time 0.093108163
-Customer 5 has 1 pallets demand and window 0-24 at (-91.065776286, 65.034047009) and average unload time 0.105846947
-Customer 6 has 6 pallets demand and window 0-24 at (-86.40099174, -45.509770042) and average unload time 0.166419515
-Customer 7 has 6 pallets demand and window 0-24 at (92.849202238, 99.763476167) and average unload time 0.144205261
-Customer 8 has 7 pallets demand and window 0-24 at (-87.444818156, 98.128096577) and average unload time 0.10897667
-Customer 9 has 4 pallets demand and window 0-24 at (-95.413651187, 97.989425334) and average unload time 0.142781547
-Customer 10 has 5 pallets demand and window 0-24 at (30.746221605, -51.482436848) and average unload time 0.108400445
-Customer 11 has 2 pallets demand and window 0-24 at (-10.412616904, 24.957177283) and average unload time 0.131956793
-Customer 12 has 3 pallets demand and window 0-24 at (-66.043473607, -5.084246687) and average unload time 0.115980936
-Vehicle SP1 is a 8 metre with capacity 22, distance cost 1.31773308, and time cost 12.345665484
-Vehicle SP2 is a 11 metre with capacity 30, distance cost 1.227142931, and time cost 10.988527235
-Vehicle SP3 is a 11 metre with capacity 30, distance cost 1.227142931, and time cost 10.988527235
-Output:
-Vehicle SP2 travels from Depot to 10 to deliver 5 pallets. Expected unload start time is 3.523300691
-Vehicle SP2 travels from 2 to 3 to deliver 2 pallets. Expected unload start time is 5.838835442
-Vehicle SP2 travels from 3 to 7 to deliver 6 pallets. Expected unload start time is 6.529888105
-Vehicle SP2 travels from 7 to DepotReturn to deliver 0 pallets. Expected unload start time is 9.09868787
-Vehicle SP2 travels from 10 to 2 to deliver 5 pallets. Expected unload start time is 5.1981718
-Vehicle SP3 travels from Depot to 1 to deliver 3 pallets. Expected unload start time is 4.758177123
-Vehicle SP3 travels from 1 to 12 to deliver 3 pallets. Expected unload start time is 5.642324548
-Vehicle SP3 travels from 4 to 9 to deliver 4 pallets. Expected unload start time is 9.656274592
-Vehicle SP3 travels from 5 to 4 to deliver 2 pallets. Expected unload start time is 9.184685474
-Vehicle SP3 travels from 6 to 5 to deliver 1 pallets. Expected unload start time is 8.937587298
-Vehicle SP3 travels from 8 to 11 to deliver 2 pallets. Expected unload start time is 12.417922137
-Vehicle SP3 travels from 9 to 8 to deliver 7 pallets. Expected unload start time is 10.327026273
-Vehicle SP3 travels from 11 to DepotReturn to deliver 0 pallets. Expected unload start time is 13.019863848
-Vehicle SP3 travels from 12 to 6 to deliver 6 pallets. Expected unload start time is 6.556042746
-Objective value: 952.746718211
-Solve time: 66931</t>
-  </si>
-  <si>
-    <t>Input:
-Customer 1 has 2 pallets demand and window 0-24 at (-98.001222908, -29.660115378) and average unload time 0.156079186
-Customer 2 has 3 pallets demand and window 0-24 at (17.133939688, 57.382881877) and average unload time 0.105203899
-Customer 3 has 1 pallets demand and window 0-24 at (61.973379172, -24.953469019) and average unload time 0.150232476
-Customer 4 has 4 pallets demand and window 0-24 at (-55.331618422, -64.551524523) and average unload time 0.021205328
-Customer 5 has 4 pallets demand and window 0-24 at (-41.205957158, -85.517995336) and average unload time 0.054125114
-Customer 6 has 3 pallets demand and window 0-24 at (54.260446008, 49.784641617) and average unload time 0.063134073
-Customer 7 has 1 pallets demand and window 18-19 at (83.723772876, -17.824712021) and average unload time 0.105527726
-Customer 8 has 5 pallets demand and window 0-24 at (-98.752729824, -46.647053928) and average unload time 0.040437842
-Customer 9 has 2 pallets demand and window 0-24 at (-91.482503988, 97.206739761) and average unload time 0.160845673
-Customer 10 has 1 pallets demand and window 20-21 at (8.850429712, 51.898695186) and average unload time 0.044482461
-Customer 11 has 3 pallets demand and window 0-24 at (-1.348890895, 32.978489609) and average unload time 0.122477924
-Customer 12 has 2 pallets demand and window 0-24 at (70.00830006, -10.760710865) and average unload time 0.062032051
-Vehicle SP1 is a Rigid with capacity 16, distance cost 1.037797634, and time cost 9.10396918
-Vehicle SP2 is a 11 metre with capacity 30, distance cost 1.442046537, and time cost 10.906801047
-Vehicle SP3 is a 11 metre with capacity 30, distance cost 1.442046537, and time cost 10.906801047
-Output:
-Vehicle SP1 travels from Depot to 6 to deliver 3 pallets. Expected unload start time is 17.504313699
-Vehicle SP1 travels from 2 to 9 to deliver 2 pallets. Expected unload start time is 21.885878971
-Vehicle SP1 travels from 6 to 7 to deliver 1 pallets. Expected unload start time is 18.61559514
-Vehicle SP1 travels from 7 to 10 to deliver 0 pallets. Expected unload start time is 20
-Vehicle SP1 travels from 9 to DepotReturn to deliver 0 pallets. Expected unload start time is 23.876130643
-Vehicle SP1 travels from 10 to 2 to deliver 3 pallets. Expected unload start time is 20.124180338
-Vehicle SP2 travels from Depot to 1 to deliver 2 pallets. Expected unload start time is 14.857942026
-Vehicle SP2 travels from 1 to 8 to deliver 5 pallets. Expected unload start time is 15.382644822
-Vehicle SP2 travels from 3 to 7 to deliver 0 pallets. Expected unload start time is 18.721122866
-Vehicle SP2 travels from 4 to 5 to deliver 4 pallets. Expected unload start time is 16.572763412
-Vehicle SP2 travels from 5 to 3 to deliver 1 pallets. Expected unload start time is 18.284779943
-Vehicle SP2 travels from 7 to 10 to deliver 1 pallets. Expected unload start time is 20
-Vehicle SP2 travels from 8 to 4 to deliver 4 pallets. Expected unload start time is 16.171930032
-Vehicle SP2 travels from 10 to DepotReturn to deliver 0 pallets. Expected unload start time is 20.702581602
-Vehicle SP3 travels from Depot to 12 to deliver 2 pallets. Expected unload start time is 18.683089495
-Vehicle SP3 travels from 7 to 10 to deliver 0 pallets. Expected unload start time is 20.278877134
-Vehicle SP3 travels from 10 to 11 to deliver 3 pallets. Expected unload start time is 20.547554543
-Vehicle SP3 travels from 11 to DepotReturn to deliver 0 pallets. Expected unload start time is 21.327564118
-Vehicle SP3 travels from 12 to 7 to deliver 0 pallets. Expected unload start time is 19
-Objective value: 1604.457014441
-Solve time: 32942</t>
-  </si>
-  <si>
-    <t>Input:
-Customer 1 has 5 pallets demand and window 0-24 at (-5.625091957, 77.494351875) and average unload time 0.120062083
-Customer 2 has 1 pallets demand and window 0-24 at (-74.947356113, -90.297220513) and average unload time 0.13783966
-Customer 3 has 2 pallets demand and window 0-24 at (65.963866866, 89.447508748) and average unload time 0.08489104
-Customer 4 has 6 pallets demand and window 0-24 at (-78.352102862, -88.540717846) and average unload time 0.073224009
-Customer 5 has 3 pallets demand and window 0-24 at (-12.578803162, 38.310314123) and average unload time 0.050518294
-Customer 6 has 6 pallets demand and window 0-24 at (-27.891071828, -34.925848307) and average unload time 0.137518692
-Customer 7 has 5 pallets demand and window 0-24 at (41.199789007, 15.609028382) and average unload time 0.133996586
-Customer 8 has 2 pallets demand and window 0-24 at (80.823773225, 87.591443267) and average unload time 0.072205814
-Customer 9 has 9 pallets demand and window 0-24 at (-48.780827845, -4.360561463) and average unload time 0.02442236
-Vehicle SP1 is a 11 metre with capacity 30, distance cost 0.796243095, and time cost 10.888817567
-Vehicle SP2 is a 8 metre with capacity 22, distance cost 1.474713917, and time cost 13.939857705
-Vehicle SP3 is a 8 metre with capacity 22, distance cost 1.474713917, and time cost 13.939857705
-Output:
-Vehicle SP1 travels from Depot to 7 to deliver 5 pallets. Expected unload start time is 5.084413751
-Vehicle SP1 travels from 1 to 5 to deliver 3 pallets. Expected unload start time is 9.287892399
-Vehicle SP1 travels from 2 to 6 to deliver 6 pallets. Expected unload start time is 12.758954084
-Vehicle SP1 travels from 3 to 1 to deliver 5 pallets. Expected unload start time is 8.190128639
-Vehicle SP1 travels from 4 to 2 to deliver 1 pallets. Expected unload start time is 11.712794999
-Vehicle SP1 travels from 5 to 4 to deliver 6 pallets. Expected unload start time is 11.225561746
-Vehicle SP1 travels from 6 to DepotReturn to deliver 0 pallets. Expected unload start time is 14.142765444
-Vehicle SP1 travels from 7 to 8 to deliver 2 pallets. Expected unload start time is 6.78149272
-Vehicle SP1 travels from 8 to 3 to deliver 2 pallets. Expected unload start time is 7.113096509
-Vehicle SP3 travels from Depot to 9 to deliver 9 pallets. Expected unload start time is 1.854583028
-Vehicle SP3 travels from 9 to DepotReturn to deliver 0 pallets. Expected unload start time is 2.686575985
-Objective value: 573.068278715
-Solve time: 641</t>
-  </si>
-  <si>
-    <t>Input:
-Customer 1 has 7 pallets demand and window 12-13 at (-6.644654407, -37.706863539) and average unload time 0.017702007
-Customer 2 has 3 pallets demand and window 0-24 at (-14.51883681, -4.939054912) and average unload time 0.100061023
-Customer 3 has 6 pallets demand and window 0-24 at (-33.108810919, 90.628679863) and average unload time 0.074228608
-Customer 4 has 2 pallets demand and window 0-24 at (7.33373709, 94.377846493) and average unload time 0.159146219
-Customer 5 has 3 pallets demand and window 0-24 at (-54.109588492, 75.197500021) and average unload time 0.063706742
-Customer 6 has 6 pallets demand and window 0-24 at (25.751127767, -94.578965671) and average unload time 0.047978631
-Customer 7 has 8 pallets demand and window 0-24 at (-95.403529717, 37.044830017) and average unload time 0.119057538
-Customer 8 has 8 pallets demand and window 0-24 at (22.956145847, 48.267948881) and average unload time 0.037466502
-Customer 9 has 1 pallets demand and window 0-24 at (-37.848926748, 2.926531102) and average unload time 0.0959835
-Vehicle SP1 is a Rigid with capacity 16, distance cost 1.093582924, and time cost 14.937395452
-Vehicle SP2 is a 8 metre with capacity 22, distance cost 0.867575776, and time cost 9.83032622
-Vehicle SP3 is a 11 metre with capacity 30, distance cost 1.140261613, and time cost 10.759973941
-Output:
-Vehicle SP2 travels from Depot to 6 to deliver 6 pallets. Expected unload start time is 10.893982189
-Vehicle SP2 travels from 1 to 2 to deliver 3 pallets. Expected unload start time is 12.545171842
-Vehicle SP2 travels from 2 to DepotReturn to deliver 0 pallets. Expected unload start time is 13.037054093
-Vehicle SP2 travels from 6 to 1 to deliver 7 pallets. Expected unload start time is 12
-Vehicle SP3 travels from Depot to 8 to deliver 8 pallets. Expected unload start time is 4.771858506
-Vehicle SP3 travels from 3 to 5 to deliver 3 pallets. Expected unload start time is 7.277267832
-Vehicle SP3 travels from 4 to 3 to deliver 6 pallets. Expected unload start time is 6.506138898
-Vehicle SP3 travels from 5 to 7 to deliver 8 pallets. Expected unload start time is 8.171152222
-Vehicle SP3 travels from 7 to 9 to deliver 1 pallets. Expected unload start time is 9.959954136
-Vehicle SP3 travels from 8 to 4 to deliver 2 pallets. Expected unload start time is 5.680147002
-Vehicle SP3 travels from 9 to DepotReturn to deliver 0 pallets. Expected unload start time is 10.530461384
-Objective value: 576.785106383
-Solve time: 903</t>
-  </si>
-  <si>
-    <t>Input:
-Customer 1 has 5 pallets demand and window 21-22 at (52.242025697, -37.558585418) and average unload time 0.060925028
-Customer 2 has 2 pallets demand and window 0-24 at (80.08666625, 89.79908273) and average unload time 0.060846624
-Customer 3 has 3 pallets demand and window 0-24 at (-76.004541665, 56.254022023) and average unload time 0.133882725
-Customer 4 has 1 pallets demand and window 0-24 at (-38.970221632, 47.864183667) and average unload time 0.136567037
-Customer 5 has 1 pallets demand and window 0-24 at (-12.545645201, 95.706405588) and average unload time 0.033671477
-Customer 6 has 3 pallets demand and window 0-24 at (-77.815274566, -60.686567365) and average unload time 0.056171014
-Customer 7 has 3 pallets demand and window 0-24 at (-63.286724196, 43.14620552) and average unload time 0.050397432
-Customer 8 has 2 pallets demand and window 0-24 at (-77.959312108, 88.184070164) and average unload time 0.051806891
-Customer 9 has 4 pallets demand and window 14-15 at (-33.625187943, 9.906037379) and average unload time 0.128376737
-Vehicle SP1 is a Rigid with capacity 16, distance cost 1.217404153, and time cost 12.605782265
-Vehicle SP2 is a Rigid with capacity 16, distance cost 1.217404153, and time cost 12.605782265
-Vehicle SP3 is a Rigid with capacity 16, distance cost 1.217404153, and time cost 12.605782265
-Output:
-Vehicle SP1 travels from Depot to 6 to deliver 3 pallets. Expected unload start time is 13.790447845
-Vehicle SP1 travels from 1 to DepotReturn to deliver 0 pallets. Expected unload start time is 22.108898551
-Vehicle SP1 travels from 6 to 9 to deliver 4 pallets. Expected unload start time is 15
-Vehicle SP1 travels from 9 to 1 to deliver 5 pallets. Expected unload start time is 21
-Vehicle SP2 travels from Depot to 2 to deliver 2 pallets. Expected unload start time is 2.622536337
-Vehicle SP2 travels from 2 to 5 to deliver 1 pallets. Expected unload start time is 3.904485591
-Vehicle SP2 travels from 3 to 7 to deliver 3 pallets. Expected unload start time is 5.894646003
-Vehicle SP2 travels from 4 to DepotReturn to deliver 0 pallets. Expected unload start time is 7.263560377
-Vehicle SP2 travels from 5 to 8 to deliver 2 pallets. Expected unload start time is 4.761216656
-Vehicle SP2 travels from 7 to 4 to deliver 1 pallets. Expected unload start time is 6.355462976
-Vehicle SP2 travels from 8 to 3 to deliver 3 pallets. Expected unload start time is 5.264703289
-Objective value: 943.34840135
-Solve time: 630</t>
-  </si>
-  <si>
-    <t>Input:
-Customer 1 has 3 pallets demand and window 0-24 at (55.199752706, 92.270516551) and average unload time 0.082580617
-Customer 2 has 7 pallets demand and window 0-24 at (-9.219046993, 9.340488372) and average unload time 0.027865968
-Customer 3 has 7 pallets demand and window 0-24 at (53.201243029, 33.724291533) and average unload time 0.034162186
-Customer 4 has 8 pallets demand and window 0-24 at (-2.07351141, 20.526012657) and average unload time 0.145305141
-Customer 5 has 5 pallets demand and window 0-24 at (-51.458822894, -93.177875885) and average unload time 0.070482563
-Customer 6 has 2 pallets demand and window 0-24 at (24.378519797, 56.694081281) and average unload time 0.032860335
-Customer 7 has 4 pallets demand and window 0-24 at (40.226127555, 33.812743626) and average unload time 0.103525148
-Customer 8 has 8 pallets demand and window 0-24 at (-37.340658293, -51.906510567) and average unload time 0.159275759
-Customer 9 has 5 pallets demand and window 0-24 at (87.001338102, -1.82168258) and average unload time 0.155082471
-Vehicle SP1 is a 11 metre with capacity 30, distance cost 1.385606652, and time cost 13.494372209
-Vehicle SP2 is a Rigid with capacity 16, distance cost 0.789950237, and time cost 8.668385641
-Vehicle SP3 is a 8 metre with capacity 22, distance cost 0.928967671, and time cost 9.695140341
-Output:
-Vehicle SP1 travels from Depot to 2 to deliver 7 pallets. Expected unload start time is 2.173934945
-Vehicle SP1 travels from 2 to 4 to deliver 8 pallets. Expected unload start time is 2.534910214
-Vehicle SP1 travels from 4 to DepotReturn to deliver 0 pallets. Expected unload start time is 3.955232322
-Vehicle SP2 travels from Depot to 5 to deliver 5 pallets. Expected unload start time is 3.60959428
-Vehicle SP2 travels from 5 to 8 to deliver 8 pallets. Expected unload start time is 4.507249039
-Vehicle SP2 travels from 8 to DepotReturn to deliver 0 pallets. Expected unload start time is 6.580733165
-Vehicle SP3 travels from Depot to 6 to deliver 2 pallets. Expected unload start time is 19.052114944
-Vehicle SP3 travels from 1 to 7 to deliver 4 pallets. Expected unload start time is 20.708271276
-Vehicle SP3 travels from 3 to 9 to deliver 5 pallets. Expected unload start time is 22.136832549
-Vehicle SP3 travels from 6 to 1 to deliver 3 pallets. Expected unload start time is 19.706216754
-Vehicle SP3 travels from 7 to 3 to deliver 7 pallets. Expected unload start time is 21.284564578
-Vehicle SP3 travels from 9 to DepotReturn to deliver 0 pallets. Expected unload start time is 24
-Objective value: 547.761878407
-Solve time: 1531</t>
-  </si>
-  <si>
-    <t>Input:
-Customer 1 has 7 pallets demand and window 21-22 at (-89.28625092, -19.528047969) and average unload time 0.088997757
-Customer 2 has 4 pallets demand and window 0-24 at (-79.777105548, -9.173939447) and average unload time 0.037538711
-Customer 3 has 7 pallets demand and window 16-17 at (-33.418152765, 58.403208605) and average unload time 0.066067793
-Customer 4 has 2 pallets demand and window 21-22 at (-67.423165675, 5.262700744) and average unload time 0.036023941
-Customer 5 has 4 pallets demand and window 0-24 at (98.914487242, 88.355578019) and average unload time 0.095917834
-Customer 6 has 5 pallets demand and window 0-24 at (25.446939165, 21.79538432) and average unload time 0.024113694
-Customer 7 has 3 pallets demand and window 0-24 at (7.056143873, -94.900328213) and average unload time 0.160292982
-Customer 8 has 5 pallets demand and window 0-24 at (40.65728247, -98.782766593) and average unload time 0.093057304
-Customer 9 has 4 pallets demand and window 0-24 at (-29.999410591, 44.744931797) and average unload time 0.040302171
-Vehicle SP1 is a 8 metre with capacity 22, distance cost 1.258715184, and time cost 9.290447785
-Vehicle SP2 is a 8 metre with capacity 22, distance cost 1.258715184, and time cost 9.290447785
-Vehicle SP3 is a Rigid with capacity 16, distance cost 1.192043969, and time cost 12.274343946
-Output:
-Vehicle SP1 travels from Depot to 6 to deliver 5 pallets. Expected unload start time is 13.13618955
-Vehicle SP1 travels from 3 to 9 to deliver 4 pallets. Expected unload start time is 17.21408686
-Vehicle SP1 travels from 4 to DepotReturn to deliver 0 pallets. Expected unload start time is 22.28163343
-Vehicle SP1 travels from 5 to 3 to deliver 7 pallets. Expected unload start time is 16.575616781
-Vehicle SP1 travels from 6 to 5 to deliver 4 pallets. Expected unload start time is 14.495945003
-Vehicle SP1 travels from 9 to 4 to deliver 2 pallets. Expected unload start time is 21.364232506
-Vehicle SP2 travels from Depot to 8 to deliver 5 pallets. Expected unload start time is 18.903391314
-Vehicle SP2 travels from 1 to 2 to deliver 4 pallets. Expected unload start time is 22.600110017
-Vehicle SP2 travels from 2 to DepotReturn to deliver 0 pallets. Expected unload start time is 23.754050488
-Vehicle SP2 travels from 7 to 1 to deliver 7 pallets. Expected unload start time is 21.801398918
-Vehicle SP2 travels from 8 to 7 to deliver 3 pallets. Expected unload start time is 19.791486493
-Objective value: 979.546880192
-Solve time: 2543</t>
-  </si>
-  <si>
-    <t>Input:
-Customer 1 has 1 pallets demand and window 0-24 at (-28.036245659, -17.225052327) and average unload time 0.085209225
-Customer 2 has 2 pallets demand and window 0-24 at (6.541253413, 26.809224103) and average unload time 0.083426014
-Customer 3 has 8 pallets demand and window 0-24 at (-52.993129312, 60.816420932) and average unload time 0.031200118
-Customer 4 has 2 pallets demand and window 0-24 at (-26.68221185, -31.581039335) and average unload time 0.160122462
-Customer 5 has 8 pallets demand and window 0-24 at (-38.012863243, 54.408587385) and average unload time 0.102961038
-Customer 6 has 3 pallets demand and window 0-24 at (-64.239811877, 5.087250814) and average unload time 0.029552876
-Customer 7 has 8 pallets demand and window 0-24 at (-78.765896186, 19.51995595) and average unload time 0.05673099
-Customer 8 has 3 pallets demand and window 0-24 at (44.259367176, 67.001160548) and average unload time 0.098376949
-Customer 9 has 2 pallets demand and window 0-24 at (19.599437022, -1.403263413) and average unload time 0.117583924
-Vehicle SP1 is a 8 metre with capacity 22, distance cost 0.938588771, and time cost 8.318682999
-Vehicle SP2 is a 11 metre with capacity 30, distance cost 1.198179843, and time cost 12.236575487
-Vehicle SP3 is a Rigid with capacity 16, distance cost 0.852943858, and time cost 8.391208035
-Output:
-Vehicle SP1 travels from Depot to 5 to deliver 8 pallets. Expected unload start time is 1.683427341
-Vehicle SP1 travels from 2 to DepotReturn to deliver 0 pallets. Expected unload start time is 5.67440387
-Vehicle SP1 travels from 3 to 8 to deliver 3 pallets. Expected unload start time is 4.178493666
-Vehicle SP1 travels from 5 to 3 to deliver 8 pallets. Expected unload start time is 2.710780773
-Vehicle SP1 travels from 8 to 2 to deliver 2 pallets. Expected unload start time is 5.16260563
-Vehicle SP3 travels from Depot to 7 to deliver 8 pallets. Expected unload start time is 1.683245642
-Vehicle SP3 travels from 1 to 4 to deliver 2 pallets. Expected unload start time is 3.278757186
-Vehicle SP3 travels from 4 to 9 to deliver 2 pallets. Expected unload start time is 4.289641441
-Vehicle SP3 travels from 6 to 1 to deliver 1 pallets. Expected unload start time is 3.013301702
-Vehicle SP3 travels from 7 to 6 to deliver 3 pallets. Expected unload start time is 2.393056844
-Vehicle SP3 travels from 9 to DepotReturn to deliver 0 pallets. Expected unload start time is 4.770429385
-Objective value: 456.272158277
-Solve time: 3773</t>
-  </si>
-  <si>
-    <t>Input:
-Customer 1 has 7 pallets demand and window 0-24 at (-98.295543185, 28.838680271) and average unload time 0.083568028
-Customer 2 has 5 pallets demand and window 0-24 at (96.821349354, 63.117438185) and average unload time 0.154661074
-Customer 3 has 4 pallets demand and window 7-8 at (97.216978838, 83.925177555) and average unload time 0.139958536
-Customer 4 has 1 pallets demand and window 0-24 at (-88.163994032, 77.205049211) and average unload time 0.095396073
-Customer 5 has 4 pallets demand and window 0-24 at (-8.699768513, 95.259228286) and average unload time 0.09703133
-Customer 6 has 5 pallets demand and window 0-24 at (7.063486625, 29.899217106) and average unload time 0.138400927
-Customer 7 has 4 pallets demand and window 0-24 at (-42.340526342, -76.733334433) and average unload time 0.055918578
-Customer 8 has 5 pallets demand and window 0-24 at (28.874725285, 43.538279874) and average unload time 0.158006715
-Customer 9 has 2 pallets demand and window 0-24 at (97.816526146, 67.10313042) and average unload time 0.144491724
-Vehicle SP1 is a 11 metre with capacity 30, distance cost 1.406355449, and time cost 8.172318788
-Vehicle SP2 is a Rigid with capacity 16, distance cost 1.121860194, and time cost 11.033705054
-Vehicle SP3 is a Rigid with capacity 16, distance cost 1.121860194, and time cost 11.033705054
-Output:
-Vehicle SP1 travels from Depot to 2 to deliver 5 pallets. Expected unload start time is 5.675951392
-Vehicle SP1 travels from 2 to 9 to deliver 2 pallets. Expected unload start time is 6.500607453
-Vehicle SP1 travels from 3 to 8 to deliver 5 pallets. Expected unload start time is 8.552129868
-Vehicle SP1 travels from 6 to DepotReturn to deliver 0 pallets. Expected unload start time is 10.739753364
-Vehicle SP1 travels from 8 to 6 to deliver 5 pallets. Expected unload start time is 9.663720728
-Vehicle SP1 travels from 9 to 3 to deliver 4 pallets. Expected unload start time is 7
-Vehicle SP2 travels from Depot to 5 to deliver 4 pallets. Expected unload start time is 0.981476253
-Vehicle SP2 travels from 1 to 7 to deliver 4 pallets. Expected unload start time is 5.179841892
-Vehicle SP2 travels from 4 to 1 to deliver 7 pallets. Expected unload start time is 3.101316329
-Vehicle SP2 travels from 5 to 4 to deliver 1 pallets. Expected unload start time is 2.388218628
-Vehicle SP2 travels from 7 to DepotReturn to deliver 0 pallets. Expected unload start time is 6.499013009
-Objective value: 883.239440793
-Solve time: 3816</t>
-  </si>
-  <si>
-    <t>Input:
-Customer 1 has 3 pallets demand and window 0-24 at (-23.498030785, -43.856113603) and average unload time 0.027194175
-Customer 2 has 6 pallets demand and window 0-24 at (-42.128056612, -6.3881824) and average unload time 0.10469054
-Customer 3 has 4 pallets demand and window 0-24 at (-28.447896907, -82.395985978) and average unload time 0.133794218
-Customer 4 has 8 pallets demand and window 18-19 at (-8.071222481, 60.450597312) and average unload time 0.125079448
-Customer 5 has 7 pallets demand and window 11-12 at (-13.987889762, 78.726906583) and average unload time 0.115873077
-Customer 6 has 8 pallets demand and window 0-24 at (73.37704875, -1.017657956) and average unload time 0.061360482
-Customer 7 has 8 pallets demand and window 17-18 at (50.515733871, -24.98392526) and average unload time 0.138882183
-Customer 8 has 8 pallets demand and window 0-24 at (-37.382049308, 59.184789059) and average unload time 0.049230978
-Customer 9 has 3 pallets demand and window 0-24 at (-32.073023358, 18.506660692) and average unload time 0.157897097
-Vehicle SP1 is a Rigid with capacity 16, distance cost 1.391749975, and time cost 7.990959105
-Vehicle SP2 is a 11 metre with capacity 30, distance cost 0.876921746, and time cost 13.74369752
-Vehicle SP3 is a 8 metre with capacity 22, distance cost 0.920394129, and time cost 11.80192324
-Output:
-Vehicle SP1 travels from Depot to 7 to deliver 6 pallets. Expected unload start time is 17
-Vehicle SP1 travels from 6 to DepotReturn to deliver 0 pallets. Expected unload start time is 19.655494737
-Vehicle SP1 travels from 7 to 6 to deliver 8 pallets. Expected unload start time is 18.247309567
-Vehicle SP2 travels from Depot to 9 to deliver 3 pallets. Expected unload start time is 9.528115334
-Vehicle SP2 travels from 4 to DepotReturn to deliver 0 pallets. Expected unload start time is 19.762973617
-Vehicle SP2 travels from 5 to 4 to deliver 8 pallets. Expected unload start time is 18
-Vehicle SP2 travels from 8 to 5 to deliver 7 pallets. Expected unload start time is 11.289474264
-Vehicle SP2 travels from 9 to 8 to deliver 8 pallets. Expected unload start time is 10.51459555
-Vehicle SP3 travels from Depot to 2 to deliver 6 pallets. Expected unload start time is 14.52598026
-Vehicle SP3 travels from 1 to 3 to deliver 4 pallets. Expected unload start time is 16.244462033
-Vehicle SP3 travels from 2 to 1 to deliver 3 pallets. Expected unload start time is 15.677174006
-Vehicle SP3 travels from 3 to 7 to deliver 2 pallets. Expected unload start time is 18
-Vehicle SP3 travels from 7 to DepotReturn to deliver 0 pallets. Expected unload start time is 18.982218486
-Objective value: 674.552529342
-Solve time: 2016</t>
-  </si>
-  <si>
-    <t>Input:
-Customer 1 has 1 pallets demand and window 0-24 at (11.834520083, -34.69497582) and average unload time 0.12405363
-Customer 2 has 3 pallets demand and window 0-24 at (41.605570864, -6.837804372) and average unload time 0.084174776
-Customer 3 has 2 pallets demand and window 0-24 at (49.137565848, -98.744237743) and average unload time 0.023682467
-Customer 4 has 7 pallets demand and window 0-24 at (-15.247758841, -11.424281151) and average unload time 0.062313629
-Customer 5 has 6 pallets demand and window 0-24 at (19.481063592, -15.934477677) and average unload time 0.080422101
-Customer 6 has 7 pallets demand and window 0-24 at (52.746074388, -86.665776016) and average unload time 0.0924843
-Customer 7 has 2 pallets demand and window 0-24 at (-53.285214813, 74.566670395) and average unload time 0.111332598
-Customer 8 has 4 pallets demand and window 15-16 at (71.682839032, -32.000895689) and average unload time 0.13230102
-Customer 9 has 2 pallets demand and window 0-24 at (85.797636292, 34.928659846) and average unload time 0.066455263
-Vehicle SP1 is a Rigid with capacity 16, distance cost 0.881355464, and time cost 12.97673142
-Vehicle SP2 is a Rigid with capacity 16, distance cost 0.881355464, and time cost 12.97673142
-Vehicle SP3 is a 11 metre with capacity 30, distance cost 1.478781298, and time cost 13.61829347
-Output:
-Vehicle SP1 travels from Depot to 1 to deliver 1 pallets. Expected unload start time is 13.373962783
-Vehicle SP1 travels from 1 to 3 to deliver 2 pallets. Expected unload start time is 14.424520694
-Vehicle SP1 travels from 3 to 6 to deliver 7 pallets. Expected unload start time is 14.629460299
-Vehicle SP1 travels from 6 to 8 to deliver 4 pallets. Expected unload start time is 16
-Vehicle SP1 travels from 8 to DepotReturn to deliver 0 pallets. Expected unload start time is 17.510472929
-Vehicle SP2 travels from Depot to 7 to deliver 2 pallets. Expected unload start time is 2.193756855
-Vehicle SP2 travels from 2 to 5 to deliver 6 pallets. Expected unload start time is 5.668714203
-Vehicle SP2 travels from 5 to DepotReturn to deliver 0 pallets. Expected unload start time is 6.46584462
-Vehicle SP2 travels from 7 to 9 to deliver 2 pallets. Expected unload start time is 4.224183587
-Vehicle SP2 travels from 9 to 2 to deliver 3 pallets. Expected unload start time is 5.117169785
-Vehicle SP3 travels from Depot to 4 to deliver 7 pallets. Expected unload start time is 0.878984584
-Vehicle SP3 travels from 4 to DepotReturn to deliver 0 pallets. Expected unload start time is 1.553339713
-Objective value: 604.108253426
-Solve time: 1630</t>
-  </si>
-  <si>
-    <t>Input:
-Customer 1 has 4 pallets demand and window 0-24 at (-99.384142277, 45.343950296) and average unload time 0.032665165
-Customer 2 has 6 pallets demand and window 17-18 at (26.906318094, 93.004308817) and average unload time 0.072299486
-Customer 3 has 3 pallets demand and window 0-24 at (39.793715646, 36.264311174) and average unload time 0.161174762
-Customer 4 has 1 pallets demand and window 0-24 at (-45.584629966, 73.541804588) and average unload time 0.076915755
-Customer 5 has 4 pallets demand and window 15-16 at (92.119950497, 71.722666783) and average unload time 0.03681219
-Customer 6 has 5 pallets demand and window 0-24 at (-55.135378164, 46.926938175) and average unload time 0.036623955
-Customer 7 has 1 pallets demand and window 0-24 at (86.668141625, -74.823457892) and average unload time 0.129965851
-Customer 8 has 1 pallets demand and window 0-24 at (79.494514253, -71.872661892) and average unload time 0.133865056
-Customer 9 has 4 pallets demand and window 0-24 at (46.837818675, 77.049469898) and average unload time 0.163891254
-Vehicle SP1 is a 11 metre with capacity 30, distance cost 0.887695141, and time cost 11.885378503
-Vehicle SP2 is a 8 metre with capacity 22, distance cost 0.840698825, and time cost 8.869332308
-Vehicle SP3 is a 8 metre with capacity 22, distance cost 0.840698825, and time cost 8.869332308
-Output:
-Vehicle SP1 travels from Depot to 8 to deliver 1 pallets. Expected unload start time is 12.858421861
-Vehicle SP1 travels from 1 to 6 to deliver 5 pallets. Expected unload start time is 20.749808698
-Vehicle SP1 travels from 2 to 4 to deliver 1 pallets. Expected unload start time is 19.229502548
-Vehicle SP1 travels from 3 to 5 to deliver 4 pallets. Expected unload start time is 16
-Vehicle SP1 travels from 4 to 1 to deliver 4 pallets. Expected unload start time is 20.065684655
-Vehicle SP1 travels from 5 to 9 to deliver 4 pallets. Expected unload start time is 16.717178347
-Vehicle SP1 travels from 6 to DepotReturn to deliver 0 pallets. Expected unload start time is 21.837953288
-Vehicle SP1 travels from 7 to 3 to deliver 3 pallets. Expected unload start time is 14.726367945
-Vehicle SP1 travels from 8 to 7 to deliver 1 pallets. Expected unload start time is 13.089247062
-Vehicle SP1 travels from 9 to 2 to deliver 6 pallets. Expected unload start time is 17.857478693
-Objective value: 566.836248779
-Solve time: 976</t>
   </si>
   <si>
     <t>Input:
@@ -1826,24 +1848,6 @@
 Vehicle SP4 travels from 12 to 11 to deliver 3 pallets. Expected unload start time is 7.869715692
 Objective value: 958.651706322
 Solve time: 64992</t>
-  </si>
-  <si>
-    <t>CPLEX Generated Text File</t>
-  </si>
-  <si>
-    <t>Meta Routes</t>
-  </si>
-  <si>
-    <t>Math Objective (evaluated by meta)</t>
-  </si>
-  <si>
-    <t>Meta Objective</t>
-  </si>
-  <si>
-    <t>Meta Solve Time</t>
-  </si>
-  <si>
-    <t>Meta Difference (%)</t>
   </si>
   <si>
     <t>Input:
@@ -2292,12 +2296,62 @@
 Objective value: 812.48444796
 Solve time: 831002</t>
   </si>
+  <si>
+    <t>Math Routes</t>
+  </si>
+  <si>
+    <t>Input:
+Customer 1 has 5 pallets demand and window 0-24 at (84.753359789, 0.708412138) and average unload time 0.03544077
+Customer 2 has 6 pallets demand and window 0-24 at (25.716953309, 7.08976649) and average unload time 0.095550916
+Customer 3 has 6 pallets demand and window 0-24 at (52.771131766, -28.766219398) and average unload time 0.036237602
+Customer 4 has 4 pallets demand and window 0-24 at (74.381512349, 25.742805099) and average unload time 0.034946364
+Customer 5 has 8 pallets demand and window 0-24 at (18.64334534, -45.947679211) and average unload time 0.09486033
+Customer 6 has 6 pallets demand and window 0-24 at (-77.86758515, 89.470682431) and average unload time 0.144237867
+Customer 7 has 6 pallets demand and window 0-24 at (59.786370802, -17.698493899) and average unload time 0.083586352
+Customer 8 has 4 pallets demand and window 0-24 at (-55.365673025, -49.637674677) and average unload time 0.027818996
+Customer 9 has 2 pallets demand and window 0-24 at (-98.051802268, -34.299639075) and average unload time 0.148201537
+Customer 10 has 5 pallets demand and window 0-24 at (-60.496849863, 6.443587766) and average unload time 0.046626558
+Customer 11 has 4 pallets demand and window 0-24 at (-24.12209485, 90.551225513) and average unload time 0.073298571
+Customer 12 has 8 pallets demand and window 0-24 at (-59.506396246, 47.301038302) and average unload time 0.12406225
+Customer 13 has 6 pallets demand and window 0-24 at (-10.265754655, 36.49442607) and average unload time 0.154297596
+Customer 14 has 7 pallets demand and window 0-24 at (-62.655609884, 89.491563913) and average unload time 0.052367458
+Customer 15 has 6 pallets demand and window 0-24 at (-35.89517189, 0.272925402) and average unload time 0.059892206
+Vehicle SP1 is a Rigid with capacity 16, distance cost 0.927665343, and time cost 7.198776353
+Vehicle SP2 is a 8 metre with capacity 22, distance cost 1.06969644, and time cost 12.411960199
+Vehicle SP3 is a Rigid with capacity 16, distance cost 0.927665343, and time cost 7.198776353
+Vehicle SP4 is a 11 metre with capacity 30, distance cost 1.372897043, and time cost 9.652895489
+Vehicle SP5 is a 11 metre with capacity 30, distance cost 1.372897043, and time cost 9.652895489
+Output:
+Vehicle SP1 travels from Depot to 15 to deliver 5 pallets. Expected unload start time is 21.594341327
+Vehicle SP1 travels from 8 to DepotReturn to deliver 0 pallets. Expected unload start time is 25.040763116
+Vehicle SP1 travels from 9 to 8 to deliver 4 pallets. Expected unload start time is 24
+Vehicle SP1 travels from 10 to 9 to deliver 2 pallets. Expected unload start time is 23.136620162
+Vehicle SP1 travels from 15 to 10 to deliver 5 pallets. Expected unload start time is 22.210849188
+Vehicle SP2 travels from Depot to 4 to deliver 4 pallets. Expected unload start time is 4.036699125
+Vehicle SP2 travels from 1 to 7 to deliver 6 pallets. Expected unload start time is 5.080146901
+Vehicle SP2 travels from 3 to DepotReturn to deliver 0 pallets. Expected unload start time is 6.714166316
+Vehicle SP2 travels from 4 to 1 to deliver 5 pallets. Expected unload start time is 4.5152083
+Vehicle SP2 travels from 7 to 3 to deliver 6 pallets. Expected unload start time is 5.745461823
+Vehicle SP3 travels from Depot to 13 to deliver 2 pallets. Expected unload start time is 21.868395567
+Vehicle SP3 travels from 2 to 5 to deliver 8 pallets. Expected unload start time is 24
+Vehicle SP3 travels from 5 to DepotReturn to deliver 0 pallets. Expected unload start time is 25.378706648
+Vehicle SP3 travels from 13 to 2 to deliver 6 pallets. Expected unload start time is 22.757856127
+Vehicle SP4 travels from Depot to 13 to deliver 4 pallets. Expected unload start time is 5.227493205
+Vehicle SP4 travels from 6 to 12 to deliver 8 pallets. Expected unload start time is 9.314353826
+Vehicle SP4 travels from 11 to 14 to deliver 7 pallets. Expected unload start time is 7.317284426
+Vehicle SP4 travels from 12 to 15 to deliver 1 pallets. Expected unload start time is 10.964633763
+Vehicle SP4 travels from 13 to 11 to deliver 4 pallets. Expected unload start time is 6.542239113
+Vehicle SP4 travels from 14 to 6 to deliver 6 pallets. Expected unload start time is 7.874006501
+Vehicle SP4 travels from 15 to DepotReturn to deliver 0 pallets. Expected unload start time is 11.473228587
+Objective value: 1036.060760446
+Solve time: 27788201</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2307,6 +2361,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -2331,10 +2392,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2343,13 +2405,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2378,14 +2445,14 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:v>3 Vehicles</c:v>
@@ -2395,9 +2462,9 @@
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
+              <a:prstDash val="solid"/>
               <a:round/>
             </a:ln>
-            <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
@@ -2410,8 +2477,8 @@
                 <a:solidFill>
                   <a:schemeClr val="accent2"/>
                 </a:solidFill>
+                <a:prstDash val="solid"/>
               </a:ln>
-              <a:effectLst/>
             </c:spPr>
           </c:marker>
           <c:cat>
@@ -2453,12 +2520,12 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-27FF-4C0F-B0ED-AACB44CE6FE7}"/>
+              <c16:uniqueId val="{00000000-0FD1-40CB-9EAD-A6AB7805499F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
             <c:v>5 Vehicles</c:v>
@@ -2468,9 +2535,9 @@
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
+              <a:prstDash val="solid"/>
               <a:round/>
             </a:ln>
-            <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
@@ -2483,8 +2550,8 @@
                 <a:solidFill>
                   <a:schemeClr val="accent1"/>
                 </a:solidFill>
+                <a:prstDash val="solid"/>
               </a:ln>
-              <a:effectLst/>
             </c:spPr>
           </c:marker>
           <c:cat>
@@ -2518,7 +2585,7 @@
                   <c:v>86.60499999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>551.22080000000005</c:v>
+                  <c:v>3330.0409</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2526,7 +2593,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-27FF-4C0F-B0ED-AACB44CE6FE7}"/>
+              <c16:uniqueId val="{00000001-0FD1-40CB-9EAD-A6AB7805499F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2557,7 +2624,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -2581,29 +2648,9 @@
             <a:noFill/>
             <a:ln>
               <a:noFill/>
+              <a:prstDash val="solid"/>
             </a:ln>
-            <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -2618,16 +2665,16 @@
                 <a:lumOff val="85000"/>
               </a:schemeClr>
             </a:solidFill>
+            <a:prstDash val="solid"/>
             <a:round/>
           </a:ln>
-          <a:effectLst/>
         </c:spPr>
         <c:txPr>
           <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2666,9 +2713,9 @@
                   <a:lumOff val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
+              <a:prstDash val="solid"/>
               <a:round/>
             </a:ln>
-            <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
         <c:title>
@@ -2678,7 +2725,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -2702,29 +2749,9 @@
             <a:noFill/>
             <a:ln>
               <a:noFill/>
+              <a:prstDash val="solid"/>
             </a:ln>
-            <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -2734,15 +2761,15 @@
           <a:noFill/>
           <a:ln>
             <a:noFill/>
+            <a:prstDash val="solid"/>
           </a:ln>
-          <a:effectLst/>
         </c:spPr>
         <c:txPr>
           <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2761,13 +2788,6 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="l"/>
@@ -2775,10 +2795,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.16526273565984756"/>
+          <c:x val="0.16526273565984759"/>
           <c:y val="5.9258760816102797E-2"/>
-          <c:w val="0.10727844142255451"/>
-          <c:h val="0.11075636019357067"/>
+          <c:w val="0.10727844142255449"/>
+          <c:h val="0.1107563601935707"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -2786,15 +2806,15 @@
         <a:noFill/>
         <a:ln>
           <a:noFill/>
+          <a:prstDash val="solid"/>
         </a:ln>
-        <a:effectLst/>
       </c:spPr>
       <c:txPr>
         <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -2812,589 +2832,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3417,7 +2862,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4A4EAE7-ED32-49DC-9272-0DED170FE2E5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3734,7 +3179,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45BA14B9-FFE6-499B-A18C-5593F488278E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3743,31 +3188,31 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -3911,19 +3356,19 @@
       </c>
       <c r="C7">
         <f ca="1">AVERAGE(OFFSET('Run Data'!$E$2, (ROWS(Graphs!C$1:C7)-2)*10,0,10,1))</f>
-        <v>551.22080000000005</v>
+        <v>3330.0409</v>
       </c>
       <c r="D7">
         <f ca="1">MIN(OFFSET('Run Data'!$E$2, (ROWS(Graphs!D$1:D7)-2)*10,0,10,1))</f>
-        <v>0</v>
+        <v>13.83</v>
       </c>
       <c r="E7">
         <f ca="1">MAX(OFFSET('Run Data'!$E$2, (ROWS(Graphs!E$1:E7)-2)*10,0,10,1))</f>
-        <v>1908.806</v>
+        <v>27788.201000000001</v>
       </c>
       <c r="F7">
         <f ca="1">_xlfn.STDEV.S(OFFSET('Run Data'!$E$2, (ROWS(Graphs!F$1:F7)-2)*10,0,10,1))</f>
-        <v>631.44379892659038</v>
+        <v>8614.7117447359578</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -4011,72 +3456,76 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18417324-ACF0-437E-8BA4-5422B4C39387}">
-  <dimension ref="A1:M560"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:N209"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C38" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F60" sqref="F60"/>
+      <selection pane="bottomRight" activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" style="4" customWidth="1"/>
+    <col min="3" max="3" width="5.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="150.7109375" style="3" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="3"/>
-    <col min="9" max="9" width="14.42578125" customWidth="1"/>
-    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="100.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.28515625" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="C1" s="1" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>62</v>
+        <v>11</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>77</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>63</v>
+        <v>14</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>9</v>
       </c>
@@ -4087,22 +3536,38 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <f>E2/60</f>
+        <f t="shared" ref="D2:D33" si="0">E2/60</f>
         <v>1.0683333333333333E-2</v>
       </c>
       <c r="E2">
-        <f>F2/1000</f>
+        <f t="shared" ref="E2:E33" si="1">F2/1000</f>
         <v>0.64100000000000001</v>
       </c>
       <c r="F2">
         <v>641</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H2" s="5"/>
-    </row>
-    <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="7"/>
+      <c r="J2">
+        <v>681.47077530873207</v>
+      </c>
+      <c r="K2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2">
+        <v>214.0572899</v>
+      </c>
+      <c r="M2">
+        <v>737.89099450163053</v>
+      </c>
+      <c r="N2" s="5">
+        <f>(M2-J2)/J2</f>
+        <v>8.2791839704847159E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>9</v>
       </c>
@@ -4113,22 +3578,22 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D61" si="0">E3/60</f>
+        <f t="shared" si="0"/>
         <v>1.5050000000000001E-2</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E61" si="1">F3/1000</f>
+        <f t="shared" si="1"/>
         <v>0.90300000000000002</v>
       </c>
       <c r="F3">
         <v>903</v>
       </c>
-      <c r="G3" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H3" s="5"/>
-    </row>
-    <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="7"/>
+    </row>
+    <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>9</v>
       </c>
@@ -4149,12 +3614,12 @@
       <c r="F4">
         <v>630</v>
       </c>
-      <c r="G4" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="H4" s="5"/>
-    </row>
-    <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="7"/>
+    </row>
+    <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>9</v>
       </c>
@@ -4175,12 +3640,12 @@
       <c r="F5">
         <v>1531</v>
       </c>
-      <c r="G5" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="H5" s="5"/>
-    </row>
-    <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="7"/>
+    </row>
+    <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>9</v>
       </c>
@@ -4201,12 +3666,12 @@
       <c r="F6">
         <v>2543</v>
       </c>
-      <c r="G6" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H6" s="5"/>
-    </row>
-    <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G6" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="7"/>
+    </row>
+    <row r="7" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>9</v>
       </c>
@@ -4227,12 +3692,12 @@
       <c r="F7">
         <v>3773</v>
       </c>
-      <c r="G7" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H7" s="5"/>
-    </row>
-    <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G7" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="7"/>
+    </row>
+    <row r="8" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>9</v>
       </c>
@@ -4247,18 +3712,18 @@
         <v>6.3600000000000004E-2</v>
       </c>
       <c r="E8">
-        <f>F8/1000</f>
+        <f t="shared" si="1"/>
         <v>3.8159999999999998</v>
       </c>
       <c r="F8">
         <v>3816</v>
       </c>
-      <c r="G8" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="H8" s="5"/>
-    </row>
-    <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G8" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" s="7"/>
+    </row>
+    <row r="9" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>9</v>
       </c>
@@ -4279,12 +3744,12 @@
       <c r="F9">
         <v>2016</v>
       </c>
-      <c r="G9" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="H9" s="5"/>
-    </row>
-    <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G9" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" s="7"/>
+    </row>
+    <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -4305,12 +3770,12 @@
       <c r="F10">
         <v>1630</v>
       </c>
-      <c r="G10" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="H10" s="5"/>
-    </row>
-    <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G10" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" s="7"/>
+    </row>
+    <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -4331,12 +3796,12 @@
       <c r="F11">
         <v>976</v>
       </c>
-      <c r="G11" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="H11" s="5"/>
-    </row>
-    <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G11" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" s="7"/>
+    </row>
+    <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>12</v>
       </c>
@@ -4347,22 +3812,22 @@
         <v>1</v>
       </c>
       <c r="D12">
-        <f t="shared" ref="D12:D31" si="2">E12/60</f>
+        <f t="shared" si="0"/>
         <v>3.9316666666666666E-2</v>
       </c>
       <c r="E12">
-        <f t="shared" ref="E12:E31" si="3">F12/1000</f>
+        <f t="shared" si="1"/>
         <v>2.359</v>
       </c>
       <c r="F12">
         <v>2359</v>
       </c>
-      <c r="G12" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H12" s="5"/>
-    </row>
-    <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G12" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12" s="7"/>
+    </row>
+    <row r="13" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -4373,22 +3838,22 @@
         <v>2</v>
       </c>
       <c r="D13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0.14400000000000002</v>
       </c>
       <c r="E13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>8.64</v>
       </c>
       <c r="F13">
         <v>8640</v>
       </c>
-      <c r="G13" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H13" s="5"/>
-    </row>
-    <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G13" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H13" s="7"/>
+    </row>
+    <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -4399,22 +3864,22 @@
         <v>3</v>
       </c>
       <c r="D14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>2.6083333333333333E-2</v>
       </c>
       <c r="E14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1.5649999999999999</v>
       </c>
       <c r="F14">
         <v>1565</v>
       </c>
-      <c r="G14" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H14" s="5"/>
-    </row>
-    <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G14" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H14" s="7"/>
+    </row>
+    <row r="15" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>12</v>
       </c>
@@ -4425,22 +3890,22 @@
         <v>4</v>
       </c>
       <c r="D15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>8.8149999999999992E-2</v>
       </c>
       <c r="E15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>5.2889999999999997</v>
       </c>
       <c r="F15">
         <v>5289</v>
       </c>
-      <c r="G15" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H15" s="5"/>
-    </row>
-    <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G15" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H15" s="7"/>
+    </row>
+    <row r="16" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>12</v>
       </c>
@@ -4451,20 +3916,20 @@
         <v>5</v>
       </c>
       <c r="D16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0.13175000000000001</v>
       </c>
       <c r="E16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>7.9050000000000002</v>
       </c>
       <c r="F16">
         <v>7905</v>
       </c>
-      <c r="G16" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="H16" s="5"/>
+      <c r="G16" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H16" s="7"/>
     </row>
     <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17">
@@ -4477,20 +3942,20 @@
         <v>6</v>
       </c>
       <c r="D17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>3.3716666666666666E-2</v>
       </c>
       <c r="E17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>2.0230000000000001</v>
       </c>
       <c r="F17">
         <v>2023</v>
       </c>
-      <c r="G17" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H17" s="5"/>
+      <c r="G17" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H17" s="7"/>
     </row>
     <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18">
@@ -4503,20 +3968,20 @@
         <v>7</v>
       </c>
       <c r="D18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>6.0733333333333334E-2</v>
       </c>
       <c r="E18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>3.6440000000000001</v>
       </c>
       <c r="F18">
         <v>3644</v>
       </c>
-      <c r="G18" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H18" s="5"/>
+      <c r="G18" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H18" s="7"/>
     </row>
     <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19">
@@ -4529,20 +3994,20 @@
         <v>8</v>
       </c>
       <c r="D19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0.19331666666666666</v>
       </c>
       <c r="E19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>11.599</v>
       </c>
       <c r="F19">
         <v>11599</v>
       </c>
-      <c r="G19" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H19" s="5"/>
+      <c r="G19" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H19" s="7"/>
     </row>
     <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20">
@@ -4555,20 +4020,20 @@
         <v>9</v>
       </c>
       <c r="D20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>1.1155166666666667</v>
       </c>
       <c r="E20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>66.930999999999997</v>
       </c>
       <c r="F20">
         <v>66931</v>
       </c>
-      <c r="G20" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H20" s="5"/>
+      <c r="G20" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H20" s="7"/>
     </row>
     <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21">
@@ -4581,20 +4046,20 @@
         <v>10</v>
       </c>
       <c r="D21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0.54903333333333337</v>
       </c>
       <c r="E21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>32.942</v>
       </c>
       <c r="F21">
         <v>32942</v>
       </c>
-      <c r="G21" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="5"/>
+      <c r="G21" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H21" s="7"/>
     </row>
     <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22">
@@ -4607,20 +4072,20 @@
         <v>1</v>
       </c>
       <c r="D22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>3.377733333333333</v>
       </c>
       <c r="E22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>202.66399999999999</v>
       </c>
       <c r="F22">
         <v>202664</v>
       </c>
-      <c r="G22" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H22" s="5"/>
+      <c r="G22" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H22" s="7"/>
     </row>
     <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23">
@@ -4633,20 +4098,20 @@
         <v>2</v>
       </c>
       <c r="D23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0.58639999999999992</v>
       </c>
       <c r="E23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>35.183999999999997</v>
       </c>
       <c r="F23">
         <v>35184</v>
       </c>
-      <c r="G23" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H23" s="5"/>
+      <c r="G23" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H23" s="7"/>
     </row>
     <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24">
@@ -4659,20 +4124,20 @@
         <v>3</v>
       </c>
       <c r="D24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>6.3454833333333331</v>
       </c>
       <c r="E24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>380.72899999999998</v>
       </c>
       <c r="F24">
         <v>380729</v>
       </c>
-      <c r="G24" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H24" s="5"/>
+      <c r="G24" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="H24" s="7"/>
     </row>
     <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25">
@@ -4685,20 +4150,20 @@
         <v>4</v>
       </c>
       <c r="D25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>8.6769999999999996</v>
       </c>
       <c r="E25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>520.62</v>
       </c>
       <c r="F25">
         <v>520620</v>
       </c>
-      <c r="G25" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H25" s="5"/>
+      <c r="G25" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="H25" s="7"/>
     </row>
     <row r="26" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26">
@@ -4711,20 +4176,20 @@
         <v>5</v>
       </c>
       <c r="D26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>1.3177833333333333</v>
       </c>
       <c r="E26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>79.066999999999993</v>
       </c>
       <c r="F26">
         <v>79067</v>
       </c>
-      <c r="G26" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H26" s="5"/>
+      <c r="G26" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="H26" s="7"/>
     </row>
     <row r="27" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27">
@@ -4737,20 +4202,20 @@
         <v>6</v>
       </c>
       <c r="D27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0.26113333333333333</v>
       </c>
       <c r="E27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>15.667999999999999</v>
       </c>
       <c r="F27">
         <v>15668</v>
       </c>
-      <c r="G27" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H27" s="5"/>
+      <c r="G27" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="H27" s="7"/>
     </row>
     <row r="28" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28">
@@ -4763,20 +4228,20 @@
         <v>7</v>
       </c>
       <c r="D28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>1.2154</v>
       </c>
       <c r="E28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>72.924000000000007</v>
       </c>
       <c r="F28">
         <v>72924</v>
       </c>
-      <c r="G28" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H28" s="5"/>
+      <c r="G28" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H28" s="7"/>
     </row>
     <row r="29" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29">
@@ -4789,20 +4254,20 @@
         <v>8</v>
       </c>
       <c r="D29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0.1333</v>
       </c>
       <c r="E29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>7.9980000000000002</v>
       </c>
       <c r="F29">
         <v>7998</v>
       </c>
-      <c r="G29" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H29" s="5"/>
+      <c r="G29" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H29" s="7"/>
     </row>
     <row r="30" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30">
@@ -4815,20 +4280,20 @@
         <v>9</v>
       </c>
       <c r="D30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0.30645</v>
       </c>
       <c r="E30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>18.387</v>
       </c>
       <c r="F30">
         <v>18387</v>
       </c>
-      <c r="G30" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H30" s="5"/>
+      <c r="G30" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" s="7"/>
     </row>
     <row r="31" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31">
@@ -4841,20 +4306,20 @@
         <v>10</v>
       </c>
       <c r="D31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>1.3606833333333335</v>
       </c>
       <c r="E31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>81.641000000000005</v>
       </c>
       <c r="F31">
         <v>81641</v>
       </c>
-      <c r="G31" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H31" s="5"/>
+      <c r="G31" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H31" s="7"/>
     </row>
     <row r="32" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32">
@@ -4877,10 +4342,10 @@
       <c r="F32">
         <v>13318</v>
       </c>
-      <c r="G32" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="H32" s="5"/>
+      <c r="G32" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="H32" s="7"/>
     </row>
     <row r="33" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33">
@@ -4903,10 +4368,10 @@
       <c r="F33">
         <v>1909</v>
       </c>
-      <c r="G33" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="H33" s="5"/>
+      <c r="G33" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H33" s="7"/>
     </row>
     <row r="34" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34">
@@ -4919,20 +4384,20 @@
         <v>3</v>
       </c>
       <c r="D34">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D34:D61" si="2">E34/60</f>
         <v>0.43746666666666667</v>
       </c>
       <c r="E34">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="E34:E61" si="3">F34/1000</f>
         <v>26.248000000000001</v>
       </c>
       <c r="F34">
         <v>26248</v>
       </c>
-      <c r="G34" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="H34" s="5"/>
+      <c r="G34" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="H34" s="7"/>
     </row>
     <row r="35" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35">
@@ -4945,20 +4410,20 @@
         <v>4</v>
       </c>
       <c r="D35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3.7483333333333334E-2</v>
       </c>
       <c r="E35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2.2490000000000001</v>
       </c>
       <c r="F35">
         <v>2249</v>
       </c>
-      <c r="G35" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="H35" s="5"/>
+      <c r="G35" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="H35" s="7"/>
     </row>
     <row r="36" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36">
@@ -4971,20 +4436,20 @@
         <v>5</v>
       </c>
       <c r="D36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>9.9099999999999994E-2</v>
       </c>
       <c r="E36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5.9459999999999997</v>
       </c>
       <c r="F36">
         <v>5946</v>
       </c>
-      <c r="G36" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="H36" s="5"/>
+      <c r="G36" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="H36" s="7"/>
     </row>
     <row r="37" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37">
@@ -4997,20 +4462,20 @@
         <v>6</v>
       </c>
       <c r="D37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.17830000000000001</v>
       </c>
       <c r="E37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>10.698</v>
       </c>
       <c r="F37">
         <v>10698</v>
       </c>
-      <c r="G37" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H37" s="5"/>
+      <c r="G37" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="H37" s="7"/>
     </row>
     <row r="38" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38">
@@ -5023,20 +4488,20 @@
         <v>7</v>
       </c>
       <c r="D38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.11051666666666667</v>
       </c>
       <c r="E38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6.6310000000000002</v>
       </c>
       <c r="F38">
         <v>6631</v>
       </c>
-      <c r="G38" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H38" s="5"/>
+      <c r="G38" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="H38" s="7"/>
     </row>
     <row r="39" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39">
@@ -5049,20 +4514,20 @@
         <v>8</v>
       </c>
       <c r="D39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.38350000000000001</v>
       </c>
       <c r="E39">
-        <f>F39/1000</f>
+        <f t="shared" si="3"/>
         <v>23.01</v>
       </c>
       <c r="F39">
         <v>23010</v>
       </c>
-      <c r="G39" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="H39" s="5"/>
+      <c r="G39" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="H39" s="7"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40">
@@ -5075,20 +4540,20 @@
         <v>9</v>
       </c>
       <c r="D40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.20924999999999999</v>
       </c>
       <c r="E40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>12.555</v>
       </c>
       <c r="F40">
         <v>12555</v>
       </c>
-      <c r="G40" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="H40" s="5"/>
+      <c r="G40" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H40" s="7"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41">
@@ -5101,20 +4566,20 @@
         <v>10</v>
       </c>
       <c r="D41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.10779999999999999</v>
       </c>
       <c r="E41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6.468</v>
       </c>
       <c r="F41">
         <v>6468</v>
       </c>
-      <c r="G41" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="H41" s="5"/>
+      <c r="G41" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="H41" s="7"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42">
@@ -5127,20 +4592,20 @@
         <v>1</v>
       </c>
       <c r="D42">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.5835833333333333</v>
       </c>
       <c r="E42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>95.015000000000001</v>
       </c>
       <c r="F42">
         <v>95015</v>
       </c>
-      <c r="G42" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="H42" s="5"/>
+      <c r="G42" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H42" s="7"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43">
@@ -5153,20 +4618,20 @@
         <v>2</v>
       </c>
       <c r="D43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.50076666666666669</v>
       </c>
       <c r="E43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>30.045999999999999</v>
       </c>
       <c r="F43">
         <v>30046</v>
       </c>
-      <c r="G43" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="H43" s="5"/>
+      <c r="G43" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="H43" s="7"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44">
@@ -5179,20 +4644,20 @@
         <v>3</v>
       </c>
       <c r="D44">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.9406166666666667</v>
       </c>
       <c r="E44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>176.43700000000001</v>
       </c>
       <c r="F44">
         <v>176437</v>
       </c>
-      <c r="G44" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="H44" s="5"/>
+      <c r="G44" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="H44" s="7"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45">
@@ -5205,20 +4670,20 @@
         <v>4</v>
       </c>
       <c r="D45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.2503166666666667</v>
       </c>
       <c r="E45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>75.019000000000005</v>
       </c>
       <c r="F45">
         <v>75019</v>
       </c>
-      <c r="G45" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="H45" s="5"/>
+      <c r="G45" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="H45" s="7"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46">
@@ -5231,20 +4696,20 @@
         <v>5</v>
       </c>
       <c r="D46">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.67005000000000003</v>
       </c>
       <c r="E46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>40.203000000000003</v>
       </c>
       <c r="F46">
         <v>40203</v>
       </c>
-      <c r="G46" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="H46" s="5"/>
+      <c r="G46" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="H46" s="7"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47">
@@ -5257,20 +4722,20 @@
         <v>6</v>
       </c>
       <c r="D47">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.22886666666666666</v>
       </c>
       <c r="E47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>13.731999999999999</v>
       </c>
       <c r="F47">
         <v>13732</v>
       </c>
-      <c r="G47" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="H47" s="5"/>
+      <c r="G47" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="H47" s="7"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48">
@@ -5283,20 +4748,20 @@
         <v>7</v>
       </c>
       <c r="D48">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.28701666666666664</v>
       </c>
       <c r="E48">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>17.221</v>
       </c>
       <c r="F48">
         <v>17221</v>
       </c>
-      <c r="G48" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="H48" s="5"/>
+      <c r="G48" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="H48" s="7"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49">
@@ -5309,20 +4774,20 @@
         <v>8</v>
       </c>
       <c r="D49">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.43863333333333338</v>
       </c>
       <c r="E49">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>26.318000000000001</v>
       </c>
       <c r="F49">
         <v>26318</v>
       </c>
-      <c r="G49" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="H49" s="5"/>
+      <c r="G49" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="H49" s="7"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50">
@@ -5335,20 +4800,20 @@
         <v>9</v>
       </c>
       <c r="D50">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.0832000000000002</v>
       </c>
       <c r="E50">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>64.992000000000004</v>
       </c>
       <c r="F50">
         <v>64992</v>
       </c>
-      <c r="G50" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="H50" s="5"/>
+      <c r="G50" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="H50" s="7"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51">
@@ -5361,20 +4826,20 @@
         <v>10</v>
       </c>
       <c r="D51">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5.4511166666666666</v>
       </c>
       <c r="E51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>327.06700000000001</v>
       </c>
       <c r="F51">
         <v>327067</v>
       </c>
-      <c r="G51" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="H51" s="5"/>
+      <c r="G51" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="H51" s="7"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52">
@@ -5387,20 +4852,20 @@
         <v>1</v>
       </c>
       <c r="D52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.9801833333333336</v>
       </c>
       <c r="E52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>178.81100000000001</v>
       </c>
       <c r="F52">
         <v>178811</v>
       </c>
-      <c r="G52" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="H52" s="5"/>
+      <c r="G52" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="H52" s="7"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53">
@@ -5413,20 +4878,20 @@
         <v>2</v>
       </c>
       <c r="D53">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3.0230833333333331</v>
       </c>
       <c r="E53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>181.38499999999999</v>
       </c>
       <c r="F53">
         <v>181385</v>
       </c>
-      <c r="G53" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="H53" s="5"/>
+      <c r="G53" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="H53" s="7"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54">
@@ -5439,20 +4904,20 @@
         <v>3</v>
       </c>
       <c r="D54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.23050000000000001</v>
       </c>
       <c r="E54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>13.83</v>
       </c>
       <c r="F54">
         <v>13830</v>
       </c>
-      <c r="G54" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="H54" s="5"/>
+      <c r="G54" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="H54" s="7"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55">
@@ -5465,20 +4930,20 @@
         <v>4</v>
       </c>
       <c r="D55">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>31.813433333333332</v>
       </c>
       <c r="E55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1908.806</v>
       </c>
       <c r="F55">
         <v>1908806</v>
       </c>
-      <c r="G55" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="H55" s="5"/>
+      <c r="G55" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="H55" s="7"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56">
@@ -5491,20 +4956,20 @@
         <v>5</v>
       </c>
       <c r="D56">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6.3772166666666665</v>
       </c>
       <c r="E56">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>382.63299999999998</v>
       </c>
       <c r="F56">
         <v>382633</v>
       </c>
-      <c r="G56" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="H56" s="5"/>
+      <c r="G56" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="H56" s="7"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57">
@@ -5517,20 +4982,20 @@
         <v>6</v>
       </c>
       <c r="D57">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>11.927283333333332</v>
       </c>
       <c r="E57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>715.63699999999994</v>
       </c>
       <c r="F57">
         <v>715637</v>
       </c>
-      <c r="G57" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="H57" s="5"/>
+      <c r="G57" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="H57" s="7"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58">
@@ -5543,20 +5008,20 @@
         <v>7</v>
       </c>
       <c r="D58">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.80586666666666662</v>
       </c>
       <c r="E58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>48.351999999999997</v>
       </c>
       <c r="F58">
         <v>48352</v>
       </c>
-      <c r="G58" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="H58" s="5"/>
+      <c r="G58" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="H58" s="7"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59">
@@ -5569,20 +5034,20 @@
         <v>8</v>
       </c>
       <c r="D59">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>20.862533333333332</v>
       </c>
       <c r="E59">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1251.752</v>
       </c>
       <c r="F59">
         <v>1251752</v>
       </c>
-      <c r="G59" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="H59" s="5"/>
+      <c r="G59" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="H59" s="7"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60">
@@ -5595,20 +5060,20 @@
         <v>9</v>
       </c>
       <c r="D60">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>13.850033333333332</v>
       </c>
       <c r="E60">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>831.00199999999995</v>
       </c>
       <c r="F60">
         <v>831002</v>
       </c>
-      <c r="G60" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="H60" s="5"/>
+      <c r="G60" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H60" s="7"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61">
@@ -5621,2011 +5086,612 @@
         <v>10</v>
       </c>
       <c r="D61">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>463.13668333333334</v>
       </c>
       <c r="E61">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G61" s="5"/>
-      <c r="H61" s="5"/>
+        <f t="shared" si="3"/>
+        <v>27788.201000000001</v>
+      </c>
+      <c r="F61" s="4">
+        <v>27788201</v>
+      </c>
+      <c r="G61" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="H61" s="7"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G62" s="5"/>
-      <c r="H62" s="5"/>
+      <c r="G62" s="6"/>
+      <c r="H62" s="7"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G63" s="5"/>
-      <c r="H63" s="5"/>
+      <c r="G63" s="6"/>
+      <c r="H63" s="7"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G64" s="5"/>
-      <c r="H64" s="5"/>
+      <c r="G64" s="6"/>
+      <c r="H64" s="7"/>
     </row>
     <row r="65" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G65" s="5"/>
-      <c r="H65" s="5"/>
+      <c r="G65" s="6"/>
+      <c r="H65" s="7"/>
     </row>
     <row r="66" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G66" s="5"/>
-      <c r="H66" s="5"/>
+      <c r="G66" s="6"/>
+      <c r="H66" s="7"/>
     </row>
     <row r="67" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G67" s="5"/>
-      <c r="H67" s="5"/>
+      <c r="G67" s="6"/>
+      <c r="H67" s="7"/>
     </row>
     <row r="68" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G68" s="5"/>
-      <c r="H68" s="5"/>
+      <c r="G68" s="6"/>
+      <c r="H68" s="7"/>
     </row>
     <row r="69" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G69" s="5"/>
-      <c r="H69" s="5"/>
+      <c r="G69" s="6"/>
+      <c r="H69" s="7"/>
     </row>
     <row r="70" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G70" s="5"/>
-      <c r="H70" s="5"/>
+      <c r="G70" s="6"/>
+      <c r="H70" s="7"/>
     </row>
     <row r="71" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G71" s="5"/>
-      <c r="H71" s="5"/>
+      <c r="G71" s="6"/>
+      <c r="H71" s="7"/>
     </row>
     <row r="72" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G72" s="5"/>
-      <c r="H72" s="5"/>
+      <c r="G72" s="6"/>
+      <c r="H72" s="7"/>
     </row>
     <row r="73" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G73" s="5"/>
-      <c r="H73" s="5"/>
+      <c r="G73" s="6"/>
+      <c r="H73" s="7"/>
     </row>
     <row r="74" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G74" s="5"/>
-      <c r="H74" s="5"/>
+      <c r="G74" s="6"/>
+      <c r="H74" s="7"/>
     </row>
     <row r="75" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G75" s="5"/>
-      <c r="H75" s="5"/>
+      <c r="G75" s="6"/>
+      <c r="H75" s="7"/>
     </row>
     <row r="76" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G76" s="5"/>
-      <c r="H76" s="5"/>
+      <c r="G76" s="6"/>
+      <c r="H76" s="7"/>
     </row>
     <row r="77" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G77" s="5"/>
-      <c r="H77" s="5"/>
+      <c r="G77" s="6"/>
+      <c r="H77" s="7"/>
     </row>
     <row r="78" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G78" s="5"/>
-      <c r="H78" s="5"/>
+      <c r="G78" s="6"/>
+      <c r="H78" s="7"/>
     </row>
     <row r="79" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G79" s="5"/>
-      <c r="H79" s="5"/>
+      <c r="G79" s="6"/>
+      <c r="H79" s="7"/>
     </row>
     <row r="80" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G80" s="5"/>
-      <c r="H80" s="5"/>
+      <c r="G80" s="6"/>
+      <c r="H80" s="7"/>
     </row>
     <row r="81" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G81" s="5"/>
-      <c r="H81" s="5"/>
+      <c r="G81" s="6"/>
+      <c r="H81" s="7"/>
     </row>
     <row r="82" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G82" s="5"/>
-      <c r="H82" s="5"/>
+      <c r="G82" s="6"/>
+      <c r="H82" s="7"/>
     </row>
     <row r="83" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G83" s="5"/>
-      <c r="H83" s="5"/>
+      <c r="G83" s="6"/>
+      <c r="H83" s="7"/>
     </row>
     <row r="84" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G84" s="5"/>
-      <c r="H84" s="5"/>
+      <c r="G84" s="6"/>
+      <c r="H84" s="7"/>
     </row>
     <row r="85" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G85" s="5"/>
-      <c r="H85" s="5"/>
+      <c r="G85" s="6"/>
+      <c r="H85" s="7"/>
     </row>
     <row r="86" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G86" s="5"/>
-      <c r="H86" s="5"/>
+      <c r="G86" s="6"/>
+      <c r="H86" s="7"/>
     </row>
     <row r="87" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G87" s="5"/>
-      <c r="H87" s="5"/>
+      <c r="G87" s="6"/>
+      <c r="H87" s="7"/>
     </row>
     <row r="88" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G88" s="5"/>
-      <c r="H88" s="5"/>
+      <c r="G88" s="6"/>
+      <c r="H88" s="7"/>
     </row>
     <row r="89" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G89" s="5"/>
-      <c r="H89" s="5"/>
+      <c r="G89" s="6"/>
+      <c r="H89" s="7"/>
     </row>
     <row r="90" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G90" s="5"/>
-      <c r="H90" s="5"/>
+      <c r="G90" s="6"/>
+      <c r="H90" s="7"/>
     </row>
     <row r="91" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G91" s="5"/>
-      <c r="H91" s="5"/>
+      <c r="G91" s="6"/>
+      <c r="H91" s="7"/>
     </row>
     <row r="92" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G92" s="5"/>
-      <c r="H92" s="5"/>
+      <c r="G92" s="6"/>
+      <c r="H92" s="7"/>
     </row>
     <row r="93" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G93" s="5"/>
-      <c r="H93" s="5"/>
+      <c r="G93" s="6"/>
+      <c r="H93" s="7"/>
     </row>
     <row r="94" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G94" s="5"/>
-      <c r="H94" s="5"/>
+      <c r="G94" s="6"/>
+      <c r="H94" s="7"/>
     </row>
     <row r="95" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G95" s="5"/>
-      <c r="H95" s="5"/>
+      <c r="G95" s="6"/>
+      <c r="H95" s="7"/>
     </row>
     <row r="96" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G96" s="5"/>
-      <c r="H96" s="5"/>
+      <c r="G96" s="6"/>
+      <c r="H96" s="7"/>
     </row>
     <row r="97" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G97" s="5"/>
-      <c r="H97" s="5"/>
+      <c r="G97" s="6"/>
+      <c r="H97" s="7"/>
     </row>
     <row r="98" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G98" s="5"/>
-      <c r="H98" s="5"/>
+      <c r="G98" s="6"/>
+      <c r="H98" s="7"/>
     </row>
     <row r="99" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G99" s="5"/>
-      <c r="H99" s="5"/>
+      <c r="G99" s="6"/>
+      <c r="H99" s="7"/>
     </row>
     <row r="100" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G100" s="5"/>
-      <c r="H100" s="5"/>
+      <c r="G100" s="6"/>
+      <c r="H100" s="7"/>
     </row>
     <row r="101" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G101" s="5"/>
-      <c r="H101" s="5"/>
+      <c r="G101" s="6"/>
+      <c r="H101" s="7"/>
     </row>
     <row r="102" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G102" s="5"/>
-      <c r="H102" s="5"/>
+      <c r="G102" s="6"/>
+      <c r="H102" s="7"/>
     </row>
     <row r="103" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G103" s="5"/>
-      <c r="H103" s="5"/>
+      <c r="G103" s="6"/>
+      <c r="H103" s="7"/>
     </row>
     <row r="104" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G104" s="5"/>
-      <c r="H104" s="5"/>
+      <c r="G104" s="6"/>
+      <c r="H104" s="7"/>
     </row>
     <row r="105" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G105" s="5"/>
-      <c r="H105" s="5"/>
+      <c r="G105" s="6"/>
+      <c r="H105" s="7"/>
     </row>
     <row r="106" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G106" s="5"/>
-      <c r="H106" s="5"/>
+      <c r="G106" s="6"/>
+      <c r="H106" s="7"/>
     </row>
     <row r="107" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G107" s="5"/>
-      <c r="H107" s="5"/>
+      <c r="G107" s="6"/>
+      <c r="H107" s="7"/>
     </row>
     <row r="108" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G108" s="5"/>
-      <c r="H108" s="5"/>
+      <c r="G108" s="6"/>
+      <c r="H108" s="7"/>
     </row>
     <row r="109" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G109" s="5"/>
-      <c r="H109" s="5"/>
+      <c r="G109" s="6"/>
+      <c r="H109" s="7"/>
     </row>
     <row r="110" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G110" s="5"/>
-      <c r="H110" s="5"/>
+      <c r="G110" s="6"/>
+      <c r="H110" s="7"/>
     </row>
     <row r="111" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G111" s="5"/>
-      <c r="H111" s="5"/>
+      <c r="G111" s="6"/>
+      <c r="H111" s="7"/>
     </row>
     <row r="112" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G112" s="5"/>
-      <c r="H112" s="5"/>
+      <c r="G112" s="6"/>
+      <c r="H112" s="7"/>
     </row>
     <row r="113" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G113" s="5"/>
-      <c r="H113" s="5"/>
+      <c r="G113" s="6"/>
+      <c r="H113" s="7"/>
     </row>
     <row r="114" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G114" s="5"/>
-      <c r="H114" s="5"/>
+      <c r="G114" s="6"/>
+      <c r="H114" s="7"/>
     </row>
     <row r="115" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G115" s="5"/>
-      <c r="H115" s="5"/>
+      <c r="G115" s="6"/>
+      <c r="H115" s="7"/>
     </row>
     <row r="116" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G116" s="5"/>
-      <c r="H116" s="5"/>
+      <c r="G116" s="6"/>
+      <c r="H116" s="7"/>
     </row>
     <row r="117" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G117" s="5"/>
-      <c r="H117" s="5"/>
+      <c r="G117" s="6"/>
+      <c r="H117" s="7"/>
     </row>
     <row r="118" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G118" s="5"/>
-      <c r="H118" s="5"/>
+      <c r="G118" s="6"/>
+      <c r="H118" s="7"/>
     </row>
     <row r="119" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G119" s="5"/>
-      <c r="H119" s="5"/>
+      <c r="G119" s="6"/>
+      <c r="H119" s="7"/>
     </row>
     <row r="120" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G120" s="5"/>
-      <c r="H120" s="5"/>
+      <c r="G120" s="6"/>
+      <c r="H120" s="7"/>
     </row>
     <row r="121" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G121" s="5"/>
-      <c r="H121" s="5"/>
+      <c r="G121" s="6"/>
+      <c r="H121" s="7"/>
     </row>
     <row r="122" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G122" s="5"/>
-      <c r="H122" s="5"/>
+      <c r="G122" s="6"/>
+      <c r="H122" s="7"/>
     </row>
     <row r="123" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G123" s="5"/>
-      <c r="H123" s="5"/>
+      <c r="G123" s="6"/>
+      <c r="H123" s="7"/>
     </row>
     <row r="124" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G124" s="5"/>
-      <c r="H124" s="5"/>
+      <c r="G124" s="6"/>
+      <c r="H124" s="7"/>
     </row>
     <row r="125" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G125" s="5"/>
-      <c r="H125" s="5"/>
+      <c r="G125" s="6"/>
+      <c r="H125" s="7"/>
     </row>
     <row r="126" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G126" s="5"/>
-      <c r="H126" s="5"/>
+      <c r="G126" s="6"/>
+      <c r="H126" s="7"/>
     </row>
     <row r="127" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G127" s="5"/>
-      <c r="H127" s="5"/>
+      <c r="G127" s="6"/>
+      <c r="H127" s="7"/>
     </row>
     <row r="128" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G128" s="5"/>
-      <c r="H128" s="5"/>
+      <c r="G128" s="6"/>
+      <c r="H128" s="7"/>
     </row>
     <row r="129" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G129" s="5"/>
-      <c r="H129" s="5"/>
+      <c r="G129" s="6"/>
+      <c r="H129" s="7"/>
     </row>
     <row r="130" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G130" s="5"/>
-      <c r="H130" s="5"/>
+      <c r="G130" s="6"/>
+      <c r="H130" s="7"/>
     </row>
     <row r="131" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G131" s="5"/>
-      <c r="H131" s="5"/>
+      <c r="G131" s="6"/>
+      <c r="H131" s="7"/>
     </row>
     <row r="132" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G132" s="5"/>
-      <c r="H132" s="5"/>
+      <c r="G132" s="6"/>
+      <c r="H132" s="7"/>
     </row>
     <row r="133" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G133" s="5"/>
-      <c r="H133" s="5"/>
+      <c r="G133" s="6"/>
+      <c r="H133" s="7"/>
     </row>
     <row r="134" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G134" s="5"/>
-      <c r="H134" s="5"/>
+      <c r="G134" s="6"/>
+      <c r="H134" s="7"/>
     </row>
     <row r="135" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G135" s="5"/>
-      <c r="H135" s="5"/>
+      <c r="G135" s="6"/>
+      <c r="H135" s="7"/>
     </row>
     <row r="136" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G136" s="5"/>
-      <c r="H136" s="5"/>
+      <c r="G136" s="6"/>
+      <c r="H136" s="7"/>
     </row>
     <row r="137" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G137" s="5"/>
-      <c r="H137" s="5"/>
+      <c r="G137" s="6"/>
+      <c r="H137" s="7"/>
     </row>
     <row r="138" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G138" s="5"/>
-      <c r="H138" s="5"/>
+      <c r="G138" s="6"/>
+      <c r="H138" s="7"/>
     </row>
     <row r="139" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G139" s="5"/>
-      <c r="H139" s="5"/>
+      <c r="G139" s="6"/>
+      <c r="H139" s="7"/>
     </row>
     <row r="140" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G140" s="5"/>
-      <c r="H140" s="5"/>
+      <c r="G140" s="6"/>
+      <c r="H140" s="7"/>
     </row>
     <row r="141" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G141" s="5"/>
-      <c r="H141" s="5"/>
+      <c r="G141" s="6"/>
+      <c r="H141" s="7"/>
     </row>
     <row r="142" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G142" s="5"/>
-      <c r="H142" s="5"/>
+      <c r="G142" s="6"/>
+      <c r="H142" s="7"/>
     </row>
     <row r="143" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G143" s="5"/>
-      <c r="H143" s="5"/>
+      <c r="G143" s="6"/>
+      <c r="H143" s="7"/>
     </row>
     <row r="144" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G144" s="5"/>
-      <c r="H144" s="5"/>
+      <c r="G144" s="6"/>
+      <c r="H144" s="7"/>
     </row>
     <row r="145" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G145" s="5"/>
-      <c r="H145" s="5"/>
+      <c r="G145" s="6"/>
+      <c r="H145" s="7"/>
     </row>
     <row r="146" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G146" s="5"/>
-      <c r="H146" s="5"/>
+      <c r="G146" s="6"/>
+      <c r="H146" s="7"/>
     </row>
     <row r="147" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G147" s="5"/>
-      <c r="H147" s="5"/>
+      <c r="G147" s="6"/>
+      <c r="H147" s="7"/>
     </row>
     <row r="148" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G148" s="5"/>
-      <c r="H148" s="5"/>
+      <c r="G148" s="6"/>
+      <c r="H148" s="7"/>
     </row>
     <row r="149" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G149" s="5"/>
-      <c r="H149" s="5"/>
+      <c r="G149" s="6"/>
+      <c r="H149" s="7"/>
     </row>
     <row r="150" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G150" s="5"/>
-      <c r="H150" s="5"/>
+      <c r="G150" s="6"/>
+      <c r="H150" s="7"/>
     </row>
     <row r="151" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G151" s="5"/>
-      <c r="H151" s="5"/>
+      <c r="G151" s="6"/>
+      <c r="H151" s="7"/>
     </row>
     <row r="152" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G152" s="5"/>
-      <c r="H152" s="5"/>
+      <c r="G152" s="6"/>
+      <c r="H152" s="7"/>
     </row>
     <row r="153" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G153" s="5"/>
-      <c r="H153" s="5"/>
+      <c r="G153" s="6"/>
+      <c r="H153" s="7"/>
     </row>
     <row r="154" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G154" s="5"/>
-      <c r="H154" s="5"/>
+      <c r="G154" s="6"/>
+      <c r="H154" s="7"/>
     </row>
     <row r="155" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G155" s="5"/>
-      <c r="H155" s="5"/>
+      <c r="G155" s="6"/>
+      <c r="H155" s="7"/>
     </row>
     <row r="156" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G156" s="5"/>
-      <c r="H156" s="5"/>
+      <c r="G156" s="6"/>
+      <c r="H156" s="7"/>
     </row>
     <row r="157" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G157" s="5"/>
-      <c r="H157" s="5"/>
+      <c r="G157" s="6"/>
+      <c r="H157" s="7"/>
     </row>
     <row r="158" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G158" s="5"/>
-      <c r="H158" s="5"/>
+      <c r="G158" s="6"/>
+      <c r="H158" s="7"/>
     </row>
     <row r="159" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G159" s="5"/>
-      <c r="H159" s="5"/>
+      <c r="G159" s="6"/>
+      <c r="H159" s="7"/>
     </row>
     <row r="160" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G160" s="5"/>
-      <c r="H160" s="5"/>
+      <c r="G160" s="6"/>
+      <c r="H160" s="7"/>
     </row>
     <row r="161" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G161" s="5"/>
-      <c r="H161" s="5"/>
+      <c r="G161" s="6"/>
+      <c r="H161" s="7"/>
     </row>
     <row r="162" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G162" s="5"/>
-      <c r="H162" s="5"/>
+      <c r="G162" s="6"/>
+      <c r="H162" s="7"/>
     </row>
     <row r="163" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G163" s="5"/>
-      <c r="H163" s="5"/>
+      <c r="G163" s="6"/>
+      <c r="H163" s="7"/>
     </row>
     <row r="164" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G164" s="5"/>
-      <c r="H164" s="5"/>
+      <c r="G164" s="6"/>
+      <c r="H164" s="7"/>
     </row>
     <row r="165" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G165" s="5"/>
-      <c r="H165" s="5"/>
+      <c r="G165" s="6"/>
+      <c r="H165" s="7"/>
     </row>
     <row r="166" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G166" s="5"/>
-      <c r="H166" s="5"/>
+      <c r="G166" s="6"/>
+      <c r="H166" s="7"/>
     </row>
     <row r="167" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G167" s="5"/>
-      <c r="H167" s="5"/>
+      <c r="G167" s="6"/>
+      <c r="H167" s="7"/>
     </row>
     <row r="168" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G168" s="5"/>
-      <c r="H168" s="5"/>
+      <c r="G168" s="6"/>
+      <c r="H168" s="7"/>
     </row>
     <row r="169" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G169" s="5"/>
-      <c r="H169" s="5"/>
+      <c r="G169" s="6"/>
+      <c r="H169" s="7"/>
     </row>
     <row r="170" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G170" s="5"/>
-      <c r="H170" s="5"/>
+      <c r="G170" s="6"/>
+      <c r="H170" s="7"/>
     </row>
     <row r="171" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G171" s="5"/>
-      <c r="H171" s="5"/>
+      <c r="G171" s="6"/>
+      <c r="H171" s="7"/>
     </row>
     <row r="172" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G172" s="5"/>
-      <c r="H172" s="5"/>
+      <c r="G172" s="6"/>
+      <c r="H172" s="7"/>
     </row>
     <row r="173" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G173" s="5"/>
-      <c r="H173" s="5"/>
+      <c r="G173" s="6"/>
+      <c r="H173" s="7"/>
     </row>
     <row r="174" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G174" s="5"/>
-      <c r="H174" s="5"/>
+      <c r="G174" s="6"/>
+      <c r="H174" s="7"/>
     </row>
     <row r="175" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G175" s="5"/>
-      <c r="H175" s="5"/>
+      <c r="G175" s="6"/>
+      <c r="H175" s="7"/>
     </row>
     <row r="176" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G176" s="5"/>
-      <c r="H176" s="5"/>
+      <c r="G176" s="6"/>
+      <c r="H176" s="7"/>
     </row>
     <row r="177" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G177" s="5"/>
-      <c r="H177" s="5"/>
+      <c r="G177" s="6"/>
+      <c r="H177" s="7"/>
     </row>
     <row r="178" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G178" s="5"/>
-      <c r="H178" s="5"/>
+      <c r="G178" s="6"/>
+      <c r="H178" s="7"/>
     </row>
     <row r="179" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G179" s="5"/>
-      <c r="H179" s="5"/>
+      <c r="G179" s="6"/>
+      <c r="H179" s="7"/>
     </row>
     <row r="180" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G180" s="5"/>
-      <c r="H180" s="5"/>
+      <c r="G180" s="6"/>
+      <c r="H180" s="7"/>
     </row>
     <row r="181" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G181" s="5"/>
-      <c r="H181" s="5"/>
+      <c r="G181" s="6"/>
+      <c r="H181" s="7"/>
     </row>
     <row r="182" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G182" s="5"/>
-      <c r="H182" s="5"/>
+      <c r="G182" s="6"/>
+      <c r="H182" s="7"/>
     </row>
     <row r="183" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G183" s="5"/>
-      <c r="H183" s="5"/>
+      <c r="G183" s="6"/>
+      <c r="H183" s="7"/>
     </row>
     <row r="184" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G184" s="5"/>
-      <c r="H184" s="5"/>
+      <c r="G184" s="6"/>
+      <c r="H184" s="7"/>
     </row>
     <row r="185" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G185" s="5"/>
-      <c r="H185" s="5"/>
+      <c r="G185" s="6"/>
+      <c r="H185" s="7"/>
     </row>
     <row r="186" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G186" s="5"/>
-      <c r="H186" s="5"/>
+      <c r="G186" s="6"/>
+      <c r="H186" s="7"/>
     </row>
     <row r="187" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G187" s="5"/>
-      <c r="H187" s="5"/>
+      <c r="G187" s="6"/>
+      <c r="H187" s="7"/>
     </row>
     <row r="188" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G188" s="5"/>
-      <c r="H188" s="5"/>
+      <c r="G188" s="6"/>
+      <c r="H188" s="7"/>
     </row>
     <row r="189" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G189" s="5"/>
-      <c r="H189" s="5"/>
+      <c r="G189" s="6"/>
+      <c r="H189" s="7"/>
     </row>
     <row r="190" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G190" s="5"/>
-      <c r="H190" s="5"/>
+      <c r="G190" s="6"/>
+      <c r="H190" s="7"/>
     </row>
     <row r="191" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G191" s="5"/>
-      <c r="H191" s="5"/>
+      <c r="G191" s="6"/>
+      <c r="H191" s="7"/>
     </row>
     <row r="192" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G192" s="5"/>
-      <c r="H192" s="5"/>
+      <c r="G192" s="6"/>
+      <c r="H192" s="7"/>
     </row>
     <row r="193" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G193" s="5"/>
-      <c r="H193" s="5"/>
+      <c r="G193" s="6"/>
+      <c r="H193" s="7"/>
     </row>
     <row r="194" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G194" s="5"/>
-      <c r="H194" s="5"/>
+      <c r="G194" s="6"/>
+      <c r="H194" s="7"/>
     </row>
     <row r="195" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G195" s="5"/>
-      <c r="H195" s="5"/>
+      <c r="G195" s="6"/>
+      <c r="H195" s="7"/>
     </row>
     <row r="196" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G196" s="5"/>
-      <c r="H196" s="5"/>
+      <c r="G196" s="6"/>
+      <c r="H196" s="7"/>
     </row>
     <row r="197" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G197" s="5"/>
-      <c r="H197" s="5"/>
+      <c r="G197" s="6"/>
+      <c r="H197" s="7"/>
     </row>
     <row r="198" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G198" s="5"/>
-      <c r="H198" s="5"/>
+      <c r="G198" s="6"/>
+      <c r="H198" s="7"/>
     </row>
     <row r="199" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G199" s="5"/>
-      <c r="H199" s="5"/>
+      <c r="G199" s="6"/>
+      <c r="H199" s="7"/>
     </row>
     <row r="200" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G200" s="5"/>
-      <c r="H200" s="5"/>
+      <c r="G200" s="6"/>
+      <c r="H200" s="7"/>
     </row>
     <row r="201" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G201" s="5"/>
-      <c r="H201" s="5"/>
+      <c r="G201" s="6"/>
+      <c r="H201" s="7"/>
     </row>
     <row r="202" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G202" s="5"/>
-      <c r="H202" s="5"/>
+      <c r="G202" s="6"/>
+      <c r="H202" s="7"/>
     </row>
     <row r="203" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G203" s="5"/>
-      <c r="H203" s="5"/>
+      <c r="G203" s="6"/>
+      <c r="H203" s="7"/>
     </row>
     <row r="204" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G204" s="5"/>
-      <c r="H204" s="5"/>
+      <c r="G204" s="6"/>
+      <c r="H204" s="7"/>
     </row>
     <row r="205" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G205" s="5"/>
-      <c r="H205" s="5"/>
+      <c r="G205" s="6"/>
+      <c r="H205" s="7"/>
     </row>
     <row r="206" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G206" s="5"/>
-      <c r="H206" s="5"/>
+      <c r="G206" s="6"/>
+      <c r="H206" s="7"/>
     </row>
     <row r="207" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G207" s="5"/>
-      <c r="H207" s="5"/>
+      <c r="G207" s="6"/>
+      <c r="H207" s="7"/>
     </row>
     <row r="208" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G208" s="5"/>
-      <c r="H208" s="5"/>
+      <c r="G208" s="6"/>
+      <c r="H208" s="7"/>
     </row>
     <row r="209" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G209" s="5"/>
-      <c r="H209" s="5"/>
-    </row>
-    <row r="210" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G210" s="4"/>
-      <c r="H210" s="4"/>
-    </row>
-    <row r="211" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G211" s="4"/>
-      <c r="H211" s="4"/>
-    </row>
-    <row r="212" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G212" s="4"/>
-      <c r="H212" s="4"/>
-    </row>
-    <row r="213" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G213" s="4"/>
-      <c r="H213" s="4"/>
-    </row>
-    <row r="214" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G214" s="4"/>
-      <c r="H214" s="4"/>
-    </row>
-    <row r="215" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G215" s="4"/>
-      <c r="H215" s="4"/>
-    </row>
-    <row r="216" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G216" s="4"/>
-      <c r="H216" s="4"/>
-    </row>
-    <row r="217" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G217" s="4"/>
-      <c r="H217" s="4"/>
-    </row>
-    <row r="218" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G218" s="4"/>
-      <c r="H218" s="4"/>
-    </row>
-    <row r="219" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G219" s="4"/>
-      <c r="H219" s="4"/>
-    </row>
-    <row r="220" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G220" s="4"/>
-      <c r="H220" s="4"/>
-    </row>
-    <row r="221" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G221" s="4"/>
-      <c r="H221" s="4"/>
-    </row>
-    <row r="222" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G222" s="4"/>
-      <c r="H222" s="4"/>
-    </row>
-    <row r="223" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G223" s="4"/>
-      <c r="H223" s="4"/>
-    </row>
-    <row r="224" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G224" s="4"/>
-      <c r="H224" s="4"/>
-    </row>
-    <row r="225" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G225" s="4"/>
-      <c r="H225" s="4"/>
-    </row>
-    <row r="226" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G226" s="4"/>
-      <c r="H226" s="4"/>
-    </row>
-    <row r="227" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G227" s="4"/>
-      <c r="H227" s="4"/>
-    </row>
-    <row r="228" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G228" s="4"/>
-      <c r="H228" s="4"/>
-    </row>
-    <row r="229" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G229" s="4"/>
-      <c r="H229" s="4"/>
-    </row>
-    <row r="230" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G230" s="4"/>
-      <c r="H230" s="4"/>
-    </row>
-    <row r="231" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G231" s="4"/>
-      <c r="H231" s="4"/>
-    </row>
-    <row r="232" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G232" s="4"/>
-      <c r="H232" s="4"/>
-    </row>
-    <row r="233" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G233" s="4"/>
-      <c r="H233" s="4"/>
-    </row>
-    <row r="234" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G234" s="4"/>
-      <c r="H234" s="4"/>
-    </row>
-    <row r="235" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G235" s="4"/>
-      <c r="H235" s="4"/>
-    </row>
-    <row r="236" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G236" s="4"/>
-      <c r="H236" s="4"/>
-    </row>
-    <row r="237" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G237" s="4"/>
-      <c r="H237" s="4"/>
-    </row>
-    <row r="238" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G238" s="4"/>
-      <c r="H238" s="4"/>
-    </row>
-    <row r="239" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G239" s="4"/>
-      <c r="H239" s="4"/>
-    </row>
-    <row r="240" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G240" s="4"/>
-      <c r="H240" s="4"/>
-    </row>
-    <row r="241" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G241" s="4"/>
-      <c r="H241" s="4"/>
-    </row>
-    <row r="242" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G242" s="4"/>
-      <c r="H242" s="4"/>
-    </row>
-    <row r="243" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G243" s="4"/>
-      <c r="H243" s="4"/>
-    </row>
-    <row r="244" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G244" s="4"/>
-      <c r="H244" s="4"/>
-    </row>
-    <row r="245" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G245" s="4"/>
-      <c r="H245" s="4"/>
-    </row>
-    <row r="246" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G246" s="4"/>
-      <c r="H246" s="4"/>
-    </row>
-    <row r="247" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G247" s="4"/>
-      <c r="H247" s="4"/>
-    </row>
-    <row r="248" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G248" s="4"/>
-      <c r="H248" s="4"/>
-    </row>
-    <row r="249" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G249" s="4"/>
-      <c r="H249" s="4"/>
-    </row>
-    <row r="250" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G250" s="4"/>
-      <c r="H250" s="4"/>
-    </row>
-    <row r="251" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G251" s="4"/>
-      <c r="H251" s="4"/>
-    </row>
-    <row r="252" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G252" s="4"/>
-      <c r="H252" s="4"/>
-    </row>
-    <row r="253" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G253" s="4"/>
-      <c r="H253" s="4"/>
-    </row>
-    <row r="254" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G254" s="4"/>
-      <c r="H254" s="4"/>
-    </row>
-    <row r="255" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G255" s="4"/>
-      <c r="H255" s="4"/>
-    </row>
-    <row r="256" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G256" s="4"/>
-      <c r="H256" s="4"/>
-    </row>
-    <row r="257" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G257" s="4"/>
-      <c r="H257" s="4"/>
-    </row>
-    <row r="258" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G258" s="4"/>
-      <c r="H258" s="4"/>
-    </row>
-    <row r="259" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G259" s="4"/>
-      <c r="H259" s="4"/>
-    </row>
-    <row r="260" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G260" s="4"/>
-      <c r="H260" s="4"/>
-    </row>
-    <row r="261" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G261" s="4"/>
-      <c r="H261" s="4"/>
-    </row>
-    <row r="262" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G262" s="4"/>
-      <c r="H262" s="4"/>
-    </row>
-    <row r="263" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G263" s="4"/>
-      <c r="H263" s="4"/>
-    </row>
-    <row r="264" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G264" s="4"/>
-      <c r="H264" s="4"/>
-    </row>
-    <row r="265" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G265" s="4"/>
-      <c r="H265" s="4"/>
-    </row>
-    <row r="266" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G266" s="4"/>
-      <c r="H266" s="4"/>
-    </row>
-    <row r="267" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G267" s="4"/>
-      <c r="H267" s="4"/>
-    </row>
-    <row r="268" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G268" s="4"/>
-      <c r="H268" s="4"/>
-    </row>
-    <row r="269" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G269" s="4"/>
-      <c r="H269" s="4"/>
-    </row>
-    <row r="270" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G270" s="4"/>
-      <c r="H270" s="4"/>
-    </row>
-    <row r="271" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G271" s="4"/>
-      <c r="H271" s="4"/>
-    </row>
-    <row r="272" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G272" s="4"/>
-      <c r="H272" s="4"/>
-    </row>
-    <row r="273" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G273" s="4"/>
-      <c r="H273" s="4"/>
-    </row>
-    <row r="274" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G274" s="4"/>
-      <c r="H274" s="4"/>
-    </row>
-    <row r="275" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G275" s="4"/>
-      <c r="H275" s="4"/>
-    </row>
-    <row r="276" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G276" s="4"/>
-      <c r="H276" s="4"/>
-    </row>
-    <row r="277" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G277" s="4"/>
-      <c r="H277" s="4"/>
-    </row>
-    <row r="278" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G278" s="4"/>
-      <c r="H278" s="4"/>
-    </row>
-    <row r="279" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G279" s="4"/>
-      <c r="H279" s="4"/>
-    </row>
-    <row r="280" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G280" s="4"/>
-      <c r="H280" s="4"/>
-    </row>
-    <row r="281" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G281" s="4"/>
-      <c r="H281" s="4"/>
-    </row>
-    <row r="282" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G282" s="4"/>
-      <c r="H282" s="4"/>
-    </row>
-    <row r="283" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G283" s="4"/>
-      <c r="H283" s="4"/>
-    </row>
-    <row r="284" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G284" s="4"/>
-      <c r="H284" s="4"/>
-    </row>
-    <row r="285" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G285" s="4"/>
-      <c r="H285" s="4"/>
-    </row>
-    <row r="286" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G286" s="4"/>
-      <c r="H286" s="4"/>
-    </row>
-    <row r="287" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G287" s="4"/>
-      <c r="H287" s="4"/>
-    </row>
-    <row r="288" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G288" s="4"/>
-      <c r="H288" s="4"/>
-    </row>
-    <row r="289" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G289" s="4"/>
-      <c r="H289" s="4"/>
-    </row>
-    <row r="290" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G290" s="4"/>
-      <c r="H290" s="4"/>
-    </row>
-    <row r="291" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G291" s="4"/>
-      <c r="H291" s="4"/>
-    </row>
-    <row r="292" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G292" s="4"/>
-      <c r="H292" s="4"/>
-    </row>
-    <row r="293" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G293" s="4"/>
-      <c r="H293" s="4"/>
-    </row>
-    <row r="294" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G294" s="4"/>
-      <c r="H294" s="4"/>
-    </row>
-    <row r="295" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G295" s="4"/>
-      <c r="H295" s="4"/>
-    </row>
-    <row r="296" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G296" s="4"/>
-      <c r="H296" s="4"/>
-    </row>
-    <row r="297" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G297" s="4"/>
-      <c r="H297" s="4"/>
-    </row>
-    <row r="298" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G298" s="4"/>
-      <c r="H298" s="4"/>
-    </row>
-    <row r="299" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G299" s="4"/>
-      <c r="H299" s="4"/>
-    </row>
-    <row r="300" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G300" s="4"/>
-      <c r="H300" s="4"/>
-    </row>
-    <row r="301" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G301" s="4"/>
-      <c r="H301" s="4"/>
-    </row>
-    <row r="302" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G302" s="4"/>
-      <c r="H302" s="4"/>
-    </row>
-    <row r="303" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G303" s="4"/>
-      <c r="H303" s="4"/>
-    </row>
-    <row r="304" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G304" s="4"/>
-      <c r="H304" s="4"/>
-    </row>
-    <row r="305" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G305" s="4"/>
-      <c r="H305" s="4"/>
-    </row>
-    <row r="306" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G306" s="4"/>
-      <c r="H306" s="4"/>
-    </row>
-    <row r="307" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G307" s="4"/>
-      <c r="H307" s="4"/>
-    </row>
-    <row r="308" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G308" s="4"/>
-      <c r="H308" s="4"/>
-    </row>
-    <row r="309" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G309" s="4"/>
-      <c r="H309" s="4"/>
-    </row>
-    <row r="310" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G310" s="4"/>
-      <c r="H310" s="4"/>
-    </row>
-    <row r="311" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G311" s="4"/>
-      <c r="H311" s="4"/>
-    </row>
-    <row r="312" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G312" s="4"/>
-      <c r="H312" s="4"/>
-    </row>
-    <row r="313" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G313" s="4"/>
-      <c r="H313" s="4"/>
-    </row>
-    <row r="314" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G314" s="4"/>
-      <c r="H314" s="4"/>
-    </row>
-    <row r="315" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G315" s="4"/>
-      <c r="H315" s="4"/>
-    </row>
-    <row r="316" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G316" s="4"/>
-      <c r="H316" s="4"/>
-    </row>
-    <row r="317" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G317" s="4"/>
-      <c r="H317" s="4"/>
-    </row>
-    <row r="318" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G318" s="4"/>
-      <c r="H318" s="4"/>
-    </row>
-    <row r="319" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G319" s="4"/>
-      <c r="H319" s="4"/>
-    </row>
-    <row r="320" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G320" s="4"/>
-      <c r="H320" s="4"/>
-    </row>
-    <row r="321" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G321" s="4"/>
-      <c r="H321" s="4"/>
-    </row>
-    <row r="322" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G322" s="4"/>
-      <c r="H322" s="4"/>
-    </row>
-    <row r="323" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G323" s="4"/>
-      <c r="H323" s="4"/>
-    </row>
-    <row r="324" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G324" s="4"/>
-      <c r="H324" s="4"/>
-    </row>
-    <row r="325" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G325" s="4"/>
-      <c r="H325" s="4"/>
-    </row>
-    <row r="326" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G326" s="4"/>
-      <c r="H326" s="4"/>
-    </row>
-    <row r="327" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G327" s="4"/>
-      <c r="H327" s="4"/>
-    </row>
-    <row r="328" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G328" s="4"/>
-      <c r="H328" s="4"/>
-    </row>
-    <row r="329" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G329" s="4"/>
-      <c r="H329" s="4"/>
-    </row>
-    <row r="330" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G330" s="4"/>
-      <c r="H330" s="4"/>
-    </row>
-    <row r="331" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G331" s="4"/>
-      <c r="H331" s="4"/>
-    </row>
-    <row r="332" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G332" s="4"/>
-      <c r="H332" s="4"/>
-    </row>
-    <row r="333" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G333" s="4"/>
-      <c r="H333" s="4"/>
-    </row>
-    <row r="334" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G334" s="4"/>
-      <c r="H334" s="4"/>
-    </row>
-    <row r="335" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G335" s="4"/>
-      <c r="H335" s="4"/>
-    </row>
-    <row r="336" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G336" s="4"/>
-      <c r="H336" s="4"/>
-    </row>
-    <row r="337" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G337" s="4"/>
-      <c r="H337" s="4"/>
-    </row>
-    <row r="338" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G338" s="4"/>
-      <c r="H338" s="4"/>
-    </row>
-    <row r="339" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G339" s="4"/>
-      <c r="H339" s="4"/>
-    </row>
-    <row r="340" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G340" s="4"/>
-      <c r="H340" s="4"/>
-    </row>
-    <row r="341" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G341" s="4"/>
-      <c r="H341" s="4"/>
-    </row>
-    <row r="342" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G342" s="4"/>
-      <c r="H342" s="4"/>
-    </row>
-    <row r="343" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G343" s="4"/>
-      <c r="H343" s="4"/>
-    </row>
-    <row r="344" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G344" s="4"/>
-      <c r="H344" s="4"/>
-    </row>
-    <row r="345" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G345" s="4"/>
-      <c r="H345" s="4"/>
-    </row>
-    <row r="346" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G346" s="4"/>
-      <c r="H346" s="4"/>
-    </row>
-    <row r="347" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G347" s="4"/>
-      <c r="H347" s="4"/>
-    </row>
-    <row r="348" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G348" s="4"/>
-      <c r="H348" s="4"/>
-    </row>
-    <row r="349" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G349" s="4"/>
-      <c r="H349" s="4"/>
-    </row>
-    <row r="350" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G350" s="4"/>
-      <c r="H350" s="4"/>
-    </row>
-    <row r="351" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G351" s="4"/>
-      <c r="H351" s="4"/>
-    </row>
-    <row r="352" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G352" s="4"/>
-      <c r="H352" s="4"/>
-    </row>
-    <row r="353" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G353" s="4"/>
-      <c r="H353" s="4"/>
-    </row>
-    <row r="354" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G354" s="4"/>
-      <c r="H354" s="4"/>
-    </row>
-    <row r="355" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G355" s="4"/>
-      <c r="H355" s="4"/>
-    </row>
-    <row r="356" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G356" s="4"/>
-      <c r="H356" s="4"/>
-    </row>
-    <row r="357" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G357" s="4"/>
-      <c r="H357" s="4"/>
-    </row>
-    <row r="358" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G358" s="4"/>
-      <c r="H358" s="4"/>
-    </row>
-    <row r="359" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G359" s="4"/>
-      <c r="H359" s="4"/>
-    </row>
-    <row r="360" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G360" s="4"/>
-      <c r="H360" s="4"/>
-    </row>
-    <row r="361" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G361" s="4"/>
-      <c r="H361" s="4"/>
-    </row>
-    <row r="362" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G362" s="4"/>
-      <c r="H362" s="4"/>
-    </row>
-    <row r="363" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G363" s="4"/>
-      <c r="H363" s="4"/>
-    </row>
-    <row r="364" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G364" s="4"/>
-      <c r="H364" s="4"/>
-    </row>
-    <row r="365" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G365" s="4"/>
-      <c r="H365" s="4"/>
-    </row>
-    <row r="366" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G366" s="4"/>
-      <c r="H366" s="4"/>
-    </row>
-    <row r="367" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G367" s="4"/>
-      <c r="H367" s="4"/>
-    </row>
-    <row r="368" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G368" s="4"/>
-      <c r="H368" s="4"/>
-    </row>
-    <row r="369" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G369" s="4"/>
-      <c r="H369" s="4"/>
-    </row>
-    <row r="370" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G370" s="4"/>
-      <c r="H370" s="4"/>
-    </row>
-    <row r="371" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G371" s="4"/>
-      <c r="H371" s="4"/>
-    </row>
-    <row r="372" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G372" s="4"/>
-      <c r="H372" s="4"/>
-    </row>
-    <row r="373" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G373" s="4"/>
-      <c r="H373" s="4"/>
-    </row>
-    <row r="374" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G374" s="4"/>
-      <c r="H374" s="4"/>
-    </row>
-    <row r="375" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G375" s="4"/>
-      <c r="H375" s="4"/>
-    </row>
-    <row r="376" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G376" s="4"/>
-      <c r="H376" s="4"/>
-    </row>
-    <row r="377" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G377" s="4"/>
-      <c r="H377" s="4"/>
-    </row>
-    <row r="378" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G378" s="4"/>
-      <c r="H378" s="4"/>
-    </row>
-    <row r="379" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G379" s="4"/>
-      <c r="H379" s="4"/>
-    </row>
-    <row r="380" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G380" s="4"/>
-      <c r="H380" s="4"/>
-    </row>
-    <row r="381" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G381" s="4"/>
-      <c r="H381" s="4"/>
-    </row>
-    <row r="382" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G382" s="4"/>
-      <c r="H382" s="4"/>
-    </row>
-    <row r="383" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G383" s="4"/>
-      <c r="H383" s="4"/>
-    </row>
-    <row r="384" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G384" s="4"/>
-      <c r="H384" s="4"/>
-    </row>
-    <row r="385" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G385" s="4"/>
-      <c r="H385" s="4"/>
-    </row>
-    <row r="386" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G386" s="4"/>
-      <c r="H386" s="4"/>
-    </row>
-    <row r="387" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G387" s="4"/>
-      <c r="H387" s="4"/>
-    </row>
-    <row r="388" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G388" s="4"/>
-      <c r="H388" s="4"/>
-    </row>
-    <row r="389" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G389" s="4"/>
-      <c r="H389" s="4"/>
-    </row>
-    <row r="390" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G390" s="4"/>
-      <c r="H390" s="4"/>
-    </row>
-    <row r="391" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G391" s="4"/>
-      <c r="H391" s="4"/>
-    </row>
-    <row r="392" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G392" s="4"/>
-      <c r="H392" s="4"/>
-    </row>
-    <row r="393" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G393" s="4"/>
-      <c r="H393" s="4"/>
-    </row>
-    <row r="394" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G394" s="4"/>
-      <c r="H394" s="4"/>
-    </row>
-    <row r="395" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G395" s="4"/>
-      <c r="H395" s="4"/>
-    </row>
-    <row r="396" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G396" s="4"/>
-      <c r="H396" s="4"/>
-    </row>
-    <row r="397" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G397" s="4"/>
-      <c r="H397" s="4"/>
-    </row>
-    <row r="398" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G398" s="4"/>
-      <c r="H398" s="4"/>
-    </row>
-    <row r="399" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G399" s="4"/>
-      <c r="H399" s="4"/>
-    </row>
-    <row r="400" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G400" s="4"/>
-      <c r="H400" s="4"/>
-    </row>
-    <row r="401" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G401" s="4"/>
-      <c r="H401" s="4"/>
-    </row>
-    <row r="402" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G402" s="4"/>
-      <c r="H402" s="4"/>
-    </row>
-    <row r="403" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G403" s="4"/>
-      <c r="H403" s="4"/>
-    </row>
-    <row r="404" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G404" s="4"/>
-      <c r="H404" s="4"/>
-    </row>
-    <row r="405" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G405" s="4"/>
-      <c r="H405" s="4"/>
-    </row>
-    <row r="406" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G406" s="4"/>
-      <c r="H406" s="4"/>
-    </row>
-    <row r="407" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G407" s="4"/>
-      <c r="H407" s="4"/>
-    </row>
-    <row r="408" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G408" s="4"/>
-      <c r="H408" s="4"/>
-    </row>
-    <row r="409" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G409" s="4"/>
-      <c r="H409" s="4"/>
-    </row>
-    <row r="410" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G410" s="4"/>
-      <c r="H410" s="4"/>
-    </row>
-    <row r="411" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G411" s="4"/>
-      <c r="H411" s="4"/>
-    </row>
-    <row r="412" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G412" s="4"/>
-      <c r="H412" s="4"/>
-    </row>
-    <row r="413" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G413" s="4"/>
-      <c r="H413" s="4"/>
-    </row>
-    <row r="414" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G414" s="4"/>
-      <c r="H414" s="4"/>
-    </row>
-    <row r="415" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G415" s="4"/>
-      <c r="H415" s="4"/>
-    </row>
-    <row r="416" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G416" s="4"/>
-      <c r="H416" s="4"/>
-    </row>
-    <row r="417" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G417" s="4"/>
-      <c r="H417" s="4"/>
-    </row>
-    <row r="418" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G418" s="4"/>
-      <c r="H418" s="4"/>
-    </row>
-    <row r="419" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G419" s="4"/>
-      <c r="H419" s="4"/>
-    </row>
-    <row r="420" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G420" s="4"/>
-      <c r="H420" s="4"/>
-    </row>
-    <row r="421" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G421" s="4"/>
-      <c r="H421" s="4"/>
-    </row>
-    <row r="422" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G422" s="4"/>
-      <c r="H422" s="4"/>
-    </row>
-    <row r="423" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G423" s="4"/>
-      <c r="H423" s="4"/>
-    </row>
-    <row r="424" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G424" s="4"/>
-      <c r="H424" s="4"/>
-    </row>
-    <row r="425" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G425" s="4"/>
-      <c r="H425" s="4"/>
-    </row>
-    <row r="426" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G426" s="4"/>
-      <c r="H426" s="4"/>
-    </row>
-    <row r="427" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G427" s="4"/>
-      <c r="H427" s="4"/>
-    </row>
-    <row r="428" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G428" s="4"/>
-      <c r="H428" s="4"/>
-    </row>
-    <row r="429" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G429" s="4"/>
-      <c r="H429" s="4"/>
-    </row>
-    <row r="430" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G430" s="4"/>
-      <c r="H430" s="4"/>
-    </row>
-    <row r="431" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G431" s="4"/>
-      <c r="H431" s="4"/>
-    </row>
-    <row r="432" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G432" s="4"/>
-      <c r="H432" s="4"/>
-    </row>
-    <row r="433" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G433" s="4"/>
-      <c r="H433" s="4"/>
-    </row>
-    <row r="434" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G434" s="4"/>
-      <c r="H434" s="4"/>
-    </row>
-    <row r="435" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G435" s="4"/>
-      <c r="H435" s="4"/>
-    </row>
-    <row r="436" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G436" s="4"/>
-      <c r="H436" s="4"/>
-    </row>
-    <row r="437" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G437" s="4"/>
-      <c r="H437" s="4"/>
-    </row>
-    <row r="438" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G438" s="4"/>
-      <c r="H438" s="4"/>
-    </row>
-    <row r="439" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G439" s="4"/>
-      <c r="H439" s="4"/>
-    </row>
-    <row r="440" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G440" s="4"/>
-      <c r="H440" s="4"/>
-    </row>
-    <row r="441" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G441" s="4"/>
-      <c r="H441" s="4"/>
-    </row>
-    <row r="442" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G442" s="4"/>
-      <c r="H442" s="4"/>
-    </row>
-    <row r="443" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G443" s="4"/>
-      <c r="H443" s="4"/>
-    </row>
-    <row r="444" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G444" s="4"/>
-      <c r="H444" s="4"/>
-    </row>
-    <row r="445" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G445" s="4"/>
-      <c r="H445" s="4"/>
-    </row>
-    <row r="446" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G446" s="4"/>
-      <c r="H446" s="4"/>
-    </row>
-    <row r="447" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G447" s="4"/>
-      <c r="H447" s="4"/>
-    </row>
-    <row r="448" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G448" s="4"/>
-      <c r="H448" s="4"/>
-    </row>
-    <row r="449" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G449" s="4"/>
-      <c r="H449" s="4"/>
-    </row>
-    <row r="450" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G450" s="4"/>
-      <c r="H450" s="4"/>
-    </row>
-    <row r="451" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G451" s="4"/>
-      <c r="H451" s="4"/>
-    </row>
-    <row r="452" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G452" s="4"/>
-      <c r="H452" s="4"/>
-    </row>
-    <row r="453" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G453" s="4"/>
-      <c r="H453" s="4"/>
-    </row>
-    <row r="454" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G454" s="4"/>
-      <c r="H454" s="4"/>
-    </row>
-    <row r="455" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G455" s="4"/>
-      <c r="H455" s="4"/>
-    </row>
-    <row r="456" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G456" s="4"/>
-      <c r="H456" s="4"/>
-    </row>
-    <row r="457" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G457" s="4"/>
-      <c r="H457" s="4"/>
-    </row>
-    <row r="458" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G458" s="4"/>
-      <c r="H458" s="4"/>
-    </row>
-    <row r="459" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G459" s="4"/>
-      <c r="H459" s="4"/>
-    </row>
-    <row r="460" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G460" s="4"/>
-      <c r="H460" s="4"/>
-    </row>
-    <row r="461" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G461" s="4"/>
-      <c r="H461" s="4"/>
-    </row>
-    <row r="462" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G462" s="4"/>
-      <c r="H462" s="4"/>
-    </row>
-    <row r="463" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G463" s="4"/>
-      <c r="H463" s="4"/>
-    </row>
-    <row r="464" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G464" s="4"/>
-      <c r="H464" s="4"/>
-    </row>
-    <row r="465" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G465" s="4"/>
-      <c r="H465" s="4"/>
-    </row>
-    <row r="466" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G466" s="4"/>
-      <c r="H466" s="4"/>
-    </row>
-    <row r="467" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G467" s="4"/>
-      <c r="H467" s="4"/>
-    </row>
-    <row r="468" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G468" s="4"/>
-      <c r="H468" s="4"/>
-    </row>
-    <row r="469" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G469" s="4"/>
-      <c r="H469" s="4"/>
-    </row>
-    <row r="470" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G470" s="4"/>
-      <c r="H470" s="4"/>
-    </row>
-    <row r="471" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G471" s="4"/>
-      <c r="H471" s="4"/>
-    </row>
-    <row r="472" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G472" s="4"/>
-      <c r="H472" s="4"/>
-    </row>
-    <row r="473" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G473" s="4"/>
-      <c r="H473" s="4"/>
-    </row>
-    <row r="474" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G474" s="4"/>
-      <c r="H474" s="4"/>
-    </row>
-    <row r="475" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G475" s="4"/>
-      <c r="H475" s="4"/>
-    </row>
-    <row r="476" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G476" s="4"/>
-      <c r="H476" s="4"/>
-    </row>
-    <row r="477" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G477" s="4"/>
-      <c r="H477" s="4"/>
-    </row>
-    <row r="478" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G478" s="4"/>
-      <c r="H478" s="4"/>
-    </row>
-    <row r="479" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G479" s="4"/>
-      <c r="H479" s="4"/>
-    </row>
-    <row r="480" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G480" s="4"/>
-      <c r="H480" s="4"/>
-    </row>
-    <row r="481" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G481" s="4"/>
-      <c r="H481" s="4"/>
-    </row>
-    <row r="482" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G482" s="4"/>
-      <c r="H482" s="4"/>
-    </row>
-    <row r="483" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G483" s="4"/>
-      <c r="H483" s="4"/>
-    </row>
-    <row r="484" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G484" s="4"/>
-      <c r="H484" s="4"/>
-    </row>
-    <row r="485" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G485" s="4"/>
-      <c r="H485" s="4"/>
-    </row>
-    <row r="486" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G486" s="4"/>
-      <c r="H486" s="4"/>
-    </row>
-    <row r="487" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G487" s="4"/>
-      <c r="H487" s="4"/>
-    </row>
-    <row r="488" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G488" s="4"/>
-      <c r="H488" s="4"/>
-    </row>
-    <row r="489" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G489" s="4"/>
-      <c r="H489" s="4"/>
-    </row>
-    <row r="490" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G490" s="4"/>
-      <c r="H490" s="4"/>
-    </row>
-    <row r="491" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G491" s="4"/>
-      <c r="H491" s="4"/>
-    </row>
-    <row r="492" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G492" s="4"/>
-      <c r="H492" s="4"/>
-    </row>
-    <row r="493" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G493" s="4"/>
-      <c r="H493" s="4"/>
-    </row>
-    <row r="494" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G494" s="4"/>
-      <c r="H494" s="4"/>
-    </row>
-    <row r="495" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G495" s="4"/>
-      <c r="H495" s="4"/>
-    </row>
-    <row r="496" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G496" s="4"/>
-      <c r="H496" s="4"/>
-    </row>
-    <row r="497" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G497" s="4"/>
-      <c r="H497" s="4"/>
-    </row>
-    <row r="498" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G498" s="4"/>
-      <c r="H498" s="4"/>
-    </row>
-    <row r="499" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G499" s="4"/>
-      <c r="H499" s="4"/>
-    </row>
-    <row r="500" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G500" s="4"/>
-      <c r="H500" s="4"/>
-    </row>
-    <row r="501" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G501" s="4"/>
-      <c r="H501" s="4"/>
-    </row>
-    <row r="502" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G502" s="4"/>
-      <c r="H502" s="4"/>
-    </row>
-    <row r="503" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G503" s="4"/>
-      <c r="H503" s="4"/>
-    </row>
-    <row r="504" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G504" s="4"/>
-      <c r="H504" s="4"/>
-    </row>
-    <row r="505" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G505" s="4"/>
-      <c r="H505" s="4"/>
-    </row>
-    <row r="506" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G506" s="4"/>
-      <c r="H506" s="4"/>
-    </row>
-    <row r="507" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G507" s="4"/>
-      <c r="H507" s="4"/>
-    </row>
-    <row r="508" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G508" s="4"/>
-      <c r="H508" s="4"/>
-    </row>
-    <row r="509" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G509" s="4"/>
-      <c r="H509" s="4"/>
-    </row>
-    <row r="510" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G510" s="4"/>
-      <c r="H510" s="4"/>
-    </row>
-    <row r="511" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G511" s="4"/>
-      <c r="H511" s="4"/>
-    </row>
-    <row r="512" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G512" s="4"/>
-      <c r="H512" s="4"/>
-    </row>
-    <row r="513" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G513" s="4"/>
-      <c r="H513" s="4"/>
-    </row>
-    <row r="514" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G514" s="4"/>
-      <c r="H514" s="4"/>
-    </row>
-    <row r="515" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G515" s="4"/>
-      <c r="H515" s="4"/>
-    </row>
-    <row r="516" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G516" s="4"/>
-      <c r="H516" s="4"/>
-    </row>
-    <row r="517" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G517" s="4"/>
-      <c r="H517" s="4"/>
-    </row>
-    <row r="518" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G518" s="4"/>
-      <c r="H518" s="4"/>
-    </row>
-    <row r="519" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G519" s="4"/>
-      <c r="H519" s="4"/>
-    </row>
-    <row r="520" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G520" s="4"/>
-      <c r="H520" s="4"/>
-    </row>
-    <row r="521" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G521" s="4"/>
-      <c r="H521" s="4"/>
-    </row>
-    <row r="522" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G522" s="4"/>
-      <c r="H522" s="4"/>
-    </row>
-    <row r="523" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G523" s="4"/>
-      <c r="H523" s="4"/>
-    </row>
-    <row r="524" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G524" s="4"/>
-      <c r="H524" s="4"/>
-    </row>
-    <row r="525" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G525" s="4"/>
-      <c r="H525" s="4"/>
-    </row>
-    <row r="526" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G526" s="4"/>
-      <c r="H526" s="4"/>
-    </row>
-    <row r="527" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G527" s="4"/>
-      <c r="H527" s="4"/>
-    </row>
-    <row r="528" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G528" s="4"/>
-      <c r="H528" s="4"/>
-    </row>
-    <row r="529" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G529" s="4"/>
-      <c r="H529" s="4"/>
-    </row>
-    <row r="530" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G530" s="4"/>
-      <c r="H530" s="4"/>
-    </row>
-    <row r="531" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G531" s="4"/>
-      <c r="H531" s="4"/>
-    </row>
-    <row r="532" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G532" s="4"/>
-      <c r="H532" s="4"/>
-    </row>
-    <row r="533" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G533" s="4"/>
-      <c r="H533" s="4"/>
-    </row>
-    <row r="534" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G534" s="4"/>
-      <c r="H534" s="4"/>
-    </row>
-    <row r="535" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G535" s="4"/>
-      <c r="H535" s="4"/>
-    </row>
-    <row r="536" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G536" s="4"/>
-      <c r="H536" s="4"/>
-    </row>
-    <row r="537" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G537" s="4"/>
-      <c r="H537" s="4"/>
-    </row>
-    <row r="538" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G538" s="4"/>
-      <c r="H538" s="4"/>
-    </row>
-    <row r="539" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G539" s="4"/>
-      <c r="H539" s="4"/>
-    </row>
-    <row r="540" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G540" s="4"/>
-      <c r="H540" s="4"/>
-    </row>
-    <row r="541" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G541" s="4"/>
-      <c r="H541" s="4"/>
-    </row>
-    <row r="542" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G542" s="4"/>
-      <c r="H542" s="4"/>
-    </row>
-    <row r="543" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G543" s="4"/>
-      <c r="H543" s="4"/>
-    </row>
-    <row r="544" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G544" s="4"/>
-      <c r="H544" s="4"/>
-    </row>
-    <row r="545" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G545" s="4"/>
-      <c r="H545" s="4"/>
-    </row>
-    <row r="546" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G546" s="4"/>
-      <c r="H546" s="4"/>
-    </row>
-    <row r="547" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G547" s="4"/>
-      <c r="H547" s="4"/>
-    </row>
-    <row r="548" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G548" s="4"/>
-      <c r="H548" s="4"/>
-    </row>
-    <row r="549" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G549" s="4"/>
-      <c r="H549" s="4"/>
-    </row>
-    <row r="550" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G550" s="4"/>
-      <c r="H550" s="4"/>
-    </row>
-    <row r="551" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G551" s="4"/>
-      <c r="H551" s="4"/>
-    </row>
-    <row r="552" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G552" s="4"/>
-      <c r="H552" s="4"/>
-    </row>
-    <row r="553" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G553" s="4"/>
-      <c r="H553" s="4"/>
-    </row>
-    <row r="554" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G554" s="4"/>
-      <c r="H554" s="4"/>
-    </row>
-    <row r="555" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G555" s="4"/>
-      <c r="H555" s="4"/>
-    </row>
-    <row r="556" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G556" s="4"/>
-      <c r="H556" s="4"/>
-    </row>
-    <row r="557" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G557" s="4"/>
-      <c r="H557" s="4"/>
-    </row>
-    <row r="558" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G558" s="4"/>
-      <c r="H558" s="4"/>
-    </row>
-    <row r="559" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G559" s="4"/>
-      <c r="H559" s="4"/>
-    </row>
-    <row r="560" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G560" s="4"/>
-      <c r="H560" s="4"/>
+      <c r="G209" s="6"/>
+      <c r="H209" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="208">
@@ -7839,6 +5905,6 @@
     <mergeCell ref="G30:H30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
--- a/vrp_dss/Solve Times Summary.xlsx
+++ b/vrp_dss/Solve Times Summary.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Aaron\Documents\Git Repositories\VRP-DSS\vrp_dss\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\great\Documents\GitHub\VRP-DSS\vrp_dss\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8369DE26-365A-4E68-AD82-DEA9C4168EFF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A59BD14C-FA27-4769-98E0-B50078B9C5B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="196">
   <si>
     <t># Customers</t>
   </si>
@@ -67,6 +67,9 @@
   </si>
   <si>
     <t>CPLEX Generated Text File</t>
+  </si>
+  <si>
+    <t>Math Routes</t>
   </si>
   <si>
     <t>Math Objective (evaluated by meta)</t>
@@ -113,10 +116,13 @@
 Solve time: 641</t>
   </si>
   <si>
-    <t xml:space="preserve">11 metre (capacity 30):
+    <t>{0: [[(7, 5), (8, 2), (3, 2), (1, 5), (5, 3), (4, 6), (2, 1), (6, 6)]], 1: [[(9, 9)]]}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 metre (capacity 22):
+6 (6) -&gt; 9 (9)
+11 metre (capacity 30):
 7 (5) -&gt; 8 (2) -&gt; 3 (2) -&gt; 1 (5) -&gt; 5 (3) -&gt; 4 (6) -&gt; 2 (1)
-8 metre (capacity 22):
-6 (6) -&gt; 9 (9)
 </t>
   </si>
   <si>
@@ -149,6 +155,17 @@
 Solve time: 903</t>
   </si>
   <si>
+    <t>{0: [], 1: [[(6, 6), (1, 7), (2, 3)]], 2: [[(8, 8), (4, 2), (3, 6), (5, 3), (7, 8), (9, 1)]]}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rigid (capacity 16):
+11 metre (capacity 30):
+8 (8) -&gt; 4 (2) -&gt; 3 (6) -&gt; 5 (3) -&gt; 7 (8) -&gt; 9 (1)
+8 metre (capacity 22):
+2 (3) -&gt; 1 (7) -&gt; 6 (6)
+</t>
+  </si>
+  <si>
     <t>Input:
 Customer 1 has 5 pallets demand and window 21-22 at (52.242025697, -37.558585418) and average unload time 0.060925028
 Customer 2 has 2 pallets demand and window 0-24 at (80.08666625, 89.79908273) and average unload time 0.060846624
@@ -176,6 +193,15 @@
 Vehicle SP2 travels from 8 to 3 to deliver 3 pallets. Expected unload start time is 5.264703289
 Objective value: 943.34840135
 Solve time: 630</t>
+  </si>
+  <si>
+    <t>{0: [[(6, 3), (9, 4), (1, 5)], [(2, 2), (5, 1), (8, 2), (3, 3), (7, 3), (4, 1)]]}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rigid (capacity 16):
+2 (2) -&gt; 5 (1) -&gt; 8 (2) -&gt; 3 (3) -&gt; 7 (3) -&gt; 4 (1) -&gt; 9 (4)
+6 (3) -&gt; 1 (5)
+</t>
   </si>
   <si>
     <t>Input:
@@ -208,6 +234,18 @@
 Solve time: 1531</t>
   </si>
   <si>
+    <t>{0: [[(2, 7), (4, 8)]], 1: [[(5, 5), (8, 8)]], 2: [[(6, 2), (1, 3), (7, 4), (3, 7), (9, 5)]]}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11 metre (capacity 30):
+2 (7) -&gt; 4 (8)
+Rigid (capacity 16):
+8 (8) -&gt; 5 (5)
+8 metre (capacity 22):
+6 (2) -&gt; 1 (3) -&gt; 7 (4) -&gt; 3 (7) -&gt; 9 (5)
+</t>
+  </si>
+  <si>
     <t>Input:
 Customer 1 has 7 pallets demand and window 21-22 at (-89.28625092, -19.528047969) and average unload time 0.088997757
 Customer 2 has 4 pallets demand and window 0-24 at (-79.777105548, -9.173939447) and average unload time 0.037538711
@@ -237,6 +275,17 @@
 Solve time: 2543</t>
   </si>
   <si>
+    <t>{0: [[(6, 5), (5, 4), (3, 7), (9, 4), (4, 2)], [(8, 5), (7, 3), (1, 7), (2, 4)]], 1: []}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rigid (capacity 16):
+8 (5) -&gt; 7 (3)
+8 metre (capacity 22):
+9 (4) -&gt; 3 (7) -&gt; 5 (4) -&gt; 6 (5)
+4 (2) -&gt; 1 (7) -&gt; 2 (4)
+</t>
+  </si>
+  <si>
     <t>Input:
 Customer 1 has 1 pallets demand and window 0-24 at (-28.036245659, -17.225052327) and average unload time 0.085209225
 Customer 2 has 2 pallets demand and window 0-24 at (6.541253413, 26.809224103) and average unload time 0.083426014
@@ -266,6 +315,16 @@
 Solve time: 3773</t>
   </si>
   <si>
+    <t>{0: [[(5, 8), (3, 8), (8, 3), (2, 2)]], 1: [], 2: [[(7, 8), (6, 3), (1, 1), (4, 2), (9, 2)]]}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rigid (capacity 16):
+9 (2) -&gt; 4 (2) -&gt; 1 (1) -&gt; 6 (3) -&gt; 7 (8)
+8 metre (capacity 22):
+5 (8) -&gt; 3 (8) -&gt; 8 (3) -&gt; 2 (2)
+</t>
+  </si>
+  <si>
     <t>Input:
 Customer 1 has 7 pallets demand and window 0-24 at (-98.295543185, 28.838680271) and average unload time 0.083568028
 Customer 2 has 5 pallets demand and window 0-24 at (96.821349354, 63.117438185) and average unload time 0.154661074
@@ -293,6 +352,16 @@
 Vehicle SP2 travels from 7 to DepotReturn to deliver 0 pallets. Expected unload start time is 6.499013009
 Objective value: 883.239440793
 Solve time: 3816</t>
+  </si>
+  <si>
+    <t>{0: [[(2, 5), (9, 2), (3, 4), (8, 5), (6, 5)]], 1: [[(5, 4), (4, 1), (1, 7), (7, 4)]]}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11 metre (capacity 30):
+6 (5) -&gt; 8 (5) -&gt; 3 (4) -&gt; 9 (2) -&gt; 2 (5)
+Rigid (capacity 16):
+7 (4) -&gt; 1 (7) -&gt; 4 (1) -&gt; 5 (4)
+</t>
   </si>
   <si>
     <t>Input:
@@ -326,6 +395,18 @@
 Solve time: 2016</t>
   </si>
   <si>
+    <t>{0: [[(7, 6), (6, 8)]], 1: [[(9, 3), (8, 8), (5, 7), (4, 8)]], 2: [[(2, 6), (1, 3), (3, 4), (7, 2)]]}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 metre (capacity 22):
+1 (3) -&gt; 3 (4) -&gt; 2 (6)
+Rigid (capacity 16):
+6 (8) -&gt; 7 (8)
+11 metre (capacity 30):
+9 (3) -&gt; 8 (8) -&gt; 5 (7) -&gt; 4 (8)
+</t>
+  </si>
+  <si>
     <t>Input:
 Customer 1 has 1 pallets demand and window 0-24 at (11.834520083, -34.69497582) and average unload time 0.12405363
 Customer 2 has 3 pallets demand and window 0-24 at (41.605570864, -6.837804372) and average unload time 0.084174776
@@ -356,6 +437,17 @@
 Solve time: 1630</t>
   </si>
   <si>
+    <t>{0: [[(1, 1), (3, 2), (6, 7), (8, 4)], [(7, 2), (9, 2), (2, 3), (5, 6)]], 1: [[(4, 7)]]}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11 metre (capacity 30):
+4 (7)
+Rigid (capacity 16):
+1 (1) -&gt; 3 (2) -&gt; 6 (7) -&gt; 8 (4)
+7 (2) -&gt; 9 (2) -&gt; 2 (3) -&gt; 5 (6)
+</t>
+  </si>
+  <si>
     <t>Input:
 Customer 1 has 4 pallets demand and window 0-24 at (-99.384142277, 45.343950296) and average unload time 0.032665165
 Customer 2 has 6 pallets demand and window 17-18 at (26.906318094, 93.004308817) and average unload time 0.072299486
@@ -382,6 +474,16 @@
 Vehicle SP1 travels from 9 to 2 to deliver 6 pallets. Expected unload start time is 17.857478693
 Objective value: 566.836248779
 Solve time: 976</t>
+  </si>
+  <si>
+    <t>{0: [[(8, 1), (7, 1), (3, 3), (5, 4), (9, 4), (2, 6), (4, 1), (1, 4), (6, 5)]], 1: []}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11 metre (capacity 30):
+8 metre (capacity 22):
+4 (1) -&gt; 1 (4) -&gt; 6 (5)
+8 (1) -&gt; 7 (1) -&gt; 5 (4) -&gt; 9 (4) -&gt; 2 (6) -&gt; 3 (3)
+</t>
   </si>
   <si>
     <t>Input:
@@ -420,6 +522,16 @@
 Solve time: 2359</t>
   </si>
   <si>
+    <t>{0: [[(9, 3), (12, 3), (5, 4), (4, 5), (2, 7), (10, 7), (3, 1)]], 1: [[(7, 2), (1, 2), (11, 3), (8, 2), (6, 5), (9, 2)]]}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rigid (capacity 16):
+2 (7) -&gt; 10 (7) -&gt; 7 (2)
+11 metre (capacity 30):
+3 (1) -&gt; 4 (5) -&gt; 5 (4) -&gt; 12 (3) -&gt; 9 (5) -&gt; 6 (5) -&gt; 8 (2) -&gt; 11 (3) -&gt; 1 (2)
+</t>
+  </si>
+  <si>
     <t>Input:
 Customer 1 has 2 pallets demand and window 0-24 at (86.117323523, 65.481263002) and average unload time 0.088372233
 Customer 2 has 1 pallets demand and window 0-24 at (11.386501748, 9.118109776) and average unload time 0.135651791
@@ -455,6 +567,16 @@
 Solve time: 8640</t>
   </si>
   <si>
+    <t>{0: [[(2, 1), (7, 3), (11, 2), (1, 2), (5, 4), (4, 4), (6, 3)]], 1: [[(3, 3), (12, 2), (10, 2), (8, 3), (9, 1)]], 2: []}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rigid (capacity 16):
+3 (3) -&gt; 12 (2) -&gt; 10 (2) -&gt; 8 (3) -&gt; 9 (1)
+8 metre (capacity 22):
+2 (1) -&gt; 7 (3) -&gt; 11 (2) -&gt; 1 (2) -&gt; 5 (4) -&gt; 4 (4) -&gt; 6 (3)
+</t>
+  </si>
+  <si>
     <t>Input:
 Customer 1 has 4 pallets demand and window 0-24 at (-95.616703662, -14.90802781) and average unload time 0.164037861
 Customer 2 has 1 pallets demand and window 0-24 at (60.574613574, 15.084761202) and average unload time 0.046722152
@@ -490,6 +612,16 @@
 Solve time: 1565</t>
   </si>
   <si>
+    <t>{0: [[(11, 4), (3, 5), (2, 1), (4, 1), (10, 3), (6, 2), (9, 3)]], 1: [], 2: [[(8, 2), (7, 1), (5, 3), (1, 4), (12, 5)]]}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11 metre (capacity 30):
+11 (4) -&gt; 3 (5) -&gt; 2 (1) -&gt; 4 (1) -&gt; 10 (3) -&gt; 6 (2) -&gt; 9 (3)
+Rigid (capacity 16):
+8 (2) -&gt; 7 (1) -&gt; 5 (3) -&gt; 1 (4) -&gt; 12 (5)
+</t>
+  </si>
+  <si>
     <t>Input:
 Customer 1 has 4 pallets demand and window 0-24 at (-75.904887286, -33.901246897) and average unload time 0.036907913
 Customer 2 has 6 pallets demand and window 0-24 at (35.865499648, 34.318194739) and average unload time 0.099555942
@@ -525,6 +657,15 @@
 Solve time: 5289</t>
   </si>
   <si>
+    <t>{0: [[(9, 3), (8, 5), (6, 7), (2, 6), (11, 8)], [(3, 1), (12, 1), (7, 4), (1, 4), (5, 8), (10, 5), (4, 5)]]}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11 metre (capacity 30):
+9 (3) -&gt; 8 (5) -&gt; 6 (7) -&gt; 2 (6) -&gt; 11 (8)
+3 (1) -&gt; 12 (1) -&gt; 7 (4) -&gt; 1 (4) -&gt; 5 (8) -&gt; 10 (5) -&gt; 4 (5)
+</t>
+  </si>
+  <si>
     <t>Input:
 Customer 1 has 4 pallets demand and window 0-24 at (92.548667144, -73.357619901) and average unload time 0.017126286
 Customer 2 has 5 pallets demand and window 0-24 at (-82.174744291, -40.392993107) and average unload time 0.039157449
@@ -558,6 +699,16 @@
 Vehicle SP2 travels from 12 to DepotReturn to deliver 0 pallets. Expected unload start time is 11.678149448
 Objective value: 909.070915683
 Solve time: 7905</t>
+  </si>
+  <si>
+    <t>{0: [[(4, 3), (5, 3)]], 1: [[(2, 5), (9, 1), (1, 4), (7, 2), (3, 1), (10, 5), (6, 1), (8, 3), (11, 2), (12, 4)]], 2: []}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 metre (capacity 22):
+4 (3) -&gt; 6 (1) -&gt; 10 (5) -&gt; 3 (1) -&gt; 7 (2) -&gt; 1 (4) -&gt; 9 (1) -&gt; 2 (5)
+11 metre (capacity 30):
+12 (4) -&gt; 11 (2) -&gt; 8 (3) -&gt; 5 (3)
+</t>
   </si>
   <si>
     <t>Input:
@@ -596,6 +747,16 @@
 Solve time: 2023</t>
   </si>
   <si>
+    <t>{0: [[(10, 5), (8, 6), (5, 7), (3, 3), (2, 1)]], 1: [[(4, 6), (6, 2), (2, 5), (12, 5), (7, 3), (9, 3), (11, 3), (1, 3)]]}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 metre (capacity 22):
+10 (5) -&gt; 11 (3) -&gt; 9 (3) -&gt; 7 (3) -&gt; 1 (3) -&gt; 12 (5)
+11 metre (capacity 30):
+4 (6) -&gt; 6 (2) -&gt; 2 (6) -&gt; 3 (3) -&gt; 5 (7) -&gt; 8 (6)
+</t>
+  </si>
+  <si>
     <t>Input:
 Customer 1 has 1 pallets demand and window 14-15 at (-60.507168905, -25.526932952) and average unload time 0.037034357
 Customer 2 has 1 pallets demand and window 0-24 at (-38.189779923, -94.309764347) and average unload time 0.115327914
@@ -629,6 +790,16 @@
 Vehicle SP2 travels from 10 to 8 to deliver 2 pallets. Expected unload start time is 3.82719613
 Objective value: 683.459790607
 Solve time: 3644</t>
+  </si>
+  <si>
+    <t>{0: [[(1, 1), (3, 4), (12, 2), (2, 1), (9, 3), (11, 5), (6, 5), (7, 6)]], 1: [[(10, 5), (8, 2), (5, 3), (4, 4)]], 2: []}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rigid (capacity 16):
+10 (5) -&gt; 8 (2) -&gt; 5 (3) -&gt; 4 (4)
+11 metre (capacity 30):
+7 (6) -&gt; 6 (5) -&gt; 11 (5) -&gt; 9 (3) -&gt; 2 (1) -&gt; 12 (2) -&gt; 3 (4) -&gt; 1 (1)
+</t>
   </si>
   <si>
     <t>Input:
@@ -667,6 +838,17 @@
 Solve time: 11599</t>
   </si>
   <si>
+    <t>{0: [[(1, 7), (6, 7), (8, 5)], [(11, 5), (10, 7), (12, 7)]], 1: [[(3, 4), (2, 5), (9, 7), (4, 2), (7, 5), (5, 5)]]}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11 metre (capacity 30):
+3 (4) -&gt; 2 (5) -&gt; 9 (7) -&gt; 4 (2) -&gt; 7 (5) -&gt; 5 (5)
+8 metre (capacity 22):
+12 (7) -&gt; 10 (7) -&gt; 11 (5)
+8 (5) -&gt; 6 (7) -&gt; 1 (7)
+</t>
+  </si>
+  <si>
     <t>Input:
 Customer 1 has 3 pallets demand and window 0-24 at (-35.450068632, -1.394236418) and average unload time 0.166319408
 Customer 2 has 5 pallets demand and window 0-24 at (63.063748607, 33.189197656) and average unload time 0.063055616
@@ -700,6 +882,15 @@
 Vehicle SP3 travels from 12 to 6 to deliver 6 pallets. Expected unload start time is 6.556042746
 Objective value: 952.746718211
 Solve time: 66931</t>
+  </si>
+  <si>
+    <t>{0: [], 1: [[(10, 5), (2, 5), (3, 2), (7, 6)], [(1, 3), (12, 3), (6, 6), (5, 1), (4, 2), (9, 4), (8, 7), (11, 2)]]}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11 metre (capacity 30):
+10 (5) -&gt; 2 (5) -&gt; 3 (2) -&gt; 7 (6)
+11 (2) -&gt; 8 (7) -&gt; 9 (4) -&gt; 4 (2) -&gt; 5 (1) -&gt; 6 (6) -&gt; 12 (3) -&gt; 1 (3)
+</t>
   </si>
   <si>
     <t>Input:
@@ -740,6 +931,16 @@
 Vehicle SP3 travels from 12 to 7 to deliver 0 pallets. Expected unload start time is 19
 Objective value: 1604.457014441
 Solve time: 32942</t>
+  </si>
+  <si>
+    <t>{0: [[(6, 3), (7, 1), (10, 0), (2, 3), (9, 2)]], 1: [[(1, 2), (8, 5), (4, 4), (5, 4), (3, 1), (7, 0), (10, 1)], [(12, 2), (7, 0), (10, 0), (11, 3)]]}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rigid (capacity 16):
+3 (1) -&gt; 7 (1) -&gt; 12 (2) -&gt; 6 (3) -&gt; 2 (3) -&gt; 10 (1) -&gt; 11 (3)
+11 metre (capacity 30):
+5 (4) -&gt; 4 (4) -&gt; 8 (5) -&gt; 1 (2) -&gt; 9 (2)
+</t>
   </si>
   <si>
     <t>Input:
@@ -784,6 +985,16 @@
 Solve time: 202664</t>
   </si>
   <si>
+    <t>{0: [[(2, 4), (13, 5), (11, 4), (12, 1)], [(14, 5), (6, 5), (3, 2), (10, 4), (5, 3)], [(8, 1), (9, 2), (15, 3), (4, 5), (1, 2), (7, 3)]]}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 metre (capacity 22):
+14 (5) -&gt; 6 (5) -&gt; 3 (2) -&gt; 10 (4) -&gt; 5 (3)
+8 (1) -&gt; 9 (2) -&gt; 15 (3) -&gt; 4 (5) -&gt; 1 (2) -&gt; 7 (3)
+2 (4) -&gt; 13 (5) -&gt; 11 (4) -&gt; 12 (1)
+</t>
+  </si>
+  <si>
     <t>Input:
 Customer 1 has 4 pallets demand and window 0-24 at (-87.579150258, -89.783731753) and average unload time 0.088865326
 Customer 2 has 1 pallets demand and window 0-24 at (-21.265605804, -5.062985601) and average unload time 0.051322487
@@ -826,6 +1037,17 @@
 Solve time: 35184</t>
   </si>
   <si>
+    <t>{0: [[(15, 1), (1, 4), (4, 4), (9, 2), (2, 1)], [(3, 1), (10, 4), (6, 1), (5, 3), (13, 4)]], 1: [[(11, 2), (14, 3), (7, 3), (12, 3), (8, 4)]]}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rigid (capacity 16):
+13 (4) -&gt; 5 (3) -&gt; 6 (1) -&gt; 10 (4) -&gt; 3 (1)
+2 (1) -&gt; 9 (2) -&gt; 4 (4) -&gt; 1 (4) -&gt; 15 (1)
+8 metre (capacity 22):
+8 (4) -&gt; 12 (3) -&gt; 7 (3) -&gt; 14 (3) -&gt; 11 (2)
+</t>
+  </si>
+  <si>
     <t>Input:
 Customer 1 has 3 pallets demand and window 0-24 at (69.091565718, 78.959259142) and average unload time 0.09181663
 Customer 2 has 4 pallets demand and window 0-24 at (47.254550552, 82.887779312) and average unload time 0.054112947
@@ -868,6 +1090,17 @@
 Solve time: 380729</t>
   </si>
   <si>
+    <t>{0: [[(6, 3)], [(15, 4), (4, 3), (12, 2), (8, 2), (3, 3), (13, 2)]], 1: [[(7, 2), (5, 2), (2, 4), (1, 3), (14, 1), (11, 1), (10, 4), (9, 4)]]}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 metre (capacity 22):
+7 (2) -&gt; 5 (2) -&gt; 2 (4) -&gt; 1 (3) -&gt; 14 (1) -&gt; 11 (1) -&gt; 10 (4) -&gt; 9 (4)
+Rigid (capacity 16):
+6 (3)
+15 (4) -&gt; 4 (3) -&gt; 12 (2) -&gt; 8 (2) -&gt; 3 (3) -&gt; 13 (2)
+</t>
+  </si>
+  <si>
     <t>Input:
 Customer 1 has 5 pallets demand and window 0-24 at (-41.430511728, 67.190069284) and average unload time 0.131760763
 Customer 2 has 3 pallets demand and window 0-24 at (-0.576573004, -72.615105011) and average unload time 0.121328391
@@ -907,6 +1140,16 @@
 Vehicle SP2 travels from 13 to DepotReturn to deliver 0 pallets. Expected unload start time is 7.991377995
 Objective value: 1003.760132766
 Solve time: 520620</t>
+  </si>
+  <si>
+    <t>{0: [[(14, 3), (9, 5), (3, 1), (12, 1), (1, 5), (6, 4), (10, 4), (7, 5), (15, 1)]], 1: [[(5, 4), (2, 3), (4, 1), (11, 3), (8, 5), (13, 2)]]}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11 metre (capacity 30):
+15 (1) -&gt; 7 (5) -&gt; 10 (4) -&gt; 6 (4) -&gt; 1 (5) -&gt; 12 (1) -&gt; 3 (1) -&gt; 9 (5) -&gt; 14 (3)
+8 metre (capacity 22):
+13 (2) -&gt; 8 (5) -&gt; 11 (3) -&gt; 4 (1) -&gt; 2 (3) -&gt; 5 (4)
+</t>
   </si>
   <si>
     <t>Input:
@@ -951,6 +1194,16 @@
 Solve time: 79067</t>
   </si>
   <si>
+    <t>{0: [[(13, 2), (15, 2), (7, 3), (4, 3)], [(8, 3), (5, 2), (12, 3), (9, 4), (3, 3)], [(11, 3), (14, 2), (6, 3), (2, 2), (10, 2), (1, 4)]]}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rigid (capacity 16):
+8 (3) -&gt; 5 (2) -&gt; 12 (3) -&gt; 9 (4) -&gt; 3 (3)
+4 (3) -&gt; 7 (3) -&gt; 15 (2) -&gt; 13 (2)
+11 (3) -&gt; 14 (2) -&gt; 6 (3) -&gt; 2 (2) -&gt; 10 (2) -&gt; 1 (4)
+</t>
+  </si>
+  <si>
     <t>Input:
 Customer 1 has 3 pallets demand and window 0-24 at (-84.386511464, 41.028512923) and average unload time 0.02664974
 Customer 2 has 1 pallets demand and window 0-24 at (12.051179729, -94.371117561) and average unload time 0.076220267
@@ -991,6 +1244,18 @@
 Vehicle SP3 travels from 8 to DepotReturn to deliver 0 pallets. Expected unload start time is 2.151403282
 Objective value: 1067.862157347
 Solve time: 15668</t>
+  </si>
+  <si>
+    <t>{0: [[(14, 1), (7, 2), (11, 5), (10, 3), (13, 3), (4, 4), (2, 1), (5, 1)]], 1: [[(12, 1), (3, 5), (6, 1), (9, 3), (15, 3), (1, 3)]], 2: [[(8, 4)]]}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rigid (capacity 16):
+1 (3) -&gt; 15 (3) -&gt; 9 (3) -&gt; 6 (1) -&gt; 3 (5) -&gt; 12 (1)
+11 metre (capacity 30):
+8 (4)
+8 metre (capacity 22):
+14 (1) -&gt; 7 (2) -&gt; 11 (5) -&gt; 10 (3) -&gt; 13 (3) -&gt; 4 (4) -&gt; 2 (1) -&gt; 5 (1)
+</t>
   </si>
   <si>
     <t>Input:
@@ -1036,6 +1301,16 @@
 Solve time: 72924</t>
   </si>
   <si>
+    <t>{0: [[(2, 2), (1, 2), (8, 4), (15, 1), (14, 4), (10, 3)], [(3, 2), (13, 4), (12, 4), (5, 4), (11, 2)], [(4, 3), (9, 3), (7, 4), (6, 4), (2, 2)]]}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rigid (capacity 16):
+10 (3) -&gt; 14 (4) -&gt; 15 (1) -&gt; 6 (4) -&gt; 2 (4)
+11 (2) -&gt; 5 (4) -&gt; 12 (4) -&gt; 13 (4) -&gt; 3 (2)
+4 (3) -&gt; 7 (4) -&gt; 9 (3) -&gt; 1 (2) -&gt; 8 (4)
+</t>
+  </si>
+  <si>
     <t>Input:
 Customer 1 has 1 pallets demand and window 0-24 at (27.223585357, 95.572274447) and average unload time 0.16093088
 Customer 2 has 1 pallets demand and window 0-24 at (-23.113715798, 63.159264089) and average unload time 0.113434344
@@ -1077,6 +1352,16 @@
 Solve time: 7998</t>
   </si>
   <si>
+    <t>{0: [], 1: [[(10, 1), (12, 3), (13, 2), (15, 1), (8, 3), (4, 2), (5, 1), (7, 3), (11, 3), (1, 1), (2, 1)], [(9, 1), (14, 4), (6, 2), (3, 2)]]}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rigid (capacity 16):
+8 metre (capacity 22):
+9 (1) -&gt; 14 (4) -&gt; 6 (2) -&gt; 3 (2) -&gt; 12 (3) -&gt; 15 (1) -&gt; 13 (2) -&gt; 10 (1)
+8 (3) -&gt; 4 (2) -&gt; 5 (1) -&gt; 7 (3) -&gt; 11 (3) -&gt; 1 (1) -&gt; 2 (1)
+</t>
+  </si>
+  <si>
     <t>Input:
 Customer 1 has 3 pallets demand and window 18-19 at (86.128283791, -71.338412168) and average unload time 0.096117568
 Customer 2 has 1 pallets demand and window 0-24 at (-26.120167839, -22.867441357) and average unload time 0.134962108
@@ -1118,6 +1403,16 @@
 Solve time: 18387</t>
   </si>
   <si>
+    <t>{0: [[(11, 2), (8, 4), (4, 2), (12, 2), (3, 2), (15, 3), (9, 6), (2, 1)]], 1: [[(14, 1), (5, 5), (10, 4), (7, 6), (13, 3), (6, 6), (1, 3)]]}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 metre (capacity 22):
+13 (3) -&gt; 6 (6) -&gt; 1 (3) -&gt; 8 (4) -&gt; 4 (2) -&gt; 12 (2) -&gt; 11 (2)
+11 metre (capacity 30):
+14 (1) -&gt; 10 (4) -&gt; 7 (6) -&gt; 5 (5) -&gt; 9 (6) -&gt; 3 (2) -&gt; 15 (3) -&gt; 2 (1)
+</t>
+  </si>
+  <si>
     <t>Input:
 Customer 1 has 1 pallets demand and window 0-24 at (-24.529968069, 38.399091166) and average unload time 0.066972794
 Customer 2 has 4 pallets demand and window 0-24 at (51.690777233, -76.603520474) and average unload time 0.020191499
@@ -1159,6 +1454,16 @@
 Solve time: 81641</t>
   </si>
   <si>
+    <t>{0: [[(6, 1), (15, 1), (1, 1), (12, 1), (10, 2), (5, 3), (11, 1), (7, 4), (14, 2), (9, 1)]], 1: [[(4, 4), (13, 3), (3, 3), (2, 4), (8, 1)]]}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 metre (capacity 22):
+6 (1) -&gt; 15 (1) -&gt; 1 (1) -&gt; 12 (1) -&gt; 10 (2) -&gt; 5 (3) -&gt; 11 (1) -&gt; 7 (4) -&gt; 14 (2) -&gt; 9 (1)
+Rigid (capacity 16):
+8 (1) -&gt; 2 (4) -&gt; 3 (3) -&gt; 13 (3) -&gt; 4 (4)
+</t>
+  </si>
+  <si>
     <t>Input:
 Customer 1 has 7 pallets demand and window 0-24 at (25.507139791, 34.12404121) and average unload time 0.032989452
 Customer 2 has 9 pallets demand and window 0-24 at (20.418426913, -15.534208616) and average unload time 0.028418584
@@ -1192,6 +1497,17 @@
 Solve time: 13318</t>
   </si>
   <si>
+    <t>{0: [[(7, 3), (5, 12), (1, 7)], [(7, 4), (3, 5), (9, 3), (8, 4), (6, 5)], [(2, 9), (4, 8)]], 1: []}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11 metre (capacity 30):
+8 metre (capacity 22):
+7 (7) -&gt; 3 (5) -&gt; 9 (3) -&gt; 8 (4)
+1 (7) -&gt; 5 (12)
+6 (5) -&gt; 4 (8) -&gt; 2 (9)
+</t>
+  </si>
+  <si>
     <t>Input:
 Customer 1 has 4 pallets demand and window 0-24 at (-93.346452798, 32.406838113) and average unload time 0.125621569
 Customer 2 has 5 pallets demand and window 12-13 at (-89.57070554, 30.845985663) and average unload time 0.084441489
@@ -1221,6 +1537,9 @@
 Vehicle SP5 travels from 8 to 3 to deliver 5 pallets. Expected unload start time is 10.250352275
 Objective value: 845.523454536
 Solve time: 1909</t>
+  </si>
+  <si>
+    <t>{0: [], 1: [[(7, 7), (9, 11), (1, 4), (2, 5), (6, 2)], [(5, 8), (4, 9), (8, 8), (3, 5)]], 2: []}</t>
   </si>
   <si>
     <t>Input:
@@ -1257,6 +1576,18 @@
 Solve time: 26248</t>
   </si>
   <si>
+    <t>{0: [[(7, 15)]], 1: [], 2: [[(9, 9), (1, 7), (8, 5), (5, 9)], [(3, 15), (6, 14)], [(9, 5), (4, 14), (2, 5)]]}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rigid (capacity 16):
+9 (14)
+11 metre (capacity 30):
+6 (14) -&gt; 7 (15)
+2 (5) -&gt; 4 (14) -&gt; 1 (7)
+5 (9) -&gt; 8 (5) -&gt; 3 (15)
+</t>
+  </si>
+  <si>
     <t>Input:
 Customer 1 has 2 pallets demand and window 21-22 at (90.005022837, -95.337592023) and average unload time 0.062945357
 Customer 2 has 2 pallets demand and window 0-24 at (-33.815013292, -77.865289496) and average unload time 0.076961625
@@ -1287,6 +1618,16 @@
 Vehicle SP5 travels from 9 to 4 to deliver 3 pallets. Expected unload start time is 10.497281846
 Objective value: 694.665149453
 Solve time: 2249</t>
+  </si>
+  <si>
+    <t>{0: [], 1: [[(3, 8), (1, 2), (8, 6)]], 2: [[(8, 2), (7, 3), (2, 2), (6, 5), (5, 4), (9, 6), (4, 3)]]}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rigid (capacity 16):
+8 (8) -&gt; 3 (8)
+11 metre (capacity 30):
+9 (6) -&gt; 5 (4) -&gt; 6 (5) -&gt; 4 (3) -&gt; 7 (3) -&gt; 2 (2) -&gt; 1 (2)
+</t>
   </si>
   <si>
     <t>Input:
@@ -1331,6 +1672,18 @@
 Solve time: 5946</t>
   </si>
   <si>
+    <t>{0: [[(7, 3), (3, 3), (9, 0), (1, 3), (6, 13)], [(9, 1), (1, 1), (4, 9), (2, 10)], [(8, 10), (9, 0), (1, 3)]], 1: [[(9, 2), (1, 0)]], 2: [[(9, 0), (1, 3), (5, 13)]]}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11 metre (capacity 30):
+1 (10) -&gt; 6 (13)
+8 metre (capacity 22):
+8 (10) -&gt; 9 (3) -&gt; 3 (3) -&gt; 7 (3)
+4 (9) -&gt; 2 (10)
+5 (13)
+</t>
+  </si>
+  <si>
     <t>Input:
 Customer 1 has 12 pallets demand and window 0-24 at (-30.968215885, -75.574032689) and average unload time 0.150709065
 Customer 2 has 9 pallets demand and window 0-24 at (-23.291709414, 19.405698648) and average unload time 0.12843052
@@ -1364,6 +1717,18 @@
 Solve time: 10698</t>
   </si>
   <si>
+    <t>{0: [[(3, 10), (8, 16)], [(5, 12), (1, 12)], [(4, 8), (9, 3), (7, 16)]], 1: [[(6, 11), (2, 9)]]}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 metre (capacity 22):
+2 (9) -&gt; 4 (8) -&gt; 9 (3)
+11 metre (capacity 30):
+7 (16) -&gt; 6 (11)
+3 (10) -&gt; 8 (16)
+5 (12) -&gt; 1 (12)
+</t>
+  </si>
+  <si>
     <t>Input:
 Customer 1 has 11 pallets demand and window 0-24 at (-45.764791583, 86.137379344) and average unload time 0.027180512
 Customer 2 has 1 pallets demand and window 0-24 at (98.382227775, 83.751952147) and average unload time 0.020148877
@@ -1393,6 +1758,9 @@
 Vehicle SP4 travels from 9 to 7 to deliver 2 pallets. Expected unload start time is 22.934633274
 Objective value: 484.162097897
 Solve time: 6631</t>
+  </si>
+  <si>
+    <t>{0: [], 1: [[(5, 1), (2, 1), (3, 12), (6, 4)], [(1, 11), (8, 4), (9, 7), (7, 2), (4, 4)]], 2: []}</t>
   </si>
   <si>
     <t>Input:
@@ -1425,6 +1793,16 @@
 Vehicle SP5 travels from 5 to DepotReturn to deliver 0 pallets. Expected unload start time is 4.885529631
 Objective value: 892.847354116
 Solve time: 23010</t>
+  </si>
+  <si>
+    <t>{0: [[(3, 3), (9, 8), (6, 5)], [(4, 1), (1, 2), (5, 1)]], 1: [[(2, 4), (8, 10), (7, 4)]]}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rigid (capacity 16):
+3 (3) -&gt; 9 (8) -&gt; 6 (5)
+11 metre (capacity 30):
+7 (4) -&gt; 8 (10) -&gt; 2 (4) -&gt; 1 (2) -&gt; 5 (1) -&gt; 4 (1)
+</t>
   </si>
   <si>
     <t>Input:
@@ -1460,6 +1838,19 @@
 Solve time: 12555</t>
   </si>
   <si>
+    <t>{0: [[(2, 7), (5, 10), (6, 5)], [(1, 11), (8, 7)]], 1: [], 2: [[(3, 5), (4, 12), (7, 7), (9, 5), (2, 1)]]}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 metre (capacity 22):
+2 (8) -&gt; 5 (10)
+Rigid (capacity 16):
+6 (5) -&gt; 1 (11)
+8 (7)
+11 metre (capacity 30):
+9 (5) -&gt; 7 (7) -&gt; 4 (12) -&gt; 3 (5)
+</t>
+  </si>
+  <si>
     <t>Input:
 Customer 1 has 3 pallets demand and window 0-24 at (43.877999052, -67.22643211) and average unload time 0.162624943
 Customer 2 has 14 pallets demand and window 0-24 at (3.321852729, -43.388160642) and average unload time 0.042911884
@@ -1490,6 +1881,17 @@
 Vehicle SP5 travels from 9 to 4 to deliver 4 pallets. Expected unload start time is 23.021242584
 Objective value: 1059.49309779
 Solve time: 6468</t>
+  </si>
+  <si>
+    <t>{0: [[(6, 13), (5, 4), (8, 4)], [(9, 5), (4, 4), (3, 12)]], 1: [[(1, 3), (2, 14), (7, 11)]]}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 metre (capacity 22):
+3 (12)
+11 metre (capacity 30):
+5 (4) -&gt; 6 (13) -&gt; 7 (11)
+2 (14) -&gt; 1 (3) -&gt; 4 (4) -&gt; 9 (5) -&gt; 8 (4)
+</t>
   </si>
   <si>
     <t>Input:
@@ -1544,6 +1946,16 @@
 Solve time: 95015</t>
   </si>
   <si>
+    <t>{0: [[(5, 8), (2, 7), (7, 0), (9, 2), (4, 1)], [(8, 3), (11, 7), (12, 9), (7, 2), (9, 0), (4, 0)], [(1, 2), (10, 5), (3, 2), (6, 1), (7, 0), (9, 0), (4, 0)], [(7, 5), (9, 0), (4, 2)]], 1: [[(7, 0), (9, 0), (4, 0)]]}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 metre (capacity 22):
+8 (3) -&gt; 11 (7) -&gt; 12 (9) -&gt; 4 (3)
+5 (8) -&gt; 2 (7) -&gt; 9 (2) -&gt; 1 (2)
+10 (5) -&gt; 3 (2) -&gt; 6 (1) -&gt; 7 (7)
+</t>
+  </si>
+  <si>
     <t>Input:
 Customer 1 has 7 pallets demand and window 0-24 at (88.586330366, 26.747218425) and average unload time 0.079463013
 Customer 2 has 6 pallets demand and window 0-24 at (-32.739209063, -16.604833265) and average unload time 0.063886353
@@ -1583,6 +1995,18 @@
 Solve time: 30046</t>
   </si>
   <si>
+    <t>{0: [[(3, 4), (1, 7), (7, 4), (5, 7)]], 1: [[(8, 1), (11, 1), (6, 5), (5, 1), (9, 8)]], 2: [[(2, 6), (10, 10), (4, 4), (12, 9)]]}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 metre (capacity 22):
+11 (1) -&gt; 6 (5) -&gt; 5 (8) -&gt; 7 (4) -&gt; 3 (4)
+Rigid (capacity 16):
+9 (8) -&gt; 1 (7) -&gt; 8 (1)
+11 metre (capacity 30):
+2 (6) -&gt; 10 (10) -&gt; 4 (4) -&gt; 12 (9)
+</t>
+  </si>
+  <si>
     <t>Input:
 Customer 1 has 10 pallets demand and window 0-24 at (-55.665073856, 71.674487895) and average unload time 0.162205203
 Customer 2 has 1 pallets demand and window 0-24 at (-52.917721724, -77.845332262) and average unload time 0.065456515
@@ -1621,6 +2045,16 @@
 Solve time: 176437</t>
   </si>
   <si>
+    <t>{0: [[(2, 1), (6, 8), (11, 6), (4, 1)], [(9, 1), (10, 1), (8, 3), (1, 10), (3, 8)], [(7, 2), (12, 11), (5, 5)]], 1: []}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11 metre (capacity 30):
+5 (5) -&gt; 12 (11) -&gt; 7 (2)
+3 (8) -&gt; 1 (10) -&gt; 8 (3) -&gt; 10 (1) -&gt; 9 (1)
+2 (1) -&gt; 6 (8) -&gt; 11 (6) -&gt; 4 (1)
+</t>
+  </si>
+  <si>
     <t>Input:
 Customer 1 has 9 pallets demand and window 0-24 at (-41.465726331, 1.091471707) and average unload time 0.086859822
 Customer 2 has 7 pallets demand and window 0-24 at (-17.356206415, 19.906737897) and average unload time 0.064942136
@@ -1657,6 +2091,17 @@
 Vehicle SP5 travels from 12 to 6 to deliver 1 pallets. Expected unload start time is 12.239680951
 Objective value: 835.715151055
 Solve time: 75019</t>
+  </si>
+  <si>
+    <t>{0: [], 1: [[(3, 5), (5, 4), (4, 7), (7, 5)]], 2: [[(2, 7), (1, 9), (9, 3), (11, 9)], [(10, 7), (8, 10), (12, 9), (6, 1)]]}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11 metre (capacity 30):
+11 (9) -&gt; 9 (3) -&gt; 1 (9) -&gt; 2 (7)
+10 (7) -&gt; 8 (10) -&gt; 12 (9) -&gt; 6 (1)
+8 metre (capacity 22):
+3 (5) -&gt; 5 (4) -&gt; 4 (7) -&gt; 7 (5)
+</t>
   </si>
   <si>
     <t>Input:
@@ -1699,6 +2144,17 @@
 Solve time: 40203</t>
   </si>
   <si>
+    <t>{0: [[(1, 5), (2, 6), (8, 4), (3, 6)], [(7, 2)], [(10, 3), (9, 4)]], 1: [[(10, 3), (5, 10), (12, 7), (11, 2), (6, 6), (4, 2)]], 2: []}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11 metre (capacity 30):
+1 (5) -&gt; 6 (6) -&gt; 11 (2) -&gt; 12 (7) -&gt; 5 (10)
+8 metre (capacity 22):
+4 (2) -&gt; 3 (6) -&gt; 8 (4) -&gt; 2 (6) -&gt; 7 (2)
+10 (6) -&gt; 9 (4)
+</t>
+  </si>
+  <si>
     <t>Input:
 Customer 1 has 2 pallets demand and window 23-24 at (-51.428372932, -11.553882867) and average unload time 0.047898656
 Customer 2 has 9 pallets demand and window 0-24 at (47.55052979, -19.215770402) and average unload time 0.157660311
@@ -1734,6 +2190,17 @@
 Vehicle SP4 travels from 12 to 3 to deliver 2 pallets. Expected unload start time is 5.524910415
 Objective value: 597.194187645
 Solve time: 13732</t>
+  </si>
+  <si>
+    <t>{0: [[(9, 1), (7, 7), (4, 8), (6, 1), (11, 5), (8, 3), (1, 2)], [(2, 9), (12, 8), (3, 2), (10, 2), (5, 9)]], 1: [], 2: []}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rigid (capacity 16):
+8 metre (capacity 22):
+11 metre (capacity 30):
+9 (1) -&gt; 7 (7) -&gt; 4 (8) -&gt; 6 (1) -&gt; 11 (5) -&gt; 8 (3) -&gt; 1 (2)
+2 (9) -&gt; 12 (8) -&gt; 3 (2) -&gt; 10 (2) -&gt; 5 (9)
+</t>
   </si>
   <si>
     <t>Input:
@@ -1772,6 +2239,17 @@
 Vehicle SP4 travels from 12 to DepotReturn to deliver 0 pallets. Expected unload start time is 25.255179469
 Objective value: 663.316536328
 Solve time: 17221</t>
+  </si>
+  <si>
+    <t>{0: [[(5, 6), (11, 3), (4, 2), (9, 7), (8, 10)], [(2, 8), (3, 8), (6, 4)]], 1: [], 2: [[(10, 6), (7, 2), (1, 9), (12, 3)]]}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 metre (capacity 22):
+6 (4) -&gt; 3 (8) -&gt; 2 (8)
+11 metre (capacity 30):
+5 (6) -&gt; 11 (3) -&gt; 4 (2) -&gt; 9 (7) -&gt; 8 (10)
+10 (6) -&gt; 7 (2) -&gt; 1 (9) -&gt; 12 (3)
+</t>
   </si>
   <si>
     <t>Input:
@@ -1813,6 +2291,19 @@
 Solve time: 26318</t>
   </si>
   <si>
+    <t>{0: [[(3, 8), (10, 8), (6, 1), (2, 5)]], 1: [[(11, 10)]], 2: [[(4, 5), (9, 8), (12, 10)], [(8, 6), (7, 9), (1, 7), (5, 8)]]}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rigid (capacity 16):
+11 (10)
+11 metre (capacity 30):
+5 (8) -&gt; 1 (7) -&gt; 7 (9) -&gt; 8 (6)
+4 (5) -&gt; 9 (8) -&gt; 12 (10)
+8 metre (capacity 22):
+3 (8) -&gt; 10 (8) -&gt; 6 (1) -&gt; 2 (5)
+</t>
+  </si>
+  <si>
     <t>Input:
 Customer 1 has 9 pallets demand and window 0-24 at (-36.4603162, 86.224088672) and average unload time 0.134912375
 Customer 2 has 6 pallets demand and window 0-24 at (-96.619193336, -88.002849108) and average unload time 0.147846307
@@ -1848,6 +2339,16 @@
 Vehicle SP4 travels from 12 to 11 to deliver 3 pallets. Expected unload start time is 7.869715692
 Objective value: 958.651706322
 Solve time: 64992</t>
+  </si>
+  <si>
+    <t>{0: [[(4, 1), (1, 9), (6, 4), (9, 1), (3, 2)]], 1: [[(8, 1), (10, 9), (2, 6), (12, 2), (11, 3), (7, 2), (5, 4)]], 2: []}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11 metre (capacity 30):
+8 (1) -&gt; 2 (6) -&gt; 3 (2) -&gt; 9 (1) -&gt; 6 (4) -&gt; 1 (9) -&gt; 4 (1)
+8 metre (capacity 22):
+5 (4) -&gt; 7 (2) -&gt; 11 (3) -&gt; 12 (2) -&gt; 10 (9)
+</t>
   </si>
   <si>
     <t>Input:
@@ -1887,6 +2388,19 @@
 Vehicle SP5 travels from 9 to DepotReturn to deliver 0 pallets. Expected unload start time is 10.713855308
 Objective value: 1054.082647881
 Solve time: 327067</t>
+  </si>
+  <si>
+    <t>{0: [[(8, 9), (12, 9), (10, 9), (5, 3)]], 1: [[(4, 10), (1, 8), (2, 4)], [(3, 8), (9, 8)]], 2: [[(6, 2), (11, 9), (7, 4)]]}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rigid (capacity 16):
+7 (4) -&gt; 11 (9) -&gt; 6 (2)
+11 metre (capacity 30):
+5 (3) -&gt; 10 (9) -&gt; 12 (9) -&gt; 8 (9)
+8 metre (capacity 22):
+4 (10) -&gt; 1 (8) -&gt; 2 (4)
+9 (8) -&gt; 3 (8)
+</t>
   </si>
   <si>
     <t>Input:
@@ -1931,6 +2445,18 @@
 Vehicle SP5 travels from 15 to 11 to deliver 1 pallets. Expected unload start time is 22.475678314
 Objective value: 810.905975236
 Solve time: 178811</t>
+  </si>
+  <si>
+    <t>{0: [[(1, 3), (5, 2), (2, 5), (8, 5)]], 1: [[(6, 8), (7, 2), (13, 4), (12, 3)]], 2: [[(10, 5), (9, 5), (3, 3), (15, 6), (11, 1), (4, 7), (14, 3)]]}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11 metre (capacity 30):
+10 (5) -&gt; 9 (5) -&gt; 3 (3) -&gt; 15 (6) -&gt; 11 (1) -&gt; 4 (7) -&gt; 14 (3)
+Rigid (capacity 16):
+8 (5) -&gt; 2 (5) -&gt; 5 (2) -&gt; 1 (3)
+8 metre (capacity 22):
+6 (8) -&gt; 7 (2) -&gt; 13 (4) -&gt; 12 (3)
+</t>
   </si>
   <si>
     <t>Input:
@@ -1978,6 +2504,19 @@
 Solve time: 181385</t>
   </si>
   <si>
+    <t>{0: [[(12, 2), (1, 6), (4, 3), (11, 3), (10, 5), (2, 2)], [(7, 8), (6, 3), (14, 6), (13, 1), (5, 2)]], 1: [[(3, 7), (15, 5), (8, 4)]], 2: [[(9, 4)]]}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 metre (capacity 22):
+13 (1) -&gt; 14 (6) -&gt; 6 (3) -&gt; 8 (4) -&gt; 7 (8)
+9 (4) -&gt; 1 (6) -&gt; 4 (3) -&gt; 11 (3) -&gt; 10 (5)
+Rigid (capacity 16):
+2 (2) -&gt; 3 (7) -&gt; 15 (5)
+11 metre (capacity 30):
+12 (2) -&gt; 5 (2)
+</t>
+  </si>
+  <si>
     <t>Input:
 Customer 1 has 4 pallets demand and window 0-24 at (-18.420588435, 1.956733413) and average unload time 0.019041122
 Customer 2 has 1 pallets demand and window 0-24 at (54.455425874, 89.224318758) and average unload time 0.071461774
@@ -2019,6 +2558,15 @@
 Vehicle SP4 travels from 15 to 13 to deliver 2 pallets. Expected unload start time is 20.946620699
 Objective value: 816.442220013
 Solve time: 13830</t>
+  </si>
+  <si>
+    <t>{0: [], 1: [[(12, 6), (2, 1), (6, 3), (8, 3), (3, 2), (1, 4)], [(7, 2), (4, 2), (14, 1), (15, 2), (13, 2), (5, 1), (11, 7), (10, 2), (9, 1)]]}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 metre (capacity 22):
+12 (6) -&gt; 2 (1) -&gt; 6 (3) -&gt; 3 (2) -&gt; 8 (3) -&gt; 1 (4)
+9 (1) -&gt; 10 (2) -&gt; 11 (7) -&gt; 5 (1) -&gt; 13 (2) -&gt; 15 (2) -&gt; 14 (1) -&gt; 4 (2) -&gt; 7 (2)
+</t>
   </si>
   <si>
     <t>Input:
@@ -2066,6 +2614,18 @@
 Solve time: 1908806</t>
   </si>
   <si>
+    <t>{0: [[(6, 8), (1, 5), (2, 5), (4, 6)], [(11, 9), (3, 8)], [(13, 8), (5, 7), (15, 1), (8, 1), (12, 8), (14, 4)]], 1: [[(9, 8), (10, 6), (7, 7)]], 2: []}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 metre (capacity 22):
+4 (6) -&gt; 1 (5)
+11 metre (capacity 30):
+5 (7) -&gt; 11 (9) -&gt; 3 (8)
+13 (8) -&gt; 14 (4) -&gt; 15 (1) -&gt; 8 (1) -&gt; 12 (8) -&gt; 7 (7)
+2 (5) -&gt; 10 (6) -&gt; 9 (8) -&gt; 6 (8)
+</t>
+  </si>
+  <si>
     <t>Input:
 Customer 1 has 3 pallets demand and window 0-24 at (-47.49489985, 6.706850446) and average unload time 0.076132654
 Customer 2 has 1 pallets demand and window 19-20 at (-68.405715588, -30.841255547) and average unload time 0.035494192
@@ -2110,6 +2670,17 @@
 Solve time: 382633</t>
   </si>
   <si>
+    <t>{0: [[(10, 5), (12, 1), (9, 6), (15, 4)], [(3, 1), (8, 5), (4, 1), (14, 9)]], 1: [[(1, 3), (7, 3), (2, 1), (11, 3), (6, 7), (5, 1), (13, 3)]]}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rigid (capacity 16):
+10 (5) -&gt; 12 (1) -&gt; 9 (6) -&gt; 15 (4)
+2 (1) -&gt; 11 (3) -&gt; 6 (7) -&gt; 5 (1) -&gt; 13 (3)
+11 metre (capacity 30):
+1 (3) -&gt; 7 (3) -&gt; 4 (1) -&gt; 14 (9) -&gt; 8 (5) -&gt; 3 (1)
+</t>
+  </si>
+  <si>
     <t>Input:
 Customer 1 has 7 pallets demand and window 0-24 at (6.811752096, 11.842209262) and average unload time 0.086289929
 Customer 2 has 5 pallets demand and window 16-17 at (-37.502668453, 13.289004958) and average unload time 0.046515297
@@ -2154,6 +2725,17 @@
 Solve time: 715637</t>
   </si>
   <si>
+    <t>{0: [[(3, 6), (14, 2), (12, 7), (4, 5), (11, 3), (1, 7)]], 1: [], 2: [[(5, 6), (9, 2), (15, 4), (7, 2), (6, 2)], [(13, 5), (10, 2), (2, 5), (8, 3)]]}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rigid (capacity 16):
+5 (6) -&gt; 9 (2) -&gt; 15 (4) -&gt; 7 (2) -&gt; 6 (2)
+3 (6) -&gt; 14 (2) -&gt; 10 (2) -&gt; 13 (5)
+11 metre (capacity 30):
+8 (3) -&gt; 1 (7) -&gt; 11 (3) -&gt; 2 (5) -&gt; 4 (5) -&gt; 12 (7)
+</t>
+  </si>
+  <si>
     <t>Input:
 Customer 1 has 3 pallets demand and window 0-24 at (43.819632519, 96.540563072) and average unload time 0.030967713
 Customer 2 has 6 pallets demand and window 0-24 at (33.639335364, 12.125825756) and average unload time 0.069759681
@@ -2196,6 +2778,17 @@
 Vehicle SP5 travels from 11 to 7 to deliver 6 pallets. Expected unload start time is 22
 Objective value: 1042.983796971
 Solve time: 48352</t>
+  </si>
+  <si>
+    <t>{0: [[(14, 3), (8, 3), (2, 6)], [(5, 2), (4, 3), (10, 4), (3, 1), (11, 4), (7, 6)]], 1: [], 2: [[(13, 8), (9, 8), (12, 1), (15, 3), (1, 3), (6, 4)]]}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 metre (capacity 22):
+2 (6) -&gt; 8 (3) -&gt; 11 (4) -&gt; 14 (3)
+5 (2) -&gt; 4 (3) -&gt; 10 (4) -&gt; 3 (1) -&gt; 7 (6)
+11 metre (capacity 30):
+13 (8) -&gt; 9 (8) -&gt; 12 (1) -&gt; 15 (3) -&gt; 1 (3) -&gt; 6 (4)
+</t>
   </si>
   <si>
     <t>Input:
@@ -2252,6 +2845,18 @@
 Solve time: 1251752</t>
   </si>
   <si>
+    <t>{0: [[(7, 5), (6, 0)], [(7, 1), (6, 0)]], 1: [[(9, 7), (8, 2), (11, 3), (14, 2), (7, 0), (6, 0), (10, 1), (5, 5)], [(3, 2), (4, 7), (13, 1), (12, 4), (1, 3), (7, 0), (6, 1), (2, 3)]], 2: [[(15, 6), (7, 0), (6, 0)]]}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11 metre (capacity 30):
+Rigid (capacity 16):
+9 (7) -&gt; 5 (5)
+8 metre (capacity 22):
+3 (2) -&gt; 13 (1) -&gt; 4 (7) -&gt; 10 (1) -&gt; 6 (1) -&gt; 2 (3) -&gt; 15 (6)
+8 (2) -&gt; 14 (2) -&gt; 7 (6) -&gt; 11 (3) -&gt; 1 (3) -&gt; 12 (4)
+</t>
+  </si>
+  <si>
     <t>Input:
 Customer 1 has 3 pallets demand and window 0-24 at (-56.895399211, 29.052689043) and average unload time 0.143475865
 Customer 2 has 6 pallets demand and window 0-24 at (-38.554318701, -99.205204961) and average unload time 0.097478595
@@ -2297,7 +2902,15 @@
 Solve time: 831002</t>
   </si>
   <si>
-    <t>Math Routes</t>
+    <t>{0: [[(13, 9), (9, 5), (14, 7)]], 1: [[(2, 6), (10, 5), (4, 6), (5, 2), (11, 8), (6, 3)], [(12, 6), (1, 3), (6, 1), (3, 5), (7, 8), (15, 6), (8, 1)]]}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 metre (capacity 22):
+14 (7) -&gt; 9 (5) -&gt; 13 (9)
+11 metre (capacity 30):
+8 (1) -&gt; 15 (6) -&gt; 7 (8) -&gt; 3 (5) -&gt; 2 (6) -&gt; 6 (4)
+12 (6) -&gt; 1 (3) -&gt; 11 (8) -&gt; 5 (2) -&gt; 4 (6) -&gt; 10 (5)
+</t>
   </si>
   <si>
     <t>Input:
@@ -2345,6 +2958,19 @@
 Vehicle SP4 travels from 15 to DepotReturn to deliver 0 pallets. Expected unload start time is 11.473228587
 Objective value: 1036.060760446
 Solve time: 27788201</t>
+  </si>
+  <si>
+    <t>{0: [[(15, 5), (10, 5), (9, 2), (8, 4)], [(13, 2), (2, 6), (5, 8)]], 1: [[(4, 4), (1, 5), (7, 6), (3, 6)]], 2: [[(13, 4), (11, 4), (14, 7), (6, 6), (12, 8), (15, 1)]]}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11 metre (capacity 30):
+10 (5) -&gt; 12 (8) -&gt; 6 (6) -&gt; 14 (7) -&gt; 11 (4)
+3 (6) -&gt; 7 (6) -&gt; 1 (5) -&gt; 4 (4) -&gt; 2 (6)
+8 metre (capacity 22):
+Rigid (capacity 16):
+5 (8) -&gt; 8 (4) -&gt; 9 (2)
+15 (6) -&gt; 13 (6)
+</t>
   </si>
 </sst>
 </file>
@@ -2394,7 +3020,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -2402,11 +3028,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -2520,7 +3146,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0FD1-40CB-9EAD-A6AB7805499F}"/>
+              <c16:uniqueId val="{00000000-9338-4886-9421-C7416FC28C74}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2593,7 +3219,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-0FD1-40CB-9EAD-A6AB7805499F}"/>
+              <c16:uniqueId val="{00000001-9338-4886-9421-C7416FC28C74}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3188,11 +3814,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3460,28 +4086,28 @@
   <dimension ref="A1:N209"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="H25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K5" sqref="K5"/>
+      <selection pane="bottomRight" activeCell="M45" sqref="M45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10" style="4" customWidth="1"/>
-    <col min="3" max="3" width="5.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="150.7109375" style="3" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="12.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="100.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" style="3" customWidth="1"/>
+    <col min="3" max="3" width="5.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="150.7109375" style="5" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="5" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="100.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.28515625" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -3507,22 +4133,22 @@
         <v>11</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3547,24 +4173,27 @@
         <v>641</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H2" s="7"/>
+      <c r="I2" t="s">
+        <v>19</v>
+      </c>
       <c r="J2">
-        <v>681.47077530873207</v>
+        <v>681.64705556381671</v>
       </c>
       <c r="K2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="L2">
-        <v>214.0572899</v>
+        <v>262.46966379999998</v>
       </c>
       <c r="M2">
         <v>737.89099450163053</v>
       </c>
-      <c r="N2" s="5">
-        <f>(M2-J2)/J2</f>
-        <v>8.2791839704847159E-2</v>
+      <c r="N2" s="4">
+        <f t="shared" ref="N2:N33" si="2">(M2-J2)/J2</f>
+        <v>8.2511819685470916E-2</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3589,9 +4218,28 @@
         <v>903</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H3" s="7"/>
+      <c r="I3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3">
+        <v>662.80451167813396</v>
+      </c>
+      <c r="K3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3">
+        <v>278.01979510000001</v>
+      </c>
+      <c r="M3">
+        <v>662.80451167813396</v>
+      </c>
+      <c r="N3" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -3615,9 +4263,28 @@
         <v>630</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H4" s="7"/>
+      <c r="I4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4">
+        <v>1121.506775041001</v>
+      </c>
+      <c r="K4" t="s">
+        <v>26</v>
+      </c>
+      <c r="L4">
+        <v>278.10329050000013</v>
+      </c>
+      <c r="M4">
+        <v>1017.840597157414</v>
+      </c>
+      <c r="N4" s="4">
+        <f t="shared" si="2"/>
+        <v>-9.2434731729371042E-2</v>
+      </c>
     </row>
     <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -3641,9 +4308,28 @@
         <v>1531</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="H5" s="7"/>
+      <c r="I5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5">
+        <v>648.77828901133626</v>
+      </c>
+      <c r="K5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L5">
+        <v>277.54593849999998</v>
+      </c>
+      <c r="M5">
+        <v>648.77828901133626</v>
+      </c>
+      <c r="N5" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -3667,9 +4353,28 @@
         <v>2543</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7"/>
+      <c r="I6" t="s">
+        <v>31</v>
+      </c>
+      <c r="J6">
+        <v>1096.3601690856599</v>
+      </c>
+      <c r="K6" t="s">
+        <v>32</v>
+      </c>
+      <c r="L6">
+        <v>260.34920179999989</v>
+      </c>
+      <c r="M6">
+        <v>1077.6947002346831</v>
+      </c>
+      <c r="N6" s="4">
+        <f t="shared" si="2"/>
+        <v>-1.7024942511860323E-2</v>
+      </c>
     </row>
     <row r="7" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -3693,9 +4398,28 @@
         <v>3773</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="H7" s="7"/>
+      <c r="I7" t="s">
+        <v>34</v>
+      </c>
+      <c r="J7">
+        <v>520.34549815358832</v>
+      </c>
+      <c r="K7" t="s">
+        <v>35</v>
+      </c>
+      <c r="L7">
+        <v>317.7635937</v>
+      </c>
+      <c r="M7">
+        <v>520.34549815358832</v>
+      </c>
+      <c r="N7" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -3719,9 +4443,28 @@
         <v>3816</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="H8" s="7"/>
+      <c r="I8" t="s">
+        <v>37</v>
+      </c>
+      <c r="J8">
+        <v>996.8146493389404</v>
+      </c>
+      <c r="K8" t="s">
+        <v>38</v>
+      </c>
+      <c r="L8">
+        <v>270.72479270000002</v>
+      </c>
+      <c r="M8">
+        <v>996.81464933894028</v>
+      </c>
+      <c r="N8" s="4">
+        <f t="shared" si="2"/>
+        <v>-1.1405012737022871E-16</v>
+      </c>
     </row>
     <row r="9" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -3745,9 +4488,28 @@
         <v>2016</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="H9" s="7"/>
+      <c r="I9" t="s">
+        <v>40</v>
+      </c>
+      <c r="J9">
+        <v>849.7955585238285</v>
+      </c>
+      <c r="K9" t="s">
+        <v>41</v>
+      </c>
+      <c r="L9">
+        <v>304.02424980000001</v>
+      </c>
+      <c r="M9">
+        <v>775.21553639218246</v>
+      </c>
+      <c r="N9" s="4">
+        <f t="shared" si="2"/>
+        <v>-8.7762311044786198E-2</v>
+      </c>
     </row>
     <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -3771,9 +4533,28 @@
         <v>1630</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="H10" s="7"/>
+      <c r="I10" t="s">
+        <v>43</v>
+      </c>
+      <c r="J10">
+        <v>732.72108410107626</v>
+      </c>
+      <c r="K10" t="s">
+        <v>44</v>
+      </c>
+      <c r="L10">
+        <v>294.104108</v>
+      </c>
+      <c r="M10">
+        <v>732.72108410107626</v>
+      </c>
+      <c r="N10" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -3797,9 +4578,28 @@
         <v>976</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="H11" s="7"/>
+      <c r="I11" t="s">
+        <v>46</v>
+      </c>
+      <c r="J11">
+        <v>675.31814202394798</v>
+      </c>
+      <c r="K11" t="s">
+        <v>47</v>
+      </c>
+      <c r="L11">
+        <v>268.09872009999998</v>
+      </c>
+      <c r="M11">
+        <v>695.40386535206767</v>
+      </c>
+      <c r="N11" s="4">
+        <f t="shared" si="2"/>
+        <v>2.9742608821261916E-2</v>
+      </c>
     </row>
     <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -3823,9 +4623,28 @@
         <v>2359</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="H12" s="7"/>
+      <c r="I12" t="s">
+        <v>49</v>
+      </c>
+      <c r="J12">
+        <v>913.45865950850782</v>
+      </c>
+      <c r="K12" t="s">
+        <v>50</v>
+      </c>
+      <c r="L12">
+        <v>464.70780339999988</v>
+      </c>
+      <c r="M12">
+        <v>914.85828521333269</v>
+      </c>
+      <c r="N12" s="4">
+        <f t="shared" si="2"/>
+        <v>1.5322266533418691E-3</v>
+      </c>
     </row>
     <row r="13" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -3849,9 +4668,28 @@
         <v>8640</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="H13" s="7"/>
+      <c r="I13" t="s">
+        <v>52</v>
+      </c>
+      <c r="J13">
+        <v>723.75913134411178</v>
+      </c>
+      <c r="K13" t="s">
+        <v>53</v>
+      </c>
+      <c r="L13">
+        <v>406.5890359</v>
+      </c>
+      <c r="M13">
+        <v>723.75913134411178</v>
+      </c>
+      <c r="N13" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -3875,9 +4713,28 @@
         <v>1565</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="H14" s="7"/>
+      <c r="I14" t="s">
+        <v>55</v>
+      </c>
+      <c r="J14">
+        <v>869.73014524941982</v>
+      </c>
+      <c r="K14" t="s">
+        <v>56</v>
+      </c>
+      <c r="L14">
+        <v>419.66426040000027</v>
+      </c>
+      <c r="M14">
+        <v>869.73014524941982</v>
+      </c>
+      <c r="N14" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -3901,9 +4758,28 @@
         <v>5289</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="H15" s="7"/>
+      <c r="I15" t="s">
+        <v>58</v>
+      </c>
+      <c r="J15">
+        <v>894.78810796327741</v>
+      </c>
+      <c r="K15" t="s">
+        <v>59</v>
+      </c>
+      <c r="L15">
+        <v>422.64755399999967</v>
+      </c>
+      <c r="M15">
+        <v>894.78810796327741</v>
+      </c>
+      <c r="N15" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16">
@@ -3927,11 +4803,30 @@
         <v>7905</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="H16" s="7"/>
-    </row>
-    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I16" t="s">
+        <v>61</v>
+      </c>
+      <c r="J16">
+        <v>1027.364256635447</v>
+      </c>
+      <c r="K16" t="s">
+        <v>62</v>
+      </c>
+      <c r="L16">
+        <v>442.34885850000001</v>
+      </c>
+      <c r="M16">
+        <v>1018.647370722324</v>
+      </c>
+      <c r="N16" s="4">
+        <f t="shared" si="2"/>
+        <v>-8.484708180981692E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>12</v>
       </c>
@@ -3953,11 +4848,30 @@
         <v>2023</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="H17" s="7"/>
-    </row>
-    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I17" t="s">
+        <v>64</v>
+      </c>
+      <c r="J17">
+        <v>999.21410672612376</v>
+      </c>
+      <c r="K17" t="s">
+        <v>65</v>
+      </c>
+      <c r="L17">
+        <v>426.36255859999977</v>
+      </c>
+      <c r="M17">
+        <v>900.14586449837202</v>
+      </c>
+      <c r="N17" s="4">
+        <f t="shared" si="2"/>
+        <v>-9.914616052844169E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>12</v>
       </c>
@@ -3979,11 +4893,30 @@
         <v>3644</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="H18" s="7"/>
-    </row>
-    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I18" t="s">
+        <v>67</v>
+      </c>
+      <c r="J18">
+        <v>782.003935883964</v>
+      </c>
+      <c r="K18" t="s">
+        <v>68</v>
+      </c>
+      <c r="L18">
+        <v>370.22184800000008</v>
+      </c>
+      <c r="M18">
+        <v>782.003935883964</v>
+      </c>
+      <c r="N18" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>12</v>
       </c>
@@ -4005,11 +4938,30 @@
         <v>11599</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="H19" s="7"/>
-    </row>
-    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I19" t="s">
+        <v>70</v>
+      </c>
+      <c r="J19">
+        <v>1219.039143534927</v>
+      </c>
+      <c r="K19" t="s">
+        <v>71</v>
+      </c>
+      <c r="L19">
+        <v>438.19959239999929</v>
+      </c>
+      <c r="M19">
+        <v>1219.039143534927</v>
+      </c>
+      <c r="N19" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>12</v>
       </c>
@@ -4031,11 +4983,30 @@
         <v>66931</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="H20" s="7"/>
-    </row>
-    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I20" t="s">
+        <v>73</v>
+      </c>
+      <c r="J20">
+        <v>1095.786848590677</v>
+      </c>
+      <c r="K20" t="s">
+        <v>74</v>
+      </c>
+      <c r="L20">
+        <v>395.94870300000002</v>
+      </c>
+      <c r="M20">
+        <v>1095.786848590677</v>
+      </c>
+      <c r="N20" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>12</v>
       </c>
@@ -4057,11 +5028,30 @@
         <v>32942</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="H21" s="7"/>
-    </row>
-    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I21" t="s">
+        <v>76</v>
+      </c>
+      <c r="J21">
+        <v>1783.3204562016881</v>
+      </c>
+      <c r="K21" t="s">
+        <v>77</v>
+      </c>
+      <c r="L21">
+        <v>409.07242740000038</v>
+      </c>
+      <c r="M21">
+        <v>1037.0643622155451</v>
+      </c>
+      <c r="N21" s="4">
+        <f t="shared" si="2"/>
+        <v>-0.41846438277033016</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>15</v>
       </c>
@@ -4083,11 +5073,30 @@
         <v>202664</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="H22" s="7"/>
-    </row>
-    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I22" t="s">
+        <v>79</v>
+      </c>
+      <c r="J22">
+        <v>1281.2391705977</v>
+      </c>
+      <c r="K22" t="s">
+        <v>80</v>
+      </c>
+      <c r="L22">
+        <v>672.47080480000022</v>
+      </c>
+      <c r="M22">
+        <v>1281.2391705977</v>
+      </c>
+      <c r="N22" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>15</v>
       </c>
@@ -4109,11 +5118,30 @@
         <v>35184</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="H23" s="7"/>
-    </row>
-    <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I23" t="s">
+        <v>82</v>
+      </c>
+      <c r="J23">
+        <v>977.46652415438575</v>
+      </c>
+      <c r="K23" t="s">
+        <v>83</v>
+      </c>
+      <c r="L23">
+        <v>699.79639490000045</v>
+      </c>
+      <c r="M23">
+        <v>977.46652415438575</v>
+      </c>
+      <c r="N23" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>15</v>
       </c>
@@ -4135,11 +5163,30 @@
         <v>380729</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="H24" s="7"/>
-    </row>
-    <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I24" t="s">
+        <v>85</v>
+      </c>
+      <c r="J24">
+        <v>916.32674868129936</v>
+      </c>
+      <c r="K24" t="s">
+        <v>86</v>
+      </c>
+      <c r="L24">
+        <v>701.53700339999978</v>
+      </c>
+      <c r="M24">
+        <v>916.32674868129936</v>
+      </c>
+      <c r="N24" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>15</v>
       </c>
@@ -4161,11 +5208,30 @@
         <v>520620</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>41</v>
+        <v>87</v>
       </c>
       <c r="H25" s="7"/>
-    </row>
-    <row r="26" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I25" t="s">
+        <v>88</v>
+      </c>
+      <c r="J25">
+        <v>1139.100511867154</v>
+      </c>
+      <c r="K25" t="s">
+        <v>89</v>
+      </c>
+      <c r="L25">
+        <v>583.48621159999948</v>
+      </c>
+      <c r="M25">
+        <v>1139.100511867154</v>
+      </c>
+      <c r="N25" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>15</v>
       </c>
@@ -4187,11 +5253,30 @@
         <v>79067</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="H26" s="7"/>
-    </row>
-    <row r="27" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I26" t="s">
+        <v>91</v>
+      </c>
+      <c r="J26">
+        <v>1026.542152900709</v>
+      </c>
+      <c r="K26" t="s">
+        <v>92</v>
+      </c>
+      <c r="L26">
+        <v>892.96981309999865</v>
+      </c>
+      <c r="M26">
+        <v>1026.542152900709</v>
+      </c>
+      <c r="N26" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>15</v>
       </c>
@@ -4213,11 +5298,30 @@
         <v>15668</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>43</v>
+        <v>93</v>
       </c>
       <c r="H27" s="7"/>
-    </row>
-    <row r="28" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I27" t="s">
+        <v>94</v>
+      </c>
+      <c r="J27">
+        <v>1204.045683633422</v>
+      </c>
+      <c r="K27" t="s">
+        <v>95</v>
+      </c>
+      <c r="L27">
+        <v>630.24923900000067</v>
+      </c>
+      <c r="M27">
+        <v>1204.045683633422</v>
+      </c>
+      <c r="N27" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>15</v>
       </c>
@@ -4239,11 +5343,30 @@
         <v>72924</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>44</v>
+        <v>96</v>
       </c>
       <c r="H28" s="7"/>
-    </row>
-    <row r="29" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I28" t="s">
+        <v>97</v>
+      </c>
+      <c r="J28">
+        <v>1102.417321416543</v>
+      </c>
+      <c r="K28" t="s">
+        <v>98</v>
+      </c>
+      <c r="L28">
+        <v>1224.071597600001</v>
+      </c>
+      <c r="M28">
+        <v>1175.4004660916421</v>
+      </c>
+      <c r="N28" s="4">
+        <f t="shared" si="2"/>
+        <v>6.6202828327588253E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>15</v>
       </c>
@@ -4265,11 +5388,30 @@
         <v>7998</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="H29" s="7"/>
-    </row>
-    <row r="30" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I29" t="s">
+        <v>100</v>
+      </c>
+      <c r="J29">
+        <v>1053.1063034427791</v>
+      </c>
+      <c r="K29" t="s">
+        <v>101</v>
+      </c>
+      <c r="L29">
+        <v>544.41398100000151</v>
+      </c>
+      <c r="M29">
+        <v>841.42993112169711</v>
+      </c>
+      <c r="N29" s="4">
+        <f t="shared" si="2"/>
+        <v>-0.20100190420385564</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>15</v>
       </c>
@@ -4291,11 +5433,30 @@
         <v>18387</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>46</v>
+        <v>102</v>
       </c>
       <c r="H30" s="7"/>
-    </row>
-    <row r="31" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I30" t="s">
+        <v>103</v>
+      </c>
+      <c r="J30">
+        <v>1286.4102607775251</v>
+      </c>
+      <c r="K30" t="s">
+        <v>104</v>
+      </c>
+      <c r="L30">
+        <v>868.00867970000036</v>
+      </c>
+      <c r="M30">
+        <v>1323.487054912182</v>
+      </c>
+      <c r="N30" s="4">
+        <f t="shared" si="2"/>
+        <v>2.8821904850360212E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>15</v>
       </c>
@@ -4317,11 +5478,30 @@
         <v>81641</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>47</v>
+        <v>105</v>
       </c>
       <c r="H31" s="7"/>
-    </row>
-    <row r="32" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I31" t="s">
+        <v>106</v>
+      </c>
+      <c r="J31">
+        <v>856.80458072890463</v>
+      </c>
+      <c r="K31" t="s">
+        <v>107</v>
+      </c>
+      <c r="L31">
+        <v>463.10816349999908</v>
+      </c>
+      <c r="M31">
+        <v>856.80458072890463</v>
+      </c>
+      <c r="N31" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>9</v>
       </c>
@@ -4343,11 +5523,30 @@
         <v>13318</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>48</v>
+        <v>108</v>
       </c>
       <c r="H32" s="7"/>
-    </row>
-    <row r="33" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I32" t="s">
+        <v>109</v>
+      </c>
+      <c r="J32">
+        <v>724.48723782131583</v>
+      </c>
+      <c r="K32" t="s">
+        <v>110</v>
+      </c>
+      <c r="L32">
+        <v>317.03553440000002</v>
+      </c>
+      <c r="M32">
+        <v>753.23582552852463</v>
+      </c>
+      <c r="N32" s="4">
+        <f t="shared" si="2"/>
+        <v>3.9681289340115632E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>9</v>
       </c>
@@ -4369,11 +5568,27 @@
         <v>1909</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>49</v>
+        <v>111</v>
       </c>
       <c r="H33" s="7"/>
-    </row>
-    <row r="34" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I33" t="s">
+        <v>112</v>
+      </c>
+      <c r="J33">
+        <v>1024.350870524725</v>
+      </c>
+      <c r="L33">
+        <v>297.15786459999981</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33" s="4">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>9</v>
       </c>
@@ -4384,22 +5599,41 @@
         <v>3</v>
       </c>
       <c r="D34">
-        <f t="shared" ref="D34:D61" si="2">E34/60</f>
+        <f t="shared" ref="D34:D65" si="3">E34/60</f>
         <v>0.43746666666666667</v>
       </c>
       <c r="E34">
-        <f t="shared" ref="E34:E61" si="3">F34/1000</f>
+        <f t="shared" ref="E34:E65" si="4">F34/1000</f>
         <v>26.248000000000001</v>
       </c>
       <c r="F34">
         <v>26248</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>50</v>
+        <v>113</v>
       </c>
       <c r="H34" s="7"/>
-    </row>
-    <row r="35" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I34" t="s">
+        <v>114</v>
+      </c>
+      <c r="J34">
+        <v>866.88826321288798</v>
+      </c>
+      <c r="K34" t="s">
+        <v>115</v>
+      </c>
+      <c r="L34">
+        <v>420.53963870000013</v>
+      </c>
+      <c r="M34">
+        <v>883.13909655706368</v>
+      </c>
+      <c r="N34" s="4">
+        <f t="shared" ref="N34:N65" si="5">(M34-J34)/J34</f>
+        <v>1.8746168374625772E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>9</v>
       </c>
@@ -4410,22 +5644,41 @@
         <v>4</v>
       </c>
       <c r="D35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.7483333333333334E-2</v>
       </c>
       <c r="E35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.2490000000000001</v>
       </c>
       <c r="F35">
         <v>2249</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>51</v>
+        <v>116</v>
       </c>
       <c r="H35" s="7"/>
-    </row>
-    <row r="36" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I35" t="s">
+        <v>117</v>
+      </c>
+      <c r="J35">
+        <v>931.91447117107839</v>
+      </c>
+      <c r="K35" t="s">
+        <v>118</v>
+      </c>
+      <c r="L35">
+        <v>305.86990820000028</v>
+      </c>
+      <c r="M35">
+        <v>854.4762539967021</v>
+      </c>
+      <c r="N35" s="4">
+        <f t="shared" si="5"/>
+        <v>-8.3095841485393548E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>9</v>
       </c>
@@ -4436,22 +5689,41 @@
         <v>5</v>
       </c>
       <c r="D36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9.9099999999999994E-2</v>
       </c>
       <c r="E36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.9459999999999997</v>
       </c>
       <c r="F36">
         <v>5946</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>52</v>
+        <v>119</v>
       </c>
       <c r="H36" s="7"/>
-    </row>
-    <row r="37" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I36" t="s">
+        <v>120</v>
+      </c>
+      <c r="J36">
+        <v>2241.807068141215</v>
+      </c>
+      <c r="K36" t="s">
+        <v>121</v>
+      </c>
+      <c r="L36">
+        <v>316.42438950000002</v>
+      </c>
+      <c r="M36">
+        <v>1133.0187938159579</v>
+      </c>
+      <c r="N36" s="4">
+        <f t="shared" si="5"/>
+        <v>-0.49459576164357638</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>9</v>
       </c>
@@ -4462,22 +5734,41 @@
         <v>6</v>
       </c>
       <c r="D37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.17830000000000001</v>
       </c>
       <c r="E37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10.698</v>
       </c>
       <c r="F37">
         <v>10698</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>53</v>
+        <v>122</v>
       </c>
       <c r="H37" s="7"/>
-    </row>
-    <row r="38" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I37" t="s">
+        <v>123</v>
+      </c>
+      <c r="J37">
+        <v>1326.10584170281</v>
+      </c>
+      <c r="K37" t="s">
+        <v>124</v>
+      </c>
+      <c r="L37">
+        <v>388.58196549999963</v>
+      </c>
+      <c r="M37">
+        <v>1401.748026361061</v>
+      </c>
+      <c r="N37" s="4">
+        <f t="shared" si="5"/>
+        <v>5.7040835112468262E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>9</v>
       </c>
@@ -4488,22 +5779,38 @@
         <v>7</v>
       </c>
       <c r="D38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.11051666666666667</v>
       </c>
       <c r="E38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.6310000000000002</v>
       </c>
       <c r="F38">
         <v>6631</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>54</v>
+        <v>125</v>
       </c>
       <c r="H38" s="7"/>
-    </row>
-    <row r="39" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I38" t="s">
+        <v>126</v>
+      </c>
+      <c r="J38">
+        <v>622.21807644280557</v>
+      </c>
+      <c r="L38">
+        <v>399.54162879999973</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+      <c r="N38" s="4">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>9</v>
       </c>
@@ -4514,22 +5821,41 @@
         <v>8</v>
       </c>
       <c r="D39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.38350000000000001</v>
       </c>
       <c r="E39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>23.01</v>
       </c>
       <c r="F39">
         <v>23010</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>55</v>
+        <v>127</v>
       </c>
       <c r="H39" s="7"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I39" t="s">
+        <v>128</v>
+      </c>
+      <c r="J39">
+        <v>988.08515815373653</v>
+      </c>
+      <c r="K39" t="s">
+        <v>129</v>
+      </c>
+      <c r="L39">
+        <v>276.81299589999981</v>
+      </c>
+      <c r="M39">
+        <v>987.84311063723396</v>
+      </c>
+      <c r="N39" s="4">
+        <f t="shared" si="5"/>
+        <v>-2.4496625063657329E-4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>9</v>
       </c>
@@ -4540,22 +5866,41 @@
         <v>9</v>
       </c>
       <c r="D40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.20924999999999999</v>
       </c>
       <c r="E40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>12.555</v>
       </c>
       <c r="F40">
         <v>12555</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>56</v>
+        <v>130</v>
       </c>
       <c r="H40" s="7"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I40" t="s">
+        <v>131</v>
+      </c>
+      <c r="J40">
+        <v>1367.2770599111541</v>
+      </c>
+      <c r="K40" t="s">
+        <v>132</v>
+      </c>
+      <c r="L40">
+        <v>297.8125940000009</v>
+      </c>
+      <c r="M40">
+        <v>1175.4149018879809</v>
+      </c>
+      <c r="N40" s="4">
+        <f t="shared" si="5"/>
+        <v>-0.14032427197721023</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>9</v>
       </c>
@@ -4566,22 +5911,41 @@
         <v>10</v>
       </c>
       <c r="D41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.10779999999999999</v>
       </c>
       <c r="E41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.468</v>
       </c>
       <c r="F41">
         <v>6468</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>57</v>
+        <v>133</v>
       </c>
       <c r="H41" s="7"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I41" t="s">
+        <v>134</v>
+      </c>
+      <c r="J41">
+        <v>1198.896614545255</v>
+      </c>
+      <c r="K41" t="s">
+        <v>135</v>
+      </c>
+      <c r="L41">
+        <v>293.25066800000059</v>
+      </c>
+      <c r="M41">
+        <v>1171.163514436588</v>
+      </c>
+      <c r="N41" s="4">
+        <f t="shared" si="5"/>
+        <v>-2.3132186522343529E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>12</v>
       </c>
@@ -4592,22 +5956,41 @@
         <v>1</v>
       </c>
       <c r="D42">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.5835833333333333</v>
       </c>
       <c r="E42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>95.015000000000001</v>
       </c>
       <c r="F42">
         <v>95015</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>58</v>
+        <v>136</v>
       </c>
       <c r="H42" s="7"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I42" t="s">
+        <v>137</v>
+      </c>
+      <c r="J42">
+        <v>3155.4945885752991</v>
+      </c>
+      <c r="K42" t="s">
+        <v>138</v>
+      </c>
+      <c r="L42">
+        <v>418.98603239999829</v>
+      </c>
+      <c r="M42">
+        <v>1035.407331022036</v>
+      </c>
+      <c r="N42" s="4">
+        <f t="shared" si="5"/>
+        <v>-0.67187161886735458</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>12</v>
       </c>
@@ -4618,22 +6001,41 @@
         <v>2</v>
       </c>
       <c r="D43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.50076666666666669</v>
       </c>
       <c r="E43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>30.045999999999999</v>
       </c>
       <c r="F43">
         <v>30046</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>59</v>
+        <v>139</v>
       </c>
       <c r="H43" s="7"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I43" t="s">
+        <v>140</v>
+      </c>
+      <c r="J43">
+        <v>1013.155546866768</v>
+      </c>
+      <c r="K43" t="s">
+        <v>141</v>
+      </c>
+      <c r="L43">
+        <v>446.54841970000052</v>
+      </c>
+      <c r="M43">
+        <v>1105.841482055037</v>
+      </c>
+      <c r="N43" s="4">
+        <f t="shared" si="5"/>
+        <v>9.1482433743668198E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>12</v>
       </c>
@@ -4644,22 +6046,41 @@
         <v>3</v>
       </c>
       <c r="D44">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.9406166666666667</v>
       </c>
       <c r="E44">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>176.43700000000001</v>
       </c>
       <c r="F44">
         <v>176437</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>60</v>
+        <v>142</v>
       </c>
       <c r="H44" s="7"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I44" t="s">
+        <v>143</v>
+      </c>
+      <c r="J44">
+        <v>977.17357619100812</v>
+      </c>
+      <c r="K44" t="s">
+        <v>144</v>
+      </c>
+      <c r="L44">
+        <v>415.29174580000108</v>
+      </c>
+      <c r="M44">
+        <v>977.17357619100812</v>
+      </c>
+      <c r="N44" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>12</v>
       </c>
@@ -4670,22 +6091,41 @@
         <v>4</v>
       </c>
       <c r="D45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.2503166666666667</v>
       </c>
       <c r="E45">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>75.019000000000005</v>
       </c>
       <c r="F45">
         <v>75019</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>61</v>
+        <v>145</v>
       </c>
       <c r="H45" s="7"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I45" t="s">
+        <v>146</v>
+      </c>
+      <c r="J45">
+        <v>1012.611449136446</v>
+      </c>
+      <c r="K45" t="s">
+        <v>147</v>
+      </c>
+      <c r="L45">
+        <v>640.17047660000026</v>
+      </c>
+      <c r="M45">
+        <v>1012.611449136445</v>
+      </c>
+      <c r="N45" s="4">
+        <f t="shared" si="5"/>
+        <v>-1.0104384464219839E-15</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>12</v>
       </c>
@@ -4696,22 +6136,41 @@
         <v>5</v>
       </c>
       <c r="D46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.67005000000000003</v>
       </c>
       <c r="E46">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>40.203000000000003</v>
       </c>
       <c r="F46">
         <v>40203</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>62</v>
+        <v>148</v>
       </c>
       <c r="H46" s="7"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I46" t="s">
+        <v>149</v>
+      </c>
+      <c r="J46">
+        <v>1401.6565058130111</v>
+      </c>
+      <c r="K46" t="s">
+        <v>150</v>
+      </c>
+      <c r="L46">
+        <v>729.52997780000078</v>
+      </c>
+      <c r="M46">
+        <v>1207.078493999617</v>
+      </c>
+      <c r="N46" s="4">
+        <f t="shared" si="5"/>
+        <v>-0.13882003972188028</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>12</v>
       </c>
@@ -4722,22 +6181,41 @@
         <v>6</v>
       </c>
       <c r="D47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.22886666666666666</v>
       </c>
       <c r="E47">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>13.731999999999999</v>
       </c>
       <c r="F47">
         <v>13732</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>63</v>
+        <v>151</v>
       </c>
       <c r="H47" s="7"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I47" t="s">
+        <v>152</v>
+      </c>
+      <c r="J47">
+        <v>799.14062349535777</v>
+      </c>
+      <c r="K47" t="s">
+        <v>153</v>
+      </c>
+      <c r="L47">
+        <v>405.30707930000062</v>
+      </c>
+      <c r="M47">
+        <v>799.14062349535777</v>
+      </c>
+      <c r="N47" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>12</v>
       </c>
@@ -4748,22 +6226,41 @@
         <v>7</v>
       </c>
       <c r="D48">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.28701666666666664</v>
       </c>
       <c r="E48">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>17.221</v>
       </c>
       <c r="F48">
         <v>17221</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>64</v>
+        <v>154</v>
       </c>
       <c r="H48" s="7"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I48" t="s">
+        <v>155</v>
+      </c>
+      <c r="J48">
+        <v>873.69244502127435</v>
+      </c>
+      <c r="K48" t="s">
+        <v>156</v>
+      </c>
+      <c r="L48">
+        <v>679.35048359999928</v>
+      </c>
+      <c r="M48">
+        <v>873.05605380381769</v>
+      </c>
+      <c r="N48" s="4">
+        <f t="shared" si="5"/>
+        <v>-7.2839272112644406E-4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>12</v>
       </c>
@@ -4774,22 +6271,41 @@
         <v>8</v>
       </c>
       <c r="D49">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.43863333333333338</v>
       </c>
       <c r="E49">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>26.318000000000001</v>
       </c>
       <c r="F49">
         <v>26318</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>65</v>
+        <v>157</v>
       </c>
       <c r="H49" s="7"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I49" t="s">
+        <v>158</v>
+      </c>
+      <c r="J49">
+        <v>1289.1298271084211</v>
+      </c>
+      <c r="K49" t="s">
+        <v>159</v>
+      </c>
+      <c r="L49">
+        <v>449.06065099999978</v>
+      </c>
+      <c r="M49">
+        <v>1289.1298271084211</v>
+      </c>
+      <c r="N49" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>12</v>
       </c>
@@ -4800,22 +6316,41 @@
         <v>9</v>
       </c>
       <c r="D50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.0832000000000002</v>
       </c>
       <c r="E50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>64.992000000000004</v>
       </c>
       <c r="F50">
         <v>64992</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>66</v>
+        <v>160</v>
       </c>
       <c r="H50" s="7"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I50" t="s">
+        <v>161</v>
+      </c>
+      <c r="J50">
+        <v>1088.708858004286</v>
+      </c>
+      <c r="K50" t="s">
+        <v>162</v>
+      </c>
+      <c r="L50">
+        <v>400.13931310000038</v>
+      </c>
+      <c r="M50">
+        <v>1132.2410789061589</v>
+      </c>
+      <c r="N50" s="4">
+        <f t="shared" si="5"/>
+        <v>3.9985181145372466E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>12</v>
       </c>
@@ -4826,22 +6361,41 @@
         <v>10</v>
       </c>
       <c r="D51">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.4511166666666666</v>
       </c>
       <c r="E51">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>327.06700000000001</v>
       </c>
       <c r="F51">
         <v>327067</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>67</v>
+        <v>163</v>
       </c>
       <c r="H51" s="7"/>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I51" t="s">
+        <v>164</v>
+      </c>
+      <c r="J51">
+        <v>1230.788478416772</v>
+      </c>
+      <c r="K51" t="s">
+        <v>165</v>
+      </c>
+      <c r="L51">
+        <v>462.89721049999929</v>
+      </c>
+      <c r="M51">
+        <v>1230.7884784167711</v>
+      </c>
+      <c r="N51" s="4">
+        <f t="shared" si="5"/>
+        <v>-7.3895288891789039E-16</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>15</v>
       </c>
@@ -4852,22 +6406,41 @@
         <v>1</v>
       </c>
       <c r="D52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.9801833333333336</v>
       </c>
       <c r="E52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>178.81100000000001</v>
       </c>
       <c r="F52">
         <v>178811</v>
       </c>
       <c r="G52" s="6" t="s">
-        <v>68</v>
+        <v>166</v>
       </c>
       <c r="H52" s="7"/>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I52" t="s">
+        <v>167</v>
+      </c>
+      <c r="J52">
+        <v>962.34315919796416</v>
+      </c>
+      <c r="K52" t="s">
+        <v>168</v>
+      </c>
+      <c r="L52">
+        <v>641.09922839999854</v>
+      </c>
+      <c r="M52">
+        <v>962.34315919796416</v>
+      </c>
+      <c r="N52" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>15</v>
       </c>
@@ -4878,22 +6451,41 @@
         <v>2</v>
       </c>
       <c r="D53">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.0230833333333331</v>
       </c>
       <c r="E53">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>181.38499999999999</v>
       </c>
       <c r="F53">
         <v>181385</v>
       </c>
       <c r="G53" s="6" t="s">
-        <v>69</v>
+        <v>169</v>
       </c>
       <c r="H53" s="7"/>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I53" t="s">
+        <v>170</v>
+      </c>
+      <c r="J53">
+        <v>1153.558670195504</v>
+      </c>
+      <c r="K53" t="s">
+        <v>171</v>
+      </c>
+      <c r="L53">
+        <v>1800.0106947999991</v>
+      </c>
+      <c r="M53">
+        <v>1167.912269342434</v>
+      </c>
+      <c r="N53" s="4">
+        <f t="shared" si="5"/>
+        <v>1.2442886103484796E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>15</v>
       </c>
@@ -4904,22 +6496,41 @@
         <v>3</v>
       </c>
       <c r="D54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.23050000000000001</v>
       </c>
       <c r="E54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>13.83</v>
       </c>
       <c r="F54">
         <v>13830</v>
       </c>
       <c r="G54" s="6" t="s">
-        <v>70</v>
+        <v>172</v>
       </c>
       <c r="H54" s="7"/>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I54" t="s">
+        <v>173</v>
+      </c>
+      <c r="J54">
+        <v>975.46261747594792</v>
+      </c>
+      <c r="K54" t="s">
+        <v>174</v>
+      </c>
+      <c r="L54">
+        <v>589.63765830000193</v>
+      </c>
+      <c r="M54">
+        <v>986.5123038407138</v>
+      </c>
+      <c r="N54" s="4">
+        <f t="shared" si="5"/>
+        <v>1.1327636925090395E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>15</v>
       </c>
@@ -4930,22 +6541,41 @@
         <v>4</v>
       </c>
       <c r="D55">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>31.813433333333332</v>
       </c>
       <c r="E55">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1908.806</v>
       </c>
       <c r="F55">
         <v>1908806</v>
       </c>
       <c r="G55" s="6" t="s">
-        <v>71</v>
+        <v>175</v>
       </c>
       <c r="H55" s="7"/>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I55" t="s">
+        <v>176</v>
+      </c>
+      <c r="J55">
+        <v>1734.233114828321</v>
+      </c>
+      <c r="K55" t="s">
+        <v>177</v>
+      </c>
+      <c r="L55">
+        <v>722.65049179999914</v>
+      </c>
+      <c r="M55">
+        <v>1479.107828259258</v>
+      </c>
+      <c r="N55" s="4">
+        <f t="shared" si="5"/>
+        <v>-0.1471112991602164</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>15</v>
       </c>
@@ -4956,22 +6586,41 @@
         <v>5</v>
       </c>
       <c r="D56">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.3772166666666665</v>
       </c>
       <c r="E56">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>382.63299999999998</v>
       </c>
       <c r="F56">
         <v>382633</v>
       </c>
       <c r="G56" s="6" t="s">
-        <v>72</v>
+        <v>178</v>
       </c>
       <c r="H56" s="7"/>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I56" t="s">
+        <v>179</v>
+      </c>
+      <c r="J56">
+        <v>1490.656141002366</v>
+      </c>
+      <c r="K56" t="s">
+        <v>180</v>
+      </c>
+      <c r="L56">
+        <v>754.21830090000003</v>
+      </c>
+      <c r="M56">
+        <v>1454.7840481513599</v>
+      </c>
+      <c r="N56" s="4">
+        <f t="shared" si="5"/>
+        <v>-2.406463292525968E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>15</v>
       </c>
@@ -4982,22 +6631,41 @@
         <v>6</v>
       </c>
       <c r="D57">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>11.927283333333332</v>
       </c>
       <c r="E57">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>715.63699999999994</v>
       </c>
       <c r="F57">
         <v>715637</v>
       </c>
       <c r="G57" s="6" t="s">
-        <v>73</v>
+        <v>181</v>
       </c>
       <c r="H57" s="7"/>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I57" t="s">
+        <v>182</v>
+      </c>
+      <c r="J57">
+        <v>875.64538242702918</v>
+      </c>
+      <c r="K57" t="s">
+        <v>183</v>
+      </c>
+      <c r="L57">
+        <v>843.49386729999969</v>
+      </c>
+      <c r="M57">
+        <v>834.37760121061604</v>
+      </c>
+      <c r="N57" s="4">
+        <f t="shared" si="5"/>
+        <v>-4.7128417558750892E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>15</v>
       </c>
@@ -5008,22 +6676,41 @@
         <v>7</v>
       </c>
       <c r="D58">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.80586666666666662</v>
       </c>
       <c r="E58">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>48.351999999999997</v>
       </c>
       <c r="F58">
         <v>48352</v>
       </c>
       <c r="G58" s="6" t="s">
-        <v>74</v>
+        <v>184</v>
       </c>
       <c r="H58" s="7"/>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I58" t="s">
+        <v>185</v>
+      </c>
+      <c r="J58">
+        <v>1287.259466421646</v>
+      </c>
+      <c r="K58" t="s">
+        <v>186</v>
+      </c>
+      <c r="L58">
+        <v>858.84702300000208</v>
+      </c>
+      <c r="M58">
+        <v>1275.382289345094</v>
+      </c>
+      <c r="N58" s="4">
+        <f t="shared" si="5"/>
+        <v>-9.226715659406623E-3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>15</v>
       </c>
@@ -5034,22 +6721,41 @@
         <v>8</v>
       </c>
       <c r="D59">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20.862533333333332</v>
       </c>
       <c r="E59">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1251.752</v>
       </c>
       <c r="F59">
         <v>1251752</v>
       </c>
       <c r="G59" s="6" t="s">
-        <v>75</v>
+        <v>187</v>
       </c>
       <c r="H59" s="7"/>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I59" t="s">
+        <v>188</v>
+      </c>
+      <c r="J59">
+        <v>2656.0957601557811</v>
+      </c>
+      <c r="K59" t="s">
+        <v>189</v>
+      </c>
+      <c r="L59">
+        <v>1312.5918292000019</v>
+      </c>
+      <c r="M59">
+        <v>933.66048774492606</v>
+      </c>
+      <c r="N59" s="4">
+        <f t="shared" si="5"/>
+        <v>-0.64848387556246601</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>15</v>
       </c>
@@ -5060,22 +6766,41 @@
         <v>9</v>
       </c>
       <c r="D60">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>13.850033333333332</v>
       </c>
       <c r="E60">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>831.00199999999995</v>
       </c>
       <c r="F60">
         <v>831002</v>
       </c>
       <c r="G60" s="6" t="s">
-        <v>76</v>
+        <v>190</v>
       </c>
       <c r="H60" s="7"/>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I60" t="s">
+        <v>191</v>
+      </c>
+      <c r="J60">
+        <v>928.10921743592348</v>
+      </c>
+      <c r="K60" t="s">
+        <v>192</v>
+      </c>
+      <c r="L60">
+        <v>676.07068479999725</v>
+      </c>
+      <c r="M60">
+        <v>948.70542409475468</v>
+      </c>
+      <c r="N60" s="4">
+        <f t="shared" si="5"/>
+        <v>2.2191576456628771E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>15</v>
       </c>
@@ -5086,30 +6811,49 @@
         <v>10</v>
       </c>
       <c r="D61">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>463.13668333333334</v>
       </c>
       <c r="E61">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>27788.201000000001</v>
       </c>
-      <c r="F61" s="4">
+      <c r="F61">
         <v>27788201</v>
       </c>
       <c r="G61" s="6" t="s">
-        <v>78</v>
+        <v>193</v>
       </c>
       <c r="H61" s="7"/>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I61" t="s">
+        <v>194</v>
+      </c>
+      <c r="J61">
+        <v>1172.042609135658</v>
+      </c>
+      <c r="K61" t="s">
+        <v>195</v>
+      </c>
+      <c r="L61">
+        <v>741.70262700000239</v>
+      </c>
+      <c r="M61">
+        <v>1212.417268828427</v>
+      </c>
+      <c r="N61" s="4">
+        <f t="shared" si="5"/>
+        <v>3.4448115945668524E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="G62" s="6"/>
       <c r="H62" s="7"/>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="G63" s="6"/>
       <c r="H63" s="7"/>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="G64" s="6"/>
       <c r="H64" s="7"/>
     </row>

--- a/vrp_dss/Solve Times Summary.xlsx
+++ b/vrp_dss/Solve Times Summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\great\Documents\GitHub\VRP-DSS\vrp_dss\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A59BD14C-FA27-4769-98E0-B50078B9C5B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38FE66DA-6620-4966-BF98-033B9ED749C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="197">
   <si>
     <t># Customers</t>
   </si>
@@ -1500,11 +1500,10 @@
     <t>{0: [[(7, 3), (5, 12), (1, 7)], [(7, 4), (3, 5), (9, 3), (8, 4), (6, 5)], [(2, 9), (4, 8)]], 1: []}</t>
   </si>
   <si>
-    <t xml:space="preserve">11 metre (capacity 30):
-8 metre (capacity 22):
+    <t xml:space="preserve">8 metre (capacity 22):
+5 (12) -&gt; 1 (7)
+6 (5) -&gt; 4 (8) -&gt; 2 (9)
 7 (7) -&gt; 3 (5) -&gt; 9 (3) -&gt; 8 (4)
-1 (7) -&gt; 5 (12)
-6 (5) -&gt; 4 (8) -&gt; 2 (9)
 </t>
   </si>
   <si>
@@ -1540,6 +1539,14 @@
   </si>
   <si>
     <t>{0: [], 1: [[(7, 7), (9, 11), (1, 4), (2, 5), (6, 2)], [(5, 8), (4, 9), (8, 8), (3, 5)]], 2: []}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 metre (capacity 22):
+11 metre (capacity 30):
+7 (7) -&gt; 9 (11) -&gt; 1 (4) -&gt; 2 (5) -&gt; 6 (2)
+5 (8) -&gt; 4 (9) -&gt; 8 (8) -&gt; 3 (5)
+Rigid (capacity 16):
+</t>
   </si>
   <si>
     <t>Input:
@@ -3146,7 +3153,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-9338-4886-9421-C7416FC28C74}"/>
+              <c16:uniqueId val="{00000000-0D5E-46CD-90E0-0D8AC78099AC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3219,7 +3226,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-9338-4886-9421-C7416FC28C74}"/>
+              <c16:uniqueId val="{00000001-0D5E-46CD-90E0-0D8AC78099AC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4086,10 +4093,10 @@
   <dimension ref="A1:N209"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="H25" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="H19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M45" sqref="M45"/>
+      <selection pane="bottomRight" activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5530,20 +5537,20 @@
         <v>109</v>
       </c>
       <c r="J32">
-        <v>724.48723782131583</v>
+        <v>724.48711326831585</v>
       </c>
       <c r="K32" t="s">
         <v>110</v>
       </c>
       <c r="L32">
-        <v>317.03553440000002</v>
+        <v>309.14720440000002</v>
       </c>
       <c r="M32">
         <v>753.23582552852463</v>
       </c>
       <c r="N32" s="4">
         <f t="shared" si="2"/>
-        <v>3.9681289340115632E-2</v>
+        <v>3.9681468080939641E-2</v>
       </c>
     </row>
     <row r="33" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5577,15 +5584,18 @@
       <c r="J33">
         <v>1024.350870524725</v>
       </c>
+      <c r="K33" t="s">
+        <v>113</v>
+      </c>
       <c r="L33">
-        <v>297.15786459999981</v>
+        <v>270.34894500000001</v>
       </c>
       <c r="M33">
-        <v>0</v>
+        <v>1024.350870524725</v>
       </c>
       <c r="N33" s="4">
         <f t="shared" si="2"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5610,17 +5620,17 @@
         <v>26248</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H34" s="7"/>
       <c r="I34" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="J34">
         <v>866.88826321288798</v>
       </c>
       <c r="K34" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L34">
         <v>420.53963870000013</v>
@@ -5655,17 +5665,17 @@
         <v>2249</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H35" s="7"/>
       <c r="I35" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="J35">
         <v>931.91447117107839</v>
       </c>
       <c r="K35" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L35">
         <v>305.86990820000028</v>
@@ -5700,17 +5710,17 @@
         <v>5946</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H36" s="7"/>
       <c r="I36" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J36">
         <v>2241.807068141215</v>
       </c>
       <c r="K36" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L36">
         <v>316.42438950000002</v>
@@ -5745,17 +5755,17 @@
         <v>10698</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H37" s="7"/>
       <c r="I37" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="J37">
         <v>1326.10584170281</v>
       </c>
       <c r="K37" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L37">
         <v>388.58196549999963</v>
@@ -5790,11 +5800,11 @@
         <v>6631</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H38" s="7"/>
       <c r="I38" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="J38">
         <v>622.21807644280557</v>
@@ -5832,17 +5842,17 @@
         <v>23010</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H39" s="7"/>
       <c r="I39" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="J39">
         <v>988.08515815373653</v>
       </c>
       <c r="K39" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L39">
         <v>276.81299589999981</v>
@@ -5877,17 +5887,17 @@
         <v>12555</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H40" s="7"/>
       <c r="I40" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="J40">
         <v>1367.2770599111541</v>
       </c>
       <c r="K40" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L40">
         <v>297.8125940000009</v>
@@ -5922,17 +5932,17 @@
         <v>6468</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H41" s="7"/>
       <c r="I41" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="J41">
         <v>1198.896614545255</v>
       </c>
       <c r="K41" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L41">
         <v>293.25066800000059</v>
@@ -5967,17 +5977,17 @@
         <v>95015</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H42" s="7"/>
       <c r="I42" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="J42">
         <v>3155.4945885752991</v>
       </c>
       <c r="K42" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L42">
         <v>418.98603239999829</v>
@@ -6012,17 +6022,17 @@
         <v>30046</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H43" s="7"/>
       <c r="I43" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="J43">
         <v>1013.155546866768</v>
       </c>
       <c r="K43" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L43">
         <v>446.54841970000052</v>
@@ -6057,17 +6067,17 @@
         <v>176437</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H44" s="7"/>
       <c r="I44" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="J44">
         <v>977.17357619100812</v>
       </c>
       <c r="K44" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L44">
         <v>415.29174580000108</v>
@@ -6102,17 +6112,17 @@
         <v>75019</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H45" s="7"/>
       <c r="I45" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="J45">
         <v>1012.611449136446</v>
       </c>
       <c r="K45" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L45">
         <v>640.17047660000026</v>
@@ -6147,17 +6157,17 @@
         <v>40203</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H46" s="7"/>
       <c r="I46" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="J46">
         <v>1401.6565058130111</v>
       </c>
       <c r="K46" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="L46">
         <v>729.52997780000078</v>
@@ -6192,17 +6202,17 @@
         <v>13732</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H47" s="7"/>
       <c r="I47" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="J47">
         <v>799.14062349535777</v>
       </c>
       <c r="K47" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L47">
         <v>405.30707930000062</v>
@@ -6237,17 +6247,17 @@
         <v>17221</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H48" s="7"/>
       <c r="I48" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="J48">
         <v>873.69244502127435</v>
       </c>
       <c r="K48" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L48">
         <v>679.35048359999928</v>
@@ -6282,17 +6292,17 @@
         <v>26318</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H49" s="7"/>
       <c r="I49" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="J49">
         <v>1289.1298271084211</v>
       </c>
       <c r="K49" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L49">
         <v>449.06065099999978</v>
@@ -6327,17 +6337,17 @@
         <v>64992</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H50" s="7"/>
       <c r="I50" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="J50">
         <v>1088.708858004286</v>
       </c>
       <c r="K50" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L50">
         <v>400.13931310000038</v>
@@ -6372,17 +6382,17 @@
         <v>327067</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H51" s="7"/>
       <c r="I51" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="J51">
         <v>1230.788478416772</v>
       </c>
       <c r="K51" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L51">
         <v>462.89721049999929</v>
@@ -6417,17 +6427,17 @@
         <v>178811</v>
       </c>
       <c r="G52" s="6" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H52" s="7"/>
       <c r="I52" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J52">
         <v>962.34315919796416</v>
       </c>
       <c r="K52" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L52">
         <v>641.09922839999854</v>
@@ -6462,17 +6472,17 @@
         <v>181385</v>
       </c>
       <c r="G53" s="6" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H53" s="7"/>
       <c r="I53" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="J53">
         <v>1153.558670195504</v>
       </c>
       <c r="K53" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L53">
         <v>1800.0106947999991</v>
@@ -6507,17 +6517,17 @@
         <v>13830</v>
       </c>
       <c r="G54" s="6" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H54" s="7"/>
       <c r="I54" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="J54">
         <v>975.46261747594792</v>
       </c>
       <c r="K54" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L54">
         <v>589.63765830000193</v>
@@ -6552,17 +6562,17 @@
         <v>1908806</v>
       </c>
       <c r="G55" s="6" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H55" s="7"/>
       <c r="I55" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="J55">
         <v>1734.233114828321</v>
       </c>
       <c r="K55" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L55">
         <v>722.65049179999914</v>
@@ -6597,17 +6607,17 @@
         <v>382633</v>
       </c>
       <c r="G56" s="6" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H56" s="7"/>
       <c r="I56" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J56">
         <v>1490.656141002366</v>
       </c>
       <c r="K56" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L56">
         <v>754.21830090000003</v>
@@ -6642,17 +6652,17 @@
         <v>715637</v>
       </c>
       <c r="G57" s="6" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H57" s="7"/>
       <c r="I57" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="J57">
         <v>875.64538242702918</v>
       </c>
       <c r="K57" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L57">
         <v>843.49386729999969</v>
@@ -6687,17 +6697,17 @@
         <v>48352</v>
       </c>
       <c r="G58" s="6" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H58" s="7"/>
       <c r="I58" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="J58">
         <v>1287.259466421646</v>
       </c>
       <c r="K58" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L58">
         <v>858.84702300000208</v>
@@ -6732,17 +6742,17 @@
         <v>1251752</v>
       </c>
       <c r="G59" s="6" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H59" s="7"/>
       <c r="I59" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="J59">
         <v>2656.0957601557811</v>
       </c>
       <c r="K59" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L59">
         <v>1312.5918292000019</v>
@@ -6777,17 +6787,17 @@
         <v>831002</v>
       </c>
       <c r="G60" s="6" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H60" s="7"/>
       <c r="I60" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="J60">
         <v>928.10921743592348</v>
       </c>
       <c r="K60" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L60">
         <v>676.07068479999725</v>
@@ -6822,17 +6832,17 @@
         <v>27788201</v>
       </c>
       <c r="G61" s="6" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H61" s="7"/>
       <c r="I61" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="J61">
         <v>1172.042609135658</v>
       </c>
       <c r="K61" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L61">
         <v>741.70262700000239</v>
@@ -7439,6 +7449,190 @@
     </row>
   </sheetData>
   <mergeCells count="208">
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G206:H206"/>
+    <mergeCell ref="G207:H207"/>
+    <mergeCell ref="G208:H208"/>
+    <mergeCell ref="G209:H209"/>
+    <mergeCell ref="G179:H179"/>
+    <mergeCell ref="G180:H180"/>
+    <mergeCell ref="G181:H181"/>
+    <mergeCell ref="G200:H200"/>
+    <mergeCell ref="G201:H201"/>
+    <mergeCell ref="G202:H202"/>
+    <mergeCell ref="G203:H203"/>
+    <mergeCell ref="G204:H204"/>
+    <mergeCell ref="G205:H205"/>
+    <mergeCell ref="G185:H185"/>
+    <mergeCell ref="G186:H186"/>
+    <mergeCell ref="G187:H187"/>
+    <mergeCell ref="G188:H188"/>
+    <mergeCell ref="G189:H189"/>
+    <mergeCell ref="G190:H190"/>
+    <mergeCell ref="G191:H191"/>
+    <mergeCell ref="G192:H192"/>
+    <mergeCell ref="G193:H193"/>
+    <mergeCell ref="G194:H194"/>
+    <mergeCell ref="G195:H195"/>
+    <mergeCell ref="G175:H175"/>
+    <mergeCell ref="G176:H176"/>
+    <mergeCell ref="G177:H177"/>
+    <mergeCell ref="G178:H178"/>
+    <mergeCell ref="G174:H174"/>
+    <mergeCell ref="G131:H131"/>
+    <mergeCell ref="G171:H171"/>
+    <mergeCell ref="G172:H172"/>
+    <mergeCell ref="G173:H173"/>
+    <mergeCell ref="G138:H138"/>
+    <mergeCell ref="G139:H139"/>
+    <mergeCell ref="G140:H140"/>
+    <mergeCell ref="G159:H159"/>
+    <mergeCell ref="G160:H160"/>
+    <mergeCell ref="G161:H161"/>
+    <mergeCell ref="G162:H162"/>
+    <mergeCell ref="G163:H163"/>
+    <mergeCell ref="G150:H150"/>
+    <mergeCell ref="G151:H151"/>
+    <mergeCell ref="G156:H156"/>
+    <mergeCell ref="G157:H157"/>
+    <mergeCell ref="G158:H158"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="G121:H121"/>
+    <mergeCell ref="G82:H82"/>
+    <mergeCell ref="G83:H83"/>
+    <mergeCell ref="G84:H84"/>
+    <mergeCell ref="G91:H91"/>
+    <mergeCell ref="G92:H92"/>
+    <mergeCell ref="G93:H93"/>
+    <mergeCell ref="G100:H100"/>
+    <mergeCell ref="G101:H101"/>
+    <mergeCell ref="G117:H117"/>
+    <mergeCell ref="G118:H118"/>
+    <mergeCell ref="G119:H119"/>
+    <mergeCell ref="G120:H120"/>
+    <mergeCell ref="G113:H113"/>
+    <mergeCell ref="G114:H114"/>
+    <mergeCell ref="G115:H115"/>
+    <mergeCell ref="G116:H116"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G69:H69"/>
+    <mergeCell ref="G70:H70"/>
+    <mergeCell ref="G71:H71"/>
+    <mergeCell ref="G72:H72"/>
+    <mergeCell ref="G64:H64"/>
+    <mergeCell ref="G62:H62"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G65:H65"/>
+    <mergeCell ref="G66:H66"/>
+    <mergeCell ref="G67:H67"/>
+    <mergeCell ref="G68:H68"/>
+    <mergeCell ref="G63:H63"/>
+    <mergeCell ref="G60:H60"/>
+    <mergeCell ref="G126:H126"/>
+    <mergeCell ref="G127:H127"/>
+    <mergeCell ref="G128:H128"/>
+    <mergeCell ref="G129:H129"/>
+    <mergeCell ref="G130:H130"/>
+    <mergeCell ref="G122:H122"/>
+    <mergeCell ref="G123:H123"/>
+    <mergeCell ref="G124:H124"/>
+    <mergeCell ref="G125:H125"/>
+    <mergeCell ref="G111:H111"/>
+    <mergeCell ref="G112:H112"/>
+    <mergeCell ref="G102:H102"/>
+    <mergeCell ref="G103:H103"/>
+    <mergeCell ref="G104:H104"/>
+    <mergeCell ref="G106:H106"/>
+    <mergeCell ref="G107:H107"/>
+    <mergeCell ref="G108:H108"/>
+    <mergeCell ref="G109:H109"/>
+    <mergeCell ref="G110:H110"/>
+    <mergeCell ref="G105:H105"/>
+    <mergeCell ref="G61:H61"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="G59:H59"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="G153:H153"/>
+    <mergeCell ref="G154:H154"/>
+    <mergeCell ref="G155:H155"/>
+    <mergeCell ref="G141:H141"/>
+    <mergeCell ref="G142:H142"/>
+    <mergeCell ref="G143:H143"/>
+    <mergeCell ref="G144:H144"/>
+    <mergeCell ref="G145:H145"/>
+    <mergeCell ref="G146:H146"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="G94:H94"/>
+    <mergeCell ref="G95:H95"/>
+    <mergeCell ref="G96:H96"/>
+    <mergeCell ref="G97:H97"/>
+    <mergeCell ref="G98:H98"/>
+    <mergeCell ref="G99:H99"/>
+    <mergeCell ref="G73:H73"/>
+    <mergeCell ref="G74:H74"/>
+    <mergeCell ref="G75:H75"/>
+    <mergeCell ref="G76:H76"/>
+    <mergeCell ref="G87:H87"/>
+    <mergeCell ref="G88:H88"/>
+    <mergeCell ref="G89:H89"/>
+    <mergeCell ref="G90:H90"/>
+    <mergeCell ref="G77:H77"/>
+    <mergeCell ref="G85:H85"/>
+    <mergeCell ref="G86:H86"/>
+    <mergeCell ref="G78:H78"/>
+    <mergeCell ref="G79:H79"/>
+    <mergeCell ref="G80:H80"/>
+    <mergeCell ref="G81:H81"/>
     <mergeCell ref="G196:H196"/>
     <mergeCell ref="G197:H197"/>
     <mergeCell ref="G198:H198"/>
@@ -7463,190 +7657,6 @@
     <mergeCell ref="G148:H148"/>
     <mergeCell ref="G149:H149"/>
     <mergeCell ref="G152:H152"/>
-    <mergeCell ref="G73:H73"/>
-    <mergeCell ref="G74:H74"/>
-    <mergeCell ref="G75:H75"/>
-    <mergeCell ref="G76:H76"/>
-    <mergeCell ref="G87:H87"/>
-    <mergeCell ref="G88:H88"/>
-    <mergeCell ref="G89:H89"/>
-    <mergeCell ref="G90:H90"/>
-    <mergeCell ref="G77:H77"/>
-    <mergeCell ref="G85:H85"/>
-    <mergeCell ref="G86:H86"/>
-    <mergeCell ref="G78:H78"/>
-    <mergeCell ref="G79:H79"/>
-    <mergeCell ref="G80:H80"/>
-    <mergeCell ref="G81:H81"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="G153:H153"/>
-    <mergeCell ref="G154:H154"/>
-    <mergeCell ref="G155:H155"/>
-    <mergeCell ref="G141:H141"/>
-    <mergeCell ref="G142:H142"/>
-    <mergeCell ref="G143:H143"/>
-    <mergeCell ref="G144:H144"/>
-    <mergeCell ref="G145:H145"/>
-    <mergeCell ref="G146:H146"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="G94:H94"/>
-    <mergeCell ref="G95:H95"/>
-    <mergeCell ref="G96:H96"/>
-    <mergeCell ref="G97:H97"/>
-    <mergeCell ref="G98:H98"/>
-    <mergeCell ref="G99:H99"/>
-    <mergeCell ref="G61:H61"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="G55:H55"/>
-    <mergeCell ref="G56:H56"/>
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="G58:H58"/>
-    <mergeCell ref="G59:H59"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="G111:H111"/>
-    <mergeCell ref="G112:H112"/>
-    <mergeCell ref="G102:H102"/>
-    <mergeCell ref="G103:H103"/>
-    <mergeCell ref="G104:H104"/>
-    <mergeCell ref="G106:H106"/>
-    <mergeCell ref="G107:H107"/>
-    <mergeCell ref="G108:H108"/>
-    <mergeCell ref="G109:H109"/>
-    <mergeCell ref="G110:H110"/>
-    <mergeCell ref="G105:H105"/>
-    <mergeCell ref="G126:H126"/>
-    <mergeCell ref="G127:H127"/>
-    <mergeCell ref="G128:H128"/>
-    <mergeCell ref="G129:H129"/>
-    <mergeCell ref="G130:H130"/>
-    <mergeCell ref="G122:H122"/>
-    <mergeCell ref="G123:H123"/>
-    <mergeCell ref="G124:H124"/>
-    <mergeCell ref="G125:H125"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G69:H69"/>
-    <mergeCell ref="G70:H70"/>
-    <mergeCell ref="G71:H71"/>
-    <mergeCell ref="G72:H72"/>
-    <mergeCell ref="G64:H64"/>
-    <mergeCell ref="G62:H62"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="G65:H65"/>
-    <mergeCell ref="G66:H66"/>
-    <mergeCell ref="G67:H67"/>
-    <mergeCell ref="G68:H68"/>
-    <mergeCell ref="G63:H63"/>
-    <mergeCell ref="G60:H60"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="G121:H121"/>
-    <mergeCell ref="G82:H82"/>
-    <mergeCell ref="G83:H83"/>
-    <mergeCell ref="G84:H84"/>
-    <mergeCell ref="G91:H91"/>
-    <mergeCell ref="G92:H92"/>
-    <mergeCell ref="G93:H93"/>
-    <mergeCell ref="G100:H100"/>
-    <mergeCell ref="G101:H101"/>
-    <mergeCell ref="G117:H117"/>
-    <mergeCell ref="G118:H118"/>
-    <mergeCell ref="G119:H119"/>
-    <mergeCell ref="G120:H120"/>
-    <mergeCell ref="G113:H113"/>
-    <mergeCell ref="G114:H114"/>
-    <mergeCell ref="G115:H115"/>
-    <mergeCell ref="G116:H116"/>
-    <mergeCell ref="G175:H175"/>
-    <mergeCell ref="G176:H176"/>
-    <mergeCell ref="G177:H177"/>
-    <mergeCell ref="G178:H178"/>
-    <mergeCell ref="G174:H174"/>
-    <mergeCell ref="G131:H131"/>
-    <mergeCell ref="G171:H171"/>
-    <mergeCell ref="G172:H172"/>
-    <mergeCell ref="G173:H173"/>
-    <mergeCell ref="G138:H138"/>
-    <mergeCell ref="G139:H139"/>
-    <mergeCell ref="G140:H140"/>
-    <mergeCell ref="G159:H159"/>
-    <mergeCell ref="G160:H160"/>
-    <mergeCell ref="G161:H161"/>
-    <mergeCell ref="G162:H162"/>
-    <mergeCell ref="G163:H163"/>
-    <mergeCell ref="G150:H150"/>
-    <mergeCell ref="G151:H151"/>
-    <mergeCell ref="G156:H156"/>
-    <mergeCell ref="G157:H157"/>
-    <mergeCell ref="G158:H158"/>
-    <mergeCell ref="G206:H206"/>
-    <mergeCell ref="G207:H207"/>
-    <mergeCell ref="G208:H208"/>
-    <mergeCell ref="G209:H209"/>
-    <mergeCell ref="G179:H179"/>
-    <mergeCell ref="G180:H180"/>
-    <mergeCell ref="G181:H181"/>
-    <mergeCell ref="G200:H200"/>
-    <mergeCell ref="G201:H201"/>
-    <mergeCell ref="G202:H202"/>
-    <mergeCell ref="G203:H203"/>
-    <mergeCell ref="G204:H204"/>
-    <mergeCell ref="G205:H205"/>
-    <mergeCell ref="G185:H185"/>
-    <mergeCell ref="G186:H186"/>
-    <mergeCell ref="G187:H187"/>
-    <mergeCell ref="G188:H188"/>
-    <mergeCell ref="G189:H189"/>
-    <mergeCell ref="G190:H190"/>
-    <mergeCell ref="G191:H191"/>
-    <mergeCell ref="G192:H192"/>
-    <mergeCell ref="G193:H193"/>
-    <mergeCell ref="G194:H194"/>
-    <mergeCell ref="G195:H195"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G30:H30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/vrp_dss/Solve Times Summary.xlsx
+++ b/vrp_dss/Solve Times Summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\great\Documents\GitHub\VRP-DSS\vrp_dss\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38FE66DA-6620-4966-BF98-033B9ED749C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52E1929B-C793-49C6-AB97-B1723C4ABE8C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="200">
   <si>
     <t># Customers</t>
   </si>
@@ -82,9 +82,6 @@
   </si>
   <si>
     <t>Meta Objective</t>
-  </si>
-  <si>
-    <t>Meta Difference (%)</t>
   </si>
   <si>
     <t>Input:
@@ -1682,12 +1679,13 @@
     <t>{0: [[(7, 3), (3, 3), (9, 0), (1, 3), (6, 13)], [(9, 1), (1, 1), (4, 9), (2, 10)], [(8, 10), (9, 0), (1, 3)]], 1: [[(9, 2), (1, 0)]], 2: [[(9, 0), (1, 3), (5, 13)]]}</t>
   </si>
   <si>
-    <t xml:space="preserve">11 metre (capacity 30):
-1 (10) -&gt; 6 (13)
-8 metre (capacity 22):
+    <t xml:space="preserve">8 metre (capacity 22):
+5 (13)
+2 (10) -&gt; 4 (9)
 8 (10) -&gt; 9 (3) -&gt; 3 (3) -&gt; 7 (3)
-4 (9) -&gt; 2 (10)
-5 (13)
+11 metre (capacity 30):
+6 (13) -&gt; 1 (10)
+Rigid (capacity 16):
 </t>
   </si>
   <si>
@@ -1770,6 +1768,14 @@
     <t>{0: [], 1: [[(5, 1), (2, 1), (3, 12), (6, 4)], [(1, 11), (8, 4), (9, 7), (7, 2), (4, 4)]], 2: []}</t>
   </si>
   <si>
+    <t xml:space="preserve">Rigid (capacity 16):
+11 metre (capacity 30):
+4 (4) -&gt; 7 (2) -&gt; 9 (7) -&gt; 8 (4) -&gt; 1 (11)
+6 (4) -&gt; 3 (12) -&gt; 2 (1) -&gt; 5 (1)
+8 metre (capacity 22):
+</t>
+  </si>
+  <si>
     <t>Input:
 Customer 1 has 2 pallets demand and window 0-24 at (83.329803421, 97.067101839) and average unload time 0.114192179
 Customer 2 has 4 pallets demand and window 0-24 at (90.791824747, -61.633373315) and average unload time 0.036625233
@@ -1851,7 +1857,7 @@
     <t xml:space="preserve">8 metre (capacity 22):
 2 (8) -&gt; 5 (10)
 Rigid (capacity 16):
-6 (5) -&gt; 1 (11)
+1 (11) -&gt; 6 (5)
 8 (7)
 11 metre (capacity 30):
 9 (5) -&gt; 7 (7) -&gt; 4 (12) -&gt; 3 (5)
@@ -1957,9 +1963,10 @@
   </si>
   <si>
     <t xml:space="preserve">8 metre (capacity 22):
+10 (5) -&gt; 3 (2) -&gt; 6 (1) -&gt; 7 (7)
 8 (3) -&gt; 11 (7) -&gt; 12 (9) -&gt; 4 (3)
-5 (8) -&gt; 2 (7) -&gt; 9 (2) -&gt; 1 (2)
-10 (5) -&gt; 3 (2) -&gt; 6 (1) -&gt; 7 (7)
+1 (2) -&gt; 9 (2) -&gt; 2 (7) -&gt; 5 (8)
+Rigid (capacity 16):
 </t>
   </si>
   <si>
@@ -2154,11 +2161,12 @@
     <t>{0: [[(1, 5), (2, 6), (8, 4), (3, 6)], [(7, 2)], [(10, 3), (9, 4)]], 1: [[(10, 3), (5, 10), (12, 7), (11, 2), (6, 6), (4, 2)]], 2: []}</t>
   </si>
   <si>
-    <t xml:space="preserve">11 metre (capacity 30):
+    <t xml:space="preserve">8 metre (capacity 22):
+9 (4) -&gt; 10 (6)
+4 (2) -&gt; 3 (6) -&gt; 8 (4) -&gt; 2 (6) -&gt; 7 (2)
+11 metre (capacity 30):
 1 (5) -&gt; 6 (6) -&gt; 11 (2) -&gt; 12 (7) -&gt; 5 (10)
-8 metre (capacity 22):
-4 (2) -&gt; 3 (6) -&gt; 8 (4) -&gt; 2 (6) -&gt; 7 (2)
-10 (6) -&gt; 9 (4)
+Rigid (capacity 16):
 </t>
   </si>
   <si>
@@ -2624,12 +2632,13 @@
     <t>{0: [[(6, 8), (1, 5), (2, 5), (4, 6)], [(11, 9), (3, 8)], [(13, 8), (5, 7), (15, 1), (8, 1), (12, 8), (14, 4)]], 1: [[(9, 8), (10, 6), (7, 7)]], 2: []}</t>
   </si>
   <si>
-    <t xml:space="preserve">8 metre (capacity 22):
+    <t xml:space="preserve">11 metre (capacity 30):
+3 (8) -&gt; 11 (9) -&gt; 5 (7)
+13 (8) -&gt; 14 (4) -&gt; 15 (1) -&gt; 8 (1) -&gt; 12 (8) -&gt; 7 (7)
+6 (8) -&gt; 9 (8) -&gt; 10 (6) -&gt; 2 (5)
+8 metre (capacity 22):
 4 (6) -&gt; 1 (5)
-11 metre (capacity 30):
-5 (7) -&gt; 11 (9) -&gt; 3 (8)
-13 (8) -&gt; 14 (4) -&gt; 15 (1) -&gt; 8 (1) -&gt; 12 (8) -&gt; 7 (7)
-2 (5) -&gt; 10 (6) -&gt; 9 (8) -&gt; 6 (8)
+Rigid (capacity 16):
 </t>
   </si>
   <si>
@@ -2856,11 +2865,11 @@
   </si>
   <si>
     <t xml:space="preserve">11 metre (capacity 30):
+8 metre (capacity 22):
+3 (2) -&gt; 13 (1) -&gt; 4 (7) -&gt; 10 (1) -&gt; 6 (1) -&gt; 2 (3) -&gt; 15 (6)
+12 (4) -&gt; 1 (3) -&gt; 11 (3) -&gt; 7 (6) -&gt; 14 (2) -&gt; 8 (2)
 Rigid (capacity 16):
 9 (7) -&gt; 5 (5)
-8 metre (capacity 22):
-3 (2) -&gt; 13 (1) -&gt; 4 (7) -&gt; 10 (1) -&gt; 6 (1) -&gt; 2 (3) -&gt; 15 (6)
-8 (2) -&gt; 14 (2) -&gt; 7 (6) -&gt; 11 (3) -&gt; 1 (3) -&gt; 12 (4)
 </t>
   </si>
   <si>
@@ -2978,6 +2987,15 @@
 5 (8) -&gt; 8 (4) -&gt; 9 (2)
 15 (6) -&gt; 13 (6)
 </t>
+  </si>
+  <si>
+    <t>Objective Value</t>
+  </si>
+  <si>
+    <t>Meta Difference (%, compared to original math objective value)</t>
+  </si>
+  <si>
+    <t>Meta Difference (%, compared to meta evaluation of math objective)</t>
   </si>
 </sst>
 </file>
@@ -3029,7 +3047,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3046,12 +3064,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6D6D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6D6D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -3153,7 +3197,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0D5E-46CD-90E0-0D8AC78099AC}"/>
+              <c16:uniqueId val="{00000000-4F2E-400B-9F0B-E826DF54A1F5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3226,7 +3270,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-0D5E-46CD-90E0-0D8AC78099AC}"/>
+              <c16:uniqueId val="{00000001-4F2E-400B-9F0B-E826DF54A1F5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4090,13 +4134,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:N209"/>
+  <dimension ref="A1:P209"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="H19" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="H5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K31" sqref="K31"/>
+      <selection pane="bottomRight" activeCell="H29" sqref="H29:I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4107,17 +4151,19 @@
     <col min="4" max="4" width="14.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="150.7109375" style="5" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="5" customWidth="1"/>
-    <col min="9" max="9" width="12.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="100.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="150.7109375" style="5" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="5" customWidth="1"/>
+    <col min="10" max="10" width="12.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="33.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="100.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.28515625" style="3" customWidth="1"/>
+    <col min="16" max="16" width="19.28515625" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -4136,29 +4182,35 @@
       <c r="F1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O1" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>9</v>
       </c>
@@ -4179,31 +4231,38 @@
       <c r="F2">
         <v>641</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="3">
+        <v>573.06827871500002</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="7"/>
+      <c r="J2" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="7"/>
-      <c r="I2" t="s">
+      <c r="K2">
+        <v>681.64705556381671</v>
+      </c>
+      <c r="L2" t="s">
         <v>19</v>
       </c>
-      <c r="J2">
-        <v>681.64705556381671</v>
-      </c>
-      <c r="K2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L2">
+      <c r="M2">
         <v>262.46966379999998</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>737.89099450163053</v>
       </c>
-      <c r="N2" s="4">
-        <f t="shared" ref="N2:N33" si="2">(M2-J2)/J2</f>
+      <c r="O2" s="8">
+        <f>(N2-G2)/G2</f>
+        <v>0.28761444649530254</v>
+      </c>
+      <c r="P2" s="4">
+        <f t="shared" ref="P2:P33" si="2">(N2-K2)/K2</f>
         <v>8.2511819685470916E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>9</v>
       </c>
@@ -4224,31 +4283,38 @@
       <c r="F3">
         <v>903</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="3">
+        <v>576.78510638299997</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="7"/>
+      <c r="J3" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="7"/>
-      <c r="I3" t="s">
+      <c r="K3">
+        <v>662.80451167813396</v>
+      </c>
+      <c r="L3" t="s">
         <v>22</v>
       </c>
-      <c r="J3">
+      <c r="M3">
+        <v>278.01979510000001</v>
+      </c>
+      <c r="N3">
         <v>662.80451167813396</v>
       </c>
-      <c r="K3" t="s">
-        <v>23</v>
-      </c>
-      <c r="L3">
-        <v>278.01979510000001</v>
-      </c>
-      <c r="M3">
-        <v>662.80451167813396</v>
-      </c>
-      <c r="N3" s="4">
+      <c r="O3" s="8">
+        <f t="shared" ref="O3:O61" si="3">(N3-G3)/G3</f>
+        <v>0.14913596821970454</v>
+      </c>
+      <c r="P3" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>9</v>
       </c>
@@ -4269,31 +4335,38 @@
       <c r="F4">
         <v>630</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="3">
+        <v>943.34840135000002</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="7"/>
+      <c r="J4" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="7"/>
-      <c r="I4" t="s">
+      <c r="K4">
+        <v>1121.506775041001</v>
+      </c>
+      <c r="L4" t="s">
         <v>25</v>
       </c>
-      <c r="J4">
-        <v>1121.506775041001</v>
-      </c>
-      <c r="K4" t="s">
-        <v>26</v>
-      </c>
-      <c r="L4">
+      <c r="M4">
         <v>278.10329050000013</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>1017.840597157414</v>
       </c>
-      <c r="N4" s="4">
+      <c r="O4" s="8">
+        <f t="shared" si="3"/>
+        <v>7.896573068954188E-2</v>
+      </c>
+      <c r="P4" s="4">
         <f t="shared" si="2"/>
         <v>-9.2434731729371042E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>9</v>
       </c>
@@ -4314,31 +4387,38 @@
       <c r="F5">
         <v>1531</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="3">
+        <v>547.76187840700004</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="7"/>
+      <c r="J5" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="7"/>
-      <c r="I5" t="s">
+      <c r="K5">
+        <v>648.77828901133626</v>
+      </c>
+      <c r="L5" t="s">
         <v>28</v>
       </c>
-      <c r="J5">
+      <c r="M5">
+        <v>277.54593849999998</v>
+      </c>
+      <c r="N5">
         <v>648.77828901133626</v>
       </c>
-      <c r="K5" t="s">
-        <v>29</v>
-      </c>
-      <c r="L5">
-        <v>277.54593849999998</v>
-      </c>
-      <c r="M5">
-        <v>648.77828901133626</v>
-      </c>
-      <c r="N5" s="4">
+      <c r="O5" s="8">
+        <f t="shared" si="3"/>
+        <v>0.18441664998322252</v>
+      </c>
+      <c r="P5" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>9</v>
       </c>
@@ -4359,31 +4439,38 @@
       <c r="F6">
         <v>2543</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="3">
+        <v>979.546880192</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" s="7"/>
+      <c r="J6" t="s">
         <v>30</v>
       </c>
-      <c r="H6" s="7"/>
-      <c r="I6" t="s">
+      <c r="K6">
+        <v>1096.3601690856599</v>
+      </c>
+      <c r="L6" t="s">
         <v>31</v>
       </c>
-      <c r="J6">
-        <v>1096.3601690856599</v>
-      </c>
-      <c r="K6" t="s">
-        <v>32</v>
-      </c>
-      <c r="L6">
+      <c r="M6">
         <v>260.34920179999989</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>1077.6947002346831</v>
       </c>
-      <c r="N6" s="4">
+      <c r="O6" s="8">
+        <f t="shared" si="3"/>
+        <v>0.10019716465581026</v>
+      </c>
+      <c r="P6" s="4">
         <f t="shared" si="2"/>
         <v>-1.7024942511860323E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>9</v>
       </c>
@@ -4404,31 +4491,38 @@
       <c r="F7">
         <v>3773</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="3">
+        <v>456.27215827700002</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I7" s="7"/>
+      <c r="J7" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="7"/>
-      <c r="I7" t="s">
+      <c r="K7">
+        <v>520.34549815358832</v>
+      </c>
+      <c r="L7" t="s">
         <v>34</v>
       </c>
-      <c r="J7">
+      <c r="M7">
+        <v>317.7635937</v>
+      </c>
+      <c r="N7">
         <v>520.34549815358832</v>
       </c>
-      <c r="K7" t="s">
-        <v>35</v>
-      </c>
-      <c r="L7">
-        <v>317.7635937</v>
-      </c>
-      <c r="M7">
-        <v>520.34549815358832</v>
-      </c>
-      <c r="N7" s="4">
+      <c r="O7" s="8">
+        <f t="shared" si="3"/>
+        <v>0.14042789750430001</v>
+      </c>
+      <c r="P7" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>9</v>
       </c>
@@ -4449,31 +4543,38 @@
       <c r="F8">
         <v>3816</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="G8" s="3">
+        <v>883.23944079299997</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="I8" s="7"/>
+      <c r="J8" t="s">
         <v>36</v>
       </c>
-      <c r="H8" s="7"/>
-      <c r="I8" t="s">
+      <c r="K8">
+        <v>996.8146493389404</v>
+      </c>
+      <c r="L8" t="s">
         <v>37</v>
       </c>
-      <c r="J8">
-        <v>996.8146493389404</v>
-      </c>
-      <c r="K8" t="s">
-        <v>38</v>
-      </c>
-      <c r="L8">
+      <c r="M8">
         <v>270.72479270000002</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>996.81464933894028</v>
       </c>
-      <c r="N8" s="4">
+      <c r="O8" s="8">
+        <f t="shared" si="3"/>
+        <v>0.12858937599522158</v>
+      </c>
+      <c r="P8" s="4">
         <f t="shared" si="2"/>
         <v>-1.1405012737022871E-16</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>9</v>
       </c>
@@ -4494,31 +4595,38 @@
       <c r="F9">
         <v>2016</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="G9" s="3">
+        <v>674.55252934199996</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I9" s="7"/>
+      <c r="J9" t="s">
         <v>39</v>
       </c>
-      <c r="H9" s="7"/>
-      <c r="I9" t="s">
+      <c r="K9">
+        <v>849.7955585238285</v>
+      </c>
+      <c r="L9" t="s">
         <v>40</v>
       </c>
-      <c r="J9">
-        <v>849.7955585238285</v>
-      </c>
-      <c r="K9" t="s">
-        <v>41</v>
-      </c>
-      <c r="L9">
+      <c r="M9">
         <v>304.02424980000001</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>775.21553639218246</v>
       </c>
-      <c r="N9" s="4">
+      <c r="O9" s="8">
+        <f t="shared" si="3"/>
+        <v>0.14922930783222382</v>
+      </c>
+      <c r="P9" s="4">
         <f t="shared" si="2"/>
         <v>-8.7762311044786198E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -4539,31 +4647,38 @@
       <c r="F10">
         <v>1630</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="G10" s="3">
+        <v>604.10825342600003</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I10" s="7"/>
+      <c r="J10" t="s">
         <v>42</v>
       </c>
-      <c r="H10" s="7"/>
-      <c r="I10" t="s">
+      <c r="K10">
+        <v>732.72108410107626</v>
+      </c>
+      <c r="L10" t="s">
         <v>43</v>
       </c>
-      <c r="J10">
+      <c r="M10">
+        <v>294.104108</v>
+      </c>
+      <c r="N10">
         <v>732.72108410107626</v>
       </c>
-      <c r="K10" t="s">
-        <v>44</v>
-      </c>
-      <c r="L10">
-        <v>294.104108</v>
-      </c>
-      <c r="M10">
-        <v>732.72108410107626</v>
-      </c>
-      <c r="N10" s="4">
+      <c r="O10" s="8">
+        <f t="shared" si="3"/>
+        <v>0.21289699312282379</v>
+      </c>
+      <c r="P10" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -4584,31 +4699,38 @@
       <c r="F11">
         <v>976</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="G11" s="3">
+        <v>566.83624877900002</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I11" s="7"/>
+      <c r="J11" t="s">
         <v>45</v>
       </c>
-      <c r="H11" s="7"/>
-      <c r="I11" t="s">
+      <c r="K11">
+        <v>675.31814202394798</v>
+      </c>
+      <c r="L11" t="s">
         <v>46</v>
       </c>
-      <c r="J11">
-        <v>675.31814202394798</v>
-      </c>
-      <c r="K11" t="s">
-        <v>47</v>
-      </c>
-      <c r="L11">
+      <c r="M11">
         <v>268.09872009999998</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>695.40386535206767</v>
       </c>
-      <c r="N11" s="4">
+      <c r="O11" s="8">
+        <f t="shared" si="3"/>
+        <v>0.22681615166639427</v>
+      </c>
+      <c r="P11" s="4">
         <f t="shared" si="2"/>
         <v>2.9742608821261916E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>12</v>
       </c>
@@ -4629,31 +4751,38 @@
       <c r="F12">
         <v>2359</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="G12" s="3">
+        <v>784.24467330000004</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" s="7"/>
+      <c r="J12" t="s">
         <v>48</v>
       </c>
-      <c r="H12" s="7"/>
-      <c r="I12" t="s">
+      <c r="K12">
+        <v>913.45865950850782</v>
+      </c>
+      <c r="L12" t="s">
         <v>49</v>
       </c>
-      <c r="J12">
-        <v>913.45865950850782</v>
-      </c>
-      <c r="K12" t="s">
-        <v>50</v>
-      </c>
-      <c r="L12">
+      <c r="M12">
         <v>464.70780339999988</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>914.85828521333269</v>
       </c>
-      <c r="N12" s="4">
+      <c r="O12" s="8">
+        <f t="shared" si="3"/>
+        <v>0.16654701824588425</v>
+      </c>
+      <c r="P12" s="4">
         <f t="shared" si="2"/>
         <v>1.5322266533418691E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -4674,31 +4803,38 @@
       <c r="F13">
         <v>8640</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="G13" s="3">
+        <v>613.378326109</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="I13" s="7"/>
+      <c r="J13" t="s">
         <v>51</v>
       </c>
-      <c r="H13" s="7"/>
-      <c r="I13" t="s">
+      <c r="K13">
+        <v>723.75913134411178</v>
+      </c>
+      <c r="L13" t="s">
         <v>52</v>
       </c>
-      <c r="J13">
+      <c r="M13">
+        <v>406.5890359</v>
+      </c>
+      <c r="N13">
         <v>723.75913134411178</v>
       </c>
-      <c r="K13" t="s">
-        <v>53</v>
-      </c>
-      <c r="L13">
-        <v>406.5890359</v>
-      </c>
-      <c r="M13">
-        <v>723.75913134411178</v>
-      </c>
-      <c r="N13" s="4">
+      <c r="O13" s="8">
+        <f t="shared" si="3"/>
+        <v>0.17995550305032562</v>
+      </c>
+      <c r="P13" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -4719,31 +4855,38 @@
       <c r="F14">
         <v>1565</v>
       </c>
-      <c r="G14" s="6" t="s">
+      <c r="G14" s="3">
+        <v>791.18591642900003</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="I14" s="7"/>
+      <c r="J14" t="s">
         <v>54</v>
       </c>
-      <c r="H14" s="7"/>
-      <c r="I14" t="s">
+      <c r="K14">
+        <v>869.73014524941982</v>
+      </c>
+      <c r="L14" t="s">
         <v>55</v>
       </c>
-      <c r="J14">
+      <c r="M14">
+        <v>419.66426040000027</v>
+      </c>
+      <c r="N14">
         <v>869.73014524941982</v>
       </c>
-      <c r="K14" t="s">
-        <v>56</v>
-      </c>
-      <c r="L14">
-        <v>419.66426040000027</v>
-      </c>
-      <c r="M14">
-        <v>869.73014524941982</v>
-      </c>
-      <c r="N14" s="4">
+      <c r="O14" s="8">
+        <f t="shared" si="3"/>
+        <v>9.9274048222353875E-2</v>
+      </c>
+      <c r="P14" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>12</v>
       </c>
@@ -4764,31 +4907,38 @@
       <c r="F15">
         <v>5289</v>
       </c>
-      <c r="G15" s="6" t="s">
+      <c r="G15" s="3">
+        <v>750.87424906499996</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="I15" s="7"/>
+      <c r="J15" t="s">
         <v>57</v>
       </c>
-      <c r="H15" s="7"/>
-      <c r="I15" t="s">
+      <c r="K15">
+        <v>894.78810796327741</v>
+      </c>
+      <c r="L15" t="s">
         <v>58</v>
       </c>
-      <c r="J15">
+      <c r="M15">
+        <v>422.64755399999967</v>
+      </c>
+      <c r="N15">
         <v>894.78810796327741</v>
       </c>
-      <c r="K15" t="s">
-        <v>59</v>
-      </c>
-      <c r="L15">
-        <v>422.64755399999967</v>
-      </c>
-      <c r="M15">
-        <v>894.78810796327741</v>
-      </c>
-      <c r="N15" s="4">
+      <c r="O15" s="8">
+        <f t="shared" si="3"/>
+        <v>0.19166173174467122</v>
+      </c>
+      <c r="P15" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>12</v>
       </c>
@@ -4809,31 +4959,38 @@
       <c r="F16">
         <v>7905</v>
       </c>
-      <c r="G16" s="6" t="s">
+      <c r="G16" s="3">
+        <v>909.07091568299995</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="I16" s="7"/>
+      <c r="J16" t="s">
         <v>60</v>
       </c>
-      <c r="H16" s="7"/>
-      <c r="I16" t="s">
+      <c r="K16">
+        <v>1027.364256635447</v>
+      </c>
+      <c r="L16" t="s">
         <v>61</v>
       </c>
-      <c r="J16">
-        <v>1027.364256635447</v>
-      </c>
-      <c r="K16" t="s">
-        <v>62</v>
-      </c>
-      <c r="L16">
+      <c r="M16">
         <v>442.34885850000001</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>1018.647370722324</v>
       </c>
-      <c r="N16" s="4">
+      <c r="O16" s="8">
+        <f t="shared" si="3"/>
+        <v>0.12053675147774083</v>
+      </c>
+      <c r="P16" s="4">
         <f t="shared" si="2"/>
         <v>-8.484708180981692E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>12</v>
       </c>
@@ -4854,31 +5011,38 @@
       <c r="F17">
         <v>2023</v>
       </c>
-      <c r="G17" s="6" t="s">
+      <c r="G17" s="3">
+        <v>805.72962788500001</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="I17" s="7"/>
+      <c r="J17" t="s">
         <v>63</v>
       </c>
-      <c r="H17" s="7"/>
-      <c r="I17" t="s">
+      <c r="K17">
+        <v>999.21410672612376</v>
+      </c>
+      <c r="L17" t="s">
         <v>64</v>
       </c>
-      <c r="J17">
-        <v>999.21410672612376</v>
-      </c>
-      <c r="K17" t="s">
-        <v>65</v>
-      </c>
-      <c r="L17">
+      <c r="M17">
         <v>426.36255859999977</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>900.14586449837202</v>
       </c>
-      <c r="N17" s="4">
+      <c r="O17" s="8">
+        <f t="shared" si="3"/>
+        <v>0.11718104106610788</v>
+      </c>
+      <c r="P17" s="4">
         <f t="shared" si="2"/>
         <v>-9.914616052844169E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>12</v>
       </c>
@@ -4899,31 +5063,38 @@
       <c r="F18">
         <v>3644</v>
       </c>
-      <c r="G18" s="6" t="s">
+      <c r="G18" s="3">
+        <v>683.45979060699995</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="I18" s="7"/>
+      <c r="J18" t="s">
         <v>66</v>
       </c>
-      <c r="H18" s="7"/>
-      <c r="I18" t="s">
+      <c r="K18">
+        <v>782.003935883964</v>
+      </c>
+      <c r="L18" t="s">
         <v>67</v>
       </c>
-      <c r="J18">
+      <c r="M18">
+        <v>370.22184800000008</v>
+      </c>
+      <c r="N18">
         <v>782.003935883964</v>
       </c>
-      <c r="K18" t="s">
-        <v>68</v>
-      </c>
-      <c r="L18">
-        <v>370.22184800000008</v>
-      </c>
-      <c r="M18">
-        <v>782.003935883964</v>
-      </c>
-      <c r="N18" s="4">
+      <c r="O18" s="8">
+        <f t="shared" si="3"/>
+        <v>0.14418426165121465</v>
+      </c>
+      <c r="P18" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>12</v>
       </c>
@@ -4944,31 +5115,38 @@
       <c r="F19">
         <v>11599</v>
       </c>
-      <c r="G19" s="6" t="s">
+      <c r="G19" s="3">
+        <v>1082.162880112</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="I19" s="7"/>
+      <c r="J19" t="s">
         <v>69</v>
       </c>
-      <c r="H19" s="7"/>
-      <c r="I19" t="s">
+      <c r="K19">
+        <v>1219.039143534927</v>
+      </c>
+      <c r="L19" t="s">
         <v>70</v>
       </c>
-      <c r="J19">
+      <c r="M19">
+        <v>438.19959239999929</v>
+      </c>
+      <c r="N19">
         <v>1219.039143534927</v>
       </c>
-      <c r="K19" t="s">
-        <v>71</v>
-      </c>
-      <c r="L19">
-        <v>438.19959239999929</v>
-      </c>
-      <c r="M19">
-        <v>1219.039143534927</v>
-      </c>
-      <c r="N19" s="4">
+      <c r="O19" s="8">
+        <f t="shared" si="3"/>
+        <v>0.1264839756920518</v>
+      </c>
+      <c r="P19" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>12</v>
       </c>
@@ -4989,31 +5167,38 @@
       <c r="F20">
         <v>66931</v>
       </c>
-      <c r="G20" s="6" t="s">
+      <c r="G20" s="3">
+        <v>952.74671821100003</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="I20" s="7"/>
+      <c r="J20" t="s">
         <v>72</v>
       </c>
-      <c r="H20" s="7"/>
-      <c r="I20" t="s">
+      <c r="K20">
+        <v>1095.786848590677</v>
+      </c>
+      <c r="L20" t="s">
         <v>73</v>
       </c>
-      <c r="J20">
+      <c r="M20">
+        <v>395.94870300000002</v>
+      </c>
+      <c r="N20">
         <v>1095.786848590677</v>
       </c>
-      <c r="K20" t="s">
-        <v>74</v>
-      </c>
-      <c r="L20">
-        <v>395.94870300000002</v>
-      </c>
-      <c r="M20">
-        <v>1095.786848590677</v>
-      </c>
-      <c r="N20" s="4">
+      <c r="O20" s="8">
+        <f t="shared" si="3"/>
+        <v>0.15013447713393074</v>
+      </c>
+      <c r="P20" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>12</v>
       </c>
@@ -5034,31 +5219,38 @@
       <c r="F21">
         <v>32942</v>
       </c>
-      <c r="G21" s="6" t="s">
+      <c r="G21" s="3">
+        <v>1604.457014441</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="I21" s="7"/>
+      <c r="J21" t="s">
         <v>75</v>
       </c>
-      <c r="H21" s="7"/>
-      <c r="I21" t="s">
+      <c r="K21">
+        <v>1783.3033750428201</v>
+      </c>
+      <c r="L21" t="s">
         <v>76</v>
       </c>
-      <c r="J21">
-        <v>1783.3204562016881</v>
-      </c>
-      <c r="K21" t="s">
-        <v>77</v>
-      </c>
-      <c r="L21">
-        <v>409.07242740000038</v>
-      </c>
       <c r="M21">
+        <v>392.37775809999999</v>
+      </c>
+      <c r="N21">
         <v>1037.0643622155451</v>
       </c>
-      <c r="N21" s="4">
+      <c r="O21" s="8">
+        <f t="shared" si="3"/>
+        <v>-0.3536353090912423</v>
+      </c>
+      <c r="P21" s="4">
         <f t="shared" si="2"/>
-        <v>-0.41846438277033016</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>-0.41845881260072004</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>15</v>
       </c>
@@ -5079,31 +5271,38 @@
       <c r="F22">
         <v>202664</v>
       </c>
-      <c r="G22" s="6" t="s">
+      <c r="G22" s="3">
+        <v>1171.623384083</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="I22" s="7"/>
+      <c r="J22" t="s">
         <v>78</v>
       </c>
-      <c r="H22" s="7"/>
-      <c r="I22" t="s">
+      <c r="K22">
+        <v>1281.2391705977</v>
+      </c>
+      <c r="L22" t="s">
         <v>79</v>
       </c>
-      <c r="J22">
+      <c r="M22">
+        <v>672.47080480000022</v>
+      </c>
+      <c r="N22">
         <v>1281.2391705977</v>
       </c>
-      <c r="K22" t="s">
-        <v>80</v>
-      </c>
-      <c r="L22">
-        <v>672.47080480000022</v>
-      </c>
-      <c r="M22">
-        <v>1281.2391705977</v>
-      </c>
-      <c r="N22" s="4">
+      <c r="O22" s="8">
+        <f t="shared" si="3"/>
+        <v>9.3558892732832785E-2</v>
+      </c>
+      <c r="P22" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>15</v>
       </c>
@@ -5124,31 +5323,38 @@
       <c r="F23">
         <v>35184</v>
       </c>
-      <c r="G23" s="6" t="s">
+      <c r="G23" s="3">
+        <v>828.12840839</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="I23" s="7"/>
+      <c r="J23" t="s">
         <v>81</v>
       </c>
-      <c r="H23" s="7"/>
-      <c r="I23" t="s">
+      <c r="K23">
+        <v>977.46652415438575</v>
+      </c>
+      <c r="L23" t="s">
         <v>82</v>
       </c>
-      <c r="J23">
+      <c r="M23">
+        <v>699.79639490000045</v>
+      </c>
+      <c r="N23">
         <v>977.46652415438575</v>
       </c>
-      <c r="K23" t="s">
-        <v>83</v>
-      </c>
-      <c r="L23">
-        <v>699.79639490000045</v>
-      </c>
-      <c r="M23">
-        <v>977.46652415438575</v>
-      </c>
-      <c r="N23" s="4">
+      <c r="O23" s="8">
+        <f t="shared" si="3"/>
+        <v>0.18033207682697469</v>
+      </c>
+      <c r="P23" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>15</v>
       </c>
@@ -5169,31 +5375,38 @@
       <c r="F24">
         <v>380729</v>
       </c>
-      <c r="G24" s="6" t="s">
+      <c r="G24" s="3">
+        <v>801.70743123199998</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="I24" s="7"/>
+      <c r="J24" t="s">
         <v>84</v>
       </c>
-      <c r="H24" s="7"/>
-      <c r="I24" t="s">
+      <c r="K24">
+        <v>916.32674868129936</v>
+      </c>
+      <c r="L24" t="s">
         <v>85</v>
       </c>
-      <c r="J24">
+      <c r="M24">
+        <v>701.53700339999978</v>
+      </c>
+      <c r="N24">
         <v>916.32674868129936</v>
       </c>
-      <c r="K24" t="s">
-        <v>86</v>
-      </c>
-      <c r="L24">
-        <v>701.53700339999978</v>
-      </c>
-      <c r="M24">
-        <v>916.32674868129936</v>
-      </c>
-      <c r="N24" s="4">
+      <c r="O24" s="8">
+        <f t="shared" si="3"/>
+        <v>0.14296900962132977</v>
+      </c>
+      <c r="P24" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>15</v>
       </c>
@@ -5214,31 +5427,38 @@
       <c r="F25">
         <v>520620</v>
       </c>
-      <c r="G25" s="6" t="s">
+      <c r="G25" s="3">
+        <v>1003.760132766</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="I25" s="7"/>
+      <c r="J25" t="s">
         <v>87</v>
       </c>
-      <c r="H25" s="7"/>
-      <c r="I25" t="s">
+      <c r="K25">
+        <v>1139.100511867154</v>
+      </c>
+      <c r="L25" t="s">
         <v>88</v>
       </c>
-      <c r="J25">
+      <c r="M25">
+        <v>583.48621159999948</v>
+      </c>
+      <c r="N25">
         <v>1139.100511867154</v>
       </c>
-      <c r="K25" t="s">
-        <v>89</v>
-      </c>
-      <c r="L25">
-        <v>583.48621159999948</v>
-      </c>
-      <c r="M25">
-        <v>1139.100511867154</v>
-      </c>
-      <c r="N25" s="4">
+      <c r="O25" s="8">
+        <f t="shared" si="3"/>
+        <v>0.13483338766225436</v>
+      </c>
+      <c r="P25" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>15</v>
       </c>
@@ -5259,31 +5479,38 @@
       <c r="F26">
         <v>79067</v>
       </c>
-      <c r="G26" s="6" t="s">
+      <c r="G26" s="3">
+        <v>826.18978593300005</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="I26" s="7"/>
+      <c r="J26" t="s">
         <v>90</v>
       </c>
-      <c r="H26" s="7"/>
-      <c r="I26" t="s">
+      <c r="K26">
+        <v>1026.542152900709</v>
+      </c>
+      <c r="L26" t="s">
         <v>91</v>
       </c>
-      <c r="J26">
+      <c r="M26">
+        <v>892.96981309999865</v>
+      </c>
+      <c r="N26">
         <v>1026.542152900709</v>
       </c>
-      <c r="K26" t="s">
-        <v>92</v>
-      </c>
-      <c r="L26">
-        <v>892.96981309999865</v>
-      </c>
-      <c r="M26">
-        <v>1026.542152900709</v>
-      </c>
-      <c r="N26" s="4">
+      <c r="O26" s="8">
+        <f t="shared" si="3"/>
+        <v>0.24250162659836672</v>
+      </c>
+      <c r="P26" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>15</v>
       </c>
@@ -5304,31 +5531,38 @@
       <c r="F27">
         <v>15668</v>
       </c>
-      <c r="G27" s="6" t="s">
+      <c r="G27" s="3">
+        <v>1067.862157347</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="I27" s="7"/>
+      <c r="J27" t="s">
         <v>93</v>
       </c>
-      <c r="H27" s="7"/>
-      <c r="I27" t="s">
+      <c r="K27">
+        <v>1204.045683633422</v>
+      </c>
+      <c r="L27" t="s">
         <v>94</v>
       </c>
-      <c r="J27">
+      <c r="M27">
+        <v>630.24923900000067</v>
+      </c>
+      <c r="N27">
         <v>1204.045683633422</v>
       </c>
-      <c r="K27" t="s">
-        <v>95</v>
-      </c>
-      <c r="L27">
-        <v>630.24923900000067</v>
-      </c>
-      <c r="M27">
-        <v>1204.045683633422</v>
-      </c>
-      <c r="N27" s="4">
+      <c r="O27" s="8">
+        <f t="shared" si="3"/>
+        <v>0.12752912475591113</v>
+      </c>
+      <c r="P27" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>15</v>
       </c>
@@ -5349,31 +5583,38 @@
       <c r="F28">
         <v>72924</v>
       </c>
-      <c r="G28" s="6" t="s">
+      <c r="G28" s="3">
+        <v>924.42118022199998</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="I28" s="7"/>
+      <c r="J28" t="s">
         <v>96</v>
       </c>
-      <c r="H28" s="7"/>
-      <c r="I28" t="s">
+      <c r="K28">
+        <v>1102.417321416543</v>
+      </c>
+      <c r="L28" t="s">
         <v>97</v>
       </c>
-      <c r="J28">
-        <v>1102.417321416543</v>
-      </c>
-      <c r="K28" t="s">
-        <v>98</v>
-      </c>
-      <c r="L28">
+      <c r="M28">
         <v>1224.071597600001</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <v>1175.4004660916421</v>
       </c>
-      <c r="N28" s="4">
+      <c r="O28" s="8">
+        <f t="shared" si="3"/>
+        <v>0.27149884840302924</v>
+      </c>
+      <c r="P28" s="4">
         <f t="shared" si="2"/>
         <v>6.6202828327588253E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>15</v>
       </c>
@@ -5394,31 +5635,38 @@
       <c r="F29">
         <v>7998</v>
       </c>
-      <c r="G29" s="6" t="s">
+      <c r="G29" s="3">
+        <v>778.89360681400001</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="I29" s="7"/>
+      <c r="J29" t="s">
         <v>99</v>
       </c>
-      <c r="H29" s="7"/>
-      <c r="I29" t="s">
+      <c r="K29">
+        <v>1053.107964725544</v>
+      </c>
+      <c r="L29" t="s">
         <v>100</v>
       </c>
-      <c r="J29">
-        <v>1053.1063034427791</v>
-      </c>
-      <c r="K29" t="s">
-        <v>101</v>
-      </c>
-      <c r="L29">
-        <v>544.41398100000151</v>
-      </c>
       <c r="M29">
+        <v>512.58852750000005</v>
+      </c>
+      <c r="N29">
         <v>841.42993112169711</v>
       </c>
-      <c r="N29" s="4">
+      <c r="O29" s="8">
+        <f t="shared" si="3"/>
+        <v>8.0288660428857253E-2</v>
+      </c>
+      <c r="P29" s="4">
         <f t="shared" si="2"/>
-        <v>-0.20100190420385564</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>-0.20100316462710771</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>15</v>
       </c>
@@ -5439,31 +5687,38 @@
       <c r="F30">
         <v>18387</v>
       </c>
-      <c r="G30" s="6" t="s">
+      <c r="G30" s="3">
+        <v>1157.0368080420001</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="I30" s="7"/>
+      <c r="J30" t="s">
         <v>102</v>
       </c>
-      <c r="H30" s="7"/>
-      <c r="I30" t="s">
+      <c r="K30">
+        <v>1286.4102607775251</v>
+      </c>
+      <c r="L30" t="s">
         <v>103</v>
       </c>
-      <c r="J30">
-        <v>1286.4102607775251</v>
-      </c>
-      <c r="K30" t="s">
-        <v>104</v>
-      </c>
-      <c r="L30">
+      <c r="M30">
         <v>868.00867970000036</v>
       </c>
-      <c r="M30">
+      <c r="N30">
         <v>1323.487054912182</v>
       </c>
-      <c r="N30" s="4">
+      <c r="O30" s="8">
+        <f t="shared" si="3"/>
+        <v>0.14385907666313397</v>
+      </c>
+      <c r="P30" s="4">
         <f t="shared" si="2"/>
         <v>2.8821904850360212E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>15</v>
       </c>
@@ -5484,31 +5739,38 @@
       <c r="F31">
         <v>81641</v>
       </c>
-      <c r="G31" s="6" t="s">
+      <c r="G31" s="3">
+        <v>739.53477113099996</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="I31" s="7"/>
+      <c r="J31" t="s">
         <v>105</v>
       </c>
-      <c r="H31" s="7"/>
-      <c r="I31" t="s">
+      <c r="K31">
+        <v>856.80458072890463</v>
+      </c>
+      <c r="L31" t="s">
         <v>106</v>
       </c>
-      <c r="J31">
+      <c r="M31">
+        <v>463.10816349999908</v>
+      </c>
+      <c r="N31">
         <v>856.80458072890463</v>
       </c>
-      <c r="K31" t="s">
-        <v>107</v>
-      </c>
-      <c r="L31">
-        <v>463.10816349999908</v>
-      </c>
-      <c r="M31">
-        <v>856.80458072890463</v>
-      </c>
-      <c r="N31" s="4">
+      <c r="O31" s="8">
+        <f t="shared" si="3"/>
+        <v>0.15857240818921778</v>
+      </c>
+      <c r="P31" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>9</v>
       </c>
@@ -5529,31 +5791,38 @@
       <c r="F32">
         <v>13318</v>
       </c>
-      <c r="G32" s="6" t="s">
+      <c r="G32" s="3">
+        <v>572.08350842100003</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="I32" s="7"/>
+      <c r="J32" t="s">
         <v>108</v>
       </c>
-      <c r="H32" s="7"/>
-      <c r="I32" t="s">
+      <c r="K32">
+        <v>724.48711326831585</v>
+      </c>
+      <c r="L32" t="s">
         <v>109</v>
       </c>
-      <c r="J32">
-        <v>724.48711326831585</v>
-      </c>
-      <c r="K32" t="s">
-        <v>110</v>
-      </c>
-      <c r="L32">
+      <c r="M32">
         <v>309.14720440000002</v>
       </c>
-      <c r="M32">
+      <c r="N32">
         <v>753.23582552852463</v>
       </c>
-      <c r="N32" s="4">
+      <c r="O32" s="8">
+        <f t="shared" si="3"/>
+        <v>0.31665362563504174</v>
+      </c>
+      <c r="P32" s="4">
         <f t="shared" si="2"/>
         <v>3.9681468080939641E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>9</v>
       </c>
@@ -5574,31 +5843,38 @@
       <c r="F33">
         <v>1909</v>
       </c>
-      <c r="G33" s="6" t="s">
+      <c r="G33" s="3">
+        <v>845.52345453600003</v>
+      </c>
+      <c r="H33" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="I33" s="7"/>
+      <c r="J33" t="s">
         <v>111</v>
       </c>
-      <c r="H33" s="7"/>
-      <c r="I33" t="s">
+      <c r="K33">
+        <v>1024.350870524725</v>
+      </c>
+      <c r="L33" t="s">
         <v>112</v>
       </c>
-      <c r="J33">
+      <c r="M33">
+        <v>270.34894500000001</v>
+      </c>
+      <c r="N33">
         <v>1024.350870524725</v>
       </c>
-      <c r="K33" t="s">
-        <v>113</v>
-      </c>
-      <c r="L33">
-        <v>270.34894500000001</v>
-      </c>
-      <c r="M33">
-        <v>1024.350870524725</v>
-      </c>
-      <c r="N33" s="4">
+      <c r="O33" s="8">
+        <f t="shared" si="3"/>
+        <v>0.21149906017315689</v>
+      </c>
+      <c r="P33" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>9</v>
       </c>
@@ -5609,41 +5885,48 @@
         <v>3</v>
       </c>
       <c r="D34">
-        <f t="shared" ref="D34:D65" si="3">E34/60</f>
+        <f t="shared" ref="D34:D61" si="4">E34/60</f>
         <v>0.43746666666666667</v>
       </c>
       <c r="E34">
-        <f t="shared" ref="E34:E65" si="4">F34/1000</f>
+        <f t="shared" ref="E34:E61" si="5">F34/1000</f>
         <v>26.248000000000001</v>
       </c>
       <c r="F34">
         <v>26248</v>
       </c>
-      <c r="G34" s="6" t="s">
+      <c r="G34" s="3">
+        <v>727.03140475500004</v>
+      </c>
+      <c r="H34" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="I34" s="7"/>
+      <c r="J34" t="s">
         <v>114</v>
       </c>
-      <c r="H34" s="7"/>
-      <c r="I34" t="s">
+      <c r="K34">
+        <v>866.88826321288798</v>
+      </c>
+      <c r="L34" t="s">
         <v>115</v>
       </c>
-      <c r="J34">
-        <v>866.88826321288798</v>
-      </c>
-      <c r="K34" t="s">
-        <v>116</v>
-      </c>
-      <c r="L34">
+      <c r="M34">
         <v>420.53963870000013</v>
       </c>
-      <c r="M34">
+      <c r="N34">
         <v>883.13909655706368</v>
       </c>
-      <c r="N34" s="4">
-        <f t="shared" ref="N34:N65" si="5">(M34-J34)/J34</f>
+      <c r="O34" s="8">
+        <f t="shared" si="3"/>
+        <v>0.21471932406368316</v>
+      </c>
+      <c r="P34" s="4">
+        <f t="shared" ref="P34:P61" si="6">(N34-K34)/K34</f>
         <v>1.8746168374625772E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>9</v>
       </c>
@@ -5654,41 +5937,48 @@
         <v>4</v>
       </c>
       <c r="D35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.7483333333333334E-2</v>
       </c>
       <c r="E35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.2490000000000001</v>
       </c>
       <c r="F35">
         <v>2249</v>
       </c>
-      <c r="G35" s="6" t="s">
+      <c r="G35" s="3">
+        <v>694.66514945300003</v>
+      </c>
+      <c r="H35" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="I35" s="7"/>
+      <c r="J35" t="s">
         <v>117</v>
       </c>
-      <c r="H35" s="7"/>
-      <c r="I35" t="s">
+      <c r="K35">
+        <v>931.91447117107839</v>
+      </c>
+      <c r="L35" t="s">
         <v>118</v>
       </c>
-      <c r="J35">
-        <v>931.91447117107839</v>
-      </c>
-      <c r="K35" t="s">
-        <v>119</v>
-      </c>
-      <c r="L35">
+      <c r="M35">
         <v>305.86990820000028</v>
       </c>
-      <c r="M35">
+      <c r="N35">
         <v>854.4762539967021</v>
       </c>
-      <c r="N35" s="4">
-        <f t="shared" si="5"/>
+      <c r="O35" s="8">
+        <f t="shared" si="3"/>
+        <v>0.2300548756037957</v>
+      </c>
+      <c r="P35" s="4">
+        <f t="shared" si="6"/>
         <v>-8.3095841485393548E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>9</v>
       </c>
@@ -5699,41 +5989,48 @@
         <v>5</v>
       </c>
       <c r="D36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9.9099999999999994E-2</v>
       </c>
       <c r="E36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5.9459999999999997</v>
       </c>
       <c r="F36">
         <v>5946</v>
       </c>
-      <c r="G36" s="6" t="s">
+      <c r="G36" s="3">
+        <v>1889.1056551439999</v>
+      </c>
+      <c r="H36" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="I36" s="7"/>
+      <c r="J36" t="s">
         <v>120</v>
       </c>
-      <c r="H36" s="7"/>
-      <c r="I36" t="s">
+      <c r="K36">
+        <v>2241.8070119030758</v>
+      </c>
+      <c r="L36" t="s">
         <v>121</v>
       </c>
-      <c r="J36">
-        <v>2241.807068141215</v>
-      </c>
-      <c r="K36" t="s">
-        <v>122</v>
-      </c>
-      <c r="L36">
-        <v>316.42438950000002</v>
-      </c>
       <c r="M36">
+        <v>313.06204529999991</v>
+      </c>
+      <c r="N36">
         <v>1133.0187938159579</v>
       </c>
-      <c r="N36" s="4">
-        <f t="shared" si="5"/>
-        <v>-0.49459576164357638</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O36" s="8">
+        <f t="shared" si="3"/>
+        <v>-0.40023534907601988</v>
+      </c>
+      <c r="P36" s="4">
+        <f t="shared" si="6"/>
+        <v>-0.49459574896496766</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>9</v>
       </c>
@@ -5744,41 +6041,48 @@
         <v>6</v>
       </c>
       <c r="D37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.17830000000000001</v>
       </c>
       <c r="E37">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10.698</v>
       </c>
       <c r="F37">
         <v>10698</v>
       </c>
-      <c r="G37" s="6" t="s">
+      <c r="G37" s="3">
+        <v>1064.370043632</v>
+      </c>
+      <c r="H37" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="I37" s="7"/>
+      <c r="J37" t="s">
         <v>123</v>
       </c>
-      <c r="H37" s="7"/>
-      <c r="I37" t="s">
+      <c r="K37">
+        <v>1326.10584170281</v>
+      </c>
+      <c r="L37" t="s">
         <v>124</v>
       </c>
-      <c r="J37">
-        <v>1326.10584170281</v>
-      </c>
-      <c r="K37" t="s">
-        <v>125</v>
-      </c>
-      <c r="L37">
+      <c r="M37">
         <v>388.58196549999963</v>
       </c>
-      <c r="M37">
+      <c r="N37">
         <v>1401.748026361061</v>
       </c>
-      <c r="N37" s="4">
-        <f t="shared" si="5"/>
+      <c r="O37" s="8">
+        <f t="shared" si="3"/>
+        <v>0.31697433119952356</v>
+      </c>
+      <c r="P37" s="4">
+        <f t="shared" si="6"/>
         <v>5.7040835112468262E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>9</v>
       </c>
@@ -5789,38 +6093,48 @@
         <v>7</v>
       </c>
       <c r="D38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.11051666666666667</v>
       </c>
       <c r="E38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.6310000000000002</v>
       </c>
       <c r="F38">
         <v>6631</v>
       </c>
-      <c r="G38" s="6" t="s">
+      <c r="G38" s="3">
+        <v>484.16209789700002</v>
+      </c>
+      <c r="H38" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="I38" s="7"/>
+      <c r="J38" t="s">
         <v>126</v>
       </c>
-      <c r="H38" s="7"/>
-      <c r="I38" t="s">
+      <c r="K38">
+        <v>622.21807644280557</v>
+      </c>
+      <c r="L38" t="s">
         <v>127</v>
       </c>
-      <c r="J38">
+      <c r="M38">
+        <v>262.60945120000002</v>
+      </c>
+      <c r="N38">
         <v>622.21807644280557</v>
       </c>
-      <c r="L38">
-        <v>399.54162879999973</v>
-      </c>
-      <c r="M38">
+      <c r="O38" s="8">
+        <f t="shared" si="3"/>
+        <v>0.28514412661681621</v>
+      </c>
+      <c r="P38" s="4">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="N38" s="4">
-        <f t="shared" si="5"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>9</v>
       </c>
@@ -5831,41 +6145,48 @@
         <v>8</v>
       </c>
       <c r="D39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.38350000000000001</v>
       </c>
       <c r="E39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>23.01</v>
       </c>
       <c r="F39">
         <v>23010</v>
       </c>
-      <c r="G39" s="6" t="s">
+      <c r="G39" s="3">
+        <v>892.84735411600002</v>
+      </c>
+      <c r="H39" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="H39" s="7"/>
-      <c r="I39" t="s">
+      <c r="I39" s="7"/>
+      <c r="J39" t="s">
         <v>129</v>
       </c>
-      <c r="J39">
+      <c r="K39">
         <v>988.08515815373653</v>
       </c>
-      <c r="K39" t="s">
+      <c r="L39" t="s">
         <v>130</v>
       </c>
-      <c r="L39">
+      <c r="M39">
         <v>276.81299589999981</v>
       </c>
-      <c r="M39">
+      <c r="N39">
         <v>987.84311063723396</v>
       </c>
-      <c r="N39" s="4">
-        <f t="shared" si="5"/>
+      <c r="O39" s="8">
+        <f t="shared" si="3"/>
+        <v>0.10639641376916928</v>
+      </c>
+      <c r="P39" s="4">
+        <f t="shared" si="6"/>
         <v>-2.4496625063657329E-4</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>9</v>
       </c>
@@ -5876,41 +6197,48 @@
         <v>9</v>
       </c>
       <c r="D40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.20924999999999999</v>
       </c>
       <c r="E40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>12.555</v>
       </c>
       <c r="F40">
         <v>12555</v>
       </c>
-      <c r="G40" s="6" t="s">
+      <c r="G40" s="3">
+        <v>1150.946320584</v>
+      </c>
+      <c r="H40" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="H40" s="7"/>
-      <c r="I40" t="s">
+      <c r="I40" s="7"/>
+      <c r="J40" t="s">
         <v>132</v>
       </c>
-      <c r="J40">
-        <v>1367.2770599111541</v>
-      </c>
-      <c r="K40" t="s">
+      <c r="K40">
+        <v>1367.440463239961</v>
+      </c>
+      <c r="L40" t="s">
         <v>133</v>
       </c>
-      <c r="L40">
-        <v>297.8125940000009</v>
-      </c>
       <c r="M40">
+        <v>292.52337729999999</v>
+      </c>
+      <c r="N40">
         <v>1175.4149018879809</v>
       </c>
-      <c r="N40" s="4">
-        <f t="shared" si="5"/>
-        <v>-0.14032427197721023</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O40" s="8">
+        <f t="shared" si="3"/>
+        <v>2.1259533017634905E-2</v>
+      </c>
+      <c r="P40" s="4">
+        <f t="shared" si="6"/>
+        <v>-0.14042699957627555</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>9</v>
       </c>
@@ -5921,41 +6249,48 @@
         <v>10</v>
       </c>
       <c r="D41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.10779999999999999</v>
       </c>
       <c r="E41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.468</v>
       </c>
       <c r="F41">
         <v>6468</v>
       </c>
-      <c r="G41" s="6" t="s">
+      <c r="G41" s="3">
+        <v>1059.4930977900001</v>
+      </c>
+      <c r="H41" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="H41" s="7"/>
-      <c r="I41" t="s">
+      <c r="I41" s="7"/>
+      <c r="J41" t="s">
         <v>135</v>
       </c>
-      <c r="J41">
+      <c r="K41">
         <v>1198.896614545255</v>
       </c>
-      <c r="K41" t="s">
+      <c r="L41" t="s">
         <v>136</v>
       </c>
-      <c r="L41">
+      <c r="M41">
         <v>293.25066800000059</v>
       </c>
-      <c r="M41">
+      <c r="N41">
         <v>1171.163514436588</v>
       </c>
-      <c r="N41" s="4">
-        <f t="shared" si="5"/>
+      <c r="O41" s="8">
+        <f t="shared" si="3"/>
+        <v>0.10539985289146439</v>
+      </c>
+      <c r="P41" s="4">
+        <f t="shared" si="6"/>
         <v>-2.3132186522343529E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>12</v>
       </c>
@@ -5966,41 +6301,48 @@
         <v>1</v>
       </c>
       <c r="D42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.5835833333333333</v>
       </c>
       <c r="E42">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>95.015000000000001</v>
       </c>
       <c r="F42">
         <v>95015</v>
       </c>
-      <c r="G42" s="6" t="s">
+      <c r="G42" s="3">
+        <v>2213.465318176</v>
+      </c>
+      <c r="H42" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="H42" s="7"/>
-      <c r="I42" t="s">
+      <c r="I42" s="7"/>
+      <c r="J42" t="s">
         <v>138</v>
       </c>
-      <c r="J42">
-        <v>3155.4945885752991</v>
-      </c>
-      <c r="K42" t="s">
+      <c r="K42">
+        <v>3155.4959845611638</v>
+      </c>
+      <c r="L42" t="s">
         <v>139</v>
       </c>
-      <c r="L42">
-        <v>418.98603239999829</v>
-      </c>
       <c r="M42">
+        <v>400.67131690000002</v>
+      </c>
+      <c r="N42">
         <v>1035.407331022036</v>
       </c>
-      <c r="N42" s="4">
-        <f t="shared" si="5"/>
-        <v>-0.67187161886735458</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O42" s="8">
+        <f t="shared" si="3"/>
+        <v>-0.532223377290022</v>
+      </c>
+      <c r="P42" s="4">
+        <f t="shared" si="6"/>
+        <v>-0.67187176403077231</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>12</v>
       </c>
@@ -6011,41 +6353,48 @@
         <v>2</v>
       </c>
       <c r="D43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.50076666666666669</v>
       </c>
       <c r="E43">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>30.045999999999999</v>
       </c>
       <c r="F43">
         <v>30046</v>
       </c>
-      <c r="G43" s="6" t="s">
+      <c r="G43" s="3">
+        <v>884.48240144600004</v>
+      </c>
+      <c r="H43" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="H43" s="7"/>
-      <c r="I43" t="s">
+      <c r="I43" s="7"/>
+      <c r="J43" t="s">
         <v>141</v>
       </c>
-      <c r="J43">
+      <c r="K43">
         <v>1013.155546866768</v>
       </c>
-      <c r="K43" t="s">
+      <c r="L43" t="s">
         <v>142</v>
       </c>
-      <c r="L43">
+      <c r="M43">
         <v>446.54841970000052</v>
       </c>
-      <c r="M43">
+      <c r="N43">
         <v>1105.841482055037</v>
       </c>
-      <c r="N43" s="4">
-        <f t="shared" si="5"/>
+      <c r="O43" s="8">
+        <f t="shared" si="3"/>
+        <v>0.25026962689946919</v>
+      </c>
+      <c r="P43" s="4">
+        <f t="shared" si="6"/>
         <v>9.1482433743668198E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>12</v>
       </c>
@@ -6056,41 +6405,48 @@
         <v>3</v>
       </c>
       <c r="D44">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.9406166666666667</v>
       </c>
       <c r="E44">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>176.43700000000001</v>
       </c>
       <c r="F44">
         <v>176437</v>
       </c>
-      <c r="G44" s="6" t="s">
+      <c r="G44" s="3">
+        <v>773.75507863300004</v>
+      </c>
+      <c r="H44" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="H44" s="7"/>
-      <c r="I44" t="s">
+      <c r="I44" s="7"/>
+      <c r="J44" t="s">
         <v>144</v>
       </c>
-      <c r="J44">
+      <c r="K44">
         <v>977.17357619100812</v>
       </c>
-      <c r="K44" t="s">
+      <c r="L44" t="s">
         <v>145</v>
       </c>
-      <c r="L44">
+      <c r="M44">
         <v>415.29174580000108</v>
       </c>
-      <c r="M44">
+      <c r="N44">
         <v>977.17357619100812</v>
       </c>
-      <c r="N44" s="4">
-        <f t="shared" si="5"/>
+      <c r="O44" s="8">
+        <f t="shared" si="3"/>
+        <v>0.2628977866192353</v>
+      </c>
+      <c r="P44" s="4">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>12</v>
       </c>
@@ -6101,41 +6457,48 @@
         <v>4</v>
       </c>
       <c r="D45">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.2503166666666667</v>
       </c>
       <c r="E45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>75.019000000000005</v>
       </c>
       <c r="F45">
         <v>75019</v>
       </c>
-      <c r="G45" s="6" t="s">
+      <c r="G45" s="3">
+        <v>835.71515105499998</v>
+      </c>
+      <c r="H45" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="H45" s="7"/>
-      <c r="I45" t="s">
+      <c r="I45" s="7"/>
+      <c r="J45" t="s">
         <v>147</v>
       </c>
-      <c r="J45">
+      <c r="K45">
         <v>1012.611449136446</v>
       </c>
-      <c r="K45" t="s">
+      <c r="L45" t="s">
         <v>148</v>
       </c>
-      <c r="L45">
+      <c r="M45">
         <v>640.17047660000026</v>
       </c>
-      <c r="M45">
+      <c r="N45">
         <v>1012.611449136445</v>
       </c>
-      <c r="N45" s="4">
-        <f t="shared" si="5"/>
+      <c r="O45" s="8">
+        <f t="shared" si="3"/>
+        <v>0.21167056485470268</v>
+      </c>
+      <c r="P45" s="4">
+        <f t="shared" si="6"/>
         <v>-1.0104384464219839E-15</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>12</v>
       </c>
@@ -6146,41 +6509,48 @@
         <v>5</v>
       </c>
       <c r="D46">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.67005000000000003</v>
       </c>
       <c r="E46">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>40.203000000000003</v>
       </c>
       <c r="F46">
         <v>40203</v>
       </c>
-      <c r="G46" s="6" t="s">
+      <c r="G46" s="3">
+        <v>1196.8098017689999</v>
+      </c>
+      <c r="H46" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="H46" s="7"/>
-      <c r="I46" t="s">
+      <c r="I46" s="7"/>
+      <c r="J46" t="s">
         <v>150</v>
       </c>
-      <c r="J46">
+      <c r="K46">
         <v>1401.6565058130111</v>
       </c>
-      <c r="K46" t="s">
+      <c r="L46" t="s">
         <v>151</v>
       </c>
-      <c r="L46">
-        <v>729.52997780000078</v>
-      </c>
       <c r="M46">
+        <v>537.69722689999981</v>
+      </c>
+      <c r="N46">
         <v>1207.078493999617</v>
       </c>
-      <c r="N46" s="4">
-        <f t="shared" si="5"/>
+      <c r="O46" s="8">
+        <f t="shared" si="3"/>
+        <v>8.5800535853223468E-3</v>
+      </c>
+      <c r="P46" s="4">
+        <f t="shared" si="6"/>
         <v>-0.13882003972188028</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>12</v>
       </c>
@@ -6191,41 +6561,48 @@
         <v>6</v>
       </c>
       <c r="D47">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.22886666666666666</v>
       </c>
       <c r="E47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>13.731999999999999</v>
       </c>
       <c r="F47">
         <v>13732</v>
       </c>
-      <c r="G47" s="6" t="s">
+      <c r="G47" s="3">
+        <v>597.19418764500006</v>
+      </c>
+      <c r="H47" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="H47" s="7"/>
-      <c r="I47" t="s">
+      <c r="I47" s="7"/>
+      <c r="J47" t="s">
         <v>153</v>
       </c>
-      <c r="J47">
+      <c r="K47">
         <v>799.14062349535777</v>
       </c>
-      <c r="K47" t="s">
+      <c r="L47" t="s">
         <v>154</v>
       </c>
-      <c r="L47">
+      <c r="M47">
         <v>405.30707930000062</v>
       </c>
-      <c r="M47">
+      <c r="N47">
         <v>799.14062349535777</v>
       </c>
-      <c r="N47" s="4">
-        <f t="shared" si="5"/>
+      <c r="O47" s="8">
+        <f t="shared" si="3"/>
+        <v>0.33815874304926097</v>
+      </c>
+      <c r="P47" s="4">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>12</v>
       </c>
@@ -6236,41 +6613,48 @@
         <v>7</v>
       </c>
       <c r="D48">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.28701666666666664</v>
       </c>
       <c r="E48">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>17.221</v>
       </c>
       <c r="F48">
         <v>17221</v>
       </c>
-      <c r="G48" s="6" t="s">
+      <c r="G48" s="3">
+        <v>663.31653632799998</v>
+      </c>
+      <c r="H48" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="H48" s="7"/>
-      <c r="I48" t="s">
+      <c r="I48" s="7"/>
+      <c r="J48" t="s">
         <v>156</v>
       </c>
-      <c r="J48">
+      <c r="K48">
         <v>873.69244502127435</v>
       </c>
-      <c r="K48" t="s">
+      <c r="L48" t="s">
         <v>157</v>
       </c>
-      <c r="L48">
+      <c r="M48">
         <v>679.35048359999928</v>
       </c>
-      <c r="M48">
+      <c r="N48">
         <v>873.05605380381769</v>
       </c>
-      <c r="N48" s="4">
-        <f t="shared" si="5"/>
+      <c r="O48" s="8">
+        <f t="shared" si="3"/>
+        <v>0.31619823415966325</v>
+      </c>
+      <c r="P48" s="4">
+        <f t="shared" si="6"/>
         <v>-7.2839272112644406E-4</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>12</v>
       </c>
@@ -6281,41 +6665,48 @@
         <v>8</v>
       </c>
       <c r="D49">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.43863333333333338</v>
       </c>
       <c r="E49">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>26.318000000000001</v>
       </c>
       <c r="F49">
         <v>26318</v>
       </c>
-      <c r="G49" s="6" t="s">
+      <c r="G49" s="3">
+        <v>1117.1817261159999</v>
+      </c>
+      <c r="H49" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="H49" s="7"/>
-      <c r="I49" t="s">
+      <c r="I49" s="7"/>
+      <c r="J49" t="s">
         <v>159</v>
       </c>
-      <c r="J49">
+      <c r="K49">
         <v>1289.1298271084211</v>
       </c>
-      <c r="K49" t="s">
+      <c r="L49" t="s">
         <v>160</v>
       </c>
-      <c r="L49">
+      <c r="M49">
         <v>449.06065099999978</v>
       </c>
-      <c r="M49">
+      <c r="N49">
         <v>1289.1298271084211</v>
       </c>
-      <c r="N49" s="4">
-        <f t="shared" si="5"/>
+      <c r="O49" s="8">
+        <f t="shared" si="3"/>
+        <v>0.15391238235718091</v>
+      </c>
+      <c r="P49" s="4">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>12</v>
       </c>
@@ -6326,41 +6717,48 @@
         <v>9</v>
       </c>
       <c r="D50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.0832000000000002</v>
       </c>
       <c r="E50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>64.992000000000004</v>
       </c>
       <c r="F50">
         <v>64992</v>
       </c>
-      <c r="G50" s="6" t="s">
+      <c r="G50" s="3">
+        <v>958.651706322</v>
+      </c>
+      <c r="H50" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="H50" s="7"/>
-      <c r="I50" t="s">
+      <c r="I50" s="7"/>
+      <c r="J50" t="s">
         <v>162</v>
       </c>
-      <c r="J50">
+      <c r="K50">
         <v>1088.708858004286</v>
       </c>
-      <c r="K50" t="s">
+      <c r="L50" t="s">
         <v>163</v>
       </c>
-      <c r="L50">
+      <c r="M50">
         <v>400.13931310000038</v>
       </c>
-      <c r="M50">
+      <c r="N50">
         <v>1132.2410789061589</v>
       </c>
-      <c r="N50" s="4">
-        <f t="shared" si="5"/>
+      <c r="O50" s="8">
+        <f t="shared" si="3"/>
+        <v>0.18107658020049699</v>
+      </c>
+      <c r="P50" s="4">
+        <f t="shared" si="6"/>
         <v>3.9985181145372466E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>12</v>
       </c>
@@ -6371,41 +6769,48 @@
         <v>10</v>
       </c>
       <c r="D51">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.4511166666666666</v>
       </c>
       <c r="E51">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>327.06700000000001</v>
       </c>
       <c r="F51">
         <v>327067</v>
       </c>
-      <c r="G51" s="6" t="s">
+      <c r="G51" s="3">
+        <v>1054.082647881</v>
+      </c>
+      <c r="H51" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="H51" s="7"/>
-      <c r="I51" t="s">
+      <c r="I51" s="7"/>
+      <c r="J51" t="s">
         <v>165</v>
       </c>
-      <c r="J51">
+      <c r="K51">
         <v>1230.788478416772</v>
       </c>
-      <c r="K51" t="s">
+      <c r="L51" t="s">
         <v>166</v>
       </c>
-      <c r="L51">
+      <c r="M51">
         <v>462.89721049999929</v>
       </c>
-      <c r="M51">
+      <c r="N51">
         <v>1230.7884784167711</v>
       </c>
-      <c r="N51" s="4">
-        <f t="shared" si="5"/>
+      <c r="O51" s="8">
+        <f t="shared" si="3"/>
+        <v>0.16763944543722367</v>
+      </c>
+      <c r="P51" s="4">
+        <f t="shared" si="6"/>
         <v>-7.3895288891789039E-16</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>15</v>
       </c>
@@ -6416,41 +6821,48 @@
         <v>1</v>
       </c>
       <c r="D52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.9801833333333336</v>
       </c>
       <c r="E52">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>178.81100000000001</v>
       </c>
       <c r="F52">
         <v>178811</v>
       </c>
-      <c r="G52" s="6" t="s">
+      <c r="G52" s="3">
+        <v>810.90597523600002</v>
+      </c>
+      <c r="H52" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="H52" s="7"/>
-      <c r="I52" t="s">
+      <c r="I52" s="7"/>
+      <c r="J52" t="s">
         <v>168</v>
       </c>
-      <c r="J52">
+      <c r="K52">
         <v>962.34315919796416</v>
       </c>
-      <c r="K52" t="s">
+      <c r="L52" t="s">
         <v>169</v>
       </c>
-      <c r="L52">
+      <c r="M52">
         <v>641.09922839999854</v>
       </c>
-      <c r="M52">
+      <c r="N52">
         <v>962.34315919796416</v>
       </c>
-      <c r="N52" s="4">
-        <f t="shared" si="5"/>
+      <c r="O52" s="8">
+        <f t="shared" si="3"/>
+        <v>0.18675060806882202</v>
+      </c>
+      <c r="P52" s="4">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>15</v>
       </c>
@@ -6461,41 +6873,48 @@
         <v>2</v>
       </c>
       <c r="D53">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.0230833333333331</v>
       </c>
       <c r="E53">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>181.38499999999999</v>
       </c>
       <c r="F53">
         <v>181385</v>
       </c>
-      <c r="G53" s="6" t="s">
+      <c r="G53" s="3">
+        <v>990.66466418100003</v>
+      </c>
+      <c r="H53" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="H53" s="7"/>
-      <c r="I53" t="s">
+      <c r="I53" s="7"/>
+      <c r="J53" t="s">
         <v>171</v>
       </c>
-      <c r="J53">
+      <c r="K53">
         <v>1153.558670195504</v>
       </c>
-      <c r="K53" t="s">
+      <c r="L53" t="s">
         <v>172</v>
       </c>
-      <c r="L53">
+      <c r="M53">
         <v>1800.0106947999991</v>
       </c>
-      <c r="M53">
+      <c r="N53">
         <v>1167.912269342434</v>
       </c>
-      <c r="N53" s="4">
-        <f t="shared" si="5"/>
+      <c r="O53" s="8">
+        <f t="shared" si="3"/>
+        <v>0.17891786350123601</v>
+      </c>
+      <c r="P53" s="4">
+        <f t="shared" si="6"/>
         <v>1.2442886103484796E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>15</v>
       </c>
@@ -6506,41 +6925,48 @@
         <v>3</v>
       </c>
       <c r="D54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.23050000000000001</v>
       </c>
       <c r="E54">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>13.83</v>
       </c>
       <c r="F54">
         <v>13830</v>
       </c>
-      <c r="G54" s="6" t="s">
+      <c r="G54" s="3">
+        <v>816.442220013</v>
+      </c>
+      <c r="H54" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="H54" s="7"/>
-      <c r="I54" t="s">
+      <c r="I54" s="7"/>
+      <c r="J54" t="s">
         <v>174</v>
       </c>
-      <c r="J54">
+      <c r="K54">
         <v>975.46261747594792</v>
       </c>
-      <c r="K54" t="s">
+      <c r="L54" t="s">
         <v>175</v>
       </c>
-      <c r="L54">
+      <c r="M54">
         <v>589.63765830000193</v>
       </c>
-      <c r="M54">
+      <c r="N54">
         <v>986.5123038407138</v>
       </c>
-      <c r="N54" s="4">
-        <f t="shared" si="5"/>
+      <c r="O54" s="8">
+        <f t="shared" si="3"/>
+        <v>0.20830633161646861</v>
+      </c>
+      <c r="P54" s="4">
+        <f t="shared" si="6"/>
         <v>1.1327636925090395E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>15</v>
       </c>
@@ -6551,41 +6977,48 @@
         <v>4</v>
       </c>
       <c r="D55">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>31.813433333333332</v>
       </c>
       <c r="E55">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1908.806</v>
       </c>
       <c r="F55">
         <v>1908806</v>
       </c>
-      <c r="G55" s="6" t="s">
+      <c r="G55" s="3">
+        <v>1335.717997939</v>
+      </c>
+      <c r="H55" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="H55" s="7"/>
-      <c r="I55" t="s">
+      <c r="I55" s="7"/>
+      <c r="J55" t="s">
         <v>177</v>
       </c>
-      <c r="J55">
-        <v>1734.233114828321</v>
-      </c>
-      <c r="K55" t="s">
+      <c r="K55">
+        <v>1734.220435826672</v>
+      </c>
+      <c r="L55" t="s">
         <v>178</v>
       </c>
-      <c r="L55">
-        <v>722.65049179999914</v>
-      </c>
       <c r="M55">
-        <v>1479.107828259258</v>
-      </c>
-      <c r="N55" s="4">
-        <f t="shared" si="5"/>
-        <v>-0.1471112991602164</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+        <v>729.13228819999995</v>
+      </c>
+      <c r="N55">
+        <v>1479.1078282592589</v>
+      </c>
+      <c r="O55" s="8">
+        <f t="shared" si="3"/>
+        <v>0.10735037675730055</v>
+      </c>
+      <c r="P55" s="4">
+        <f t="shared" si="6"/>
+        <v>-0.14710506363385428</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>15</v>
       </c>
@@ -6596,41 +7029,48 @@
         <v>5</v>
       </c>
       <c r="D56">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.3772166666666665</v>
       </c>
       <c r="E56">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>382.63299999999998</v>
       </c>
       <c r="F56">
         <v>382633</v>
       </c>
-      <c r="G56" s="6" t="s">
+      <c r="G56" s="3">
+        <v>1235.5368964209999</v>
+      </c>
+      <c r="H56" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="H56" s="7"/>
-      <c r="I56" t="s">
+      <c r="I56" s="7"/>
+      <c r="J56" t="s">
         <v>180</v>
       </c>
-      <c r="J56">
+      <c r="K56">
         <v>1490.656141002366</v>
       </c>
-      <c r="K56" t="s">
+      <c r="L56" t="s">
         <v>181</v>
       </c>
-      <c r="L56">
+      <c r="M56">
         <v>754.21830090000003</v>
       </c>
-      <c r="M56">
+      <c r="N56">
         <v>1454.7840481513599</v>
       </c>
-      <c r="N56" s="4">
-        <f t="shared" si="5"/>
+      <c r="O56" s="8">
+        <f t="shared" si="3"/>
+        <v>0.17745091414546729</v>
+      </c>
+      <c r="P56" s="4">
+        <f t="shared" si="6"/>
         <v>-2.406463292525968E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>15</v>
       </c>
@@ -6641,41 +7081,48 @@
         <v>6</v>
       </c>
       <c r="D57">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>11.927283333333332</v>
       </c>
       <c r="E57">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>715.63699999999994</v>
       </c>
       <c r="F57">
         <v>715637</v>
       </c>
-      <c r="G57" s="6" t="s">
+      <c r="G57" s="3">
+        <v>684.84841983199999</v>
+      </c>
+      <c r="H57" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="H57" s="7"/>
-      <c r="I57" t="s">
+      <c r="I57" s="7"/>
+      <c r="J57" t="s">
         <v>183</v>
       </c>
-      <c r="J57">
+      <c r="K57">
         <v>875.64538242702918</v>
       </c>
-      <c r="K57" t="s">
+      <c r="L57" t="s">
         <v>184</v>
       </c>
-      <c r="L57">
+      <c r="M57">
         <v>843.49386729999969</v>
       </c>
-      <c r="M57">
+      <c r="N57">
         <v>834.37760121061604</v>
       </c>
-      <c r="N57" s="4">
-        <f t="shared" si="5"/>
+      <c r="O57" s="8">
+        <f t="shared" si="3"/>
+        <v>0.21833909088276354</v>
+      </c>
+      <c r="P57" s="4">
+        <f t="shared" si="6"/>
         <v>-4.7128417558750892E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>15</v>
       </c>
@@ -6686,41 +7133,48 @@
         <v>7</v>
       </c>
       <c r="D58">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.80586666666666662</v>
       </c>
       <c r="E58">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>48.351999999999997</v>
       </c>
       <c r="F58">
         <v>48352</v>
       </c>
-      <c r="G58" s="6" t="s">
+      <c r="G58" s="3">
+        <v>1042.9837969709999</v>
+      </c>
+      <c r="H58" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="H58" s="7"/>
-      <c r="I58" t="s">
+      <c r="I58" s="7"/>
+      <c r="J58" t="s">
         <v>186</v>
       </c>
-      <c r="J58">
+      <c r="K58">
         <v>1287.259466421646</v>
       </c>
-      <c r="K58" t="s">
+      <c r="L58" t="s">
         <v>187</v>
       </c>
-      <c r="L58">
+      <c r="M58">
         <v>858.84702300000208</v>
       </c>
-      <c r="M58">
+      <c r="N58">
         <v>1275.382289345094</v>
       </c>
-      <c r="N58" s="4">
-        <f t="shared" si="5"/>
+      <c r="O58" s="8">
+        <f t="shared" si="3"/>
+        <v>0.22282080800202103</v>
+      </c>
+      <c r="P58" s="4">
+        <f t="shared" si="6"/>
         <v>-9.226715659406623E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>15</v>
       </c>
@@ -6731,41 +7185,48 @@
         <v>8</v>
       </c>
       <c r="D59">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>20.862533333333332</v>
       </c>
       <c r="E59">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1251.752</v>
       </c>
       <c r="F59">
         <v>1251752</v>
       </c>
-      <c r="G59" s="6" t="s">
+      <c r="G59" s="3">
+        <v>2041.698102156</v>
+      </c>
+      <c r="H59" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="H59" s="7"/>
-      <c r="I59" t="s">
+      <c r="I59" s="7"/>
+      <c r="J59" t="s">
         <v>189</v>
       </c>
-      <c r="J59">
-        <v>2656.0957601557811</v>
-      </c>
-      <c r="K59" t="s">
+      <c r="K59">
+        <v>2656.0963028232368</v>
+      </c>
+      <c r="L59" t="s">
         <v>190</v>
       </c>
-      <c r="L59">
-        <v>1312.5918292000019</v>
-      </c>
       <c r="M59">
+        <v>692.63879940000015</v>
+      </c>
+      <c r="N59">
         <v>933.66048774492606</v>
       </c>
-      <c r="N59" s="4">
-        <f t="shared" si="5"/>
-        <v>-0.64848387556246601</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O59" s="8">
+        <f t="shared" si="3"/>
+        <v>-0.542703944937307</v>
+      </c>
+      <c r="P59" s="4">
+        <f t="shared" si="6"/>
+        <v>-0.64848394738078097</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>15</v>
       </c>
@@ -6776,41 +7237,48 @@
         <v>9</v>
       </c>
       <c r="D60">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>13.850033333333332</v>
       </c>
       <c r="E60">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>831.00199999999995</v>
       </c>
       <c r="F60">
         <v>831002</v>
       </c>
-      <c r="G60" s="6" t="s">
+      <c r="G60" s="3">
+        <v>812.48444796000001</v>
+      </c>
+      <c r="H60" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="H60" s="7"/>
-      <c r="I60" t="s">
+      <c r="I60" s="7"/>
+      <c r="J60" t="s">
         <v>192</v>
       </c>
-      <c r="J60">
+      <c r="K60">
         <v>928.10921743592348</v>
       </c>
-      <c r="K60" t="s">
+      <c r="L60" t="s">
         <v>193</v>
       </c>
-      <c r="L60">
+      <c r="M60">
         <v>676.07068479999725</v>
       </c>
-      <c r="M60">
+      <c r="N60">
         <v>948.70542409475468</v>
       </c>
-      <c r="N60" s="4">
-        <f t="shared" si="5"/>
+      <c r="O60" s="8">
+        <f t="shared" si="3"/>
+        <v>0.16765979518350246</v>
+      </c>
+      <c r="P60" s="4">
+        <f t="shared" si="6"/>
         <v>2.2191576456628771E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>15</v>
       </c>
@@ -6821,843 +7289,861 @@
         <v>10</v>
       </c>
       <c r="D61">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>463.13668333333334</v>
       </c>
       <c r="E61">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>27788.201000000001</v>
       </c>
       <c r="F61">
         <v>27788201</v>
       </c>
-      <c r="G61" s="6" t="s">
+      <c r="G61" s="3">
+        <v>1036.0607604459999</v>
+      </c>
+      <c r="H61" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="H61" s="7"/>
-      <c r="I61" t="s">
+      <c r="I61" s="7"/>
+      <c r="J61" t="s">
         <v>195</v>
       </c>
-      <c r="J61">
+      <c r="K61">
         <v>1172.042609135658</v>
       </c>
-      <c r="K61" t="s">
+      <c r="L61" t="s">
         <v>196</v>
       </c>
-      <c r="L61">
+      <c r="M61">
         <v>741.70262700000239</v>
       </c>
-      <c r="M61">
+      <c r="N61">
         <v>1212.417268828427</v>
       </c>
-      <c r="N61" s="4">
-        <f t="shared" si="5"/>
+      <c r="O61" s="8">
+        <f t="shared" si="3"/>
+        <v>0.17021830679747951</v>
+      </c>
+      <c r="P61" s="4">
+        <f t="shared" si="6"/>
         <v>3.4448115945668524E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G62" s="6"/>
-      <c r="H62" s="7"/>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G63" s="6"/>
-      <c r="H63" s="7"/>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G64" s="6"/>
-      <c r="H64" s="7"/>
-    </row>
-    <row r="65" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G65" s="6"/>
-      <c r="H65" s="7"/>
-    </row>
-    <row r="66" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G66" s="6"/>
-      <c r="H66" s="7"/>
-    </row>
-    <row r="67" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G67" s="6"/>
-      <c r="H67" s="7"/>
-    </row>
-    <row r="68" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G68" s="6"/>
-      <c r="H68" s="7"/>
-    </row>
-    <row r="69" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G69" s="6"/>
-      <c r="H69" s="7"/>
-    </row>
-    <row r="70" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G70" s="6"/>
-      <c r="H70" s="7"/>
-    </row>
-    <row r="71" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G71" s="6"/>
-      <c r="H71" s="7"/>
-    </row>
-    <row r="72" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G72" s="6"/>
-      <c r="H72" s="7"/>
-    </row>
-    <row r="73" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G73" s="6"/>
-      <c r="H73" s="7"/>
-    </row>
-    <row r="74" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G74" s="6"/>
-      <c r="H74" s="7"/>
-    </row>
-    <row r="75" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G75" s="6"/>
-      <c r="H75" s="7"/>
-    </row>
-    <row r="76" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G76" s="6"/>
-      <c r="H76" s="7"/>
-    </row>
-    <row r="77" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G77" s="6"/>
-      <c r="H77" s="7"/>
-    </row>
-    <row r="78" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G78" s="6"/>
-      <c r="H78" s="7"/>
-    </row>
-    <row r="79" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G79" s="6"/>
-      <c r="H79" s="7"/>
-    </row>
-    <row r="80" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G80" s="6"/>
-      <c r="H80" s="7"/>
-    </row>
-    <row r="81" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G81" s="6"/>
-      <c r="H81" s="7"/>
-    </row>
-    <row r="82" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G82" s="6"/>
-      <c r="H82" s="7"/>
-    </row>
-    <row r="83" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G83" s="6"/>
-      <c r="H83" s="7"/>
-    </row>
-    <row r="84" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G84" s="6"/>
-      <c r="H84" s="7"/>
-    </row>
-    <row r="85" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G85" s="6"/>
-      <c r="H85" s="7"/>
-    </row>
-    <row r="86" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G86" s="6"/>
-      <c r="H86" s="7"/>
-    </row>
-    <row r="87" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G87" s="6"/>
-      <c r="H87" s="7"/>
-    </row>
-    <row r="88" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G88" s="6"/>
-      <c r="H88" s="7"/>
-    </row>
-    <row r="89" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G89" s="6"/>
-      <c r="H89" s="7"/>
-    </row>
-    <row r="90" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G90" s="6"/>
-      <c r="H90" s="7"/>
-    </row>
-    <row r="91" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G91" s="6"/>
-      <c r="H91" s="7"/>
-    </row>
-    <row r="92" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G92" s="6"/>
-      <c r="H92" s="7"/>
-    </row>
-    <row r="93" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G93" s="6"/>
-      <c r="H93" s="7"/>
-    </row>
-    <row r="94" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G94" s="6"/>
-      <c r="H94" s="7"/>
-    </row>
-    <row r="95" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G95" s="6"/>
-      <c r="H95" s="7"/>
-    </row>
-    <row r="96" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G96" s="6"/>
-      <c r="H96" s="7"/>
-    </row>
-    <row r="97" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G97" s="6"/>
-      <c r="H97" s="7"/>
-    </row>
-    <row r="98" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G98" s="6"/>
-      <c r="H98" s="7"/>
-    </row>
-    <row r="99" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G99" s="6"/>
-      <c r="H99" s="7"/>
-    </row>
-    <row r="100" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G100" s="6"/>
-      <c r="H100" s="7"/>
-    </row>
-    <row r="101" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G101" s="6"/>
-      <c r="H101" s="7"/>
-    </row>
-    <row r="102" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G102" s="6"/>
-      <c r="H102" s="7"/>
-    </row>
-    <row r="103" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G103" s="6"/>
-      <c r="H103" s="7"/>
-    </row>
-    <row r="104" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G104" s="6"/>
-      <c r="H104" s="7"/>
-    </row>
-    <row r="105" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G105" s="6"/>
-      <c r="H105" s="7"/>
-    </row>
-    <row r="106" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G106" s="6"/>
-      <c r="H106" s="7"/>
-    </row>
-    <row r="107" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G107" s="6"/>
-      <c r="H107" s="7"/>
-    </row>
-    <row r="108" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G108" s="6"/>
-      <c r="H108" s="7"/>
-    </row>
-    <row r="109" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G109" s="6"/>
-      <c r="H109" s="7"/>
-    </row>
-    <row r="110" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G110" s="6"/>
-      <c r="H110" s="7"/>
-    </row>
-    <row r="111" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G111" s="6"/>
-      <c r="H111" s="7"/>
-    </row>
-    <row r="112" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G112" s="6"/>
-      <c r="H112" s="7"/>
-    </row>
-    <row r="113" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G113" s="6"/>
-      <c r="H113" s="7"/>
-    </row>
-    <row r="114" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G114" s="6"/>
-      <c r="H114" s="7"/>
-    </row>
-    <row r="115" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G115" s="6"/>
-      <c r="H115" s="7"/>
-    </row>
-    <row r="116" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G116" s="6"/>
-      <c r="H116" s="7"/>
-    </row>
-    <row r="117" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G117" s="6"/>
-      <c r="H117" s="7"/>
-    </row>
-    <row r="118" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G118" s="6"/>
-      <c r="H118" s="7"/>
-    </row>
-    <row r="119" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G119" s="6"/>
-      <c r="H119" s="7"/>
-    </row>
-    <row r="120" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G120" s="6"/>
-      <c r="H120" s="7"/>
-    </row>
-    <row r="121" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G121" s="6"/>
-      <c r="H121" s="7"/>
-    </row>
-    <row r="122" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G122" s="6"/>
-      <c r="H122" s="7"/>
-    </row>
-    <row r="123" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G123" s="6"/>
-      <c r="H123" s="7"/>
-    </row>
-    <row r="124" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G124" s="6"/>
-      <c r="H124" s="7"/>
-    </row>
-    <row r="125" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G125" s="6"/>
-      <c r="H125" s="7"/>
-    </row>
-    <row r="126" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G126" s="6"/>
-      <c r="H126" s="7"/>
-    </row>
-    <row r="127" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G127" s="6"/>
-      <c r="H127" s="7"/>
-    </row>
-    <row r="128" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G128" s="6"/>
-      <c r="H128" s="7"/>
-    </row>
-    <row r="129" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G129" s="6"/>
-      <c r="H129" s="7"/>
-    </row>
-    <row r="130" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G130" s="6"/>
-      <c r="H130" s="7"/>
-    </row>
-    <row r="131" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G131" s="6"/>
-      <c r="H131" s="7"/>
-    </row>
-    <row r="132" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G132" s="6"/>
-      <c r="H132" s="7"/>
-    </row>
-    <row r="133" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G133" s="6"/>
-      <c r="H133" s="7"/>
-    </row>
-    <row r="134" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G134" s="6"/>
-      <c r="H134" s="7"/>
-    </row>
-    <row r="135" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G135" s="6"/>
-      <c r="H135" s="7"/>
-    </row>
-    <row r="136" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G136" s="6"/>
-      <c r="H136" s="7"/>
-    </row>
-    <row r="137" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G137" s="6"/>
-      <c r="H137" s="7"/>
-    </row>
-    <row r="138" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G138" s="6"/>
-      <c r="H138" s="7"/>
-    </row>
-    <row r="139" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G139" s="6"/>
-      <c r="H139" s="7"/>
-    </row>
-    <row r="140" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G140" s="6"/>
-      <c r="H140" s="7"/>
-    </row>
-    <row r="141" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G141" s="6"/>
-      <c r="H141" s="7"/>
-    </row>
-    <row r="142" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G142" s="6"/>
-      <c r="H142" s="7"/>
-    </row>
-    <row r="143" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G143" s="6"/>
-      <c r="H143" s="7"/>
-    </row>
-    <row r="144" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G144" s="6"/>
-      <c r="H144" s="7"/>
-    </row>
-    <row r="145" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G145" s="6"/>
-      <c r="H145" s="7"/>
-    </row>
-    <row r="146" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G146" s="6"/>
-      <c r="H146" s="7"/>
-    </row>
-    <row r="147" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G147" s="6"/>
-      <c r="H147" s="7"/>
-    </row>
-    <row r="148" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G148" s="6"/>
-      <c r="H148" s="7"/>
-    </row>
-    <row r="149" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G149" s="6"/>
-      <c r="H149" s="7"/>
-    </row>
-    <row r="150" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G150" s="6"/>
-      <c r="H150" s="7"/>
-    </row>
-    <row r="151" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G151" s="6"/>
-      <c r="H151" s="7"/>
-    </row>
-    <row r="152" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G152" s="6"/>
-      <c r="H152" s="7"/>
-    </row>
-    <row r="153" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G153" s="6"/>
-      <c r="H153" s="7"/>
-    </row>
-    <row r="154" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G154" s="6"/>
-      <c r="H154" s="7"/>
-    </row>
-    <row r="155" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G155" s="6"/>
-      <c r="H155" s="7"/>
-    </row>
-    <row r="156" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G156" s="6"/>
-      <c r="H156" s="7"/>
-    </row>
-    <row r="157" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G157" s="6"/>
-      <c r="H157" s="7"/>
-    </row>
-    <row r="158" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G158" s="6"/>
-      <c r="H158" s="7"/>
-    </row>
-    <row r="159" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G159" s="6"/>
-      <c r="H159" s="7"/>
-    </row>
-    <row r="160" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G160" s="6"/>
-      <c r="H160" s="7"/>
-    </row>
-    <row r="161" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G161" s="6"/>
-      <c r="H161" s="7"/>
-    </row>
-    <row r="162" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G162" s="6"/>
-      <c r="H162" s="7"/>
-    </row>
-    <row r="163" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G163" s="6"/>
-      <c r="H163" s="7"/>
-    </row>
-    <row r="164" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G164" s="6"/>
-      <c r="H164" s="7"/>
-    </row>
-    <row r="165" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G165" s="6"/>
-      <c r="H165" s="7"/>
-    </row>
-    <row r="166" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G166" s="6"/>
-      <c r="H166" s="7"/>
-    </row>
-    <row r="167" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G167" s="6"/>
-      <c r="H167" s="7"/>
-    </row>
-    <row r="168" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G168" s="6"/>
-      <c r="H168" s="7"/>
-    </row>
-    <row r="169" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G169" s="6"/>
-      <c r="H169" s="7"/>
-    </row>
-    <row r="170" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G170" s="6"/>
-      <c r="H170" s="7"/>
-    </row>
-    <row r="171" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G171" s="6"/>
-      <c r="H171" s="7"/>
-    </row>
-    <row r="172" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G172" s="6"/>
-      <c r="H172" s="7"/>
-    </row>
-    <row r="173" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G173" s="6"/>
-      <c r="H173" s="7"/>
-    </row>
-    <row r="174" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G174" s="6"/>
-      <c r="H174" s="7"/>
-    </row>
-    <row r="175" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G175" s="6"/>
-      <c r="H175" s="7"/>
-    </row>
-    <row r="176" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G176" s="6"/>
-      <c r="H176" s="7"/>
-    </row>
-    <row r="177" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G177" s="6"/>
-      <c r="H177" s="7"/>
-    </row>
-    <row r="178" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G178" s="6"/>
-      <c r="H178" s="7"/>
-    </row>
-    <row r="179" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G179" s="6"/>
-      <c r="H179" s="7"/>
-    </row>
-    <row r="180" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G180" s="6"/>
-      <c r="H180" s="7"/>
-    </row>
-    <row r="181" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G181" s="6"/>
-      <c r="H181" s="7"/>
-    </row>
-    <row r="182" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G182" s="6"/>
-      <c r="H182" s="7"/>
-    </row>
-    <row r="183" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G183" s="6"/>
-      <c r="H183" s="7"/>
-    </row>
-    <row r="184" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G184" s="6"/>
-      <c r="H184" s="7"/>
-    </row>
-    <row r="185" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G185" s="6"/>
-      <c r="H185" s="7"/>
-    </row>
-    <row r="186" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G186" s="6"/>
-      <c r="H186" s="7"/>
-    </row>
-    <row r="187" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G187" s="6"/>
-      <c r="H187" s="7"/>
-    </row>
-    <row r="188" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G188" s="6"/>
-      <c r="H188" s="7"/>
-    </row>
-    <row r="189" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G189" s="6"/>
-      <c r="H189" s="7"/>
-    </row>
-    <row r="190" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G190" s="6"/>
-      <c r="H190" s="7"/>
-    </row>
-    <row r="191" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G191" s="6"/>
-      <c r="H191" s="7"/>
-    </row>
-    <row r="192" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G192" s="6"/>
-      <c r="H192" s="7"/>
-    </row>
-    <row r="193" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G193" s="6"/>
-      <c r="H193" s="7"/>
-    </row>
-    <row r="194" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G194" s="6"/>
-      <c r="H194" s="7"/>
-    </row>
-    <row r="195" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G195" s="6"/>
-      <c r="H195" s="7"/>
-    </row>
-    <row r="196" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G196" s="6"/>
-      <c r="H196" s="7"/>
-    </row>
-    <row r="197" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G197" s="6"/>
-      <c r="H197" s="7"/>
-    </row>
-    <row r="198" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G198" s="6"/>
-      <c r="H198" s="7"/>
-    </row>
-    <row r="199" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G199" s="6"/>
-      <c r="H199" s="7"/>
-    </row>
-    <row r="200" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G200" s="6"/>
-      <c r="H200" s="7"/>
-    </row>
-    <row r="201" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G201" s="6"/>
-      <c r="H201" s="7"/>
-    </row>
-    <row r="202" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G202" s="6"/>
-      <c r="H202" s="7"/>
-    </row>
-    <row r="203" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G203" s="6"/>
-      <c r="H203" s="7"/>
-    </row>
-    <row r="204" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G204" s="6"/>
-      <c r="H204" s="7"/>
-    </row>
-    <row r="205" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G205" s="6"/>
-      <c r="H205" s="7"/>
-    </row>
-    <row r="206" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G206" s="6"/>
-      <c r="H206" s="7"/>
-    </row>
-    <row r="207" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G207" s="6"/>
-      <c r="H207" s="7"/>
-    </row>
-    <row r="208" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G208" s="6"/>
-      <c r="H208" s="7"/>
-    </row>
-    <row r="209" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G209" s="6"/>
-      <c r="H209" s="7"/>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="H62" s="6"/>
+      <c r="I62" s="7"/>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="H63" s="6"/>
+      <c r="I63" s="7"/>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="H64" s="6"/>
+      <c r="I64" s="7"/>
+    </row>
+    <row r="65" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H65" s="6"/>
+      <c r="I65" s="7"/>
+    </row>
+    <row r="66" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H66" s="6"/>
+      <c r="I66" s="7"/>
+    </row>
+    <row r="67" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H67" s="6"/>
+      <c r="I67" s="7"/>
+    </row>
+    <row r="68" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H68" s="6"/>
+      <c r="I68" s="7"/>
+    </row>
+    <row r="69" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H69" s="6"/>
+      <c r="I69" s="7"/>
+    </row>
+    <row r="70" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H70" s="6"/>
+      <c r="I70" s="7"/>
+    </row>
+    <row r="71" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H71" s="6"/>
+      <c r="I71" s="7"/>
+    </row>
+    <row r="72" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H72" s="6"/>
+      <c r="I72" s="7"/>
+    </row>
+    <row r="73" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H73" s="6"/>
+      <c r="I73" s="7"/>
+    </row>
+    <row r="74" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H74" s="6"/>
+      <c r="I74" s="7"/>
+    </row>
+    <row r="75" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H75" s="6"/>
+      <c r="I75" s="7"/>
+    </row>
+    <row r="76" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H76" s="6"/>
+      <c r="I76" s="7"/>
+    </row>
+    <row r="77" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H77" s="6"/>
+      <c r="I77" s="7"/>
+    </row>
+    <row r="78" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H78" s="6"/>
+      <c r="I78" s="7"/>
+    </row>
+    <row r="79" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H79" s="6"/>
+      <c r="I79" s="7"/>
+    </row>
+    <row r="80" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H80" s="6"/>
+      <c r="I80" s="7"/>
+    </row>
+    <row r="81" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H81" s="6"/>
+      <c r="I81" s="7"/>
+    </row>
+    <row r="82" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H82" s="6"/>
+      <c r="I82" s="7"/>
+    </row>
+    <row r="83" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H83" s="6"/>
+      <c r="I83" s="7"/>
+    </row>
+    <row r="84" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H84" s="6"/>
+      <c r="I84" s="7"/>
+    </row>
+    <row r="85" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H85" s="6"/>
+      <c r="I85" s="7"/>
+    </row>
+    <row r="86" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H86" s="6"/>
+      <c r="I86" s="7"/>
+    </row>
+    <row r="87" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H87" s="6"/>
+      <c r="I87" s="7"/>
+    </row>
+    <row r="88" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H88" s="6"/>
+      <c r="I88" s="7"/>
+    </row>
+    <row r="89" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H89" s="6"/>
+      <c r="I89" s="7"/>
+    </row>
+    <row r="90" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H90" s="6"/>
+      <c r="I90" s="7"/>
+    </row>
+    <row r="91" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H91" s="6"/>
+      <c r="I91" s="7"/>
+    </row>
+    <row r="92" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H92" s="6"/>
+      <c r="I92" s="7"/>
+    </row>
+    <row r="93" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H93" s="6"/>
+      <c r="I93" s="7"/>
+    </row>
+    <row r="94" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H94" s="6"/>
+      <c r="I94" s="7"/>
+    </row>
+    <row r="95" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H95" s="6"/>
+      <c r="I95" s="7"/>
+    </row>
+    <row r="96" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H96" s="6"/>
+      <c r="I96" s="7"/>
+    </row>
+    <row r="97" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H97" s="6"/>
+      <c r="I97" s="7"/>
+    </row>
+    <row r="98" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H98" s="6"/>
+      <c r="I98" s="7"/>
+    </row>
+    <row r="99" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H99" s="6"/>
+      <c r="I99" s="7"/>
+    </row>
+    <row r="100" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H100" s="6"/>
+      <c r="I100" s="7"/>
+    </row>
+    <row r="101" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H101" s="6"/>
+      <c r="I101" s="7"/>
+    </row>
+    <row r="102" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H102" s="6"/>
+      <c r="I102" s="7"/>
+    </row>
+    <row r="103" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H103" s="6"/>
+      <c r="I103" s="7"/>
+    </row>
+    <row r="104" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H104" s="6"/>
+      <c r="I104" s="7"/>
+    </row>
+    <row r="105" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H105" s="6"/>
+      <c r="I105" s="7"/>
+    </row>
+    <row r="106" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H106" s="6"/>
+      <c r="I106" s="7"/>
+    </row>
+    <row r="107" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H107" s="6"/>
+      <c r="I107" s="7"/>
+    </row>
+    <row r="108" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H108" s="6"/>
+      <c r="I108" s="7"/>
+    </row>
+    <row r="109" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H109" s="6"/>
+      <c r="I109" s="7"/>
+    </row>
+    <row r="110" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H110" s="6"/>
+      <c r="I110" s="7"/>
+    </row>
+    <row r="111" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H111" s="6"/>
+      <c r="I111" s="7"/>
+    </row>
+    <row r="112" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H112" s="6"/>
+      <c r="I112" s="7"/>
+    </row>
+    <row r="113" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H113" s="6"/>
+      <c r="I113" s="7"/>
+    </row>
+    <row r="114" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H114" s="6"/>
+      <c r="I114" s="7"/>
+    </row>
+    <row r="115" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H115" s="6"/>
+      <c r="I115" s="7"/>
+    </row>
+    <row r="116" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H116" s="6"/>
+      <c r="I116" s="7"/>
+    </row>
+    <row r="117" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H117" s="6"/>
+      <c r="I117" s="7"/>
+    </row>
+    <row r="118" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H118" s="6"/>
+      <c r="I118" s="7"/>
+    </row>
+    <row r="119" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H119" s="6"/>
+      <c r="I119" s="7"/>
+    </row>
+    <row r="120" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H120" s="6"/>
+      <c r="I120" s="7"/>
+    </row>
+    <row r="121" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H121" s="6"/>
+      <c r="I121" s="7"/>
+    </row>
+    <row r="122" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H122" s="6"/>
+      <c r="I122" s="7"/>
+    </row>
+    <row r="123" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H123" s="6"/>
+      <c r="I123" s="7"/>
+    </row>
+    <row r="124" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H124" s="6"/>
+      <c r="I124" s="7"/>
+    </row>
+    <row r="125" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H125" s="6"/>
+      <c r="I125" s="7"/>
+    </row>
+    <row r="126" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H126" s="6"/>
+      <c r="I126" s="7"/>
+    </row>
+    <row r="127" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H127" s="6"/>
+      <c r="I127" s="7"/>
+    </row>
+    <row r="128" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H128" s="6"/>
+      <c r="I128" s="7"/>
+    </row>
+    <row r="129" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H129" s="6"/>
+      <c r="I129" s="7"/>
+    </row>
+    <row r="130" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H130" s="6"/>
+      <c r="I130" s="7"/>
+    </row>
+    <row r="131" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H131" s="6"/>
+      <c r="I131" s="7"/>
+    </row>
+    <row r="132" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H132" s="6"/>
+      <c r="I132" s="7"/>
+    </row>
+    <row r="133" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H133" s="6"/>
+      <c r="I133" s="7"/>
+    </row>
+    <row r="134" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H134" s="6"/>
+      <c r="I134" s="7"/>
+    </row>
+    <row r="135" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H135" s="6"/>
+      <c r="I135" s="7"/>
+    </row>
+    <row r="136" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H136" s="6"/>
+      <c r="I136" s="7"/>
+    </row>
+    <row r="137" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H137" s="6"/>
+      <c r="I137" s="7"/>
+    </row>
+    <row r="138" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H138" s="6"/>
+      <c r="I138" s="7"/>
+    </row>
+    <row r="139" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H139" s="6"/>
+      <c r="I139" s="7"/>
+    </row>
+    <row r="140" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H140" s="6"/>
+      <c r="I140" s="7"/>
+    </row>
+    <row r="141" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H141" s="6"/>
+      <c r="I141" s="7"/>
+    </row>
+    <row r="142" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H142" s="6"/>
+      <c r="I142" s="7"/>
+    </row>
+    <row r="143" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H143" s="6"/>
+      <c r="I143" s="7"/>
+    </row>
+    <row r="144" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H144" s="6"/>
+      <c r="I144" s="7"/>
+    </row>
+    <row r="145" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H145" s="6"/>
+      <c r="I145" s="7"/>
+    </row>
+    <row r="146" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H146" s="6"/>
+      <c r="I146" s="7"/>
+    </row>
+    <row r="147" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H147" s="6"/>
+      <c r="I147" s="7"/>
+    </row>
+    <row r="148" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H148" s="6"/>
+      <c r="I148" s="7"/>
+    </row>
+    <row r="149" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H149" s="6"/>
+      <c r="I149" s="7"/>
+    </row>
+    <row r="150" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H150" s="6"/>
+      <c r="I150" s="7"/>
+    </row>
+    <row r="151" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H151" s="6"/>
+      <c r="I151" s="7"/>
+    </row>
+    <row r="152" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H152" s="6"/>
+      <c r="I152" s="7"/>
+    </row>
+    <row r="153" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H153" s="6"/>
+      <c r="I153" s="7"/>
+    </row>
+    <row r="154" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H154" s="6"/>
+      <c r="I154" s="7"/>
+    </row>
+    <row r="155" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H155" s="6"/>
+      <c r="I155" s="7"/>
+    </row>
+    <row r="156" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H156" s="6"/>
+      <c r="I156" s="7"/>
+    </row>
+    <row r="157" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H157" s="6"/>
+      <c r="I157" s="7"/>
+    </row>
+    <row r="158" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H158" s="6"/>
+      <c r="I158" s="7"/>
+    </row>
+    <row r="159" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H159" s="6"/>
+      <c r="I159" s="7"/>
+    </row>
+    <row r="160" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H160" s="6"/>
+      <c r="I160" s="7"/>
+    </row>
+    <row r="161" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H161" s="6"/>
+      <c r="I161" s="7"/>
+    </row>
+    <row r="162" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H162" s="6"/>
+      <c r="I162" s="7"/>
+    </row>
+    <row r="163" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H163" s="6"/>
+      <c r="I163" s="7"/>
+    </row>
+    <row r="164" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H164" s="6"/>
+      <c r="I164" s="7"/>
+    </row>
+    <row r="165" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H165" s="6"/>
+      <c r="I165" s="7"/>
+    </row>
+    <row r="166" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H166" s="6"/>
+      <c r="I166" s="7"/>
+    </row>
+    <row r="167" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H167" s="6"/>
+      <c r="I167" s="7"/>
+    </row>
+    <row r="168" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H168" s="6"/>
+      <c r="I168" s="7"/>
+    </row>
+    <row r="169" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H169" s="6"/>
+      <c r="I169" s="7"/>
+    </row>
+    <row r="170" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H170" s="6"/>
+      <c r="I170" s="7"/>
+    </row>
+    <row r="171" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H171" s="6"/>
+      <c r="I171" s="7"/>
+    </row>
+    <row r="172" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H172" s="6"/>
+      <c r="I172" s="7"/>
+    </row>
+    <row r="173" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H173" s="6"/>
+      <c r="I173" s="7"/>
+    </row>
+    <row r="174" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H174" s="6"/>
+      <c r="I174" s="7"/>
+    </row>
+    <row r="175" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H175" s="6"/>
+      <c r="I175" s="7"/>
+    </row>
+    <row r="176" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H176" s="6"/>
+      <c r="I176" s="7"/>
+    </row>
+    <row r="177" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H177" s="6"/>
+      <c r="I177" s="7"/>
+    </row>
+    <row r="178" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H178" s="6"/>
+      <c r="I178" s="7"/>
+    </row>
+    <row r="179" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H179" s="6"/>
+      <c r="I179" s="7"/>
+    </row>
+    <row r="180" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H180" s="6"/>
+      <c r="I180" s="7"/>
+    </row>
+    <row r="181" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H181" s="6"/>
+      <c r="I181" s="7"/>
+    </row>
+    <row r="182" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H182" s="6"/>
+      <c r="I182" s="7"/>
+    </row>
+    <row r="183" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H183" s="6"/>
+      <c r="I183" s="7"/>
+    </row>
+    <row r="184" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H184" s="6"/>
+      <c r="I184" s="7"/>
+    </row>
+    <row r="185" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H185" s="6"/>
+      <c r="I185" s="7"/>
+    </row>
+    <row r="186" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H186" s="6"/>
+      <c r="I186" s="7"/>
+    </row>
+    <row r="187" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H187" s="6"/>
+      <c r="I187" s="7"/>
+    </row>
+    <row r="188" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H188" s="6"/>
+      <c r="I188" s="7"/>
+    </row>
+    <row r="189" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H189" s="6"/>
+      <c r="I189" s="7"/>
+    </row>
+    <row r="190" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H190" s="6"/>
+      <c r="I190" s="7"/>
+    </row>
+    <row r="191" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H191" s="6"/>
+      <c r="I191" s="7"/>
+    </row>
+    <row r="192" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H192" s="6"/>
+      <c r="I192" s="7"/>
+    </row>
+    <row r="193" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H193" s="6"/>
+      <c r="I193" s="7"/>
+    </row>
+    <row r="194" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H194" s="6"/>
+      <c r="I194" s="7"/>
+    </row>
+    <row r="195" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H195" s="6"/>
+      <c r="I195" s="7"/>
+    </row>
+    <row r="196" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H196" s="6"/>
+      <c r="I196" s="7"/>
+    </row>
+    <row r="197" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H197" s="6"/>
+      <c r="I197" s="7"/>
+    </row>
+    <row r="198" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H198" s="6"/>
+      <c r="I198" s="7"/>
+    </row>
+    <row r="199" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H199" s="6"/>
+      <c r="I199" s="7"/>
+    </row>
+    <row r="200" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H200" s="6"/>
+      <c r="I200" s="7"/>
+    </row>
+    <row r="201" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H201" s="6"/>
+      <c r="I201" s="7"/>
+    </row>
+    <row r="202" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H202" s="6"/>
+      <c r="I202" s="7"/>
+    </row>
+    <row r="203" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H203" s="6"/>
+      <c r="I203" s="7"/>
+    </row>
+    <row r="204" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H204" s="6"/>
+      <c r="I204" s="7"/>
+    </row>
+    <row r="205" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H205" s="6"/>
+      <c r="I205" s="7"/>
+    </row>
+    <row r="206" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H206" s="6"/>
+      <c r="I206" s="7"/>
+    </row>
+    <row r="207" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H207" s="6"/>
+      <c r="I207" s="7"/>
+    </row>
+    <row r="208" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H208" s="6"/>
+      <c r="I208" s="7"/>
+    </row>
+    <row r="209" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H209" s="6"/>
+      <c r="I209" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="208">
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G206:H206"/>
-    <mergeCell ref="G207:H207"/>
-    <mergeCell ref="G208:H208"/>
-    <mergeCell ref="G209:H209"/>
-    <mergeCell ref="G179:H179"/>
-    <mergeCell ref="G180:H180"/>
-    <mergeCell ref="G181:H181"/>
-    <mergeCell ref="G200:H200"/>
-    <mergeCell ref="G201:H201"/>
-    <mergeCell ref="G202:H202"/>
-    <mergeCell ref="G203:H203"/>
-    <mergeCell ref="G204:H204"/>
-    <mergeCell ref="G205:H205"/>
-    <mergeCell ref="G185:H185"/>
-    <mergeCell ref="G186:H186"/>
-    <mergeCell ref="G187:H187"/>
-    <mergeCell ref="G188:H188"/>
-    <mergeCell ref="G189:H189"/>
-    <mergeCell ref="G190:H190"/>
-    <mergeCell ref="G191:H191"/>
-    <mergeCell ref="G192:H192"/>
-    <mergeCell ref="G193:H193"/>
-    <mergeCell ref="G194:H194"/>
-    <mergeCell ref="G195:H195"/>
-    <mergeCell ref="G175:H175"/>
-    <mergeCell ref="G176:H176"/>
-    <mergeCell ref="G177:H177"/>
-    <mergeCell ref="G178:H178"/>
-    <mergeCell ref="G174:H174"/>
-    <mergeCell ref="G131:H131"/>
-    <mergeCell ref="G171:H171"/>
-    <mergeCell ref="G172:H172"/>
-    <mergeCell ref="G173:H173"/>
-    <mergeCell ref="G138:H138"/>
-    <mergeCell ref="G139:H139"/>
-    <mergeCell ref="G140:H140"/>
-    <mergeCell ref="G159:H159"/>
-    <mergeCell ref="G160:H160"/>
-    <mergeCell ref="G161:H161"/>
-    <mergeCell ref="G162:H162"/>
-    <mergeCell ref="G163:H163"/>
-    <mergeCell ref="G150:H150"/>
-    <mergeCell ref="G151:H151"/>
-    <mergeCell ref="G156:H156"/>
-    <mergeCell ref="G157:H157"/>
-    <mergeCell ref="G158:H158"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="G121:H121"/>
-    <mergeCell ref="G82:H82"/>
-    <mergeCell ref="G83:H83"/>
-    <mergeCell ref="G84:H84"/>
-    <mergeCell ref="G91:H91"/>
-    <mergeCell ref="G92:H92"/>
-    <mergeCell ref="G93:H93"/>
-    <mergeCell ref="G100:H100"/>
-    <mergeCell ref="G101:H101"/>
-    <mergeCell ref="G117:H117"/>
-    <mergeCell ref="G118:H118"/>
-    <mergeCell ref="G119:H119"/>
-    <mergeCell ref="G120:H120"/>
-    <mergeCell ref="G113:H113"/>
-    <mergeCell ref="G114:H114"/>
-    <mergeCell ref="G115:H115"/>
-    <mergeCell ref="G116:H116"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G69:H69"/>
-    <mergeCell ref="G70:H70"/>
-    <mergeCell ref="G71:H71"/>
-    <mergeCell ref="G72:H72"/>
-    <mergeCell ref="G64:H64"/>
-    <mergeCell ref="G62:H62"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="G65:H65"/>
-    <mergeCell ref="G66:H66"/>
-    <mergeCell ref="G67:H67"/>
-    <mergeCell ref="G68:H68"/>
-    <mergeCell ref="G63:H63"/>
-    <mergeCell ref="G60:H60"/>
-    <mergeCell ref="G126:H126"/>
-    <mergeCell ref="G127:H127"/>
-    <mergeCell ref="G128:H128"/>
-    <mergeCell ref="G129:H129"/>
-    <mergeCell ref="G130:H130"/>
-    <mergeCell ref="G122:H122"/>
-    <mergeCell ref="G123:H123"/>
-    <mergeCell ref="G124:H124"/>
-    <mergeCell ref="G125:H125"/>
-    <mergeCell ref="G111:H111"/>
-    <mergeCell ref="G112:H112"/>
-    <mergeCell ref="G102:H102"/>
-    <mergeCell ref="G103:H103"/>
-    <mergeCell ref="G104:H104"/>
-    <mergeCell ref="G106:H106"/>
-    <mergeCell ref="G107:H107"/>
-    <mergeCell ref="G108:H108"/>
-    <mergeCell ref="G109:H109"/>
-    <mergeCell ref="G110:H110"/>
-    <mergeCell ref="G105:H105"/>
-    <mergeCell ref="G61:H61"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="G55:H55"/>
-    <mergeCell ref="G56:H56"/>
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="G58:H58"/>
-    <mergeCell ref="G59:H59"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="G153:H153"/>
-    <mergeCell ref="G154:H154"/>
-    <mergeCell ref="G155:H155"/>
-    <mergeCell ref="G141:H141"/>
-    <mergeCell ref="G142:H142"/>
-    <mergeCell ref="G143:H143"/>
-    <mergeCell ref="G144:H144"/>
-    <mergeCell ref="G145:H145"/>
-    <mergeCell ref="G146:H146"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="G94:H94"/>
-    <mergeCell ref="G95:H95"/>
-    <mergeCell ref="G96:H96"/>
-    <mergeCell ref="G97:H97"/>
-    <mergeCell ref="G98:H98"/>
-    <mergeCell ref="G99:H99"/>
-    <mergeCell ref="G73:H73"/>
-    <mergeCell ref="G74:H74"/>
-    <mergeCell ref="G75:H75"/>
-    <mergeCell ref="G76:H76"/>
-    <mergeCell ref="G87:H87"/>
-    <mergeCell ref="G88:H88"/>
-    <mergeCell ref="G89:H89"/>
-    <mergeCell ref="G90:H90"/>
-    <mergeCell ref="G77:H77"/>
-    <mergeCell ref="G85:H85"/>
-    <mergeCell ref="G86:H86"/>
-    <mergeCell ref="G78:H78"/>
-    <mergeCell ref="G79:H79"/>
-    <mergeCell ref="G80:H80"/>
-    <mergeCell ref="G81:H81"/>
-    <mergeCell ref="G196:H196"/>
-    <mergeCell ref="G197:H197"/>
-    <mergeCell ref="G198:H198"/>
-    <mergeCell ref="G199:H199"/>
-    <mergeCell ref="G132:H132"/>
-    <mergeCell ref="G133:H133"/>
-    <mergeCell ref="G134:H134"/>
-    <mergeCell ref="G135:H135"/>
-    <mergeCell ref="G136:H136"/>
-    <mergeCell ref="G137:H137"/>
-    <mergeCell ref="G182:H182"/>
-    <mergeCell ref="G183:H183"/>
-    <mergeCell ref="G184:H184"/>
-    <mergeCell ref="G170:H170"/>
-    <mergeCell ref="G168:H168"/>
-    <mergeCell ref="G169:H169"/>
-    <mergeCell ref="G164:H164"/>
-    <mergeCell ref="G165:H165"/>
-    <mergeCell ref="G166:H166"/>
-    <mergeCell ref="G167:H167"/>
-    <mergeCell ref="G147:H147"/>
-    <mergeCell ref="G148:H148"/>
-    <mergeCell ref="G149:H149"/>
-    <mergeCell ref="G152:H152"/>
+    <mergeCell ref="H196:I196"/>
+    <mergeCell ref="H197:I197"/>
+    <mergeCell ref="H198:I198"/>
+    <mergeCell ref="H199:I199"/>
+    <mergeCell ref="H132:I132"/>
+    <mergeCell ref="H133:I133"/>
+    <mergeCell ref="H134:I134"/>
+    <mergeCell ref="H135:I135"/>
+    <mergeCell ref="H136:I136"/>
+    <mergeCell ref="H137:I137"/>
+    <mergeCell ref="H182:I182"/>
+    <mergeCell ref="H183:I183"/>
+    <mergeCell ref="H184:I184"/>
+    <mergeCell ref="H170:I170"/>
+    <mergeCell ref="H168:I168"/>
+    <mergeCell ref="H169:I169"/>
+    <mergeCell ref="H164:I164"/>
+    <mergeCell ref="H165:I165"/>
+    <mergeCell ref="H166:I166"/>
+    <mergeCell ref="H167:I167"/>
+    <mergeCell ref="H147:I147"/>
+    <mergeCell ref="H148:I148"/>
+    <mergeCell ref="H149:I149"/>
+    <mergeCell ref="H152:I152"/>
+    <mergeCell ref="H73:I73"/>
+    <mergeCell ref="H74:I74"/>
+    <mergeCell ref="H75:I75"/>
+    <mergeCell ref="H76:I76"/>
+    <mergeCell ref="H87:I87"/>
+    <mergeCell ref="H88:I88"/>
+    <mergeCell ref="H89:I89"/>
+    <mergeCell ref="H90:I90"/>
+    <mergeCell ref="H77:I77"/>
+    <mergeCell ref="H85:I85"/>
+    <mergeCell ref="H86:I86"/>
+    <mergeCell ref="H78:I78"/>
+    <mergeCell ref="H79:I79"/>
+    <mergeCell ref="H80:I80"/>
+    <mergeCell ref="H81:I81"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="H153:I153"/>
+    <mergeCell ref="H154:I154"/>
+    <mergeCell ref="H155:I155"/>
+    <mergeCell ref="H141:I141"/>
+    <mergeCell ref="H142:I142"/>
+    <mergeCell ref="H143:I143"/>
+    <mergeCell ref="H144:I144"/>
+    <mergeCell ref="H145:I145"/>
+    <mergeCell ref="H146:I146"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="H94:I94"/>
+    <mergeCell ref="H95:I95"/>
+    <mergeCell ref="H96:I96"/>
+    <mergeCell ref="H97:I97"/>
+    <mergeCell ref="H98:I98"/>
+    <mergeCell ref="H99:I99"/>
+    <mergeCell ref="H61:I61"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="H57:I57"/>
+    <mergeCell ref="H58:I58"/>
+    <mergeCell ref="H59:I59"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="H111:I111"/>
+    <mergeCell ref="H112:I112"/>
+    <mergeCell ref="H102:I102"/>
+    <mergeCell ref="H103:I103"/>
+    <mergeCell ref="H104:I104"/>
+    <mergeCell ref="H106:I106"/>
+    <mergeCell ref="H107:I107"/>
+    <mergeCell ref="H108:I108"/>
+    <mergeCell ref="H109:I109"/>
+    <mergeCell ref="H110:I110"/>
+    <mergeCell ref="H105:I105"/>
+    <mergeCell ref="H126:I126"/>
+    <mergeCell ref="H127:I127"/>
+    <mergeCell ref="H128:I128"/>
+    <mergeCell ref="H129:I129"/>
+    <mergeCell ref="H130:I130"/>
+    <mergeCell ref="H122:I122"/>
+    <mergeCell ref="H123:I123"/>
+    <mergeCell ref="H124:I124"/>
+    <mergeCell ref="H125:I125"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H69:I69"/>
+    <mergeCell ref="H70:I70"/>
+    <mergeCell ref="H71:I71"/>
+    <mergeCell ref="H72:I72"/>
+    <mergeCell ref="H64:I64"/>
+    <mergeCell ref="H62:I62"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="H65:I65"/>
+    <mergeCell ref="H66:I66"/>
+    <mergeCell ref="H67:I67"/>
+    <mergeCell ref="H68:I68"/>
+    <mergeCell ref="H63:I63"/>
+    <mergeCell ref="H60:I60"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="H121:I121"/>
+    <mergeCell ref="H82:I82"/>
+    <mergeCell ref="H83:I83"/>
+    <mergeCell ref="H84:I84"/>
+    <mergeCell ref="H91:I91"/>
+    <mergeCell ref="H92:I92"/>
+    <mergeCell ref="H93:I93"/>
+    <mergeCell ref="H100:I100"/>
+    <mergeCell ref="H101:I101"/>
+    <mergeCell ref="H117:I117"/>
+    <mergeCell ref="H118:I118"/>
+    <mergeCell ref="H119:I119"/>
+    <mergeCell ref="H120:I120"/>
+    <mergeCell ref="H113:I113"/>
+    <mergeCell ref="H114:I114"/>
+    <mergeCell ref="H115:I115"/>
+    <mergeCell ref="H116:I116"/>
+    <mergeCell ref="H175:I175"/>
+    <mergeCell ref="H176:I176"/>
+    <mergeCell ref="H177:I177"/>
+    <mergeCell ref="H178:I178"/>
+    <mergeCell ref="H174:I174"/>
+    <mergeCell ref="H131:I131"/>
+    <mergeCell ref="H171:I171"/>
+    <mergeCell ref="H172:I172"/>
+    <mergeCell ref="H173:I173"/>
+    <mergeCell ref="H138:I138"/>
+    <mergeCell ref="H139:I139"/>
+    <mergeCell ref="H140:I140"/>
+    <mergeCell ref="H159:I159"/>
+    <mergeCell ref="H160:I160"/>
+    <mergeCell ref="H161:I161"/>
+    <mergeCell ref="H162:I162"/>
+    <mergeCell ref="H163:I163"/>
+    <mergeCell ref="H150:I150"/>
+    <mergeCell ref="H151:I151"/>
+    <mergeCell ref="H156:I156"/>
+    <mergeCell ref="H157:I157"/>
+    <mergeCell ref="H158:I158"/>
+    <mergeCell ref="H206:I206"/>
+    <mergeCell ref="H207:I207"/>
+    <mergeCell ref="H208:I208"/>
+    <mergeCell ref="H209:I209"/>
+    <mergeCell ref="H179:I179"/>
+    <mergeCell ref="H180:I180"/>
+    <mergeCell ref="H181:I181"/>
+    <mergeCell ref="H200:I200"/>
+    <mergeCell ref="H201:I201"/>
+    <mergeCell ref="H202:I202"/>
+    <mergeCell ref="H203:I203"/>
+    <mergeCell ref="H204:I204"/>
+    <mergeCell ref="H205:I205"/>
+    <mergeCell ref="H185:I185"/>
+    <mergeCell ref="H186:I186"/>
+    <mergeCell ref="H187:I187"/>
+    <mergeCell ref="H188:I188"/>
+    <mergeCell ref="H189:I189"/>
+    <mergeCell ref="H190:I190"/>
+    <mergeCell ref="H191:I191"/>
+    <mergeCell ref="H192:I192"/>
+    <mergeCell ref="H193:I193"/>
+    <mergeCell ref="H194:I194"/>
+    <mergeCell ref="H195:I195"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="H30:I30"/>
   </mergeCells>
+  <conditionalFormatting sqref="P2:P1048576">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="notBetween">
+      <formula>-0.1</formula>
+      <formula>0.1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O1:O1048576">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>

--- a/vrp_dss/Solve Times Summary.xlsx
+++ b/vrp_dss/Solve Times Summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\great\Documents\GitHub\VRP-DSS\vrp_dss\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52E1929B-C793-49C6-AB97-B1723C4ABE8C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D02B7219-96A2-48E0-908D-1B63029C84DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="202">
   <si>
     <t># Customers</t>
   </si>
@@ -66,6 +66,9 @@
     <t>Solve Time (ms)</t>
   </si>
   <si>
+    <t>Objective Value</t>
+  </si>
+  <si>
     <t>CPLEX Generated Text File</t>
   </si>
   <si>
@@ -75,6 +78,12 @@
     <t>Math Objective (evaluated by meta)</t>
   </si>
   <si>
+    <t>Evaluation difference (Before removal of empty stops)</t>
+  </si>
+  <si>
+    <t>Evaluation difference (After empty stop removal</t>
+  </si>
+  <si>
     <t>Meta Routes</t>
   </si>
   <si>
@@ -82,6 +91,12 @@
   </si>
   <si>
     <t>Meta Objective</t>
+  </si>
+  <si>
+    <t>Meta Difference (%, compared to original math objective value)</t>
+  </si>
+  <si>
+    <t>Meta Difference (%, compared to meta evaluation of math objective)</t>
   </si>
   <si>
     <t>Input:
@@ -891,52 +906,47 @@
   </si>
   <si>
     <t>Input:
-Customer 1 has 2 pallets demand and window 0-24 at (-98.001222908, -29.660115378) and average unload time 0.156079186
-Customer 2 has 3 pallets demand and window 0-24 at (17.133939688, 57.382881877) and average unload time 0.105203899
-Customer 3 has 1 pallets demand and window 0-24 at (61.973379172, -24.953469019) and average unload time 0.150232476
-Customer 4 has 4 pallets demand and window 0-24 at (-55.331618422, -64.551524523) and average unload time 0.021205328
-Customer 5 has 4 pallets demand and window 0-24 at (-41.205957158, -85.517995336) and average unload time 0.054125114
-Customer 6 has 3 pallets demand and window 0-24 at (54.260446008, 49.784641617) and average unload time 0.063134073
-Customer 7 has 1 pallets demand and window 18-19 at (83.723772876, -17.824712021) and average unload time 0.105527726
-Customer 8 has 5 pallets demand and window 0-24 at (-98.752729824, -46.647053928) and average unload time 0.040437842
-Customer 9 has 2 pallets demand and window 0-24 at (-91.482503988, 97.206739761) and average unload time 0.160845673
-Customer 10 has 1 pallets demand and window 20-21 at (8.850429712, 51.898695186) and average unload time 0.044482461
-Customer 11 has 3 pallets demand and window 0-24 at (-1.348890895, 32.978489609) and average unload time 0.122477924
-Customer 12 has 2 pallets demand and window 0-24 at (70.00830006, -10.760710865) and average unload time 0.062032051
-Vehicle SP1 is a Rigid with capacity 16, distance cost 1.037797634, and time cost 9.10396918
-Vehicle SP2 is a 11 metre with capacity 30, distance cost 1.442046537, and time cost 10.906801047
-Vehicle SP3 is a 11 metre with capacity 30, distance cost 1.442046537, and time cost 10.906801047
+Customer 1 has 2 pallets demand and window 0-24 at (79.59362749, -9.324223003) and average unload time 0.076254598
+Customer 2 has 1 pallets demand and window 0-24 at (92.324151818, -86.903680554) and average unload time 0.081674461
+Customer 3 has 1 pallets demand and window 0-24 at (53.5236679, -2.266330052) and average unload time 0.104432168
+Customer 4 has 3 pallets demand and window 0-24 at (-48.805693392, -8.779802206) and average unload time 0.081796425
+Customer 5 has 4 pallets demand and window 0-24 at (35.567126513, -23.705580723) and average unload time 0.135756577
+Customer 6 has 3 pallets demand and window 0-24 at (36.256302889, -21.513656802) and average unload time 0.090304186
+Customer 7 has 2 pallets demand and window 0-24 at (-55.292414559, -5.145133007) and average unload time 0.099769907
+Customer 8 has 1 pallets demand and window 0-24 at (78.474206752, -61.846122961) and average unload time 0.149933188
+Customer 9 has 2 pallets demand and window 0-24 at (67.298778573, 8.941141021) and average unload time 0.017075823
+Customer 10 has 2 pallets demand and window 0-24 at (-80.131119823, 68.141483116) and average unload time 0.040877407
+Customer 11 has 5 pallets demand and window 0-24 at (10.001708227, -27.295405709) and average unload time 0.126462495
+Customer 12 has 1 pallets demand and window 0-24 at (71.394882017, -24.241328094) and average unload time 0.035034042
+Vehicle SP1 is a Rigid with capacity 16, distance cost 0.899059215, and time cost 13.546742001
+Vehicle SP2 is a 8 metre with capacity 22, distance cost 1.263335639, and time cost 11.224903479
+Vehicle SP3 is a 8 metre with capacity 22, distance cost 1.263335639, and time cost 11.224903479
 Output:
-Vehicle SP1 travels from Depot to 6 to deliver 3 pallets. Expected unload start time is 17.504313699
-Vehicle SP1 travels from 2 to 9 to deliver 2 pallets. Expected unload start time is 21.885878971
-Vehicle SP1 travels from 6 to 7 to deliver 1 pallets. Expected unload start time is 18.61559514
-Vehicle SP1 travels from 7 to 10 to deliver 0 pallets. Expected unload start time is 20
-Vehicle SP1 travels from 9 to DepotReturn to deliver 0 pallets. Expected unload start time is 23.876130643
-Vehicle SP1 travels from 10 to 2 to deliver 3 pallets. Expected unload start time is 20.124180338
-Vehicle SP2 travels from Depot to 1 to deliver 2 pallets. Expected unload start time is 14.857942026
-Vehicle SP2 travels from 1 to 8 to deliver 5 pallets. Expected unload start time is 15.382644822
-Vehicle SP2 travels from 3 to 7 to deliver 0 pallets. Expected unload start time is 18.721122866
-Vehicle SP2 travels from 4 to 5 to deliver 4 pallets. Expected unload start time is 16.572763412
-Vehicle SP2 travels from 5 to 3 to deliver 1 pallets. Expected unload start time is 18.284779943
-Vehicle SP2 travels from 7 to 10 to deliver 1 pallets. Expected unload start time is 20
-Vehicle SP2 travels from 8 to 4 to deliver 4 pallets. Expected unload start time is 16.171930032
-Vehicle SP2 travels from 10 to DepotReturn to deliver 0 pallets. Expected unload start time is 20.702581602
-Vehicle SP3 travels from Depot to 12 to deliver 2 pallets. Expected unload start time is 18.683089495
-Vehicle SP3 travels from 7 to 10 to deliver 0 pallets. Expected unload start time is 20.278877134
-Vehicle SP3 travels from 10 to 11 to deliver 3 pallets. Expected unload start time is 20.547554543
-Vehicle SP3 travels from 11 to DepotReturn to deliver 0 pallets. Expected unload start time is 21.327564118
-Vehicle SP3 travels from 12 to 7 to deliver 0 pallets. Expected unload start time is 19
-Objective value: 1604.457014441
-Solve time: 32942</t>
-  </si>
-  <si>
-    <t>{0: [[(6, 3), (7, 1), (10, 0), (2, 3), (9, 2)]], 1: [[(1, 2), (8, 5), (4, 4), (5, 4), (3, 1), (7, 0), (10, 1)], [(12, 2), (7, 0), (10, 0), (11, 3)]]}</t>
+Vehicle SP1 travels from Depot to 3 to deliver 1 pallets. Expected unload start time is 2.012074481
+Vehicle SP1 travels from 1 to 12 to deliver 1 pallets. Expected unload start time is 3.013142724
+Vehicle SP1 travels from 2 to 4 to deliver 3 pallets. Expected unload start time is 6.132359104
+Vehicle SP1 travels from 3 to 9 to deliver 2 pallets. Expected unload start time is 2.338486758
+Vehicle SP1 travels from 4 to 7 to deliver 2 pallets. Expected unload start time is 6.470693568
+Vehicle SP1 travels from 7 to 10 to deliver 2 pallets. Expected unload start time is 7.637501554
+Vehicle SP1 travels from 8 to 2 to deliver 1 pallets. Expected unload start time is 4.034307415
+Vehicle SP1 travels from 9 to 1 to deliver 2 pallets. Expected unload start time is 2.647861845
+Vehicle SP1 travels from 10 to DepotReturn to deliver 0 pallets. Expected unload start time is 9.034091082
+Vehicle SP1 travels from 12 to 8 to deliver 1 pallets. Expected unload start time is 3.526493711
+Vehicle SP3 travels from Depot to 6 to deliver 3 pallets. Expected unload start time is 1.600927199
+Vehicle SP3 travels from 5 to 11 to deliver 5 pallets. Expected unload start time is 2.76629031
+Vehicle SP3 travels from 6 to 5 to deliver 4 pallets. Expected unload start time is 1.900561196
+Vehicle SP3 travels from 11 to DepotReturn to deliver 0 pallets. Expected unload start time is 3.761979602
+Objective value: 613.523606388
+Solve time: 73131</t>
+  </si>
+  <si>
+    <t>{0: [[(3, 1), (9, 2), (1, 2), (12, 1), (8, 1), (2, 1), (4, 3), (7, 2), (10, 2)]], 1: [[(6, 3), (5, 4), (11, 5)]]}</t>
   </si>
   <si>
     <t xml:space="preserve">Rigid (capacity 16):
-3 (1) -&gt; 7 (1) -&gt; 12 (2) -&gt; 6 (3) -&gt; 2 (3) -&gt; 10 (1) -&gt; 11 (3)
-11 metre (capacity 30):
-5 (4) -&gt; 4 (4) -&gt; 8 (5) -&gt; 1 (2) -&gt; 9 (2)
+3 (1) -&gt; 9 (2) -&gt; 1 (2) -&gt; 12 (1) -&gt; 8 (1) -&gt; 2 (1) -&gt; 4 (3) -&gt; 7 (2) -&gt; 10 (2)
+8 metre (capacity 22):
+6 (3) -&gt; 5 (4) -&gt; 11 (5)
 </t>
   </si>
   <si>
@@ -1635,57 +1645,46 @@
   </si>
   <si>
     <t>Input:
-Customer 1 has 10 pallets demand and window 13-14 at (-23.759099971, -93.465935348) and average unload time 0.096687056
-Customer 2 has 10 pallets demand and window 0-24 at (-56.684260082, 65.603332469) and average unload time 0.15452965
-Customer 3 has 3 pallets demand and window 0-24 at (93.290567169, -66.927680467) and average unload time 0.032309975
-Customer 4 has 9 pallets demand and window 0-24 at (-89.536154976, 89.324964803) and average unload time 0.10997384
-Customer 5 has 13 pallets demand and window 0-24 at (-61.01779225, -27.050016056) and average unload time 0.10107028
-Customer 6 has 13 pallets demand and window 0-24 at (-97.546475922, -93.671115515) and average unload time 0.135414707
-Customer 7 has 3 pallets demand and window 0-24 at (69.595721149, -91.634684097) and average unload time 0.16283179
-Customer 8 has 10 pallets demand and window 0-24 at (69.091366971, 43.920545894) and average unload time 0.047623306
-Customer 9 has 3 pallets demand and window 11-12 at (97.150073278, -12.497022292) and average unload time 0.155002327
-Vehicle SP1 is a 8 metre with capacity 22, distance cost 0.732064858, and time cost 11.078295754
-Vehicle SP2 is a 11 metre with capacity 30, distance cost 1.172967578, and time cost 11.382437018
-Vehicle SP3 is a 8 metre with capacity 22, distance cost 0.732064858, and time cost 11.078295754
-Vehicle SP4 is a Rigid with capacity 16, distance cost 0.880671545, and time cost 7.979977528
-Vehicle SP5 is a 8 metre with capacity 22, distance cost 0.732064858, and time cost 11.078295754
+Customer 1 has 8 pallets demand and window 0-24 at (-6.171177823, 99.222671696) and average unload time 0.09849439
+Customer 2 has 3 pallets demand and window 8-9 at (-45.224378782, 66.611210733) and average unload time 0.1261867
+Customer 3 has 4 pallets demand and window 0-24 at (-19.024540701, 84.511384769) and average unload time 0.041265235
+Customer 4 has 8 pallets demand and window 0-24 at (36.126663835, -11.183871322) and average unload time 0.124846611
+Customer 5 has 12 pallets demand and window 0-24 at (-14.550970347, -80.363331756) and average unload time 0.037634845
+Customer 6 has 10 pallets demand and window 0-24 at (-37.715035744, -79.612089829) and average unload time 0.068201704
+Customer 7 has 1 pallets demand and window 0-24 at (-60.043534283, 99.427299638) and average unload time 0.032358601
+Customer 8 has 10 pallets demand and window 13-14 at (32.785175932, 10.709866675) and average unload time 0.062176332
+Customer 9 has 3 pallets demand and window 0-24 at (89.913652146, -50.825942182) and average unload time 0.153519217
+Vehicle SP1 is a Rigid with capacity 16, distance cost 0.884266512, and time cost 8.799301434
+Vehicle SP2 is a 11 metre with capacity 30, distance cost 0.880872694, and time cost 11.156645738
+Vehicle SP3 is a 11 metre with capacity 30, distance cost 0.880872694, and time cost 11.156645738
+Vehicle SP4 is a Rigid with capacity 16, distance cost 0.884266512, and time cost 8.799301434
+Vehicle SP5 is a 8 metre with capacity 22, distance cost 0.944913601, and time cost 13.14991079
 Output:
-Vehicle SP1 travels from Depot to 7 to deliver 3 pallets. Expected unload start time is 9.485620003
-Vehicle SP1 travels from 1 to 6 to deliver 13 pallets. Expected unload start time is 14.212406934
-Vehicle SP1 travels from 3 to 9 to deliver 0 pallets. Expected unload start time is 11.181046272
-Vehicle SP1 travels from 6 to DepotReturn to deliver 0 pallets. Expected unload start time is 17.663285891
-Vehicle SP1 travels from 7 to 3 to deliver 3 pallets. Expected unload start time is 10.402024856
-Vehicle SP1 travels from 9 to 1 to deliver 3 pallets. Expected unload start time is 13
-Vehicle SP2 travels from Depot to 9 to deliver 2 pallets. Expected unload start time is 11.871041618
-Vehicle SP2 travels from 1 to DepotReturn to deliver 0 pallets. Expected unload start time is 15.205480707
-Vehicle SP2 travels from 9 to 1 to deliver 0 pallets. Expected unload start time is 14
-Vehicle SP3 travels from Depot to 9 to deliver 1 pallets. Expected unload start time is 11.026043945
-Vehicle SP3 travels from 1 to 4 to deliver 9 pallets. Expected unload start time is 15.525007404
-Vehicle SP3 travels from 2 to DepotReturn to deliver 0 pallets. Expected unload start time is 19.650333625
-Vehicle SP3 travels from 4 to 2 to deliver 10 pallets. Expected unload start time is 17.021286223
-Vehicle SP3 travels from 9 to 1 to deliver 1 pallets. Expected unload start time is 13
-Vehicle SP4 travels from Depot to 9 to deliver 0 pallets. Expected unload start time is 12
-Vehicle SP4 travels from 1 to 5 to deliver 13 pallets. Expected unload start time is 15.060927813
-Vehicle SP4 travels from 5 to DepotReturn to deliver 0 pallets. Expected unload start time is 17.209152023
-Vehicle SP4 travels from 9 to 1 to deliver 3 pallets. Expected unload start time is 13.818953728
-Vehicle SP5 travels from Depot to 8 to deliver 10 pallets. Expected unload start time is 10.736144626
-Vehicle SP5 travels from 1 to DepotReturn to deliver 0 pallets. Expected unload start time is 15.314495604
-Vehicle SP5 travels from 8 to 9 to deliver 0 pallets. Expected unload start time is 12
-Vehicle SP5 travels from 9 to 1 to deliver 3 pallets. Expected unload start time is 13.818953728
-Objective value: 1889.105655144
-Solve time: 5946</t>
-  </si>
-  <si>
-    <t>{0: [[(7, 3), (3, 3), (9, 0), (1, 3), (6, 13)], [(9, 1), (1, 1), (4, 9), (2, 10)], [(8, 10), (9, 0), (1, 3)]], 1: [[(9, 2), (1, 0)]], 2: [[(9, 0), (1, 3), (5, 13)]]}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8 metre (capacity 22):
-5 (13)
-2 (10) -&gt; 4 (9)
-8 (10) -&gt; 9 (3) -&gt; 3 (3) -&gt; 7 (3)
+Vehicle SP2 travels from Depot to 3 to deliver 4 pallets. Expected unload start time is 6.646936501
+Vehicle SP2 travels from 1 to 7 to deliver 1 pallets. Expected unload start time is 8.51755407
+Vehicle SP2 travels from 2 to 8 to deliver 10 pallets. Expected unload start time is 13
+Vehicle SP2 travels from 3 to 1 to deliver 8 pallets. Expected unload start time is 7.056189634
+Vehicle SP2 travels from 4 to DepotReturn to deliver 0 pallets. Expected unload start time is 14.87071783
+Vehicle SP2 travels from 7 to 2 to deliver 3 pallets. Expected unload start time is 9
+Vehicle SP2 travels from 8 to 4 to deliver 4 pallets. Expected unload start time is 13.898604122
+Vehicle SP3 travels from Depot to 6 to deliver 10 pallets. Expected unload start time is 5.749946708
+Vehicle SP3 travels from 4 to DepotReturn to deliver 0 pallets. Expected unload start time is 10.798173264
+Vehicle SP3 travels from 5 to 9 to deliver 3 pallets. Expected unload start time is 8.530287307
+Vehicle SP3 travels from 6 to 5 to deliver 12 pallets. Expected unload start time is 6.721666803
+Vehicle SP3 travels from 9 to 4 to deliver 4 pallets. Expected unload start time is 9.826059556
+Objective value: 619.497057667
+Solve time: 22463</t>
+  </si>
+  <si>
+    <t>{0: [], 1: [[(3, 4), (1, 8), (7, 1), (2, 3), (8, 10), (4, 4)], [(6, 10), (5, 12), (9, 3), (4, 4)]], 2: []}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rigid (capacity 16):
+2 (3) -&gt; 7 (1) -&gt; 1 (8) -&gt; 3 (4)
 11 metre (capacity 30):
-6 (13) -&gt; 1 (10)
-Rigid (capacity 16):
+5 (12) -&gt; 6 (10)
+8 (10) -&gt; 9 (3) -&gt; 4 (8)
+8 metre (capacity 22):
 </t>
   </si>
   <si>
@@ -1908,65 +1907,51 @@
   </si>
   <si>
     <t>Input:
-Customer 1 has 2 pallets demand and window 0-24 at (93.273165051, 1.587999647) and average unload time 0.074134405
-Customer 2 has 7 pallets demand and window 0-24 at (45.028962844, -35.687427172) and average unload time 0.126697851
-Customer 3 has 2 pallets demand and window 0-24 at (-98.761937233, 94.512125742) and average unload time 0.035111273
-Customer 4 has 3 pallets demand and window 23-24 at (-36.627234478, -29.67016166) and average unload time 0.139878216
-Customer 5 has 8 pallets demand and window 0-24 at (12.25863608, -14.064866996) and average unload time 0.122516201
-Customer 6 has 1 pallets demand and window 0-24 at (-61.653871372, -0.786457109) and average unload time 0.103500328
-Customer 7 has 7 pallets demand and window 8-9 at (-32.229459593, -23.660933502) and average unload time 0.106419601
-Customer 8 has 3 pallets demand and window 0-24 at (-91.632389508, -45.246494432) and average unload time 0.060375307
-Customer 9 has 2 pallets demand and window 13-14 at (73.863093658, -90.604508794) and average unload time 0.098209602
-Customer 10 has 5 pallets demand and window 0-24 at (50.569235542, 84.316600055) and average unload time 0.156567716
-Customer 11 has 7 pallets demand and window 0-24 at (-59.880576238, -54.953614653) and average unload time 0.127490737
-Customer 12 has 9 pallets demand and window 0-24 at (-57.217076949, -43.757423357) and average unload time 0.026481746
-Vehicle SP1 is a 8 metre with capacity 22, distance cost 0.860450775, and time cost 12.213310601
-Vehicle SP2 is a Rigid with capacity 16, distance cost 1.100930372, and time cost 14.651912423
-Vehicle SP3 is a 8 metre with capacity 22, distance cost 0.860450775, and time cost 12.213310601
-Vehicle SP4 is a 8 metre with capacity 22, distance cost 0.860450775, and time cost 12.213310601
-Vehicle SP5 is a 8 metre with capacity 22, distance cost 0.860450775, and time cost 12.213310601
+Customer 1 has 11 pallets demand and window 0-24 at (88.96335154, 8.376464455) and average unload time 0.16407808
+Customer 2 has 8 pallets demand and window 0-24 at (55.56646263, -80.190262712) and average unload time 0.030566298
+Customer 3 has 5 pallets demand and window 0-24 at (2.212044734, -28.770525514) and average unload time 0.140307103
+Customer 4 has 1 pallets demand and window 0-24 at (67.894120826, 80.433329592) and average unload time 0.097549161
+Customer 5 has 2 pallets demand and window 0-24 at (68.383625104, 43.007915583) and average unload time 0.060107294
+Customer 6 has 11 pallets demand and window 0-24 at (75.599329127, -87.259159558) and average unload time 0.120907949
+Customer 7 has 1 pallets demand and window 0-24 at (-95.692545842, -4.7772563) and average unload time 0.149628825
+Customer 8 has 4 pallets demand and window 0-24 at (87.368633691, -89.434013551) and average unload time 0.089455763
+Customer 9 has 7 pallets demand and window 0-24 at (23.079986442, 58.740560703) and average unload time 0.085990192
+Customer 10 has 2 pallets demand and window 0-24 at (-6.441627778, -71.576986993) and average unload time 0.036249849
+Customer 11 has 3 pallets demand and window 0-24 at (-35.498600539, 28.638730102) and average unload time 0.156622812
+Customer 12 has 12 pallets demand and window 0-24 at (-25.854322378, 12.731079702) and average unload time 0.155716412
+Vehicle SP1 is a 11 metre with capacity 30, distance cost 1.31252817, and time cost 11.594790205
+Vehicle SP2 is a 11 metre with capacity 30, distance cost 1.31252817, and time cost 11.594790205
+Vehicle SP3 is a 11 metre with capacity 30, distance cost 1.31252817, and time cost 11.594790205
+Vehicle SP4 is a 8 metre with capacity 22, distance cost 1.142441385, and time cost 11.363397443
+Vehicle SP5 is a 8 metre with capacity 22, distance cost 1.142441385, and time cost 11.363397443
 Output:
-Vehicle SP1 travels from Depot to 5 to deliver 8 pallets. Expected unload start time is 5.664861455
-Vehicle SP1 travels from 2 to 7 to deliver 0 pallets. Expected unload start time is 9
-Vehicle SP1 travels from 4 to DepotReturn to deliver 0 pallets. Expected unload start time is 23.729087538
-Vehicle SP1 travels from 5 to 2 to deliver 7 pallets. Expected unload start time is 7.135754086
-Vehicle SP1 travels from 7 to 9 to deliver 2 pallets. Expected unload start time is 13.297479445
-Vehicle SP1 travels from 9 to 4 to deliver 1 pallets. Expected unload start time is 23
-Vehicle SP2 travels from Depot to 7 to deliver 0 pallets. Expected unload start time is 9
-Vehicle SP2 travels from 4 to DepotReturn to deliver 0 pallets. Expected unload start time is 23.589209322
-Vehicle SP2 travels from 7 to 9 to deliver 0 pallets. Expected unload start time is 13.157601228
-Vehicle SP2 travels from 9 to 4 to deliver 0 pallets. Expected unload start time is 23
-Vehicle SP3 travels from Depot to 8 to deliver 3 pallets. Expected unload start time is 6.728384715
-Vehicle SP3 travels from 4 to DepotReturn to deliver 0 pallets. Expected unload start time is 23.589209322
-Vehicle SP3 travels from 7 to 9 to deliver 0 pallets. Expected unload start time is 13.157601228
-Vehicle SP3 travels from 8 to 11 to deliver 7 pallets. Expected unload start time is 7.324541852
-Vehicle SP3 travels from 9 to 4 to deliver 0 pallets. Expected unload start time is 23
-Vehicle SP3 travels from 11 to 12 to deliver 9 pallets. Expected unload start time is 8.360835084
-Vehicle SP3 travels from 12 to 7 to deliver 2 pallets. Expected unload start time is 9
-Vehicle SP4 travels from Depot to 1 to deliver 2 pallets. Expected unload start time is 3.116204443
-Vehicle SP4 travels from 1 to 10 to deliver 5 pallets. Expected unload start time is 4.428225731
-Vehicle SP4 travels from 3 to 6 to deliver 1 pallets. Expected unload start time is 8.430627225
-Vehicle SP4 travels from 4 to DepotReturn to deliver 0 pallets. Expected unload start time is 23.589209322
-Vehicle SP4 travels from 6 to 7 to deliver 0 pallets. Expected unload start time is 9
-Vehicle SP4 travels from 7 to 9 to deliver 0 pallets. Expected unload start time is 13.157601228
-Vehicle SP4 travels from 9 to 4 to deliver 0 pallets. Expected unload start time is 23
-Vehicle SP4 travels from 10 to 3 to deliver 2 pallets. Expected unload start time is 7.082049508
-Vehicle SP5 travels from Depot to 7 to deliver 5 pallets. Expected unload start time is 9
-Vehicle SP5 travels from 4 to DepotReturn to deliver 0 pallets. Expected unload start time is 23.868965754
-Vehicle SP5 travels from 7 to 9 to deliver 0 pallets. Expected unload start time is 13.437357661
-Vehicle SP5 travels from 9 to 4 to deliver 2 pallets. Expected unload start time is 23
-Objective value: 2213.465318176
-Solve time: 95015</t>
-  </si>
-  <si>
-    <t>{0: [[(5, 8), (2, 7), (7, 0), (9, 2), (4, 1)], [(8, 3), (11, 7), (12, 9), (7, 2), (9, 0), (4, 0)], [(1, 2), (10, 5), (3, 2), (6, 1), (7, 0), (9, 0), (4, 0)], [(7, 5), (9, 0), (4, 2)]], 1: [[(7, 0), (9, 0), (4, 0)]]}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8 metre (capacity 22):
-10 (5) -&gt; 3 (2) -&gt; 6 (1) -&gt; 7 (7)
-8 (3) -&gt; 11 (7) -&gt; 12 (9) -&gt; 4 (3)
-1 (2) -&gt; 9 (2) -&gt; 2 (7) -&gt; 5 (8)
-Rigid (capacity 16):
+Vehicle SP3 travels from Depot to 3 to deliver 5 pallets. Expected unload start time is 2.720820557
+Vehicle SP3 travels from 2 to 6 to deliver 11 pallets. Expected unload start time is 5.333377745
+Vehicle SP3 travels from 3 to 10 to deliver 2 pallets. Expected unload start time is 3.968261167
+Vehicle SP3 travels from 6 to 8 to deliver 4 pallets. Expected unload start time is 6.81297223
+Vehicle SP3 travels from 8 to DepotReturn to deliver 0 pallets. Expected unload start time is 8.733631291
+Vehicle SP3 travels from 10 to 2 to deliver 8 pallets. Expected unload start time is 4.823303975
+Vehicle SP4 travels from Depot to 9 to deliver 7 pallets. Expected unload start time is 2.440990767
+Vehicle SP4 travels from 1 to DepotReturn to deliver 0 pallets. Expected unload start time is 7.776277164
+Vehicle SP4 travels from 4 to 5 to deliver 2 pallets. Expected unload start time is 4.230683723
+Vehicle SP4 travels from 5 to 1 to deliver 11 pallets. Expected unload start time is 4.854457912
+Vehicle SP4 travels from 9 to 4 to deliver 1 pallets. Expected unload start time is 3.665276873
+Vehicle SP5 travels from Depot to 7 to deliver 1 pallets. Expected unload start time is 2.456381201
+Vehicle SP5 travels from 7 to 11 to deliver 3 pallets. Expected unload start time is 3.466600231
+Vehicle SP5 travels from 11 to 12 to deliver 12 pallets. Expected unload start time is 4.169004096
+Vehicle SP5 travels from 12 to DepotReturn to deliver 0 pallets. Expected unload start time is 6.39783672
+Objective value: 970.104217489
+Solve time: 74222</t>
+  </si>
+  <si>
+    <t>{0: [[(3, 5), (10, 2), (2, 8), (6, 11), (8, 4)]], 1: [[(9, 7), (4, 1), (5, 2), (1, 11)], [(7, 1), (11, 3), (12, 12)]]}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11 metre (capacity 30):
+3 (5) -&gt; 10 (2) -&gt; 2 (8) -&gt; 6 (11) -&gt; 8 (4)
+8 metre (capacity 22):
+12 (12) -&gt; 11 (3) -&gt; 7 (1)
+9 (7) -&gt; 4 (1) -&gt; 5 (2) -&gt; 1 (11)
 </t>
   </si>
   <si>
@@ -2808,68 +2793,60 @@
   </si>
   <si>
     <t>Input:
-Customer 1 has 3 pallets demand and window 0-24 at (88.058044155, -73.570110876) and average unload time 0.093772982
-Customer 2 has 3 pallets demand and window 0-24 at (-21.853860768, 54.80570729) and average unload time 0.124210376
-Customer 3 has 2 pallets demand and window 0-24 at (-37.063445819, -11.167743394) and average unload time 0.119470011
-Customer 4 has 7 pallets demand and window 0-24 at (-91.143631994, -80.030643662) and average unload time 0.022548226
-Customer 5 has 5 pallets demand and window 0-24 at (-13.611229337, 1.564959782) and average unload time 0.019551717
-Customer 6 has 1 pallets demand and window 20-21 at (-57.878159612, 80.048081792) and average unload time 0.03525826
-Customer 7 has 6 pallets demand and window 10-11 at (62.275651148, 90.225128677) and average unload time 0.105580047
-Customer 8 has 2 pallets demand and window 0-24 at (34.704230785, 8.760411381) and average unload time 0.056262363
-Customer 9 has 7 pallets demand and window 0-24 at (5.648334013, -4.398155937) and average unload time 0.029085951
-Customer 10 has 1 pallets demand and window 0-24 at (-90.863887759, 80.570994016) and average unload time 0.066913419
-Customer 11 has 3 pallets demand and window 0-24 at (55.108709296, 25.500250719) and average unload time 0.07454243
-Customer 12 has 4 pallets demand and window 0-24 at (73.625056531, -86.234879586) and average unload time 0.0950022
-Customer 13 has 1 pallets demand and window 0-24 at (-90.757987249, -96.314255805) and average unload time 0.12803731
-Customer 14 has 2 pallets demand and window 0-24 at (48.05847899, 45.406875629) and average unload time 0.106118301
-Customer 15 has 6 pallets demand and window 0-24 at (29.791370024, 34.714269814) and average unload time 0.161937106
-Vehicle SP1 is a 11 metre with capacity 30, distance cost 1.160203168, and time cost 12.631017844
-Vehicle SP2 is a 8 metre with capacity 22, distance cost 0.785851534, and time cost 10.869798
-Vehicle SP3 is a Rigid with capacity 16, distance cost 0.964702349, and time cost 7.584332782
-Vehicle SP4 is a 11 metre with capacity 30, distance cost 1.160203168, and time cost 12.631017844
-Vehicle SP5 is a 8 metre with capacity 22, distance cost 0.785851534, and time cost 10.869798
+Customer 1 has 4 pallets demand and window 0-24 at (1.976020522, -22.825207888) and average unload time 0.159881151
+Customer 2 has 6 pallets demand and window 0-24 at (47.428961081, 87.889780126) and average unload time 0.042294392
+Customer 3 has 8 pallets demand and window 0-24 at (83.08083985, 55.88754844) and average unload time 0.153003421
+Customer 4 has 9 pallets demand and window 0-24 at (28.431123656, -19.552922793) and average unload time 0.043674126
+Customer 5 has 5 pallets demand and window 0-24 at (-97.832446725, -11.776878342) and average unload time 0.108031866
+Customer 6 has 5 pallets demand and window 0-24 at (-25.966657148, 82.518177867) and average unload time 0.075010532
+Customer 7 has 8 pallets demand and window 0-24 at (-43.656560356, -35.973193685) and average unload time 0.112033463
+Customer 8 has 9 pallets demand and window 0-24 at (-44.674950082, 43.417236095) and average unload time 0.119953802
+Customer 9 has 2 pallets demand and window 6-7 at (60.251854472, 3.72139362) and average unload time 0.081816906
+Customer 10 has 4 pallets demand and window 17-18 at (19.822346631, -78.6145687) and average unload time 0.135728628
+Customer 11 has 1 pallets demand and window 0-24 at (14.662069093, -31.36079323) and average unload time 0.077354186
+Customer 12 has 7 pallets demand and window 0-24 at (86.780251333, -68.416588669) and average unload time 0.120987414
+Customer 13 has 7 pallets demand and window 0-24 at (34.260790282, 91.6397452) and average unload time 0.081360095
+Customer 14 has 5 pallets demand and window 0-24 at (-58.481131341, 24.344470135) and average unload time 0.149101318
+Customer 15 has 3 pallets demand and window 0-24 at (2.410398507, -80.644326211) and average unload time 0.024687273
+Vehicle SP1 is a 11 metre with capacity 30, distance cost 0.727667561, and time cost 14.17767592
+Vehicle SP2 is a 8 metre with capacity 22, distance cost 0.994610146, and time cost 9.783318098
+Vehicle SP3 is a 8 metre with capacity 22, distance cost 0.994610146, and time cost 9.783318098
+Vehicle SP4 is a 11 metre with capacity 30, distance cost 0.727667561, and time cost 14.17767592
+Vehicle SP5 is a 8 metre with capacity 22, distance cost 0.994610146, and time cost 9.783318098
 Output:
-Vehicle SP1 travels from Depot to 7 to deliver 5 pallets. Expected unload start time is 11
-Vehicle SP1 travels from 6 to DepotReturn to deliver 0 pallets. Expected unload start time is 21.234755591
-Vehicle SP1 travels from 7 to 6 to deliver 0 pallets. Expected unload start time is 20
-Vehicle SP2 travels from Depot to 9 to deliver 7 pallets. Expected unload start time is 8.66767813
-Vehicle SP2 travels from 5 to DepotReturn to deliver 0 pallets. Expected unload start time is 22.129538377
-Vehicle SP2 travels from 6 to 10 to deliver 1 pallets. Expected unload start time is 20.412373408
-Vehicle SP2 travels from 7 to 6 to deliver 0 pallets. Expected unload start time is 20
-Vehicle SP2 travels from 8 to 11 to deliver 3 pallets. Expected unload start time is 9.712418467
-Vehicle SP2 travels from 9 to 8 to deliver 2 pallets. Expected unload start time is 9.269987276
-Vehicle SP2 travels from 10 to 5 to deliver 5 pallets. Expected unload start time is 21.86051854
-Vehicle SP2 travels from 11 to 14 to deliver 2 pallets. Expected unload start time is 10.200023581
-Vehicle SP2 travels from 14 to 7 to deliver 0 pallets. Expected unload start time is 11
-Vehicle SP3 travels from Depot to 15 to deliver 6 pallets. Expected unload start time is 9.224414137
-Vehicle SP3 travels from 6 to DepotReturn to deliver 0 pallets. Expected unload start time is 21.234755591
-Vehicle SP3 travels from 7 to 6 to deliver 0 pallets. Expected unload start time is 20
-Vehicle SP3 travels from 15 to 7 to deliver 0 pallets. Expected unload start time is 11
-Vehicle SP4 travels from Depot to 7 to deliver 1 pallets. Expected unload start time is 11
-Vehicle SP4 travels from 6 to DepotReturn to deliver 0 pallets. Expected unload start time is 21.234755591
-Vehicle SP4 travels from 7 to 6 to deliver 0 pallets. Expected unload start time is 20
-Vehicle SP5 travels from Depot to 3 to deliver 2 pallets. Expected unload start time is 4.144435436
-Vehicle SP5 travels from 1 to 7 to deliver 0 pallets. Expected unload start time is 11
-Vehicle SP5 travels from 2 to DepotReturn to deliver 0 pallets. Expected unload start time is 21.695264234
-Vehicle SP5 travels from 3 to 4 to deliver 7 pallets. Expected unload start time is 5.477876312
-Vehicle SP5 travels from 4 to 13 to deliver 1 pallets. Expected unload start time is 5.839316121
-Vehicle SP5 travels from 6 to 2 to deliver 3 pallets. Expected unload start time is 20.585105906
-Vehicle SP5 travels from 7 to 6 to deliver 1 pallets. Expected unload start time is 20
-Vehicle SP5 travels from 12 to 1 to deliver 3 pallets. Expected unload start time is 8.64603132
-Vehicle SP5 travels from 13 to 12 to deliver 4 pallets. Expected unload start time is 8.026000548
-Objective value: 2041.698102156
-Solve time: 1251752</t>
-  </si>
-  <si>
-    <t>{0: [[(7, 5), (6, 0)], [(7, 1), (6, 0)]], 1: [[(9, 7), (8, 2), (11, 3), (14, 2), (7, 0), (6, 0), (10, 1), (5, 5)], [(3, 2), (4, 7), (13, 1), (12, 4), (1, 3), (7, 0), (6, 1), (2, 3)]], 2: [[(15, 6), (7, 0), (6, 0)]]}</t>
+Vehicle SP1 travels from Depot to 9 to deliver 2 pallets. Expected unload start time is 6
+Vehicle SP1 travels from 2 to 13 to deliver 7 pallets. Expected unload start time is 9.123210563
+Vehicle SP1 travels from 3 to 2 to deliver 6 pallets. Expected unload start time is 8.698297816
+Vehicle SP1 travels from 6 to DepotReturn to deliver 0 pallets. Expected unload start time is 11.910553813
+Vehicle SP1 travels from 9 to 3 to deliver 8 pallets. Expected unload start time is 6.875417473
+Vehicle SP1 travels from 13 to 6 to deliver 5 pallets. Expected unload start time is 10.454159615
+Vehicle SP3 travels from Depot to 15 to deliver 3 pallets. Expected unload start time is 17.140526512
+Vehicle SP3 travels from 4 to DepotReturn to deliver 0 pallets. Expected unload start time is 21.310161497
+Vehicle SP3 travels from 10 to 12 to deliver 7 pallets. Expected unload start time is 18.687523054
+Vehicle SP3 travels from 12 to 4 to deliver 9 pallets. Expected unload start time is 20.485772704
+Vehicle SP3 travels from 15 to 10 to deliver 3 pallets. Expected unload start time is 17.433711533
+Vehicle SP4 travels from Depot to 11 to deliver 1 pallets. Expected unload start time is 16.328462057
+Vehicle SP4 travels from 5 to 14 to deliver 5 pallets. Expected unload start time is 20.937419127
+Vehicle SP4 travels from 7 to 5 to deliver 5 pallets. Expected unload start time is 19.729558771
+Vehicle SP4 travels from 8 to DepotReturn to deliver 0 pallets. Expected unload start time is 23.835537789
+Vehicle SP4 travels from 10 to 7 to deliver 8 pallets. Expected unload start time is 18.091619778
+Vehicle SP4 travels from 11 to 10 to deliver 1 pallets. Expected unload start time is 17
+Vehicle SP4 travels from 14 to 8 to deliver 9 pallets. Expected unload start time is 21.977241937
+Vehicle SP5 travels from Depot to 1 to deliver 4 pallets. Expected unload start time is 0.808137709
+Vehicle SP5 travels from 1 to DepotReturn to deliver 0 pallets. Expected unload start time is 1.734044588
+Objective value: 844.422064514
+Solve time: 588960</t>
+  </si>
+  <si>
+    <t>{0: [[(9, 2), (3, 8), (2, 6), (13, 7), (6, 5)], [(11, 1), (10, 1), (7, 8), (5, 5), (14, 5), (8, 9)]], 1: [[(15, 3), (10, 3), (12, 7), (4, 9)], [(1, 4)]]}</t>
   </si>
   <si>
     <t xml:space="preserve">11 metre (capacity 30):
+6 (5) -&gt; 13 (7) -&gt; 2 (6) -&gt; 3 (8) -&gt; 9 (2)
+7 (8) -&gt; 5 (5) -&gt; 14 (5) -&gt; 8 (9)
 8 metre (capacity 22):
-3 (2) -&gt; 13 (1) -&gt; 4 (7) -&gt; 10 (1) -&gt; 6 (1) -&gt; 2 (3) -&gt; 15 (6)
-12 (4) -&gt; 1 (3) -&gt; 11 (3) -&gt; 7 (6) -&gt; 14 (2) -&gt; 8 (2)
-Rigid (capacity 16):
-9 (7) -&gt; 5 (5)
+11 (1) -&gt; 12 (7) -&gt; 10 (4) -&gt; 15 (3) -&gt; 1 (4)
+4 (9)
 </t>
   </si>
   <si>
@@ -2987,15 +2964,6 @@
 5 (8) -&gt; 8 (4) -&gt; 9 (2)
 15 (6) -&gt; 13 (6)
 </t>
-  </si>
-  <si>
-    <t>Objective Value</t>
-  </si>
-  <si>
-    <t>Meta Difference (%, compared to original math objective value)</t>
-  </si>
-  <si>
-    <t>Meta Difference (%, compared to meta evaluation of math objective)</t>
   </si>
 </sst>
 </file>
@@ -3047,7 +3015,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3055,6 +3023,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3064,13 +3034,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3078,13 +3047,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF6D6D"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3186,7 +3148,7 @@
                   <c:v>1.8458999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14.2897</c:v>
+                  <c:v>18.308600000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>141.48820000000001</c:v>
@@ -3197,7 +3159,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4F2E-400B-9F0B-E826DF54A1F5}"/>
+              <c16:uniqueId val="{00000000-FDA2-4421-A2BC-087C5E8E98A6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3256,13 +3218,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>10.9032</c:v>
+                  <c:v>12.554900000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>86.60499999999999</c:v>
+                  <c:v>84.525700000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3330.0409</c:v>
+                  <c:v>3263.7617</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3270,7 +3232,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-4F2E-400B-9F0B-E826DF54A1F5}"/>
+              <c16:uniqueId val="{00000001-FDA2-4421-A2BC-087C5E8E98A6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3929,7 +3891,7 @@
       </c>
       <c r="C3">
         <f ca="1">AVERAGE(OFFSET('Run Data'!$E$2, (ROWS(Graphs!C$1:C3)-2)*10,0,10,1))</f>
-        <v>14.2897</v>
+        <v>18.308600000000002</v>
       </c>
       <c r="D3">
         <f ca="1">MIN(OFFSET('Run Data'!$E$2, (ROWS(Graphs!D$1:D3)-2)*10,0,10,1))</f>
@@ -3937,11 +3899,11 @@
       </c>
       <c r="E3">
         <f ca="1">MAX(OFFSET('Run Data'!$E$2, (ROWS(Graphs!E$1:E3)-2)*10,0,10,1))</f>
-        <v>66.930999999999997</v>
+        <v>73.131</v>
       </c>
       <c r="F3">
         <f ca="1">_xlfn.STDEV.S(OFFSET('Run Data'!$E$2, (ROWS(Graphs!F$1:F3)-2)*10,0,10,1))</f>
-        <v>20.677451976327578</v>
+        <v>27.489165341194983</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -3981,7 +3943,7 @@
       </c>
       <c r="C5">
         <f ca="1">AVERAGE(OFFSET('Run Data'!$E$2, (ROWS(Graphs!C$1:C5)-2)*10,0,10,1))</f>
-        <v>10.9032</v>
+        <v>12.554900000000002</v>
       </c>
       <c r="D5">
         <f ca="1">MIN(OFFSET('Run Data'!$E$2, (ROWS(Graphs!D$1:D5)-2)*10,0,10,1))</f>
@@ -3993,7 +3955,7 @@
       </c>
       <c r="F5">
         <f ca="1">_xlfn.STDEV.S(OFFSET('Run Data'!$E$2, (ROWS(Graphs!F$1:F5)-2)*10,0,10,1))</f>
-        <v>8.2254796388349849</v>
+        <v>8.7603947964055155</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -4007,7 +3969,7 @@
       </c>
       <c r="C6">
         <f ca="1">AVERAGE(OFFSET('Run Data'!$E$2, (ROWS(Graphs!C$1:C6)-2)*10,0,10,1))</f>
-        <v>86.60499999999999</v>
+        <v>84.525700000000001</v>
       </c>
       <c r="D6">
         <f ca="1">MIN(OFFSET('Run Data'!$E$2, (ROWS(Graphs!D$1:D6)-2)*10,0,10,1))</f>
@@ -4019,7 +3981,7 @@
       </c>
       <c r="F6">
         <f ca="1">_xlfn.STDEV.S(OFFSET('Run Data'!$E$2, (ROWS(Graphs!F$1:F6)-2)*10,0,10,1))</f>
-        <v>97.567668239933766</v>
+        <v>97.590086402313986</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -4033,7 +3995,7 @@
       </c>
       <c r="C7">
         <f ca="1">AVERAGE(OFFSET('Run Data'!$E$2, (ROWS(Graphs!C$1:C7)-2)*10,0,10,1))</f>
-        <v>3330.0409</v>
+        <v>3263.7617</v>
       </c>
       <c r="D7">
         <f ca="1">MIN(OFFSET('Run Data'!$E$2, (ROWS(Graphs!D$1:D7)-2)*10,0,10,1))</f>
@@ -4045,7 +4007,7 @@
       </c>
       <c r="F7">
         <f ca="1">_xlfn.STDEV.S(OFFSET('Run Data'!$E$2, (ROWS(Graphs!F$1:F7)-2)*10,0,10,1))</f>
-        <v>8614.7117447359578</v>
+        <v>8635.0039337891067</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -4134,13 +4096,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:P209"/>
+  <dimension ref="A1:R209"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="H5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H29" sqref="H29:I29"/>
+      <selection pane="bottomRight" activeCell="R62" sqref="R62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4152,18 +4114,20 @@
     <col min="5" max="5" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="150.7109375" style="5" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="5" customWidth="1"/>
-    <col min="10" max="10" width="12.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="33.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="100.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.28515625" style="3" customWidth="1"/>
-    <col min="16" max="16" width="19.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="150.7109375" style="7" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="7" customWidth="1"/>
+    <col min="10" max="10" width="12.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.85546875" style="3" customWidth="1"/>
+    <col min="12" max="12" width="13.85546875" style="5" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="13.85546875" style="3" customWidth="1"/>
+    <col min="14" max="14" width="13.28515625" style="3" customWidth="1"/>
+    <col min="15" max="15" width="16" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.28515625" style="3" customWidth="1"/>
+    <col min="18" max="18" width="19.28515625" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -4183,34 +4147,40 @@
         <v>10</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>197</v>
+        <v>11</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L1" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="L1" s="6" t="s">
+        <v>15</v>
+      </c>
       <c r="M1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>198</v>
+        <v>18</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>9</v>
       </c>
@@ -4231,38 +4201,45 @@
       <c r="F2">
         <v>641</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2">
         <v>573.06827871500002</v>
       </c>
-      <c r="H2" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" s="7"/>
+      <c r="H2" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="9"/>
       <c r="J2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="K2">
         <v>681.64705556381671</v>
       </c>
-      <c r="L2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M2">
+      <c r="L2" s="5">
+        <v>0.18946917999419649</v>
+      </c>
+      <c r="M2" s="5">
+        <f t="shared" ref="M2:M33" si="2">(K2-G2)/G2</f>
+        <v>0.18946917999419646</v>
+      </c>
+      <c r="N2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O2">
         <v>262.46966379999998</v>
       </c>
-      <c r="N2">
+      <c r="P2">
         <v>737.89099450163053</v>
       </c>
-      <c r="O2" s="8">
-        <f>(N2-G2)/G2</f>
+      <c r="Q2" s="5">
+        <f t="shared" ref="Q2:Q33" si="3">(P2-G2)/G2</f>
         <v>0.28761444649530254</v>
       </c>
-      <c r="P2" s="4">
-        <f t="shared" ref="P2:P33" si="2">(N2-K2)/K2</f>
+      <c r="R2" s="4">
+        <f t="shared" ref="R2:R33" si="4">(P2-K2)/K2</f>
         <v>8.2511819685470916E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>9</v>
       </c>
@@ -4283,38 +4260,45 @@
       <c r="F3">
         <v>903</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3">
         <v>576.78510638299997</v>
       </c>
-      <c r="H3" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="7"/>
+      <c r="H3" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="9"/>
       <c r="J3" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="K3">
         <v>662.80451167813396</v>
       </c>
-      <c r="L3" t="s">
-        <v>22</v>
-      </c>
-      <c r="M3">
+      <c r="L3" s="5">
+        <v>0.14913596821970451</v>
+      </c>
+      <c r="M3" s="5">
+        <f t="shared" si="2"/>
+        <v>0.14913596821970454</v>
+      </c>
+      <c r="N3" t="s">
+        <v>27</v>
+      </c>
+      <c r="O3">
         <v>278.01979510000001</v>
       </c>
-      <c r="N3">
+      <c r="P3">
         <v>662.80451167813396</v>
       </c>
-      <c r="O3" s="8">
-        <f t="shared" ref="O3:O61" si="3">(N3-G3)/G3</f>
+      <c r="Q3" s="5">
+        <f t="shared" si="3"/>
         <v>0.14913596821970454</v>
       </c>
-      <c r="P3" s="4">
-        <f t="shared" si="2"/>
+      <c r="R3" s="4">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>9</v>
       </c>
@@ -4335,38 +4319,45 @@
       <c r="F4">
         <v>630</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4">
         <v>943.34840135000002</v>
       </c>
-      <c r="H4" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="I4" s="7"/>
+      <c r="H4" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" s="9"/>
       <c r="J4" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="K4">
         <v>1121.506775041001</v>
       </c>
-      <c r="L4" t="s">
-        <v>25</v>
-      </c>
-      <c r="M4">
+      <c r="L4" s="5">
+        <v>0.18885745015949931</v>
+      </c>
+      <c r="M4" s="5">
+        <f t="shared" si="2"/>
+        <v>0.18885745015949931</v>
+      </c>
+      <c r="N4" t="s">
+        <v>30</v>
+      </c>
+      <c r="O4">
         <v>278.10329050000013</v>
       </c>
-      <c r="N4">
+      <c r="P4">
         <v>1017.840597157414</v>
       </c>
-      <c r="O4" s="8">
+      <c r="Q4" s="5">
         <f t="shared" si="3"/>
         <v>7.896573068954188E-2</v>
       </c>
-      <c r="P4" s="4">
-        <f t="shared" si="2"/>
+      <c r="R4" s="4">
+        <f t="shared" si="4"/>
         <v>-9.2434731729371042E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>9</v>
       </c>
@@ -4387,38 +4378,45 @@
       <c r="F5">
         <v>1531</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5">
         <v>547.76187840700004</v>
       </c>
-      <c r="H5" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="I5" s="7"/>
+      <c r="H5" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="I5" s="9"/>
       <c r="J5" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="K5">
         <v>648.77828901133626</v>
       </c>
-      <c r="L5" t="s">
-        <v>28</v>
-      </c>
-      <c r="M5">
+      <c r="L5" s="5">
+        <v>0.18441664998322249</v>
+      </c>
+      <c r="M5" s="5">
+        <f t="shared" si="2"/>
+        <v>0.18441664998322252</v>
+      </c>
+      <c r="N5" t="s">
+        <v>33</v>
+      </c>
+      <c r="O5">
         <v>277.54593849999998</v>
       </c>
-      <c r="N5">
+      <c r="P5">
         <v>648.77828901133626</v>
       </c>
-      <c r="O5" s="8">
+      <c r="Q5" s="5">
         <f t="shared" si="3"/>
         <v>0.18441664998322252</v>
       </c>
-      <c r="P5" s="4">
-        <f t="shared" si="2"/>
+      <c r="R5" s="4">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>9</v>
       </c>
@@ -4439,38 +4437,45 @@
       <c r="F6">
         <v>2543</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6">
         <v>979.546880192</v>
       </c>
-      <c r="H6" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="I6" s="7"/>
+      <c r="H6" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" s="9"/>
       <c r="J6" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="K6">
         <v>1096.3601690856599</v>
       </c>
-      <c r="L6" t="s">
-        <v>31</v>
-      </c>
-      <c r="M6">
+      <c r="L6" s="5">
+        <v>0.11925237194442739</v>
+      </c>
+      <c r="M6" s="5">
+        <f t="shared" si="2"/>
+        <v>0.11925237194442743</v>
+      </c>
+      <c r="N6" t="s">
+        <v>36</v>
+      </c>
+      <c r="O6">
         <v>260.34920179999989</v>
       </c>
-      <c r="N6">
+      <c r="P6">
         <v>1077.6947002346831</v>
       </c>
-      <c r="O6" s="8">
+      <c r="Q6" s="5">
         <f t="shared" si="3"/>
         <v>0.10019716465581026</v>
       </c>
-      <c r="P6" s="4">
-        <f t="shared" si="2"/>
+      <c r="R6" s="4">
+        <f t="shared" si="4"/>
         <v>-1.7024942511860323E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>9</v>
       </c>
@@ -4491,38 +4496,45 @@
       <c r="F7">
         <v>3773</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7">
         <v>456.27215827700002</v>
       </c>
-      <c r="H7" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I7" s="7"/>
+      <c r="H7" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="I7" s="9"/>
       <c r="J7" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="K7">
         <v>520.34549815358832</v>
       </c>
-      <c r="L7" t="s">
-        <v>34</v>
-      </c>
-      <c r="M7">
+      <c r="L7" s="5">
+        <v>0.14042789750429999</v>
+      </c>
+      <c r="M7" s="5">
+        <f t="shared" si="2"/>
+        <v>0.14042789750430001</v>
+      </c>
+      <c r="N7" t="s">
+        <v>39</v>
+      </c>
+      <c r="O7">
         <v>317.7635937</v>
       </c>
-      <c r="N7">
+      <c r="P7">
         <v>520.34549815358832</v>
       </c>
-      <c r="O7" s="8">
+      <c r="Q7" s="5">
         <f t="shared" si="3"/>
         <v>0.14042789750430001</v>
       </c>
-      <c r="P7" s="4">
-        <f t="shared" si="2"/>
+      <c r="R7" s="4">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>9</v>
       </c>
@@ -4543,38 +4555,45 @@
       <c r="F8">
         <v>3816</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8">
         <v>883.23944079299997</v>
       </c>
-      <c r="H8" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="I8" s="7"/>
+      <c r="H8" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="I8" s="9"/>
       <c r="J8" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="K8">
         <v>996.8146493389404</v>
       </c>
-      <c r="L8" t="s">
-        <v>37</v>
-      </c>
-      <c r="M8">
+      <c r="L8" s="5">
+        <v>0.12858937599522169</v>
+      </c>
+      <c r="M8" s="5">
+        <f t="shared" si="2"/>
+        <v>0.12858937599522169</v>
+      </c>
+      <c r="N8" t="s">
+        <v>42</v>
+      </c>
+      <c r="O8">
         <v>270.72479270000002</v>
       </c>
-      <c r="N8">
+      <c r="P8">
         <v>996.81464933894028</v>
       </c>
-      <c r="O8" s="8">
+      <c r="Q8" s="5">
         <f t="shared" si="3"/>
         <v>0.12858937599522158</v>
       </c>
-      <c r="P8" s="4">
-        <f t="shared" si="2"/>
+      <c r="R8" s="4">
+        <f t="shared" si="4"/>
         <v>-1.1405012737022871E-16</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>9</v>
       </c>
@@ -4595,38 +4614,45 @@
       <c r="F9">
         <v>2016</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9">
         <v>674.55252934199996</v>
       </c>
-      <c r="H9" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="I9" s="7"/>
+      <c r="H9" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="I9" s="9"/>
       <c r="J9" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="K9">
         <v>849.7955585238285</v>
       </c>
-      <c r="L9" t="s">
-        <v>40</v>
-      </c>
-      <c r="M9">
+      <c r="L9" s="5">
+        <v>0.25979152335663369</v>
+      </c>
+      <c r="M9" s="5">
+        <f t="shared" si="2"/>
+        <v>0.25979152335663375</v>
+      </c>
+      <c r="N9" t="s">
+        <v>45</v>
+      </c>
+      <c r="O9">
         <v>304.02424980000001</v>
       </c>
-      <c r="N9">
+      <c r="P9">
         <v>775.21553639218246</v>
       </c>
-      <c r="O9" s="8">
+      <c r="Q9" s="5">
         <f t="shared" si="3"/>
         <v>0.14922930783222382</v>
       </c>
-      <c r="P9" s="4">
-        <f t="shared" si="2"/>
+      <c r="R9" s="4">
+        <f t="shared" si="4"/>
         <v>-8.7762311044786198E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -4647,38 +4673,45 @@
       <c r="F10">
         <v>1630</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10">
         <v>604.10825342600003</v>
       </c>
-      <c r="H10" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="I10" s="7"/>
+      <c r="H10" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" s="9"/>
       <c r="J10" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="K10">
         <v>732.72108410107626</v>
       </c>
-      <c r="L10" t="s">
-        <v>43</v>
-      </c>
-      <c r="M10">
+      <c r="L10" s="5">
+        <v>0.21289699312282381</v>
+      </c>
+      <c r="M10" s="5">
+        <f t="shared" si="2"/>
+        <v>0.21289699312282379</v>
+      </c>
+      <c r="N10" t="s">
+        <v>48</v>
+      </c>
+      <c r="O10">
         <v>294.104108</v>
       </c>
-      <c r="N10">
+      <c r="P10">
         <v>732.72108410107626</v>
       </c>
-      <c r="O10" s="8">
+      <c r="Q10" s="5">
         <f t="shared" si="3"/>
         <v>0.21289699312282379</v>
       </c>
-      <c r="P10" s="4">
-        <f t="shared" si="2"/>
+      <c r="R10" s="4">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -4699,38 +4732,45 @@
       <c r="F11">
         <v>976</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11">
         <v>566.83624877900002</v>
       </c>
-      <c r="H11" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="I11" s="7"/>
+      <c r="H11" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I11" s="9"/>
       <c r="J11" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="K11">
         <v>675.31814202394798</v>
       </c>
-      <c r="L11" t="s">
-        <v>46</v>
-      </c>
-      <c r="M11">
+      <c r="L11" s="5">
+        <v>0.1913813618635446</v>
+      </c>
+      <c r="M11" s="5">
+        <f t="shared" si="2"/>
+        <v>0.19138136186354457</v>
+      </c>
+      <c r="N11" t="s">
+        <v>51</v>
+      </c>
+      <c r="O11">
         <v>268.09872009999998</v>
       </c>
-      <c r="N11">
+      <c r="P11">
         <v>695.40386535206767</v>
       </c>
-      <c r="O11" s="8">
+      <c r="Q11" s="5">
         <f t="shared" si="3"/>
         <v>0.22681615166639427</v>
       </c>
-      <c r="P11" s="4">
-        <f t="shared" si="2"/>
+      <c r="R11" s="4">
+        <f t="shared" si="4"/>
         <v>2.9742608821261916E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>12</v>
       </c>
@@ -4751,38 +4791,45 @@
       <c r="F12">
         <v>2359</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12">
         <v>784.24467330000004</v>
       </c>
-      <c r="H12" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I12" s="7"/>
+      <c r="H12" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="I12" s="9"/>
       <c r="J12" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="K12">
         <v>913.45865950850782</v>
       </c>
-      <c r="L12" t="s">
-        <v>49</v>
-      </c>
-      <c r="M12">
+      <c r="L12" s="5">
+        <v>0.16476233834626131</v>
+      </c>
+      <c r="M12" s="5">
+        <f t="shared" si="2"/>
+        <v>0.16476233834626131</v>
+      </c>
+      <c r="N12" t="s">
+        <v>54</v>
+      </c>
+      <c r="O12">
         <v>464.70780339999988</v>
       </c>
-      <c r="N12">
+      <c r="P12">
         <v>914.85828521333269</v>
       </c>
-      <c r="O12" s="8">
+      <c r="Q12" s="5">
         <f t="shared" si="3"/>
         <v>0.16654701824588425</v>
       </c>
-      <c r="P12" s="4">
-        <f t="shared" si="2"/>
+      <c r="R12" s="4">
+        <f t="shared" si="4"/>
         <v>1.5322266533418691E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -4803,38 +4850,45 @@
       <c r="F13">
         <v>8640</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13">
         <v>613.378326109</v>
       </c>
-      <c r="H13" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="I13" s="7"/>
+      <c r="H13" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="I13" s="9"/>
       <c r="J13" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="K13">
         <v>723.75913134411178</v>
       </c>
-      <c r="L13" t="s">
-        <v>52</v>
-      </c>
-      <c r="M13">
+      <c r="L13" s="5">
+        <v>0.17995550305032559</v>
+      </c>
+      <c r="M13" s="5">
+        <f t="shared" si="2"/>
+        <v>0.17995550305032562</v>
+      </c>
+      <c r="N13" t="s">
+        <v>57</v>
+      </c>
+      <c r="O13">
         <v>406.5890359</v>
       </c>
-      <c r="N13">
+      <c r="P13">
         <v>723.75913134411178</v>
       </c>
-      <c r="O13" s="8">
+      <c r="Q13" s="5">
         <f t="shared" si="3"/>
         <v>0.17995550305032562</v>
       </c>
-      <c r="P13" s="4">
-        <f t="shared" si="2"/>
+      <c r="R13" s="4">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -4855,38 +4909,45 @@
       <c r="F14">
         <v>1565</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14">
         <v>791.18591642900003</v>
       </c>
-      <c r="H14" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="I14" s="7"/>
+      <c r="H14" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="I14" s="9"/>
       <c r="J14" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="K14">
         <v>869.73014524941982</v>
       </c>
-      <c r="L14" t="s">
-        <v>55</v>
-      </c>
-      <c r="M14">
+      <c r="L14" s="5">
+        <v>9.9274048222353875E-2</v>
+      </c>
+      <c r="M14" s="5">
+        <f t="shared" si="2"/>
+        <v>9.9274048222353875E-2</v>
+      </c>
+      <c r="N14" t="s">
+        <v>60</v>
+      </c>
+      <c r="O14">
         <v>419.66426040000027</v>
       </c>
-      <c r="N14">
+      <c r="P14">
         <v>869.73014524941982</v>
       </c>
-      <c r="O14" s="8">
+      <c r="Q14" s="5">
         <f t="shared" si="3"/>
         <v>9.9274048222353875E-2</v>
       </c>
-      <c r="P14" s="4">
-        <f t="shared" si="2"/>
+      <c r="R14" s="4">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>12</v>
       </c>
@@ -4907,38 +4968,45 @@
       <c r="F15">
         <v>5289</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15">
         <v>750.87424906499996</v>
       </c>
-      <c r="H15" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="I15" s="7"/>
+      <c r="H15" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="I15" s="9"/>
       <c r="J15" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="K15">
         <v>894.78810796327741</v>
       </c>
-      <c r="L15" t="s">
-        <v>58</v>
-      </c>
-      <c r="M15">
+      <c r="L15" s="5">
+        <v>0.19166173174467119</v>
+      </c>
+      <c r="M15" s="5">
+        <f t="shared" si="2"/>
+        <v>0.19166173174467122</v>
+      </c>
+      <c r="N15" t="s">
+        <v>63</v>
+      </c>
+      <c r="O15">
         <v>422.64755399999967</v>
       </c>
-      <c r="N15">
+      <c r="P15">
         <v>894.78810796327741</v>
       </c>
-      <c r="O15" s="8">
+      <c r="Q15" s="5">
         <f t="shared" si="3"/>
         <v>0.19166173174467122</v>
       </c>
-      <c r="P15" s="4">
-        <f t="shared" si="2"/>
+      <c r="R15" s="4">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>12</v>
       </c>
@@ -4959,38 +5027,45 @@
       <c r="F16">
         <v>7905</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G16">
         <v>909.07091568299995</v>
       </c>
-      <c r="H16" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="I16" s="7"/>
+      <c r="H16" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I16" s="9"/>
       <c r="J16" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="K16">
         <v>1027.364256635447</v>
       </c>
-      <c r="L16" t="s">
-        <v>61</v>
-      </c>
-      <c r="M16">
+      <c r="L16" s="5">
+        <v>0.13012553686592351</v>
+      </c>
+      <c r="M16" s="5">
+        <f t="shared" si="2"/>
+        <v>0.13012553686592346</v>
+      </c>
+      <c r="N16" t="s">
+        <v>66</v>
+      </c>
+      <c r="O16">
         <v>442.34885850000001</v>
       </c>
-      <c r="N16">
+      <c r="P16">
         <v>1018.647370722324</v>
       </c>
-      <c r="O16" s="8">
+      <c r="Q16" s="5">
         <f t="shared" si="3"/>
         <v>0.12053675147774083</v>
       </c>
-      <c r="P16" s="4">
-        <f t="shared" si="2"/>
+      <c r="R16" s="4">
+        <f t="shared" si="4"/>
         <v>-8.484708180981692E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>12</v>
       </c>
@@ -5011,38 +5086,45 @@
       <c r="F17">
         <v>2023</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G17">
         <v>805.72962788500001</v>
       </c>
-      <c r="H17" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="I17" s="7"/>
+      <c r="H17" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="I17" s="9"/>
       <c r="J17" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="K17">
         <v>999.21410672612376</v>
       </c>
-      <c r="L17" t="s">
-        <v>64</v>
-      </c>
-      <c r="M17">
+      <c r="L17" s="5">
+        <v>0.2401357380254352</v>
+      </c>
+      <c r="M17" s="5">
+        <f t="shared" si="2"/>
+        <v>0.2401357380254352</v>
+      </c>
+      <c r="N17" t="s">
+        <v>69</v>
+      </c>
+      <c r="O17">
         <v>426.36255859999977</v>
       </c>
-      <c r="N17">
+      <c r="P17">
         <v>900.14586449837202</v>
       </c>
-      <c r="O17" s="8">
+      <c r="Q17" s="5">
         <f t="shared" si="3"/>
         <v>0.11718104106610788</v>
       </c>
-      <c r="P17" s="4">
-        <f t="shared" si="2"/>
+      <c r="R17" s="4">
+        <f t="shared" si="4"/>
         <v>-9.914616052844169E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>12</v>
       </c>
@@ -5063,38 +5145,45 @@
       <c r="F18">
         <v>3644</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G18">
         <v>683.45979060699995</v>
       </c>
-      <c r="H18" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="I18" s="7"/>
+      <c r="H18" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="I18" s="9"/>
       <c r="J18" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="K18">
         <v>782.003935883964</v>
       </c>
-      <c r="L18" t="s">
-        <v>67</v>
-      </c>
-      <c r="M18">
+      <c r="L18" s="5">
+        <v>0.14418426165121459</v>
+      </c>
+      <c r="M18" s="5">
+        <f t="shared" si="2"/>
+        <v>0.14418426165121465</v>
+      </c>
+      <c r="N18" t="s">
+        <v>72</v>
+      </c>
+      <c r="O18">
         <v>370.22184800000008</v>
       </c>
-      <c r="N18">
+      <c r="P18">
         <v>782.003935883964</v>
       </c>
-      <c r="O18" s="8">
+      <c r="Q18" s="5">
         <f t="shared" si="3"/>
         <v>0.14418426165121465</v>
       </c>
-      <c r="P18" s="4">
-        <f t="shared" si="2"/>
+      <c r="R18" s="4">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>12</v>
       </c>
@@ -5115,38 +5204,45 @@
       <c r="F19">
         <v>11599</v>
       </c>
-      <c r="G19" s="3">
+      <c r="G19">
         <v>1082.162880112</v>
       </c>
-      <c r="H19" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="I19" s="7"/>
+      <c r="H19" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="I19" s="9"/>
       <c r="J19" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="K19">
         <v>1219.039143534927</v>
       </c>
-      <c r="L19" t="s">
-        <v>70</v>
-      </c>
-      <c r="M19">
+      <c r="L19" s="5">
+        <v>0.1264839756920518</v>
+      </c>
+      <c r="M19" s="5">
+        <f t="shared" si="2"/>
+        <v>0.1264839756920518</v>
+      </c>
+      <c r="N19" t="s">
+        <v>75</v>
+      </c>
+      <c r="O19">
         <v>438.19959239999929</v>
       </c>
-      <c r="N19">
+      <c r="P19">
         <v>1219.039143534927</v>
       </c>
-      <c r="O19" s="8">
+      <c r="Q19" s="5">
         <f t="shared" si="3"/>
         <v>0.1264839756920518</v>
       </c>
-      <c r="P19" s="4">
-        <f t="shared" si="2"/>
+      <c r="R19" s="4">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>12</v>
       </c>
@@ -5167,38 +5263,45 @@
       <c r="F20">
         <v>66931</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G20">
         <v>952.74671821100003</v>
       </c>
-      <c r="H20" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="I20" s="7"/>
+      <c r="H20" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="I20" s="9"/>
       <c r="J20" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="K20">
         <v>1095.786848590677</v>
       </c>
-      <c r="L20" t="s">
-        <v>73</v>
-      </c>
-      <c r="M20">
+      <c r="L20" s="5">
+        <v>0.15013447713393069</v>
+      </c>
+      <c r="M20" s="5">
+        <f t="shared" si="2"/>
+        <v>0.15013447713393074</v>
+      </c>
+      <c r="N20" t="s">
+        <v>78</v>
+      </c>
+      <c r="O20">
         <v>395.94870300000002</v>
       </c>
-      <c r="N20">
+      <c r="P20">
         <v>1095.786848590677</v>
       </c>
-      <c r="O20" s="8">
+      <c r="Q20" s="5">
         <f t="shared" si="3"/>
         <v>0.15013447713393074</v>
       </c>
-      <c r="P20" s="4">
-        <f t="shared" si="2"/>
+      <c r="R20" s="4">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>12</v>
       </c>
@@ -5210,47 +5313,54 @@
       </c>
       <c r="D21">
         <f t="shared" si="0"/>
-        <v>0.54903333333333337</v>
+        <v>1.21885</v>
       </c>
       <c r="E21">
         <f t="shared" si="1"/>
-        <v>32.942</v>
+        <v>73.131</v>
       </c>
       <c r="F21">
-        <v>32942</v>
-      </c>
-      <c r="G21" s="3">
-        <v>1604.457014441</v>
-      </c>
-      <c r="H21" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="I21" s="7"/>
+        <v>73131</v>
+      </c>
+      <c r="G21">
+        <v>613.52360638799996</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="I21" s="9"/>
       <c r="J21" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="K21">
-        <v>1783.3033750428201</v>
-      </c>
-      <c r="L21" t="s">
-        <v>76</v>
-      </c>
-      <c r="M21">
-        <v>392.37775809999999</v>
-      </c>
-      <c r="N21">
-        <v>1037.0643622155451</v>
-      </c>
-      <c r="O21" s="8">
+        <v>735.09744355158637</v>
+      </c>
+      <c r="L21" s="5">
+        <v>0.1114684650271737</v>
+      </c>
+      <c r="M21" s="5">
+        <f t="shared" si="2"/>
+        <v>0.19815673903621828</v>
+      </c>
+      <c r="N21" t="s">
+        <v>81</v>
+      </c>
+      <c r="O21">
+        <v>386.57922459999997</v>
+      </c>
+      <c r="P21">
+        <v>735.09744355158637</v>
+      </c>
+      <c r="Q21" s="5">
         <f t="shared" si="3"/>
-        <v>-0.3536353090912423</v>
-      </c>
-      <c r="P21" s="4">
-        <f t="shared" si="2"/>
-        <v>-0.41845881260072004</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0.19815673903621828</v>
+      </c>
+      <c r="R21" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>15</v>
       </c>
@@ -5271,38 +5381,45 @@
       <c r="F22">
         <v>202664</v>
       </c>
-      <c r="G22" s="3">
+      <c r="G22">
         <v>1171.623384083</v>
       </c>
-      <c r="H22" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="I22" s="7"/>
+      <c r="H22" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="I22" s="9"/>
       <c r="J22" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="K22">
         <v>1281.2391705977</v>
       </c>
-      <c r="L22" t="s">
-        <v>79</v>
-      </c>
-      <c r="M22">
+      <c r="L22" s="5">
+        <v>9.3558892732832785E-2</v>
+      </c>
+      <c r="M22" s="5">
+        <f t="shared" si="2"/>
+        <v>9.3558892732832785E-2</v>
+      </c>
+      <c r="N22" t="s">
+        <v>84</v>
+      </c>
+      <c r="O22">
         <v>672.47080480000022</v>
       </c>
-      <c r="N22">
+      <c r="P22">
         <v>1281.2391705977</v>
       </c>
-      <c r="O22" s="8">
+      <c r="Q22" s="5">
         <f t="shared" si="3"/>
         <v>9.3558892732832785E-2</v>
       </c>
-      <c r="P22" s="4">
-        <f t="shared" si="2"/>
+      <c r="R22" s="4">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>15</v>
       </c>
@@ -5323,38 +5440,45 @@
       <c r="F23">
         <v>35184</v>
       </c>
-      <c r="G23" s="3">
+      <c r="G23">
         <v>828.12840839</v>
       </c>
-      <c r="H23" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="I23" s="7"/>
+      <c r="H23" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="I23" s="9"/>
       <c r="J23" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="K23">
         <v>977.46652415438575</v>
       </c>
-      <c r="L23" t="s">
-        <v>82</v>
-      </c>
-      <c r="M23">
+      <c r="L23" s="5">
+        <v>0.18033207682697469</v>
+      </c>
+      <c r="M23" s="5">
+        <f t="shared" si="2"/>
+        <v>0.18033207682697469</v>
+      </c>
+      <c r="N23" t="s">
+        <v>87</v>
+      </c>
+      <c r="O23">
         <v>699.79639490000045</v>
       </c>
-      <c r="N23">
+      <c r="P23">
         <v>977.46652415438575</v>
       </c>
-      <c r="O23" s="8">
+      <c r="Q23" s="5">
         <f t="shared" si="3"/>
         <v>0.18033207682697469</v>
       </c>
-      <c r="P23" s="4">
-        <f t="shared" si="2"/>
+      <c r="R23" s="4">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>15</v>
       </c>
@@ -5375,38 +5499,45 @@
       <c r="F24">
         <v>380729</v>
       </c>
-      <c r="G24" s="3">
+      <c r="G24">
         <v>801.70743123199998</v>
       </c>
-      <c r="H24" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="I24" s="7"/>
+      <c r="H24" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="I24" s="9"/>
       <c r="J24" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="K24">
         <v>916.32674868129936</v>
       </c>
-      <c r="L24" t="s">
-        <v>85</v>
-      </c>
-      <c r="M24">
+      <c r="L24" s="5">
+        <v>0.1429690096213298</v>
+      </c>
+      <c r="M24" s="5">
+        <f t="shared" si="2"/>
+        <v>0.14296900962132977</v>
+      </c>
+      <c r="N24" t="s">
+        <v>90</v>
+      </c>
+      <c r="O24">
         <v>701.53700339999978</v>
       </c>
-      <c r="N24">
+      <c r="P24">
         <v>916.32674868129936</v>
       </c>
-      <c r="O24" s="8">
+      <c r="Q24" s="5">
         <f t="shared" si="3"/>
         <v>0.14296900962132977</v>
       </c>
-      <c r="P24" s="4">
-        <f t="shared" si="2"/>
+      <c r="R24" s="4">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>15</v>
       </c>
@@ -5427,38 +5558,45 @@
       <c r="F25">
         <v>520620</v>
       </c>
-      <c r="G25" s="3">
+      <c r="G25">
         <v>1003.760132766</v>
       </c>
-      <c r="H25" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="I25" s="7"/>
+      <c r="H25" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="I25" s="9"/>
       <c r="J25" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="K25">
         <v>1139.100511867154</v>
       </c>
-      <c r="L25" t="s">
-        <v>88</v>
-      </c>
-      <c r="M25">
+      <c r="L25" s="5">
+        <v>0.13483338766225439</v>
+      </c>
+      <c r="M25" s="5">
+        <f t="shared" si="2"/>
+        <v>0.13483338766225436</v>
+      </c>
+      <c r="N25" t="s">
+        <v>93</v>
+      </c>
+      <c r="O25">
         <v>583.48621159999948</v>
       </c>
-      <c r="N25">
+      <c r="P25">
         <v>1139.100511867154</v>
       </c>
-      <c r="O25" s="8">
+      <c r="Q25" s="5">
         <f t="shared" si="3"/>
         <v>0.13483338766225436</v>
       </c>
-      <c r="P25" s="4">
-        <f t="shared" si="2"/>
+      <c r="R25" s="4">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>15</v>
       </c>
@@ -5479,38 +5617,45 @@
       <c r="F26">
         <v>79067</v>
       </c>
-      <c r="G26" s="3">
+      <c r="G26">
         <v>826.18978593300005</v>
       </c>
-      <c r="H26" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="I26" s="7"/>
+      <c r="H26" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="I26" s="9"/>
       <c r="J26" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="K26">
         <v>1026.542152900709</v>
       </c>
-      <c r="L26" t="s">
-        <v>91</v>
-      </c>
-      <c r="M26">
+      <c r="L26" s="5">
+        <v>0.24250162659836669</v>
+      </c>
+      <c r="M26" s="5">
+        <f t="shared" si="2"/>
+        <v>0.24250162659836672</v>
+      </c>
+      <c r="N26" t="s">
+        <v>96</v>
+      </c>
+      <c r="O26">
         <v>892.96981309999865</v>
       </c>
-      <c r="N26">
+      <c r="P26">
         <v>1026.542152900709</v>
       </c>
-      <c r="O26" s="8">
+      <c r="Q26" s="5">
         <f t="shared" si="3"/>
         <v>0.24250162659836672</v>
       </c>
-      <c r="P26" s="4">
-        <f t="shared" si="2"/>
+      <c r="R26" s="4">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>15</v>
       </c>
@@ -5531,38 +5676,45 @@
       <c r="F27">
         <v>15668</v>
       </c>
-      <c r="G27" s="3">
+      <c r="G27">
         <v>1067.862157347</v>
       </c>
-      <c r="H27" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="I27" s="7"/>
+      <c r="H27" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="I27" s="9"/>
       <c r="J27" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="K27">
         <v>1204.045683633422</v>
       </c>
-      <c r="L27" t="s">
-        <v>94</v>
-      </c>
-      <c r="M27">
+      <c r="L27" s="5">
+        <v>0.12752912475591111</v>
+      </c>
+      <c r="M27" s="5">
+        <f t="shared" si="2"/>
+        <v>0.12752912475591113</v>
+      </c>
+      <c r="N27" t="s">
+        <v>99</v>
+      </c>
+      <c r="O27">
         <v>630.24923900000067</v>
       </c>
-      <c r="N27">
+      <c r="P27">
         <v>1204.045683633422</v>
       </c>
-      <c r="O27" s="8">
+      <c r="Q27" s="5">
         <f t="shared" si="3"/>
         <v>0.12752912475591113</v>
       </c>
-      <c r="P27" s="4">
-        <f t="shared" si="2"/>
+      <c r="R27" s="4">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>15</v>
       </c>
@@ -5583,38 +5735,45 @@
       <c r="F28">
         <v>72924</v>
       </c>
-      <c r="G28" s="3">
+      <c r="G28">
         <v>924.42118022199998</v>
       </c>
-      <c r="H28" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="I28" s="7"/>
+      <c r="H28" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="I28" s="9"/>
       <c r="J28" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="K28">
         <v>1102.417321416543</v>
       </c>
-      <c r="L28" t="s">
-        <v>97</v>
-      </c>
-      <c r="M28">
+      <c r="L28" s="5">
+        <v>0.192548748344123</v>
+      </c>
+      <c r="M28" s="5">
+        <f t="shared" si="2"/>
+        <v>0.192548748344123</v>
+      </c>
+      <c r="N28" t="s">
+        <v>102</v>
+      </c>
+      <c r="O28">
         <v>1224.071597600001</v>
       </c>
-      <c r="N28">
+      <c r="P28">
         <v>1175.4004660916421</v>
       </c>
-      <c r="O28" s="8">
+      <c r="Q28" s="5">
         <f t="shared" si="3"/>
         <v>0.27149884840302924</v>
       </c>
-      <c r="P28" s="4">
-        <f t="shared" si="2"/>
+      <c r="R28" s="4">
+        <f t="shared" si="4"/>
         <v>6.6202828327588253E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>15</v>
       </c>
@@ -5635,38 +5794,45 @@
       <c r="F29">
         <v>7998</v>
       </c>
-      <c r="G29" s="3">
+      <c r="G29">
         <v>778.89360681400001</v>
       </c>
-      <c r="H29" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="I29" s="7"/>
+      <c r="H29" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="I29" s="9"/>
       <c r="J29" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="K29">
         <v>1053.107964725544</v>
       </c>
-      <c r="L29" t="s">
-        <v>100</v>
-      </c>
-      <c r="M29">
+      <c r="L29" s="5">
+        <v>0.3520562442837285</v>
+      </c>
+      <c r="M29" s="5">
+        <f t="shared" si="2"/>
+        <v>0.3520562442837285</v>
+      </c>
+      <c r="N29" t="s">
+        <v>105</v>
+      </c>
+      <c r="O29">
         <v>512.58852750000005</v>
       </c>
-      <c r="N29">
+      <c r="P29">
         <v>841.42993112169711</v>
       </c>
-      <c r="O29" s="8">
+      <c r="Q29" s="5">
         <f t="shared" si="3"/>
         <v>8.0288660428857253E-2</v>
       </c>
-      <c r="P29" s="4">
-        <f t="shared" si="2"/>
+      <c r="R29" s="4">
+        <f t="shared" si="4"/>
         <v>-0.20100316462710771</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>15</v>
       </c>
@@ -5687,38 +5853,45 @@
       <c r="F30">
         <v>18387</v>
       </c>
-      <c r="G30" s="3">
+      <c r="G30">
         <v>1157.0368080420001</v>
       </c>
-      <c r="H30" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="I30" s="7"/>
+      <c r="H30" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="I30" s="9"/>
       <c r="J30" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="K30">
         <v>1286.4102607775251</v>
       </c>
-      <c r="L30" t="s">
-        <v>103</v>
-      </c>
-      <c r="M30">
+      <c r="L30" s="5">
+        <v>0.11181446591527</v>
+      </c>
+      <c r="M30" s="5">
+        <f t="shared" si="2"/>
+        <v>0.11181446591526999</v>
+      </c>
+      <c r="N30" t="s">
+        <v>108</v>
+      </c>
+      <c r="O30">
         <v>868.00867970000036</v>
       </c>
-      <c r="N30">
+      <c r="P30">
         <v>1323.487054912182</v>
       </c>
-      <c r="O30" s="8">
+      <c r="Q30" s="5">
         <f t="shared" si="3"/>
         <v>0.14385907666313397</v>
       </c>
-      <c r="P30" s="4">
-        <f t="shared" si="2"/>
+      <c r="R30" s="4">
+        <f t="shared" si="4"/>
         <v>2.8821904850360212E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>15</v>
       </c>
@@ -5739,38 +5912,45 @@
       <c r="F31">
         <v>81641</v>
       </c>
-      <c r="G31" s="3">
+      <c r="G31">
         <v>739.53477113099996</v>
       </c>
-      <c r="H31" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="I31" s="7"/>
+      <c r="H31" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="I31" s="9"/>
       <c r="J31" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="K31">
         <v>856.80458072890463</v>
       </c>
-      <c r="L31" t="s">
-        <v>106</v>
-      </c>
-      <c r="M31">
+      <c r="L31" s="5">
+        <v>0.15857240818921781</v>
+      </c>
+      <c r="M31" s="5">
+        <f t="shared" si="2"/>
+        <v>0.15857240818921778</v>
+      </c>
+      <c r="N31" t="s">
+        <v>111</v>
+      </c>
+      <c r="O31">
         <v>463.10816349999908</v>
       </c>
-      <c r="N31">
+      <c r="P31">
         <v>856.80458072890463</v>
       </c>
-      <c r="O31" s="8">
+      <c r="Q31" s="5">
         <f t="shared" si="3"/>
         <v>0.15857240818921778</v>
       </c>
-      <c r="P31" s="4">
-        <f t="shared" si="2"/>
+      <c r="R31" s="4">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>9</v>
       </c>
@@ -5791,38 +5971,45 @@
       <c r="F32">
         <v>13318</v>
       </c>
-      <c r="G32" s="3">
+      <c r="G32">
         <v>572.08350842100003</v>
       </c>
-      <c r="H32" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="I32" s="7"/>
+      <c r="H32" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="I32" s="9"/>
       <c r="J32" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="K32">
         <v>724.48711326831585</v>
       </c>
-      <c r="L32" t="s">
-        <v>109</v>
-      </c>
-      <c r="M32">
+      <c r="L32" s="5">
+        <v>0.26640097573859972</v>
+      </c>
+      <c r="M32" s="5">
+        <f t="shared" si="2"/>
+        <v>0.26640097573859967</v>
+      </c>
+      <c r="N32" t="s">
+        <v>114</v>
+      </c>
+      <c r="O32">
         <v>309.14720440000002</v>
       </c>
-      <c r="N32">
+      <c r="P32">
         <v>753.23582552852463</v>
       </c>
-      <c r="O32" s="8">
+      <c r="Q32" s="5">
         <f t="shared" si="3"/>
         <v>0.31665362563504174</v>
       </c>
-      <c r="P32" s="4">
-        <f t="shared" si="2"/>
+      <c r="R32" s="4">
+        <f t="shared" si="4"/>
         <v>3.9681468080939641E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>9</v>
       </c>
@@ -5843,38 +6030,45 @@
       <c r="F33">
         <v>1909</v>
       </c>
-      <c r="G33" s="3">
+      <c r="G33">
         <v>845.52345453600003</v>
       </c>
-      <c r="H33" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="I33" s="7"/>
+      <c r="H33" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="I33" s="9"/>
       <c r="J33" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="K33">
         <v>1024.350870524725</v>
       </c>
-      <c r="L33" t="s">
-        <v>112</v>
-      </c>
-      <c r="M33">
+      <c r="L33" s="5">
+        <v>0.21149906017315689</v>
+      </c>
+      <c r="M33" s="5">
+        <f t="shared" si="2"/>
+        <v>0.21149906017315689</v>
+      </c>
+      <c r="N33" t="s">
+        <v>117</v>
+      </c>
+      <c r="O33">
         <v>270.34894500000001</v>
       </c>
-      <c r="N33">
+      <c r="P33">
         <v>1024.350870524725</v>
       </c>
-      <c r="O33" s="8">
+      <c r="Q33" s="5">
         <f t="shared" si="3"/>
         <v>0.21149906017315689</v>
       </c>
-      <c r="P33" s="4">
-        <f t="shared" si="2"/>
+      <c r="R33" s="4">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>9</v>
       </c>
@@ -5885,48 +6079,55 @@
         <v>3</v>
       </c>
       <c r="D34">
-        <f t="shared" ref="D34:D61" si="4">E34/60</f>
+        <f t="shared" ref="D34:D65" si="5">E34/60</f>
         <v>0.43746666666666667</v>
       </c>
       <c r="E34">
-        <f t="shared" ref="E34:E61" si="5">F34/1000</f>
+        <f t="shared" ref="E34:E65" si="6">F34/1000</f>
         <v>26.248000000000001</v>
       </c>
       <c r="F34">
         <v>26248</v>
       </c>
-      <c r="G34" s="3">
+      <c r="G34">
         <v>727.03140475500004</v>
       </c>
-      <c r="H34" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="I34" s="7"/>
+      <c r="H34" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="I34" s="9"/>
       <c r="J34" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="K34">
         <v>866.88826321288798</v>
       </c>
-      <c r="L34" t="s">
-        <v>115</v>
-      </c>
-      <c r="M34">
+      <c r="L34" s="5">
+        <v>0.19236701130540279</v>
+      </c>
+      <c r="M34" s="5">
+        <f t="shared" ref="M34:M61" si="7">(K34-G34)/G34</f>
+        <v>0.19236701130540276</v>
+      </c>
+      <c r="N34" t="s">
+        <v>120</v>
+      </c>
+      <c r="O34">
         <v>420.53963870000013</v>
       </c>
-      <c r="N34">
+      <c r="P34">
         <v>883.13909655706368</v>
       </c>
-      <c r="O34" s="8">
-        <f t="shared" si="3"/>
+      <c r="Q34" s="5">
+        <f t="shared" ref="Q34:Q65" si="8">(P34-G34)/G34</f>
         <v>0.21471932406368316</v>
       </c>
-      <c r="P34" s="4">
-        <f t="shared" ref="P34:P61" si="6">(N34-K34)/K34</f>
+      <c r="R34" s="4">
+        <f t="shared" ref="R34:R61" si="9">(P34-K34)/K34</f>
         <v>1.8746168374625772E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>9</v>
       </c>
@@ -5937,48 +6138,55 @@
         <v>4</v>
       </c>
       <c r="D35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.7483333333333334E-2</v>
       </c>
       <c r="E35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.2490000000000001</v>
       </c>
       <c r="F35">
         <v>2249</v>
       </c>
-      <c r="G35" s="3">
+      <c r="G35">
         <v>694.66514945300003</v>
       </c>
-      <c r="H35" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="I35" s="7"/>
+      <c r="H35" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="I35" s="9"/>
       <c r="J35" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="K35">
         <v>931.91447117107839</v>
       </c>
-      <c r="L35" t="s">
-        <v>118</v>
-      </c>
-      <c r="M35">
+      <c r="L35" s="5">
+        <v>0.34153047969211581</v>
+      </c>
+      <c r="M35" s="5">
+        <f t="shared" si="7"/>
+        <v>0.34153047969211575</v>
+      </c>
+      <c r="N35" t="s">
+        <v>123</v>
+      </c>
+      <c r="O35">
         <v>305.86990820000028</v>
       </c>
-      <c r="N35">
+      <c r="P35">
         <v>854.4762539967021</v>
       </c>
-      <c r="O35" s="8">
-        <f t="shared" si="3"/>
+      <c r="Q35" s="5">
+        <f t="shared" si="8"/>
         <v>0.2300548756037957</v>
       </c>
-      <c r="P35" s="4">
-        <f t="shared" si="6"/>
+      <c r="R35" s="4">
+        <f t="shared" si="9"/>
         <v>-8.3095841485393548E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>9</v>
       </c>
@@ -5989,48 +6197,55 @@
         <v>5</v>
       </c>
       <c r="D36">
-        <f t="shared" si="4"/>
-        <v>9.9099999999999994E-2</v>
+        <f t="shared" si="5"/>
+        <v>0.37438333333333335</v>
       </c>
       <c r="E36">
-        <f t="shared" si="5"/>
-        <v>5.9459999999999997</v>
+        <f t="shared" si="6"/>
+        <v>22.463000000000001</v>
       </c>
       <c r="F36">
-        <v>5946</v>
-      </c>
-      <c r="G36" s="3">
-        <v>1889.1056551439999</v>
-      </c>
-      <c r="H36" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="I36" s="7"/>
+        <v>22463</v>
+      </c>
+      <c r="G36">
+        <v>619.49705766700004</v>
+      </c>
+      <c r="H36" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="I36" s="9"/>
       <c r="J36" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="K36">
-        <v>2241.8070119030758</v>
-      </c>
-      <c r="L36" t="s">
-        <v>121</v>
-      </c>
-      <c r="M36">
-        <v>313.06204529999991</v>
-      </c>
-      <c r="N36">
-        <v>1133.0187938159579</v>
-      </c>
-      <c r="O36" s="8">
-        <f t="shared" si="3"/>
-        <v>-0.40023534907601988</v>
-      </c>
-      <c r="P36" s="4">
-        <f t="shared" si="6"/>
-        <v>-0.49459574896496766</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>757.46744379735401</v>
+      </c>
+      <c r="L36" s="5">
+        <v>0.18670282194046511</v>
+      </c>
+      <c r="M36" s="5">
+        <f t="shared" si="7"/>
+        <v>0.22271354548469474</v>
+      </c>
+      <c r="N36" t="s">
+        <v>126</v>
+      </c>
+      <c r="O36">
+        <v>317.11453660000001</v>
+      </c>
+      <c r="P36">
+        <v>747.32323998287438</v>
+      </c>
+      <c r="Q36" s="5">
+        <f t="shared" si="8"/>
+        <v>0.2063386431523378</v>
+      </c>
+      <c r="R36" s="4">
+        <f t="shared" si="9"/>
+        <v>-1.3392263783146188E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>9</v>
       </c>
@@ -6041,48 +6256,55 @@
         <v>6</v>
       </c>
       <c r="D37">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.17830000000000001</v>
       </c>
       <c r="E37">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>10.698</v>
       </c>
       <c r="F37">
         <v>10698</v>
       </c>
-      <c r="G37" s="3">
+      <c r="G37">
         <v>1064.370043632</v>
       </c>
-      <c r="H37" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="I37" s="7"/>
+      <c r="H37" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="I37" s="9"/>
       <c r="J37" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="K37">
         <v>1326.10584170281</v>
       </c>
-      <c r="L37" t="s">
-        <v>124</v>
-      </c>
-      <c r="M37">
+      <c r="L37" s="5">
+        <v>0.2459067686438042</v>
+      </c>
+      <c r="M37" s="5">
+        <f t="shared" si="7"/>
+        <v>0.2459067686438042</v>
+      </c>
+      <c r="N37" t="s">
+        <v>129</v>
+      </c>
+      <c r="O37">
         <v>388.58196549999963</v>
       </c>
-      <c r="N37">
+      <c r="P37">
         <v>1401.748026361061</v>
       </c>
-      <c r="O37" s="8">
-        <f t="shared" si="3"/>
+      <c r="Q37" s="5">
+        <f t="shared" si="8"/>
         <v>0.31697433119952356</v>
       </c>
-      <c r="P37" s="4">
-        <f t="shared" si="6"/>
+      <c r="R37" s="4">
+        <f t="shared" si="9"/>
         <v>5.7040835112468262E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>9</v>
       </c>
@@ -6093,48 +6315,55 @@
         <v>7</v>
       </c>
       <c r="D38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.11051666666666667</v>
       </c>
       <c r="E38">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6.6310000000000002</v>
       </c>
       <c r="F38">
         <v>6631</v>
       </c>
-      <c r="G38" s="3">
+      <c r="G38">
         <v>484.16209789700002</v>
       </c>
-      <c r="H38" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="I38" s="7"/>
+      <c r="H38" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="I38" s="9"/>
       <c r="J38" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="K38">
         <v>622.21807644280557</v>
       </c>
-      <c r="L38" t="s">
-        <v>127</v>
-      </c>
-      <c r="M38">
+      <c r="L38" s="5">
+        <v>0.28514412661681621</v>
+      </c>
+      <c r="M38" s="5">
+        <f t="shared" si="7"/>
+        <v>0.28514412661681621</v>
+      </c>
+      <c r="N38" t="s">
+        <v>132</v>
+      </c>
+      <c r="O38">
         <v>262.60945120000002</v>
       </c>
-      <c r="N38">
+      <c r="P38">
         <v>622.21807644280557</v>
       </c>
-      <c r="O38" s="8">
-        <f t="shared" si="3"/>
+      <c r="Q38" s="5">
+        <f t="shared" si="8"/>
         <v>0.28514412661681621</v>
       </c>
-      <c r="P38" s="4">
-        <f t="shared" si="6"/>
+      <c r="R38" s="4">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>9</v>
       </c>
@@ -6145,48 +6374,55 @@
         <v>8</v>
       </c>
       <c r="D39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.38350000000000001</v>
       </c>
       <c r="E39">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>23.01</v>
       </c>
       <c r="F39">
         <v>23010</v>
       </c>
-      <c r="G39" s="3">
+      <c r="G39">
         <v>892.84735411600002</v>
       </c>
-      <c r="H39" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="I39" s="7"/>
+      <c r="H39" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="I39" s="9"/>
       <c r="J39" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="K39">
         <v>988.08515815373653</v>
       </c>
-      <c r="L39" t="s">
-        <v>130</v>
-      </c>
-      <c r="M39">
+      <c r="L39" s="5">
+        <v>0.1066675099597854</v>
+      </c>
+      <c r="M39" s="5">
+        <f t="shared" si="7"/>
+        <v>0.10666750995978544</v>
+      </c>
+      <c r="N39" t="s">
+        <v>135</v>
+      </c>
+      <c r="O39">
         <v>276.81299589999981</v>
       </c>
-      <c r="N39">
+      <c r="P39">
         <v>987.84311063723396</v>
       </c>
-      <c r="O39" s="8">
-        <f t="shared" si="3"/>
+      <c r="Q39" s="5">
+        <f t="shared" si="8"/>
         <v>0.10639641376916928</v>
       </c>
-      <c r="P39" s="4">
-        <f t="shared" si="6"/>
+      <c r="R39" s="4">
+        <f t="shared" si="9"/>
         <v>-2.4496625063657329E-4</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>9</v>
       </c>
@@ -6197,48 +6433,55 @@
         <v>9</v>
       </c>
       <c r="D40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.20924999999999999</v>
       </c>
       <c r="E40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>12.555</v>
       </c>
       <c r="F40">
         <v>12555</v>
       </c>
-      <c r="G40" s="3">
+      <c r="G40">
         <v>1150.946320584</v>
       </c>
-      <c r="H40" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="I40" s="7"/>
+      <c r="H40" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="I40" s="9"/>
       <c r="J40" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="K40">
         <v>1367.440463239961</v>
       </c>
-      <c r="L40" t="s">
-        <v>133</v>
-      </c>
-      <c r="M40">
+      <c r="L40" s="5">
+        <v>0.18810099027564561</v>
+      </c>
+      <c r="M40" s="5">
+        <f t="shared" si="7"/>
+        <v>0.18810099027564556</v>
+      </c>
+      <c r="N40" t="s">
+        <v>138</v>
+      </c>
+      <c r="O40">
         <v>292.52337729999999</v>
       </c>
-      <c r="N40">
+      <c r="P40">
         <v>1175.4149018879809</v>
       </c>
-      <c r="O40" s="8">
-        <f t="shared" si="3"/>
+      <c r="Q40" s="5">
+        <f t="shared" si="8"/>
         <v>2.1259533017634905E-2</v>
       </c>
-      <c r="P40" s="4">
-        <f t="shared" si="6"/>
+      <c r="R40" s="4">
+        <f t="shared" si="9"/>
         <v>-0.14042699957627555</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>9</v>
       </c>
@@ -6249,48 +6492,55 @@
         <v>10</v>
       </c>
       <c r="D41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.10779999999999999</v>
       </c>
       <c r="E41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6.468</v>
       </c>
       <c r="F41">
         <v>6468</v>
       </c>
-      <c r="G41" s="3">
+      <c r="G41">
         <v>1059.4930977900001</v>
       </c>
-      <c r="H41" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="I41" s="7"/>
+      <c r="H41" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="I41" s="9"/>
       <c r="J41" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="K41">
         <v>1198.896614545255</v>
       </c>
-      <c r="L41" t="s">
-        <v>136</v>
-      </c>
-      <c r="M41">
+      <c r="L41" s="5">
+        <v>0.13157567240979401</v>
+      </c>
+      <c r="M41" s="5">
+        <f t="shared" si="7"/>
+        <v>0.13157567240979404</v>
+      </c>
+      <c r="N41" t="s">
+        <v>141</v>
+      </c>
+      <c r="O41">
         <v>293.25066800000059</v>
       </c>
-      <c r="N41">
+      <c r="P41">
         <v>1171.163514436588</v>
       </c>
-      <c r="O41" s="8">
-        <f t="shared" si="3"/>
+      <c r="Q41" s="5">
+        <f t="shared" si="8"/>
         <v>0.10539985289146439</v>
       </c>
-      <c r="P41" s="4">
-        <f t="shared" si="6"/>
+      <c r="R41" s="4">
+        <f t="shared" si="9"/>
         <v>-2.3132186522343529E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>12</v>
       </c>
@@ -6301,48 +6551,55 @@
         <v>1</v>
       </c>
       <c r="D42">
-        <f t="shared" si="4"/>
-        <v>1.5835833333333333</v>
+        <f t="shared" si="5"/>
+        <v>1.2370333333333332</v>
       </c>
       <c r="E42">
-        <f t="shared" si="5"/>
-        <v>95.015000000000001</v>
+        <f t="shared" si="6"/>
+        <v>74.221999999999994</v>
       </c>
       <c r="F42">
-        <v>95015</v>
-      </c>
-      <c r="G42" s="3">
-        <v>2213.465318176</v>
-      </c>
-      <c r="H42" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="I42" s="7"/>
+        <v>74222</v>
+      </c>
+      <c r="G42">
+        <v>970.10421748900001</v>
+      </c>
+      <c r="H42" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="I42" s="9"/>
       <c r="J42" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="K42">
-        <v>3155.4959845611638</v>
-      </c>
-      <c r="L42" t="s">
-        <v>139</v>
-      </c>
-      <c r="M42">
-        <v>400.67131690000002</v>
-      </c>
-      <c r="N42">
-        <v>1035.407331022036</v>
-      </c>
-      <c r="O42" s="8">
-        <f t="shared" si="3"/>
-        <v>-0.532223377290022</v>
-      </c>
-      <c r="P42" s="4">
-        <f t="shared" si="6"/>
-        <v>-0.67187176403077231</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1149.0851498556401</v>
+      </c>
+      <c r="L42" s="5">
+        <v>0.42559088622244218</v>
+      </c>
+      <c r="M42" s="5">
+        <f t="shared" si="7"/>
+        <v>0.18449660267420656</v>
+      </c>
+      <c r="N42" t="s">
+        <v>144</v>
+      </c>
+      <c r="O42">
+        <v>401.01806679999987</v>
+      </c>
+      <c r="P42">
+        <v>1149.0851498556401</v>
+      </c>
+      <c r="Q42" s="5">
+        <f t="shared" si="8"/>
+        <v>0.18449660267420656</v>
+      </c>
+      <c r="R42" s="4">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>12</v>
       </c>
@@ -6353,48 +6610,55 @@
         <v>2</v>
       </c>
       <c r="D43">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.50076666666666669</v>
       </c>
       <c r="E43">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>30.045999999999999</v>
       </c>
       <c r="F43">
         <v>30046</v>
       </c>
-      <c r="G43" s="3">
+      <c r="G43">
         <v>884.48240144600004</v>
       </c>
-      <c r="H43" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="I43" s="7"/>
+      <c r="H43" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="I43" s="9"/>
       <c r="J43" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="K43">
         <v>1013.155546866768</v>
       </c>
-      <c r="L43" t="s">
-        <v>142</v>
-      </c>
-      <c r="M43">
+      <c r="L43" s="5">
+        <v>0.14547846877496501</v>
+      </c>
+      <c r="M43" s="5">
+        <f t="shared" si="7"/>
+        <v>0.14547846877496495</v>
+      </c>
+      <c r="N43" t="s">
+        <v>147</v>
+      </c>
+      <c r="O43">
         <v>446.54841970000052</v>
       </c>
-      <c r="N43">
+      <c r="P43">
         <v>1105.841482055037</v>
       </c>
-      <c r="O43" s="8">
-        <f t="shared" si="3"/>
+      <c r="Q43" s="5">
+        <f t="shared" si="8"/>
         <v>0.25026962689946919</v>
       </c>
-      <c r="P43" s="4">
-        <f t="shared" si="6"/>
+      <c r="R43" s="4">
+        <f t="shared" si="9"/>
         <v>9.1482433743668198E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>12</v>
       </c>
@@ -6405,48 +6669,55 @@
         <v>3</v>
       </c>
       <c r="D44">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.9406166666666667</v>
       </c>
       <c r="E44">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>176.43700000000001</v>
       </c>
       <c r="F44">
         <v>176437</v>
       </c>
-      <c r="G44" s="3">
+      <c r="G44">
         <v>773.75507863300004</v>
       </c>
-      <c r="H44" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="I44" s="7"/>
+      <c r="H44" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="I44" s="9"/>
       <c r="J44" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="K44">
         <v>977.17357619100812</v>
       </c>
-      <c r="L44" t="s">
-        <v>145</v>
-      </c>
-      <c r="M44">
+      <c r="L44" s="5">
+        <v>0.2628977866192353</v>
+      </c>
+      <c r="M44" s="5">
+        <f t="shared" si="7"/>
+        <v>0.2628977866192353</v>
+      </c>
+      <c r="N44" t="s">
+        <v>150</v>
+      </c>
+      <c r="O44">
         <v>415.29174580000108</v>
       </c>
-      <c r="N44">
+      <c r="P44">
         <v>977.17357619100812</v>
       </c>
-      <c r="O44" s="8">
-        <f t="shared" si="3"/>
+      <c r="Q44" s="5">
+        <f t="shared" si="8"/>
         <v>0.2628977866192353</v>
       </c>
-      <c r="P44" s="4">
-        <f t="shared" si="6"/>
+      <c r="R44" s="4">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>12</v>
       </c>
@@ -6457,48 +6728,55 @@
         <v>4</v>
       </c>
       <c r="D45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.2503166666666667</v>
       </c>
       <c r="E45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>75.019000000000005</v>
       </c>
       <c r="F45">
         <v>75019</v>
       </c>
-      <c r="G45" s="3">
+      <c r="G45">
         <v>835.71515105499998</v>
       </c>
-      <c r="H45" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="I45" s="7"/>
+      <c r="H45" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="I45" s="9"/>
       <c r="J45" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="K45">
         <v>1012.611449136446</v>
       </c>
-      <c r="L45" t="s">
-        <v>148</v>
-      </c>
-      <c r="M45">
+      <c r="L45" s="5">
+        <v>0.2116705648547039</v>
+      </c>
+      <c r="M45" s="5">
+        <f t="shared" si="7"/>
+        <v>0.2116705648547039</v>
+      </c>
+      <c r="N45" t="s">
+        <v>153</v>
+      </c>
+      <c r="O45">
         <v>640.17047660000026</v>
       </c>
-      <c r="N45">
+      <c r="P45">
         <v>1012.611449136445</v>
       </c>
-      <c r="O45" s="8">
-        <f t="shared" si="3"/>
+      <c r="Q45" s="5">
+        <f t="shared" si="8"/>
         <v>0.21167056485470268</v>
       </c>
-      <c r="P45" s="4">
-        <f t="shared" si="6"/>
+      <c r="R45" s="4">
+        <f t="shared" si="9"/>
         <v>-1.0104384464219839E-15</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>12</v>
       </c>
@@ -6509,48 +6787,55 @@
         <v>5</v>
       </c>
       <c r="D46">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.67005000000000003</v>
       </c>
       <c r="E46">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>40.203000000000003</v>
       </c>
       <c r="F46">
         <v>40203</v>
       </c>
-      <c r="G46" s="3">
+      <c r="G46">
         <v>1196.8098017689999</v>
       </c>
-      <c r="H46" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="I46" s="7"/>
+      <c r="H46" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="I46" s="9"/>
       <c r="J46" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="K46">
         <v>1401.6565058130111</v>
       </c>
-      <c r="L46" t="s">
-        <v>151</v>
-      </c>
-      <c r="M46">
+      <c r="L46" s="5">
+        <v>0.17116061695118809</v>
+      </c>
+      <c r="M46" s="5">
+        <f t="shared" si="7"/>
+        <v>0.17116061695118812</v>
+      </c>
+      <c r="N46" t="s">
+        <v>156</v>
+      </c>
+      <c r="O46">
         <v>537.69722689999981</v>
       </c>
-      <c r="N46">
+      <c r="P46">
         <v>1207.078493999617</v>
       </c>
-      <c r="O46" s="8">
-        <f t="shared" si="3"/>
+      <c r="Q46" s="5">
+        <f t="shared" si="8"/>
         <v>8.5800535853223468E-3</v>
       </c>
-      <c r="P46" s="4">
-        <f t="shared" si="6"/>
+      <c r="R46" s="4">
+        <f t="shared" si="9"/>
         <v>-0.13882003972188028</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>12</v>
       </c>
@@ -6561,48 +6846,55 @@
         <v>6</v>
       </c>
       <c r="D47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.22886666666666666</v>
       </c>
       <c r="E47">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>13.731999999999999</v>
       </c>
       <c r="F47">
         <v>13732</v>
       </c>
-      <c r="G47" s="3">
+      <c r="G47">
         <v>597.19418764500006</v>
       </c>
-      <c r="H47" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="I47" s="7"/>
+      <c r="H47" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="I47" s="9"/>
       <c r="J47" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="K47">
         <v>799.14062349535777</v>
       </c>
-      <c r="L47" t="s">
-        <v>154</v>
-      </c>
-      <c r="M47">
+      <c r="L47" s="5">
+        <v>0.33815874304926102</v>
+      </c>
+      <c r="M47" s="5">
+        <f t="shared" si="7"/>
+        <v>0.33815874304926097</v>
+      </c>
+      <c r="N47" t="s">
+        <v>159</v>
+      </c>
+      <c r="O47">
         <v>405.30707930000062</v>
       </c>
-      <c r="N47">
+      <c r="P47">
         <v>799.14062349535777</v>
       </c>
-      <c r="O47" s="8">
-        <f t="shared" si="3"/>
+      <c r="Q47" s="5">
+        <f t="shared" si="8"/>
         <v>0.33815874304926097</v>
       </c>
-      <c r="P47" s="4">
-        <f t="shared" si="6"/>
+      <c r="R47" s="4">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>12</v>
       </c>
@@ -6613,48 +6905,55 @@
         <v>7</v>
       </c>
       <c r="D48">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.28701666666666664</v>
       </c>
       <c r="E48">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>17.221</v>
       </c>
       <c r="F48">
         <v>17221</v>
       </c>
-      <c r="G48" s="3">
+      <c r="G48">
         <v>663.31653632799998</v>
       </c>
-      <c r="H48" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="I48" s="7"/>
+      <c r="H48" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="I48" s="9"/>
       <c r="J48" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="K48">
         <v>873.69244502127435</v>
       </c>
-      <c r="L48" t="s">
-        <v>157</v>
-      </c>
-      <c r="M48">
+      <c r="L48" s="5">
+        <v>0.31715764219881692</v>
+      </c>
+      <c r="M48" s="5">
+        <f t="shared" si="7"/>
+        <v>0.31715764219881692</v>
+      </c>
+      <c r="N48" t="s">
+        <v>162</v>
+      </c>
+      <c r="O48">
         <v>679.35048359999928</v>
       </c>
-      <c r="N48">
+      <c r="P48">
         <v>873.05605380381769</v>
       </c>
-      <c r="O48" s="8">
-        <f t="shared" si="3"/>
+      <c r="Q48" s="5">
+        <f t="shared" si="8"/>
         <v>0.31619823415966325</v>
       </c>
-      <c r="P48" s="4">
-        <f t="shared" si="6"/>
+      <c r="R48" s="4">
+        <f t="shared" si="9"/>
         <v>-7.2839272112644406E-4</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>12</v>
       </c>
@@ -6665,48 +6964,55 @@
         <v>8</v>
       </c>
       <c r="D49">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.43863333333333338</v>
       </c>
       <c r="E49">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>26.318000000000001</v>
       </c>
       <c r="F49">
         <v>26318</v>
       </c>
-      <c r="G49" s="3">
+      <c r="G49">
         <v>1117.1817261159999</v>
       </c>
-      <c r="H49" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="I49" s="7"/>
+      <c r="H49" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="I49" s="9"/>
       <c r="J49" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="K49">
         <v>1289.1298271084211</v>
       </c>
-      <c r="L49" t="s">
-        <v>160</v>
-      </c>
-      <c r="M49">
+      <c r="L49" s="5">
+        <v>0.15391238235718091</v>
+      </c>
+      <c r="M49" s="5">
+        <f t="shared" si="7"/>
+        <v>0.15391238235718091</v>
+      </c>
+      <c r="N49" t="s">
+        <v>165</v>
+      </c>
+      <c r="O49">
         <v>449.06065099999978</v>
       </c>
-      <c r="N49">
+      <c r="P49">
         <v>1289.1298271084211</v>
       </c>
-      <c r="O49" s="8">
-        <f t="shared" si="3"/>
+      <c r="Q49" s="5">
+        <f t="shared" si="8"/>
         <v>0.15391238235718091</v>
       </c>
-      <c r="P49" s="4">
-        <f t="shared" si="6"/>
+      <c r="R49" s="4">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>12</v>
       </c>
@@ -6717,48 +7023,55 @@
         <v>9</v>
       </c>
       <c r="D50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.0832000000000002</v>
       </c>
       <c r="E50">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>64.992000000000004</v>
       </c>
       <c r="F50">
         <v>64992</v>
       </c>
-      <c r="G50" s="3">
+      <c r="G50">
         <v>958.651706322</v>
       </c>
-      <c r="H50" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="I50" s="7"/>
+      <c r="H50" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="I50" s="9"/>
       <c r="J50" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="K50">
         <v>1088.708858004286</v>
       </c>
-      <c r="L50" t="s">
-        <v>163</v>
-      </c>
-      <c r="M50">
+      <c r="L50" s="5">
+        <v>0.13566673988540451</v>
+      </c>
+      <c r="M50" s="5">
+        <f t="shared" si="7"/>
+        <v>0.13566673988540451</v>
+      </c>
+      <c r="N50" t="s">
+        <v>168</v>
+      </c>
+      <c r="O50">
         <v>400.13931310000038</v>
       </c>
-      <c r="N50">
+      <c r="P50">
         <v>1132.2410789061589</v>
       </c>
-      <c r="O50" s="8">
-        <f t="shared" si="3"/>
+      <c r="Q50" s="5">
+        <f t="shared" si="8"/>
         <v>0.18107658020049699</v>
       </c>
-      <c r="P50" s="4">
-        <f t="shared" si="6"/>
+      <c r="R50" s="4">
+        <f t="shared" si="9"/>
         <v>3.9985181145372466E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>12</v>
       </c>
@@ -6769,48 +7082,55 @@
         <v>10</v>
       </c>
       <c r="D51">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5.4511166666666666</v>
       </c>
       <c r="E51">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>327.06700000000001</v>
       </c>
       <c r="F51">
         <v>327067</v>
       </c>
-      <c r="G51" s="3">
+      <c r="G51">
         <v>1054.082647881</v>
       </c>
-      <c r="H51" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="I51" s="7"/>
+      <c r="H51" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="I51" s="9"/>
       <c r="J51" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="K51">
         <v>1230.788478416772</v>
       </c>
-      <c r="L51" t="s">
-        <v>166</v>
-      </c>
-      <c r="M51">
+      <c r="L51" s="5">
+        <v>0.1676394454372245</v>
+      </c>
+      <c r="M51" s="5">
+        <f t="shared" si="7"/>
+        <v>0.16763944543722453</v>
+      </c>
+      <c r="N51" t="s">
+        <v>171</v>
+      </c>
+      <c r="O51">
         <v>462.89721049999929</v>
       </c>
-      <c r="N51">
+      <c r="P51">
         <v>1230.7884784167711</v>
       </c>
-      <c r="O51" s="8">
-        <f t="shared" si="3"/>
+      <c r="Q51" s="5">
+        <f t="shared" si="8"/>
         <v>0.16763944543722367</v>
       </c>
-      <c r="P51" s="4">
-        <f t="shared" si="6"/>
+      <c r="R51" s="4">
+        <f t="shared" si="9"/>
         <v>-7.3895288891789039E-16</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>15</v>
       </c>
@@ -6821,48 +7141,55 @@
         <v>1</v>
       </c>
       <c r="D52">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.9801833333333336</v>
       </c>
       <c r="E52">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>178.81100000000001</v>
       </c>
       <c r="F52">
         <v>178811</v>
       </c>
-      <c r="G52" s="3">
+      <c r="G52">
         <v>810.90597523600002</v>
       </c>
-      <c r="H52" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="I52" s="7"/>
+      <c r="H52" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="I52" s="9"/>
       <c r="J52" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="K52">
         <v>962.34315919796416</v>
       </c>
-      <c r="L52" t="s">
-        <v>169</v>
-      </c>
-      <c r="M52">
+      <c r="L52" s="5">
+        <v>0.18675060806882199</v>
+      </c>
+      <c r="M52" s="5">
+        <f t="shared" si="7"/>
+        <v>0.18675060806882202</v>
+      </c>
+      <c r="N52" t="s">
+        <v>174</v>
+      </c>
+      <c r="O52">
         <v>641.09922839999854</v>
       </c>
-      <c r="N52">
+      <c r="P52">
         <v>962.34315919796416</v>
       </c>
-      <c r="O52" s="8">
-        <f t="shared" si="3"/>
+      <c r="Q52" s="5">
+        <f t="shared" si="8"/>
         <v>0.18675060806882202</v>
       </c>
-      <c r="P52" s="4">
-        <f t="shared" si="6"/>
+      <c r="R52" s="4">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>15</v>
       </c>
@@ -6873,48 +7200,55 @@
         <v>2</v>
       </c>
       <c r="D53">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.0230833333333331</v>
       </c>
       <c r="E53">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>181.38499999999999</v>
       </c>
       <c r="F53">
         <v>181385</v>
       </c>
-      <c r="G53" s="3">
+      <c r="G53">
         <v>990.66466418100003</v>
       </c>
-      <c r="H53" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="I53" s="7"/>
+      <c r="H53" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="I53" s="9"/>
       <c r="J53" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="K53">
         <v>1153.558670195504</v>
       </c>
-      <c r="L53" t="s">
-        <v>172</v>
-      </c>
-      <c r="M53">
+      <c r="L53" s="5">
+        <v>0.16442900600393501</v>
+      </c>
+      <c r="M53" s="5">
+        <f t="shared" si="7"/>
+        <v>0.16442900600393504</v>
+      </c>
+      <c r="N53" t="s">
+        <v>177</v>
+      </c>
+      <c r="O53">
         <v>1800.0106947999991</v>
       </c>
-      <c r="N53">
+      <c r="P53">
         <v>1167.912269342434</v>
       </c>
-      <c r="O53" s="8">
-        <f t="shared" si="3"/>
+      <c r="Q53" s="5">
+        <f t="shared" si="8"/>
         <v>0.17891786350123601</v>
       </c>
-      <c r="P53" s="4">
-        <f t="shared" si="6"/>
+      <c r="R53" s="4">
+        <f t="shared" si="9"/>
         <v>1.2442886103484796E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>15</v>
       </c>
@@ -6925,48 +7259,55 @@
         <v>3</v>
       </c>
       <c r="D54">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.23050000000000001</v>
       </c>
       <c r="E54">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>13.83</v>
       </c>
       <c r="F54">
         <v>13830</v>
       </c>
-      <c r="G54" s="3">
+      <c r="G54">
         <v>816.442220013</v>
       </c>
-      <c r="H54" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="I54" s="7"/>
+      <c r="H54" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="I54" s="9"/>
       <c r="J54" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="K54">
         <v>975.46261747594792</v>
       </c>
-      <c r="L54" t="s">
-        <v>175</v>
-      </c>
-      <c r="M54">
+      <c r="L54" s="5">
+        <v>0.19477238384415729</v>
+      </c>
+      <c r="M54" s="5">
+        <f t="shared" si="7"/>
+        <v>0.19477238384415727</v>
+      </c>
+      <c r="N54" t="s">
+        <v>180</v>
+      </c>
+      <c r="O54">
         <v>589.63765830000193</v>
       </c>
-      <c r="N54">
+      <c r="P54">
         <v>986.5123038407138</v>
       </c>
-      <c r="O54" s="8">
-        <f t="shared" si="3"/>
+      <c r="Q54" s="5">
+        <f t="shared" si="8"/>
         <v>0.20830633161646861</v>
       </c>
-      <c r="P54" s="4">
-        <f t="shared" si="6"/>
+      <c r="R54" s="4">
+        <f t="shared" si="9"/>
         <v>1.1327636925090395E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>15</v>
       </c>
@@ -6977,48 +7318,55 @@
         <v>4</v>
       </c>
       <c r="D55">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>31.813433333333332</v>
       </c>
       <c r="E55">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1908.806</v>
       </c>
       <c r="F55">
         <v>1908806</v>
       </c>
-      <c r="G55" s="3">
+      <c r="G55">
         <v>1335.717997939</v>
       </c>
-      <c r="H55" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="I55" s="7"/>
+      <c r="H55" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="I55" s="9"/>
       <c r="J55" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="K55">
         <v>1734.220435826672</v>
       </c>
-      <c r="L55" t="s">
-        <v>178</v>
-      </c>
-      <c r="M55">
+      <c r="L55" s="5">
+        <v>0.29834324198862128</v>
+      </c>
+      <c r="M55" s="5">
+        <f t="shared" si="7"/>
+        <v>0.29834324198862133</v>
+      </c>
+      <c r="N55" t="s">
+        <v>183</v>
+      </c>
+      <c r="O55">
         <v>729.13228819999995</v>
       </c>
-      <c r="N55">
+      <c r="P55">
         <v>1479.1078282592589</v>
       </c>
-      <c r="O55" s="8">
-        <f t="shared" si="3"/>
+      <c r="Q55" s="5">
+        <f t="shared" si="8"/>
         <v>0.10735037675730055</v>
       </c>
-      <c r="P55" s="4">
-        <f t="shared" si="6"/>
+      <c r="R55" s="4">
+        <f t="shared" si="9"/>
         <v>-0.14710506363385428</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>15</v>
       </c>
@@ -7029,48 +7377,55 @@
         <v>5</v>
       </c>
       <c r="D56">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.3772166666666665</v>
       </c>
       <c r="E56">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>382.63299999999998</v>
       </c>
       <c r="F56">
         <v>382633</v>
       </c>
-      <c r="G56" s="3">
+      <c r="G56">
         <v>1235.5368964209999</v>
       </c>
-      <c r="H56" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="I56" s="7"/>
+      <c r="H56" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="I56" s="9"/>
       <c r="J56" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="K56">
         <v>1490.656141002366</v>
       </c>
-      <c r="L56" t="s">
-        <v>181</v>
-      </c>
-      <c r="M56">
+      <c r="L56" s="5">
+        <v>0.2064845212800801</v>
+      </c>
+      <c r="M56" s="5">
+        <f t="shared" si="7"/>
+        <v>0.20648452128008007</v>
+      </c>
+      <c r="N56" t="s">
+        <v>186</v>
+      </c>
+      <c r="O56">
         <v>754.21830090000003</v>
       </c>
-      <c r="N56">
+      <c r="P56">
         <v>1454.7840481513599</v>
       </c>
-      <c r="O56" s="8">
-        <f t="shared" si="3"/>
+      <c r="Q56" s="5">
+        <f t="shared" si="8"/>
         <v>0.17745091414546729</v>
       </c>
-      <c r="P56" s="4">
-        <f t="shared" si="6"/>
+      <c r="R56" s="4">
+        <f t="shared" si="9"/>
         <v>-2.406463292525968E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>15</v>
       </c>
@@ -7081,48 +7436,55 @@
         <v>6</v>
       </c>
       <c r="D57">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>11.927283333333332</v>
       </c>
       <c r="E57">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>715.63699999999994</v>
       </c>
       <c r="F57">
         <v>715637</v>
       </c>
-      <c r="G57" s="3">
+      <c r="G57">
         <v>684.84841983199999</v>
       </c>
-      <c r="H57" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="I57" s="7"/>
+      <c r="H57" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="I57" s="9"/>
       <c r="J57" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="K57">
         <v>875.64538242702918</v>
       </c>
-      <c r="L57" t="s">
-        <v>184</v>
-      </c>
-      <c r="M57">
+      <c r="L57" s="5">
+        <v>0.27859736121145401</v>
+      </c>
+      <c r="M57" s="5">
+        <f t="shared" si="7"/>
+        <v>0.27859736121145401</v>
+      </c>
+      <c r="N57" t="s">
+        <v>189</v>
+      </c>
+      <c r="O57">
         <v>843.49386729999969</v>
       </c>
-      <c r="N57">
+      <c r="P57">
         <v>834.37760121061604</v>
       </c>
-      <c r="O57" s="8">
-        <f t="shared" si="3"/>
+      <c r="Q57" s="5">
+        <f t="shared" si="8"/>
         <v>0.21833909088276354</v>
       </c>
-      <c r="P57" s="4">
-        <f t="shared" si="6"/>
+      <c r="R57" s="4">
+        <f t="shared" si="9"/>
         <v>-4.7128417558750892E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>15</v>
       </c>
@@ -7133,48 +7495,55 @@
         <v>7</v>
       </c>
       <c r="D58">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.80586666666666662</v>
       </c>
       <c r="E58">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>48.351999999999997</v>
       </c>
       <c r="F58">
         <v>48352</v>
       </c>
-      <c r="G58" s="3">
+      <c r="G58">
         <v>1042.9837969709999</v>
       </c>
-      <c r="H58" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="I58" s="7"/>
+      <c r="H58" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="I58" s="9"/>
       <c r="J58" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="K58">
         <v>1287.259466421646</v>
       </c>
-      <c r="L58" t="s">
-        <v>187</v>
-      </c>
-      <c r="M58">
+      <c r="L58" s="5">
+        <v>0.23420849888566209</v>
+      </c>
+      <c r="M58" s="5">
+        <f t="shared" si="7"/>
+        <v>0.23420849888566211</v>
+      </c>
+      <c r="N58" t="s">
+        <v>192</v>
+      </c>
+      <c r="O58">
         <v>858.84702300000208</v>
       </c>
-      <c r="N58">
+      <c r="P58">
         <v>1275.382289345094</v>
       </c>
-      <c r="O58" s="8">
-        <f t="shared" si="3"/>
+      <c r="Q58" s="5">
+        <f t="shared" si="8"/>
         <v>0.22282080800202103</v>
       </c>
-      <c r="P58" s="4">
-        <f t="shared" si="6"/>
+      <c r="R58" s="4">
+        <f t="shared" si="9"/>
         <v>-9.226715659406623E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>15</v>
       </c>
@@ -7185,48 +7554,55 @@
         <v>8</v>
       </c>
       <c r="D59">
-        <f t="shared" si="4"/>
-        <v>20.862533333333332</v>
+        <f t="shared" si="5"/>
+        <v>9.8160000000000007</v>
       </c>
       <c r="E59">
-        <f t="shared" si="5"/>
-        <v>1251.752</v>
+        <f t="shared" si="6"/>
+        <v>588.96</v>
       </c>
       <c r="F59">
-        <v>1251752</v>
-      </c>
-      <c r="G59" s="3">
-        <v>2041.698102156</v>
-      </c>
-      <c r="H59" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="I59" s="7"/>
+        <v>588960</v>
+      </c>
+      <c r="G59">
+        <v>844.422064514</v>
+      </c>
+      <c r="H59" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="I59" s="9"/>
       <c r="J59" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="K59">
-        <v>2656.0963028232368</v>
-      </c>
-      <c r="L59" t="s">
-        <v>190</v>
-      </c>
-      <c r="M59">
-        <v>692.63879940000015</v>
-      </c>
-      <c r="N59">
-        <v>933.66048774492606</v>
-      </c>
-      <c r="O59" s="8">
-        <f t="shared" si="3"/>
-        <v>-0.542703944937307</v>
-      </c>
-      <c r="P59" s="4">
-        <f t="shared" si="6"/>
-        <v>-0.64848394738078097</v>
-      </c>
-    </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1087.616110754589</v>
+      </c>
+      <c r="L59" s="5">
+        <v>0.30092509760304048</v>
+      </c>
+      <c r="M59" s="5">
+        <f t="shared" si="7"/>
+        <v>0.28800058224503799</v>
+      </c>
+      <c r="N59" t="s">
+        <v>195</v>
+      </c>
+      <c r="O59">
+        <v>815.18354440000007</v>
+      </c>
+      <c r="P59">
+        <v>1025.97020552298</v>
+      </c>
+      <c r="Q59" s="5">
+        <f t="shared" si="8"/>
+        <v>0.2149969175822857</v>
+      </c>
+      <c r="R59" s="4">
+        <f t="shared" si="9"/>
+        <v>-5.6679838246271534E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>15</v>
       </c>
@@ -7237,48 +7613,55 @@
         <v>9</v>
       </c>
       <c r="D60">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>13.850033333333332</v>
       </c>
       <c r="E60">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>831.00199999999995</v>
       </c>
       <c r="F60">
         <v>831002</v>
       </c>
-      <c r="G60" s="3">
+      <c r="G60">
         <v>812.48444796000001</v>
       </c>
-      <c r="H60" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="I60" s="7"/>
+      <c r="H60" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="I60" s="9"/>
       <c r="J60" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="K60">
         <v>928.10921743592348</v>
       </c>
-      <c r="L60" t="s">
-        <v>193</v>
-      </c>
-      <c r="M60">
+      <c r="L60" s="5">
+        <v>0.142310132540058</v>
+      </c>
+      <c r="M60" s="5">
+        <f t="shared" si="7"/>
+        <v>0.142310132540058</v>
+      </c>
+      <c r="N60" t="s">
+        <v>198</v>
+      </c>
+      <c r="O60">
         <v>676.07068479999725</v>
       </c>
-      <c r="N60">
+      <c r="P60">
         <v>948.70542409475468</v>
       </c>
-      <c r="O60" s="8">
-        <f t="shared" si="3"/>
+      <c r="Q60" s="5">
+        <f t="shared" si="8"/>
         <v>0.16765979518350246</v>
       </c>
-      <c r="P60" s="4">
-        <f t="shared" si="6"/>
+      <c r="R60" s="4">
+        <f t="shared" si="9"/>
         <v>2.2191576456628771E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>15</v>
       </c>
@@ -7289,638 +7672,661 @@
         <v>10</v>
       </c>
       <c r="D61">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>463.13668333333334</v>
       </c>
       <c r="E61">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>27788.201000000001</v>
       </c>
       <c r="F61">
         <v>27788201</v>
       </c>
-      <c r="G61" s="3">
+      <c r="G61">
         <v>1036.0607604459999</v>
       </c>
-      <c r="H61" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="I61" s="7"/>
+      <c r="H61" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="I61" s="9"/>
       <c r="J61" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="K61">
         <v>1172.042609135658</v>
       </c>
-      <c r="L61" t="s">
-        <v>196</v>
-      </c>
-      <c r="M61">
+      <c r="L61" s="5">
+        <v>0.13124891307641179</v>
+      </c>
+      <c r="M61" s="5">
+        <f t="shared" si="7"/>
+        <v>0.13124891307641179</v>
+      </c>
+      <c r="N61" t="s">
+        <v>201</v>
+      </c>
+      <c r="O61">
         <v>741.70262700000239</v>
       </c>
-      <c r="N61">
+      <c r="P61">
         <v>1212.417268828427</v>
       </c>
-      <c r="O61" s="8">
-        <f t="shared" si="3"/>
+      <c r="Q61" s="5">
+        <f t="shared" si="8"/>
         <v>0.17021830679747951</v>
       </c>
-      <c r="P61" s="4">
-        <f t="shared" si="6"/>
+      <c r="R61" s="4">
+        <f t="shared" si="9"/>
         <v>3.4448115945668524E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="H62" s="6"/>
-      <c r="I62" s="7"/>
-    </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="H63" s="6"/>
-      <c r="I63" s="7"/>
-    </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="H64" s="6"/>
-      <c r="I64" s="7"/>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="H62" s="8"/>
+      <c r="I62" s="9"/>
+      <c r="L62" s="5">
+        <f>AVERAGE(L2:L61)</f>
+        <v>0.19437365484068622</v>
+      </c>
+      <c r="M62" s="5">
+        <f>AVERAGE(M2:M61)</f>
+        <v>0.19218499148480353</v>
+      </c>
+      <c r="Q62" s="5">
+        <f>AVERAGE(Q2:Q61)</f>
+        <v>0.17784165273106139</v>
+      </c>
+      <c r="R62" s="5">
+        <f>AVERAGE(R2:R61)</f>
+        <v>-1.0895728108015427E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="H63" s="8"/>
+      <c r="I63" s="9"/>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="H64" s="8"/>
+      <c r="I64" s="9"/>
     </row>
     <row r="65" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H65" s="6"/>
-      <c r="I65" s="7"/>
+      <c r="H65" s="8"/>
+      <c r="I65" s="9"/>
     </row>
     <row r="66" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H66" s="6"/>
-      <c r="I66" s="7"/>
+      <c r="H66" s="8"/>
+      <c r="I66" s="9"/>
     </row>
     <row r="67" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H67" s="6"/>
-      <c r="I67" s="7"/>
+      <c r="H67" s="8"/>
+      <c r="I67" s="9"/>
     </row>
     <row r="68" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H68" s="6"/>
-      <c r="I68" s="7"/>
+      <c r="H68" s="8"/>
+      <c r="I68" s="9"/>
     </row>
     <row r="69" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H69" s="6"/>
-      <c r="I69" s="7"/>
+      <c r="H69" s="8"/>
+      <c r="I69" s="9"/>
     </row>
     <row r="70" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H70" s="6"/>
-      <c r="I70" s="7"/>
+      <c r="H70" s="8"/>
+      <c r="I70" s="9"/>
     </row>
     <row r="71" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H71" s="6"/>
-      <c r="I71" s="7"/>
+      <c r="H71" s="8"/>
+      <c r="I71" s="9"/>
     </row>
     <row r="72" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H72" s="6"/>
-      <c r="I72" s="7"/>
+      <c r="H72" s="8"/>
+      <c r="I72" s="9"/>
     </row>
     <row r="73" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H73" s="6"/>
-      <c r="I73" s="7"/>
+      <c r="H73" s="8"/>
+      <c r="I73" s="9"/>
     </row>
     <row r="74" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H74" s="6"/>
-      <c r="I74" s="7"/>
+      <c r="H74" s="8"/>
+      <c r="I74" s="9"/>
     </row>
     <row r="75" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H75" s="6"/>
-      <c r="I75" s="7"/>
+      <c r="H75" s="8"/>
+      <c r="I75" s="9"/>
     </row>
     <row r="76" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H76" s="6"/>
-      <c r="I76" s="7"/>
+      <c r="H76" s="8"/>
+      <c r="I76" s="9"/>
     </row>
     <row r="77" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H77" s="6"/>
-      <c r="I77" s="7"/>
+      <c r="H77" s="8"/>
+      <c r="I77" s="9"/>
     </row>
     <row r="78" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H78" s="6"/>
-      <c r="I78" s="7"/>
+      <c r="H78" s="8"/>
+      <c r="I78" s="9"/>
     </row>
     <row r="79" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H79" s="6"/>
-      <c r="I79" s="7"/>
+      <c r="H79" s="8"/>
+      <c r="I79" s="9"/>
     </row>
     <row r="80" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H80" s="6"/>
-      <c r="I80" s="7"/>
+      <c r="H80" s="8"/>
+      <c r="I80" s="9"/>
     </row>
     <row r="81" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H81" s="6"/>
-      <c r="I81" s="7"/>
+      <c r="H81" s="8"/>
+      <c r="I81" s="9"/>
     </row>
     <row r="82" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H82" s="6"/>
-      <c r="I82" s="7"/>
+      <c r="H82" s="8"/>
+      <c r="I82" s="9"/>
     </row>
     <row r="83" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H83" s="6"/>
-      <c r="I83" s="7"/>
+      <c r="H83" s="8"/>
+      <c r="I83" s="9"/>
     </row>
     <row r="84" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H84" s="6"/>
-      <c r="I84" s="7"/>
+      <c r="H84" s="8"/>
+      <c r="I84" s="9"/>
     </row>
     <row r="85" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H85" s="6"/>
-      <c r="I85" s="7"/>
+      <c r="H85" s="8"/>
+      <c r="I85" s="9"/>
     </row>
     <row r="86" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H86" s="6"/>
-      <c r="I86" s="7"/>
+      <c r="H86" s="8"/>
+      <c r="I86" s="9"/>
     </row>
     <row r="87" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H87" s="6"/>
-      <c r="I87" s="7"/>
+      <c r="H87" s="8"/>
+      <c r="I87" s="9"/>
     </row>
     <row r="88" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H88" s="6"/>
-      <c r="I88" s="7"/>
+      <c r="H88" s="8"/>
+      <c r="I88" s="9"/>
     </row>
     <row r="89" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H89" s="6"/>
-      <c r="I89" s="7"/>
+      <c r="H89" s="8"/>
+      <c r="I89" s="9"/>
     </row>
     <row r="90" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H90" s="6"/>
-      <c r="I90" s="7"/>
+      <c r="H90" s="8"/>
+      <c r="I90" s="9"/>
     </row>
     <row r="91" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H91" s="6"/>
-      <c r="I91" s="7"/>
+      <c r="H91" s="8"/>
+      <c r="I91" s="9"/>
     </row>
     <row r="92" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H92" s="6"/>
-      <c r="I92" s="7"/>
+      <c r="H92" s="8"/>
+      <c r="I92" s="9"/>
     </row>
     <row r="93" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H93" s="6"/>
-      <c r="I93" s="7"/>
+      <c r="H93" s="8"/>
+      <c r="I93" s="9"/>
     </row>
     <row r="94" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H94" s="6"/>
-      <c r="I94" s="7"/>
+      <c r="H94" s="8"/>
+      <c r="I94" s="9"/>
     </row>
     <row r="95" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H95" s="6"/>
-      <c r="I95" s="7"/>
+      <c r="H95" s="8"/>
+      <c r="I95" s="9"/>
     </row>
     <row r="96" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H96" s="6"/>
-      <c r="I96" s="7"/>
+      <c r="H96" s="8"/>
+      <c r="I96" s="9"/>
     </row>
     <row r="97" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H97" s="6"/>
-      <c r="I97" s="7"/>
+      <c r="H97" s="8"/>
+      <c r="I97" s="9"/>
     </row>
     <row r="98" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H98" s="6"/>
-      <c r="I98" s="7"/>
+      <c r="H98" s="8"/>
+      <c r="I98" s="9"/>
     </row>
     <row r="99" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H99" s="6"/>
-      <c r="I99" s="7"/>
+      <c r="H99" s="8"/>
+      <c r="I99" s="9"/>
     </row>
     <row r="100" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H100" s="6"/>
-      <c r="I100" s="7"/>
+      <c r="H100" s="8"/>
+      <c r="I100" s="9"/>
     </row>
     <row r="101" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H101" s="6"/>
-      <c r="I101" s="7"/>
+      <c r="H101" s="8"/>
+      <c r="I101" s="9"/>
     </row>
     <row r="102" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H102" s="6"/>
-      <c r="I102" s="7"/>
+      <c r="H102" s="8"/>
+      <c r="I102" s="9"/>
     </row>
     <row r="103" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H103" s="6"/>
-      <c r="I103" s="7"/>
+      <c r="H103" s="8"/>
+      <c r="I103" s="9"/>
     </row>
     <row r="104" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H104" s="6"/>
-      <c r="I104" s="7"/>
+      <c r="H104" s="8"/>
+      <c r="I104" s="9"/>
     </row>
     <row r="105" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H105" s="6"/>
-      <c r="I105" s="7"/>
+      <c r="H105" s="8"/>
+      <c r="I105" s="9"/>
     </row>
     <row r="106" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H106" s="6"/>
-      <c r="I106" s="7"/>
+      <c r="H106" s="8"/>
+      <c r="I106" s="9"/>
     </row>
     <row r="107" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H107" s="6"/>
-      <c r="I107" s="7"/>
+      <c r="H107" s="8"/>
+      <c r="I107" s="9"/>
     </row>
     <row r="108" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H108" s="6"/>
-      <c r="I108" s="7"/>
+      <c r="H108" s="8"/>
+      <c r="I108" s="9"/>
     </row>
     <row r="109" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H109" s="6"/>
-      <c r="I109" s="7"/>
+      <c r="H109" s="8"/>
+      <c r="I109" s="9"/>
     </row>
     <row r="110" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H110" s="6"/>
-      <c r="I110" s="7"/>
+      <c r="H110" s="8"/>
+      <c r="I110" s="9"/>
     </row>
     <row r="111" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H111" s="6"/>
-      <c r="I111" s="7"/>
+      <c r="H111" s="8"/>
+      <c r="I111" s="9"/>
     </row>
     <row r="112" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H112" s="6"/>
-      <c r="I112" s="7"/>
+      <c r="H112" s="8"/>
+      <c r="I112" s="9"/>
     </row>
     <row r="113" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H113" s="6"/>
-      <c r="I113" s="7"/>
+      <c r="H113" s="8"/>
+      <c r="I113" s="9"/>
     </row>
     <row r="114" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H114" s="6"/>
-      <c r="I114" s="7"/>
+      <c r="H114" s="8"/>
+      <c r="I114" s="9"/>
     </row>
     <row r="115" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H115" s="6"/>
-      <c r="I115" s="7"/>
+      <c r="H115" s="8"/>
+      <c r="I115" s="9"/>
     </row>
     <row r="116" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H116" s="6"/>
-      <c r="I116" s="7"/>
+      <c r="H116" s="8"/>
+      <c r="I116" s="9"/>
     </row>
     <row r="117" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H117" s="6"/>
-      <c r="I117" s="7"/>
+      <c r="H117" s="8"/>
+      <c r="I117" s="9"/>
     </row>
     <row r="118" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H118" s="6"/>
-      <c r="I118" s="7"/>
+      <c r="H118" s="8"/>
+      <c r="I118" s="9"/>
     </row>
     <row r="119" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H119" s="6"/>
-      <c r="I119" s="7"/>
+      <c r="H119" s="8"/>
+      <c r="I119" s="9"/>
     </row>
     <row r="120" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H120" s="6"/>
-      <c r="I120" s="7"/>
+      <c r="H120" s="8"/>
+      <c r="I120" s="9"/>
     </row>
     <row r="121" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H121" s="6"/>
-      <c r="I121" s="7"/>
+      <c r="H121" s="8"/>
+      <c r="I121" s="9"/>
     </row>
     <row r="122" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H122" s="6"/>
-      <c r="I122" s="7"/>
+      <c r="H122" s="8"/>
+      <c r="I122" s="9"/>
     </row>
     <row r="123" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H123" s="6"/>
-      <c r="I123" s="7"/>
+      <c r="H123" s="8"/>
+      <c r="I123" s="9"/>
     </row>
     <row r="124" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H124" s="6"/>
-      <c r="I124" s="7"/>
+      <c r="H124" s="8"/>
+      <c r="I124" s="9"/>
     </row>
     <row r="125" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H125" s="6"/>
-      <c r="I125" s="7"/>
+      <c r="H125" s="8"/>
+      <c r="I125" s="9"/>
     </row>
     <row r="126" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H126" s="6"/>
-      <c r="I126" s="7"/>
+      <c r="H126" s="8"/>
+      <c r="I126" s="9"/>
     </row>
     <row r="127" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H127" s="6"/>
-      <c r="I127" s="7"/>
+      <c r="H127" s="8"/>
+      <c r="I127" s="9"/>
     </row>
     <row r="128" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H128" s="6"/>
-      <c r="I128" s="7"/>
+      <c r="H128" s="8"/>
+      <c r="I128" s="9"/>
     </row>
     <row r="129" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H129" s="6"/>
-      <c r="I129" s="7"/>
+      <c r="H129" s="8"/>
+      <c r="I129" s="9"/>
     </row>
     <row r="130" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H130" s="6"/>
-      <c r="I130" s="7"/>
+      <c r="H130" s="8"/>
+      <c r="I130" s="9"/>
     </row>
     <row r="131" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H131" s="6"/>
-      <c r="I131" s="7"/>
+      <c r="H131" s="8"/>
+      <c r="I131" s="9"/>
     </row>
     <row r="132" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H132" s="6"/>
-      <c r="I132" s="7"/>
+      <c r="H132" s="8"/>
+      <c r="I132" s="9"/>
     </row>
     <row r="133" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H133" s="6"/>
-      <c r="I133" s="7"/>
+      <c r="H133" s="8"/>
+      <c r="I133" s="9"/>
     </row>
     <row r="134" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H134" s="6"/>
-      <c r="I134" s="7"/>
+      <c r="H134" s="8"/>
+      <c r="I134" s="9"/>
     </row>
     <row r="135" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H135" s="6"/>
-      <c r="I135" s="7"/>
+      <c r="H135" s="8"/>
+      <c r="I135" s="9"/>
     </row>
     <row r="136" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H136" s="6"/>
-      <c r="I136" s="7"/>
+      <c r="H136" s="8"/>
+      <c r="I136" s="9"/>
     </row>
     <row r="137" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H137" s="6"/>
-      <c r="I137" s="7"/>
+      <c r="H137" s="8"/>
+      <c r="I137" s="9"/>
     </row>
     <row r="138" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H138" s="6"/>
-      <c r="I138" s="7"/>
+      <c r="H138" s="8"/>
+      <c r="I138" s="9"/>
     </row>
     <row r="139" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H139" s="6"/>
-      <c r="I139" s="7"/>
+      <c r="H139" s="8"/>
+      <c r="I139" s="9"/>
     </row>
     <row r="140" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H140" s="6"/>
-      <c r="I140" s="7"/>
+      <c r="H140" s="8"/>
+      <c r="I140" s="9"/>
     </row>
     <row r="141" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H141" s="6"/>
-      <c r="I141" s="7"/>
+      <c r="H141" s="8"/>
+      <c r="I141" s="9"/>
     </row>
     <row r="142" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H142" s="6"/>
-      <c r="I142" s="7"/>
+      <c r="H142" s="8"/>
+      <c r="I142" s="9"/>
     </row>
     <row r="143" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H143" s="6"/>
-      <c r="I143" s="7"/>
+      <c r="H143" s="8"/>
+      <c r="I143" s="9"/>
     </row>
     <row r="144" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H144" s="6"/>
-      <c r="I144" s="7"/>
+      <c r="H144" s="8"/>
+      <c r="I144" s="9"/>
     </row>
     <row r="145" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H145" s="6"/>
-      <c r="I145" s="7"/>
+      <c r="H145" s="8"/>
+      <c r="I145" s="9"/>
     </row>
     <row r="146" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H146" s="6"/>
-      <c r="I146" s="7"/>
+      <c r="H146" s="8"/>
+      <c r="I146" s="9"/>
     </row>
     <row r="147" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H147" s="6"/>
-      <c r="I147" s="7"/>
+      <c r="H147" s="8"/>
+      <c r="I147" s="9"/>
     </row>
     <row r="148" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H148" s="6"/>
-      <c r="I148" s="7"/>
+      <c r="H148" s="8"/>
+      <c r="I148" s="9"/>
     </row>
     <row r="149" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H149" s="6"/>
-      <c r="I149" s="7"/>
+      <c r="H149" s="8"/>
+      <c r="I149" s="9"/>
     </row>
     <row r="150" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H150" s="6"/>
-      <c r="I150" s="7"/>
+      <c r="H150" s="8"/>
+      <c r="I150" s="9"/>
     </row>
     <row r="151" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H151" s="6"/>
-      <c r="I151" s="7"/>
+      <c r="H151" s="8"/>
+      <c r="I151" s="9"/>
     </row>
     <row r="152" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H152" s="6"/>
-      <c r="I152" s="7"/>
+      <c r="H152" s="8"/>
+      <c r="I152" s="9"/>
     </row>
     <row r="153" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H153" s="6"/>
-      <c r="I153" s="7"/>
+      <c r="H153" s="8"/>
+      <c r="I153" s="9"/>
     </row>
     <row r="154" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H154" s="6"/>
-      <c r="I154" s="7"/>
+      <c r="H154" s="8"/>
+      <c r="I154" s="9"/>
     </row>
     <row r="155" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H155" s="6"/>
-      <c r="I155" s="7"/>
+      <c r="H155" s="8"/>
+      <c r="I155" s="9"/>
     </row>
     <row r="156" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H156" s="6"/>
-      <c r="I156" s="7"/>
+      <c r="H156" s="8"/>
+      <c r="I156" s="9"/>
     </row>
     <row r="157" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H157" s="6"/>
-      <c r="I157" s="7"/>
+      <c r="H157" s="8"/>
+      <c r="I157" s="9"/>
     </row>
     <row r="158" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H158" s="6"/>
-      <c r="I158" s="7"/>
+      <c r="H158" s="8"/>
+      <c r="I158" s="9"/>
     </row>
     <row r="159" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H159" s="6"/>
-      <c r="I159" s="7"/>
+      <c r="H159" s="8"/>
+      <c r="I159" s="9"/>
     </row>
     <row r="160" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H160" s="6"/>
-      <c r="I160" s="7"/>
+      <c r="H160" s="8"/>
+      <c r="I160" s="9"/>
     </row>
     <row r="161" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H161" s="6"/>
-      <c r="I161" s="7"/>
+      <c r="H161" s="8"/>
+      <c r="I161" s="9"/>
     </row>
     <row r="162" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H162" s="6"/>
-      <c r="I162" s="7"/>
+      <c r="H162" s="8"/>
+      <c r="I162" s="9"/>
     </row>
     <row r="163" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H163" s="6"/>
-      <c r="I163" s="7"/>
+      <c r="H163" s="8"/>
+      <c r="I163" s="9"/>
     </row>
     <row r="164" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H164" s="6"/>
-      <c r="I164" s="7"/>
+      <c r="H164" s="8"/>
+      <c r="I164" s="9"/>
     </row>
     <row r="165" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H165" s="6"/>
-      <c r="I165" s="7"/>
+      <c r="H165" s="8"/>
+      <c r="I165" s="9"/>
     </row>
     <row r="166" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H166" s="6"/>
-      <c r="I166" s="7"/>
+      <c r="H166" s="8"/>
+      <c r="I166" s="9"/>
     </row>
     <row r="167" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H167" s="6"/>
-      <c r="I167" s="7"/>
+      <c r="H167" s="8"/>
+      <c r="I167" s="9"/>
     </row>
     <row r="168" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H168" s="6"/>
-      <c r="I168" s="7"/>
+      <c r="H168" s="8"/>
+      <c r="I168" s="9"/>
     </row>
     <row r="169" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H169" s="6"/>
-      <c r="I169" s="7"/>
+      <c r="H169" s="8"/>
+      <c r="I169" s="9"/>
     </row>
     <row r="170" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H170" s="6"/>
-      <c r="I170" s="7"/>
+      <c r="H170" s="8"/>
+      <c r="I170" s="9"/>
     </row>
     <row r="171" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H171" s="6"/>
-      <c r="I171" s="7"/>
+      <c r="H171" s="8"/>
+      <c r="I171" s="9"/>
     </row>
     <row r="172" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H172" s="6"/>
-      <c r="I172" s="7"/>
+      <c r="H172" s="8"/>
+      <c r="I172" s="9"/>
     </row>
     <row r="173" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H173" s="6"/>
-      <c r="I173" s="7"/>
+      <c r="H173" s="8"/>
+      <c r="I173" s="9"/>
     </row>
     <row r="174" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H174" s="6"/>
-      <c r="I174" s="7"/>
+      <c r="H174" s="8"/>
+      <c r="I174" s="9"/>
     </row>
     <row r="175" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H175" s="6"/>
-      <c r="I175" s="7"/>
+      <c r="H175" s="8"/>
+      <c r="I175" s="9"/>
     </row>
     <row r="176" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H176" s="6"/>
-      <c r="I176" s="7"/>
+      <c r="H176" s="8"/>
+      <c r="I176" s="9"/>
     </row>
     <row r="177" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H177" s="6"/>
-      <c r="I177" s="7"/>
+      <c r="H177" s="8"/>
+      <c r="I177" s="9"/>
     </row>
     <row r="178" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H178" s="6"/>
-      <c r="I178" s="7"/>
+      <c r="H178" s="8"/>
+      <c r="I178" s="9"/>
     </row>
     <row r="179" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H179" s="6"/>
-      <c r="I179" s="7"/>
+      <c r="H179" s="8"/>
+      <c r="I179" s="9"/>
     </row>
     <row r="180" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H180" s="6"/>
-      <c r="I180" s="7"/>
+      <c r="H180" s="8"/>
+      <c r="I180" s="9"/>
     </row>
     <row r="181" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H181" s="6"/>
-      <c r="I181" s="7"/>
+      <c r="H181" s="8"/>
+      <c r="I181" s="9"/>
     </row>
     <row r="182" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H182" s="6"/>
-      <c r="I182" s="7"/>
+      <c r="H182" s="8"/>
+      <c r="I182" s="9"/>
     </row>
     <row r="183" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H183" s="6"/>
-      <c r="I183" s="7"/>
+      <c r="H183" s="8"/>
+      <c r="I183" s="9"/>
     </row>
     <row r="184" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H184" s="6"/>
-      <c r="I184" s="7"/>
+      <c r="H184" s="8"/>
+      <c r="I184" s="9"/>
     </row>
     <row r="185" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H185" s="6"/>
-      <c r="I185" s="7"/>
+      <c r="H185" s="8"/>
+      <c r="I185" s="9"/>
     </row>
     <row r="186" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H186" s="6"/>
-      <c r="I186" s="7"/>
+      <c r="H186" s="8"/>
+      <c r="I186" s="9"/>
     </row>
     <row r="187" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H187" s="6"/>
-      <c r="I187" s="7"/>
+      <c r="H187" s="8"/>
+      <c r="I187" s="9"/>
     </row>
     <row r="188" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H188" s="6"/>
-      <c r="I188" s="7"/>
+      <c r="H188" s="8"/>
+      <c r="I188" s="9"/>
     </row>
     <row r="189" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H189" s="6"/>
-      <c r="I189" s="7"/>
+      <c r="H189" s="8"/>
+      <c r="I189" s="9"/>
     </row>
     <row r="190" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H190" s="6"/>
-      <c r="I190" s="7"/>
+      <c r="H190" s="8"/>
+      <c r="I190" s="9"/>
     </row>
     <row r="191" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H191" s="6"/>
-      <c r="I191" s="7"/>
+      <c r="H191" s="8"/>
+      <c r="I191" s="9"/>
     </row>
     <row r="192" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H192" s="6"/>
-      <c r="I192" s="7"/>
+      <c r="H192" s="8"/>
+      <c r="I192" s="9"/>
     </row>
     <row r="193" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H193" s="6"/>
-      <c r="I193" s="7"/>
+      <c r="H193" s="8"/>
+      <c r="I193" s="9"/>
     </row>
     <row r="194" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H194" s="6"/>
-      <c r="I194" s="7"/>
+      <c r="H194" s="8"/>
+      <c r="I194" s="9"/>
     </row>
     <row r="195" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H195" s="6"/>
-      <c r="I195" s="7"/>
+      <c r="H195" s="8"/>
+      <c r="I195" s="9"/>
     </row>
     <row r="196" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H196" s="6"/>
-      <c r="I196" s="7"/>
+      <c r="H196" s="8"/>
+      <c r="I196" s="9"/>
     </row>
     <row r="197" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H197" s="6"/>
-      <c r="I197" s="7"/>
+      <c r="H197" s="8"/>
+      <c r="I197" s="9"/>
     </row>
     <row r="198" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H198" s="6"/>
-      <c r="I198" s="7"/>
+      <c r="H198" s="8"/>
+      <c r="I198" s="9"/>
     </row>
     <row r="199" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H199" s="6"/>
-      <c r="I199" s="7"/>
+      <c r="H199" s="8"/>
+      <c r="I199" s="9"/>
     </row>
     <row r="200" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H200" s="6"/>
-      <c r="I200" s="7"/>
+      <c r="H200" s="8"/>
+      <c r="I200" s="9"/>
     </row>
     <row r="201" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H201" s="6"/>
-      <c r="I201" s="7"/>
+      <c r="H201" s="8"/>
+      <c r="I201" s="9"/>
     </row>
     <row r="202" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H202" s="6"/>
-      <c r="I202" s="7"/>
+      <c r="H202" s="8"/>
+      <c r="I202" s="9"/>
     </row>
     <row r="203" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H203" s="6"/>
-      <c r="I203" s="7"/>
+      <c r="H203" s="8"/>
+      <c r="I203" s="9"/>
     </row>
     <row r="204" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H204" s="6"/>
-      <c r="I204" s="7"/>
+      <c r="H204" s="8"/>
+      <c r="I204" s="9"/>
     </row>
     <row r="205" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H205" s="6"/>
-      <c r="I205" s="7"/>
+      <c r="H205" s="8"/>
+      <c r="I205" s="9"/>
     </row>
     <row r="206" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H206" s="6"/>
-      <c r="I206" s="7"/>
+      <c r="H206" s="8"/>
+      <c r="I206" s="9"/>
     </row>
     <row r="207" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H207" s="6"/>
-      <c r="I207" s="7"/>
+      <c r="H207" s="8"/>
+      <c r="I207" s="9"/>
     </row>
     <row r="208" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H208" s="6"/>
-      <c r="I208" s="7"/>
+      <c r="H208" s="8"/>
+      <c r="I208" s="9"/>
     </row>
     <row r="209" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H209" s="6"/>
-      <c r="I209" s="7"/>
+      <c r="H209" s="8"/>
+      <c r="I209" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="208">
@@ -8133,13 +8539,13 @@
     <mergeCell ref="H29:I29"/>
     <mergeCell ref="H30:I30"/>
   </mergeCells>
-  <conditionalFormatting sqref="P2:P1048576">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="notBetween">
+  <conditionalFormatting sqref="R2:R61 R63:R1048576">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="notBetween">
       <formula>-0.1</formula>
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O1:O1048576">
+  <conditionalFormatting sqref="Q1:Q61 Q63:Q1048576">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>

--- a/vrp_dss/Solve Times Summary.xlsx
+++ b/vrp_dss/Solve Times Summary.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\great\Documents\GitHub\VRP-DSS\vrp_dss\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Aaron\Documents\Git Repositories\VRP-DSS\vrp_dss\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D02B7219-96A2-48E0-908D-1B63029C84DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D02D587-E079-4012-BEE0-D56530EE79D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="208">
   <si>
     <t># Customers</t>
   </si>
@@ -2965,11 +2965,33 @@
 15 (6) -&gt; 13 (6)
 </t>
   </si>
+  <si>
+    <t>Meta Eval Diff</t>
+  </si>
+  <si>
+    <t>Meta Solution Diff</t>
+  </si>
+  <si>
+    <t>Meta Solution Diff (excluding &lt;-10%)</t>
+  </si>
+  <si>
+    <t>Number of identical solutions</t>
+  </si>
+  <si>
+    <t>Rounded to 5 digits</t>
+  </si>
+  <si>
+    <t>Outliers</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.000%"/>
+    <numFmt numFmtId="165" formatCode="0.00000%"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3015,7 +3037,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3028,6 +3050,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -3039,7 +3067,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="11">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3047,6 +3075,90 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6D6D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6D6D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3434,10 +3546,2149 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.16526273565984759"/>
+          <c:x val="0.1219414360208584"/>
+          <c:y val="6.8615484813373873E-2"/>
+          <c:w val="0.10727844142255449"/>
+          <c:h val="0.1107563601935707"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>3 Vehicles</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Graphs!$A$5:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Graphs!$H$2:$H$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>281.12033539999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>417.32694387999993</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>724.82864351000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4D98-4149-8D2E-9C62144B2B94}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>5 Vehicles</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Graphs!$A$5:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Graphs!$H$5:$H$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>313.67986908000006</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>483.74806733000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>844.93959171000029</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4D98-4149-8D2E-9C62144B2B94}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="146188400"/>
+        <c:axId val="297081680"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="146188400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Customers</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="297081680"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="297081680"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:max val="10000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Mean Solution Time (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+            <a:prstDash val="solid"/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="146188400"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="l"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.1283594063377457"/>
+          <c:y val="8.4210024808825709E-2"/>
+          <c:w val="0.10727844142255449"/>
+          <c:h val="0.1107563601935707"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>3 Vehicles</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Graphs!$A$5:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Graphs!$I$2:$I$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>-8.4967556779284824E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.060986420560815E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.0597843144915926E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7D3E-4A9F-945C-A2406DD33275}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>5 Vehicles</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Graphs!$A$5:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Graphs!$I$5:$I$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>-1.448237860497617E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-8.0808175539678168E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2.0379445259267052E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7D3E-4A9F-945C-A2406DD33275}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="146188400"/>
+        <c:axId val="297081680"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="146188400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Customers</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="297081680"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="297081680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Meta Solution Cost Difference</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+            <a:prstDash val="solid"/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="146188400"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="l"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.16526273565984756"/>
           <c:y val="5.9258760816102797E-2"/>
           <c:w val="0.10727844142255449"/>
           <c:h val="0.1107563601935707"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>3 Vehicles</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Graphs!$A$5:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Graphs!$K$2:$K$4</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DB07-4B85-B6D8-BCBD356F6E2D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>5 Vehicles</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Graphs!$A$5:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Graphs!$K$5:$K$7</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-DB07-4B85-B6D8-BCBD356F6E2D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="146188400"/>
+        <c:axId val="297081680"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="146188400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Customers</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="297081680"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="297081680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="10"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of identical solutions</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+            <a:prstDash val="solid"/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="146188400"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="l"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.13638186923385479"/>
+          <c:y val="2.4950772826108844E-2"/>
+          <c:w val="8.4607673138330633E-2"/>
+          <c:h val="0.10526388171922069"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>3 Vehicles</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Graphs!$A$5:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Graphs!$J$2:$J$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>-8.4967556779284824E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.060986420560815E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0558303686438718E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CD22-4683-87A9-95B5E8B8B1A7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>5 Vehicles</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Graphs!$A$5:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Graphs!$J$5:$J$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>-4.8853183038735182E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4526580240879161E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-6.2988209954240263E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-CD22-4683-87A9-95B5E8B8B1A7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="146188400"/>
+        <c:axId val="297081680"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="146188400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Customers</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="297081680"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="297081680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Meta Solution Cost Difference</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+            <a:prstDash val="solid"/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="146188400"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="l"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.16526273565984756"/>
+          <c:y val="4.3664220820651002E-2"/>
+          <c:w val="0.10727844142255449"/>
+          <c:h val="0.1107563601935707"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>3 Vehicles</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Graphs!$A$5:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Graphs!$H$2:$H$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>281.12033539999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>417.32694387999993</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>724.82864351000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BCE7-42EF-864B-4582D4E9D63E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>5 Vehicles</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Graphs!$A$5:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Graphs!$H$5:$H$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>313.67986908000006</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>483.74806733000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>844.93959171000029</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-BCE7-42EF-864B-4582D4E9D63E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>3 Vehicles</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Graphs!$C$2:$C$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.8458999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18.308600000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>141.48820000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-BCE7-42EF-864B-4582D4E9D63E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>5 Vehicles</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Graphs!$C$5:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>12.554900000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>84.525700000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3263.7617</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-BCE7-42EF-864B-4582D4E9D63E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="146188400"/>
+        <c:axId val="297081680"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="146188400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Customers</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="297081680"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="297081680"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:max val="10000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Mean Solution Time (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+            <a:prstDash val="solid"/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="146188400"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="l"/>
+      <c:legendEntry>
+        <c:idx val="2"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="3"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.1283594063377457"/>
+          <c:y val="8.4210024808825709E-2"/>
+          <c:w val="0.10725262230307855"/>
+          <c:h val="0.10526388171922069"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -3485,16 +5736,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>609599</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>4762</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>600074</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3514,6 +5765,196 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>71438</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58214DE9-6AEA-4DEA-AAF8-72EA2D7A306A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>71438</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{460DCD73-9850-4BF0-A540-85A22853BCDF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>71438</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0852D5B-FF79-4881-8758-AEC3F7FACBE3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>71438</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E584F279-0CFE-4252-BAF2-2FC03B1875EB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>71438</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC2ED783-9FA6-496C-8D70-8E440A1FF882}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3819,10 +6260,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="AA34" sqref="AA34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3832,9 +6273,11 @@
     <col min="3" max="3" width="16" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" customWidth="1"/>
+    <col min="8" max="8" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3853,8 +6296,26 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
         <f ca="1">OFFSET('Run Data'!A$2, (ROWS(Graphs!A$1:A2)-2)*10,0,1,1)</f>
         <v>9</v>
@@ -3879,8 +6340,32 @@
         <f ca="1">_xlfn.STDEV.S(OFFSET('Run Data'!$E$2, (ROWS(Graphs!F$1:F2)-2)*10,0,10,1))</f>
         <v>1.1940430338420249</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" s="5">
+        <f ca="1">AVERAGE(OFFSET('Run Data'!$M$2, (ROWS(Graphs!G$1:G2)-2)*10,0,10,1))</f>
+        <v>0.17642187721435737</v>
+      </c>
+      <c r="H2" s="13">
+        <f ca="1">AVERAGE(OFFSET('Run Data'!$O$2, (ROWS(Graphs!H$1:H2)-2)*10,0,10,1))</f>
+        <v>281.12033539999999</v>
+      </c>
+      <c r="I2" s="4">
+        <f ca="1">AVERAGE(OFFSET('Run Data'!$R$2, (ROWS(Graphs!I$1:I2)-2)*10,0,10,1))</f>
+        <v>-8.4967556779284824E-3</v>
+      </c>
+      <c r="J2" s="4">
+        <f ca="1">AVERAGEIF(OFFSET('Run Data'!$R$2, (ROWS(Graphs!J$1:J2)-2)*10,0,10,1), "&gt;-0.1")</f>
+        <v>-8.4967556779284824E-3</v>
+      </c>
+      <c r="K2" s="9">
+        <f ca="1">COUNTIF(OFFSET('Run Data'!$S$2, (ROWS(Graphs!K$1:K2)-2)*10,0,10,1), "=0")</f>
+        <v>5</v>
+      </c>
+      <c r="L2" s="9">
+        <f ca="1">COUNTIF(OFFSET('Run Data'!$S$2, (ROWS(Graphs!L$1:L2)-2)*10,0,10,1), "&lt;-0.1")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <f ca="1">OFFSET('Run Data'!A$2, (ROWS(Graphs!A$1:A3)-2)*10,0,1,1)</f>
         <v>12</v>
@@ -3905,8 +6390,32 @@
         <f ca="1">_xlfn.STDEV.S(OFFSET('Run Data'!$E$2, (ROWS(Graphs!F$1:F3)-2)*10,0,10,1))</f>
         <v>27.489165341194983</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3" s="5">
+        <f ca="1">AVERAGE(OFFSET('Run Data'!$M$2, (ROWS(Graphs!G$1:G3)-2)*10,0,10,1))</f>
+        <v>0.16248743497683857</v>
+      </c>
+      <c r="H3" s="13">
+        <f ca="1">AVERAGE(OFFSET('Run Data'!$O$2, (ROWS(Graphs!H$1:H3)-2)*10,0,10,1))</f>
+        <v>417.32694387999993</v>
+      </c>
+      <c r="I3" s="4">
+        <f ca="1">AVERAGE(OFFSET('Run Data'!$R$2, (ROWS(Graphs!I$1:I3)-2)*10,0,10,1))</f>
+        <v>-1.060986420560815E-2</v>
+      </c>
+      <c r="J3" s="4">
+        <f ca="1">AVERAGEIF(OFFSET('Run Data'!$R$2, (ROWS(Graphs!J$1:J3)-2)*10,0,10,1), "&gt;-0.1")</f>
+        <v>-1.060986420560815E-2</v>
+      </c>
+      <c r="K3" s="9">
+        <f ca="1">COUNTIF(OFFSET('Run Data'!$S$2, (ROWS(Graphs!K$1:K3)-2)*10,0,10,1), "=0")</f>
+        <v>7</v>
+      </c>
+      <c r="L3" s="9">
+        <f ca="1">COUNTIF(OFFSET('Run Data'!$S$2, (ROWS(Graphs!L$1:L3)-2)*10,0,10,1), "&lt;-0.1")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <f ca="1">OFFSET('Run Data'!A$2, (ROWS(Graphs!A$1:A4)-2)*10,0,1,1)</f>
         <v>15</v>
@@ -3931,8 +6440,32 @@
         <f ca="1">_xlfn.STDEV.S(OFFSET('Run Data'!$E$2, (ROWS(Graphs!F$1:F4)-2)*10,0,10,1))</f>
         <v>175.43708854794011</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4" s="5">
+        <f ca="1">AVERAGE(OFFSET('Run Data'!$M$2, (ROWS(Graphs!G$1:G4)-2)*10,0,10,1))</f>
+        <v>0.17367159849300087</v>
+      </c>
+      <c r="H4" s="13">
+        <f ca="1">AVERAGE(OFFSET('Run Data'!$O$2, (ROWS(Graphs!H$1:H4)-2)*10,0,10,1))</f>
+        <v>724.82864351000001</v>
+      </c>
+      <c r="I4" s="4">
+        <f ca="1">AVERAGE(OFFSET('Run Data'!$R$2, (ROWS(Graphs!I$1:I4)-2)*10,0,10,1))</f>
+        <v>-1.0597843144915926E-2</v>
+      </c>
+      <c r="J4" s="4">
+        <f ca="1">AVERAGEIF(OFFSET('Run Data'!$R$2, (ROWS(Graphs!J$1:J4)-2)*10,0,10,1), "&gt;-0.1")</f>
+        <v>1.0558303686438718E-2</v>
+      </c>
+      <c r="K4" s="9">
+        <f ca="1">COUNTIF(OFFSET('Run Data'!$S$2, (ROWS(Graphs!K$1:K4)-2)*10,0,10,1), "=0")</f>
+        <v>7</v>
+      </c>
+      <c r="L4" s="9">
+        <f ca="1">COUNTIF(OFFSET('Run Data'!$S$2, (ROWS(Graphs!L$1:L4)-2)*10,0,10,1), "&lt;-0.1")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <f ca="1">OFFSET('Run Data'!A$2, (ROWS(Graphs!A$1:A5)-2)*10,0,1,1)</f>
         <v>9</v>
@@ -3957,8 +6490,32 @@
         <f ca="1">_xlfn.STDEV.S(OFFSET('Run Data'!$E$2, (ROWS(Graphs!F$1:F5)-2)*10,0,10,1))</f>
         <v>8.7603947964055155</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5" s="5">
+        <f ca="1">AVERAGE(OFFSET('Run Data'!$M$2, (ROWS(Graphs!G$1:G5)-2)*10,0,10,1))</f>
+        <v>0.21919061402998147</v>
+      </c>
+      <c r="H5" s="13">
+        <f ca="1">AVERAGE(OFFSET('Run Data'!$O$2, (ROWS(Graphs!H$1:H5)-2)*10,0,10,1))</f>
+        <v>313.67986908000006</v>
+      </c>
+      <c r="I5" s="4">
+        <f ca="1">AVERAGE(OFFSET('Run Data'!$R$2, (ROWS(Graphs!I$1:I5)-2)*10,0,10,1))</f>
+        <v>-1.448237860497617E-2</v>
+      </c>
+      <c r="J5" s="4">
+        <f ca="1">AVERAGEIF(OFFSET('Run Data'!$R$2, (ROWS(Graphs!J$1:J5)-2)*10,0,10,1), "&gt;-0.1")</f>
+        <v>-4.8853183038735182E-4</v>
+      </c>
+      <c r="K5" s="9">
+        <f ca="1">COUNTIF(OFFSET('Run Data'!$S$2, (ROWS(Graphs!K$1:K5)-2)*10,0,10,1), "=0")</f>
+        <v>2</v>
+      </c>
+      <c r="L5" s="9">
+        <f ca="1">COUNTIF(OFFSET('Run Data'!$S$2, (ROWS(Graphs!L$1:L5)-2)*10,0,10,1), "&lt;-0.1")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <f ca="1">OFFSET('Run Data'!A$2, (ROWS(Graphs!A$1:A6)-2)*10,0,1,1)</f>
         <v>12</v>
@@ -3983,8 +6540,32 @@
         <f ca="1">_xlfn.STDEV.S(OFFSET('Run Data'!$E$2, (ROWS(Graphs!F$1:F6)-2)*10,0,10,1))</f>
         <v>97.590086402313986</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6" s="5">
+        <f ca="1">AVERAGE(OFFSET('Run Data'!$M$2, (ROWS(Graphs!G$1:G6)-2)*10,0,10,1))</f>
+        <v>0.20882389928021866</v>
+      </c>
+      <c r="H6" s="13">
+        <f ca="1">AVERAGE(OFFSET('Run Data'!$O$2, (ROWS(Graphs!H$1:H6)-2)*10,0,10,1))</f>
+        <v>483.74806733000003</v>
+      </c>
+      <c r="I6" s="4">
+        <f ca="1">AVERAGE(OFFSET('Run Data'!$R$2, (ROWS(Graphs!I$1:I6)-2)*10,0,10,1))</f>
+        <v>-8.0808175539678168E-4</v>
+      </c>
+      <c r="J6" s="4">
+        <f ca="1">AVERAGEIF(OFFSET('Run Data'!$R$2, (ROWS(Graphs!J$1:J6)-2)*10,0,10,1), "&gt;-0.1")</f>
+        <v>1.4526580240879161E-2</v>
+      </c>
+      <c r="K6" s="9">
+        <f ca="1">COUNTIF(OFFSET('Run Data'!$S$2, (ROWS(Graphs!K$1:K6)-2)*10,0,10,1), "=0")</f>
+        <v>6</v>
+      </c>
+      <c r="L6" s="9">
+        <f ca="1">COUNTIF(OFFSET('Run Data'!$S$2, (ROWS(Graphs!L$1:L6)-2)*10,0,10,1), "&lt;-0.1")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
         <f ca="1">OFFSET('Run Data'!A$2, (ROWS(Graphs!A$1:A7)-2)*10,0,1,1)</f>
         <v>15</v>
@@ -4009,86 +6590,67 @@
         <f ca="1">_xlfn.STDEV.S(OFFSET('Run Data'!$E$2, (ROWS(Graphs!F$1:F7)-2)*10,0,10,1))</f>
         <v>8635.0039337891067</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <f ca="1">OFFSET('Run Data'!A$2, (ROWS(Graphs!A$1:A8)-2)*10,0,1,1)</f>
-        <v>0</v>
-      </c>
-      <c r="B8">
-        <f ca="1">OFFSET('Run Data'!B$2, (ROWS(Graphs!B$1:B8)-2)*10,0,1,1)</f>
-        <v>0</v>
-      </c>
-      <c r="C8" t="e">
-        <f ca="1">AVERAGE(OFFSET('Run Data'!$E$2, (ROWS(Graphs!C$1:C8)-2)*10,0,10,1))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D8">
-        <f ca="1">MIN(OFFSET('Run Data'!$E$2, (ROWS(Graphs!D$1:D8)-2)*10,0,10,1))</f>
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <f ca="1">MAX(OFFSET('Run Data'!$E$2, (ROWS(Graphs!E$1:E8)-2)*10,0,10,1))</f>
-        <v>0</v>
-      </c>
-      <c r="F8" t="e">
-        <f ca="1">_xlfn.STDEV.S(OFFSET('Run Data'!$E$2, (ROWS(Graphs!F$1:F8)-2)*10,0,10,1))</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <f ca="1">OFFSET('Run Data'!A$2, (ROWS(Graphs!A$1:A9)-2)*10,0,1,1)</f>
-        <v>0</v>
-      </c>
-      <c r="B9">
-        <f ca="1">OFFSET('Run Data'!B$2, (ROWS(Graphs!B$1:B9)-2)*10,0,1,1)</f>
-        <v>0</v>
-      </c>
-      <c r="C9" t="e">
-        <f ca="1">AVERAGE(OFFSET('Run Data'!$E$2, (ROWS(Graphs!C$1:C9)-2)*10,0,10,1))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D9">
-        <f ca="1">MIN(OFFSET('Run Data'!$E$2, (ROWS(Graphs!D$1:D9)-2)*10,0,10,1))</f>
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <f ca="1">MAX(OFFSET('Run Data'!$E$2, (ROWS(Graphs!E$1:E9)-2)*10,0,10,1))</f>
-        <v>0</v>
-      </c>
-      <c r="F9" t="e">
-        <f ca="1">_xlfn.STDEV.S(OFFSET('Run Data'!$E$2, (ROWS(Graphs!F$1:F9)-2)*10,0,10,1))</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <f ca="1">OFFSET('Run Data'!A$2, (ROWS(Graphs!A$1:A10)-2)*10,0,1,1)</f>
-        <v>0</v>
-      </c>
-      <c r="B10">
-        <f ca="1">OFFSET('Run Data'!B$2, (ROWS(Graphs!B$1:B10)-2)*10,0,1,1)</f>
-        <v>0</v>
-      </c>
-      <c r="C10" t="e">
-        <f ca="1">AVERAGE(OFFSET('Run Data'!$E$2, (ROWS(Graphs!C$1:C10)-2)*10,0,10,1))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D10">
-        <f ca="1">MIN(OFFSET('Run Data'!$E$2, (ROWS(Graphs!D$1:D10)-2)*10,0,10,1))</f>
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <f ca="1">MAX(OFFSET('Run Data'!$E$2, (ROWS(Graphs!E$1:E10)-2)*10,0,10,1))</f>
-        <v>0</v>
-      </c>
-      <c r="F10" t="e">
-        <f ca="1">_xlfn.STDEV.S(OFFSET('Run Data'!$E$2, (ROWS(Graphs!F$1:F10)-2)*10,0,10,1))</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="G7" s="5">
+        <f ca="1">AVERAGE(OFFSET('Run Data'!$M$2, (ROWS(Graphs!G$1:G7)-2)*10,0,10,1))</f>
+        <v>0.21251452491442396</v>
+      </c>
+      <c r="H7" s="13">
+        <f ca="1">AVERAGE(OFFSET('Run Data'!$O$2, (ROWS(Graphs!H$1:H7)-2)*10,0,10,1))</f>
+        <v>844.93959171000029</v>
+      </c>
+      <c r="I7" s="4">
+        <f ca="1">AVERAGE(OFFSET('Run Data'!$R$2, (ROWS(Graphs!I$1:I7)-2)*10,0,10,1))</f>
+        <v>-2.0379445259267052E-2</v>
+      </c>
+      <c r="J7" s="4">
+        <f ca="1">AVERAGEIF(OFFSET('Run Data'!$R$2, (ROWS(Graphs!J$1:J7)-2)*10,0,10,1), "&gt;-0.1")</f>
+        <v>-6.2988209954240263E-3</v>
+      </c>
+      <c r="K7" s="9">
+        <f ca="1">COUNTIF(OFFSET('Run Data'!$S$2, (ROWS(Graphs!K$1:K7)-2)*10,0,10,1), "=0")</f>
+        <v>1</v>
+      </c>
+      <c r="L7" s="9">
+        <f ca="1">COUNTIF(OFFSET('Run Data'!$S$2, (ROWS(Graphs!L$1:L7)-2)*10,0,10,1), "&lt;-0.1")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8"/>
+      <c r="B8"/>
+      <c r="C8"/>
+      <c r="D8"/>
+      <c r="E8"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9"/>
+      <c r="B9"/>
+      <c r="C9"/>
+      <c r="D9"/>
+      <c r="E9"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10"/>
+      <c r="B10"/>
+      <c r="C10"/>
+      <c r="D10"/>
+      <c r="E10"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="I2:J7">
+    <cfRule type="cellIs" dxfId="10" priority="1" operator="notBetween">
+      <formula>-0.1</formula>
+      <formula>0.1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2:J7">
+    <cfRule type="cellIs" dxfId="9" priority="2" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="3" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -4096,13 +6658,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:R209"/>
+  <dimension ref="A1:V209"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="I23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="R62" sqref="R62"/>
+      <selection pane="bottomRight" activeCell="O62" sqref="O62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4124,10 +6686,12 @@
     <col min="15" max="15" width="16" style="3" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="14.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="19.28515625" style="3" customWidth="1"/>
-    <col min="18" max="18" width="19.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.140625" style="3" customWidth="1"/>
+    <col min="19" max="19" width="12.42578125" style="3" customWidth="1"/>
+    <col min="22" max="22" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -4179,8 +6743,11 @@
       <c r="R1" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S1" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>9</v>
       </c>
@@ -4204,10 +6771,10 @@
       <c r="G2">
         <v>573.06827871500002</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="9"/>
+      <c r="I2" s="15"/>
       <c r="J2" t="s">
         <v>23</v>
       </c>
@@ -4234,12 +6801,16 @@
         <f t="shared" ref="Q2:Q33" si="3">(P2-G2)/G2</f>
         <v>0.28761444649530254</v>
       </c>
-      <c r="R2" s="4">
+      <c r="R2" s="10">
         <f t="shared" ref="R2:R33" si="4">(P2-K2)/K2</f>
         <v>8.2511819685470916E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S2" s="10">
+        <f>ROUND(R2,5)</f>
+        <v>8.251E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>9</v>
       </c>
@@ -4263,10 +6834,10 @@
       <c r="G3">
         <v>576.78510638299997</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="I3" s="9"/>
+      <c r="I3" s="15"/>
       <c r="J3" t="s">
         <v>26</v>
       </c>
@@ -4293,12 +6864,24 @@
         <f t="shared" si="3"/>
         <v>0.14913596821970454</v>
       </c>
-      <c r="R3" s="4">
+      <c r="R3" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S3" s="10">
+        <f t="shared" ref="S3:S61" si="5">ROUND(R3,5)</f>
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <f>ROUND(0.777777777777777,5)</f>
+        <v>0.77778000000000003</v>
+      </c>
+      <c r="V3" s="11">
+        <f>U3</f>
+        <v>0.77778000000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>9</v>
       </c>
@@ -4322,10 +6905,10 @@
       <c r="G4">
         <v>943.34840135000002</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="I4" s="9"/>
+      <c r="I4" s="15"/>
       <c r="J4" t="s">
         <v>29</v>
       </c>
@@ -4352,12 +6935,16 @@
         <f t="shared" si="3"/>
         <v>7.896573068954188E-2</v>
       </c>
-      <c r="R4" s="4">
+      <c r="R4" s="10">
         <f t="shared" si="4"/>
         <v>-9.2434731729371042E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S4" s="10">
+        <f t="shared" si="5"/>
+        <v>-9.2429999999999998E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>9</v>
       </c>
@@ -4381,10 +6968,10 @@
       <c r="G5">
         <v>547.76187840700004</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="H5" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="I5" s="9"/>
+      <c r="I5" s="15"/>
       <c r="J5" t="s">
         <v>32</v>
       </c>
@@ -4411,12 +6998,16 @@
         <f t="shared" si="3"/>
         <v>0.18441664998322252</v>
       </c>
-      <c r="R5" s="4">
+      <c r="R5" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S5" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>9</v>
       </c>
@@ -4440,10 +7031,10 @@
       <c r="G6">
         <v>979.546880192</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="H6" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="I6" s="9"/>
+      <c r="I6" s="15"/>
       <c r="J6" t="s">
         <v>35</v>
       </c>
@@ -4470,12 +7061,16 @@
         <f t="shared" si="3"/>
         <v>0.10019716465581026</v>
       </c>
-      <c r="R6" s="4">
+      <c r="R6" s="10">
         <f t="shared" si="4"/>
         <v>-1.7024942511860323E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S6" s="10">
+        <f t="shared" si="5"/>
+        <v>-1.702E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>9</v>
       </c>
@@ -4499,10 +7094,10 @@
       <c r="G7">
         <v>456.27215827700002</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="H7" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="I7" s="9"/>
+      <c r="I7" s="15"/>
       <c r="J7" t="s">
         <v>38</v>
       </c>
@@ -4529,12 +7124,16 @@
         <f t="shared" si="3"/>
         <v>0.14042789750430001</v>
       </c>
-      <c r="R7" s="4">
+      <c r="R7" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S7" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>9</v>
       </c>
@@ -4558,10 +7157,10 @@
       <c r="G8">
         <v>883.23944079299997</v>
       </c>
-      <c r="H8" s="8" t="s">
+      <c r="H8" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="I8" s="9"/>
+      <c r="I8" s="15"/>
       <c r="J8" t="s">
         <v>41</v>
       </c>
@@ -4588,12 +7187,16 @@
         <f t="shared" si="3"/>
         <v>0.12858937599522158</v>
       </c>
-      <c r="R8" s="4">
+      <c r="R8" s="10">
         <f t="shared" si="4"/>
         <v>-1.1405012737022871E-16</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S8" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>9</v>
       </c>
@@ -4617,10 +7220,10 @@
       <c r="G9">
         <v>674.55252934199996</v>
       </c>
-      <c r="H9" s="8" t="s">
+      <c r="H9" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="I9" s="9"/>
+      <c r="I9" s="15"/>
       <c r="J9" t="s">
         <v>44</v>
       </c>
@@ -4647,12 +7250,16 @@
         <f t="shared" si="3"/>
         <v>0.14922930783222382</v>
       </c>
-      <c r="R9" s="4">
+      <c r="R9" s="10">
         <f t="shared" si="4"/>
         <v>-8.7762311044786198E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S9" s="10">
+        <f t="shared" si="5"/>
+        <v>-8.7760000000000005E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -4676,10 +7283,10 @@
       <c r="G10">
         <v>604.10825342600003</v>
       </c>
-      <c r="H10" s="8" t="s">
+      <c r="H10" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="I10" s="9"/>
+      <c r="I10" s="15"/>
       <c r="J10" t="s">
         <v>47</v>
       </c>
@@ -4706,12 +7313,16 @@
         <f t="shared" si="3"/>
         <v>0.21289699312282379</v>
       </c>
-      <c r="R10" s="4">
+      <c r="R10" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S10" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -4735,10 +7346,10 @@
       <c r="G11">
         <v>566.83624877900002</v>
       </c>
-      <c r="H11" s="8" t="s">
+      <c r="H11" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="I11" s="9"/>
+      <c r="I11" s="15"/>
       <c r="J11" t="s">
         <v>50</v>
       </c>
@@ -4765,12 +7376,16 @@
         <f t="shared" si="3"/>
         <v>0.22681615166639427</v>
       </c>
-      <c r="R11" s="4">
+      <c r="R11" s="10">
         <f t="shared" si="4"/>
         <v>2.9742608821261916E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S11" s="10">
+        <f t="shared" si="5"/>
+        <v>2.9739999999999999E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>12</v>
       </c>
@@ -4794,10 +7409,10 @@
       <c r="G12">
         <v>784.24467330000004</v>
       </c>
-      <c r="H12" s="8" t="s">
+      <c r="H12" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="I12" s="9"/>
+      <c r="I12" s="15"/>
       <c r="J12" t="s">
         <v>53</v>
       </c>
@@ -4824,12 +7439,16 @@
         <f t="shared" si="3"/>
         <v>0.16654701824588425</v>
       </c>
-      <c r="R12" s="4">
+      <c r="R12" s="10">
         <f t="shared" si="4"/>
         <v>1.5322266533418691E-3</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S12" s="10">
+        <f t="shared" si="5"/>
+        <v>1.5299999999999999E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -4853,10 +7472,10 @@
       <c r="G13">
         <v>613.378326109</v>
       </c>
-      <c r="H13" s="8" t="s">
+      <c r="H13" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="I13" s="9"/>
+      <c r="I13" s="15"/>
       <c r="J13" t="s">
         <v>56</v>
       </c>
@@ -4883,12 +7502,16 @@
         <f t="shared" si="3"/>
         <v>0.17995550305032562</v>
       </c>
-      <c r="R13" s="4">
+      <c r="R13" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S13" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -4912,10 +7535,10 @@
       <c r="G14">
         <v>791.18591642900003</v>
       </c>
-      <c r="H14" s="8" t="s">
+      <c r="H14" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="I14" s="9"/>
+      <c r="I14" s="15"/>
       <c r="J14" t="s">
         <v>59</v>
       </c>
@@ -4942,12 +7565,16 @@
         <f t="shared" si="3"/>
         <v>9.9274048222353875E-2</v>
       </c>
-      <c r="R14" s="4">
+      <c r="R14" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S14" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>12</v>
       </c>
@@ -4971,10 +7598,10 @@
       <c r="G15">
         <v>750.87424906499996</v>
       </c>
-      <c r="H15" s="8" t="s">
+      <c r="H15" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="I15" s="9"/>
+      <c r="I15" s="15"/>
       <c r="J15" t="s">
         <v>62</v>
       </c>
@@ -5001,12 +7628,16 @@
         <f t="shared" si="3"/>
         <v>0.19166173174467122</v>
       </c>
-      <c r="R15" s="4">
+      <c r="R15" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S15" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>12</v>
       </c>
@@ -5030,10 +7661,10 @@
       <c r="G16">
         <v>909.07091568299995</v>
       </c>
-      <c r="H16" s="8" t="s">
+      <c r="H16" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="I16" s="9"/>
+      <c r="I16" s="15"/>
       <c r="J16" t="s">
         <v>65</v>
       </c>
@@ -5060,12 +7691,16 @@
         <f t="shared" si="3"/>
         <v>0.12053675147774083</v>
       </c>
-      <c r="R16" s="4">
+      <c r="R16" s="10">
         <f t="shared" si="4"/>
         <v>-8.484708180981692E-3</v>
       </c>
-    </row>
-    <row r="17" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S16" s="10">
+        <f t="shared" si="5"/>
+        <v>-8.4799999999999997E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>12</v>
       </c>
@@ -5089,10 +7724,10 @@
       <c r="G17">
         <v>805.72962788500001</v>
       </c>
-      <c r="H17" s="8" t="s">
+      <c r="H17" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="I17" s="9"/>
+      <c r="I17" s="15"/>
       <c r="J17" t="s">
         <v>68</v>
       </c>
@@ -5119,12 +7754,16 @@
         <f t="shared" si="3"/>
         <v>0.11718104106610788</v>
       </c>
-      <c r="R17" s="4">
+      <c r="R17" s="10">
         <f t="shared" si="4"/>
         <v>-9.914616052844169E-2</v>
       </c>
-    </row>
-    <row r="18" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S17" s="10">
+        <f t="shared" si="5"/>
+        <v>-9.9150000000000002E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>12</v>
       </c>
@@ -5148,10 +7787,10 @@
       <c r="G18">
         <v>683.45979060699995</v>
       </c>
-      <c r="H18" s="8" t="s">
+      <c r="H18" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="I18" s="9"/>
+      <c r="I18" s="15"/>
       <c r="J18" t="s">
         <v>71</v>
       </c>
@@ -5178,12 +7817,16 @@
         <f t="shared" si="3"/>
         <v>0.14418426165121465</v>
       </c>
-      <c r="R18" s="4">
+      <c r="R18" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S18" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>12</v>
       </c>
@@ -5207,10 +7850,10 @@
       <c r="G19">
         <v>1082.162880112</v>
       </c>
-      <c r="H19" s="8" t="s">
+      <c r="H19" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="I19" s="9"/>
+      <c r="I19" s="15"/>
       <c r="J19" t="s">
         <v>74</v>
       </c>
@@ -5237,12 +7880,16 @@
         <f t="shared" si="3"/>
         <v>0.1264839756920518</v>
       </c>
-      <c r="R19" s="4">
+      <c r="R19" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S19" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>12</v>
       </c>
@@ -5266,10 +7913,10 @@
       <c r="G20">
         <v>952.74671821100003</v>
       </c>
-      <c r="H20" s="8" t="s">
+      <c r="H20" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="I20" s="9"/>
+      <c r="I20" s="15"/>
       <c r="J20" t="s">
         <v>77</v>
       </c>
@@ -5296,12 +7943,16 @@
         <f t="shared" si="3"/>
         <v>0.15013447713393074</v>
       </c>
-      <c r="R20" s="4">
+      <c r="R20" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S20" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>12</v>
       </c>
@@ -5325,10 +7976,10 @@
       <c r="G21">
         <v>613.52360638799996</v>
       </c>
-      <c r="H21" s="8" t="s">
+      <c r="H21" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="I21" s="9"/>
+      <c r="I21" s="15"/>
       <c r="J21" t="s">
         <v>80</v>
       </c>
@@ -5355,12 +8006,16 @@
         <f t="shared" si="3"/>
         <v>0.19815673903621828</v>
       </c>
-      <c r="R21" s="4">
+      <c r="R21" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S21" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>15</v>
       </c>
@@ -5384,10 +8039,10 @@
       <c r="G22">
         <v>1171.623384083</v>
       </c>
-      <c r="H22" s="8" t="s">
+      <c r="H22" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="I22" s="9"/>
+      <c r="I22" s="15"/>
       <c r="J22" t="s">
         <v>83</v>
       </c>
@@ -5414,12 +8069,16 @@
         <f t="shared" si="3"/>
         <v>9.3558892732832785E-2</v>
       </c>
-      <c r="R22" s="4">
+      <c r="R22" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S22" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>15</v>
       </c>
@@ -5443,10 +8102,10 @@
       <c r="G23">
         <v>828.12840839</v>
       </c>
-      <c r="H23" s="8" t="s">
+      <c r="H23" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="I23" s="9"/>
+      <c r="I23" s="15"/>
       <c r="J23" t="s">
         <v>86</v>
       </c>
@@ -5473,12 +8132,16 @@
         <f t="shared" si="3"/>
         <v>0.18033207682697469</v>
       </c>
-      <c r="R23" s="4">
+      <c r="R23" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S23" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>15</v>
       </c>
@@ -5502,10 +8165,10 @@
       <c r="G24">
         <v>801.70743123199998</v>
       </c>
-      <c r="H24" s="8" t="s">
+      <c r="H24" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="I24" s="9"/>
+      <c r="I24" s="15"/>
       <c r="J24" t="s">
         <v>89</v>
       </c>
@@ -5532,12 +8195,16 @@
         <f t="shared" si="3"/>
         <v>0.14296900962132977</v>
       </c>
-      <c r="R24" s="4">
+      <c r="R24" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S24" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>15</v>
       </c>
@@ -5561,10 +8228,10 @@
       <c r="G25">
         <v>1003.760132766</v>
       </c>
-      <c r="H25" s="8" t="s">
+      <c r="H25" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="I25" s="9"/>
+      <c r="I25" s="15"/>
       <c r="J25" t="s">
         <v>92</v>
       </c>
@@ -5591,12 +8258,16 @@
         <f t="shared" si="3"/>
         <v>0.13483338766225436</v>
       </c>
-      <c r="R25" s="4">
+      <c r="R25" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S25" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>15</v>
       </c>
@@ -5620,10 +8291,10 @@
       <c r="G26">
         <v>826.18978593300005</v>
       </c>
-      <c r="H26" s="8" t="s">
+      <c r="H26" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="I26" s="9"/>
+      <c r="I26" s="15"/>
       <c r="J26" t="s">
         <v>95</v>
       </c>
@@ -5650,12 +8321,16 @@
         <f t="shared" si="3"/>
         <v>0.24250162659836672</v>
       </c>
-      <c r="R26" s="4">
+      <c r="R26" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S26" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>15</v>
       </c>
@@ -5679,10 +8354,10 @@
       <c r="G27">
         <v>1067.862157347</v>
       </c>
-      <c r="H27" s="8" t="s">
+      <c r="H27" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="I27" s="9"/>
+      <c r="I27" s="15"/>
       <c r="J27" t="s">
         <v>98</v>
       </c>
@@ -5709,12 +8384,16 @@
         <f t="shared" si="3"/>
         <v>0.12752912475591113</v>
       </c>
-      <c r="R27" s="4">
+      <c r="R27" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S27" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>15</v>
       </c>
@@ -5738,10 +8417,10 @@
       <c r="G28">
         <v>924.42118022199998</v>
       </c>
-      <c r="H28" s="8" t="s">
+      <c r="H28" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="I28" s="9"/>
+      <c r="I28" s="15"/>
       <c r="J28" t="s">
         <v>101</v>
       </c>
@@ -5768,12 +8447,16 @@
         <f t="shared" si="3"/>
         <v>0.27149884840302924</v>
       </c>
-      <c r="R28" s="4">
+      <c r="R28" s="10">
         <f t="shared" si="4"/>
         <v>6.6202828327588253E-2</v>
       </c>
-    </row>
-    <row r="29" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S28" s="10">
+        <f t="shared" si="5"/>
+        <v>6.6199999999999995E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>15</v>
       </c>
@@ -5797,10 +8480,10 @@
       <c r="G29">
         <v>778.89360681400001</v>
       </c>
-      <c r="H29" s="8" t="s">
+      <c r="H29" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="I29" s="9"/>
+      <c r="I29" s="15"/>
       <c r="J29" t="s">
         <v>104</v>
       </c>
@@ -5827,12 +8510,16 @@
         <f t="shared" si="3"/>
         <v>8.0288660428857253E-2</v>
       </c>
-      <c r="R29" s="4">
+      <c r="R29" s="10">
         <f t="shared" si="4"/>
         <v>-0.20100316462710771</v>
       </c>
-    </row>
-    <row r="30" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S29" s="10">
+        <f t="shared" si="5"/>
+        <v>-0.20100000000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>15</v>
       </c>
@@ -5856,10 +8543,10 @@
       <c r="G30">
         <v>1157.0368080420001</v>
       </c>
-      <c r="H30" s="8" t="s">
+      <c r="H30" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="I30" s="9"/>
+      <c r="I30" s="15"/>
       <c r="J30" t="s">
         <v>107</v>
       </c>
@@ -5886,12 +8573,16 @@
         <f t="shared" si="3"/>
         <v>0.14385907666313397</v>
       </c>
-      <c r="R30" s="4">
+      <c r="R30" s="10">
         <f t="shared" si="4"/>
         <v>2.8821904850360212E-2</v>
       </c>
-    </row>
-    <row r="31" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S30" s="10">
+        <f t="shared" si="5"/>
+        <v>2.8819999999999998E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>15</v>
       </c>
@@ -5915,10 +8606,10 @@
       <c r="G31">
         <v>739.53477113099996</v>
       </c>
-      <c r="H31" s="8" t="s">
+      <c r="H31" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="I31" s="9"/>
+      <c r="I31" s="15"/>
       <c r="J31" t="s">
         <v>110</v>
       </c>
@@ -5945,12 +8636,16 @@
         <f t="shared" si="3"/>
         <v>0.15857240818921778</v>
       </c>
-      <c r="R31" s="4">
+      <c r="R31" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S31" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>9</v>
       </c>
@@ -5974,10 +8669,10 @@
       <c r="G32">
         <v>572.08350842100003</v>
       </c>
-      <c r="H32" s="8" t="s">
+      <c r="H32" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="I32" s="9"/>
+      <c r="I32" s="15"/>
       <c r="J32" t="s">
         <v>113</v>
       </c>
@@ -6004,12 +8699,16 @@
         <f t="shared" si="3"/>
         <v>0.31665362563504174</v>
       </c>
-      <c r="R32" s="4">
+      <c r="R32" s="10">
         <f t="shared" si="4"/>
         <v>3.9681468080939641E-2</v>
       </c>
-    </row>
-    <row r="33" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S32" s="10">
+        <f t="shared" si="5"/>
+        <v>3.968E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>9</v>
       </c>
@@ -6033,10 +8732,10 @@
       <c r="G33">
         <v>845.52345453600003</v>
       </c>
-      <c r="H33" s="8" t="s">
+      <c r="H33" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="I33" s="9"/>
+      <c r="I33" s="15"/>
       <c r="J33" t="s">
         <v>116</v>
       </c>
@@ -6063,12 +8762,16 @@
         <f t="shared" si="3"/>
         <v>0.21149906017315689</v>
       </c>
-      <c r="R33" s="4">
+      <c r="R33" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S33" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>9</v>
       </c>
@@ -6079,11 +8782,11 @@
         <v>3</v>
       </c>
       <c r="D34">
-        <f t="shared" ref="D34:D65" si="5">E34/60</f>
+        <f t="shared" ref="D34:D61" si="6">E34/60</f>
         <v>0.43746666666666667</v>
       </c>
       <c r="E34">
-        <f t="shared" ref="E34:E65" si="6">F34/1000</f>
+        <f t="shared" ref="E34:E61" si="7">F34/1000</f>
         <v>26.248000000000001</v>
       </c>
       <c r="F34">
@@ -6092,10 +8795,10 @@
       <c r="G34">
         <v>727.03140475500004</v>
       </c>
-      <c r="H34" s="8" t="s">
+      <c r="H34" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="I34" s="9"/>
+      <c r="I34" s="15"/>
       <c r="J34" t="s">
         <v>119</v>
       </c>
@@ -6106,7 +8809,7 @@
         <v>0.19236701130540279</v>
       </c>
       <c r="M34" s="5">
-        <f t="shared" ref="M34:M61" si="7">(K34-G34)/G34</f>
+        <f t="shared" ref="M34:M61" si="8">(K34-G34)/G34</f>
         <v>0.19236701130540276</v>
       </c>
       <c r="N34" t="s">
@@ -6119,15 +8822,19 @@
         <v>883.13909655706368</v>
       </c>
       <c r="Q34" s="5">
-        <f t="shared" ref="Q34:Q65" si="8">(P34-G34)/G34</f>
+        <f t="shared" ref="Q34:Q61" si="9">(P34-G34)/G34</f>
         <v>0.21471932406368316</v>
       </c>
-      <c r="R34" s="4">
-        <f t="shared" ref="R34:R61" si="9">(P34-K34)/K34</f>
+      <c r="R34" s="10">
+        <f t="shared" ref="R34:R61" si="10">(P34-K34)/K34</f>
         <v>1.8746168374625772E-2</v>
       </c>
-    </row>
-    <row r="35" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S34" s="10">
+        <f t="shared" si="5"/>
+        <v>1.8749999999999999E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>9</v>
       </c>
@@ -6138,11 +8845,11 @@
         <v>4</v>
       </c>
       <c r="D35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.7483333333333334E-2</v>
       </c>
       <c r="E35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.2490000000000001</v>
       </c>
       <c r="F35">
@@ -6151,10 +8858,10 @@
       <c r="G35">
         <v>694.66514945300003</v>
       </c>
-      <c r="H35" s="8" t="s">
+      <c r="H35" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="I35" s="9"/>
+      <c r="I35" s="15"/>
       <c r="J35" t="s">
         <v>122</v>
       </c>
@@ -6165,7 +8872,7 @@
         <v>0.34153047969211581</v>
       </c>
       <c r="M35" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.34153047969211575</v>
       </c>
       <c r="N35" t="s">
@@ -6178,15 +8885,19 @@
         <v>854.4762539967021</v>
       </c>
       <c r="Q35" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.2300548756037957</v>
       </c>
-      <c r="R35" s="4">
-        <f t="shared" si="9"/>
+      <c r="R35" s="10">
+        <f t="shared" si="10"/>
         <v>-8.3095841485393548E-2</v>
       </c>
-    </row>
-    <row r="36" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S35" s="10">
+        <f t="shared" si="5"/>
+        <v>-8.3099999999999993E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>9</v>
       </c>
@@ -6197,11 +8908,11 @@
         <v>5</v>
       </c>
       <c r="D36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.37438333333333335</v>
       </c>
       <c r="E36">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>22.463000000000001</v>
       </c>
       <c r="F36">
@@ -6210,10 +8921,10 @@
       <c r="G36">
         <v>619.49705766700004</v>
       </c>
-      <c r="H36" s="8" t="s">
+      <c r="H36" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="I36" s="9"/>
+      <c r="I36" s="15"/>
       <c r="J36" t="s">
         <v>125</v>
       </c>
@@ -6224,7 +8935,7 @@
         <v>0.18670282194046511</v>
       </c>
       <c r="M36" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.22271354548469474</v>
       </c>
       <c r="N36" t="s">
@@ -6237,15 +8948,19 @@
         <v>747.32323998287438</v>
       </c>
       <c r="Q36" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.2063386431523378</v>
       </c>
-      <c r="R36" s="4">
-        <f t="shared" si="9"/>
+      <c r="R36" s="10">
+        <f t="shared" si="10"/>
         <v>-1.3392263783146188E-2</v>
       </c>
-    </row>
-    <row r="37" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S36" s="10">
+        <f t="shared" si="5"/>
+        <v>-1.3390000000000001E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>9</v>
       </c>
@@ -6256,11 +8971,11 @@
         <v>6</v>
       </c>
       <c r="D37">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.17830000000000001</v>
       </c>
       <c r="E37">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10.698</v>
       </c>
       <c r="F37">
@@ -6269,10 +8984,10 @@
       <c r="G37">
         <v>1064.370043632</v>
       </c>
-      <c r="H37" s="8" t="s">
+      <c r="H37" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="I37" s="9"/>
+      <c r="I37" s="15"/>
       <c r="J37" t="s">
         <v>128</v>
       </c>
@@ -6283,7 +8998,7 @@
         <v>0.2459067686438042</v>
       </c>
       <c r="M37" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.2459067686438042</v>
       </c>
       <c r="N37" t="s">
@@ -6296,15 +9011,19 @@
         <v>1401.748026361061</v>
       </c>
       <c r="Q37" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.31697433119952356</v>
       </c>
-      <c r="R37" s="4">
-        <f t="shared" si="9"/>
+      <c r="R37" s="10">
+        <f t="shared" si="10"/>
         <v>5.7040835112468262E-2</v>
       </c>
-    </row>
-    <row r="38" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S37" s="10">
+        <f t="shared" si="5"/>
+        <v>5.704E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>9</v>
       </c>
@@ -6315,11 +9034,11 @@
         <v>7</v>
       </c>
       <c r="D38">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.11051666666666667</v>
       </c>
       <c r="E38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6.6310000000000002</v>
       </c>
       <c r="F38">
@@ -6328,10 +9047,10 @@
       <c r="G38">
         <v>484.16209789700002</v>
       </c>
-      <c r="H38" s="8" t="s">
+      <c r="H38" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="I38" s="9"/>
+      <c r="I38" s="15"/>
       <c r="J38" t="s">
         <v>131</v>
       </c>
@@ -6342,7 +9061,7 @@
         <v>0.28514412661681621</v>
       </c>
       <c r="M38" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.28514412661681621</v>
       </c>
       <c r="N38" t="s">
@@ -6355,15 +9074,19 @@
         <v>622.21807644280557</v>
       </c>
       <c r="Q38" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.28514412661681621</v>
       </c>
-      <c r="R38" s="4">
-        <f t="shared" si="9"/>
+      <c r="R38" s="10">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S38" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>9</v>
       </c>
@@ -6374,11 +9097,11 @@
         <v>8</v>
       </c>
       <c r="D39">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.38350000000000001</v>
       </c>
       <c r="E39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>23.01</v>
       </c>
       <c r="F39">
@@ -6387,10 +9110,10 @@
       <c r="G39">
         <v>892.84735411600002</v>
       </c>
-      <c r="H39" s="8" t="s">
+      <c r="H39" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="I39" s="9"/>
+      <c r="I39" s="15"/>
       <c r="J39" t="s">
         <v>134</v>
       </c>
@@ -6401,7 +9124,7 @@
         <v>0.1066675099597854</v>
       </c>
       <c r="M39" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.10666750995978544</v>
       </c>
       <c r="N39" t="s">
@@ -6414,15 +9137,19 @@
         <v>987.84311063723396</v>
       </c>
       <c r="Q39" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.10639641376916928</v>
       </c>
-      <c r="R39" s="4">
-        <f t="shared" si="9"/>
+      <c r="R39" s="10">
+        <f t="shared" si="10"/>
         <v>-2.4496625063657329E-4</v>
       </c>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S39" s="10">
+        <f t="shared" si="5"/>
+        <v>-2.4000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>9</v>
       </c>
@@ -6433,11 +9160,11 @@
         <v>9</v>
       </c>
       <c r="D40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.20924999999999999</v>
       </c>
       <c r="E40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>12.555</v>
       </c>
       <c r="F40">
@@ -6446,10 +9173,10 @@
       <c r="G40">
         <v>1150.946320584</v>
       </c>
-      <c r="H40" s="8" t="s">
+      <c r="H40" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="I40" s="9"/>
+      <c r="I40" s="15"/>
       <c r="J40" t="s">
         <v>137</v>
       </c>
@@ -6460,7 +9187,7 @@
         <v>0.18810099027564561</v>
       </c>
       <c r="M40" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.18810099027564556</v>
       </c>
       <c r="N40" t="s">
@@ -6473,15 +9200,19 @@
         <v>1175.4149018879809</v>
       </c>
       <c r="Q40" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.1259533017634905E-2</v>
       </c>
-      <c r="R40" s="4">
-        <f t="shared" si="9"/>
+      <c r="R40" s="10">
+        <f t="shared" si="10"/>
         <v>-0.14042699957627555</v>
       </c>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S40" s="10">
+        <f t="shared" si="5"/>
+        <v>-0.14043</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>9</v>
       </c>
@@ -6492,11 +9223,11 @@
         <v>10</v>
       </c>
       <c r="D41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.10779999999999999</v>
       </c>
       <c r="E41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6.468</v>
       </c>
       <c r="F41">
@@ -6505,10 +9236,10 @@
       <c r="G41">
         <v>1059.4930977900001</v>
       </c>
-      <c r="H41" s="8" t="s">
+      <c r="H41" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="I41" s="9"/>
+      <c r="I41" s="15"/>
       <c r="J41" t="s">
         <v>140</v>
       </c>
@@ -6519,7 +9250,7 @@
         <v>0.13157567240979401</v>
       </c>
       <c r="M41" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.13157567240979404</v>
       </c>
       <c r="N41" t="s">
@@ -6532,15 +9263,19 @@
         <v>1171.163514436588</v>
       </c>
       <c r="Q41" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.10539985289146439</v>
       </c>
-      <c r="R41" s="4">
-        <f t="shared" si="9"/>
+      <c r="R41" s="10">
+        <f t="shared" si="10"/>
         <v>-2.3132186522343529E-2</v>
       </c>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S41" s="10">
+        <f t="shared" si="5"/>
+        <v>-2.3130000000000001E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>12</v>
       </c>
@@ -6551,11 +9286,11 @@
         <v>1</v>
       </c>
       <c r="D42">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.2370333333333332</v>
       </c>
       <c r="E42">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>74.221999999999994</v>
       </c>
       <c r="F42">
@@ -6564,10 +9299,10 @@
       <c r="G42">
         <v>970.10421748900001</v>
       </c>
-      <c r="H42" s="8" t="s">
+      <c r="H42" s="14" t="s">
         <v>142</v>
       </c>
-      <c r="I42" s="9"/>
+      <c r="I42" s="15"/>
       <c r="J42" t="s">
         <v>143</v>
       </c>
@@ -6578,7 +9313,7 @@
         <v>0.42559088622244218</v>
       </c>
       <c r="M42" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.18449660267420656</v>
       </c>
       <c r="N42" t="s">
@@ -6591,15 +9326,19 @@
         <v>1149.0851498556401</v>
       </c>
       <c r="Q42" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.18449660267420656</v>
       </c>
-      <c r="R42" s="4">
-        <f t="shared" si="9"/>
+      <c r="R42" s="10">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S42" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>12</v>
       </c>
@@ -6610,11 +9349,11 @@
         <v>2</v>
       </c>
       <c r="D43">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.50076666666666669</v>
       </c>
       <c r="E43">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>30.045999999999999</v>
       </c>
       <c r="F43">
@@ -6623,10 +9362,10 @@
       <c r="G43">
         <v>884.48240144600004</v>
       </c>
-      <c r="H43" s="8" t="s">
+      <c r="H43" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="I43" s="9"/>
+      <c r="I43" s="15"/>
       <c r="J43" t="s">
         <v>146</v>
       </c>
@@ -6637,7 +9376,7 @@
         <v>0.14547846877496501</v>
       </c>
       <c r="M43" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.14547846877496495</v>
       </c>
       <c r="N43" t="s">
@@ -6650,15 +9389,19 @@
         <v>1105.841482055037</v>
       </c>
       <c r="Q43" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.25026962689946919</v>
       </c>
-      <c r="R43" s="4">
-        <f t="shared" si="9"/>
+      <c r="R43" s="10">
+        <f t="shared" si="10"/>
         <v>9.1482433743668198E-2</v>
       </c>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S43" s="10">
+        <f t="shared" si="5"/>
+        <v>9.1480000000000006E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>12</v>
       </c>
@@ -6669,11 +9412,11 @@
         <v>3</v>
       </c>
       <c r="D44">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.9406166666666667</v>
       </c>
       <c r="E44">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>176.43700000000001</v>
       </c>
       <c r="F44">
@@ -6682,10 +9425,10 @@
       <c r="G44">
         <v>773.75507863300004</v>
       </c>
-      <c r="H44" s="8" t="s">
+      <c r="H44" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="I44" s="9"/>
+      <c r="I44" s="15"/>
       <c r="J44" t="s">
         <v>149</v>
       </c>
@@ -6696,7 +9439,7 @@
         <v>0.2628977866192353</v>
       </c>
       <c r="M44" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.2628977866192353</v>
       </c>
       <c r="N44" t="s">
@@ -6709,15 +9452,19 @@
         <v>977.17357619100812</v>
       </c>
       <c r="Q44" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.2628977866192353</v>
       </c>
-      <c r="R44" s="4">
-        <f t="shared" si="9"/>
+      <c r="R44" s="10">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S44" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>12</v>
       </c>
@@ -6728,11 +9475,11 @@
         <v>4</v>
       </c>
       <c r="D45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.2503166666666667</v>
       </c>
       <c r="E45">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>75.019000000000005</v>
       </c>
       <c r="F45">
@@ -6741,10 +9488,10 @@
       <c r="G45">
         <v>835.71515105499998</v>
       </c>
-      <c r="H45" s="8" t="s">
+      <c r="H45" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="I45" s="9"/>
+      <c r="I45" s="15"/>
       <c r="J45" t="s">
         <v>152</v>
       </c>
@@ -6755,7 +9502,7 @@
         <v>0.2116705648547039</v>
       </c>
       <c r="M45" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.2116705648547039</v>
       </c>
       <c r="N45" t="s">
@@ -6768,15 +9515,19 @@
         <v>1012.611449136445</v>
       </c>
       <c r="Q45" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.21167056485470268</v>
       </c>
-      <c r="R45" s="4">
-        <f t="shared" si="9"/>
+      <c r="R45" s="10">
+        <f t="shared" si="10"/>
         <v>-1.0104384464219839E-15</v>
       </c>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S45" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>12</v>
       </c>
@@ -6787,11 +9538,11 @@
         <v>5</v>
       </c>
       <c r="D46">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.67005000000000003</v>
       </c>
       <c r="E46">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>40.203000000000003</v>
       </c>
       <c r="F46">
@@ -6800,10 +9551,10 @@
       <c r="G46">
         <v>1196.8098017689999</v>
       </c>
-      <c r="H46" s="8" t="s">
+      <c r="H46" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="I46" s="9"/>
+      <c r="I46" s="15"/>
       <c r="J46" t="s">
         <v>155</v>
       </c>
@@ -6814,7 +9565,7 @@
         <v>0.17116061695118809</v>
       </c>
       <c r="M46" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.17116061695118812</v>
       </c>
       <c r="N46" t="s">
@@ -6827,15 +9578,19 @@
         <v>1207.078493999617</v>
       </c>
       <c r="Q46" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>8.5800535853223468E-3</v>
       </c>
-      <c r="R46" s="4">
-        <f t="shared" si="9"/>
+      <c r="R46" s="10">
+        <f t="shared" si="10"/>
         <v>-0.13882003972188028</v>
       </c>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S46" s="10">
+        <f t="shared" si="5"/>
+        <v>-0.13882</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>12</v>
       </c>
@@ -6846,11 +9601,11 @@
         <v>6</v>
       </c>
       <c r="D47">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.22886666666666666</v>
       </c>
       <c r="E47">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>13.731999999999999</v>
       </c>
       <c r="F47">
@@ -6859,10 +9614,10 @@
       <c r="G47">
         <v>597.19418764500006</v>
       </c>
-      <c r="H47" s="8" t="s">
+      <c r="H47" s="14" t="s">
         <v>157</v>
       </c>
-      <c r="I47" s="9"/>
+      <c r="I47" s="15"/>
       <c r="J47" t="s">
         <v>158</v>
       </c>
@@ -6873,7 +9628,7 @@
         <v>0.33815874304926102</v>
       </c>
       <c r="M47" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.33815874304926097</v>
       </c>
       <c r="N47" t="s">
@@ -6886,15 +9641,19 @@
         <v>799.14062349535777</v>
       </c>
       <c r="Q47" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.33815874304926097</v>
       </c>
-      <c r="R47" s="4">
-        <f t="shared" si="9"/>
+      <c r="R47" s="10">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S47" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>12</v>
       </c>
@@ -6905,11 +9664,11 @@
         <v>7</v>
       </c>
       <c r="D48">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.28701666666666664</v>
       </c>
       <c r="E48">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>17.221</v>
       </c>
       <c r="F48">
@@ -6918,10 +9677,10 @@
       <c r="G48">
         <v>663.31653632799998</v>
       </c>
-      <c r="H48" s="8" t="s">
+      <c r="H48" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="I48" s="9"/>
+      <c r="I48" s="15"/>
       <c r="J48" t="s">
         <v>161</v>
       </c>
@@ -6932,7 +9691,7 @@
         <v>0.31715764219881692</v>
       </c>
       <c r="M48" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.31715764219881692</v>
       </c>
       <c r="N48" t="s">
@@ -6945,15 +9704,19 @@
         <v>873.05605380381769</v>
       </c>
       <c r="Q48" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.31619823415966325</v>
       </c>
-      <c r="R48" s="4">
-        <f t="shared" si="9"/>
+      <c r="R48" s="10">
+        <f t="shared" si="10"/>
         <v>-7.2839272112644406E-4</v>
       </c>
-    </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S48" s="10">
+        <f t="shared" si="5"/>
+        <v>-7.2999999999999996E-4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>12</v>
       </c>
@@ -6964,11 +9727,11 @@
         <v>8</v>
       </c>
       <c r="D49">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.43863333333333338</v>
       </c>
       <c r="E49">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>26.318000000000001</v>
       </c>
       <c r="F49">
@@ -6977,10 +9740,10 @@
       <c r="G49">
         <v>1117.1817261159999</v>
       </c>
-      <c r="H49" s="8" t="s">
+      <c r="H49" s="14" t="s">
         <v>163</v>
       </c>
-      <c r="I49" s="9"/>
+      <c r="I49" s="15"/>
       <c r="J49" t="s">
         <v>164</v>
       </c>
@@ -6991,7 +9754,7 @@
         <v>0.15391238235718091</v>
       </c>
       <c r="M49" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.15391238235718091</v>
       </c>
       <c r="N49" t="s">
@@ -7004,15 +9767,19 @@
         <v>1289.1298271084211</v>
       </c>
       <c r="Q49" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.15391238235718091</v>
       </c>
-      <c r="R49" s="4">
-        <f t="shared" si="9"/>
+      <c r="R49" s="10">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S49" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>12</v>
       </c>
@@ -7023,11 +9790,11 @@
         <v>9</v>
       </c>
       <c r="D50">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.0832000000000002</v>
       </c>
       <c r="E50">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>64.992000000000004</v>
       </c>
       <c r="F50">
@@ -7036,10 +9803,10 @@
       <c r="G50">
         <v>958.651706322</v>
       </c>
-      <c r="H50" s="8" t="s">
+      <c r="H50" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="I50" s="9"/>
+      <c r="I50" s="15"/>
       <c r="J50" t="s">
         <v>167</v>
       </c>
@@ -7050,7 +9817,7 @@
         <v>0.13566673988540451</v>
       </c>
       <c r="M50" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.13566673988540451</v>
       </c>
       <c r="N50" t="s">
@@ -7063,15 +9830,19 @@
         <v>1132.2410789061589</v>
       </c>
       <c r="Q50" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.18107658020049699</v>
       </c>
-      <c r="R50" s="4">
-        <f t="shared" si="9"/>
+      <c r="R50" s="10">
+        <f t="shared" si="10"/>
         <v>3.9985181145372466E-2</v>
       </c>
-    </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S50" s="10">
+        <f t="shared" si="5"/>
+        <v>3.9989999999999998E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>12</v>
       </c>
@@ -7082,11 +9853,11 @@
         <v>10</v>
       </c>
       <c r="D51">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5.4511166666666666</v>
       </c>
       <c r="E51">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>327.06700000000001</v>
       </c>
       <c r="F51">
@@ -7095,10 +9866,10 @@
       <c r="G51">
         <v>1054.082647881</v>
       </c>
-      <c r="H51" s="8" t="s">
+      <c r="H51" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="I51" s="9"/>
+      <c r="I51" s="15"/>
       <c r="J51" t="s">
         <v>170</v>
       </c>
@@ -7109,7 +9880,7 @@
         <v>0.1676394454372245</v>
       </c>
       <c r="M51" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.16763944543722453</v>
       </c>
       <c r="N51" t="s">
@@ -7122,15 +9893,19 @@
         <v>1230.7884784167711</v>
       </c>
       <c r="Q51" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.16763944543722367</v>
       </c>
-      <c r="R51" s="4">
-        <f t="shared" si="9"/>
+      <c r="R51" s="10">
+        <f t="shared" si="10"/>
         <v>-7.3895288891789039E-16</v>
       </c>
-    </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S51" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>15</v>
       </c>
@@ -7141,11 +9916,11 @@
         <v>1</v>
       </c>
       <c r="D52">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.9801833333333336</v>
       </c>
       <c r="E52">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>178.81100000000001</v>
       </c>
       <c r="F52">
@@ -7154,10 +9929,10 @@
       <c r="G52">
         <v>810.90597523600002</v>
       </c>
-      <c r="H52" s="8" t="s">
+      <c r="H52" s="14" t="s">
         <v>172</v>
       </c>
-      <c r="I52" s="9"/>
+      <c r="I52" s="15"/>
       <c r="J52" t="s">
         <v>173</v>
       </c>
@@ -7168,7 +9943,7 @@
         <v>0.18675060806882199</v>
       </c>
       <c r="M52" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.18675060806882202</v>
       </c>
       <c r="N52" t="s">
@@ -7181,15 +9956,19 @@
         <v>962.34315919796416</v>
       </c>
       <c r="Q52" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.18675060806882202</v>
       </c>
-      <c r="R52" s="4">
-        <f t="shared" si="9"/>
+      <c r="R52" s="10">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S52" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>15</v>
       </c>
@@ -7200,11 +9979,11 @@
         <v>2</v>
       </c>
       <c r="D53">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.0230833333333331</v>
       </c>
       <c r="E53">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>181.38499999999999</v>
       </c>
       <c r="F53">
@@ -7213,10 +9992,10 @@
       <c r="G53">
         <v>990.66466418100003</v>
       </c>
-      <c r="H53" s="8" t="s">
+      <c r="H53" s="14" t="s">
         <v>175</v>
       </c>
-      <c r="I53" s="9"/>
+      <c r="I53" s="15"/>
       <c r="J53" t="s">
         <v>176</v>
       </c>
@@ -7227,7 +10006,7 @@
         <v>0.16442900600393501</v>
       </c>
       <c r="M53" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.16442900600393504</v>
       </c>
       <c r="N53" t="s">
@@ -7240,15 +10019,19 @@
         <v>1167.912269342434</v>
       </c>
       <c r="Q53" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.17891786350123601</v>
       </c>
-      <c r="R53" s="4">
-        <f t="shared" si="9"/>
+      <c r="R53" s="10">
+        <f t="shared" si="10"/>
         <v>1.2442886103484796E-2</v>
       </c>
-    </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S53" s="10">
+        <f t="shared" si="5"/>
+        <v>1.244E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>15</v>
       </c>
@@ -7259,11 +10042,11 @@
         <v>3</v>
       </c>
       <c r="D54">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.23050000000000001</v>
       </c>
       <c r="E54">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>13.83</v>
       </c>
       <c r="F54">
@@ -7272,10 +10055,10 @@
       <c r="G54">
         <v>816.442220013</v>
       </c>
-      <c r="H54" s="8" t="s">
+      <c r="H54" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="I54" s="9"/>
+      <c r="I54" s="15"/>
       <c r="J54" t="s">
         <v>179</v>
       </c>
@@ -7286,7 +10069,7 @@
         <v>0.19477238384415729</v>
       </c>
       <c r="M54" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.19477238384415727</v>
       </c>
       <c r="N54" t="s">
@@ -7299,15 +10082,19 @@
         <v>986.5123038407138</v>
       </c>
       <c r="Q54" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.20830633161646861</v>
       </c>
-      <c r="R54" s="4">
-        <f t="shared" si="9"/>
+      <c r="R54" s="10">
+        <f t="shared" si="10"/>
         <v>1.1327636925090395E-2</v>
       </c>
-    </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S54" s="10">
+        <f t="shared" si="5"/>
+        <v>1.133E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>15</v>
       </c>
@@ -7318,11 +10105,11 @@
         <v>4</v>
       </c>
       <c r="D55">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>31.813433333333332</v>
       </c>
       <c r="E55">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1908.806</v>
       </c>
       <c r="F55">
@@ -7331,10 +10118,10 @@
       <c r="G55">
         <v>1335.717997939</v>
       </c>
-      <c r="H55" s="8" t="s">
+      <c r="H55" s="14" t="s">
         <v>181</v>
       </c>
-      <c r="I55" s="9"/>
+      <c r="I55" s="15"/>
       <c r="J55" t="s">
         <v>182</v>
       </c>
@@ -7345,7 +10132,7 @@
         <v>0.29834324198862128</v>
       </c>
       <c r="M55" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.29834324198862133</v>
       </c>
       <c r="N55" t="s">
@@ -7358,15 +10145,19 @@
         <v>1479.1078282592589</v>
       </c>
       <c r="Q55" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.10735037675730055</v>
       </c>
-      <c r="R55" s="4">
-        <f t="shared" si="9"/>
+      <c r="R55" s="10">
+        <f t="shared" si="10"/>
         <v>-0.14710506363385428</v>
       </c>
-    </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S55" s="10">
+        <f t="shared" si="5"/>
+        <v>-0.14710999999999999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>15</v>
       </c>
@@ -7377,11 +10168,11 @@
         <v>5</v>
       </c>
       <c r="D56">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6.3772166666666665</v>
       </c>
       <c r="E56">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>382.63299999999998</v>
       </c>
       <c r="F56">
@@ -7390,10 +10181,10 @@
       <c r="G56">
         <v>1235.5368964209999</v>
       </c>
-      <c r="H56" s="8" t="s">
+      <c r="H56" s="14" t="s">
         <v>184</v>
       </c>
-      <c r="I56" s="9"/>
+      <c r="I56" s="15"/>
       <c r="J56" t="s">
         <v>185</v>
       </c>
@@ -7404,7 +10195,7 @@
         <v>0.2064845212800801</v>
       </c>
       <c r="M56" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.20648452128008007</v>
       </c>
       <c r="N56" t="s">
@@ -7417,15 +10208,19 @@
         <v>1454.7840481513599</v>
       </c>
       <c r="Q56" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.17745091414546729</v>
       </c>
-      <c r="R56" s="4">
-        <f t="shared" si="9"/>
+      <c r="R56" s="10">
+        <f t="shared" si="10"/>
         <v>-2.406463292525968E-2</v>
       </c>
-    </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S56" s="10">
+        <f t="shared" si="5"/>
+        <v>-2.4060000000000002E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>15</v>
       </c>
@@ -7436,11 +10231,11 @@
         <v>6</v>
       </c>
       <c r="D57">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>11.927283333333332</v>
       </c>
       <c r="E57">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>715.63699999999994</v>
       </c>
       <c r="F57">
@@ -7449,10 +10244,10 @@
       <c r="G57">
         <v>684.84841983199999</v>
       </c>
-      <c r="H57" s="8" t="s">
+      <c r="H57" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="I57" s="9"/>
+      <c r="I57" s="15"/>
       <c r="J57" t="s">
         <v>188</v>
       </c>
@@ -7463,7 +10258,7 @@
         <v>0.27859736121145401</v>
       </c>
       <c r="M57" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.27859736121145401</v>
       </c>
       <c r="N57" t="s">
@@ -7476,15 +10271,19 @@
         <v>834.37760121061604</v>
       </c>
       <c r="Q57" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.21833909088276354</v>
       </c>
-      <c r="R57" s="4">
-        <f t="shared" si="9"/>
+      <c r="R57" s="10">
+        <f t="shared" si="10"/>
         <v>-4.7128417558750892E-2</v>
       </c>
-    </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S57" s="10">
+        <f t="shared" si="5"/>
+        <v>-4.7129999999999998E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>15</v>
       </c>
@@ -7495,11 +10294,11 @@
         <v>7</v>
       </c>
       <c r="D58">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.80586666666666662</v>
       </c>
       <c r="E58">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>48.351999999999997</v>
       </c>
       <c r="F58">
@@ -7508,10 +10307,10 @@
       <c r="G58">
         <v>1042.9837969709999</v>
       </c>
-      <c r="H58" s="8" t="s">
+      <c r="H58" s="14" t="s">
         <v>190</v>
       </c>
-      <c r="I58" s="9"/>
+      <c r="I58" s="15"/>
       <c r="J58" t="s">
         <v>191</v>
       </c>
@@ -7522,7 +10321,7 @@
         <v>0.23420849888566209</v>
       </c>
       <c r="M58" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.23420849888566211</v>
       </c>
       <c r="N58" t="s">
@@ -7535,15 +10334,19 @@
         <v>1275.382289345094</v>
       </c>
       <c r="Q58" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.22282080800202103</v>
       </c>
-      <c r="R58" s="4">
-        <f t="shared" si="9"/>
+      <c r="R58" s="10">
+        <f t="shared" si="10"/>
         <v>-9.226715659406623E-3</v>
       </c>
-    </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S58" s="10">
+        <f t="shared" si="5"/>
+        <v>-9.2300000000000004E-3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>15</v>
       </c>
@@ -7554,11 +10357,11 @@
         <v>8</v>
       </c>
       <c r="D59">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9.8160000000000007</v>
       </c>
       <c r="E59">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>588.96</v>
       </c>
       <c r="F59">
@@ -7567,10 +10370,10 @@
       <c r="G59">
         <v>844.422064514</v>
       </c>
-      <c r="H59" s="8" t="s">
+      <c r="H59" s="14" t="s">
         <v>193</v>
       </c>
-      <c r="I59" s="9"/>
+      <c r="I59" s="15"/>
       <c r="J59" t="s">
         <v>194</v>
       </c>
@@ -7581,7 +10384,7 @@
         <v>0.30092509760304048</v>
       </c>
       <c r="M59" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.28800058224503799</v>
       </c>
       <c r="N59" t="s">
@@ -7594,15 +10397,19 @@
         <v>1025.97020552298</v>
       </c>
       <c r="Q59" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.2149969175822857</v>
       </c>
-      <c r="R59" s="4">
-        <f t="shared" si="9"/>
+      <c r="R59" s="10">
+        <f t="shared" si="10"/>
         <v>-5.6679838246271534E-2</v>
       </c>
-    </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S59" s="10">
+        <f t="shared" si="5"/>
+        <v>-5.6680000000000001E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>15</v>
       </c>
@@ -7613,11 +10420,11 @@
         <v>9</v>
       </c>
       <c r="D60">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>13.850033333333332</v>
       </c>
       <c r="E60">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>831.00199999999995</v>
       </c>
       <c r="F60">
@@ -7626,10 +10433,10 @@
       <c r="G60">
         <v>812.48444796000001</v>
       </c>
-      <c r="H60" s="8" t="s">
+      <c r="H60" s="14" t="s">
         <v>196</v>
       </c>
-      <c r="I60" s="9"/>
+      <c r="I60" s="15"/>
       <c r="J60" t="s">
         <v>197</v>
       </c>
@@ -7640,7 +10447,7 @@
         <v>0.142310132540058</v>
       </c>
       <c r="M60" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.142310132540058</v>
       </c>
       <c r="N60" t="s">
@@ -7653,15 +10460,19 @@
         <v>948.70542409475468</v>
       </c>
       <c r="Q60" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.16765979518350246</v>
       </c>
-      <c r="R60" s="4">
-        <f t="shared" si="9"/>
+      <c r="R60" s="10">
+        <f t="shared" si="10"/>
         <v>2.2191576456628771E-2</v>
       </c>
-    </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S60" s="10">
+        <f t="shared" si="5"/>
+        <v>2.2190000000000001E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>15</v>
       </c>
@@ -7672,11 +10483,11 @@
         <v>10</v>
       </c>
       <c r="D61">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>463.13668333333334</v>
       </c>
       <c r="E61">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>27788.201000000001</v>
       </c>
       <c r="F61">
@@ -7685,10 +10496,10 @@
       <c r="G61">
         <v>1036.0607604459999</v>
       </c>
-      <c r="H61" s="8" t="s">
+      <c r="H61" s="14" t="s">
         <v>199</v>
       </c>
-      <c r="I61" s="9"/>
+      <c r="I61" s="15"/>
       <c r="J61" t="s">
         <v>200</v>
       </c>
@@ -7699,7 +10510,7 @@
         <v>0.13124891307641179</v>
       </c>
       <c r="M61" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.13124891307641179</v>
       </c>
       <c r="N61" t="s">
@@ -7712,17 +10523,21 @@
         <v>1212.417268828427</v>
       </c>
       <c r="Q61" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.17021830679747951</v>
       </c>
-      <c r="R61" s="4">
-        <f t="shared" si="9"/>
+      <c r="R61" s="10">
+        <f t="shared" si="10"/>
         <v>3.4448115945668524E-2</v>
       </c>
-    </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="H62" s="8"/>
-      <c r="I62" s="9"/>
+      <c r="S61" s="10">
+        <f t="shared" si="5"/>
+        <v>3.4450000000000001E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="H62" s="14"/>
+      <c r="I62" s="15"/>
       <c r="L62" s="5">
         <f>AVERAGE(L2:L61)</f>
         <v>0.19437365484068622</v>
@@ -7739,594 +10554,597 @@
         <f>AVERAGE(R2:R61)</f>
         <v>-1.0895728108015427E-2</v>
       </c>
-    </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="H63" s="8"/>
-      <c r="I63" s="9"/>
-    </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="H64" s="8"/>
-      <c r="I64" s="9"/>
+      <c r="S62" s="5"/>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="H63" s="14"/>
+      <c r="I63" s="15"/>
+      <c r="R63" s="8"/>
+      <c r="S63" s="8"/>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="H64" s="14"/>
+      <c r="I64" s="15"/>
     </row>
     <row r="65" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H65" s="8"/>
-      <c r="I65" s="9"/>
+      <c r="H65" s="14"/>
+      <c r="I65" s="15"/>
     </row>
     <row r="66" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H66" s="8"/>
-      <c r="I66" s="9"/>
+      <c r="H66" s="14"/>
+      <c r="I66" s="15"/>
     </row>
     <row r="67" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H67" s="8"/>
-      <c r="I67" s="9"/>
+      <c r="H67" s="14"/>
+      <c r="I67" s="15"/>
     </row>
     <row r="68" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H68" s="8"/>
-      <c r="I68" s="9"/>
+      <c r="H68" s="14"/>
+      <c r="I68" s="15"/>
     </row>
     <row r="69" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H69" s="8"/>
-      <c r="I69" s="9"/>
+      <c r="H69" s="14"/>
+      <c r="I69" s="15"/>
     </row>
     <row r="70" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H70" s="8"/>
-      <c r="I70" s="9"/>
+      <c r="H70" s="14"/>
+      <c r="I70" s="15"/>
     </row>
     <row r="71" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H71" s="8"/>
-      <c r="I71" s="9"/>
+      <c r="H71" s="14"/>
+      <c r="I71" s="15"/>
     </row>
     <row r="72" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H72" s="8"/>
-      <c r="I72" s="9"/>
+      <c r="H72" s="14"/>
+      <c r="I72" s="15"/>
     </row>
     <row r="73" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H73" s="8"/>
-      <c r="I73" s="9"/>
+      <c r="H73" s="14"/>
+      <c r="I73" s="15"/>
     </row>
     <row r="74" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H74" s="8"/>
-      <c r="I74" s="9"/>
+      <c r="H74" s="14"/>
+      <c r="I74" s="15"/>
     </row>
     <row r="75" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H75" s="8"/>
-      <c r="I75" s="9"/>
+      <c r="H75" s="14"/>
+      <c r="I75" s="15"/>
     </row>
     <row r="76" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H76" s="8"/>
-      <c r="I76" s="9"/>
+      <c r="H76" s="14"/>
+      <c r="I76" s="15"/>
     </row>
     <row r="77" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H77" s="8"/>
-      <c r="I77" s="9"/>
+      <c r="H77" s="14"/>
+      <c r="I77" s="15"/>
     </row>
     <row r="78" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H78" s="8"/>
-      <c r="I78" s="9"/>
+      <c r="H78" s="14"/>
+      <c r="I78" s="15"/>
     </row>
     <row r="79" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H79" s="8"/>
-      <c r="I79" s="9"/>
+      <c r="H79" s="14"/>
+      <c r="I79" s="15"/>
     </row>
     <row r="80" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H80" s="8"/>
-      <c r="I80" s="9"/>
+      <c r="H80" s="14"/>
+      <c r="I80" s="15"/>
     </row>
     <row r="81" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H81" s="8"/>
-      <c r="I81" s="9"/>
+      <c r="H81" s="14"/>
+      <c r="I81" s="15"/>
     </row>
     <row r="82" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H82" s="8"/>
-      <c r="I82" s="9"/>
+      <c r="H82" s="14"/>
+      <c r="I82" s="15"/>
     </row>
     <row r="83" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H83" s="8"/>
-      <c r="I83" s="9"/>
+      <c r="H83" s="14"/>
+      <c r="I83" s="15"/>
     </row>
     <row r="84" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H84" s="8"/>
-      <c r="I84" s="9"/>
+      <c r="H84" s="14"/>
+      <c r="I84" s="15"/>
     </row>
     <row r="85" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H85" s="8"/>
-      <c r="I85" s="9"/>
+      <c r="H85" s="14"/>
+      <c r="I85" s="15"/>
     </row>
     <row r="86" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H86" s="8"/>
-      <c r="I86" s="9"/>
+      <c r="H86" s="14"/>
+      <c r="I86" s="15"/>
     </row>
     <row r="87" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H87" s="8"/>
-      <c r="I87" s="9"/>
+      <c r="H87" s="14"/>
+      <c r="I87" s="15"/>
     </row>
     <row r="88" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H88" s="8"/>
-      <c r="I88" s="9"/>
+      <c r="H88" s="14"/>
+      <c r="I88" s="15"/>
     </row>
     <row r="89" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H89" s="8"/>
-      <c r="I89" s="9"/>
+      <c r="H89" s="14"/>
+      <c r="I89" s="15"/>
     </row>
     <row r="90" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H90" s="8"/>
-      <c r="I90" s="9"/>
+      <c r="H90" s="14"/>
+      <c r="I90" s="15"/>
     </row>
     <row r="91" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H91" s="8"/>
-      <c r="I91" s="9"/>
+      <c r="H91" s="14"/>
+      <c r="I91" s="15"/>
     </row>
     <row r="92" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H92" s="8"/>
-      <c r="I92" s="9"/>
+      <c r="H92" s="14"/>
+      <c r="I92" s="15"/>
     </row>
     <row r="93" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H93" s="8"/>
-      <c r="I93" s="9"/>
+      <c r="H93" s="14"/>
+      <c r="I93" s="15"/>
     </row>
     <row r="94" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H94" s="8"/>
-      <c r="I94" s="9"/>
+      <c r="H94" s="14"/>
+      <c r="I94" s="15"/>
     </row>
     <row r="95" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H95" s="8"/>
-      <c r="I95" s="9"/>
+      <c r="H95" s="14"/>
+      <c r="I95" s="15"/>
     </row>
     <row r="96" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H96" s="8"/>
-      <c r="I96" s="9"/>
+      <c r="H96" s="14"/>
+      <c r="I96" s="15"/>
     </row>
     <row r="97" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H97" s="8"/>
-      <c r="I97" s="9"/>
+      <c r="H97" s="14"/>
+      <c r="I97" s="15"/>
     </row>
     <row r="98" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H98" s="8"/>
-      <c r="I98" s="9"/>
+      <c r="H98" s="14"/>
+      <c r="I98" s="15"/>
     </row>
     <row r="99" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H99" s="8"/>
-      <c r="I99" s="9"/>
+      <c r="H99" s="14"/>
+      <c r="I99" s="15"/>
     </row>
     <row r="100" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H100" s="8"/>
-      <c r="I100" s="9"/>
+      <c r="H100" s="14"/>
+      <c r="I100" s="15"/>
     </row>
     <row r="101" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H101" s="8"/>
-      <c r="I101" s="9"/>
+      <c r="H101" s="14"/>
+      <c r="I101" s="15"/>
     </row>
     <row r="102" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H102" s="8"/>
-      <c r="I102" s="9"/>
+      <c r="H102" s="14"/>
+      <c r="I102" s="15"/>
     </row>
     <row r="103" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H103" s="8"/>
-      <c r="I103" s="9"/>
+      <c r="H103" s="14"/>
+      <c r="I103" s="15"/>
     </row>
     <row r="104" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H104" s="8"/>
-      <c r="I104" s="9"/>
+      <c r="H104" s="14"/>
+      <c r="I104" s="15"/>
     </row>
     <row r="105" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H105" s="8"/>
-      <c r="I105" s="9"/>
+      <c r="H105" s="14"/>
+      <c r="I105" s="15"/>
     </row>
     <row r="106" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H106" s="8"/>
-      <c r="I106" s="9"/>
+      <c r="H106" s="14"/>
+      <c r="I106" s="15"/>
     </row>
     <row r="107" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H107" s="8"/>
-      <c r="I107" s="9"/>
+      <c r="H107" s="14"/>
+      <c r="I107" s="15"/>
     </row>
     <row r="108" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H108" s="8"/>
-      <c r="I108" s="9"/>
+      <c r="H108" s="14"/>
+      <c r="I108" s="15"/>
     </row>
     <row r="109" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H109" s="8"/>
-      <c r="I109" s="9"/>
+      <c r="H109" s="14"/>
+      <c r="I109" s="15"/>
     </row>
     <row r="110" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H110" s="8"/>
-      <c r="I110" s="9"/>
+      <c r="H110" s="14"/>
+      <c r="I110" s="15"/>
     </row>
     <row r="111" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H111" s="8"/>
-      <c r="I111" s="9"/>
+      <c r="H111" s="14"/>
+      <c r="I111" s="15"/>
     </row>
     <row r="112" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H112" s="8"/>
-      <c r="I112" s="9"/>
+      <c r="H112" s="14"/>
+      <c r="I112" s="15"/>
     </row>
     <row r="113" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H113" s="8"/>
-      <c r="I113" s="9"/>
+      <c r="H113" s="14"/>
+      <c r="I113" s="15"/>
     </row>
     <row r="114" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H114" s="8"/>
-      <c r="I114" s="9"/>
+      <c r="H114" s="14"/>
+      <c r="I114" s="15"/>
     </row>
     <row r="115" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H115" s="8"/>
-      <c r="I115" s="9"/>
+      <c r="H115" s="14"/>
+      <c r="I115" s="15"/>
     </row>
     <row r="116" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H116" s="8"/>
-      <c r="I116" s="9"/>
+      <c r="H116" s="14"/>
+      <c r="I116" s="15"/>
     </row>
     <row r="117" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H117" s="8"/>
-      <c r="I117" s="9"/>
+      <c r="H117" s="14"/>
+      <c r="I117" s="15"/>
     </row>
     <row r="118" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H118" s="8"/>
-      <c r="I118" s="9"/>
+      <c r="H118" s="14"/>
+      <c r="I118" s="15"/>
     </row>
     <row r="119" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H119" s="8"/>
-      <c r="I119" s="9"/>
+      <c r="H119" s="14"/>
+      <c r="I119" s="15"/>
     </row>
     <row r="120" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H120" s="8"/>
-      <c r="I120" s="9"/>
+      <c r="H120" s="14"/>
+      <c r="I120" s="15"/>
     </row>
     <row r="121" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H121" s="8"/>
-      <c r="I121" s="9"/>
+      <c r="H121" s="14"/>
+      <c r="I121" s="15"/>
     </row>
     <row r="122" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H122" s="8"/>
-      <c r="I122" s="9"/>
+      <c r="H122" s="14"/>
+      <c r="I122" s="15"/>
     </row>
     <row r="123" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H123" s="8"/>
-      <c r="I123" s="9"/>
+      <c r="H123" s="14"/>
+      <c r="I123" s="15"/>
     </row>
     <row r="124" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H124" s="8"/>
-      <c r="I124" s="9"/>
+      <c r="H124" s="14"/>
+      <c r="I124" s="15"/>
     </row>
     <row r="125" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H125" s="8"/>
-      <c r="I125" s="9"/>
+      <c r="H125" s="14"/>
+      <c r="I125" s="15"/>
     </row>
     <row r="126" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H126" s="8"/>
-      <c r="I126" s="9"/>
+      <c r="H126" s="14"/>
+      <c r="I126" s="15"/>
     </row>
     <row r="127" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H127" s="8"/>
-      <c r="I127" s="9"/>
+      <c r="H127" s="14"/>
+      <c r="I127" s="15"/>
     </row>
     <row r="128" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H128" s="8"/>
-      <c r="I128" s="9"/>
+      <c r="H128" s="14"/>
+      <c r="I128" s="15"/>
     </row>
     <row r="129" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H129" s="8"/>
-      <c r="I129" s="9"/>
+      <c r="H129" s="14"/>
+      <c r="I129" s="15"/>
     </row>
     <row r="130" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H130" s="8"/>
-      <c r="I130" s="9"/>
+      <c r="H130" s="14"/>
+      <c r="I130" s="15"/>
     </row>
     <row r="131" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H131" s="8"/>
-      <c r="I131" s="9"/>
+      <c r="H131" s="14"/>
+      <c r="I131" s="15"/>
     </row>
     <row r="132" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H132" s="8"/>
-      <c r="I132" s="9"/>
+      <c r="H132" s="14"/>
+      <c r="I132" s="15"/>
     </row>
     <row r="133" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H133" s="8"/>
-      <c r="I133" s="9"/>
+      <c r="H133" s="14"/>
+      <c r="I133" s="15"/>
     </row>
     <row r="134" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H134" s="8"/>
-      <c r="I134" s="9"/>
+      <c r="H134" s="14"/>
+      <c r="I134" s="15"/>
     </row>
     <row r="135" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H135" s="8"/>
-      <c r="I135" s="9"/>
+      <c r="H135" s="14"/>
+      <c r="I135" s="15"/>
     </row>
     <row r="136" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H136" s="8"/>
-      <c r="I136" s="9"/>
+      <c r="H136" s="14"/>
+      <c r="I136" s="15"/>
     </row>
     <row r="137" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H137" s="8"/>
-      <c r="I137" s="9"/>
+      <c r="H137" s="14"/>
+      <c r="I137" s="15"/>
     </row>
     <row r="138" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H138" s="8"/>
-      <c r="I138" s="9"/>
+      <c r="H138" s="14"/>
+      <c r="I138" s="15"/>
     </row>
     <row r="139" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H139" s="8"/>
-      <c r="I139" s="9"/>
+      <c r="H139" s="14"/>
+      <c r="I139" s="15"/>
     </row>
     <row r="140" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H140" s="8"/>
-      <c r="I140" s="9"/>
+      <c r="H140" s="14"/>
+      <c r="I140" s="15"/>
     </row>
     <row r="141" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H141" s="8"/>
-      <c r="I141" s="9"/>
+      <c r="H141" s="14"/>
+      <c r="I141" s="15"/>
     </row>
     <row r="142" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H142" s="8"/>
-      <c r="I142" s="9"/>
+      <c r="H142" s="14"/>
+      <c r="I142" s="15"/>
     </row>
     <row r="143" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H143" s="8"/>
-      <c r="I143" s="9"/>
+      <c r="H143" s="14"/>
+      <c r="I143" s="15"/>
     </row>
     <row r="144" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H144" s="8"/>
-      <c r="I144" s="9"/>
+      <c r="H144" s="14"/>
+      <c r="I144" s="15"/>
     </row>
     <row r="145" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H145" s="8"/>
-      <c r="I145" s="9"/>
+      <c r="H145" s="14"/>
+      <c r="I145" s="15"/>
     </row>
     <row r="146" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H146" s="8"/>
-      <c r="I146" s="9"/>
+      <c r="H146" s="14"/>
+      <c r="I146" s="15"/>
     </row>
     <row r="147" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H147" s="8"/>
-      <c r="I147" s="9"/>
+      <c r="H147" s="14"/>
+      <c r="I147" s="15"/>
     </row>
     <row r="148" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H148" s="8"/>
-      <c r="I148" s="9"/>
+      <c r="H148" s="14"/>
+      <c r="I148" s="15"/>
     </row>
     <row r="149" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H149" s="8"/>
-      <c r="I149" s="9"/>
+      <c r="H149" s="14"/>
+      <c r="I149" s="15"/>
     </row>
     <row r="150" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H150" s="8"/>
-      <c r="I150" s="9"/>
+      <c r="H150" s="14"/>
+      <c r="I150" s="15"/>
     </row>
     <row r="151" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H151" s="8"/>
-      <c r="I151" s="9"/>
+      <c r="H151" s="14"/>
+      <c r="I151" s="15"/>
     </row>
     <row r="152" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H152" s="8"/>
-      <c r="I152" s="9"/>
+      <c r="H152" s="14"/>
+      <c r="I152" s="15"/>
     </row>
     <row r="153" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H153" s="8"/>
-      <c r="I153" s="9"/>
+      <c r="H153" s="14"/>
+      <c r="I153" s="15"/>
     </row>
     <row r="154" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H154" s="8"/>
-      <c r="I154" s="9"/>
+      <c r="H154" s="14"/>
+      <c r="I154" s="15"/>
     </row>
     <row r="155" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H155" s="8"/>
-      <c r="I155" s="9"/>
+      <c r="H155" s="14"/>
+      <c r="I155" s="15"/>
     </row>
     <row r="156" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H156" s="8"/>
-      <c r="I156" s="9"/>
+      <c r="H156" s="14"/>
+      <c r="I156" s="15"/>
     </row>
     <row r="157" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H157" s="8"/>
-      <c r="I157" s="9"/>
+      <c r="H157" s="14"/>
+      <c r="I157" s="15"/>
     </row>
     <row r="158" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H158" s="8"/>
-      <c r="I158" s="9"/>
+      <c r="H158" s="14"/>
+      <c r="I158" s="15"/>
     </row>
     <row r="159" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H159" s="8"/>
-      <c r="I159" s="9"/>
+      <c r="H159" s="14"/>
+      <c r="I159" s="15"/>
     </row>
     <row r="160" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H160" s="8"/>
-      <c r="I160" s="9"/>
+      <c r="H160" s="14"/>
+      <c r="I160" s="15"/>
     </row>
     <row r="161" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H161" s="8"/>
-      <c r="I161" s="9"/>
+      <c r="H161" s="14"/>
+      <c r="I161" s="15"/>
     </row>
     <row r="162" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H162" s="8"/>
-      <c r="I162" s="9"/>
+      <c r="H162" s="14"/>
+      <c r="I162" s="15"/>
     </row>
     <row r="163" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H163" s="8"/>
-      <c r="I163" s="9"/>
+      <c r="H163" s="14"/>
+      <c r="I163" s="15"/>
     </row>
     <row r="164" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H164" s="8"/>
-      <c r="I164" s="9"/>
+      <c r="H164" s="14"/>
+      <c r="I164" s="15"/>
     </row>
     <row r="165" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H165" s="8"/>
-      <c r="I165" s="9"/>
+      <c r="H165" s="14"/>
+      <c r="I165" s="15"/>
     </row>
     <row r="166" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H166" s="8"/>
-      <c r="I166" s="9"/>
+      <c r="H166" s="14"/>
+      <c r="I166" s="15"/>
     </row>
     <row r="167" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H167" s="8"/>
-      <c r="I167" s="9"/>
+      <c r="H167" s="14"/>
+      <c r="I167" s="15"/>
     </row>
     <row r="168" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H168" s="8"/>
-      <c r="I168" s="9"/>
+      <c r="H168" s="14"/>
+      <c r="I168" s="15"/>
     </row>
     <row r="169" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H169" s="8"/>
-      <c r="I169" s="9"/>
+      <c r="H169" s="14"/>
+      <c r="I169" s="15"/>
     </row>
     <row r="170" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H170" s="8"/>
-      <c r="I170" s="9"/>
+      <c r="H170" s="14"/>
+      <c r="I170" s="15"/>
     </row>
     <row r="171" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H171" s="8"/>
-      <c r="I171" s="9"/>
+      <c r="H171" s="14"/>
+      <c r="I171" s="15"/>
     </row>
     <row r="172" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H172" s="8"/>
-      <c r="I172" s="9"/>
+      <c r="H172" s="14"/>
+      <c r="I172" s="15"/>
     </row>
     <row r="173" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H173" s="8"/>
-      <c r="I173" s="9"/>
+      <c r="H173" s="14"/>
+      <c r="I173" s="15"/>
     </row>
     <row r="174" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H174" s="8"/>
-      <c r="I174" s="9"/>
+      <c r="H174" s="14"/>
+      <c r="I174" s="15"/>
     </row>
     <row r="175" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H175" s="8"/>
-      <c r="I175" s="9"/>
+      <c r="H175" s="14"/>
+      <c r="I175" s="15"/>
     </row>
     <row r="176" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H176" s="8"/>
-      <c r="I176" s="9"/>
+      <c r="H176" s="14"/>
+      <c r="I176" s="15"/>
     </row>
     <row r="177" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H177" s="8"/>
-      <c r="I177" s="9"/>
+      <c r="H177" s="14"/>
+      <c r="I177" s="15"/>
     </row>
     <row r="178" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H178" s="8"/>
-      <c r="I178" s="9"/>
+      <c r="H178" s="14"/>
+      <c r="I178" s="15"/>
     </row>
     <row r="179" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H179" s="8"/>
-      <c r="I179" s="9"/>
+      <c r="H179" s="14"/>
+      <c r="I179" s="15"/>
     </row>
     <row r="180" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H180" s="8"/>
-      <c r="I180" s="9"/>
+      <c r="H180" s="14"/>
+      <c r="I180" s="15"/>
     </row>
     <row r="181" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H181" s="8"/>
-      <c r="I181" s="9"/>
+      <c r="H181" s="14"/>
+      <c r="I181" s="15"/>
     </row>
     <row r="182" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H182" s="8"/>
-      <c r="I182" s="9"/>
+      <c r="H182" s="14"/>
+      <c r="I182" s="15"/>
     </row>
     <row r="183" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H183" s="8"/>
-      <c r="I183" s="9"/>
+      <c r="H183" s="14"/>
+      <c r="I183" s="15"/>
     </row>
     <row r="184" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H184" s="8"/>
-      <c r="I184" s="9"/>
+      <c r="H184" s="14"/>
+      <c r="I184" s="15"/>
     </row>
     <row r="185" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H185" s="8"/>
-      <c r="I185" s="9"/>
+      <c r="H185" s="14"/>
+      <c r="I185" s="15"/>
     </row>
     <row r="186" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H186" s="8"/>
-      <c r="I186" s="9"/>
+      <c r="H186" s="14"/>
+      <c r="I186" s="15"/>
     </row>
     <row r="187" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H187" s="8"/>
-      <c r="I187" s="9"/>
+      <c r="H187" s="14"/>
+      <c r="I187" s="15"/>
     </row>
     <row r="188" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H188" s="8"/>
-      <c r="I188" s="9"/>
+      <c r="H188" s="14"/>
+      <c r="I188" s="15"/>
     </row>
     <row r="189" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H189" s="8"/>
-      <c r="I189" s="9"/>
+      <c r="H189" s="14"/>
+      <c r="I189" s="15"/>
     </row>
     <row r="190" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H190" s="8"/>
-      <c r="I190" s="9"/>
+      <c r="H190" s="14"/>
+      <c r="I190" s="15"/>
     </row>
     <row r="191" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H191" s="8"/>
-      <c r="I191" s="9"/>
+      <c r="H191" s="14"/>
+      <c r="I191" s="15"/>
     </row>
     <row r="192" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H192" s="8"/>
-      <c r="I192" s="9"/>
+      <c r="H192" s="14"/>
+      <c r="I192" s="15"/>
     </row>
     <row r="193" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H193" s="8"/>
-      <c r="I193" s="9"/>
+      <c r="H193" s="14"/>
+      <c r="I193" s="15"/>
     </row>
     <row r="194" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H194" s="8"/>
-      <c r="I194" s="9"/>
+      <c r="H194" s="14"/>
+      <c r="I194" s="15"/>
     </row>
     <row r="195" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H195" s="8"/>
-      <c r="I195" s="9"/>
+      <c r="H195" s="14"/>
+      <c r="I195" s="15"/>
     </row>
     <row r="196" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H196" s="8"/>
-      <c r="I196" s="9"/>
+      <c r="H196" s="14"/>
+      <c r="I196" s="15"/>
     </row>
     <row r="197" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H197" s="8"/>
-      <c r="I197" s="9"/>
+      <c r="H197" s="14"/>
+      <c r="I197" s="15"/>
     </row>
     <row r="198" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H198" s="8"/>
-      <c r="I198" s="9"/>
+      <c r="H198" s="14"/>
+      <c r="I198" s="15"/>
     </row>
     <row r="199" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H199" s="8"/>
-      <c r="I199" s="9"/>
+      <c r="H199" s="14"/>
+      <c r="I199" s="15"/>
     </row>
     <row r="200" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H200" s="8"/>
-      <c r="I200" s="9"/>
+      <c r="H200" s="14"/>
+      <c r="I200" s="15"/>
     </row>
     <row r="201" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H201" s="8"/>
-      <c r="I201" s="9"/>
+      <c r="H201" s="14"/>
+      <c r="I201" s="15"/>
     </row>
     <row r="202" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H202" s="8"/>
-      <c r="I202" s="9"/>
+      <c r="H202" s="14"/>
+      <c r="I202" s="15"/>
     </row>
     <row r="203" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H203" s="8"/>
-      <c r="I203" s="9"/>
+      <c r="H203" s="14"/>
+      <c r="I203" s="15"/>
     </row>
     <row r="204" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H204" s="8"/>
-      <c r="I204" s="9"/>
+      <c r="H204" s="14"/>
+      <c r="I204" s="15"/>
     </row>
     <row r="205" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H205" s="8"/>
-      <c r="I205" s="9"/>
+      <c r="H205" s="14"/>
+      <c r="I205" s="15"/>
     </row>
     <row r="206" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H206" s="8"/>
-      <c r="I206" s="9"/>
+      <c r="H206" s="14"/>
+      <c r="I206" s="15"/>
     </row>
     <row r="207" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H207" s="8"/>
-      <c r="I207" s="9"/>
+      <c r="H207" s="14"/>
+      <c r="I207" s="15"/>
     </row>
     <row r="208" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H208" s="8"/>
-      <c r="I208" s="9"/>
+      <c r="H208" s="14"/>
+      <c r="I208" s="15"/>
     </row>
     <row r="209" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H209" s="8"/>
-      <c r="I209" s="9"/>
+      <c r="H209" s="14"/>
+      <c r="I209" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="208">
@@ -8539,15 +11357,42 @@
     <mergeCell ref="H29:I29"/>
     <mergeCell ref="H30:I30"/>
   </mergeCells>
-  <conditionalFormatting sqref="R2:R61 R63:R1048576">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="notBetween">
+  <conditionalFormatting sqref="R63:R1048576 R2:R61">
+    <cfRule type="cellIs" dxfId="7" priority="5" operator="notBetween">
       <formula>-0.1</formula>
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q1:Q61 Q63:Q1048576">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="lessThan">
       <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R2:R1048576">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="8" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S63:S1048576 S2:S61">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="notBetween">
+      <formula>-0.1</formula>
+      <formula>0.1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S2:S1048576">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="9" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O2:O1048576">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+      <formula>1800</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/vrp_dss/Solve Times Summary.xlsx
+++ b/vrp_dss/Solve Times Summary.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Aaron\Documents\Git Repositories\VRP-DSS\vrp_dss\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{342C1D9D-9D3A-4864-B666-0B689BFFC2D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A211E6D-BCD9-459F-BA7B-42897A076F81}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="3615" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="3615" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Graphs" sheetId="1" r:id="rId1"/>
     <sheet name="Run Data" sheetId="2" r:id="rId2"/>
+    <sheet name="Case Study" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="211">
   <si>
     <t># Customers</t>
   </si>
@@ -2982,6 +2983,15 @@
 5 (8) -&gt; 8 (4) -&gt; 9 (2)
 15 (6) -&gt; 13 (6)
 </t>
+  </si>
+  <si>
+    <t>Archive Routes</t>
+  </si>
+  <si>
+    <t>Archive Objective</t>
+  </si>
+  <si>
+    <t>Archive Date</t>
   </si>
 </sst>
 </file>
@@ -3037,7 +3047,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3061,6 +3071,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6255,7 +6266,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
@@ -6622,7 +6633,8 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -6634,7 +6646,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N20" sqref="N20"/>
+      <selection pane="bottomRight" activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11368,4 +11380,62 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38517884-779F-4BC7-B6B1-F5D7B406D059}">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="15">
+        <v>43745</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="15">
+        <v>43768</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="15">
+        <v>43775</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/vrp_dss/Solve Times Summary.xlsx
+++ b/vrp_dss/Solve Times Summary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Aaron\Documents\Git Repositories\VRP-DSS\vrp_dss\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\great\Documents\GitHub\VRP-DSS\vrp_dss\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A211E6D-BCD9-459F-BA7B-42897A076F81}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4466D013-5D62-4460-889D-92D08F0AC57D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="3615" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Graphs" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="214">
   <si>
     <t># Customers</t>
   </si>
@@ -2988,10 +2988,19 @@
     <t>Archive Routes</t>
   </si>
   <si>
-    <t>Archive Objective</t>
-  </si>
-  <si>
     <t>Archive Date</t>
+  </si>
+  <si>
+    <t>Archive Cost</t>
+  </si>
+  <si>
+    <t>Archive Penalty</t>
+  </si>
+  <si>
+    <t>Meta Cost</t>
+  </si>
+  <si>
+    <t>Meta Penalty</t>
   </si>
 </sst>
 </file>
@@ -3065,13 +3074,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6753,10 +6762,10 @@
       <c r="G2">
         <v>573.06827871500002</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="H2" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="14"/>
+      <c r="I2" s="15"/>
       <c r="J2" t="s">
         <v>29</v>
       </c>
@@ -6816,10 +6825,10 @@
       <c r="G3">
         <v>576.78510638299997</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="H3" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="I3" s="14"/>
+      <c r="I3" s="15"/>
       <c r="J3" t="s">
         <v>32</v>
       </c>
@@ -6887,10 +6896,10 @@
       <c r="G4">
         <v>943.34840135000002</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="H4" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="I4" s="14"/>
+      <c r="I4" s="15"/>
       <c r="J4" t="s">
         <v>35</v>
       </c>
@@ -6950,10 +6959,10 @@
       <c r="G5">
         <v>547.76187840700004</v>
       </c>
-      <c r="H5" s="13" t="s">
+      <c r="H5" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="I5" s="14"/>
+      <c r="I5" s="15"/>
       <c r="J5" t="s">
         <v>38</v>
       </c>
@@ -7013,10 +7022,10 @@
       <c r="G6">
         <v>979.546880192</v>
       </c>
-      <c r="H6" s="13" t="s">
+      <c r="H6" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="I6" s="14"/>
+      <c r="I6" s="15"/>
       <c r="J6" t="s">
         <v>41</v>
       </c>
@@ -7076,10 +7085,10 @@
       <c r="G7">
         <v>456.27215827700002</v>
       </c>
-      <c r="H7" s="13" t="s">
+      <c r="H7" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="I7" s="14"/>
+      <c r="I7" s="15"/>
       <c r="J7" t="s">
         <v>44</v>
       </c>
@@ -7139,10 +7148,10 @@
       <c r="G8">
         <v>883.23944079299997</v>
       </c>
-      <c r="H8" s="13" t="s">
+      <c r="H8" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="I8" s="14"/>
+      <c r="I8" s="15"/>
       <c r="J8" t="s">
         <v>47</v>
       </c>
@@ -7202,10 +7211,10 @@
       <c r="G9">
         <v>674.55252934199996</v>
       </c>
-      <c r="H9" s="13" t="s">
+      <c r="H9" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="I9" s="14"/>
+      <c r="I9" s="15"/>
       <c r="J9" t="s">
         <v>50</v>
       </c>
@@ -7265,10 +7274,10 @@
       <c r="G10">
         <v>604.10825342600003</v>
       </c>
-      <c r="H10" s="13" t="s">
+      <c r="H10" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="I10" s="14"/>
+      <c r="I10" s="15"/>
       <c r="J10" t="s">
         <v>53</v>
       </c>
@@ -7328,10 +7337,10 @@
       <c r="G11">
         <v>566.83624877900002</v>
       </c>
-      <c r="H11" s="13" t="s">
+      <c r="H11" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="I11" s="14"/>
+      <c r="I11" s="15"/>
       <c r="J11" t="s">
         <v>56</v>
       </c>
@@ -7391,10 +7400,10 @@
       <c r="G12">
         <v>784.24467330000004</v>
       </c>
-      <c r="H12" s="13" t="s">
+      <c r="H12" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="I12" s="14"/>
+      <c r="I12" s="15"/>
       <c r="J12" t="s">
         <v>59</v>
       </c>
@@ -7454,10 +7463,10 @@
       <c r="G13">
         <v>613.378326109</v>
       </c>
-      <c r="H13" s="13" t="s">
+      <c r="H13" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="I13" s="14"/>
+      <c r="I13" s="15"/>
       <c r="J13" t="s">
         <v>62</v>
       </c>
@@ -7517,10 +7526,10 @@
       <c r="G14">
         <v>791.18591642900003</v>
       </c>
-      <c r="H14" s="13" t="s">
+      <c r="H14" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="I14" s="14"/>
+      <c r="I14" s="15"/>
       <c r="J14" t="s">
         <v>65</v>
       </c>
@@ -7580,10 +7589,10 @@
       <c r="G15">
         <v>750.87424906499996</v>
       </c>
-      <c r="H15" s="13" t="s">
+      <c r="H15" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="I15" s="14"/>
+      <c r="I15" s="15"/>
       <c r="J15" t="s">
         <v>68</v>
       </c>
@@ -7643,10 +7652,10 @@
       <c r="G16">
         <v>909.07091568299995</v>
       </c>
-      <c r="H16" s="13" t="s">
+      <c r="H16" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="I16" s="14"/>
+      <c r="I16" s="15"/>
       <c r="J16" t="s">
         <v>71</v>
       </c>
@@ -7706,10 +7715,10 @@
       <c r="G17">
         <v>805.72962788500001</v>
       </c>
-      <c r="H17" s="13" t="s">
+      <c r="H17" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="I17" s="14"/>
+      <c r="I17" s="15"/>
       <c r="J17" t="s">
         <v>74</v>
       </c>
@@ -7769,10 +7778,10 @@
       <c r="G18">
         <v>683.45979060699995</v>
       </c>
-      <c r="H18" s="13" t="s">
+      <c r="H18" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="I18" s="14"/>
+      <c r="I18" s="15"/>
       <c r="J18" t="s">
         <v>77</v>
       </c>
@@ -7832,10 +7841,10 @@
       <c r="G19">
         <v>1082.162880112</v>
       </c>
-      <c r="H19" s="13" t="s">
+      <c r="H19" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="I19" s="14"/>
+      <c r="I19" s="15"/>
       <c r="J19" t="s">
         <v>80</v>
       </c>
@@ -7895,10 +7904,10 @@
       <c r="G20">
         <v>952.74671821100003</v>
       </c>
-      <c r="H20" s="13" t="s">
+      <c r="H20" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="I20" s="14"/>
+      <c r="I20" s="15"/>
       <c r="J20" t="s">
         <v>83</v>
       </c>
@@ -7958,10 +7967,10 @@
       <c r="G21">
         <v>613.52360638799996</v>
       </c>
-      <c r="H21" s="13" t="s">
+      <c r="H21" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="I21" s="14"/>
+      <c r="I21" s="15"/>
       <c r="J21" t="s">
         <v>86</v>
       </c>
@@ -8021,10 +8030,10 @@
       <c r="G22">
         <v>1171.623384083</v>
       </c>
-      <c r="H22" s="13" t="s">
+      <c r="H22" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="I22" s="14"/>
+      <c r="I22" s="15"/>
       <c r="J22" t="s">
         <v>89</v>
       </c>
@@ -8084,10 +8093,10 @@
       <c r="G23">
         <v>828.12840839</v>
       </c>
-      <c r="H23" s="13" t="s">
+      <c r="H23" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="I23" s="14"/>
+      <c r="I23" s="15"/>
       <c r="J23" t="s">
         <v>92</v>
       </c>
@@ -8147,10 +8156,10 @@
       <c r="G24">
         <v>801.70743123199998</v>
       </c>
-      <c r="H24" s="13" t="s">
+      <c r="H24" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="I24" s="14"/>
+      <c r="I24" s="15"/>
       <c r="J24" t="s">
         <v>95</v>
       </c>
@@ -8210,10 +8219,10 @@
       <c r="G25">
         <v>1003.760132766</v>
       </c>
-      <c r="H25" s="13" t="s">
+      <c r="H25" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="I25" s="14"/>
+      <c r="I25" s="15"/>
       <c r="J25" t="s">
         <v>98</v>
       </c>
@@ -8273,10 +8282,10 @@
       <c r="G26">
         <v>826.18978593300005</v>
       </c>
-      <c r="H26" s="13" t="s">
+      <c r="H26" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="I26" s="14"/>
+      <c r="I26" s="15"/>
       <c r="J26" t="s">
         <v>101</v>
       </c>
@@ -8336,10 +8345,10 @@
       <c r="G27">
         <v>1067.862157347</v>
       </c>
-      <c r="H27" s="13" t="s">
+      <c r="H27" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="I27" s="14"/>
+      <c r="I27" s="15"/>
       <c r="J27" t="s">
         <v>104</v>
       </c>
@@ -8399,10 +8408,10 @@
       <c r="G28">
         <v>924.42118022199998</v>
       </c>
-      <c r="H28" s="13" t="s">
+      <c r="H28" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="I28" s="14"/>
+      <c r="I28" s="15"/>
       <c r="J28" t="s">
         <v>107</v>
       </c>
@@ -8462,10 +8471,10 @@
       <c r="G29">
         <v>778.89360681400001</v>
       </c>
-      <c r="H29" s="13" t="s">
+      <c r="H29" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="I29" s="14"/>
+      <c r="I29" s="15"/>
       <c r="J29" t="s">
         <v>110</v>
       </c>
@@ -8525,10 +8534,10 @@
       <c r="G30">
         <v>1157.0368080420001</v>
       </c>
-      <c r="H30" s="13" t="s">
+      <c r="H30" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="I30" s="14"/>
+      <c r="I30" s="15"/>
       <c r="J30" t="s">
         <v>113</v>
       </c>
@@ -8588,10 +8597,10 @@
       <c r="G31">
         <v>739.53477113099996</v>
       </c>
-      <c r="H31" s="13" t="s">
+      <c r="H31" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="I31" s="14"/>
+      <c r="I31" s="15"/>
       <c r="J31" t="s">
         <v>116</v>
       </c>
@@ -8651,10 +8660,10 @@
       <c r="G32">
         <v>572.08350842100003</v>
       </c>
-      <c r="H32" s="13" t="s">
+      <c r="H32" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="I32" s="14"/>
+      <c r="I32" s="15"/>
       <c r="J32" t="s">
         <v>119</v>
       </c>
@@ -8714,10 +8723,10 @@
       <c r="G33">
         <v>845.52345453600003</v>
       </c>
-      <c r="H33" s="13" t="s">
+      <c r="H33" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="I33" s="14"/>
+      <c r="I33" s="15"/>
       <c r="J33" t="s">
         <v>122</v>
       </c>
@@ -8777,10 +8786,10 @@
       <c r="G34">
         <v>727.03140475500004</v>
       </c>
-      <c r="H34" s="13" t="s">
+      <c r="H34" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="I34" s="14"/>
+      <c r="I34" s="15"/>
       <c r="J34" t="s">
         <v>125</v>
       </c>
@@ -8840,10 +8849,10 @@
       <c r="G35">
         <v>694.66514945300003</v>
       </c>
-      <c r="H35" s="13" t="s">
+      <c r="H35" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="I35" s="14"/>
+      <c r="I35" s="15"/>
       <c r="J35" t="s">
         <v>128</v>
       </c>
@@ -8903,10 +8912,10 @@
       <c r="G36">
         <v>619.49705766700004</v>
       </c>
-      <c r="H36" s="13" t="s">
+      <c r="H36" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="I36" s="14"/>
+      <c r="I36" s="15"/>
       <c r="J36" t="s">
         <v>131</v>
       </c>
@@ -8966,10 +8975,10 @@
       <c r="G37">
         <v>1064.370043632</v>
       </c>
-      <c r="H37" s="13" t="s">
+      <c r="H37" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="I37" s="14"/>
+      <c r="I37" s="15"/>
       <c r="J37" t="s">
         <v>134</v>
       </c>
@@ -9029,10 +9038,10 @@
       <c r="G38">
         <v>484.16209789700002</v>
       </c>
-      <c r="H38" s="13" t="s">
+      <c r="H38" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="I38" s="14"/>
+      <c r="I38" s="15"/>
       <c r="J38" t="s">
         <v>137</v>
       </c>
@@ -9092,10 +9101,10 @@
       <c r="G39">
         <v>892.84735411600002</v>
       </c>
-      <c r="H39" s="13" t="s">
+      <c r="H39" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="I39" s="14"/>
+      <c r="I39" s="15"/>
       <c r="J39" t="s">
         <v>140</v>
       </c>
@@ -9155,10 +9164,10 @@
       <c r="G40">
         <v>1150.946320584</v>
       </c>
-      <c r="H40" s="13" t="s">
+      <c r="H40" s="14" t="s">
         <v>142</v>
       </c>
-      <c r="I40" s="14"/>
+      <c r="I40" s="15"/>
       <c r="J40" t="s">
         <v>143</v>
       </c>
@@ -9218,10 +9227,10 @@
       <c r="G41">
         <v>1059.4930977900001</v>
       </c>
-      <c r="H41" s="13" t="s">
+      <c r="H41" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="I41" s="14"/>
+      <c r="I41" s="15"/>
       <c r="J41" t="s">
         <v>146</v>
       </c>
@@ -9281,10 +9290,10 @@
       <c r="G42">
         <v>970.10421748900001</v>
       </c>
-      <c r="H42" s="13" t="s">
+      <c r="H42" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="I42" s="14"/>
+      <c r="I42" s="15"/>
       <c r="J42" t="s">
         <v>149</v>
       </c>
@@ -9344,10 +9353,10 @@
       <c r="G43">
         <v>884.48240144600004</v>
       </c>
-      <c r="H43" s="13" t="s">
+      <c r="H43" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="I43" s="14"/>
+      <c r="I43" s="15"/>
       <c r="J43" t="s">
         <v>152</v>
       </c>
@@ -9407,10 +9416,10 @@
       <c r="G44">
         <v>773.75507863300004</v>
       </c>
-      <c r="H44" s="13" t="s">
+      <c r="H44" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="I44" s="14"/>
+      <c r="I44" s="15"/>
       <c r="J44" t="s">
         <v>155</v>
       </c>
@@ -9470,10 +9479,10 @@
       <c r="G45">
         <v>835.71515105499998</v>
       </c>
-      <c r="H45" s="13" t="s">
+      <c r="H45" s="14" t="s">
         <v>157</v>
       </c>
-      <c r="I45" s="14"/>
+      <c r="I45" s="15"/>
       <c r="J45" t="s">
         <v>158</v>
       </c>
@@ -9533,10 +9542,10 @@
       <c r="G46">
         <v>1196.8098017689999</v>
       </c>
-      <c r="H46" s="13" t="s">
+      <c r="H46" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="I46" s="14"/>
+      <c r="I46" s="15"/>
       <c r="J46" t="s">
         <v>161</v>
       </c>
@@ -9596,10 +9605,10 @@
       <c r="G47">
         <v>597.19418764500006</v>
       </c>
-      <c r="H47" s="13" t="s">
+      <c r="H47" s="14" t="s">
         <v>163</v>
       </c>
-      <c r="I47" s="14"/>
+      <c r="I47" s="15"/>
       <c r="J47" t="s">
         <v>164</v>
       </c>
@@ -9659,10 +9668,10 @@
       <c r="G48">
         <v>663.31653632799998</v>
       </c>
-      <c r="H48" s="13" t="s">
+      <c r="H48" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="I48" s="14"/>
+      <c r="I48" s="15"/>
       <c r="J48" t="s">
         <v>167</v>
       </c>
@@ -9722,10 +9731,10 @@
       <c r="G49">
         <v>1117.1817261159999</v>
       </c>
-      <c r="H49" s="13" t="s">
+      <c r="H49" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="I49" s="14"/>
+      <c r="I49" s="15"/>
       <c r="J49" t="s">
         <v>170</v>
       </c>
@@ -9785,10 +9794,10 @@
       <c r="G50">
         <v>958.651706322</v>
       </c>
-      <c r="H50" s="13" t="s">
+      <c r="H50" s="14" t="s">
         <v>172</v>
       </c>
-      <c r="I50" s="14"/>
+      <c r="I50" s="15"/>
       <c r="J50" t="s">
         <v>173</v>
       </c>
@@ -9848,10 +9857,10 @@
       <c r="G51">
         <v>1054.082647881</v>
       </c>
-      <c r="H51" s="13" t="s">
+      <c r="H51" s="14" t="s">
         <v>175</v>
       </c>
-      <c r="I51" s="14"/>
+      <c r="I51" s="15"/>
       <c r="J51" t="s">
         <v>176</v>
       </c>
@@ -9911,10 +9920,10 @@
       <c r="G52">
         <v>810.90597523600002</v>
       </c>
-      <c r="H52" s="13" t="s">
+      <c r="H52" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="I52" s="14"/>
+      <c r="I52" s="15"/>
       <c r="J52" t="s">
         <v>179</v>
       </c>
@@ -9974,10 +9983,10 @@
       <c r="G53">
         <v>990.66466418100003</v>
       </c>
-      <c r="H53" s="13" t="s">
+      <c r="H53" s="14" t="s">
         <v>181</v>
       </c>
-      <c r="I53" s="14"/>
+      <c r="I53" s="15"/>
       <c r="J53" t="s">
         <v>182</v>
       </c>
@@ -10037,10 +10046,10 @@
       <c r="G54">
         <v>816.442220013</v>
       </c>
-      <c r="H54" s="13" t="s">
+      <c r="H54" s="14" t="s">
         <v>184</v>
       </c>
-      <c r="I54" s="14"/>
+      <c r="I54" s="15"/>
       <c r="J54" t="s">
         <v>185</v>
       </c>
@@ -10100,10 +10109,10 @@
       <c r="G55">
         <v>1335.717997939</v>
       </c>
-      <c r="H55" s="13" t="s">
+      <c r="H55" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="I55" s="14"/>
+      <c r="I55" s="15"/>
       <c r="J55" t="s">
         <v>188</v>
       </c>
@@ -10163,10 +10172,10 @@
       <c r="G56">
         <v>1235.5368964209999</v>
       </c>
-      <c r="H56" s="13" t="s">
+      <c r="H56" s="14" t="s">
         <v>190</v>
       </c>
-      <c r="I56" s="14"/>
+      <c r="I56" s="15"/>
       <c r="J56" t="s">
         <v>191</v>
       </c>
@@ -10226,10 +10235,10 @@
       <c r="G57">
         <v>684.84841983199999</v>
       </c>
-      <c r="H57" s="13" t="s">
+      <c r="H57" s="14" t="s">
         <v>193</v>
       </c>
-      <c r="I57" s="14"/>
+      <c r="I57" s="15"/>
       <c r="J57" t="s">
         <v>194</v>
       </c>
@@ -10289,10 +10298,10 @@
       <c r="G58">
         <v>1042.9837969709999</v>
       </c>
-      <c r="H58" s="13" t="s">
+      <c r="H58" s="14" t="s">
         <v>196</v>
       </c>
-      <c r="I58" s="14"/>
+      <c r="I58" s="15"/>
       <c r="J58" t="s">
         <v>197</v>
       </c>
@@ -10352,10 +10361,10 @@
       <c r="G59">
         <v>844.422064514</v>
       </c>
-      <c r="H59" s="13" t="s">
+      <c r="H59" s="14" t="s">
         <v>199</v>
       </c>
-      <c r="I59" s="14"/>
+      <c r="I59" s="15"/>
       <c r="J59" t="s">
         <v>200</v>
       </c>
@@ -10415,10 +10424,10 @@
       <c r="G60">
         <v>812.48444796000001</v>
       </c>
-      <c r="H60" s="13" t="s">
+      <c r="H60" s="14" t="s">
         <v>202</v>
       </c>
-      <c r="I60" s="14"/>
+      <c r="I60" s="15"/>
       <c r="J60" t="s">
         <v>203</v>
       </c>
@@ -10478,10 +10487,10 @@
       <c r="G61">
         <v>1036.0607604459999</v>
       </c>
-      <c r="H61" s="13" t="s">
+      <c r="H61" s="14" t="s">
         <v>205</v>
       </c>
-      <c r="I61" s="14"/>
+      <c r="I61" s="15"/>
       <c r="J61" t="s">
         <v>206</v>
       </c>
@@ -10518,8 +10527,8 @@
       </c>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="H62" s="13"/>
-      <c r="I62" s="14"/>
+      <c r="H62" s="14"/>
+      <c r="I62" s="15"/>
       <c r="L62" s="4">
         <f>AVERAGE(L2:L61)</f>
         <v>0.19437365484068622</v>
@@ -10539,597 +10548,781 @@
       <c r="S62" s="4"/>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="H63" s="13"/>
-      <c r="I63" s="14"/>
+      <c r="H63" s="14"/>
+      <c r="I63" s="15"/>
       <c r="R63" s="6"/>
       <c r="S63" s="6"/>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="H64" s="13"/>
-      <c r="I64" s="14"/>
+      <c r="H64" s="14"/>
+      <c r="I64" s="15"/>
     </row>
     <row r="65" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H65" s="13"/>
-      <c r="I65" s="14"/>
+      <c r="H65" s="14"/>
+      <c r="I65" s="15"/>
     </row>
     <row r="66" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H66" s="13"/>
-      <c r="I66" s="14"/>
+      <c r="H66" s="14"/>
+      <c r="I66" s="15"/>
     </row>
     <row r="67" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H67" s="13"/>
-      <c r="I67" s="14"/>
+      <c r="H67" s="14"/>
+      <c r="I67" s="15"/>
     </row>
     <row r="68" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H68" s="13"/>
-      <c r="I68" s="14"/>
+      <c r="H68" s="14"/>
+      <c r="I68" s="15"/>
     </row>
     <row r="69" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H69" s="13"/>
-      <c r="I69" s="14"/>
+      <c r="H69" s="14"/>
+      <c r="I69" s="15"/>
     </row>
     <row r="70" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H70" s="13"/>
-      <c r="I70" s="14"/>
+      <c r="H70" s="14"/>
+      <c r="I70" s="15"/>
     </row>
     <row r="71" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H71" s="13"/>
-      <c r="I71" s="14"/>
+      <c r="H71" s="14"/>
+      <c r="I71" s="15"/>
     </row>
     <row r="72" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H72" s="13"/>
-      <c r="I72" s="14"/>
+      <c r="H72" s="14"/>
+      <c r="I72" s="15"/>
     </row>
     <row r="73" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H73" s="13"/>
-      <c r="I73" s="14"/>
+      <c r="H73" s="14"/>
+      <c r="I73" s="15"/>
     </row>
     <row r="74" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H74" s="13"/>
-      <c r="I74" s="14"/>
+      <c r="H74" s="14"/>
+      <c r="I74" s="15"/>
     </row>
     <row r="75" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H75" s="13"/>
-      <c r="I75" s="14"/>
+      <c r="H75" s="14"/>
+      <c r="I75" s="15"/>
     </row>
     <row r="76" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H76" s="13"/>
-      <c r="I76" s="14"/>
+      <c r="H76" s="14"/>
+      <c r="I76" s="15"/>
     </row>
     <row r="77" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H77" s="13"/>
-      <c r="I77" s="14"/>
+      <c r="H77" s="14"/>
+      <c r="I77" s="15"/>
     </row>
     <row r="78" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H78" s="13"/>
-      <c r="I78" s="14"/>
+      <c r="H78" s="14"/>
+      <c r="I78" s="15"/>
     </row>
     <row r="79" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H79" s="13"/>
-      <c r="I79" s="14"/>
+      <c r="H79" s="14"/>
+      <c r="I79" s="15"/>
     </row>
     <row r="80" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H80" s="13"/>
-      <c r="I80" s="14"/>
+      <c r="H80" s="14"/>
+      <c r="I80" s="15"/>
     </row>
     <row r="81" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H81" s="13"/>
-      <c r="I81" s="14"/>
+      <c r="H81" s="14"/>
+      <c r="I81" s="15"/>
     </row>
     <row r="82" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H82" s="13"/>
-      <c r="I82" s="14"/>
+      <c r="H82" s="14"/>
+      <c r="I82" s="15"/>
     </row>
     <row r="83" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H83" s="13"/>
-      <c r="I83" s="14"/>
+      <c r="H83" s="14"/>
+      <c r="I83" s="15"/>
     </row>
     <row r="84" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H84" s="13"/>
-      <c r="I84" s="14"/>
+      <c r="H84" s="14"/>
+      <c r="I84" s="15"/>
     </row>
     <row r="85" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H85" s="13"/>
-      <c r="I85" s="14"/>
+      <c r="H85" s="14"/>
+      <c r="I85" s="15"/>
     </row>
     <row r="86" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H86" s="13"/>
-      <c r="I86" s="14"/>
+      <c r="H86" s="14"/>
+      <c r="I86" s="15"/>
     </row>
     <row r="87" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H87" s="13"/>
-      <c r="I87" s="14"/>
+      <c r="H87" s="14"/>
+      <c r="I87" s="15"/>
     </row>
     <row r="88" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H88" s="13"/>
-      <c r="I88" s="14"/>
+      <c r="H88" s="14"/>
+      <c r="I88" s="15"/>
     </row>
     <row r="89" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H89" s="13"/>
-      <c r="I89" s="14"/>
+      <c r="H89" s="14"/>
+      <c r="I89" s="15"/>
     </row>
     <row r="90" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H90" s="13"/>
-      <c r="I90" s="14"/>
+      <c r="H90" s="14"/>
+      <c r="I90" s="15"/>
     </row>
     <row r="91" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H91" s="13"/>
-      <c r="I91" s="14"/>
+      <c r="H91" s="14"/>
+      <c r="I91" s="15"/>
     </row>
     <row r="92" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H92" s="13"/>
-      <c r="I92" s="14"/>
+      <c r="H92" s="14"/>
+      <c r="I92" s="15"/>
     </row>
     <row r="93" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H93" s="13"/>
-      <c r="I93" s="14"/>
+      <c r="H93" s="14"/>
+      <c r="I93" s="15"/>
     </row>
     <row r="94" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H94" s="13"/>
-      <c r="I94" s="14"/>
+      <c r="H94" s="14"/>
+      <c r="I94" s="15"/>
     </row>
     <row r="95" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H95" s="13"/>
-      <c r="I95" s="14"/>
+      <c r="H95" s="14"/>
+      <c r="I95" s="15"/>
     </row>
     <row r="96" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H96" s="13"/>
-      <c r="I96" s="14"/>
+      <c r="H96" s="14"/>
+      <c r="I96" s="15"/>
     </row>
     <row r="97" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H97" s="13"/>
-      <c r="I97" s="14"/>
+      <c r="H97" s="14"/>
+      <c r="I97" s="15"/>
     </row>
     <row r="98" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H98" s="13"/>
-      <c r="I98" s="14"/>
+      <c r="H98" s="14"/>
+      <c r="I98" s="15"/>
     </row>
     <row r="99" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H99" s="13"/>
-      <c r="I99" s="14"/>
+      <c r="H99" s="14"/>
+      <c r="I99" s="15"/>
     </row>
     <row r="100" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H100" s="13"/>
-      <c r="I100" s="14"/>
+      <c r="H100" s="14"/>
+      <c r="I100" s="15"/>
     </row>
     <row r="101" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H101" s="13"/>
-      <c r="I101" s="14"/>
+      <c r="H101" s="14"/>
+      <c r="I101" s="15"/>
     </row>
     <row r="102" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H102" s="13"/>
-      <c r="I102" s="14"/>
+      <c r="H102" s="14"/>
+      <c r="I102" s="15"/>
     </row>
     <row r="103" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H103" s="13"/>
-      <c r="I103" s="14"/>
+      <c r="H103" s="14"/>
+      <c r="I103" s="15"/>
     </row>
     <row r="104" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H104" s="13"/>
-      <c r="I104" s="14"/>
+      <c r="H104" s="14"/>
+      <c r="I104" s="15"/>
     </row>
     <row r="105" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H105" s="13"/>
-      <c r="I105" s="14"/>
+      <c r="H105" s="14"/>
+      <c r="I105" s="15"/>
     </row>
     <row r="106" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H106" s="13"/>
-      <c r="I106" s="14"/>
+      <c r="H106" s="14"/>
+      <c r="I106" s="15"/>
     </row>
     <row r="107" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H107" s="13"/>
-      <c r="I107" s="14"/>
+      <c r="H107" s="14"/>
+      <c r="I107" s="15"/>
     </row>
     <row r="108" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H108" s="13"/>
-      <c r="I108" s="14"/>
+      <c r="H108" s="14"/>
+      <c r="I108" s="15"/>
     </row>
     <row r="109" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H109" s="13"/>
-      <c r="I109" s="14"/>
+      <c r="H109" s="14"/>
+      <c r="I109" s="15"/>
     </row>
     <row r="110" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H110" s="13"/>
-      <c r="I110" s="14"/>
+      <c r="H110" s="14"/>
+      <c r="I110" s="15"/>
     </row>
     <row r="111" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H111" s="13"/>
-      <c r="I111" s="14"/>
+      <c r="H111" s="14"/>
+      <c r="I111" s="15"/>
     </row>
     <row r="112" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H112" s="13"/>
-      <c r="I112" s="14"/>
+      <c r="H112" s="14"/>
+      <c r="I112" s="15"/>
     </row>
     <row r="113" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H113" s="13"/>
-      <c r="I113" s="14"/>
+      <c r="H113" s="14"/>
+      <c r="I113" s="15"/>
     </row>
     <row r="114" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H114" s="13"/>
-      <c r="I114" s="14"/>
+      <c r="H114" s="14"/>
+      <c r="I114" s="15"/>
     </row>
     <row r="115" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H115" s="13"/>
-      <c r="I115" s="14"/>
+      <c r="H115" s="14"/>
+      <c r="I115" s="15"/>
     </row>
     <row r="116" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H116" s="13"/>
-      <c r="I116" s="14"/>
+      <c r="H116" s="14"/>
+      <c r="I116" s="15"/>
     </row>
     <row r="117" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H117" s="13"/>
-      <c r="I117" s="14"/>
+      <c r="H117" s="14"/>
+      <c r="I117" s="15"/>
     </row>
     <row r="118" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H118" s="13"/>
-      <c r="I118" s="14"/>
+      <c r="H118" s="14"/>
+      <c r="I118" s="15"/>
     </row>
     <row r="119" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H119" s="13"/>
-      <c r="I119" s="14"/>
+      <c r="H119" s="14"/>
+      <c r="I119" s="15"/>
     </row>
     <row r="120" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H120" s="13"/>
-      <c r="I120" s="14"/>
+      <c r="H120" s="14"/>
+      <c r="I120" s="15"/>
     </row>
     <row r="121" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H121" s="13"/>
-      <c r="I121" s="14"/>
+      <c r="H121" s="14"/>
+      <c r="I121" s="15"/>
     </row>
     <row r="122" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H122" s="13"/>
-      <c r="I122" s="14"/>
+      <c r="H122" s="14"/>
+      <c r="I122" s="15"/>
     </row>
     <row r="123" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H123" s="13"/>
-      <c r="I123" s="14"/>
+      <c r="H123" s="14"/>
+      <c r="I123" s="15"/>
     </row>
     <row r="124" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H124" s="13"/>
-      <c r="I124" s="14"/>
+      <c r="H124" s="14"/>
+      <c r="I124" s="15"/>
     </row>
     <row r="125" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H125" s="13"/>
-      <c r="I125" s="14"/>
+      <c r="H125" s="14"/>
+      <c r="I125" s="15"/>
     </row>
     <row r="126" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H126" s="13"/>
-      <c r="I126" s="14"/>
+      <c r="H126" s="14"/>
+      <c r="I126" s="15"/>
     </row>
     <row r="127" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H127" s="13"/>
-      <c r="I127" s="14"/>
+      <c r="H127" s="14"/>
+      <c r="I127" s="15"/>
     </row>
     <row r="128" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H128" s="13"/>
-      <c r="I128" s="14"/>
+      <c r="H128" s="14"/>
+      <c r="I128" s="15"/>
     </row>
     <row r="129" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H129" s="13"/>
-      <c r="I129" s="14"/>
+      <c r="H129" s="14"/>
+      <c r="I129" s="15"/>
     </row>
     <row r="130" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H130" s="13"/>
-      <c r="I130" s="14"/>
+      <c r="H130" s="14"/>
+      <c r="I130" s="15"/>
     </row>
     <row r="131" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H131" s="13"/>
-      <c r="I131" s="14"/>
+      <c r="H131" s="14"/>
+      <c r="I131" s="15"/>
     </row>
     <row r="132" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H132" s="13"/>
-      <c r="I132" s="14"/>
+      <c r="H132" s="14"/>
+      <c r="I132" s="15"/>
     </row>
     <row r="133" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H133" s="13"/>
-      <c r="I133" s="14"/>
+      <c r="H133" s="14"/>
+      <c r="I133" s="15"/>
     </row>
     <row r="134" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H134" s="13"/>
-      <c r="I134" s="14"/>
+      <c r="H134" s="14"/>
+      <c r="I134" s="15"/>
     </row>
     <row r="135" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H135" s="13"/>
-      <c r="I135" s="14"/>
+      <c r="H135" s="14"/>
+      <c r="I135" s="15"/>
     </row>
     <row r="136" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H136" s="13"/>
-      <c r="I136" s="14"/>
+      <c r="H136" s="14"/>
+      <c r="I136" s="15"/>
     </row>
     <row r="137" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H137" s="13"/>
-      <c r="I137" s="14"/>
+      <c r="H137" s="14"/>
+      <c r="I137" s="15"/>
     </row>
     <row r="138" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H138" s="13"/>
-      <c r="I138" s="14"/>
+      <c r="H138" s="14"/>
+      <c r="I138" s="15"/>
     </row>
     <row r="139" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H139" s="13"/>
-      <c r="I139" s="14"/>
+      <c r="H139" s="14"/>
+      <c r="I139" s="15"/>
     </row>
     <row r="140" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H140" s="13"/>
-      <c r="I140" s="14"/>
+      <c r="H140" s="14"/>
+      <c r="I140" s="15"/>
     </row>
     <row r="141" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H141" s="13"/>
-      <c r="I141" s="14"/>
+      <c r="H141" s="14"/>
+      <c r="I141" s="15"/>
     </row>
     <row r="142" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H142" s="13"/>
-      <c r="I142" s="14"/>
+      <c r="H142" s="14"/>
+      <c r="I142" s="15"/>
     </row>
     <row r="143" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H143" s="13"/>
-      <c r="I143" s="14"/>
+      <c r="H143" s="14"/>
+      <c r="I143" s="15"/>
     </row>
     <row r="144" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H144" s="13"/>
-      <c r="I144" s="14"/>
+      <c r="H144" s="14"/>
+      <c r="I144" s="15"/>
     </row>
     <row r="145" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H145" s="13"/>
-      <c r="I145" s="14"/>
+      <c r="H145" s="14"/>
+      <c r="I145" s="15"/>
     </row>
     <row r="146" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H146" s="13"/>
-      <c r="I146" s="14"/>
+      <c r="H146" s="14"/>
+      <c r="I146" s="15"/>
     </row>
     <row r="147" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H147" s="13"/>
-      <c r="I147" s="14"/>
+      <c r="H147" s="14"/>
+      <c r="I147" s="15"/>
     </row>
     <row r="148" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H148" s="13"/>
-      <c r="I148" s="14"/>
+      <c r="H148" s="14"/>
+      <c r="I148" s="15"/>
     </row>
     <row r="149" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H149" s="13"/>
-      <c r="I149" s="14"/>
+      <c r="H149" s="14"/>
+      <c r="I149" s="15"/>
     </row>
     <row r="150" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H150" s="13"/>
-      <c r="I150" s="14"/>
+      <c r="H150" s="14"/>
+      <c r="I150" s="15"/>
     </row>
     <row r="151" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H151" s="13"/>
-      <c r="I151" s="14"/>
+      <c r="H151" s="14"/>
+      <c r="I151" s="15"/>
     </row>
     <row r="152" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H152" s="13"/>
-      <c r="I152" s="14"/>
+      <c r="H152" s="14"/>
+      <c r="I152" s="15"/>
     </row>
     <row r="153" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H153" s="13"/>
-      <c r="I153" s="14"/>
+      <c r="H153" s="14"/>
+      <c r="I153" s="15"/>
     </row>
     <row r="154" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H154" s="13"/>
-      <c r="I154" s="14"/>
+      <c r="H154" s="14"/>
+      <c r="I154" s="15"/>
     </row>
     <row r="155" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H155" s="13"/>
-      <c r="I155" s="14"/>
+      <c r="H155" s="14"/>
+      <c r="I155" s="15"/>
     </row>
     <row r="156" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H156" s="13"/>
-      <c r="I156" s="14"/>
+      <c r="H156" s="14"/>
+      <c r="I156" s="15"/>
     </row>
     <row r="157" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H157" s="13"/>
-      <c r="I157" s="14"/>
+      <c r="H157" s="14"/>
+      <c r="I157" s="15"/>
     </row>
     <row r="158" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H158" s="13"/>
-      <c r="I158" s="14"/>
+      <c r="H158" s="14"/>
+      <c r="I158" s="15"/>
     </row>
     <row r="159" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H159" s="13"/>
-      <c r="I159" s="14"/>
+      <c r="H159" s="14"/>
+      <c r="I159" s="15"/>
     </row>
     <row r="160" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H160" s="13"/>
-      <c r="I160" s="14"/>
+      <c r="H160" s="14"/>
+      <c r="I160" s="15"/>
     </row>
     <row r="161" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H161" s="13"/>
-      <c r="I161" s="14"/>
+      <c r="H161" s="14"/>
+      <c r="I161" s="15"/>
     </row>
     <row r="162" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H162" s="13"/>
-      <c r="I162" s="14"/>
+      <c r="H162" s="14"/>
+      <c r="I162" s="15"/>
     </row>
     <row r="163" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H163" s="13"/>
-      <c r="I163" s="14"/>
+      <c r="H163" s="14"/>
+      <c r="I163" s="15"/>
     </row>
     <row r="164" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H164" s="13"/>
-      <c r="I164" s="14"/>
+      <c r="H164" s="14"/>
+      <c r="I164" s="15"/>
     </row>
     <row r="165" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H165" s="13"/>
-      <c r="I165" s="14"/>
+      <c r="H165" s="14"/>
+      <c r="I165" s="15"/>
     </row>
     <row r="166" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H166" s="13"/>
-      <c r="I166" s="14"/>
+      <c r="H166" s="14"/>
+      <c r="I166" s="15"/>
     </row>
     <row r="167" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H167" s="13"/>
-      <c r="I167" s="14"/>
+      <c r="H167" s="14"/>
+      <c r="I167" s="15"/>
     </row>
     <row r="168" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H168" s="13"/>
-      <c r="I168" s="14"/>
+      <c r="H168" s="14"/>
+      <c r="I168" s="15"/>
     </row>
     <row r="169" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H169" s="13"/>
-      <c r="I169" s="14"/>
+      <c r="H169" s="14"/>
+      <c r="I169" s="15"/>
     </row>
     <row r="170" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H170" s="13"/>
-      <c r="I170" s="14"/>
+      <c r="H170" s="14"/>
+      <c r="I170" s="15"/>
     </row>
     <row r="171" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H171" s="13"/>
-      <c r="I171" s="14"/>
+      <c r="H171" s="14"/>
+      <c r="I171" s="15"/>
     </row>
     <row r="172" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H172" s="13"/>
-      <c r="I172" s="14"/>
+      <c r="H172" s="14"/>
+      <c r="I172" s="15"/>
     </row>
     <row r="173" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H173" s="13"/>
-      <c r="I173" s="14"/>
+      <c r="H173" s="14"/>
+      <c r="I173" s="15"/>
     </row>
     <row r="174" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H174" s="13"/>
-      <c r="I174" s="14"/>
+      <c r="H174" s="14"/>
+      <c r="I174" s="15"/>
     </row>
     <row r="175" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H175" s="13"/>
-      <c r="I175" s="14"/>
+      <c r="H175" s="14"/>
+      <c r="I175" s="15"/>
     </row>
     <row r="176" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H176" s="13"/>
-      <c r="I176" s="14"/>
+      <c r="H176" s="14"/>
+      <c r="I176" s="15"/>
     </row>
     <row r="177" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H177" s="13"/>
-      <c r="I177" s="14"/>
+      <c r="H177" s="14"/>
+      <c r="I177" s="15"/>
     </row>
     <row r="178" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H178" s="13"/>
-      <c r="I178" s="14"/>
+      <c r="H178" s="14"/>
+      <c r="I178" s="15"/>
     </row>
     <row r="179" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H179" s="13"/>
-      <c r="I179" s="14"/>
+      <c r="H179" s="14"/>
+      <c r="I179" s="15"/>
     </row>
     <row r="180" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H180" s="13"/>
-      <c r="I180" s="14"/>
+      <c r="H180" s="14"/>
+      <c r="I180" s="15"/>
     </row>
     <row r="181" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H181" s="13"/>
-      <c r="I181" s="14"/>
+      <c r="H181" s="14"/>
+      <c r="I181" s="15"/>
     </row>
     <row r="182" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H182" s="13"/>
-      <c r="I182" s="14"/>
+      <c r="H182" s="14"/>
+      <c r="I182" s="15"/>
     </row>
     <row r="183" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H183" s="13"/>
-      <c r="I183" s="14"/>
+      <c r="H183" s="14"/>
+      <c r="I183" s="15"/>
     </row>
     <row r="184" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H184" s="13"/>
-      <c r="I184" s="14"/>
+      <c r="H184" s="14"/>
+      <c r="I184" s="15"/>
     </row>
     <row r="185" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H185" s="13"/>
-      <c r="I185" s="14"/>
+      <c r="H185" s="14"/>
+      <c r="I185" s="15"/>
     </row>
     <row r="186" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H186" s="13"/>
-      <c r="I186" s="14"/>
+      <c r="H186" s="14"/>
+      <c r="I186" s="15"/>
     </row>
     <row r="187" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H187" s="13"/>
-      <c r="I187" s="14"/>
+      <c r="H187" s="14"/>
+      <c r="I187" s="15"/>
     </row>
     <row r="188" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H188" s="13"/>
-      <c r="I188" s="14"/>
+      <c r="H188" s="14"/>
+      <c r="I188" s="15"/>
     </row>
     <row r="189" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H189" s="13"/>
-      <c r="I189" s="14"/>
+      <c r="H189" s="14"/>
+      <c r="I189" s="15"/>
     </row>
     <row r="190" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H190" s="13"/>
-      <c r="I190" s="14"/>
+      <c r="H190" s="14"/>
+      <c r="I190" s="15"/>
     </row>
     <row r="191" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H191" s="13"/>
-      <c r="I191" s="14"/>
+      <c r="H191" s="14"/>
+      <c r="I191" s="15"/>
     </row>
     <row r="192" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H192" s="13"/>
-      <c r="I192" s="14"/>
+      <c r="H192" s="14"/>
+      <c r="I192" s="15"/>
     </row>
     <row r="193" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H193" s="13"/>
-      <c r="I193" s="14"/>
+      <c r="H193" s="14"/>
+      <c r="I193" s="15"/>
     </row>
     <row r="194" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H194" s="13"/>
-      <c r="I194" s="14"/>
+      <c r="H194" s="14"/>
+      <c r="I194" s="15"/>
     </row>
     <row r="195" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H195" s="13"/>
-      <c r="I195" s="14"/>
+      <c r="H195" s="14"/>
+      <c r="I195" s="15"/>
     </row>
     <row r="196" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H196" s="13"/>
-      <c r="I196" s="14"/>
+      <c r="H196" s="14"/>
+      <c r="I196" s="15"/>
     </row>
     <row r="197" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H197" s="13"/>
-      <c r="I197" s="14"/>
+      <c r="H197" s="14"/>
+      <c r="I197" s="15"/>
     </row>
     <row r="198" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H198" s="13"/>
-      <c r="I198" s="14"/>
+      <c r="H198" s="14"/>
+      <c r="I198" s="15"/>
     </row>
     <row r="199" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H199" s="13"/>
-      <c r="I199" s="14"/>
+      <c r="H199" s="14"/>
+      <c r="I199" s="15"/>
     </row>
     <row r="200" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H200" s="13"/>
-      <c r="I200" s="14"/>
+      <c r="H200" s="14"/>
+      <c r="I200" s="15"/>
     </row>
     <row r="201" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H201" s="13"/>
-      <c r="I201" s="14"/>
+      <c r="H201" s="14"/>
+      <c r="I201" s="15"/>
     </row>
     <row r="202" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H202" s="13"/>
-      <c r="I202" s="14"/>
+      <c r="H202" s="14"/>
+      <c r="I202" s="15"/>
     </row>
     <row r="203" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H203" s="13"/>
-      <c r="I203" s="14"/>
+      <c r="H203" s="14"/>
+      <c r="I203" s="15"/>
     </row>
     <row r="204" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H204" s="13"/>
-      <c r="I204" s="14"/>
+      <c r="H204" s="14"/>
+      <c r="I204" s="15"/>
     </row>
     <row r="205" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H205" s="13"/>
-      <c r="I205" s="14"/>
+      <c r="H205" s="14"/>
+      <c r="I205" s="15"/>
     </row>
     <row r="206" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H206" s="13"/>
-      <c r="I206" s="14"/>
+      <c r="H206" s="14"/>
+      <c r="I206" s="15"/>
     </row>
     <row r="207" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H207" s="13"/>
-      <c r="I207" s="14"/>
+      <c r="H207" s="14"/>
+      <c r="I207" s="15"/>
     </row>
     <row r="208" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H208" s="13"/>
-      <c r="I208" s="14"/>
+      <c r="H208" s="14"/>
+      <c r="I208" s="15"/>
     </row>
     <row r="209" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H209" s="13"/>
-      <c r="I209" s="14"/>
+      <c r="H209" s="14"/>
+      <c r="I209" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="208">
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="H206:I206"/>
+    <mergeCell ref="H207:I207"/>
+    <mergeCell ref="H208:I208"/>
+    <mergeCell ref="H209:I209"/>
+    <mergeCell ref="H179:I179"/>
+    <mergeCell ref="H180:I180"/>
+    <mergeCell ref="H181:I181"/>
+    <mergeCell ref="H200:I200"/>
+    <mergeCell ref="H201:I201"/>
+    <mergeCell ref="H202:I202"/>
+    <mergeCell ref="H203:I203"/>
+    <mergeCell ref="H204:I204"/>
+    <mergeCell ref="H205:I205"/>
+    <mergeCell ref="H185:I185"/>
+    <mergeCell ref="H186:I186"/>
+    <mergeCell ref="H187:I187"/>
+    <mergeCell ref="H188:I188"/>
+    <mergeCell ref="H189:I189"/>
+    <mergeCell ref="H190:I190"/>
+    <mergeCell ref="H191:I191"/>
+    <mergeCell ref="H192:I192"/>
+    <mergeCell ref="H193:I193"/>
+    <mergeCell ref="H194:I194"/>
+    <mergeCell ref="H195:I195"/>
+    <mergeCell ref="H175:I175"/>
+    <mergeCell ref="H176:I176"/>
+    <mergeCell ref="H177:I177"/>
+    <mergeCell ref="H178:I178"/>
+    <mergeCell ref="H174:I174"/>
+    <mergeCell ref="H131:I131"/>
+    <mergeCell ref="H171:I171"/>
+    <mergeCell ref="H172:I172"/>
+    <mergeCell ref="H173:I173"/>
+    <mergeCell ref="H138:I138"/>
+    <mergeCell ref="H139:I139"/>
+    <mergeCell ref="H140:I140"/>
+    <mergeCell ref="H159:I159"/>
+    <mergeCell ref="H160:I160"/>
+    <mergeCell ref="H161:I161"/>
+    <mergeCell ref="H162:I162"/>
+    <mergeCell ref="H163:I163"/>
+    <mergeCell ref="H150:I150"/>
+    <mergeCell ref="H151:I151"/>
+    <mergeCell ref="H156:I156"/>
+    <mergeCell ref="H157:I157"/>
+    <mergeCell ref="H158:I158"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="H121:I121"/>
+    <mergeCell ref="H82:I82"/>
+    <mergeCell ref="H83:I83"/>
+    <mergeCell ref="H84:I84"/>
+    <mergeCell ref="H91:I91"/>
+    <mergeCell ref="H92:I92"/>
+    <mergeCell ref="H93:I93"/>
+    <mergeCell ref="H100:I100"/>
+    <mergeCell ref="H101:I101"/>
+    <mergeCell ref="H117:I117"/>
+    <mergeCell ref="H118:I118"/>
+    <mergeCell ref="H119:I119"/>
+    <mergeCell ref="H120:I120"/>
+    <mergeCell ref="H113:I113"/>
+    <mergeCell ref="H114:I114"/>
+    <mergeCell ref="H115:I115"/>
+    <mergeCell ref="H116:I116"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H69:I69"/>
+    <mergeCell ref="H70:I70"/>
+    <mergeCell ref="H71:I71"/>
+    <mergeCell ref="H72:I72"/>
+    <mergeCell ref="H64:I64"/>
+    <mergeCell ref="H62:I62"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="H65:I65"/>
+    <mergeCell ref="H66:I66"/>
+    <mergeCell ref="H67:I67"/>
+    <mergeCell ref="H68:I68"/>
+    <mergeCell ref="H63:I63"/>
+    <mergeCell ref="H60:I60"/>
+    <mergeCell ref="H126:I126"/>
+    <mergeCell ref="H127:I127"/>
+    <mergeCell ref="H128:I128"/>
+    <mergeCell ref="H129:I129"/>
+    <mergeCell ref="H130:I130"/>
+    <mergeCell ref="H122:I122"/>
+    <mergeCell ref="H123:I123"/>
+    <mergeCell ref="H124:I124"/>
+    <mergeCell ref="H125:I125"/>
+    <mergeCell ref="H111:I111"/>
+    <mergeCell ref="H112:I112"/>
+    <mergeCell ref="H102:I102"/>
+    <mergeCell ref="H103:I103"/>
+    <mergeCell ref="H104:I104"/>
+    <mergeCell ref="H106:I106"/>
+    <mergeCell ref="H107:I107"/>
+    <mergeCell ref="H108:I108"/>
+    <mergeCell ref="H109:I109"/>
+    <mergeCell ref="H110:I110"/>
+    <mergeCell ref="H105:I105"/>
+    <mergeCell ref="H61:I61"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="H57:I57"/>
+    <mergeCell ref="H58:I58"/>
+    <mergeCell ref="H59:I59"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="H153:I153"/>
+    <mergeCell ref="H154:I154"/>
+    <mergeCell ref="H155:I155"/>
+    <mergeCell ref="H141:I141"/>
+    <mergeCell ref="H142:I142"/>
+    <mergeCell ref="H143:I143"/>
+    <mergeCell ref="H144:I144"/>
+    <mergeCell ref="H145:I145"/>
+    <mergeCell ref="H146:I146"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="H94:I94"/>
+    <mergeCell ref="H95:I95"/>
+    <mergeCell ref="H96:I96"/>
+    <mergeCell ref="H97:I97"/>
+    <mergeCell ref="H98:I98"/>
+    <mergeCell ref="H99:I99"/>
+    <mergeCell ref="H73:I73"/>
+    <mergeCell ref="H74:I74"/>
+    <mergeCell ref="H75:I75"/>
+    <mergeCell ref="H76:I76"/>
+    <mergeCell ref="H87:I87"/>
+    <mergeCell ref="H88:I88"/>
+    <mergeCell ref="H89:I89"/>
+    <mergeCell ref="H90:I90"/>
+    <mergeCell ref="H77:I77"/>
+    <mergeCell ref="H85:I85"/>
+    <mergeCell ref="H86:I86"/>
+    <mergeCell ref="H78:I78"/>
+    <mergeCell ref="H79:I79"/>
+    <mergeCell ref="H80:I80"/>
+    <mergeCell ref="H81:I81"/>
     <mergeCell ref="H196:I196"/>
     <mergeCell ref="H197:I197"/>
     <mergeCell ref="H198:I198"/>
@@ -11154,190 +11347,6 @@
     <mergeCell ref="H148:I148"/>
     <mergeCell ref="H149:I149"/>
     <mergeCell ref="H152:I152"/>
-    <mergeCell ref="H73:I73"/>
-    <mergeCell ref="H74:I74"/>
-    <mergeCell ref="H75:I75"/>
-    <mergeCell ref="H76:I76"/>
-    <mergeCell ref="H87:I87"/>
-    <mergeCell ref="H88:I88"/>
-    <mergeCell ref="H89:I89"/>
-    <mergeCell ref="H90:I90"/>
-    <mergeCell ref="H77:I77"/>
-    <mergeCell ref="H85:I85"/>
-    <mergeCell ref="H86:I86"/>
-    <mergeCell ref="H78:I78"/>
-    <mergeCell ref="H79:I79"/>
-    <mergeCell ref="H80:I80"/>
-    <mergeCell ref="H81:I81"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="H153:I153"/>
-    <mergeCell ref="H154:I154"/>
-    <mergeCell ref="H155:I155"/>
-    <mergeCell ref="H141:I141"/>
-    <mergeCell ref="H142:I142"/>
-    <mergeCell ref="H143:I143"/>
-    <mergeCell ref="H144:I144"/>
-    <mergeCell ref="H145:I145"/>
-    <mergeCell ref="H146:I146"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="H94:I94"/>
-    <mergeCell ref="H95:I95"/>
-    <mergeCell ref="H96:I96"/>
-    <mergeCell ref="H97:I97"/>
-    <mergeCell ref="H98:I98"/>
-    <mergeCell ref="H99:I99"/>
-    <mergeCell ref="H61:I61"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="H56:I56"/>
-    <mergeCell ref="H57:I57"/>
-    <mergeCell ref="H58:I58"/>
-    <mergeCell ref="H59:I59"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="H111:I111"/>
-    <mergeCell ref="H112:I112"/>
-    <mergeCell ref="H102:I102"/>
-    <mergeCell ref="H103:I103"/>
-    <mergeCell ref="H104:I104"/>
-    <mergeCell ref="H106:I106"/>
-    <mergeCell ref="H107:I107"/>
-    <mergeCell ref="H108:I108"/>
-    <mergeCell ref="H109:I109"/>
-    <mergeCell ref="H110:I110"/>
-    <mergeCell ref="H105:I105"/>
-    <mergeCell ref="H126:I126"/>
-    <mergeCell ref="H127:I127"/>
-    <mergeCell ref="H128:I128"/>
-    <mergeCell ref="H129:I129"/>
-    <mergeCell ref="H130:I130"/>
-    <mergeCell ref="H122:I122"/>
-    <mergeCell ref="H123:I123"/>
-    <mergeCell ref="H124:I124"/>
-    <mergeCell ref="H125:I125"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="H69:I69"/>
-    <mergeCell ref="H70:I70"/>
-    <mergeCell ref="H71:I71"/>
-    <mergeCell ref="H72:I72"/>
-    <mergeCell ref="H64:I64"/>
-    <mergeCell ref="H62:I62"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="H65:I65"/>
-    <mergeCell ref="H66:I66"/>
-    <mergeCell ref="H67:I67"/>
-    <mergeCell ref="H68:I68"/>
-    <mergeCell ref="H63:I63"/>
-    <mergeCell ref="H60:I60"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="H121:I121"/>
-    <mergeCell ref="H82:I82"/>
-    <mergeCell ref="H83:I83"/>
-    <mergeCell ref="H84:I84"/>
-    <mergeCell ref="H91:I91"/>
-    <mergeCell ref="H92:I92"/>
-    <mergeCell ref="H93:I93"/>
-    <mergeCell ref="H100:I100"/>
-    <mergeCell ref="H101:I101"/>
-    <mergeCell ref="H117:I117"/>
-    <mergeCell ref="H118:I118"/>
-    <mergeCell ref="H119:I119"/>
-    <mergeCell ref="H120:I120"/>
-    <mergeCell ref="H113:I113"/>
-    <mergeCell ref="H114:I114"/>
-    <mergeCell ref="H115:I115"/>
-    <mergeCell ref="H116:I116"/>
-    <mergeCell ref="H175:I175"/>
-    <mergeCell ref="H176:I176"/>
-    <mergeCell ref="H177:I177"/>
-    <mergeCell ref="H178:I178"/>
-    <mergeCell ref="H174:I174"/>
-    <mergeCell ref="H131:I131"/>
-    <mergeCell ref="H171:I171"/>
-    <mergeCell ref="H172:I172"/>
-    <mergeCell ref="H173:I173"/>
-    <mergeCell ref="H138:I138"/>
-    <mergeCell ref="H139:I139"/>
-    <mergeCell ref="H140:I140"/>
-    <mergeCell ref="H159:I159"/>
-    <mergeCell ref="H160:I160"/>
-    <mergeCell ref="H161:I161"/>
-    <mergeCell ref="H162:I162"/>
-    <mergeCell ref="H163:I163"/>
-    <mergeCell ref="H150:I150"/>
-    <mergeCell ref="H151:I151"/>
-    <mergeCell ref="H156:I156"/>
-    <mergeCell ref="H157:I157"/>
-    <mergeCell ref="H158:I158"/>
-    <mergeCell ref="H206:I206"/>
-    <mergeCell ref="H207:I207"/>
-    <mergeCell ref="H208:I208"/>
-    <mergeCell ref="H209:I209"/>
-    <mergeCell ref="H179:I179"/>
-    <mergeCell ref="H180:I180"/>
-    <mergeCell ref="H181:I181"/>
-    <mergeCell ref="H200:I200"/>
-    <mergeCell ref="H201:I201"/>
-    <mergeCell ref="H202:I202"/>
-    <mergeCell ref="H203:I203"/>
-    <mergeCell ref="H204:I204"/>
-    <mergeCell ref="H205:I205"/>
-    <mergeCell ref="H185:I185"/>
-    <mergeCell ref="H186:I186"/>
-    <mergeCell ref="H187:I187"/>
-    <mergeCell ref="H188:I188"/>
-    <mergeCell ref="H189:I189"/>
-    <mergeCell ref="H190:I190"/>
-    <mergeCell ref="H191:I191"/>
-    <mergeCell ref="H192:I192"/>
-    <mergeCell ref="H193:I193"/>
-    <mergeCell ref="H194:I194"/>
-    <mergeCell ref="H195:I195"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="H30:I30"/>
   </mergeCells>
   <conditionalFormatting sqref="R63:R1048576 R2:R61">
     <cfRule type="cellIs" dxfId="7" priority="5" operator="notBetween">
@@ -11384,54 +11393,62 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38517884-779F-4BC7-B6B1-F5D7B406D059}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>208</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D1" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="E1" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="F1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="15">
+      <c r="G1" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="13">
         <v>43745</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="13">
         <v>43768</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="15">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="13">
         <v>43775</v>
       </c>
     </row>

--- a/vrp_dss/Solve Times Summary.xlsx
+++ b/vrp_dss/Solve Times Summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\great\Documents\GitHub\VRP-DSS\vrp_dss\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4466D013-5D62-4460-889D-92D08F0AC57D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8638591-238D-4163-BD8B-82EA98589399}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="220">
   <si>
     <t># Customers</t>
   </si>
@@ -2985,12 +2985,12 @@
 </t>
   </si>
   <si>
+    <t>Archive Date</t>
+  </si>
+  <si>
     <t>Archive Routes</t>
   </si>
   <si>
-    <t>Archive Date</t>
-  </si>
-  <si>
     <t>Archive Cost</t>
   </si>
   <si>
@@ -3001,6 +3001,93 @@
   </si>
   <si>
     <t>Meta Penalty</t>
+  </si>
+  <si>
+    <t>{"2": [[[17, 24], [164, 4]], [[44, 30]], [[111, 3], [77, 27]], [[149, 28], [148, 2]], [[165, 30]], [[159, 19], [194, 11]], [[41, 30]], [[172, 30]], [[79, 30]], [[104, 30]], [[6, 23], [187, 7]], [[176, 30]], [[153, 30]], [[208, 30]], [[35, 30]], [[100, 30]], [[83, 20]], [[40, 30]], [[117, 7], [126, 14], [125, 9]], [[121, 12], [143, 11], [193, 7]], [[80, 20], [168, 9]], [[135, 5], [182, 15], [95, 10]], [[81, 30]], [[193, 12], [143, 18]], [[121, 19], [135, 10]]], "1": [[[75, 18]], [[149, 22]], [[24, 8], [25, 14]], [[207, 21]], [[72, 22]], [[119, 10], [2, 12]], [[157, 22]], [[46, 20]], [[188, 22]], [[186, 9], [53, 12]], [[130, 22]], [[83, 20]], [[116, 10], [177, 11], [203, 1]], [[27, 22]]], "0": [[[194, 16]], [[16, 10], [165, 4]], [[156, 16]], [[77, 11]], [[120, 11], [198, 5]], [[151, 16]], [[196, 8], [48, 5]], [[34, 14]], [[9, 15]], [[154, 13]], [[8, 16]], [[108, 11]], [[152, 15]], [[120, 12]], [[199, 1], [91, 6], [81, 6]], [[197, 14]], [[131, 16]], [[151, 9], [173, 7]], [[144, 12]], [[166, 6], [28, 2], [3, 8]], [[97, 13]], [[66, 15]]]}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rigid (capacity 16):
+81-H (16)
+186-V (9)
+8-B (16)
+121-O (16)
+135-P (15)
+173-T (7)
+130-P (16)
+208-Z (16)
+80-H (16)
+164-S (4) -&gt; 168-S (9)
+9-B (15)
+25-C (14)
+156-S (16)
+2-A (12)
+151-R (3) -&gt; 198-W (5) -&gt; 48-D (5)
+188-V (6) -&gt; 80-H (4) -&gt; 199-W (1)
+3-A (8) -&gt; 91-K (6)
+188-V (16)
+131-P (16)
+144-Q (12)
+148-R (2) -&gt; 111-M (3) -&gt; 77-H (8)
+8 Metre (capacity 22):
+66-G (15)
+119-O (10) -&gt; 83-H (10)
+151-R (22)
+120-O (1) -&gt; 97-K (13)
+75-H (18)
+120-O (22)
+72-G (22)
+108-M (11)
+152-R (15)
+34-C (14)
+121-O (15)
+193-V (19)
+19-B (10)
+196-W (8) -&gt; 53-E (12)
+11 Metre (capacity 30):
+194-V (27)
+166-S (6) -&gt; 17-B (24)
+28-C (2) -&gt; 95-K (10) -&gt; 197-W (14)
+35-C (30)
+40-C (30)
+104-M (30)
+100-L (30)
+153-S (30)
+159-S (19)
+6-B (23)
+157-S (22)
+126-P (14) -&gt; 154-S (13)
+83-H (30)
+176-T (30)
+187-V (7) -&gt; 27-C (22)
+149-R (30)
+44-D (30)
+149-R (20) -&gt; 165-S (4)
+41-C (30)
+79-H (30)
+24-B (8) -&gt; 16-B (10)
+165-S (30)
+172-S (30)
+125-P (9) -&gt; 117-N (7)
+207-Y (21) -&gt; 130-P (6)
+143-P (29)
+77-H (30)
+46-D (20) -&gt; 101-L (6)
+81-H (20)
+208-Z (14) -&gt; 182-U (15)
+203-W (1) -&gt; 177-T (11) -&gt; 116-N (10)
+</t>
+  </si>
+  <si>
+    <t>Difference (R)</t>
+  </si>
+  <si>
+    <t>Difference (%)</t>
+  </si>
+  <si>
+    <t>Meta Routes (Pretty)</t>
+  </si>
+  <si>
+    <t>Meta Routes (JSON)</t>
   </si>
 </sst>
 </file>
@@ -3071,10 +3158,10 @@
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -3290,7 +3377,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0F4E-487F-9991-AC940FA40B35}"/>
+              <c16:uniqueId val="{00000000-E5EE-4ECD-9B2B-E397DADBAD47}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3363,7 +3450,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-0F4E-487F-9991-AC940FA40B35}"/>
+              <c16:uniqueId val="{00000001-E5EE-4ECD-9B2B-E397DADBAD47}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3701,7 +3788,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-AD33-4D06-A575-B235B0844F42}"/>
+              <c16:uniqueId val="{00000000-3906-4646-9E1E-39ADFADFE9CA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3774,7 +3861,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-AD33-4D06-A575-B235B0844F42}"/>
+              <c16:uniqueId val="{00000001-3906-4646-9E1E-39ADFADFE9CA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4113,7 +4200,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-64C9-4E63-8DDD-F9557DD28953}"/>
+              <c16:uniqueId val="{00000000-0549-4629-AF31-D85C03267BAC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4186,7 +4273,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-64C9-4E63-8DDD-F9557DD28953}"/>
+              <c16:uniqueId val="{00000001-0549-4629-AF31-D85C03267BAC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4510,7 +4597,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-5392-47FD-BEA4-48B1DDEA6CFF}"/>
+              <c16:uniqueId val="{00000000-64DE-4EE5-8210-051E0268A9B9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4569,7 +4656,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-5392-47FD-BEA4-48B1DDEA6CFF}"/>
+              <c16:uniqueId val="{00000001-64DE-4EE5-8210-051E0268A9B9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4906,7 +4993,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-447A-41F6-904C-33E19B6B06F4}"/>
+              <c16:uniqueId val="{00000000-AE02-4F69-ADBF-1A10BEB2200F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4979,7 +5066,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-447A-41F6-904C-33E19B6B06F4}"/>
+              <c16:uniqueId val="{00000001-AE02-4F69-ADBF-1A10BEB2200F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5316,7 +5403,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-138E-47DC-B035-B7165B7982A8}"/>
+              <c16:uniqueId val="{00000000-BF70-42AC-8F7D-D9D3AEB59EA7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5389,7 +5476,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-138E-47DC-B035-B7165B7982A8}"/>
+              <c16:uniqueId val="{00000001-BF70-42AC-8F7D-D9D3AEB59EA7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5443,7 +5530,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-138E-47DC-B035-B7165B7982A8}"/>
+              <c16:uniqueId val="{00000002-BF70-42AC-8F7D-D9D3AEB59EA7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5497,7 +5584,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-138E-47DC-B035-B7165B7982A8}"/>
+              <c16:uniqueId val="{00000003-BF70-42AC-8F7D-D9D3AEB59EA7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6642,8 +6729,8 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup orientation="portrait"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6667,9 +6754,9 @@
     <col min="5" max="5" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.28515625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="150.7109375" style="12" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="12" customWidth="1"/>
-    <col min="10" max="10" width="12.140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="150.7109375" style="13" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="13" customWidth="1"/>
+    <col min="10" max="10" width="12.140625" style="13" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.85546875" style="2" customWidth="1"/>
     <col min="12" max="12" width="13.85546875" style="4" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="13.85546875" style="2" customWidth="1"/>
@@ -8773,11 +8860,11 @@
         <v>3</v>
       </c>
       <c r="D34">
-        <f t="shared" ref="D34:D61" si="6">E34/60</f>
+        <f t="shared" ref="D34:D65" si="6">E34/60</f>
         <v>0.43746666666666667</v>
       </c>
       <c r="E34">
-        <f t="shared" ref="E34:E61" si="7">F34/1000</f>
+        <f t="shared" ref="E34:E65" si="7">F34/1000</f>
         <v>26.248000000000001</v>
       </c>
       <c r="F34">
@@ -8813,7 +8900,7 @@
         <v>883.13909655706368</v>
       </c>
       <c r="Q34" s="4">
-        <f t="shared" ref="Q34:Q61" si="9">(P34-G34)/G34</f>
+        <f t="shared" ref="Q34:Q65" si="9">(P34-G34)/G34</f>
         <v>0.21471932406368316</v>
       </c>
       <c r="R34" s="8">
@@ -8821,7 +8908,7 @@
         <v>1.8746168374625772E-2</v>
       </c>
       <c r="S34" s="8">
-        <f t="shared" ref="S34:S61" si="11">ROUND(R34,5)</f>
+        <f t="shared" ref="S34:S65" si="11">ROUND(R34,5)</f>
         <v>1.8749999999999999E-2</v>
       </c>
     </row>
@@ -11392,31 +11479,34 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38517884-779F-4BC7-B6B1-F5D7B406D059}">
-  <dimension ref="A1:H4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="51.140625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="16" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>209</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>208</v>
       </c>
       <c r="C1" s="10" t="s">
         <v>210</v>
@@ -11425,30 +11515,62 @@
         <v>211</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>23</v>
+        <v>219</v>
       </c>
       <c r="F1" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="G1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="H1" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="I1" s="10" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="13">
+      <c r="J1" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="12">
         <v>43745</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="13">
+      <c r="B2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C2">
+        <v>469154.88979999977</v>
+      </c>
+      <c r="F2" t="s">
+        <v>215</v>
+      </c>
+      <c r="G2">
+        <v>3603.7618333999999</v>
+      </c>
+      <c r="H2">
+        <v>455532.2174666666</v>
+      </c>
+      <c r="J2">
+        <f>C2-H2</f>
+        <v>13622.672333333176</v>
+      </c>
+      <c r="K2" s="4">
+        <f>J2/C2</f>
+        <v>2.9036620164271349E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="12">
         <v>43768</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="13">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="12">
         <v>43775</v>
       </c>
     </row>

--- a/vrp_dss/Solve Times Summary.xlsx
+++ b/vrp_dss/Solve Times Summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\great\Documents\GitHub\VRP-DSS\vrp_dss\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8638591-238D-4163-BD8B-82EA98589399}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B04E67B4-2506-4683-BC9F-909ABCF06236}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="223">
   <si>
     <t># Customers</t>
   </si>
@@ -2997,10 +2997,22 @@
     <t>Archive Penalty</t>
   </si>
   <si>
+    <t>Meta Routes (JSON)</t>
+  </si>
+  <si>
+    <t>Meta Routes (Pretty)</t>
+  </si>
+  <si>
     <t>Meta Cost</t>
   </si>
   <si>
     <t>Meta Penalty</t>
+  </si>
+  <si>
+    <t>Difference (R)</t>
+  </si>
+  <si>
+    <t>Difference (%)</t>
   </si>
   <si>
     <t>{"2": [[[17, 24], [164, 4]], [[44, 30]], [[111, 3], [77, 27]], [[149, 28], [148, 2]], [[165, 30]], [[159, 19], [194, 11]], [[41, 30]], [[172, 30]], [[79, 30]], [[104, 30]], [[6, 23], [187, 7]], [[176, 30]], [[153, 30]], [[208, 30]], [[35, 30]], [[100, 30]], [[83, 20]], [[40, 30]], [[117, 7], [126, 14], [125, 9]], [[121, 12], [143, 11], [193, 7]], [[80, 20], [168, 9]], [[135, 5], [182, 15], [95, 10]], [[81, 30]], [[193, 12], [143, 18]], [[121, 19], [135, 10]]], "1": [[[75, 18]], [[149, 22]], [[24, 8], [25, 14]], [[207, 21]], [[72, 22]], [[119, 10], [2, 12]], [[157, 22]], [[46, 20]], [[188, 22]], [[186, 9], [53, 12]], [[130, 22]], [[83, 20]], [[116, 10], [177, 11], [203, 1]], [[27, 22]]], "0": [[[194, 16]], [[16, 10], [165, 4]], [[156, 16]], [[77, 11]], [[120, 11], [198, 5]], [[151, 16]], [[196, 8], [48, 5]], [[34, 14]], [[9, 15]], [[154, 13]], [[8, 16]], [[108, 11]], [[152, 15]], [[120, 12]], [[199, 1], [91, 6], [81, 6]], [[197, 14]], [[131, 16]], [[151, 9], [173, 7]], [[144, 12]], [[166, 6], [28, 2], [3, 8]], [[97, 13]], [[66, 15]]]}</t>
@@ -3078,16 +3090,22 @@
 </t>
   </si>
   <si>
-    <t>Difference (R)</t>
-  </si>
-  <si>
-    <t>Difference (%)</t>
-  </si>
-  <si>
-    <t>Meta Routes (Pretty)</t>
-  </si>
-  <si>
-    <t>Meta Routes (JSON)</t>
+    <t>{"0": [[[37, 10], [123, 1]], [[9, 10], [48, 4]], [[196, 13], [157, 3]], [[154, 14]], [[144, 3], [49, 3]], [[34, 16]], [[63, 16]], [[108, 9], [120, 7]], [[199, 10], [74, 5]], [[93, 9], [70, 7]], [[186, 14], [151, 1]], [[91, 13], [81, 2]], [[53, 13], [95, 3]], [[197, 16]], [[131, 12], [8, 4]], [[66, 12]], [[83, 13]], [[79, 7], [77, 7]], [[120, 9], [198, 7]], [[96, 16]], [[46, 15]], [[188, 15], [39, 1]], [[151, 14], [123, 1]], [[17, 16]], [[42, 12]], [[134, 10], [171, 2]], [[62, 1], [57, 15]], [[191, 2], [94, 5]]], "1": [[[192, 21]], [[38, 22]], [[33, 9], [4, 11]], [[88, 22]], [[82, 22]], [[68, 10], [1, 4], [18, 8]], [[207, 20]], [[83, 18], [2, 4]], [[119, 12], [2, 10]], [[18, 7], [200, 15]], [[3, 22]], [[157, 21]], [[163, 17], [3, 5]], [[66, 22]]], "2": [[[33, 30]], [[4, 30]], [[32, 27]], [[81, 30]], [[8, 30]], [[55, 30]], [[44, 30]], [[77, 30]], [[159, 24], [41, 6]], [[150, 8], [172, 20]], [[98, 16], [153, 14]], [[149, 24], [148, 6]], [[149, 30]], [[165, 30]], [[172, 30]], [[15, 28]], [[6, 14], [187, 8], [194, 8]], [[176, 16], [35, 5], [209, 9]], [[153, 30]], [[104, 30]], [[100, 30]], [[110, 19], [174, 5], [104, 6]], [[16, 30]], [[156, 12], [168, 8], [132, 10]], [[72, 30]], [[29, 29]], [[35, 30]], [[41, 30]], [[194, 30]], [[79, 30]], [[208, 24], [152, 4]], [[24, 25], [25, 5]], [[25, 30]], [[117, 6], [126, 10], [125, 14]], [[40, 30]], [[59, 28]], [[92, 30]], [[139, 15], [40, 15]], [[121, 6], [143, 5], [193, 3], [19, 6], [97, 10]], [[97, 27]], [[186, 1], [95, 12], [182, 7], [101, 10]], [[49, 21], [197, 9]], [[140, 30]]]}</t>
+  </si>
+  <si>
+    <t>{"0": [[[42, 12]], [[200, 15]], [[96, 16]], [[151, 15]]], "1": [[[156, 12], [46, 15], [192, 21], [1, 4], [68, 10], [18, 15], [72, 22], [199, 10], [134, 10], [120, 16], [72, 8], [108, 9], [207, 20], [98, 16], [194, 22], [187, 8], [41, 22], [6, 14], [194, 16], [40, 22], [41, 14], [95, 15], [152, 4], [53, 13], [2, 14], [121, 6], [19, 6], [81, 22]]], "2": [[[63, 16], [17, 16], [49, 24], [132, 10], [97, 30], [9, 10], [33, 30], [74, 5], [39, 1], [188, 15], [66, 30], [25, 30], [79, 30], [148, 6], [79, 7], [165, 30], [172, 30], [16, 30], [150, 8], [24, 25], [48, 4], [149, 24], [77, 7], [168, 8], [88, 22], [8, 4], [81, 10], [66, 4], [172, 20], [38, 22], [55, 30], [25, 5], [97, 7], [143, 5], [28, 6], [157, 24], [104, 30], [153, 30], [100, 30], [197, 25], [35, 5], [144, 3], [125, 14], [126, 10], [117, 6], [149, 30], [77, 30], [44, 30], [140, 30], [3, 27], [8, 30], [4, 30], [186, 15], [37, 10], [4, 11], [123, 2], [57, 15], [94, 5], [62, 1], [93, 9], [154, 14], [29, 29], [70, 7], [193, 3], [101, 10], [75, 7], [33, 9], [135, 5], [32, 27], [196, 13], [35, 30], [176, 16], [153, 14], [159, 24], [139, 15], [82, 22], [15, 28], [40, 23], [209, 9], [208, 24], [92, 30], [59, 28], [163, 17], [131, 12], [119, 12], [83, 1], [198, 7], [171, 2], [104, 6], [174, 5], [83, 30], [91, 13], [110, 19], [34, 16], [191, 2], [182, 7]]]}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rigid (capacity 16):
+42-C (12)
+200-W (15)
+96-K (16)
+151-R (15)
+8 Metre (capacity 22):
+156-S (12) -&gt; 46-D (15) -&gt; 192-V (21) -&gt; 1-A (4) -&gt; 68-G (10) -&gt; 18-B (15) -&gt; 72-G (22) -&gt; 199-W (10) -&gt; 134-P (10) -&gt; 120-O (16) -&gt; 72-G (8) -&gt; 108-M (9) -&gt; 207-Y (20) -&gt; 98-L (16) -&gt; 194-V (22) -&gt; 187-V (8) -&gt; 41-C (22) -&gt; 6-B (14) -&gt; 194-V (16) -&gt; 40-C (22) -&gt; 41-C (14) -&gt; 95-K (15) -&gt; 152-R (4) -&gt; 53-E (13) -&gt; 2-A (14) -&gt; 121-O (6) -&gt; 19-B (6) -&gt; 81-H (22)
+11 Metre (capacity 30):
+63-G (16) -&gt; 17-B (16) -&gt; 49-D (24) -&gt; 132-P (10) -&gt; 97-K (30) -&gt; 9-B (10) -&gt; 33-C (30) -&gt; 74-G (5) -&gt; 39-C (1) -&gt; 188-V (15) -&gt; 66-G (30) -&gt; 25-C (30) -&gt; 79-H (30) -&gt; 148-R (6) -&gt; 79-H (7) -&gt; 165-S (30) -&gt; 172-S (30) -&gt; 16-B (30) -&gt; 150-R (8) -&gt; 24-B (25) -&gt; 48-D (4) -&gt; 149-R (24) -&gt; 77-H (7) -&gt; 168-S (8) -&gt; 88-K (22) -&gt; 8-B (4) -&gt; 81-H (10) -&gt; 66-G (4) -&gt; 172-S (20) -&gt; 38-C (22) -&gt; 55-E (30) -&gt; 25-C (5) -&gt; 97-K (7) -&gt; 143-P (5) -&gt; 28-C (6) -&gt; 157-S (24) -&gt; 104-M (30) -&gt; 153-S (30) -&gt; 100-L (30) -&gt; 197-W (25) -&gt; 35-C (5) -&gt; 144-Q (3) -&gt; 125-P (14) -&gt; 126-P (10) -&gt; 117-N (6) -&gt; 149-R (30) -&gt; 77-H (30) -&gt; 44-D (30) -&gt; 140-P (30) -&gt; 3-A (27) -&gt; 8-B (30) -&gt; 4-A (30) -&gt; 186-V (15) -&gt; 37-C (10) -&gt; 4-A (11) -&gt; 123-O (2) -&gt; 57-F (15) -&gt; 94-K (5) -&gt; 62-G (1) -&gt; 93-K (9) -&gt; 154-S (14) -&gt; 29-C (29) -&gt; 70-G (7) -&gt; 193-V (3) -&gt; 101-L (10) -&gt; 75-H (7) -&gt; 33-C (9) -&gt; 135-P (5) -&gt; 32-C (27) -&gt; 196-W (13) -&gt; 35-C (30) -&gt; 176-T (16) -&gt; 153-S (14) -&gt; 159-S (24) -&gt; 139-P (15) -&gt; 82-H (22) -&gt; 15-B (28) -&gt; 40-C (23) -&gt; 209-Z (9) -&gt; 208-Z (24) -&gt; 92-K (30) -&gt; 59-G (28) -&gt; 163-S (17) -&gt; 131-P (12) -&gt; 119-O (12) -&gt; 83-H (1) -&gt; 198-W (7) -&gt; 171-S (2) -&gt; 104-M (6) -&gt; 174-T (5) -&gt; 83-H (30) -&gt; 91-K (13) -&gt; 110-M (19) -&gt; 34-C (16) -&gt; 191-V (2) -&gt; 182-U (7)
+</t>
   </si>
 </sst>
 </file>
@@ -3377,7 +3395,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-E5EE-4ECD-9B2B-E397DADBAD47}"/>
+              <c16:uniqueId val="{00000000-80EB-4E21-A3C9-EEC1972388FD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3450,7 +3468,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-E5EE-4ECD-9B2B-E397DADBAD47}"/>
+              <c16:uniqueId val="{00000001-80EB-4E21-A3C9-EEC1972388FD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3788,7 +3806,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3906-4646-9E1E-39ADFADFE9CA}"/>
+              <c16:uniqueId val="{00000000-D5E5-4DF1-887D-FE288AA9C341}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3861,7 +3879,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-3906-4646-9E1E-39ADFADFE9CA}"/>
+              <c16:uniqueId val="{00000001-D5E5-4DF1-887D-FE288AA9C341}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4200,7 +4218,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0549-4629-AF31-D85C03267BAC}"/>
+              <c16:uniqueId val="{00000000-05EA-4BD6-B13D-DB25E32032DA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4273,7 +4291,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-0549-4629-AF31-D85C03267BAC}"/>
+              <c16:uniqueId val="{00000001-05EA-4BD6-B13D-DB25E32032DA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4597,7 +4615,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-64DE-4EE5-8210-051E0268A9B9}"/>
+              <c16:uniqueId val="{00000000-8757-4B64-8CE4-8F44098BBEFF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4656,7 +4674,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-64DE-4EE5-8210-051E0268A9B9}"/>
+              <c16:uniqueId val="{00000001-8757-4B64-8CE4-8F44098BBEFF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4993,7 +5011,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-AE02-4F69-ADBF-1A10BEB2200F}"/>
+              <c16:uniqueId val="{00000000-AAF9-427E-B7EA-3FE51A89D5A3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5066,7 +5084,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-AE02-4F69-ADBF-1A10BEB2200F}"/>
+              <c16:uniqueId val="{00000001-AAF9-427E-B7EA-3FE51A89D5A3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5403,7 +5421,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-BF70-42AC-8F7D-D9D3AEB59EA7}"/>
+              <c16:uniqueId val="{00000000-2D6F-46E4-BA41-AB9837C74F60}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5476,7 +5494,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-BF70-42AC-8F7D-D9D3AEB59EA7}"/>
+              <c16:uniqueId val="{00000001-2D6F-46E4-BA41-AB9837C74F60}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5530,7 +5548,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-BF70-42AC-8F7D-D9D3AEB59EA7}"/>
+              <c16:uniqueId val="{00000002-2D6F-46E4-BA41-AB9837C74F60}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5584,7 +5602,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-BF70-42AC-8F7D-D9D3AEB59EA7}"/>
+              <c16:uniqueId val="{00000003-2D6F-46E4-BA41-AB9837C74F60}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -11483,7 +11501,7 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11497,8 +11515,8 @@
     <col min="7" max="7" width="16" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -11515,19 +11533,19 @@
         <v>211</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="G1" s="10" t="s">
         <v>7</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="J1" s="10" t="s">
         <v>216</v>
@@ -11541,13 +11559,13 @@
         <v>43745</v>
       </c>
       <c r="B2" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="C2">
         <v>469154.88979999977</v>
       </c>
       <c r="F2" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="G2">
         <v>3603.7618333999999</v>
@@ -11567,6 +11585,35 @@
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
         <v>43768</v>
+      </c>
+      <c r="B3" t="s">
+        <v>220</v>
+      </c>
+      <c r="C3">
+        <v>536358.08533333312</v>
+      </c>
+      <c r="E3" t="s">
+        <v>221</v>
+      </c>
+      <c r="F3" t="s">
+        <v>222</v>
+      </c>
+      <c r="G3">
+        <v>3603.2390693000002</v>
+      </c>
+      <c r="H3">
+        <v>234205.035</v>
+      </c>
+      <c r="I3">
+        <v>46576.329196977233</v>
+      </c>
+      <c r="J3" s="2">
+        <f>C3-(H3+I3*10)</f>
+        <v>-163610.24163643923</v>
+      </c>
+      <c r="K3" s="4">
+        <f>J3/C3</f>
+        <v>-0.30503920069510942</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">

--- a/vrp_dss/Solve Times Summary.xlsx
+++ b/vrp_dss/Solve Times Summary.xlsx
@@ -117,19 +117,19 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6D6D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C5700"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF6D6D"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3635,11 +3635,11 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="I2:J7">
-    <cfRule type="cellIs" priority="1" operator="notBetween" dxfId="3">
+    <cfRule type="cellIs" priority="1" operator="notBetween" dxfId="2">
       <formula>-0.1</formula>
       <formula>0.1</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="2" operator="greaterThan" dxfId="2">
+    <cfRule type="cellIs" priority="2" operator="greaterThan" dxfId="3">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" priority="3" operator="lessThan" dxfId="1">
@@ -3661,10 +3661,10 @@
   <dimension ref="A1:V208"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C44" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="I32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H67" sqref="H67:I67"/>
+      <selection pane="bottomRight" activeCell="O61" sqref="O61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -10288,21 +10288,22 @@
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t xml:space="preserve">11 metre (capacity 30):
-10 (5) -&gt; 12 (8) -&gt; 6 (6) -&gt; 14 (7) -&gt; 11 (4)
-3 (6) -&gt; 7 (6) -&gt; 1 (5) -&gt; 4 (4) -&gt; 2 (6)
+          <t xml:space="preserve">Rigid (capacity 16):
+15 (6) -&gt; 13 (6)
+5 (8) -&gt; 2 (6)
+10 (5) -&gt; 9 (2) -&gt; 8 (4)
 8 metre (capacity 22):
-Rigid (capacity 16):
-5 (8) -&gt; 8 (4) -&gt; 9 (2)
-15 (6) -&gt; 13 (6)
+3 (6) -&gt; 7 (6) -&gt; 1 (5) -&gt; 4 (4)
+11 metre (capacity 30):
+11 (4) -&gt; 14 (7) -&gt; 6 (6) -&gt; 12 (8)
 </t>
         </is>
       </c>
       <c r="O62" t="n">
-        <v>741.7026270000024</v>
+        <v>234.4752144</v>
       </c>
       <c r="P62" t="n">
-        <v>1212.417268828427</v>
+        <v>1212.81213521353</v>
       </c>
       <c r="Q62" s="4">
         <f>(P62-G62)/G62</f>
@@ -10757,6 +10758,189 @@
     </row>
   </sheetData>
   <mergeCells count="207">
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="H205:I205"/>
+    <mergeCell ref="H206:I206"/>
+    <mergeCell ref="H207:I207"/>
+    <mergeCell ref="H208:I208"/>
+    <mergeCell ref="H178:I178"/>
+    <mergeCell ref="H179:I179"/>
+    <mergeCell ref="H180:I180"/>
+    <mergeCell ref="H199:I199"/>
+    <mergeCell ref="H200:I200"/>
+    <mergeCell ref="H201:I201"/>
+    <mergeCell ref="H202:I202"/>
+    <mergeCell ref="H203:I203"/>
+    <mergeCell ref="H204:I204"/>
+    <mergeCell ref="H184:I184"/>
+    <mergeCell ref="H185:I185"/>
+    <mergeCell ref="H186:I186"/>
+    <mergeCell ref="H187:I187"/>
+    <mergeCell ref="H188:I188"/>
+    <mergeCell ref="H189:I189"/>
+    <mergeCell ref="H190:I190"/>
+    <mergeCell ref="H191:I191"/>
+    <mergeCell ref="H192:I192"/>
+    <mergeCell ref="H193:I193"/>
+    <mergeCell ref="H194:I194"/>
+    <mergeCell ref="H174:I174"/>
+    <mergeCell ref="H175:I175"/>
+    <mergeCell ref="H176:I176"/>
+    <mergeCell ref="H177:I177"/>
+    <mergeCell ref="H173:I173"/>
+    <mergeCell ref="H130:I130"/>
+    <mergeCell ref="H170:I170"/>
+    <mergeCell ref="H171:I171"/>
+    <mergeCell ref="H172:I172"/>
+    <mergeCell ref="H137:I137"/>
+    <mergeCell ref="H138:I138"/>
+    <mergeCell ref="H139:I139"/>
+    <mergeCell ref="H158:I158"/>
+    <mergeCell ref="H159:I159"/>
+    <mergeCell ref="H160:I160"/>
+    <mergeCell ref="H161:I161"/>
+    <mergeCell ref="H162:I162"/>
+    <mergeCell ref="H149:I149"/>
+    <mergeCell ref="H150:I150"/>
+    <mergeCell ref="H155:I155"/>
+    <mergeCell ref="H156:I156"/>
+    <mergeCell ref="H157:I157"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="H120:I120"/>
+    <mergeCell ref="H81:I81"/>
+    <mergeCell ref="H82:I82"/>
+    <mergeCell ref="H83:I83"/>
+    <mergeCell ref="H90:I90"/>
+    <mergeCell ref="H91:I91"/>
+    <mergeCell ref="H92:I92"/>
+    <mergeCell ref="H99:I99"/>
+    <mergeCell ref="H100:I100"/>
+    <mergeCell ref="H116:I116"/>
+    <mergeCell ref="H117:I117"/>
+    <mergeCell ref="H118:I118"/>
+    <mergeCell ref="H119:I119"/>
+    <mergeCell ref="H112:I112"/>
+    <mergeCell ref="H113:I113"/>
+    <mergeCell ref="H114:I114"/>
+    <mergeCell ref="H115:I115"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H68:I68"/>
+    <mergeCell ref="H69:I69"/>
+    <mergeCell ref="H70:I70"/>
+    <mergeCell ref="H71:I71"/>
+    <mergeCell ref="H63:I63"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="H64:I64"/>
+    <mergeCell ref="H65:I65"/>
+    <mergeCell ref="H66:I66"/>
+    <mergeCell ref="H67:I67"/>
+    <mergeCell ref="H62:I62"/>
+    <mergeCell ref="H60:I60"/>
+    <mergeCell ref="H61:I61"/>
+    <mergeCell ref="H125:I125"/>
+    <mergeCell ref="H126:I126"/>
+    <mergeCell ref="H127:I127"/>
+    <mergeCell ref="H128:I128"/>
+    <mergeCell ref="H129:I129"/>
+    <mergeCell ref="H121:I121"/>
+    <mergeCell ref="H122:I122"/>
+    <mergeCell ref="H123:I123"/>
+    <mergeCell ref="H124:I124"/>
+    <mergeCell ref="H110:I110"/>
+    <mergeCell ref="H111:I111"/>
+    <mergeCell ref="H101:I101"/>
+    <mergeCell ref="H102:I102"/>
+    <mergeCell ref="H103:I103"/>
+    <mergeCell ref="H105:I105"/>
+    <mergeCell ref="H106:I106"/>
+    <mergeCell ref="H107:I107"/>
+    <mergeCell ref="H108:I108"/>
+    <mergeCell ref="H109:I109"/>
+    <mergeCell ref="H104:I104"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="H57:I57"/>
+    <mergeCell ref="H58:I58"/>
+    <mergeCell ref="H59:I59"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="H152:I152"/>
+    <mergeCell ref="H153:I153"/>
+    <mergeCell ref="H154:I154"/>
+    <mergeCell ref="H140:I140"/>
+    <mergeCell ref="H141:I141"/>
+    <mergeCell ref="H142:I142"/>
+    <mergeCell ref="H143:I143"/>
+    <mergeCell ref="H144:I144"/>
+    <mergeCell ref="H145:I145"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="H93:I93"/>
+    <mergeCell ref="H94:I94"/>
+    <mergeCell ref="H95:I95"/>
+    <mergeCell ref="H96:I96"/>
+    <mergeCell ref="H97:I97"/>
+    <mergeCell ref="H98:I98"/>
+    <mergeCell ref="H72:I72"/>
+    <mergeCell ref="H73:I73"/>
+    <mergeCell ref="H74:I74"/>
+    <mergeCell ref="H75:I75"/>
+    <mergeCell ref="H86:I86"/>
+    <mergeCell ref="H87:I87"/>
+    <mergeCell ref="H88:I88"/>
+    <mergeCell ref="H89:I89"/>
+    <mergeCell ref="H76:I76"/>
+    <mergeCell ref="H84:I84"/>
+    <mergeCell ref="H85:I85"/>
+    <mergeCell ref="H77:I77"/>
+    <mergeCell ref="H78:I78"/>
+    <mergeCell ref="H79:I79"/>
+    <mergeCell ref="H80:I80"/>
     <mergeCell ref="H195:I195"/>
     <mergeCell ref="H196:I196"/>
     <mergeCell ref="H197:I197"/>
@@ -10781,196 +10965,13 @@
     <mergeCell ref="H147:I147"/>
     <mergeCell ref="H148:I148"/>
     <mergeCell ref="H151:I151"/>
-    <mergeCell ref="H72:I72"/>
-    <mergeCell ref="H73:I73"/>
-    <mergeCell ref="H74:I74"/>
-    <mergeCell ref="H75:I75"/>
-    <mergeCell ref="H86:I86"/>
-    <mergeCell ref="H87:I87"/>
-    <mergeCell ref="H88:I88"/>
-    <mergeCell ref="H89:I89"/>
-    <mergeCell ref="H76:I76"/>
-    <mergeCell ref="H84:I84"/>
-    <mergeCell ref="H85:I85"/>
-    <mergeCell ref="H77:I77"/>
-    <mergeCell ref="H78:I78"/>
-    <mergeCell ref="H79:I79"/>
-    <mergeCell ref="H80:I80"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="H152:I152"/>
-    <mergeCell ref="H153:I153"/>
-    <mergeCell ref="H154:I154"/>
-    <mergeCell ref="H140:I140"/>
-    <mergeCell ref="H141:I141"/>
-    <mergeCell ref="H142:I142"/>
-    <mergeCell ref="H143:I143"/>
-    <mergeCell ref="H144:I144"/>
-    <mergeCell ref="H145:I145"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="H93:I93"/>
-    <mergeCell ref="H94:I94"/>
-    <mergeCell ref="H95:I95"/>
-    <mergeCell ref="H96:I96"/>
-    <mergeCell ref="H97:I97"/>
-    <mergeCell ref="H98:I98"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="H56:I56"/>
-    <mergeCell ref="H57:I57"/>
-    <mergeCell ref="H58:I58"/>
-    <mergeCell ref="H59:I59"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="H110:I110"/>
-    <mergeCell ref="H111:I111"/>
-    <mergeCell ref="H101:I101"/>
-    <mergeCell ref="H102:I102"/>
-    <mergeCell ref="H103:I103"/>
-    <mergeCell ref="H105:I105"/>
-    <mergeCell ref="H106:I106"/>
-    <mergeCell ref="H107:I107"/>
-    <mergeCell ref="H108:I108"/>
-    <mergeCell ref="H109:I109"/>
-    <mergeCell ref="H104:I104"/>
-    <mergeCell ref="H125:I125"/>
-    <mergeCell ref="H126:I126"/>
-    <mergeCell ref="H127:I127"/>
-    <mergeCell ref="H128:I128"/>
-    <mergeCell ref="H129:I129"/>
-    <mergeCell ref="H121:I121"/>
-    <mergeCell ref="H122:I122"/>
-    <mergeCell ref="H123:I123"/>
-    <mergeCell ref="H124:I124"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="H68:I68"/>
-    <mergeCell ref="H69:I69"/>
-    <mergeCell ref="H70:I70"/>
-    <mergeCell ref="H71:I71"/>
-    <mergeCell ref="H63:I63"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="H64:I64"/>
-    <mergeCell ref="H65:I65"/>
-    <mergeCell ref="H66:I66"/>
-    <mergeCell ref="H67:I67"/>
-    <mergeCell ref="H62:I62"/>
-    <mergeCell ref="H60:I60"/>
-    <mergeCell ref="H61:I61"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="H120:I120"/>
-    <mergeCell ref="H81:I81"/>
-    <mergeCell ref="H82:I82"/>
-    <mergeCell ref="H83:I83"/>
-    <mergeCell ref="H90:I90"/>
-    <mergeCell ref="H91:I91"/>
-    <mergeCell ref="H92:I92"/>
-    <mergeCell ref="H99:I99"/>
-    <mergeCell ref="H100:I100"/>
-    <mergeCell ref="H116:I116"/>
-    <mergeCell ref="H117:I117"/>
-    <mergeCell ref="H118:I118"/>
-    <mergeCell ref="H119:I119"/>
-    <mergeCell ref="H112:I112"/>
-    <mergeCell ref="H113:I113"/>
-    <mergeCell ref="H114:I114"/>
-    <mergeCell ref="H115:I115"/>
-    <mergeCell ref="H174:I174"/>
-    <mergeCell ref="H175:I175"/>
-    <mergeCell ref="H176:I176"/>
-    <mergeCell ref="H177:I177"/>
-    <mergeCell ref="H173:I173"/>
-    <mergeCell ref="H130:I130"/>
-    <mergeCell ref="H170:I170"/>
-    <mergeCell ref="H171:I171"/>
-    <mergeCell ref="H172:I172"/>
-    <mergeCell ref="H137:I137"/>
-    <mergeCell ref="H138:I138"/>
-    <mergeCell ref="H139:I139"/>
-    <mergeCell ref="H158:I158"/>
-    <mergeCell ref="H159:I159"/>
-    <mergeCell ref="H160:I160"/>
-    <mergeCell ref="H161:I161"/>
-    <mergeCell ref="H162:I162"/>
-    <mergeCell ref="H149:I149"/>
-    <mergeCell ref="H150:I150"/>
-    <mergeCell ref="H155:I155"/>
-    <mergeCell ref="H156:I156"/>
-    <mergeCell ref="H157:I157"/>
-    <mergeCell ref="H205:I205"/>
-    <mergeCell ref="H206:I206"/>
-    <mergeCell ref="H207:I207"/>
-    <mergeCell ref="H208:I208"/>
-    <mergeCell ref="H178:I178"/>
-    <mergeCell ref="H179:I179"/>
-    <mergeCell ref="H180:I180"/>
-    <mergeCell ref="H199:I199"/>
-    <mergeCell ref="H200:I200"/>
-    <mergeCell ref="H201:I201"/>
-    <mergeCell ref="H202:I202"/>
-    <mergeCell ref="H203:I203"/>
-    <mergeCell ref="H204:I204"/>
-    <mergeCell ref="H184:I184"/>
-    <mergeCell ref="H185:I185"/>
-    <mergeCell ref="H186:I186"/>
-    <mergeCell ref="H187:I187"/>
-    <mergeCell ref="H188:I188"/>
-    <mergeCell ref="H189:I189"/>
-    <mergeCell ref="H190:I190"/>
-    <mergeCell ref="H191:I191"/>
-    <mergeCell ref="H192:I192"/>
-    <mergeCell ref="H193:I193"/>
-    <mergeCell ref="H194:I194"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="H30:I30"/>
   </mergeCells>
   <conditionalFormatting sqref="R2:R61 R63:R1048576">
-    <cfRule type="cellIs" priority="21" operator="notBetween" dxfId="3">
+    <cfRule type="cellIs" priority="21" operator="notBetween" dxfId="2">
       <formula>-0.1</formula>
       <formula>0.1</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="22" operator="greaterThan" dxfId="2">
+    <cfRule type="cellIs" priority="22" operator="greaterThan" dxfId="3">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" priority="24" operator="lessThan" dxfId="1">
@@ -10983,11 +10984,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S2:S61 S63:S1048576">
-    <cfRule type="cellIs" priority="20" operator="notBetween" dxfId="3">
+    <cfRule type="cellIs" priority="20" operator="notBetween" dxfId="2">
       <formula>-0.1</formula>
       <formula>0.1</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="19" operator="greaterThan" dxfId="2">
+    <cfRule type="cellIs" priority="19" operator="greaterThan" dxfId="3">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" priority="25" operator="lessThan" dxfId="1">
@@ -11000,11 +11001,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R62">
-    <cfRule type="cellIs" priority="4" operator="notBetween" dxfId="3">
+    <cfRule type="cellIs" priority="4" operator="notBetween" dxfId="2">
       <formula>-0.1</formula>
       <formula>0.1</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="5" operator="greaterThan" dxfId="2">
+    <cfRule type="cellIs" priority="5" operator="greaterThan" dxfId="3">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" priority="7" operator="lessThan" dxfId="1">
@@ -11017,10 +11018,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S62">
-    <cfRule type="cellIs" priority="2" operator="greaterThan" dxfId="2">
+    <cfRule type="cellIs" priority="2" operator="greaterThan" dxfId="3">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="3" operator="notBetween" dxfId="3">
+    <cfRule type="cellIs" priority="3" operator="notBetween" dxfId="2">
       <formula>-0.1</formula>
       <formula>0.1</formula>
     </cfRule>
@@ -11233,38 +11234,32 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>536358.0853333331</v>
+        <v>592286.4353333331</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>{"0": [[[186, 15], [68, 10], [154, 14], [93, 9], [4, 16], [131, 12], [9, 10], [4, 16], [120, 16], [62, 1], [1, 4]]], "1": [[[75, 7], [70, 7]], [[4, 22]], [[37, 10], [8, 22], [135, 5]], [[57, 15], [94, 5]], [[119, 12], [83, 22], [19, 6], [171, 2]], [[96, 16]], [[42, 12]]], "2": [[[55, 30], [49, 24], [24, 25], [140, 30], [149, 30], [77, 30], [44, 30], [92, 30], [38, 22], [39, 1], [188, 15], [132, 10], [150, 8], [16, 30], [25, 30], [81, 30], [91, 13], [199, 10], [88, 22], [17, 16], [104, 30], [110, 19], [15, 28], [139, 15], [40, 30], [194, 30], [187, 8], [6, 14], [41, 30], [35, 5], [176, 16], [172, 30], [79, 30], [66, 30], [156, 12], [97, 30], [157, 24], [95, 15], [200, 15], [192, 21], [18, 15], [32, 27], [53, 13], [34, 16], [63, 16], [81, 2], [143, 5], [33, 30], [48, 4], [196, 13], [197, 25], [35, 30], [40, 15], [148, 6], [165, 30], [172, 20], [25, 5], [151, 15], [123, 2], [72, 30], [163, 17], [193, 3], [28, 6], [66, 4], [59, 28], [74, 5], [168, 8], [46, 15], [97, 7], [3, 27], [191, 2], [29, 29], [108, 9], [152, 4], [174, 5], [207, 20], [100, 30], [153, 30], [159, 24], [98, 16], [153, 14], [82, 22], [41, 6], [194, 8], [125, 14], [117, 6], [209, 9], [101, 10], [8, 30], [134, 10], [77, 7], [149, 24], [33, 9], [144, 3], [182, 7], [121, 6], [198, 7], [2, 14], [83, 30], [104, 6], [126, 10], [208, 24], [79, 7]]]}</t>
+          <t>{"0": [[[74, 5], [48, 4], [33, 16], [9, 10], [121, 6], [95, 15], [182, 7], [28, 6], [19, 6], [81, 16], [94, 5], [83, 16], [119, 12], [154, 14], [93, 9], [2, 14], [83, 15], [70, 7], [68, 10], [18, 15], [171, 2], [126, 10], [117, 6], [209, 9], [193, 3], [75, 7], [17, 16], [125, 14], [98, 16], [35, 16], [66, 16], [188, 15]]], "1": [[[144, 3], [4, 19], [55, 22], [39, 1], [134, 10], [88, 22], [101, 10], [25, 22], [37, 10], [186, 15], [34, 16], [104, 22], [57, 15], [62, 1], [123, 2], [151, 15], [176, 16], [15, 22], [72, 22], [8, 0], [139, 15], [15, 0], [159, 22], [152, 4], [135, 5], [33, 22], [8, 0], [38, 22], [96, 16], [198, 7], [174, 5], [40, 22], [194, 22], [41, 22], [40, 22], [187, 8], [194, 16], [40, 1], [104, 14], [196, 13], [207, 20], [153, 22], [108, 9], [33, 17], [131, 12], [199, 10], [91, 13], [81, 22], [168, 8], [156, 12], [72, 8], [200, 15], [1, 4], [192, 21], [191, 2], [157, 22], [97, 0], [46, 15], [4, 0], [110, 19], [3, 0], [163, 17], [157, 2], [153, 22], [82, 22], [159, 2], [3, 0], [53, 13]]], "2": [[[42, 12], [120, 16], [197, 25], [32, 27], [6, 14], [41, 30], [132, 10], [16, 30], [172, 20], [79, 30], [148, 6], [44, 30], [77, 30], [150, 8], [24, 25], [66, 30], [25, 5], [172, 20], [79, 0], [149, 30], [77, 0], [165, 30], [149, 24], [140, 30], [35, 5], [97, 21], [59, 28], [92, 30], [55, 30], [49, 24], [143, 5], [208, 24], [63, 16], [100, 30], [29, 29]]]}</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
           <t xml:space="preserve">Rigid (capacity 16):
-186-V (15) -&gt; 68-G (10) -&gt; 154-S (14) -&gt; 93-K (9) -&gt; 4-A (16) -&gt; 131-P (12) -&gt; 9-B (10) -&gt; 4-A (16) -&gt; 120-O (16) -&gt; 62-G (1) -&gt; 1-A (4)
+74-G (5) -&gt; 48-D (4) -&gt; 33-C (16) -&gt; 9-B (10) -&gt; 121-O (6) -&gt; 95-K (15) -&gt; 182-U (7) -&gt; 28-C (6) -&gt; 19-B (6) -&gt; 81-H (16) -&gt; 94-K (5) -&gt; 83-H (16) -&gt; 119-O (12) -&gt; 154-S (14) -&gt; 93-K (9) -&gt; 2-A (14) -&gt; 83-H (15) -&gt; 70-G (7) -&gt; 68-G (10) -&gt; 18-B (15) -&gt; 171-S (2) -&gt; 126-P (10) -&gt; 117-N (6) -&gt; 209-Z (9) -&gt; 193-V (3) -&gt; 75-H (7) -&gt; 17-B (16) -&gt; 125-P (14) -&gt; 98-L (16) -&gt; 35-C (16) -&gt; 66-G (16) -&gt; 188-V (15)
 8 Metre (capacity 22):
-75-H (7) -&gt; 70-G (7)
-4-A (22)
-37-C (10) -&gt; 8-B (22) -&gt; 135-P (5)
-57-F (15) -&gt; 94-K (5)
-119-O (12) -&gt; 83-H (22) -&gt; 19-B (6) -&gt; 171-S (2)
-96-K (16)
-42-C (12)
+144-Q (3) -&gt; 4-A (19) -&gt; 55-E (22) -&gt; 39-C (1) -&gt; 134-P (10) -&gt; 88-K (22) -&gt; 101-L (10) -&gt; 25-C (22) -&gt; 37-C (10) -&gt; 186-V (15) -&gt; 34-C (16) -&gt; 104-M (22) -&gt; 57-F (15) -&gt; 62-G (1) -&gt; 123-O (2) -&gt; 151-R (15) -&gt; 176-T (16) -&gt; 15-B (22) -&gt; 72-G (22) -&gt; 8-B (0) -&gt; 139-P (15) -&gt; 15-B (0) -&gt; 159-S (22) -&gt; 152-R (4) -&gt; 135-P (5) -&gt; 33-C (22) -&gt; 8-B (0) -&gt; 38-C (22) -&gt; 96-K (16) -&gt; 198-W (7) -&gt; 174-T (5) -&gt; 40-C (22) -&gt; 194-V (22) -&gt; 41-C (22) -&gt; 40-C (22) -&gt; 187-V (8) -&gt; 194-V (16) -&gt; 40-C (1) -&gt; 104-M (14) -&gt; 196-W (13) -&gt; 207-Y (20) -&gt; 153-S (22) -&gt; 108-M (9) -&gt; 33-C (17) -&gt; 131-P (12) -&gt; 199-W (10) -&gt; 91-K (13) -&gt; 81-H (22) -&gt; 168-S (8) -&gt; 156-S (12) -&gt; 72-G (8) -&gt; 200-W (15) -&gt; 1-A (4) -&gt; 192-V (21) -&gt; 191-V (2) -&gt; 157-S (22) -&gt; 97-K (0) -&gt; 46-D (15) -&gt; 4-A (0) -&gt; 110-M (19) -&gt; 3-A (0) -&gt; 163-S (17) -&gt; 157-S (2) -&gt; 153-S (22) -&gt; 82-H (22) -&gt; 159-S (2) -&gt; 3-A (0) -&gt; 53-E (13)
 11 Metre (capacity 30):
-55-E (30) -&gt; 49-D (24) -&gt; 24-B (25) -&gt; 140-P (30) -&gt; 149-R (30) -&gt; 77-H (30) -&gt; 44-D (30) -&gt; 92-K (30) -&gt; 38-C (22) -&gt; 39-C (1) -&gt; 188-V (15) -&gt; 132-P (10) -&gt; 150-R (8) -&gt; 16-B (30) -&gt; 25-C (30) -&gt; 81-H (30) -&gt; 91-K (13) -&gt; 199-W (10) -&gt; 88-K (22) -&gt; 17-B (16) -&gt; 104-M (30) -&gt; 110-M (19) -&gt; 15-B (28) -&gt; 139-P (15) -&gt; 40-C (30) -&gt; 194-V (30) -&gt; 187-V (8) -&gt; 6-B (14) -&gt; 41-C (30) -&gt; 35-C (5) -&gt; 176-T (16) -&gt; 172-S (30) -&gt; 79-H (30) -&gt; 66-G (30) -&gt; 156-S (12) -&gt; 97-K (30) -&gt; 157-S (24) -&gt; 95-K (15) -&gt; 200-W (15) -&gt; 192-V (21) -&gt; 18-B (15) -&gt; 32-C (27) -&gt; 53-E (13) -&gt; 34-C (16) -&gt; 63-G (16) -&gt; 81-H (2) -&gt; 143-P (5) -&gt; 33-C (30) -&gt; 48-D (4) -&gt; 196-W (13) -&gt; 197-W (25) -&gt; 35-C (30) -&gt; 40-C (15) -&gt; 148-R (6) -&gt; 165-S (30) -&gt; 172-S (20) -&gt; 25-C (5) -&gt; 151-R (15) -&gt; 123-O (2) -&gt; 72-G (30) -&gt; 163-S (17) -&gt; 193-V (3) -&gt; 28-C (6) -&gt; 66-G (4) -&gt; 59-G (28) -&gt; 74-G (5) -&gt; 168-S (8) -&gt; 46-D (15) -&gt; 97-K (7) -&gt; 3-A (27) -&gt; 191-V (2) -&gt; 29-C (29) -&gt; 108-M (9) -&gt; 152-R (4) -&gt; 174-T (5) -&gt; 207-Y (20) -&gt; 100-L (30) -&gt; 153-S (30) -&gt; 159-S (24) -&gt; 98-L (16) -&gt; 153-S (14) -&gt; 82-H (22) -&gt; 41-C (6) -&gt; 194-V (8) -&gt; 125-P (14) -&gt; 117-N (6) -&gt; 209-Z (9) -&gt; 101-L (10) -&gt; 8-B (30) -&gt; 134-P (10) -&gt; 77-H (7) -&gt; 149-R (24) -&gt; 33-C (9) -&gt; 144-Q (3) -&gt; 182-U (7) -&gt; 121-O (6) -&gt; 198-W (7) -&gt; 2-A (14) -&gt; 83-H (30) -&gt; 104-M (6) -&gt; 126-P (10) -&gt; 208-Z (24) -&gt; 79-H (7)
+42-C (12) -&gt; 120-O (16) -&gt; 197-W (25) -&gt; 32-C (27) -&gt; 6-B (14) -&gt; 41-C (30) -&gt; 132-P (10) -&gt; 16-B (30) -&gt; 172-S (20) -&gt; 79-H (30) -&gt; 148-R (6) -&gt; 44-D (30) -&gt; 77-H (30) -&gt; 150-R (8) -&gt; 24-B (25) -&gt; 66-G (30) -&gt; 25-C (5) -&gt; 172-S (20) -&gt; 79-H (0) -&gt; 149-R (30) -&gt; 77-H (0) -&gt; 165-S (30) -&gt; 149-R (24) -&gt; 140-P (30) -&gt; 35-C (5) -&gt; 97-K (21) -&gt; 59-G (28) -&gt; 92-K (30) -&gt; 55-E (30) -&gt; 49-D (24) -&gt; 143-P (5) -&gt; 208-Z (24) -&gt; 63-G (16) -&gt; 100-L (30) -&gt; 29-C (29)
 </t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>10802.7438791</v>
+        <v>3601.575652</v>
       </c>
       <c r="H3" t="n">
-        <v>242696.6186666666</v>
+        <v>266390.1040000001</v>
       </c>
       <c r="I3" t="n">
-        <v>2507119.458295451</v>
+        <v>72648.50251580951</v>
       </c>
       <c r="J3">
         <f>C3-(H3+I3*10)</f>

--- a/vrp_dss/Solve Times Summary.xlsx
+++ b/vrp_dss/Solve Times Summary.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Graphs" sheetId="1" state="visible" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <numFmt numFmtId="164" formatCode="0.000%"/>
     <numFmt numFmtId="165" formatCode="0.00000%"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="6">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -44,13 +44,49 @@
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color rgb="FF9C5700"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -62,11 +98,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
@@ -80,7 +119,9 @@
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
@@ -90,10 +131,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="15" fontId="4" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="3"/>
+    <xf numFmtId="15" fontId="3" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="2"/>
+    <xf numFmtId="15" fontId="5" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="4"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="5">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
+    <cellStyle name="Good" xfId="2" builtinId="26"/>
+    <cellStyle name="Bad" xfId="3" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="4" builtinId="28"/>
   </cellStyles>
   <dxfs count="19">
     <dxf>
@@ -801,13 +848,13 @@
                 <formatCode>General</formatCode>
                 <ptCount val="3"/>
                 <pt idx="0">
-                  <v>281.1203354</v>
+                  <v>248.36392408</v>
                 </pt>
                 <pt idx="1">
-                  <v>417.3269438799999</v>
+                  <v>371.6756806900001</v>
                 </pt>
                 <pt idx="2">
-                  <v>724.82864351</v>
+                  <v>537.5725834300001</v>
                 </pt>
               </numCache>
             </numRef>
@@ -869,13 +916,13 @@
                 <formatCode>General</formatCode>
                 <ptCount val="3"/>
                 <pt idx="0">
-                  <v>313.6798690800001</v>
+                  <v>259.5535755800001</v>
                 </pt>
                 <pt idx="1">
-                  <v>483.74806733</v>
+                  <v>393.3559107399998</v>
                 </pt>
                 <pt idx="2">
-                  <v>724.0348672500002</v>
+                  <v>642.3157155900002</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1196,13 +1243,13 @@
                 <formatCode>0.00%</formatCode>
                 <ptCount val="3"/>
                 <pt idx="0">
-                  <v>-0.008496755677928482</v>
+                  <v>-0.01156526716209559</v>
                 </pt>
                 <pt idx="1">
-                  <v>-0.01060986420560815</v>
+                  <v>-0.01060943282509886</v>
                 </pt>
                 <pt idx="2">
-                  <v>-0.01059784314491593</v>
+                  <v>3.002299032413779</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1264,13 +1311,13 @@
                 <formatCode>0.00%</formatCode>
                 <ptCount val="3"/>
                 <pt idx="0">
-                  <v>-0.01448237860497617</v>
+                  <v>-0.01122460091527198</v>
                 </pt>
                 <pt idx="1">
-                  <v>-0.0008080817553967817</v>
+                  <v>0.01322179491490654</v>
                 </pt>
                 <pt idx="2">
-                  <v>-0.02014286014801766</v>
+                  <v>-0.00821107375936006</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1577,13 +1624,13 @@
                 <formatCode>0</formatCode>
                 <ptCount val="3"/>
                 <pt idx="0">
-                  <v>5</v>
+                  <v>6</v>
                 </pt>
                 <pt idx="1">
                   <v>7</v>
                 </pt>
                 <pt idx="2">
-                  <v>7</v>
+                  <v>6</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1634,7 +1681,7 @@
                   <v>2</v>
                 </pt>
                 <pt idx="1">
-                  <v>6</v>
+                  <v>3</v>
                 </pt>
                 <pt idx="2">
                   <v>1</v>
@@ -1955,13 +2002,13 @@
                 <formatCode>0.00%</formatCode>
                 <ptCount val="3"/>
                 <pt idx="0">
-                  <v>-0.008496755677928482</v>
+                  <v>-0.01156526716209559</v>
                 </pt>
                 <pt idx="1">
-                  <v>-0.01060986420560815</v>
+                  <v>-0.01060943282509886</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.01055830368643872</v>
+                  <v>3.358221276541197</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2023,13 +2070,13 @@
                 <formatCode>0.00%</formatCode>
                 <ptCount val="3"/>
                 <pt idx="0">
-                  <v>-0.0004885318303873518</v>
+                  <v>0.00060018667944594</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.01452658024087916</v>
+                  <v>0.03011533209677175</v>
                 </pt>
                 <pt idx="2">
-                  <v>-0.006035948649591364</v>
+                  <v>0.006668596132344186</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2348,13 +2395,13 @@
                 <formatCode>General</formatCode>
                 <ptCount val="3"/>
                 <pt idx="0">
-                  <v>281.1203354</v>
+                  <v>248.36392408</v>
                 </pt>
                 <pt idx="1">
-                  <v>417.3269438799999</v>
+                  <v>371.6756806900001</v>
                 </pt>
                 <pt idx="2">
-                  <v>724.82864351</v>
+                  <v>537.5725834300001</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2416,13 +2463,13 @@
                 <formatCode>General</formatCode>
                 <ptCount val="3"/>
                 <pt idx="0">
-                  <v>313.6798690800001</v>
+                  <v>259.5535755800001</v>
                 </pt>
                 <pt idx="1">
-                  <v>483.74806733</v>
+                  <v>393.3559107399998</v>
                 </pt>
                 <pt idx="2">
-                  <v>724.0348672500002</v>
+                  <v>642.3157155900002</v>
                 </pt>
               </numCache>
             </numRef>
@@ -3660,11 +3707,11 @@
   </sheetPr>
   <dimension ref="A1:V208"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="I32" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O61" sqref="O61"/>
+      <selection pane="bottomRight" activeCell="Q19" sqref="Q19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -3844,7 +3891,7 @@
         </is>
       </c>
       <c r="K2" t="n">
-        <v>681.6470555638167</v>
+        <v>681.3944735908287</v>
       </c>
       <c r="L2" s="4" t="n">
         <v>0.1894691799941965</v>
@@ -3855,18 +3902,18 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t xml:space="preserve">8 metre (capacity 22):
-6 (6) -&gt; 9 (9)
-11 metre (capacity 30):
-7 (5) -&gt; 8 (2) -&gt; 3 (2) -&gt; 1 (5) -&gt; 5 (3) -&gt; 4 (6) -&gt; 2 (1)
+          <t xml:space="preserve">11 metre (capacity 30):
+6 (6) -&gt; 2 (1) -&gt; 4 (6) -&gt; 5 (3) -&gt; 1 (5) -&gt; 3 (2) -&gt; 8 (2) -&gt; 7 (5)
+8 metre (capacity 22):
+9 (9)
 </t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>262.4696638</v>
+        <v>233.5733909</v>
       </c>
       <c r="P2" t="n">
-        <v>737.8909945016305</v>
+        <v>681.3944735908287</v>
       </c>
       <c r="Q2" s="4">
         <f>(P2-G2)/G2</f>
@@ -3954,15 +4001,15 @@
       <c r="N3" t="inlineStr">
         <is>
           <t xml:space="preserve">Rigid (capacity 16):
+8 metre (capacity 22):
+6 (6) -&gt; 1 (7) -&gt; 2 (3)
 11 metre (capacity 30):
-8 (8) -&gt; 4 (2) -&gt; 3 (6) -&gt; 5 (3) -&gt; 7 (8) -&gt; 9 (1)
-8 metre (capacity 22):
-2 (3) -&gt; 1 (7) -&gt; 6 (6)
+9 (1) -&gt; 7 (8) -&gt; 5 (3) -&gt; 3 (6) -&gt; 4 (2) -&gt; 8 (8)
 </t>
         </is>
       </c>
       <c r="O3" t="n">
-        <v>278.0197951</v>
+        <v>237.247164</v>
       </c>
       <c r="P3" t="n">
         <v>662.804511678134</v>
@@ -4049,7 +4096,7 @@
         </is>
       </c>
       <c r="K4" t="n">
-        <v>1121.506775041001</v>
+        <v>1121.506653578627</v>
       </c>
       <c r="L4" s="4" t="n">
         <v>0.1888574501594993</v>
@@ -4061,16 +4108,16 @@
       <c r="N4" t="inlineStr">
         <is>
           <t xml:space="preserve">Rigid (capacity 16):
-2 (2) -&gt; 5 (1) -&gt; 8 (2) -&gt; 3 (3) -&gt; 7 (3) -&gt; 4 (1) -&gt; 9 (4)
-6 (3) -&gt; 1 (5)
+2 (2) -&gt; 5 (1) -&gt; 8 (2) -&gt; 3 (3) -&gt; 7 (3) -&gt; 4 (1)
+9 (4) -&gt; 6 (3) -&gt; 1 (5)
 </t>
         </is>
       </c>
       <c r="O4" t="n">
-        <v>278.1032905000001</v>
+        <v>248.9852562</v>
       </c>
       <c r="P4" t="n">
-        <v>1017.840597157414</v>
+        <v>1064.39489829658</v>
       </c>
       <c r="Q4" s="4">
         <f>(P4-G4)/G4</f>
@@ -4168,7 +4215,7 @@
         </is>
       </c>
       <c r="O5" t="n">
-        <v>277.5459385</v>
+        <v>246.7568436</v>
       </c>
       <c r="P5" t="n">
         <v>648.7782890113363</v>
@@ -4247,7 +4294,7 @@
         </is>
       </c>
       <c r="K6" t="n">
-        <v>1096.36016908566</v>
+        <v>1096.360166127857</v>
       </c>
       <c r="L6" s="4" t="n">
         <v>0.1192523719444274</v>
@@ -4258,16 +4305,16 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rigid (capacity 16):
-8 (5) -&gt; 7 (3)
-8 metre (capacity 22):
+          <t xml:space="preserve">8 metre (capacity 22):
 9 (4) -&gt; 3 (7) -&gt; 5 (4) -&gt; 6 (5)
 4 (2) -&gt; 1 (7) -&gt; 2 (4)
+Rigid (capacity 16):
+8 (5) -&gt; 7 (3)
 </t>
         </is>
       </c>
       <c r="O6" t="n">
-        <v>260.3492017999999</v>
+        <v>274.5532626</v>
       </c>
       <c r="P6" t="n">
         <v>1077.694700234683</v>
@@ -4357,15 +4404,16 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rigid (capacity 16):
+          <t xml:space="preserve">8 metre (capacity 22):
+5 (8) -&gt; 3 (8) -&gt; 8 (3) -&gt; 2 (2)
+11 metre (capacity 30):
+Rigid (capacity 16):
 9 (2) -&gt; 4 (2) -&gt; 1 (1) -&gt; 6 (3) -&gt; 7 (8)
-8 metre (capacity 22):
-5 (8) -&gt; 3 (8) -&gt; 8 (3) -&gt; 2 (2)
 </t>
         </is>
       </c>
       <c r="O7" t="n">
-        <v>317.7635937</v>
+        <v>242.1010329000001</v>
       </c>
       <c r="P7" t="n">
         <v>520.3454981535883</v>
@@ -4463,7 +4511,7 @@
         </is>
       </c>
       <c r="O8" t="n">
-        <v>270.7247927</v>
+        <v>234.060618</v>
       </c>
       <c r="P8" t="n">
         <v>996.8146493389403</v>
@@ -4555,20 +4603,20 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t xml:space="preserve">8 metre (capacity 22):
-1 (3) -&gt; 3 (4) -&gt; 2 (6)
-Rigid (capacity 16):
+          <t xml:space="preserve">Rigid (capacity 16):
 6 (8) -&gt; 7 (8)
 11 metre (capacity 30):
 9 (3) -&gt; 8 (8) -&gt; 5 (7) -&gt; 4 (8)
+8 metre (capacity 22):
+1 (3) -&gt; 3 (4) -&gt; 2 (6)
 </t>
         </is>
       </c>
       <c r="O9" t="n">
-        <v>304.0242498</v>
+        <v>273.31324</v>
       </c>
       <c r="P9" t="n">
-        <v>775.2155363921825</v>
+        <v>775.2155363921826</v>
       </c>
       <c r="Q9" s="4">
         <f>(P9-G9)/G9</f>
@@ -4656,16 +4704,16 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t xml:space="preserve">11 metre (capacity 30):
+          <t xml:space="preserve">Rigid (capacity 16):
+8 (4) -&gt; 6 (7) -&gt; 3 (2) -&gt; 1 (1)
+5 (6) -&gt; 2 (3) -&gt; 9 (2) -&gt; 7 (2)
+11 metre (capacity 30):
 4 (7)
-Rigid (capacity 16):
-1 (1) -&gt; 3 (2) -&gt; 6 (7) -&gt; 8 (4)
-7 (2) -&gt; 9 (2) -&gt; 2 (3) -&gt; 5 (6)
 </t>
         </is>
       </c>
       <c r="O10" t="n">
-        <v>294.104108</v>
+        <v>234.5970427999999</v>
       </c>
       <c r="P10" t="n">
         <v>732.7210841010763</v>
@@ -4743,7 +4791,7 @@
         </is>
       </c>
       <c r="K11" t="n">
-        <v>675.318142023948</v>
+        <v>675.3177456547439</v>
       </c>
       <c r="L11" s="4" t="n">
         <v>0.1913813618635446</v>
@@ -4755,17 +4803,17 @@
       <c r="N11" t="inlineStr">
         <is>
           <t xml:space="preserve">11 metre (capacity 30):
+3 (3) -&gt; 5 (4) -&gt; 9 (4) -&gt; 2 (6) -&gt; 4 (1) -&gt; 1 (4) -&gt; 6 (5)
 8 metre (capacity 22):
-4 (1) -&gt; 1 (4) -&gt; 6 (5)
-8 (1) -&gt; 7 (1) -&gt; 5 (4) -&gt; 9 (4) -&gt; 2 (6) -&gt; 3 (3)
+7 (1) -&gt; 8 (1)
 </t>
         </is>
       </c>
       <c r="O11" t="n">
-        <v>268.0987201</v>
+        <v>258.4513898</v>
       </c>
       <c r="P11" t="n">
-        <v>695.4038653520677</v>
+        <v>702.370105707741</v>
       </c>
       <c r="Q11" s="4">
         <f>(P11-G11)/G11</f>
@@ -4859,15 +4907,15 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rigid (capacity 16):
-2 (7) -&gt; 10 (7) -&gt; 7 (2)
-11 metre (capacity 30):
+          <t xml:space="preserve">11 metre (capacity 30):
 3 (1) -&gt; 4 (5) -&gt; 5 (4) -&gt; 12 (3) -&gt; 9 (5) -&gt; 6 (5) -&gt; 8 (2) -&gt; 11 (3) -&gt; 1 (2)
+Rigid (capacity 16):
+7 (2) -&gt; 10 (7) -&gt; 2 (7)
 </t>
         </is>
       </c>
       <c r="O12" t="n">
-        <v>464.7078033999999</v>
+        <v>411.7896006000001</v>
       </c>
       <c r="P12" t="n">
         <v>914.8582852133327</v>
@@ -4963,15 +5011,16 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rigid (capacity 16):
-3 (3) -&gt; 12 (2) -&gt; 10 (2) -&gt; 8 (3) -&gt; 9 (1)
-8 metre (capacity 22):
+          <t xml:space="preserve">8 metre (capacity 22):
 2 (1) -&gt; 7 (3) -&gt; 11 (2) -&gt; 1 (2) -&gt; 5 (4) -&gt; 4 (4) -&gt; 6 (3)
+Rigid (capacity 16):
+9 (1) -&gt; 8 (3) -&gt; 10 (2) -&gt; 12 (2) -&gt; 3 (3)
+11 metre (capacity 30):
 </t>
         </is>
       </c>
       <c r="O13" t="n">
-        <v>406.5890359</v>
+        <v>428.6970002000003</v>
       </c>
       <c r="P13" t="n">
         <v>723.7591313441118</v>
@@ -5069,13 +5118,14 @@
         <is>
           <t xml:space="preserve">11 metre (capacity 30):
 11 (4) -&gt; 3 (5) -&gt; 2 (1) -&gt; 4 (1) -&gt; 10 (3) -&gt; 6 (2) -&gt; 9 (3)
+8 metre (capacity 22):
 Rigid (capacity 16):
-8 (2) -&gt; 7 (1) -&gt; 5 (3) -&gt; 1 (4) -&gt; 12 (5)
+12 (5) -&gt; 1 (4) -&gt; 5 (3) -&gt; 7 (1) -&gt; 8 (2)
 </t>
         </is>
       </c>
       <c r="O14" t="n">
-        <v>419.6642604000003</v>
+        <v>359.7548925000001</v>
       </c>
       <c r="P14" t="n">
         <v>869.7301452494198</v>
@@ -5172,13 +5222,13 @@
       <c r="N15" t="inlineStr">
         <is>
           <t xml:space="preserve">11 metre (capacity 30):
-9 (3) -&gt; 8 (5) -&gt; 6 (7) -&gt; 2 (6) -&gt; 11 (8)
-3 (1) -&gt; 12 (1) -&gt; 7 (4) -&gt; 1 (4) -&gt; 5 (8) -&gt; 10 (5) -&gt; 4 (5)
+11 (8) -&gt; 2 (6) -&gt; 6 (7) -&gt; 8 (5) -&gt; 9 (3)
+4 (5) -&gt; 10 (5) -&gt; 5 (8) -&gt; 1 (4) -&gt; 7 (4) -&gt; 12 (1) -&gt; 3 (1)
 </t>
         </is>
       </c>
       <c r="O15" t="n">
-        <v>422.6475539999997</v>
+        <v>154.5560035</v>
       </c>
       <c r="P15" t="n">
         <v>894.7881079632774</v>
@@ -5263,7 +5313,7 @@
         </is>
       </c>
       <c r="K16" t="n">
-        <v>1027.364256635447</v>
+        <v>1027.361501897991</v>
       </c>
       <c r="L16" s="4" t="n">
         <v>0.1301255368659235</v>
@@ -5277,12 +5327,13 @@
           <t xml:space="preserve">8 metre (capacity 22):
 4 (3) -&gt; 6 (1) -&gt; 10 (5) -&gt; 3 (1) -&gt; 7 (2) -&gt; 1 (4) -&gt; 9 (1) -&gt; 2 (5)
 11 metre (capacity 30):
-12 (4) -&gt; 11 (2) -&gt; 8 (3) -&gt; 5 (3)
+5 (3) -&gt; 8 (3) -&gt; 11 (2) -&gt; 12 (4)
+Rigid (capacity 16):
 </t>
         </is>
       </c>
       <c r="O16" t="n">
-        <v>442.3488585</v>
+        <v>452.9247354000004</v>
       </c>
       <c r="P16" t="n">
         <v>1018.647370722324</v>
@@ -5368,7 +5419,7 @@
         </is>
       </c>
       <c r="K17" t="n">
-        <v>999.2141067261238</v>
+        <v>999.2122708225403</v>
       </c>
       <c r="L17" s="4" t="n">
         <v>0.2401357380254352</v>
@@ -5382,12 +5433,12 @@
           <t xml:space="preserve">8 metre (capacity 22):
 10 (5) -&gt; 11 (3) -&gt; 9 (3) -&gt; 7 (3) -&gt; 1 (3) -&gt; 12 (5)
 11 metre (capacity 30):
-4 (6) -&gt; 6 (2) -&gt; 2 (6) -&gt; 3 (3) -&gt; 5 (7) -&gt; 8 (6)
+8 (6) -&gt; 5 (7) -&gt; 3 (3) -&gt; 2 (6) -&gt; 6 (2) -&gt; 4 (6)
 </t>
         </is>
       </c>
       <c r="O17" t="n">
-        <v>426.3625585999998</v>
+        <v>314.9303991000006</v>
       </c>
       <c r="P17" t="n">
         <v>900.145864498372</v>
@@ -5483,15 +5534,16 @@
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rigid (capacity 16):
-10 (5) -&gt; 8 (2) -&gt; 5 (3) -&gt; 4 (4)
-11 metre (capacity 30):
+          <t xml:space="preserve">11 metre (capacity 30):
 7 (6) -&gt; 6 (5) -&gt; 11 (5) -&gt; 9 (3) -&gt; 2 (1) -&gt; 12 (2) -&gt; 3 (4) -&gt; 1 (1)
+Rigid (capacity 16):
+4 (4) -&gt; 5 (3) -&gt; 8 (2) -&gt; 10 (5)
+8 metre (capacity 22):
 </t>
         </is>
       </c>
       <c r="O18" t="n">
-        <v>370.2218480000001</v>
+        <v>315.9241723000005</v>
       </c>
       <c r="P18" t="n">
         <v>782.003935883964</v>
@@ -5588,16 +5640,16 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t xml:space="preserve">11 metre (capacity 30):
-3 (4) -&gt; 2 (5) -&gt; 9 (7) -&gt; 4 (2) -&gt; 7 (5) -&gt; 5 (5)
-8 metre (capacity 22):
+          <t xml:space="preserve">8 metre (capacity 22):
 12 (7) -&gt; 10 (7) -&gt; 11 (5)
-8 (5) -&gt; 6 (7) -&gt; 1 (7)
+1 (7) -&gt; 6 (7) -&gt; 8 (5)
+11 metre (capacity 30):
+5 (5) -&gt; 7 (5) -&gt; 4 (2) -&gt; 9 (7) -&gt; 2 (5) -&gt; 3 (4)
 </t>
         </is>
       </c>
       <c r="O19" t="n">
-        <v>438.1995923999993</v>
+        <v>472.7646245</v>
       </c>
       <c r="P19" t="n">
         <v>1219.039143534927</v>
@@ -5693,14 +5745,15 @@
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t xml:space="preserve">11 metre (capacity 30):
-10 (5) -&gt; 2 (5) -&gt; 3 (2) -&gt; 7 (6)
+          <t xml:space="preserve">8 metre (capacity 22):
+11 metre (capacity 30):
+7 (6) -&gt; 3 (2) -&gt; 2 (5) -&gt; 10 (5)
 11 (2) -&gt; 8 (7) -&gt; 9 (4) -&gt; 4 (2) -&gt; 5 (1) -&gt; 6 (6) -&gt; 12 (3) -&gt; 1 (3)
 </t>
         </is>
       </c>
       <c r="O20" t="n">
-        <v>395.948703</v>
+        <v>437.1781145</v>
       </c>
       <c r="P20" t="n">
         <v>1095.786848590677</v>
@@ -5799,12 +5852,12 @@
           <t xml:space="preserve">Rigid (capacity 16):
 3 (1) -&gt; 9 (2) -&gt; 1 (2) -&gt; 12 (1) -&gt; 8 (1) -&gt; 2 (1) -&gt; 4 (3) -&gt; 7 (2) -&gt; 10 (2)
 8 metre (capacity 22):
-6 (3) -&gt; 5 (4) -&gt; 11 (5)
+11 (5) -&gt; 5 (4) -&gt; 6 (3)
 </t>
         </is>
       </c>
       <c r="O21" t="n">
-        <v>386.5792246</v>
+        <v>368.2372643</v>
       </c>
       <c r="P21" t="n">
         <v>735.0974435515864</v>
@@ -5908,14 +5961,14 @@
       <c r="N22" t="inlineStr">
         <is>
           <t xml:space="preserve">8 metre (capacity 22):
-14 (5) -&gt; 6 (5) -&gt; 3 (2) -&gt; 10 (4) -&gt; 5 (3)
+5 (3) -&gt; 10 (4) -&gt; 3 (2) -&gt; 6 (5) -&gt; 14 (5)
+2 (4) -&gt; 13 (5) -&gt; 11 (4) -&gt; 12 (1)
 8 (1) -&gt; 9 (2) -&gt; 15 (3) -&gt; 4 (5) -&gt; 1 (2) -&gt; 7 (3)
-2 (4) -&gt; 13 (5) -&gt; 11 (4) -&gt; 12 (1)
 </t>
         </is>
       </c>
       <c r="O22" t="n">
-        <v>672.4708048000002</v>
+        <v>238.2298800999999</v>
       </c>
       <c r="P22" t="n">
         <v>1281.2391705977</v>
@@ -6019,15 +6072,15 @@
       <c r="N23" t="inlineStr">
         <is>
           <t xml:space="preserve">Rigid (capacity 16):
+2 (1) -&gt; 9 (2) -&gt; 4 (4) -&gt; 1 (4) -&gt; 15 (1)
 13 (4) -&gt; 5 (3) -&gt; 6 (1) -&gt; 10 (4) -&gt; 3 (1)
-2 (1) -&gt; 9 (2) -&gt; 4 (4) -&gt; 1 (4) -&gt; 15 (1)
 8 metre (capacity 22):
-8 (4) -&gt; 12 (3) -&gt; 7 (3) -&gt; 14 (3) -&gt; 11 (2)
+11 (2) -&gt; 14 (3) -&gt; 7 (3) -&gt; 12 (3) -&gt; 8 (4)
 </t>
         </is>
       </c>
       <c r="O23" t="n">
-        <v>699.7963949000005</v>
+        <v>503.3568825</v>
       </c>
       <c r="P23" t="n">
         <v>977.4665241543858</v>
@@ -6130,19 +6183,19 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t xml:space="preserve">8 metre (capacity 22):
+          <t xml:space="preserve">Rigid (capacity 16):
+3 (3) -&gt; 8 (2) -&gt; 12 (2) -&gt; 4 (3) -&gt; 15 (4)
+6 (3) -&gt; 13 (2)
+8 metre (capacity 22):
 7 (2) -&gt; 5 (2) -&gt; 2 (4) -&gt; 1 (3) -&gt; 14 (1) -&gt; 11 (1) -&gt; 10 (4) -&gt; 9 (4)
-Rigid (capacity 16):
-6 (3)
-15 (4) -&gt; 4 (3) -&gt; 12 (2) -&gt; 8 (2) -&gt; 3 (3) -&gt; 13 (2)
 </t>
         </is>
       </c>
       <c r="O24" t="n">
-        <v>701.5370033999998</v>
+        <v>551.2556817999998</v>
       </c>
       <c r="P24" t="n">
-        <v>916.3267486812994</v>
+        <v>941.029672863207</v>
       </c>
       <c r="Q24" s="4">
         <f>(P24-G24)/G24</f>
@@ -6242,14 +6295,14 @@
       <c r="N25" t="inlineStr">
         <is>
           <t xml:space="preserve">11 metre (capacity 30):
-15 (1) -&gt; 7 (5) -&gt; 10 (4) -&gt; 6 (4) -&gt; 1 (5) -&gt; 12 (1) -&gt; 3 (1) -&gt; 9 (5) -&gt; 14 (3)
+14 (3) -&gt; 9 (5) -&gt; 3 (1) -&gt; 12 (1) -&gt; 1 (5) -&gt; 6 (4) -&gt; 10 (4) -&gt; 7 (5) -&gt; 15 (1)
 8 metre (capacity 22):
 13 (2) -&gt; 8 (5) -&gt; 11 (3) -&gt; 4 (1) -&gt; 2 (3) -&gt; 5 (4)
 </t>
         </is>
       </c>
       <c r="O25" t="n">
-        <v>583.4862115999995</v>
+        <v>491.1873168999999</v>
       </c>
       <c r="P25" t="n">
         <v>1139.100511867154</v>
@@ -6353,17 +6406,17 @@
       <c r="N26" t="inlineStr">
         <is>
           <t xml:space="preserve">Rigid (capacity 16):
+10 (2) -&gt; 2 (2) -&gt; 6 (3) -&gt; 14 (2) -&gt; 11 (3)
 8 (3) -&gt; 5 (2) -&gt; 12 (3) -&gt; 9 (4) -&gt; 3 (3)
-4 (3) -&gt; 7 (3) -&gt; 15 (2) -&gt; 13 (2)
-11 (3) -&gt; 14 (2) -&gt; 6 (3) -&gt; 2 (2) -&gt; 10 (2) -&gt; 1 (4)
+13 (2) -&gt; 15 (2) -&gt; 7 (3) -&gt; 4 (3) -&gt; 1 (4)
 </t>
         </is>
       </c>
       <c r="O26" t="n">
-        <v>892.9698130999986</v>
+        <v>677.3077531000001</v>
       </c>
       <c r="P26" t="n">
-        <v>1026.542152900709</v>
+        <v>1050.73661222106</v>
       </c>
       <c r="Q26" s="4">
         <f>(P26-G26)/G26</f>
@@ -6463,17 +6516,17 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rigid (capacity 16):
-1 (3) -&gt; 15 (3) -&gt; 9 (3) -&gt; 6 (1) -&gt; 3 (5) -&gt; 12 (1)
+          <t xml:space="preserve">8 metre (capacity 22):
+14 (1) -&gt; 7 (2) -&gt; 11 (5) -&gt; 10 (3) -&gt; 13 (3) -&gt; 4 (4) -&gt; 2 (1) -&gt; 5 (1)
+Rigid (capacity 16):
+12 (1) -&gt; 3 (5) -&gt; 6 (1) -&gt; 9 (3) -&gt; 15 (3) -&gt; 1 (3)
 11 metre (capacity 30):
 8 (4)
-8 metre (capacity 22):
-14 (1) -&gt; 7 (2) -&gt; 11 (5) -&gt; 10 (3) -&gt; 13 (3) -&gt; 4 (4) -&gt; 2 (1) -&gt; 5 (1)
 </t>
         </is>
       </c>
       <c r="O27" t="n">
-        <v>630.2492390000007</v>
+        <v>808.7153081000001</v>
       </c>
       <c r="P27" t="n">
         <v>1204.045683633422</v>
@@ -6578,17 +6631,15 @@
       <c r="N28" t="inlineStr">
         <is>
           <t xml:space="preserve">Rigid (capacity 16):
-10 (3) -&gt; 14 (4) -&gt; 15 (1) -&gt; 6 (4) -&gt; 2 (4)
-11 (2) -&gt; 5 (4) -&gt; 12 (4) -&gt; 13 (4) -&gt; 3 (2)
-4 (3) -&gt; 7 (4) -&gt; 9 (3) -&gt; 1 (2) -&gt; 8 (4)
+12 (4) -&gt; 15 (1) -&gt; 1 (2) -&gt; 13 (4) -&gt; 11 (2) -&gt; 4 (3) -&gt; 3 (2) -&gt; 5 (4) -&gt; 9 (3) -&gt; 6 (4) -&gt; 7 (4) -&gt; 10 (3) -&gt; 2 (4) -&gt; 14 (4) -&gt; 8 (4)
 </t>
         </is>
       </c>
       <c r="O28" t="n">
-        <v>1224.071597600001</v>
+        <v>558.2765410000002</v>
       </c>
       <c r="P28" t="n">
-        <v>1175.400466091642</v>
+        <v>34366.16663506354</v>
       </c>
       <c r="Q28" s="4">
         <f>(P28-G28)/G28</f>
@@ -6676,7 +6727,7 @@
         </is>
       </c>
       <c r="K29" t="n">
-        <v>1053.107964725544</v>
+        <v>1053.105328796254</v>
       </c>
       <c r="L29" s="4" t="n">
         <v>0.3520562442837285</v>
@@ -6689,13 +6740,13 @@
         <is>
           <t xml:space="preserve">Rigid (capacity 16):
 8 metre (capacity 22):
+8 (3) -&gt; 4 (2) -&gt; 5 (1) -&gt; 7 (3) -&gt; 11 (3) -&gt; 1 (1) -&gt; 2 (1)
 9 (1) -&gt; 14 (4) -&gt; 6 (2) -&gt; 3 (2) -&gt; 12 (3) -&gt; 15 (1) -&gt; 13 (2) -&gt; 10 (1)
-8 (3) -&gt; 4 (2) -&gt; 5 (1) -&gt; 7 (3) -&gt; 11 (3) -&gt; 1 (1) -&gt; 2 (1)
 </t>
         </is>
       </c>
       <c r="O29" t="n">
-        <v>512.5885275000001</v>
+        <v>453.0893558000002</v>
       </c>
       <c r="P29" t="n">
         <v>841.4299311216971</v>
@@ -6786,7 +6837,7 @@
         </is>
       </c>
       <c r="K30" t="n">
-        <v>1286.410260777525</v>
+        <v>1286.331534759897</v>
       </c>
       <c r="L30" s="4" t="n">
         <v>0.11181446591527</v>
@@ -6798,17 +6849,17 @@
       <c r="N30" t="inlineStr">
         <is>
           <t xml:space="preserve">8 metre (capacity 22):
-13 (3) -&gt; 6 (6) -&gt; 1 (3) -&gt; 8 (4) -&gt; 4 (2) -&gt; 12 (2) -&gt; 11 (2)
+2 (1) -&gt; 9 (6) -&gt; 15 (3) -&gt; 3 (2) -&gt; 12 (2) -&gt; 4 (2) -&gt; 8 (4) -&gt; 11 (2)
 11 metre (capacity 30):
-14 (1) -&gt; 10 (4) -&gt; 7 (6) -&gt; 5 (5) -&gt; 9 (6) -&gt; 3 (2) -&gt; 15 (3) -&gt; 2 (1)
+14 (1) -&gt; 5 (5) -&gt; 10 (4) -&gt; 7 (6) -&gt; 13 (3) -&gt; 6 (6) -&gt; 1 (3)
 </t>
         </is>
       </c>
       <c r="O30" t="n">
-        <v>868.0086797000004</v>
+        <v>598.4948423999999</v>
       </c>
       <c r="P30" t="n">
-        <v>1323.487054912182</v>
+        <v>1286.331534759897</v>
       </c>
       <c r="Q30" s="4">
         <f>(P30-G30)/G30</f>
@@ -6910,12 +6961,12 @@
           <t xml:space="preserve">8 metre (capacity 22):
 6 (1) -&gt; 15 (1) -&gt; 1 (1) -&gt; 12 (1) -&gt; 10 (2) -&gt; 5 (3) -&gt; 11 (1) -&gt; 7 (4) -&gt; 14 (2) -&gt; 9 (1)
 Rigid (capacity 16):
-8 (1) -&gt; 2 (4) -&gt; 3 (3) -&gt; 13 (3) -&gt; 4 (4)
+4 (4) -&gt; 13 (3) -&gt; 3 (3) -&gt; 2 (4) -&gt; 8 (1)
 </t>
         </is>
       </c>
       <c r="O31" t="n">
-        <v>463.1081634999991</v>
+        <v>495.8122725999997</v>
       </c>
       <c r="P31" t="n">
         <v>856.8045807289046</v>
@@ -6998,7 +7049,7 @@
         </is>
       </c>
       <c r="K32" t="n">
-        <v>724.4871132683159</v>
+        <v>724.4870426166991</v>
       </c>
       <c r="L32" s="4" t="n">
         <v>0.2664009757385997</v>
@@ -7010,17 +7061,19 @@
       <c r="N32" t="inlineStr">
         <is>
           <t xml:space="preserve">8 metre (capacity 22):
-5 (12) -&gt; 1 (7)
-6 (5) -&gt; 4 (8) -&gt; 2 (9)
+6 (5)
 7 (7) -&gt; 3 (5) -&gt; 9 (3) -&gt; 8 (4)
+1 (7) -&gt; 5 (12)
+4 (8) -&gt; 2 (9)
+11 metre (capacity 30):
 </t>
         </is>
       </c>
       <c r="O32" t="n">
-        <v>309.1472044</v>
+        <v>228.2156266000002</v>
       </c>
       <c r="P32" t="n">
-        <v>753.2358255285246</v>
+        <v>754.9499541567666</v>
       </c>
       <c r="Q32" s="4">
         <f>(P32-G32)/G32</f>
@@ -7110,18 +7163,19 @@
       <c r="N33" t="inlineStr">
         <is>
           <t xml:space="preserve">8 metre (capacity 22):
+4 (9) -&gt; 8 (8) -&gt; 3 (5)
 11 metre (capacity 30):
 7 (7) -&gt; 9 (11) -&gt; 1 (4) -&gt; 2 (5) -&gt; 6 (2)
-5 (8) -&gt; 4 (9) -&gt; 8 (8) -&gt; 3 (5)
 Rigid (capacity 16):
+5 (8)
 </t>
         </is>
       </c>
       <c r="O33" t="n">
-        <v>270.348945</v>
+        <v>228.8513993000006</v>
       </c>
       <c r="P33" t="n">
-        <v>1024.350870524725</v>
+        <v>1043.169111110342</v>
       </c>
       <c r="Q33" s="4">
         <f>(P33-G33)/G33</f>
@@ -7215,6 +7269,7 @@
         <is>
           <t xml:space="preserve">Rigid (capacity 16):
 9 (14)
+8 metre (capacity 22):
 11 metre (capacity 30):
 6 (14) -&gt; 7 (15)
 2 (5) -&gt; 4 (14) -&gt; 1 (7)
@@ -7223,7 +7278,7 @@
         </is>
       </c>
       <c r="O34" t="n">
-        <v>420.5396387000001</v>
+        <v>281.7760601999998</v>
       </c>
       <c r="P34" t="n">
         <v>883.1390965570637</v>
@@ -7305,7 +7360,7 @@
         </is>
       </c>
       <c r="K35" t="n">
-        <v>931.9144711710784</v>
+        <v>931.8298593139458</v>
       </c>
       <c r="L35" s="4" t="n">
         <v>0.3415304796921158</v>
@@ -7316,7 +7371,8 @@
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rigid (capacity 16):
+          <t xml:space="preserve">8 metre (capacity 22):
+Rigid (capacity 16):
 8 (8) -&gt; 3 (8)
 11 metre (capacity 30):
 9 (6) -&gt; 5 (4) -&gt; 6 (5) -&gt; 4 (3) -&gt; 7 (3) -&gt; 2 (2) -&gt; 1 (2)
@@ -7324,7 +7380,7 @@
         </is>
       </c>
       <c r="O35" t="n">
-        <v>305.8699082000003</v>
+        <v>265.1643839999997</v>
       </c>
       <c r="P35" t="n">
         <v>854.4762539967021</v>
@@ -7418,19 +7474,19 @@
       <c r="N36" t="inlineStr">
         <is>
           <t xml:space="preserve">Rigid (capacity 16):
+11 metre (capacity 30):
 2 (3) -&gt; 7 (1) -&gt; 1 (8) -&gt; 3 (4)
-11 metre (capacity 30):
-5 (12) -&gt; 6 (10)
-8 (10) -&gt; 9 (3) -&gt; 4 (8)
+9 (3) -&gt; 5 (12) -&gt; 6 (10)
 8 metre (capacity 22):
+8 (10) -&gt; 4 (8)
 </t>
         </is>
       </c>
       <c r="O36" t="n">
-        <v>317.1145366</v>
+        <v>255.9975743000005</v>
       </c>
       <c r="P36" t="n">
-        <v>747.3232399828744</v>
+        <v>770.9518224366122</v>
       </c>
       <c r="Q36" s="4">
         <f>(P36-G36)/G36</f>
@@ -7510,7 +7566,7 @@
         </is>
       </c>
       <c r="K37" t="n">
-        <v>1326.10584170281</v>
+        <v>1326.047008496605</v>
       </c>
       <c r="L37" s="4" t="n">
         <v>0.2459067686438042</v>
@@ -7521,20 +7577,20 @@
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t xml:space="preserve">8 metre (capacity 22):
-2 (9) -&gt; 4 (8) -&gt; 9 (3)
-11 metre (capacity 30):
-7 (16) -&gt; 6 (11)
-3 (10) -&gt; 8 (16)
+          <t xml:space="preserve">11 metre (capacity 30):
+8 (16) -&gt; 3 (10)
 5 (12) -&gt; 1 (12)
+4 (8) -&gt; 9 (3) -&gt; 7 (16)
+8 metre (capacity 22):
+6 (11) -&gt; 2 (9)
 </t>
         </is>
       </c>
       <c r="O37" t="n">
-        <v>388.5819654999996</v>
+        <v>271.5002951999995</v>
       </c>
       <c r="P37" t="n">
-        <v>1401.748026361061</v>
+        <v>1326.047008496605</v>
       </c>
       <c r="Q37" s="4">
         <f>(P37-G37)/G37</f>
@@ -7625,14 +7681,14 @@
         <is>
           <t xml:space="preserve">Rigid (capacity 16):
 11 metre (capacity 30):
+5 (1) -&gt; 2 (1) -&gt; 3 (12) -&gt; 6 (4)
 4 (4) -&gt; 7 (2) -&gt; 9 (7) -&gt; 8 (4) -&gt; 1 (11)
-6 (4) -&gt; 3 (12) -&gt; 2 (1) -&gt; 5 (1)
 8 metre (capacity 22):
 </t>
         </is>
       </c>
       <c r="O38" t="n">
-        <v>262.6094512</v>
+        <v>226.3959122000006</v>
       </c>
       <c r="P38" t="n">
         <v>622.2180764428056</v>
@@ -7726,17 +7782,18 @@
       <c r="N39" t="inlineStr">
         <is>
           <t xml:space="preserve">Rigid (capacity 16):
-3 (3) -&gt; 9 (8) -&gt; 6 (5)
+4 (1) -&gt; 5 (1) -&gt; 1 (2) -&gt; 2 (4) -&gt; 7 (4)
+8 (10) -&gt; 3 (3)
+6 (5) -&gt; 9 (8)
 11 metre (capacity 30):
-7 (4) -&gt; 8 (10) -&gt; 2 (4) -&gt; 1 (2) -&gt; 5 (1) -&gt; 4 (1)
 </t>
         </is>
       </c>
       <c r="O39" t="n">
-        <v>276.8129958999998</v>
+        <v>174.3911535999996</v>
       </c>
       <c r="P39" t="n">
-        <v>987.843110637234</v>
+        <v>1001.185311729765</v>
       </c>
       <c r="Q39" s="4">
         <f>(P39-G39)/G39</f>
@@ -7816,7 +7873,7 @@
         </is>
       </c>
       <c r="K40" t="n">
-        <v>1367.440463239961</v>
+        <v>1367.146728044428</v>
       </c>
       <c r="L40" s="4" t="n">
         <v>0.1881009902756456</v>
@@ -7828,9 +7885,9 @@
       <c r="N40" t="inlineStr">
         <is>
           <t xml:space="preserve">8 metre (capacity 22):
-2 (8) -&gt; 5 (10)
+1 (11) -&gt; 6 (5)
+5 (10) -&gt; 2 (8)
 Rigid (capacity 16):
-1 (11) -&gt; 6 (5)
 8 (7)
 11 metre (capacity 30):
 9 (5) -&gt; 7 (7) -&gt; 4 (12) -&gt; 3 (5)
@@ -7838,10 +7895,10 @@
         </is>
       </c>
       <c r="O40" t="n">
-        <v>292.5233773</v>
+        <v>413.8151592000004</v>
       </c>
       <c r="P40" t="n">
-        <v>1175.414901887981</v>
+        <v>1206.305074600059</v>
       </c>
       <c r="Q40" s="4">
         <f>(P40-G40)/G40</f>
@@ -7932,18 +7989,18 @@
       <c r="N41" t="inlineStr">
         <is>
           <t xml:space="preserve">8 metre (capacity 22):
-3 (12)
+9 (5) -&gt; 4 (4) -&gt; 3 (12)
 11 metre (capacity 30):
-5 (4) -&gt; 6 (13) -&gt; 7 (11)
-2 (14) -&gt; 1 (3) -&gt; 4 (4) -&gt; 9 (5) -&gt; 8 (4)
+1 (3) -&gt; 2 (14) -&gt; 7 (11)
+8 (4) -&gt; 5 (4) -&gt; 6 (13)
 </t>
         </is>
       </c>
       <c r="O41" t="n">
-        <v>293.2506680000006</v>
+        <v>249.4281912000006</v>
       </c>
       <c r="P41" t="n">
-        <v>1171.163514436588</v>
+        <v>1172.748196784024</v>
       </c>
       <c r="Q41" s="4">
         <f>(P41-G41)/G41</f>
@@ -8040,18 +8097,18 @@
       <c r="N42" t="inlineStr">
         <is>
           <t xml:space="preserve">11 metre (capacity 30):
-3 (5) -&gt; 10 (2) -&gt; 2 (8) -&gt; 6 (11) -&gt; 8 (4)
+8 (4) -&gt; 6 (11) -&gt; 2 (8) -&gt; 10 (2)
 8 metre (capacity 22):
-12 (12) -&gt; 11 (3) -&gt; 7 (1)
+3 (5) -&gt; 7 (1) -&gt; 11 (3) -&gt; 12 (12)
 9 (7) -&gt; 4 (1) -&gt; 5 (2) -&gt; 1 (11)
 </t>
         </is>
       </c>
       <c r="O42" t="n">
-        <v>401.0180667999999</v>
+        <v>307.8755359999996</v>
       </c>
       <c r="P42" t="n">
-        <v>1149.08514985564</v>
+        <v>1191.432500031729</v>
       </c>
       <c r="Q42" s="4">
         <f>(P42-G42)/G42</f>
@@ -8149,19 +8206,20 @@
       <c r="N43" t="inlineStr">
         <is>
           <t xml:space="preserve">8 metre (capacity 22):
-11 (1) -&gt; 6 (5) -&gt; 5 (8) -&gt; 7 (4) -&gt; 3 (4)
+5 (8)
+7 (4) -&gt; 1 (7) -&gt; 3 (4)
 Rigid (capacity 16):
-9 (8) -&gt; 1 (7) -&gt; 8 (1)
+11 (1) -&gt; 6 (5) -&gt; 8 (1) -&gt; 9 (8)
 11 metre (capacity 30):
 2 (6) -&gt; 10 (10) -&gt; 4 (4) -&gt; 12 (9)
 </t>
         </is>
       </c>
       <c r="O43" t="n">
-        <v>446.5484197000005</v>
+        <v>525.2870451999997</v>
       </c>
       <c r="P43" t="n">
-        <v>1105.841482055037</v>
+        <v>1108.045048051991</v>
       </c>
       <c r="Q43" s="4">
         <f>(P43-G43)/G43</f>
@@ -8258,14 +8316,15 @@
       <c r="N44" t="inlineStr">
         <is>
           <t xml:space="preserve">11 metre (capacity 30):
-5 (5) -&gt; 12 (11) -&gt; 7 (2)
+2 (1) -&gt; 6 (8) -&gt; 11 (6) -&gt; 4 (1)
 3 (8) -&gt; 1 (10) -&gt; 8 (3) -&gt; 10 (1) -&gt; 9 (1)
-2 (1) -&gt; 6 (8) -&gt; 11 (6) -&gt; 4 (1)
+7 (2) -&gt; 12 (11) -&gt; 5 (5)
+8 metre (capacity 22):
 </t>
         </is>
       </c>
       <c r="O44" t="n">
-        <v>415.2917458000011</v>
+        <v>265.1971490000005</v>
       </c>
       <c r="P44" t="n">
         <v>977.1735761910081</v>
@@ -8364,19 +8423,20 @@
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t xml:space="preserve">11 metre (capacity 30):
-11 (9) -&gt; 9 (3) -&gt; 1 (9) -&gt; 2 (7)
-10 (7) -&gt; 8 (10) -&gt; 12 (9) -&gt; 6 (1)
+          <t xml:space="preserve">Rigid (capacity 16):
 8 metre (capacity 22):
 3 (5) -&gt; 5 (4) -&gt; 4 (7) -&gt; 7 (5)
+11 metre (capacity 30):
+6 (1) -&gt; 12 (9) -&gt; 8 (10) -&gt; 10 (7)
+2 (7) -&gt; 1 (9) -&gt; 9 (3) -&gt; 11 (9)
 </t>
         </is>
       </c>
       <c r="O45" t="n">
-        <v>640.1704766000003</v>
+        <v>476.6016035999992</v>
       </c>
       <c r="P45" t="n">
-        <v>1012.611449136445</v>
+        <v>1012.611449136446</v>
       </c>
       <c r="Q45" s="4">
         <f>(P45-G45)/G45</f>
@@ -8475,8 +8535,8 @@
       <c r="N46" t="inlineStr">
         <is>
           <t xml:space="preserve">8 metre (capacity 22):
+7 (2) -&gt; 2 (6) -&gt; 8 (4) -&gt; 3 (6) -&gt; 4 (2)
 9 (4) -&gt; 10 (6)
-4 (2) -&gt; 3 (6) -&gt; 8 (4) -&gt; 2 (6) -&gt; 7 (2)
 11 metre (capacity 30):
 1 (5) -&gt; 6 (6) -&gt; 11 (2) -&gt; 12 (7) -&gt; 5 (10)
 Rigid (capacity 16):
@@ -8484,7 +8544,7 @@
         </is>
       </c>
       <c r="O46" t="n">
-        <v>537.6972268999998</v>
+        <v>349.1707250999989</v>
       </c>
       <c r="P46" t="n">
         <v>1207.078493999617</v>
@@ -8582,19 +8642,19 @@
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rigid (capacity 16):
+          <t xml:space="preserve">11 metre (capacity 30):
+5 (9) -&gt; 10 (2) -&gt; 12 (8) -&gt; 2 (9)
+3 (2) -&gt; 9 (1) -&gt; 7 (7) -&gt; 4 (8) -&gt; 6 (1) -&gt; 11 (5) -&gt; 8 (3) -&gt; 1 (2)
 8 metre (capacity 22):
-11 metre (capacity 30):
-9 (1) -&gt; 7 (7) -&gt; 4 (8) -&gt; 6 (1) -&gt; 11 (5) -&gt; 8 (3) -&gt; 1 (2)
-2 (9) -&gt; 12 (8) -&gt; 3 (2) -&gt; 10 (2) -&gt; 5 (9)
+Rigid (capacity 16):
 </t>
         </is>
       </c>
       <c r="O47" t="n">
-        <v>405.3070793000006</v>
+        <v>377.6647546000004</v>
       </c>
       <c r="P47" t="n">
-        <v>799.1406234953578</v>
+        <v>811.6703400824063</v>
       </c>
       <c r="Q47" s="4">
         <f>(P47-G47)/G47</f>
@@ -8690,19 +8750,20 @@
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t xml:space="preserve">8 metre (capacity 22):
+          <t xml:space="preserve">11 metre (capacity 30):
+10 (6) -&gt; 7 (2) -&gt; 1 (9) -&gt; 12 (3)
+5 (6) -&gt; 11 (3) -&gt; 4 (2) -&gt; 9 (7) -&gt; 8 (10)
+Rigid (capacity 16):
+8 metre (capacity 22):
 6 (4) -&gt; 3 (8) -&gt; 2 (8)
-11 metre (capacity 30):
-5 (6) -&gt; 11 (3) -&gt; 4 (2) -&gt; 9 (7) -&gt; 8 (10)
-10 (6) -&gt; 7 (2) -&gt; 1 (9) -&gt; 12 (3)
 </t>
         </is>
       </c>
       <c r="O48" t="n">
-        <v>679.3504835999993</v>
+        <v>360.9418872999995</v>
       </c>
       <c r="P48" t="n">
-        <v>873.0560538038177</v>
+        <v>873.0560538038178</v>
       </c>
       <c r="Q48" s="4">
         <f>(P48-G48)/G48</f>
@@ -8799,21 +8860,21 @@
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rigid (capacity 16):
+          <t xml:space="preserve">8 metre (capacity 22):
+9 (8) -&gt; 4 (5) -&gt; 3 (8)
+Rigid (capacity 16):
 11 (10)
 11 metre (capacity 30):
-5 (8) -&gt; 1 (7) -&gt; 7 (9) -&gt; 8 (6)
-4 (5) -&gt; 9 (8) -&gt; 12 (10)
-8 metre (capacity 22):
-3 (8) -&gt; 10 (8) -&gt; 6 (1) -&gt; 2 (5)
+8 (6) -&gt; 5 (8) -&gt; 6 (1) -&gt; 10 (8) -&gt; 2 (5)
+1 (7) -&gt; 7 (9) -&gt; 12 (10)
 </t>
         </is>
       </c>
       <c r="O49" t="n">
-        <v>449.0606509999998</v>
+        <v>439.4680506999994</v>
       </c>
       <c r="P49" t="n">
-        <v>1289.129827108421</v>
+        <v>1319.92653993926</v>
       </c>
       <c r="Q49" s="4">
         <f>(P49-G49)/G49</f>
@@ -8897,7 +8958,7 @@
         </is>
       </c>
       <c r="K50" t="n">
-        <v>1088.708858004286</v>
+        <v>1088.705961302745</v>
       </c>
       <c r="L50" s="4" t="n">
         <v>0.1356667398854045</v>
@@ -8908,18 +8969,19 @@
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t xml:space="preserve">11 metre (capacity 30):
-8 (1) -&gt; 2 (6) -&gt; 3 (2) -&gt; 9 (1) -&gt; 6 (4) -&gt; 1 (9) -&gt; 4 (1)
-8 metre (capacity 22):
-5 (4) -&gt; 7 (2) -&gt; 11 (3) -&gt; 12 (2) -&gt; 10 (9)
+          <t xml:space="preserve">8 metre (capacity 22):
+3 (2) -&gt; 9 (1) -&gt; 6 (4) -&gt; 1 (9) -&gt; 4 (1)
+11 metre (capacity 30):
+5 (4) -&gt; 7 (2) -&gt; 11 (3) -&gt; 12 (2) -&gt; 2 (6) -&gt; 10 (9) -&gt; 8 (1)
+Rigid (capacity 16):
 </t>
         </is>
       </c>
       <c r="O50" t="n">
-        <v>400.1393131000004</v>
+        <v>336.4328005000007</v>
       </c>
       <c r="P50" t="n">
-        <v>1132.241078906159</v>
+        <v>1088.705961302745</v>
       </c>
       <c r="Q50" s="4">
         <f>(P50-G50)/G50</f>
@@ -9016,21 +9078,21 @@
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rigid (capacity 16):
-7 (4) -&gt; 11 (9) -&gt; 6 (2)
-11 metre (capacity 30):
+          <t xml:space="preserve">11 metre (capacity 30):
 5 (3) -&gt; 10 (9) -&gt; 12 (9) -&gt; 8 (9)
 8 metre (capacity 22):
-4 (10) -&gt; 1 (8) -&gt; 2 (4)
-9 (8) -&gt; 3 (8)
+4 (10) -&gt; 1 (8)
+2 (4) -&gt; 9 (8) -&gt; 3 (8)
+Rigid (capacity 16):
+6 (2) -&gt; 11 (9) -&gt; 7 (4)
 </t>
         </is>
       </c>
       <c r="O51" t="n">
-        <v>462.8972104999993</v>
+        <v>494.9195553999998</v>
       </c>
       <c r="P51" t="n">
-        <v>1230.788478416771</v>
+        <v>1355.94412226609</v>
       </c>
       <c r="Q51" s="4">
         <f>(P51-G51)/G51</f>
@@ -9132,17 +9194,17 @@
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t xml:space="preserve">11 metre (capacity 30):
-10 (5) -&gt; 9 (5) -&gt; 3 (3) -&gt; 15 (6) -&gt; 11 (1) -&gt; 4 (7) -&gt; 14 (3)
-Rigid (capacity 16):
-8 (5) -&gt; 2 (5) -&gt; 5 (2) -&gt; 1 (3)
+          <t xml:space="preserve">Rigid (capacity 16):
+1 (3) -&gt; 5 (2) -&gt; 2 (5) -&gt; 8 (5)
 8 metre (capacity 22):
 6 (8) -&gt; 7 (2) -&gt; 13 (4) -&gt; 12 (3)
+11 metre (capacity 30):
+14 (3) -&gt; 4 (7) -&gt; 11 (1) -&gt; 15 (6) -&gt; 3 (3) -&gt; 9 (5) -&gt; 10 (5)
 </t>
         </is>
       </c>
       <c r="O52" t="n">
-        <v>641.0992283999985</v>
+        <v>624.6711491000005</v>
       </c>
       <c r="P52" t="n">
         <v>962.3431591979642</v>
@@ -9249,20 +9311,19 @@
       <c r="N53" t="inlineStr">
         <is>
           <t xml:space="preserve">8 metre (capacity 22):
-13 (1) -&gt; 14 (6) -&gt; 6 (3) -&gt; 8 (4) -&gt; 7 (8)
-2 (2) -&gt; 10 (5) -&gt; 11 (3) -&gt; 4 (3) -&gt; 1 (6) -&gt; 12 (2)
+2 (2) -&gt; 3 (7) -&gt; 15 (5)
+10 (5) -&gt; 11 (3) -&gt; 4 (3) -&gt; 1 (6) -&gt; 9 (4)
 Rigid (capacity 16):
-15 (5) -&gt; 3 (7)
 11 metre (capacity 30):
-9 (4) -&gt; 5 (2)
+7 (8) -&gt; 8 (4) -&gt; 6 (3) -&gt; 14 (6) -&gt; 13 (1) -&gt; 12 (2) -&gt; 5 (2)
 </t>
         </is>
       </c>
       <c r="O53" t="n">
-        <v>590.9634501999999</v>
+        <v>507.9009951000007</v>
       </c>
       <c r="P53" t="n">
-        <v>1170.641417405643</v>
+        <v>1243.286364160106</v>
       </c>
       <c r="Q53" s="4">
         <f>(P53-G53)/G53</f>
@@ -9352,7 +9413,7 @@
         </is>
       </c>
       <c r="K54" t="n">
-        <v>975.4626174759479</v>
+        <v>975.462615638453</v>
       </c>
       <c r="L54" s="4" t="n">
         <v>0.1947723838441573</v>
@@ -9363,14 +9424,15 @@
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t xml:space="preserve">8 metre (capacity 22):
+          <t xml:space="preserve">Rigid (capacity 16):
+8 metre (capacity 22):
+9 (1) -&gt; 10 (2) -&gt; 11 (7) -&gt; 5 (1) -&gt; 13 (2) -&gt; 15 (2) -&gt; 14 (1) -&gt; 4 (2) -&gt; 7 (2)
 12 (6) -&gt; 2 (1) -&gt; 6 (3) -&gt; 3 (2) -&gt; 8 (3) -&gt; 1 (4)
-9 (1) -&gt; 10 (2) -&gt; 11 (7) -&gt; 5 (1) -&gt; 13 (2) -&gt; 15 (2) -&gt; 14 (1) -&gt; 4 (2) -&gt; 7 (2)
 </t>
         </is>
       </c>
       <c r="O54" t="n">
-        <v>589.6376583000019</v>
+        <v>479.1373138999988</v>
       </c>
       <c r="P54" t="n">
         <v>986.5123038407138</v>
@@ -9465,7 +9527,7 @@
         </is>
       </c>
       <c r="K55" t="n">
-        <v>1734.220435826672</v>
+        <v>1734.219878209735</v>
       </c>
       <c r="L55" s="4" t="n">
         <v>0.2983432419886213</v>
@@ -9477,20 +9539,20 @@
       <c r="N55" t="inlineStr">
         <is>
           <t xml:space="preserve">11 metre (capacity 30):
-3 (8) -&gt; 11 (9) -&gt; 5 (7)
-13 (8) -&gt; 14 (4) -&gt; 15 (1) -&gt; 8 (1) -&gt; 12 (8) -&gt; 7 (7)
-6 (8) -&gt; 9 (8) -&gt; 10 (6) -&gt; 2 (5)
+14 (4) -&gt; 5 (7) -&gt; 15 (1) -&gt; 8 (1) -&gt; 12 (8) -&gt; 7 (7)
+2 (5) -&gt; 10 (6) -&gt; 9 (8) -&gt; 6 (8)
+13 (8) -&gt; 11 (9) -&gt; 3 (8)
 8 metre (capacity 22):
-4 (6) -&gt; 1 (5)
+1 (5) -&gt; 4 (6)
 Rigid (capacity 16):
 </t>
         </is>
       </c>
       <c r="O55" t="n">
-        <v>729.1322881999999</v>
+        <v>568.3130997999997</v>
       </c>
       <c r="P55" t="n">
-        <v>1479.107828259259</v>
+        <v>1487.738497108275</v>
       </c>
       <c r="Q55" s="4">
         <f>(P55-G55)/G55</f>
@@ -9581,7 +9643,7 @@
         </is>
       </c>
       <c r="K56" t="n">
-        <v>1490.656141002366</v>
+        <v>1490.655680771097</v>
       </c>
       <c r="L56" s="4" t="n">
         <v>0.2064845212800801</v>
@@ -9593,18 +9655,18 @@
       <c r="N56" t="inlineStr">
         <is>
           <t xml:space="preserve">Rigid (capacity 16):
-10 (5) -&gt; 12 (1) -&gt; 9 (6) -&gt; 15 (4)
-2 (1) -&gt; 11 (3) -&gt; 6 (7) -&gt; 5 (1) -&gt; 13 (3)
+3 (1) -&gt; 8 (5) -&gt; 4 (1) -&gt; 7 (3) -&gt; 1 (3)
+13 (3) -&gt; 5 (1) -&gt; 11 (3) -&gt; 6 (7) -&gt; 2 (1)
 11 metre (capacity 30):
-1 (3) -&gt; 7 (3) -&gt; 4 (1) -&gt; 14 (9) -&gt; 8 (5) -&gt; 3 (1)
+10 (5) -&gt; 12 (1) -&gt; 9 (6) -&gt; 15 (4) -&gt; 14 (9)
 </t>
         </is>
       </c>
       <c r="O56" t="n">
-        <v>754.2183009</v>
+        <v>432.1809078999995</v>
       </c>
       <c r="P56" t="n">
-        <v>1454.78404815136</v>
+        <v>1474.954967044446</v>
       </c>
       <c r="Q56" s="4">
         <f>(P56-G56)/G56</f>
@@ -9695,7 +9757,7 @@
         </is>
       </c>
       <c r="K57" t="n">
-        <v>875.6453824270292</v>
+        <v>875.6447806938481</v>
       </c>
       <c r="L57" s="4" t="n">
         <v>0.278597361211454</v>
@@ -9706,19 +9768,21 @@
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rigid (capacity 16):
-5 (6) -&gt; 9 (2) -&gt; 15 (4) -&gt; 7 (2) -&gt; 6 (2)
-3 (6) -&gt; 14 (2) -&gt; 10 (2) -&gt; 13 (5)
-11 metre (capacity 30):
-8 (3) -&gt; 1 (7) -&gt; 11 (3) -&gt; 2 (5) -&gt; 4 (5) -&gt; 12 (7)
+          <t xml:space="preserve">11 metre (capacity 30):
+1 (7) -&gt; 13 (5) -&gt; 7 (2) -&gt; 15 (4) -&gt; 9 (2) -&gt; 5 (6) -&gt; 6 (2)
+8 metre (capacity 22):
+8 (3)
+Rigid (capacity 16):
+3 (6) -&gt; 14 (2) -&gt; 12 (7)
+11 (3) -&gt; 10 (2) -&gt; 2 (5) -&gt; 4 (5)
 </t>
         </is>
       </c>
       <c r="O57" t="n">
-        <v>843.4938672999997</v>
+        <v>857.4403509000003</v>
       </c>
       <c r="P57" t="n">
-        <v>834.377601210616</v>
+        <v>865.0512851856599</v>
       </c>
       <c r="Q57" s="4">
         <f>(P57-G57)/G57</f>
@@ -9809,7 +9873,7 @@
         </is>
       </c>
       <c r="K58" t="n">
-        <v>1287.259466421646</v>
+        <v>1286.194422943748</v>
       </c>
       <c r="L58" s="4" t="n">
         <v>0.2342084988856621</v>
@@ -9822,17 +9886,18 @@
         <is>
           <t xml:space="preserve">8 metre (capacity 22):
 2 (6) -&gt; 8 (3) -&gt; 11 (4) -&gt; 14 (3)
-5 (2) -&gt; 4 (3) -&gt; 10 (4) -&gt; 3 (1) -&gt; 7 (6)
+4 (3) -&gt; 10 (4) -&gt; 3 (1) -&gt; 7 (6)
+Rigid (capacity 16):
 11 metre (capacity 30):
-13 (8) -&gt; 9 (8) -&gt; 12 (1) -&gt; 15 (3) -&gt; 1 (3) -&gt; 6 (4)
+6 (4) -&gt; 1 (3) -&gt; 15 (3) -&gt; 12 (1) -&gt; 9 (8) -&gt; 13 (8) -&gt; 5 (2)
 </t>
         </is>
       </c>
       <c r="O58" t="n">
-        <v>858.8470230000021</v>
+        <v>818.3367384000012</v>
       </c>
       <c r="P58" t="n">
-        <v>1275.382289345094</v>
+        <v>1277.933433799529</v>
       </c>
       <c r="Q58" s="4">
         <f>(P58-G58)/G58</f>
@@ -9937,16 +10002,16 @@
       <c r="N59" t="inlineStr">
         <is>
           <t xml:space="preserve">11 metre (capacity 30):
-6 (5) -&gt; 13 (7) -&gt; 2 (6) -&gt; 3 (8) -&gt; 9 (2)
-7 (8) -&gt; 5 (5) -&gt; 14 (5) -&gt; 8 (9)
+9 (2) -&gt; 3 (8) -&gt; 2 (6) -&gt; 13 (7) -&gt; 6 (5)
+8 (9) -&gt; 14 (5) -&gt; 5 (5) -&gt; 7 (8)
 8 metre (capacity 22):
-11 (1) -&gt; 12 (7) -&gt; 10 (4) -&gt; 15 (3) -&gt; 1 (4)
 4 (9)
+1 (4) -&gt; 15 (3) -&gt; 10 (4) -&gt; 12 (7) -&gt; 11 (1)
 </t>
         </is>
       </c>
       <c r="O59" t="n">
-        <v>815.1835444000001</v>
+        <v>717.4032890000017</v>
       </c>
       <c r="P59" t="n">
         <v>1025.97020552298</v>
@@ -10041,7 +10106,7 @@
         </is>
       </c>
       <c r="K60" t="n">
-        <v>928.1092174359235</v>
+        <v>928.1018042726959</v>
       </c>
       <c r="L60" s="4" t="n">
         <v>0.142310132540058</v>
@@ -10053,18 +10118,19 @@
       <c r="N60" t="inlineStr">
         <is>
           <t xml:space="preserve">8 metre (capacity 22):
+11 (8) -&gt; 6 (4)
 14 (7) -&gt; 9 (5) -&gt; 13 (9)
 11 metre (capacity 30):
-8 (1) -&gt; 15 (6) -&gt; 7 (8) -&gt; 3 (5) -&gt; 2 (6) -&gt; 6 (4)
-12 (6) -&gt; 1 (3) -&gt; 11 (8) -&gt; 5 (2) -&gt; 4 (6) -&gt; 10 (5)
+3 (5) -&gt; 7 (8) -&gt; 15 (6) -&gt; 8 (1)
+12 (6) -&gt; 1 (3) -&gt; 5 (2) -&gt; 4 (6) -&gt; 10 (5) -&gt; 2 (6)
 </t>
         </is>
       </c>
       <c r="O60" t="n">
-        <v>676.0706847999973</v>
+        <v>672.2648152000002</v>
       </c>
       <c r="P60" t="n">
-        <v>948.7054240947547</v>
+        <v>1035.824466025884</v>
       </c>
       <c r="Q60" s="4">
         <f>(P60-G60)/G60</f>
@@ -10169,21 +10235,22 @@
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t xml:space="preserve">11 metre (capacity 30):
-10 (5) -&gt; 12 (8) -&gt; 6 (6) -&gt; 14 (7) -&gt; 11 (4)
-3 (6) -&gt; 7 (6) -&gt; 1 (5) -&gt; 4 (4) -&gt; 2 (6)
+          <t xml:space="preserve">Rigid (capacity 16):
+15 (6) -&gt; 13 (6)
+10 (5) -&gt; 9 (2) -&gt; 8 (4)
 8 metre (capacity 22):
-Rigid (capacity 16):
-5 (8) -&gt; 8 (4) -&gt; 9 (2)
-15 (6) -&gt; 13 (6)
+2 (6)
+11 metre (capacity 30):
+4 (4) -&gt; 1 (5) -&gt; 7 (6) -&gt; 3 (6) -&gt; 5 (8)
+11 (4) -&gt; 14 (7) -&gt; 6 (6) -&gt; 12 (8)
 </t>
         </is>
       </c>
       <c r="O61" t="n">
-        <v>741.7026270000024</v>
+        <v>714.968768900002</v>
       </c>
       <c r="P61" t="n">
-        <v>1212.417268828427</v>
+        <v>1245.892684760786</v>
       </c>
       <c r="Q61" s="4">
         <f>(P61-G61)/G61</f>
@@ -11045,10 +11112,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -11124,7 +11191,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="11" t="n">
+      <c r="A2" s="16" t="n">
         <v>43745</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -11224,8 +11291,8 @@
         <v/>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="11" t="n">
+    <row r="3" ht="14.25" customHeight="1" s="2">
+      <c r="A3" s="17" t="n">
         <v>43768</v>
       </c>
       <c r="B3" t="inlineStr">
@@ -11236,33 +11303,104 @@
       <c r="C3" t="n">
         <v>592286.4353333331</v>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>{"0": [[[74, 5], [48, 4], [33, 16], [9, 10], [121, 6], [95, 15], [182, 7], [28, 6], [19, 6], [81, 16], [94, 5], [83, 16], [119, 12], [154, 14], [93, 9], [2, 14], [83, 15], [70, 7], [68, 10], [18, 15], [171, 2], [126, 10], [117, 6], [209, 9], [193, 3], [75, 7], [17, 16], [125, 14], [98, 16], [35, 16], [66, 16], [188, 15]]], "1": [[[144, 3], [4, 19], [55, 22], [39, 1], [134, 10], [88, 22], [101, 10], [25, 22], [37, 10], [186, 15], [34, 16], [104, 22], [57, 15], [62, 1], [123, 2], [151, 15], [176, 16], [15, 22], [72, 22], [8, 0], [139, 15], [15, 0], [159, 22], [152, 4], [135, 5], [33, 22], [8, 0], [38, 22], [96, 16], [198, 7], [174, 5], [40, 22], [194, 22], [41, 22], [40, 22], [187, 8], [194, 16], [40, 1], [104, 14], [196, 13], [207, 20], [153, 22], [108, 9], [33, 17], [131, 12], [199, 10], [91, 13], [81, 22], [168, 8], [156, 12], [72, 8], [200, 15], [1, 4], [192, 21], [191, 2], [157, 22], [97, 0], [46, 15], [4, 0], [110, 19], [3, 0], [163, 17], [157, 2], [153, 22], [82, 22], [159, 2], [3, 0], [53, 13]]], "2": [[[42, 12], [120, 16], [197, 25], [32, 27], [6, 14], [41, 30], [132, 10], [16, 30], [172, 20], [79, 30], [148, 6], [44, 30], [77, 30], [150, 8], [24, 25], [66, 30], [25, 5], [172, 20], [79, 0], [149, 30], [77, 0], [165, 30], [149, 24], [140, 30], [35, 5], [97, 21], [59, 28], [92, 30], [55, 30], [49, 24], [143, 5], [208, 24], [63, 16], [100, 30], [29, 29]]]}</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Rigid (capacity 16):
-74-G (5) -&gt; 48-D (4) -&gt; 33-C (16) -&gt; 9-B (10) -&gt; 121-O (6) -&gt; 95-K (15) -&gt; 182-U (7) -&gt; 28-C (6) -&gt; 19-B (6) -&gt; 81-H (16) -&gt; 94-K (5) -&gt; 83-H (16) -&gt; 119-O (12) -&gt; 154-S (14) -&gt; 93-K (9) -&gt; 2-A (14) -&gt; 83-H (15) -&gt; 70-G (7) -&gt; 68-G (10) -&gt; 18-B (15) -&gt; 171-S (2) -&gt; 126-P (10) -&gt; 117-N (6) -&gt; 209-Z (9) -&gt; 193-V (3) -&gt; 75-H (7) -&gt; 17-B (16) -&gt; 125-P (14) -&gt; 98-L (16) -&gt; 35-C (16) -&gt; 66-G (16) -&gt; 188-V (15)
+      <c r="F3" s="11" t="inlineStr">
+        <is>
+          <t>Rigid (capacity 16):
+199-W (10)
+168-S (8)
+91-K (13)
+156-S (12)
+25-C (16)
+2-A (14)
+39-C (1) -&gt; 188-V (15)
+176-T (16)
+120-O (16)
+63-G (16)
 8 Metre (capacity 22):
-144-Q (3) -&gt; 4-A (19) -&gt; 55-E (22) -&gt; 39-C (1) -&gt; 134-P (10) -&gt; 88-K (22) -&gt; 101-L (10) -&gt; 25-C (22) -&gt; 37-C (10) -&gt; 186-V (15) -&gt; 34-C (16) -&gt; 104-M (22) -&gt; 57-F (15) -&gt; 62-G (1) -&gt; 123-O (2) -&gt; 151-R (15) -&gt; 176-T (16) -&gt; 15-B (22) -&gt; 72-G (22) -&gt; 8-B (0) -&gt; 139-P (15) -&gt; 15-B (0) -&gt; 159-S (22) -&gt; 152-R (4) -&gt; 135-P (5) -&gt; 33-C (22) -&gt; 8-B (0) -&gt; 38-C (22) -&gt; 96-K (16) -&gt; 198-W (7) -&gt; 174-T (5) -&gt; 40-C (22) -&gt; 194-V (22) -&gt; 41-C (22) -&gt; 40-C (22) -&gt; 187-V (8) -&gt; 194-V (16) -&gt; 40-C (1) -&gt; 104-M (14) -&gt; 196-W (13) -&gt; 207-Y (20) -&gt; 153-S (22) -&gt; 108-M (9) -&gt; 33-C (17) -&gt; 131-P (12) -&gt; 199-W (10) -&gt; 91-K (13) -&gt; 81-H (22) -&gt; 168-S (8) -&gt; 156-S (12) -&gt; 72-G (8) -&gt; 200-W (15) -&gt; 1-A (4) -&gt; 192-V (21) -&gt; 191-V (2) -&gt; 157-S (22) -&gt; 97-K (0) -&gt; 46-D (15) -&gt; 4-A (0) -&gt; 110-M (19) -&gt; 3-A (0) -&gt; 163-S (17) -&gt; 157-S (2) -&gt; 153-S (22) -&gt; 82-H (22) -&gt; 159-S (2) -&gt; 3-A (0) -&gt; 53-E (13)
+196-W (13) -&gt; 171-S (2)
+82-H (22)
+172-S (22)
+35-C (22)
+131-P (12)
+25-C (22)
+35-C (13) -&gt; 48-D (4)
+33-C (22)
+34-C (16)
+83-H (22)
+132-P (10) -&gt; 198-W (7)
+33-C (17)
+152-R (4) -&gt; 98-L (16)
+207-Y (20)
+77-H (22) -&gt; 79-H (22) -&gt; 148-R (6)
+150-R (8)
 11 Metre (capacity 30):
-42-C (12) -&gt; 120-O (16) -&gt; 197-W (25) -&gt; 32-C (27) -&gt; 6-B (14) -&gt; 41-C (30) -&gt; 132-P (10) -&gt; 16-B (30) -&gt; 172-S (20) -&gt; 79-H (30) -&gt; 148-R (6) -&gt; 44-D (30) -&gt; 77-H (30) -&gt; 150-R (8) -&gt; 24-B (25) -&gt; 66-G (30) -&gt; 25-C (5) -&gt; 172-S (20) -&gt; 79-H (0) -&gt; 149-R (30) -&gt; 77-H (0) -&gt; 165-S (30) -&gt; 149-R (24) -&gt; 140-P (30) -&gt; 35-C (5) -&gt; 97-K (21) -&gt; 59-G (28) -&gt; 92-K (30) -&gt; 55-E (30) -&gt; 49-D (24) -&gt; 143-P (5) -&gt; 208-Z (24) -&gt; 63-G (16) -&gt; 100-L (30) -&gt; 29-C (29)
-</t>
+29-C (29)
+1-A (4) -&gt; 68-G (10)
+135-P (5) -&gt; 88-K (22)
+97-K (30)
+55-E (30)
+157-S (24) -&gt; 193-V (3)
+81-H (2) -&gt; 38-C (22)
+97-K (7) -&gt; 101-L (10)
+46-D (15) -&gt; 126-P (10)
+209-Z (9) -&gt; 117-N (6) -&gt; 125-P (14)
+194-V (30)
+28-C (6) -&gt; 49-D (24)
+77-H (30)
+151-R (15) -&gt; 186-V (15)
+59-G (28)
+16-B (30)
+149-R (30)
+72-G (30)
+208-Z (24)
+81-H (30)
+194-V (8) -&gt; 187-V (8) -&gt; 6-B (14)
+153-S (30)
+143-P (5) -&gt; 75-H (7) -&gt; 17-B (16)
+8-B (30)
+53-E (13) -&gt; 134-P (10)
+32-C (27)
+100-L (30)
+110-M (19) -&gt; 104-M (6)
+95-K (15) -&gt; 182-U (7)
+108-M (9) -&gt; 154-S (14) -&gt; 70-G (7)
+140-P (30)
+96-K (16) -&gt; 42-C (12)
+4-A (30)
+93-K (9) -&gt; 192-V (21)
+92-K (30)
+8-B (4) -&gt; 9-B (10) -&gt; 121-O (6) -&gt; 19-B (6)
+66-G (30)
+200-W (15) -&gt; 18-B (15)
+149-R (24) -&gt; 144-Q (3)
+172-S (30)
+174-T (5) -&gt; 139-P (15) -&gt; 41-C (6)
+57-F (15) -&gt; 94-K (5) -&gt; 62-G (1) -&gt; 123-O (2)
+15-B (28)
+104-M (30)
+40-C (30)
+3-A (27)
+83-H (9) -&gt; 119-O (12)
+79-H (30)
+197-W (25) -&gt; 191-V (2)
+163-S (17) -&gt; 4-A (11)
+37-C (10) -&gt; 74-G (5)
+41-C (30)
+159-S (24)
+24-B (25) -&gt; 66-G (4)
+44-D (30)
+165-S (30)
+40-C (15) -&gt; 153-S (14)</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>3601.575652</v>
+        <v>3600.6243162</v>
       </c>
       <c r="H3" t="n">
-        <v>266390.1040000001</v>
-      </c>
-      <c r="I3" t="n">
-        <v>72648.50251580951</v>
+        <v>609208.492333333</v>
       </c>
       <c r="J3">
-        <f>C3-(H3+I3*10)</f>
+        <f>C3-H3</f>
         <v/>
       </c>
       <c r="K3" s="4">
@@ -11271,11 +11409,648 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="11" t="n">
+      <c r="A4" s="15" t="n">
         <v>43775</v>
       </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>{"0": [[[108, 14]], [[56, 9], [118, 7]], [[105, 7], [199, 9]], [[9, 5], [196, 10], [74, 1]], [[192, 16]], [[154, 16]], [[63, 16]], [[48, 13]], [[70, 14], [192, 2]], [[197, 13]], [[37, 1]], [[34, 15]], [[186, 16]], [[93, 10]], [[38, 14], [178, 2]], [[37, 1]], [[4, 10], [53, 6]], [[131, 13]], [[16, 6], [149, 8]], [[207, 16]], [[120, 16]], [[12, 7], [198, 6]], [[151, 1], [12, 7]], [[184, 16]], [[9, 13]], [[166, 10], [101, 2]], [[168, 8], [7, 4], [115, 4]], [[186, 14]], [[37, 2], [81, 1], [91, 13]], [[95, 16]], [[83, 16]], [[75, 9], [135, 6]], [[188, 12], [39, 1]], [[101, 7], [19, 6], [143, 1], [193, 2]], [[46, 16]]], "2": [[[123, 27], [151, 1]], [[55, 30]], [[81, 30]], [[151, 27]], [[44, 30]], [[77, 21], [44, 6]], [[194, 30]], [[159, 24], [6, 1], [187, 2], [194, 3]], [[100, 30]], [[110, 21], [17, 8], [164, 1]], [[68, 15], [200, 10], [72, 5]], [[72, 30]], [[149, 29], [148, 1]], [[165, 27]], [[15, 30]], [[35, 30]], [[41, 30]], [[172, 28]], [[79, 30]], [[208, 30]], [[40, 29], [41, 1]], [[117, 5], [126, 12], [125, 13]], [[119, 14], [2, 13]], [[19, 10], [28, 20]], [[110, 2], [15, 28]], [[91, 30]], [[32, 30]], [[151, 30]], [[28, 3], [182, 15], [95, 9]]], "1": [[[132, 20]], [[33, 22]], [[8, 20], [33, 2]], [[104, 11], [174, 11]], [[176, 17], [35, 5]], [[153, 12], [82, 1], [100, 9]], [[25, 20], [52, 2]], [[144, 20]], [[139, 20]], [[130, 22]], [[83, 22]], [[59, 22]], [[62, 22]], [[96, 17], [184, 2], [74, 2]], [[152, 22]], [[29, 18], [154, 4]], [[208, 22]], [[97, 21], [4, 1]], [[57, 21]], [[185, 2], [3, 9], [88, 6], [208, 3]], [[178, 21], [115, 1]], [[193, 9], [143, 3], [121, 10]], [[121, 4], [163, 12], [51, 1], [135, 4]], [[66, 22]]]}</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>471229.1394000001</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>{"0": [[[208, 3], [17, 8]], [[6, 1], [41, 15]], [[96, 16]], [[19, 16]], [[149, 16]], [[34, 15]], [[207, 16]], [[81, 16]], [[83, 16]], [[166, 10], [74, 3]], [[72, 16]], [[82, 1], [194, 11], [187, 2]], [[41, 16]], [[12, 14]], [[48, 13]], [[53, 6], [196, 10]], [[163, 12]], [[105, 7]], [[108, 14]], [[200, 10]], [[120, 16]]], "1": [[[66, 22]], [[25, 20]], [[57, 21]], [[39, 1], [188, 12], [168, 8]], [[153, 12], [100, 9], [96, 1]], [[149, 21]], [[139, 20]], [[97, 21]], [[154, 20]], [[152, 22]], [[192, 18]], [[83, 22]], [[62, 22]], [[208, 22]], [[101, 9], [56, 9]], [[184, 18]], [[104, 11], [174, 11]], [[194, 22]]], "2": [[[117, 5], [118, 7], [135, 10], [198, 6]], [[100, 30]], [[35, 5], [144, 20]], [[9, 18], [4, 11]], [[55, 30]], [[208, 30]], [[165, 27]], [[159, 24]], [[178, 23], [7, 4]], [[72, 19]], [[130, 22], [173, 1]], [[79, 30]], [[15, 28]], [[151, 29]], [[88, 6], [75, 9], [193, 11]], [[93, 10], [29, 18]], [[95, 25], [143, 4]], [[91, 30]], [[38, 14], [46, 16]], [[18, 23]], [[164, 1], [115, 5], [132, 20]], [[44, 6], [77, 21], [148, 1]], [[37, 4], [185, 2], [110, 23]], [[151, 30]], [[44, 30]], [[70, 14], [68, 15]], [[16, 6], [52, 2], [59, 22]], [[32, 30]], [[33, 24]], [[8, 20]], [[81, 15], [91, 13]], [[186, 30]], [[35, 30]], [[197, 13], [125, 13]], [[176, 17], [126, 12]], [[123, 27]], [[15, 30]], [[172, 28]], [[28, 23]], [[182, 15], [199, 9]], [[119, 14], [2, 13]], [[40, 29]], [[51, 1], [3, 9], [121, 14]], [[63, 16], [131, 13]]]}</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rigid (capacity 16):
+208-Z (3) -&gt; 17-B (8)
+6-B (1) -&gt; 41-C (15)
+96-K (16)
+19-B (16)
+149-R (16)
+34-C (15)
+207-Y (16)
+81-H (16)
+83-H (16)
+166-S (10) -&gt; 74-G (3)
+72-G (16)
+82-H (1) -&gt; 194-V (11) -&gt; 187-V (2)
+41-C (16)
+12-B (14)
+48-D (13)
+53-E (6) -&gt; 196-W (10)
+163-S (12)
+105-M (7)
+108-M (14)
+200-W (10)
+120-O (16)
+8 Metre (capacity 22):
+66-G (22)
+25-C (20)
+57-F (21)
+39-C (1) -&gt; 188-V (12) -&gt; 168-S (8)
+153-S (12) -&gt; 100-L (9) -&gt; 96-K (1)
+149-R (21)
+139-P (20)
+97-K (21)
+154-S (20)
+152-R (22)
+192-V (18)
+83-H (22)
+62-G (22)
+208-Z (22)
+101-L (9) -&gt; 56-F (9)
+184-V (18)
+104-M (11) -&gt; 174-T (11)
+194-V (22)
+11 Metre (capacity 30):
+117-N (5) -&gt; 118-N (7) -&gt; 135-P (10) -&gt; 198-W (6)
+100-L (30)
+35-C (5) -&gt; 144-Q (20)
+9-B (18) -&gt; 4-A (11)
+55-E (30)
+208-Z (30)
+165-S (27)
+159-S (24)
+178-T (23) -&gt; 7-B (4)
+72-G (19)
+130-P (22) -&gt; 173-T (1)
+79-H (30)
+15-B (28)
+151-R (29)
+88-K (6) -&gt; 75-H (9) -&gt; 193-V (11)
+93-K (10) -&gt; 29-C (18)
+95-K (25) -&gt; 143-P (4)
+91-K (30)
+38-C (14) -&gt; 46-D (16)
+18-B (23)
+164-S (1) -&gt; 115-N (5) -&gt; 132-P (20)
+44-D (6) -&gt; 77-H (21) -&gt; 148-R (1)
+37-C (4) -&gt; 185-V (2) -&gt; 110-M (23)
+151-R (30)
+44-D (30)
+70-G (14) -&gt; 68-G (15)
+16-B (6) -&gt; 52-E (2) -&gt; 59-G (22)
+32-C (30)
+33-C (24)
+8-B (20)
+81-H (15) -&gt; 91-K (13)
+186-V (30)
+35-C (30)
+197-W (13) -&gt; 125-P (13)
+176-T (17) -&gt; 126-P (12)
+123-O (27)
+15-B (30)
+172-S (28)
+28-C (23)
+182-U (15) -&gt; 199-W (9)
+119-O (14) -&gt; 2-A (13)
+40-C (29)
+51-D (1) -&gt; 3-A (9) -&gt; 121-O (14)
+63-G (16) -&gt; 131-P (13)
+</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>3893.4923676</v>
+      </c>
+      <c r="H4" t="n">
+        <v>468885.1420666666</v>
+      </c>
+      <c r="J4">
+        <f>C4-(H4+I4*10)</f>
+        <v/>
+      </c>
+      <c r="K4" s="4">
+        <f>J4/C4</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="15" t="n">
+        <v>43775</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>{"1": [[[123, 21]], [[192, 20]], [[196, 20]], [[38, 22]], [[91, 22]], [[63, 22]], [[93, 15]], [[97, 22]], [[207, 20]], [[159, 20], [153, 2]], [[40, 11], [41, 9]], [[156, 6], [168, 10], [132, 6]], [[157, 12], [152, 8], [4, 2]], [[121, 6], [143, 7], [193, 3], [19, 6]], [[66, 22]], [[163, 16], [3, 4]], [[189, 22]], [[140, 20]], [[17, 19], [164, 2]], [[49, 14], [197, 7]], [[8, 15], [208, 6]], [[81, 7], [91, 15]], [[15, 22]], [[59, 21], [161, 1]], [[93, 14]], [[97, 22]], [[207, 20]], [[159, 20], [153, 2]], [[40, 11], [41, 9]], [[156, 6], [168, 10], [132, 6]], [[157, 12], [152, 8], [4, 2]], [[121, 6], [143, 7], [193, 3], [19, 6]], [[66, 22]], [[163, 16], [3, 4]], [[189, 22]], [[140, 20]], [[17, 19], [164, 2]], [[49, 14], [197, 7]], [[8, 15], [208, 6]], [[81, 7], [91, 15]], [[15, 22]], [[59, 21], [161, 1]]], "0": [[[70, 12]], [[199, 11], [74, 1]], [[34, 15]], [[9, 7], [48, 6], [181, 3]], [[154, 16]], [[81, 13], [8, 3]], [[108, 10], [120, 5]], [[131, 12], [151, 4]], [[53, 16]], [[197, 16]], [[166, 6], [66, 10]], [[83, 16]], [[3, 16]], [[75, 5]], [[24, 15]], [[83, 14]], [[120, 9], [198, 6]], [[28, 5], [135, 11]], [[149, 12], [111, 2]], [[68, 6], [1, 6], [112, 4]], [[46, 16]], [[151, 11], [186, 2]], [[7, 8], [39, 3]], [[62, 1], [57, 13]], [[47, 9], [166, 7]], [[158, 5], [137, 8]], [[134, 15], [171, 1]], [[92, 16]], [[158, 5], [137, 8]], [[131, 12], [151, 4]], [[53, 16]], [[197, 16]], [[166, 6], [66, 10]], [[83, 16]], [[3, 16]], [[75, 5]], [[24, 15]], [[83, 14]], [[120, 9], [198, 6]], [[28, 5], [135, 11]], [[149, 12], [111, 2]], [[68, 6], [1, 6], [112, 4]], [[46, 16]], [[151, 11], [186, 2]], [[7, 8], [39, 3]], [[62, 1], [57, 13]], [[47, 9], [166, 7]], [[158, 5], [137, 8]], [[134, 15], [171, 1]], [[92, 16]]], "2": [[[33, 30]], [[8, 30]], [[186, 8], [95, 22]], [[37, 28]], [[193, 4], [143, 5], [19, 9], [101, 5], [121, 5]], [[149, 28], [148, 2]], [[165, 27], [79, 3]], [[172, 30]], [[41, 30]], [[208, 30]], [[117, 7], [126, 9], [125, 11]], [[44, 25], [77, 5]], [[77, 30]], [[6, 16], [187, 10], [194, 4]], [[150, 14], [172, 16]], [[194, 30]], [[153, 30]], [[104, 22], [174, 6]], [[100, 30]], [[110, 22], [209, 7]], [[16, 30]], [[82, 27]], [[72, 30]], [[18, 16], [200, 14]], [[182, 16], [95, 7], [101, 7]], [[138, 1], [137, 29]], [], [[31, 28]], [[176, 21], [35, 6]], [[29, 28]], [[35, 30]], [[79, 30]], [[25, 27]], [[119, 13], [2, 15]], [], [[37, 28]], [[193, 4], [143, 5], [19, 9], [101, 5], [121, 5]], [[149, 28], [148, 2]], [[165, 27], [79, 3]], [[172, 30]], [[41, 30]], [[208, 30]], [[117, 7], [126, 9], [125, 11]], [[44, 25], [77, 5]], [[77, 30]], [[6, 16], [187, 10], [194, 4]], [[150, 14], [172, 16]], [[194, 30]], [[153, 30]], [[104, 22], [174, 6]], [[100, 30]], [[110, 22], [209, 7]], [[16, 30]], [[82, 27]], [[72, 30]], [[18, 16], [200, 14]], [[182, 16], [95, 7], [101, 7]], [[138, 1], [137, 29]], [], [[31, 28]], [[176, 21], [35, 6]], [[29, 28]], [[35, 30]], [[79, 30]], [[25, 27]], [[119, 13], [2, 15]], []], "3": [[[55, 36]], [[40, 38]], [[40, 38]]]}</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1428685.831666667</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>{"0": [[[1, 12]], [[59, 2], [161, 2], [148, 4], [150, 6]], [[70, 12]]], "1": [[[149, 22]], [[172, 22]], [[126, 18]], [[29, 16]], [[150, 22]], [[31, 16], [189, 4]], [[91, 22]], [[137, 22]], [[62, 2], [192, 20]], [[196, 20]], [[164, 4], [132, 12]]], "2": [[[7, 16]], [[37, 30]], [[72, 30]], [[143, 24]], [[193, 14]], [[149, 30]], [[19, 30]], [[152, 16], [108, 10]], [[208, 30]], [[49, 28]], [[149, 28]], [[172, 30]], [[123, 21]], [[198, 12], [112, 8]], [[15, 4], [187, 20]], [[137, 30]], [[158, 20]], [[16, 30]], [[200, 28]], [[16, 30]], [[24, 30]], [[33, 30]], [[37, 26]], [[91, 30]], [[25, 24]], [[81, 27]], [[57, 26]], [[119, 26]], [[83, 30]], [[8, 23]], [[9, 7], [97, 4], [174, 12]], [[40, 30]], [[72, 30]], [[120, 23]], [[63, 22]], [[154, 16], [68, 12]], [[104, 30]], [[39, 6], [168, 20]], [[66, 30]], [[165, 30]], [[153, 30]], [[131, 24]], [[172, 30]], [[166, 26]], [[93, 29]], [[25, 30]], [[151, 30]], [[79, 30]], [[28, 10]]], "3": [[[82, 40]], [[47, 18], [82, 14]], [[176, 40]], [[35, 40]], [[41, 40]], [[186, 12], [40, 28]], [[181, 3], [135, 22]], [[100, 20], [34, 15]], [[77, 40]], [[8, 40]], [[3, 40]], [[55, 36]], [[110, 4], [194, 28], [176, 2]], [[182, 32]], [[208, 40]], [[38, 22]], [[79, 36]], [[83, 30]], [[44, 40]], [[15, 40]], [[199, 11]], [[29, 40]], [[40, 40]], [[46, 32]], [[197, 6], [209, 14]], [[95, 36]], [[101, 24], [156, 12]], [[208, 2], [17, 38]], [[189, 40]], [[100, 40]], [[6, 32], [48, 6]], [[140, 40]], [[165, 24], [111, 4], [172, 10]], [[59, 40]], [[2, 30]], [[197, 40]], [[77, 30], [44, 10]], [[31, 40]], [[41, 38]], [[159, 40]], [[137, 38], [138, 2]], [[125, 22], [117, 14], [74, 1]], [[53, 32]], [[207, 40]], [[35, 32]], [[18, 32]], [[121, 22], [75, 10]], [[97, 40]], [[92, 32]], [[153, 34]], [[66, 34]], [[134, 30], [171, 2]], [[194, 40]], [[110, 40]], [[163, 32], [4, 4]], [[157, 24], [104, 14]]]}</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rigid (capacity 16):
+1-A (12)
+59-G (2) -&gt; 161-S (2) -&gt; 148-R (4) -&gt; 150-R (6)
+70-G (12)
+8 Metre (capacity 22):
+149-R (22)
+172-S (22)
+126-P (18)
+29-C (16)
+150-R (22)
+31-C (16) -&gt; 189-V (4)
+91-K (22)
+137-P (22)
+62-G (2) -&gt; 192-V (20)
+196-W (20)
+164-S (4) -&gt; 132-P (12)
+11 Metre (capacity 30):
+7-B (16)
+37-C (30)
+72-G (30)
+143-P (24)
+193-V (14)
+149-R (30)
+19-B (30)
+152-R (16) -&gt; 108-M (10)
+208-Z (30)
+49-D (28)
+149-R (28)
+172-S (30)
+123-O (21)
+198-W (12) -&gt; 112-M (8)
+15-B (4) -&gt; 187-V (20)
+137-P (30)
+158-S (20)
+16-B (30)
+200-W (28)
+16-B (30)
+24-B (30)
+33-C (30)
+37-C (26)
+91-K (30)
+25-C (24)
+81-H (27)
+57-F (26)
+119-O (26)
+83-H (30)
+8-B (23)
+9-B (7) -&gt; 97-K (4) -&gt; 174-T (12)
+40-C (30)
+72-G (30)
+120-O (23)
+63-G (22)
+154-S (16) -&gt; 68-G (12)
+104-M (30)
+39-C (6) -&gt; 168-S (20)
+66-G (30)
+165-S (30)
+153-S (30)
+131-P (24)
+172-S (30)
+166-S (26)
+93-K (29)
+25-C (30)
+151-R (30)
+79-H (30)
+28-C (10)
+Link (capacity 40):
+82-H (40)
+47-D (18) -&gt; 82-H (14)
+176-T (40)
+35-C (40)
+41-C (40)
+186-V (12) -&gt; 40-C (28)
+181-T (3) -&gt; 135-P (22)
+100-L (20) -&gt; 34-C (15)
+77-H (40)
+8-B (40)
+3-A (40)
+55-E (36)
+110-M (4) -&gt; 194-V (28) -&gt; 176-T (2)
+182-U (32)
+208-Z (40)
+38-C (22)
+79-H (36)
+83-H (30)
+44-D (40)
+15-B (40)
+199-W (11)
+29-C (40)
+40-C (40)
+46-D (32)
+197-W (6) -&gt; 209-Z (14)
+95-K (36)
+101-L (24) -&gt; 156-S (12)
+208-Z (2) -&gt; 17-B (38)
+189-V (40)
+100-L (40)
+6-B (32) -&gt; 48-D (6)
+140-P (40)
+165-S (24) -&gt; 111-M (4) -&gt; 172-S (10)
+59-G (40)
+2-A (30)
+197-W (40)
+77-H (30) -&gt; 44-D (10)
+31-C (40)
+41-C (38)
+159-S (40)
+137-P (38) -&gt; 138-P (2)
+125-P (22) -&gt; 117-N (14) -&gt; 74-G (1)
+53-E (32)
+207-Y (40)
+35-C (32)
+18-B (32)
+121-O (22) -&gt; 75-H (10)
+97-K (40)
+92-K (32)
+153-S (34)
+66-G (34)
+134-P (30) -&gt; 171-S (2)
+194-V (40)
+110-M (40)
+163-S (32) -&gt; 4-A (4)
+157-S (24) -&gt; 104-M (14)
+</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>3661.454996</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1267130.2462</v>
+      </c>
+      <c r="J5">
+        <f>C5-(H5+I5*10)</f>
+        <v/>
+      </c>
+      <c r="K5" s="4">
+        <f>J5/C5</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="17" t="n">
+        <v>43768</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>{"0": [[[37, 10], [123, 1]], [[9, 10], [48, 4]], [[196, 13], [157, 3]], [[154, 14]], [[144, 3], [49, 3]], [[34, 16]], [[63, 16]], [[108, 9], [120, 7]], [[199, 10], [74, 5]], [[93, 9], [70, 7]], [[186, 14], [151, 1]], [[91, 13], [81, 2]], [[53, 13], [95, 3]], [[197, 16]], [[131, 12], [8, 4]], [[66, 12]], [[83, 13]], [[79, 7], [77, 7]], [[120, 9], [198, 7]], [[96, 16]], [[46, 15]], [[188, 15], [39, 1]], [[151, 14], [123, 1]], [[17, 16]], [[42, 12]], [[134, 10], [171, 2]], [[62, 1], [57, 15]], [[191, 2], [94, 5]]], "1": [[[192, 21]], [[38, 22]], [[33, 9], [4, 11]], [[88, 22]], [[82, 22]], [[68, 10], [1, 4], [18, 8]], [[207, 20]], [[83, 18], [2, 4]], [[119, 12], [2, 10]], [[18, 7], [200, 15]], [[3, 22]], [[157, 21]], [[163, 17], [3, 5]], [[66, 22]]], "2": [[[33, 30]], [[4, 30]], [[32, 27]], [[81, 30]], [[8, 30]], [[55, 30]], [[44, 30]], [[77, 30]], [[159, 24], [41, 6]], [[150, 8], [172, 20]], [[98, 16], [153, 14]], [[149, 24], [148, 6]], [[149, 30]], [[165, 30]], [[172, 30]], [[15, 28]], [[6, 14], [187, 8], [194, 8]], [[176, 16], [35, 5], [209, 9]], [[153, 30]], [[104, 30]], [[100, 30]], [[110, 19], [174, 5], [104, 6]], [[16, 30]], [[156, 12], [168, 8], [132, 10]], [[72, 30]], [[29, 29]], [[35, 30]], [[41, 30]], [[194, 30]], [[79, 30]], [[208, 24], [152, 4]], [[24, 25], [25, 5]], [[25, 30]], [[117, 6], [126, 10], [125, 14]], [[40, 30]], [[59, 28]], [[92, 30]], [[139, 15], [40, 15]], [[121, 6], [143, 5], [193, 3], [19, 6], [97, 10]], [[97, 27]], [[186, 1], [95, 12], [182, 7], [101, 10]], [[49, 21], [197, 9]], [[140, 30]]]}</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>592286.4353333331</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>{"0": [[[66, 16]], [[79, 16]], [[96, 16]], [[66, 16]], [[40, 15]], [[144, 3], [117, 6], [174, 5]], [[131, 12]], [[151, 15]]], "1": [[[207, 20], [123, 2]], [[150, 8], [148, 6], [66, 2]], [[38, 22]], [[4, 11], [48, 4]]], "2": [[[208, 24]], [[4, 30]], [[165, 30]], [[81, 30]], [[104, 30]], [[53, 13], [63, 16]], [[32, 27]], [[140, 30]], [[149, 30]], [[70, 7], [154, 14], [1, 4]], [[3, 27], [193, 3]], [[24, 25], [74, 5]], [[97, 30]], [[44, 30]], [[6, 14], [139, 15]], [[121, 6], [163, 17], [182, 7]], [[15, 28]], [[16, 30]], [[92, 30]], [[100, 30]], [[77, 30]], [[59, 28]], [[104, 6], [176, 16]], [[25, 30]], [[101, 10], [9, 10], [33, 9]], [[194, 8], [187, 8], [41, 6]], [[197, 25]], [[72, 30]], [[125, 14], [126, 10]], [[134, 10], [42, 12]], [[88, 22], [75, 7]], [[188, 15], [39, 1], [132, 10]], [[17, 16], [143, 5], [19, 6]], [[81, 2], [91, 13], [199, 10]], [[186, 15]], [[152, 4], [108, 9], [18, 15]], [[2, 14], [119, 12], [83, 1]], [[49, 24]], [[172, 20], [25, 5]], [[168, 8], [120, 16]], [[200, 15], [37, 10]], [[156, 12], [46, 15]], [[29, 29]], [[83, 30]], [[57, 15], [94, 5], [62, 1]], [[82, 22]], [[34, 16], [171, 2]], [[97, 7], [28, 6], [95, 15]], [[192, 21], [198, 7]], [[55, 30]], [[153, 14], [98, 16]], [[77, 7], [79, 21]], [[33, 30]], [[35, 30]], [[209, 9], [196, 13]], [[35, 5], [149, 24]], [[172, 30]], [[110, 19]], [[153, 30]], [[41, 30]], [[194, 30]], [[159, 24], [135, 5]], [[8, 4], [157, 24], [191, 2]], [[8, 30]], [[68, 10], [93, 9]], [[40, 30]]]}</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rigid (capacity 16):
+66-G (16)
+79-H (16)
+96-K (16)
+66-G (16)
+40-C (15)
+144-Q (3) -&gt; 117-N (6) -&gt; 174-T (5)
+131-P (12)
+151-R (15)
+8 Metre (capacity 22):
+207-Y (20) -&gt; 123-O (2)
+150-R (8) -&gt; 148-R (6) -&gt; 66-G (2)
+38-C (22)
+4-A (11) -&gt; 48-D (4)
+11 Metre (capacity 30):
+208-Z (24)
+4-A (30)
+165-S (30)
+81-H (30)
+104-M (30)
+53-E (13) -&gt; 63-G (16)
+32-C (27)
+140-P (30)
+149-R (30)
+70-G (7) -&gt; 154-S (14) -&gt; 1-A (4)
+3-A (27) -&gt; 193-V (3)
+24-B (25) -&gt; 74-G (5)
+97-K (30)
+44-D (30)
+6-B (14) -&gt; 139-P (15)
+121-O (6) -&gt; 163-S (17) -&gt; 182-U (7)
+15-B (28)
+16-B (30)
+92-K (30)
+100-L (30)
+77-H (30)
+59-G (28)
+104-M (6) -&gt; 176-T (16)
+25-C (30)
+101-L (10) -&gt; 9-B (10) -&gt; 33-C (9)
+194-V (8) -&gt; 187-V (8) -&gt; 41-C (6)
+197-W (25)
+72-G (30)
+125-P (14) -&gt; 126-P (10)
+134-P (10) -&gt; 42-C (12)
+88-K (22) -&gt; 75-H (7)
+188-V (15) -&gt; 39-C (1) -&gt; 132-P (10)
+17-B (16) -&gt; 143-P (5) -&gt; 19-B (6)
+81-H (2) -&gt; 91-K (13) -&gt; 199-W (10)
+186-V (15)
+152-R (4) -&gt; 108-M (9) -&gt; 18-B (15)
+2-A (14) -&gt; 119-O (12) -&gt; 83-H (1)
+49-D (24)
+172-S (20) -&gt; 25-C (5)
+168-S (8) -&gt; 120-O (16)
+200-W (15) -&gt; 37-C (10)
+156-S (12) -&gt; 46-D (15)
+29-C (29)
+83-H (30)
+57-F (15) -&gt; 94-K (5) -&gt; 62-G (1)
+82-H (22)
+34-C (16) -&gt; 171-S (2)
+97-K (7) -&gt; 28-C (6) -&gt; 95-K (15)
+192-V (21) -&gt; 198-W (7)
+55-E (30)
+153-S (14) -&gt; 98-L (16)
+77-H (7) -&gt; 79-H (21)
+33-C (30)
+35-C (30)
+209-Z (9) -&gt; 196-W (13)
+35-C (5) -&gt; 149-R (24)
+172-S (30)
+110-M (19)
+153-S (30)
+41-C (30)
+194-V (30)
+159-S (24) -&gt; 135-P (5)
+8-B (4) -&gt; 157-S (24) -&gt; 191-V (2)
+8-B (30)
+68-G (10) -&gt; 93-K (9)
+40-C (30)
+</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>3786.4904318</v>
+      </c>
+      <c r="H6" t="n">
+        <v>611931.9450000001</v>
+      </c>
+      <c r="J6">
+        <f>C6-(H6+I6*10)</f>
+        <v/>
+      </c>
+      <c r="K6" s="4">
+        <f>J6/C6</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="16" t="n">
+        <v>43745</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>{"2": [[[17, 24], [164, 4]], [[44, 30]], [[111, 3], [77, 27]], [[149, 28], [148, 2]], [[165, 30]], [[159, 19], [194, 11]], [[41, 30]], [[172, 30]], [[79, 30]], [[104, 30]], [[6, 23], [187, 7]], [[176, 30]], [[153, 30]], [[208, 30]], [[35, 30]], [[100, 30]], [[83, 20]], [[40, 30]], [[117, 7], [126, 14], [125, 9]], [[121, 12], [143, 11], [193, 7]], [[80, 20], [168, 9]], [[135, 5], [182, 15], [95, 10]], [[81, 30]], [[193, 12], [143, 18]], [[121, 19], [135, 10]]], "1": [[[75, 18]], [[149, 22]], [[24, 8], [25, 14]], [[207, 21]], [[72, 22]], [[119, 10], [2, 12]], [[157, 22]], [[46, 20]], [[188, 22]], [[186, 9], [53, 12]], [[130, 22]], [[83, 20]], [[116, 10], [177, 11], [203, 1]], [[27, 22]]], "0": [[[194, 16]], [[16, 10], [165, 4]], [[156, 16]], [[77, 11]], [[120, 11], [198, 5]], [[151, 16]], [[196, 8], [48, 5]], [[34, 14]], [[9, 15]], [[154, 13]], [[8, 16]], [[108, 11]], [[152, 15]], [[120, 12]], [[199, 1], [91, 6], [81, 6]], [[197, 14]], [[131, 16]], [[151, 9], [173, 7]], [[144, 12]], [[166, 6], [28, 2], [3, 8]], [[97, 13]], [[66, 15]]]}</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>469154.8897999998</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>{"0": [[]], "1": [[]], "2": [[[97, 13], [9, 15]], [[100, 30]], [[198, 5], [120, 23]], [[35, 30]], [[153, 30]], [[194, 27]], [[116, 10], [203, 1], [177, 11]], [[165, 30]], [[6, 23]], [[53, 12], [186, 9]], [[81, 30]], [[41, 30]], [[77, 30]], [[151, 25]], [[2, 12], [119, 10]], [[176, 30]], [[168, 9], [46, 20]], [[79, 30]], [[125, 9], [197, 14], [117, 7]], [[135, 15], [196, 8]], [[208, 30]], [[81, 6], [154, 13], [83, 10]], [[121, 30]], [[193, 19], [19, 10], [121, 1]], [[166, 6], [80, 20]], [[104, 30]], [[40, 30]], [[159, 19], [108, 11]], [[48, 5], [182, 15], [95, 10]], [[188, 22], [91, 6], [199, 1]], [[157, 22], [3, 8]], [[130, 22]], [[172, 30]], [[16, 10], [148, 2], [165, 4], [77, 8], [111, 3]], [[83, 30]], [[27, 22], [187, 7]], [[72, 22]], [[66, 15], [25, 14]], [[156, 16]], [[164, 4], [17, 24]], [[143, 29]], [[75, 18], [101, 6]], [[8, 16]], [[28, 2], [149, 20], [24, 8]], [[149, 30]], [[126, 14], [144, 12]], [[131, 16]], [[44, 30]], [[152, 15], [34, 14]], [[207, 21], [173, 7]]]}</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rigid (capacity 16):
+8 Metre (capacity 22):
+11 Metre (capacity 30):
+97-K (13) -&gt; 9-B (15)
+100-L (30)
+198-W (5) -&gt; 120-O (23)
+35-C (30)
+153-S (30)
+194-V (27)
+116-N (10) -&gt; 203-W (1) -&gt; 177-T (11)
+165-S (30)
+6-B (23)
+53-E (12) -&gt; 186-V (9)
+81-H (30)
+41-C (30)
+77-H (30)
+151-R (25)
+2-A (12) -&gt; 119-O (10)
+176-T (30)
+168-S (9) -&gt; 46-D (20)
+79-H (30)
+125-P (9) -&gt; 197-W (14) -&gt; 117-N (7)
+135-P (15) -&gt; 196-W (8)
+208-Z (30)
+81-H (6) -&gt; 154-S (13) -&gt; 83-H (10)
+121-O (30)
+193-V (19) -&gt; 19-B (10) -&gt; 121-O (1)
+166-S (6) -&gt; 80-H (20)
+104-M (30)
+40-C (30)
+159-S (19) -&gt; 108-M (11)
+48-D (5) -&gt; 182-U (15) -&gt; 95-K (10)
+188-V (22) -&gt; 91-K (6) -&gt; 199-W (1)
+157-S (22) -&gt; 3-A (8)
+130-P (22)
+172-S (30)
+16-B (10) -&gt; 148-R (2) -&gt; 165-S (4) -&gt; 77-H (8) -&gt; 111-M (3)
+83-H (30)
+27-C (22) -&gt; 187-V (7)
+72-G (22)
+66-G (15) -&gt; 25-C (14)
+156-S (16)
+164-S (4) -&gt; 17-B (24)
+143-P (29)
+75-H (18) -&gt; 101-L (6)
+8-B (16)
+28-C (2) -&gt; 149-R (20) -&gt; 24-B (8)
+149-R (30)
+126-P (14) -&gt; 144-Q (12)
+131-P (16)
+44-D (30)
+152-R (15) -&gt; 34-C (14)
+207-Y (21) -&gt; 173-T (7)
+</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>3601.0539597</v>
+      </c>
+      <c r="H7" t="n">
+        <v>412483.5701333333</v>
+      </c>
+      <c r="J7">
+        <f>C7-(H7+I7*10)</f>
+        <v/>
+      </c>
+      <c r="K7" s="4">
+        <f>J7/C7</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="15" t="n">
+        <v>43795</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>{"3": [[[22, 36]], [[41, 39]], [[23, 40]], [[85, 30]], []], "1": [[[156, 17], [132, 5]], [[17, 10], [164, 1], [197, 11]], [[207, 22]], [[83, 22]], [[119, 12], [2, 10]], [[46, 20]], [[188, 20]], [[151, 20]], [[56, 11], [118, 9]], [[72, 15], [18, 7]], [[58, 15], [22, 7]], [[142, 22]], [[50, 2], [78, 6], [113, 4], [94, 6], [102, 4]], [[35, 21]], [[168, 13], [17, 7]], [[163, 19], [3, 3]], [[186, 22]], [[205, 9], [45, 6], [206, 7]], [[144, 21]], [[157, 10], [28, 12]], [[121, 4], [143, 6], [193, 7], [185, 5]], [[135, 10], [95, 3], [182, 7]], [[151, 22]], [[173, 13], [131, 7]], [[40, 22]], [[57, 21]], [[89, 22]], [[158, 22]], [[84, 22]]], "2": [[[59, 30]], [[68, 9], [1, 21]], [[72, 30]], [[29, 30]], [[18, 18], [200, 12]], [[96, 27]], [[152, 4], [15, 26]], [[139, 30]], [[24, 9], [25, 7], [59, 11]], [[40, 30]], [[117, 2], [126, 14], [125, 14]], [[157, 15], [95, 15]], [[135, 15], [33, 5], [182, 10]], [[121, 14], [143, 15]], [[66, 19], [168, 11]], [[69, 30]], [[153, 30]], [[91, 27]], [[49, 30]], [[208, 30]], [[29, 10], [1, 20]], [[12, 20]], [[81, 5], [91, 23]], [[193, 5], [19, 12], [101, 10]], [[104, 12], [100, 15], [153, 3]], [[95, 30]], [[201, 30]], [[111, 30]], [[99, 30]], [[124, 30]], [[150, 30]], [[109, 30]], [[104, 30]], [[15, 30]], [[98, 30]], [[99, 10], [26, 20]], [[149, 30]], [[150, 19], [149, 7], [165, 4]], [[110, 7], [176, 8], [174, 15]], [[172, 19], [111, 11]], [[109, 28]], [[156, 20], [132, 10]], [[10, 30]], [[76, 20], [10, 10]], [[17, 29], [164, 1]], [[53, 14], [130, 16]], [[3, 25], [51, 4]], [[29, 27]], [[154, 30]], [[11, 2], [208, 11], [97, 14]], [[69, 30]], [[157, 1], [193, 7], [143, 11], [121, 11]], [[178, 28], [61, 2]], [[45, 7], [175, 23]], [[185, 17]], [[19, 2], [28, 17], [101, 11]], [[69, 30]], [], [[147, 7]], [[85, 30]], [[20, 30]], [[84, 30]], [[116, 5], [85, 23]], [[20, 18]]], "0": [[[7, 4], [188, 6], [39, 5]], [[120, 9], [198, 6]], [[80, 16]], [[69, 15]], [[134, 13]], [[92, 16]], [[112, 2], [198, 7], [42, 1]], [[51, 12]], [[62, 13], [87, 2]], [[47, 12], [166, 4]], [[128, 14]], [[105, 5], [46, 4], [115, 7]], [[191, 4], [48, 10], [96, 2]], [[186, 16]], [[134, 8], [171, 5]], [[93, 10], [151, 6]], [[8, 5], [33, 5]], [[142, 4], [12, 11]], [[130, 3], [53, 13]], [[13, 16]], [[9, 11]], [[97, 15]], [[75, 3], [135, 5]], [[90, 16]], [], [], [], [[195, 1]], [[83, 16]], [[69, 7]], [[158, 13]]]}</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>1275847.080066667</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>{"3": [[[85, 40]], [[72, 40]], [[12, 31]], [[120, 9], [98, 30]], [[153, 33], [131, 7]], [[84, 40]], [[20, 40]], [[115, 7], [47, 12], [126, 14]], [[22, 40]], [[49, 30], [166, 4]], [[150, 40]], [[15, 40]], [[45, 13], [22, 3]], [[116, 5], [84, 12], [147, 7], [110, 7], [42, 1]], [[91, 10], [58, 15]], [[33, 10], [135, 30]], [[35, 21], [125, 14], [11, 2]], [[178, 28], [56, 11]], [[158, 35]], [[10, 40]], [[157, 26], [117, 2], [61, 2], [39, 5], [164, 2]], [[95, 40]], [[69, 40]], [[205, 9]], [[111, 40]], [[124, 30]], [[85, 40]], [[92, 40]], [[59, 1], [92, 8], [66, 19]], [[175, 23]], [[91, 40]], [[40, 40]], [[96, 29]], [[9, 11], [28, 29]], [[163, 19]], [[23, 40]], [[185, 22], [176, 8]], [[101, 21], [200, 12]], [[2, 10], [142, 26]], [[69, 40]], [[207, 22], [198, 13]], [[50, 2], [78, 6], [113, 4], [182, 17], [191, 4]], [[17, 40]], [[134, 21], [171, 5]], [[69, 32]], [[83, 38]], [[130, 19], [13, 16]], [[29, 40]], [[97, 29], [87, 2], [94, 6]], [[72, 5], [195, 1], [154, 30]], [[104, 40]], [[208, 40]], [[118, 9], [19, 14]], [[186, 38]], [[1, 40]], [[144, 21], [206, 7]], [[128, 14]], [[149, 37], [111, 1]], [[165, 4], [201, 30]], [[99, 40]], [[90, 16]], [[197, 11], [76, 20]], [[132, 15]], [[109, 40]], [[102, 4], [57, 21], [119, 12]], [[17, 6], [81, 5], [80, 16], [152, 4]], [[59, 40]], [[168, 24], [7, 4]], [[41, 39]], [[100, 15]], [[3, 28], [48, 10]], [[18, 25], [93, 10], [1, 1]], [[150, 9], [172, 19]], [[151, 40]], [[188, 26], [24, 9], [105, 5]], [[20, 8], [89, 22], [85, 3]], [[139, 30]], [[40, 12], [173, 13]], [[62, 13], [151, 8]], [[156, 37]], [[121, 29], [8, 5]], [[53, 27]], [[26, 20], [109, 18]], [[68, 9], [29, 27], [112, 2]], [[193, 19], [51, 16], [208, 1]], [[25, 7], [46, 24]], [[174, 15], [15, 16], [104, 2], [75, 3]], [[95, 8], [143, 32]]]}</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Link (capacity 40):
+85-K (40)
+72-G (40)
+12-B (31)
+120-O (9) -&gt; 98-L (30)
+153-S (33) -&gt; 131-P (7)
+84-K (40)
+20-B (40)
+115-N (7) -&gt; 47-D (12) -&gt; 126-P (14)
+22-B (40)
+49-D (30) -&gt; 166-S (4)
+150-R (40)
+15-B (40)
+45-D (13) -&gt; 22-B (3)
+116-N (5) -&gt; 84-K (12) -&gt; 147-R (7) -&gt; 110-M (7) -&gt; 42-C (1)
+91-K (10) -&gt; 58-G (15)
+33-C (10) -&gt; 135-P (30)
+35-C (21) -&gt; 125-P (14) -&gt; 11-B (2)
+178-T (28) -&gt; 56-F (11)
+158-S (35)
+10-B (40)
+157-S (26) -&gt; 117-N (2) -&gt; 61-G (2) -&gt; 39-C (5) -&gt; 164-S (2)
+95-K (40)
+69-G (40)
+205-W (9)
+111-M (40)
+124-O (30)
+85-K (40)
+92-K (40)
+59-G (1) -&gt; 92-K (8) -&gt; 66-G (19)
+175-T (23)
+91-K (40)
+40-C (40)
+96-K (29)
+9-B (11) -&gt; 28-C (29)
+163-S (19)
+23-B (40)
+185-V (22) -&gt; 176-T (8)
+101-L (21) -&gt; 200-W (12)
+2-A (10) -&gt; 142-P (26)
+69-G (40)
+207-Y (22) -&gt; 198-W (13)
+50-D (2) -&gt; 78-H (6) -&gt; 113-M (4) -&gt; 182-U (17) -&gt; 191-V (4)
+17-B (40)
+134-P (21) -&gt; 171-S (5)
+69-G (32)
+83-H (38)
+130-P (19) -&gt; 13-B (16)
+29-C (40)
+97-K (29) -&gt; 87-K (2) -&gt; 94-K (6)
+72-G (5) -&gt; 195-W (1) -&gt; 154-S (30)
+104-M (40)
+208-Z (40)
+118-N (9) -&gt; 19-B (14)
+186-V (38)
+1-A (40)
+144-Q (21) -&gt; 206-W (7)
+128-P (14)
+149-R (37) -&gt; 111-M (1)
+165-S (4) -&gt; 201-W (30)
+99-L (40)
+90-K (16)
+197-W (11) -&gt; 76-H (20)
+132-P (15)
+109-M (40)
+102-L (4) -&gt; 57-F (21) -&gt; 119-O (12)
+17-B (6) -&gt; 81-H (5) -&gt; 80-H (16) -&gt; 152-R (4)
+59-G (40)
+168-S (24) -&gt; 7-B (4)
+41-C (39)
+100-L (15)
+3-A (28) -&gt; 48-D (10)
+18-B (25) -&gt; 93-K (10) -&gt; 1-A (1)
+150-R (9) -&gt; 172-S (19)
+151-R (40)
+188-V (26) -&gt; 24-B (9) -&gt; 105-M (5)
+20-B (8) -&gt; 89-K (22) -&gt; 85-K (3)
+139-P (30)
+40-C (12) -&gt; 173-T (13)
+62-G (13) -&gt; 151-R (8)
+156-S (37)
+121-O (29) -&gt; 8-B (5)
+53-E (27)
+26-C (20) -&gt; 109-M (18)
+68-G (9) -&gt; 29-C (27) -&gt; 112-M (2)
+193-V (19) -&gt; 51-D (16) -&gt; 208-Z (1)
+25-C (7) -&gt; 46-D (24)
+174-T (15) -&gt; 15-B (16) -&gt; 104-M (2) -&gt; 75-H (3)
+95-K (8) -&gt; 143-P (32)
+</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>3902.6114637</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1140670.6408</v>
+      </c>
+      <c r="J8">
+        <f>C8-(H8+I8*10)</f>
+        <v/>
+      </c>
+      <c r="K8" s="4">
+        <f>J8/C8</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="17" t="n">
+        <v>43768</v>
+      </c>
+      <c r="J9">
+        <f>C9-(H9+I9*10)</f>
+        <v/>
+      </c>
+      <c r="K9" s="4">
+        <f>J9/C9</f>
+        <v/>
+      </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="K1:K1048576">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/vrp_dss/Solve Times Summary.xlsx
+++ b/vrp_dss/Solve Times Summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Aaron\Documents\Git Repositories\VRP-DSS\vrp_dss\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23664A35-128B-481D-8FF4-71464225EF8D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D33A313-095B-456D-97EC-21427FEBA19E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="248">
   <si>
     <t># Customers</t>
   </si>
@@ -3908,6 +3908,21 @@
 140-P (30)
 41-C (6) -&gt; 194-V (8) -&gt; 187-V (8) -&gt; 35-C (5)
 </t>
+  </si>
+  <si>
+    <t>Excess vehicles used have increased costs</t>
+  </si>
+  <si>
+    <t>Seeding solutions</t>
+  </si>
+  <si>
+    <t>Unlimited fleets</t>
+  </si>
+  <si>
+    <t>Aspects added</t>
+  </si>
+  <si>
+    <t>Performance Optimisations</t>
   </si>
 </sst>
 </file>
@@ -7302,7 +7317,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
@@ -7679,7 +7694,7 @@
   <dimension ref="A1:V208"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="I35" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="I29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="O29" sqref="O29"/>
@@ -12427,10 +12442,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12446,9 +12461,10 @@
     <col min="9" max="9" width="12.85546875" style="11" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.5703125" style="11" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14" style="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="38.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>208</v>
       </c>
@@ -12482,8 +12498,11 @@
       <c r="K1" s="5" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L1" s="5" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
         <v>43745</v>
       </c>
@@ -12511,7 +12530,7 @@
         <v>2.9036620164271349E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
         <v>43768</v>
       </c>
@@ -12538,8 +12557,11 @@
         <f t="shared" si="0"/>
         <v>-2.8570731981184649E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L3" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>43775</v>
       </c>
@@ -12570,7 +12592,7 @@
         <v>4.974219837758781E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>43775</v>
       </c>
@@ -12600,8 +12622,11 @@
         <f t="shared" si="0"/>
         <v>0.11307985414694049</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L5" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
         <v>43768</v>
       </c>
@@ -12632,7 +12657,7 @@
         <v>-3.3168933972986682E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <v>43745</v>
       </c>
@@ -12663,7 +12688,7 @@
         <v>0.12079447725851343</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>43795</v>
       </c>
@@ -12694,7 +12719,7 @@
         <v>0.105950345757427</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
         <v>43768</v>
       </c>
@@ -12725,7 +12750,7 @@
         <v>-1.9547239268025863E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>43745</v>
       </c>
@@ -12755,8 +12780,11 @@
         <f t="shared" ref="K10:K11" si="3">J10/C10</f>
         <v>0.12671645898302314</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L10" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
         <v>43768</v>
       </c>
@@ -12787,8 +12815,26 @@
         <v>-1.4481975484296224E-2</v>
       </c>
     </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="9">
+        <v>43745</v>
+      </c>
+      <c r="L12" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="10">
+        <v>43768</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="8">
+        <v>43795</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="K1:K1048576">
+  <conditionalFormatting sqref="K1:K1048576 L1">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/vrp_dss/Solve Times Summary.xlsx
+++ b/vrp_dss/Solve Times Summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Aaron\Documents\Git Repositories\VRP-DSS\vrp_dss\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D33A313-095B-456D-97EC-21427FEBA19E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{140A615A-C713-4823-8019-A1535E71DA7E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="270">
   <si>
     <t># Customers</t>
   </si>
@@ -3035,6 +3035,9 @@
   </si>
   <si>
     <t>Difference (%)</t>
+  </si>
+  <si>
+    <t>Aspects added</t>
   </si>
   <si>
     <t>{"2": [[[17, 24], [164, 4]], [[44, 30]], [[111, 3], [77, 27]], [[149, 28], [148, 2]], [[165, 30]], [[159, 19], [194, 11]], [[41, 30]], [[172, 30]], [[79, 30]], [[104, 30]], [[6, 23], [187, 7]], [[176, 30]], [[153, 30]], [[208, 30]], [[35, 30]], [[100, 30]], [[83, 20]], [[40, 30]], [[117, 7], [126, 14], [125, 9]], [[121, 12], [143, 11], [193, 7]], [[80, 20], [168, 9]], [[135, 5], [182, 15], [95, 10]], [[81, 30]], [[193, 12], [143, 18]], [[121, 19], [135, 10]]], "1": [[[75, 18]], [[149, 22]], [[24, 8], [25, 14]], [[207, 21]], [[72, 22]], [[119, 10], [2, 12]], [[157, 22]], [[46, 20]], [[188, 22]], [[186, 9], [53, 12]], [[130, 22]], [[83, 20]], [[116, 10], [177, 11], [203, 1]], [[27, 22]]], "0": [[[194, 16]], [[16, 10], [165, 4]], [[156, 16]], [[77, 11]], [[120, 11], [198, 5]], [[151, 16]], [[196, 8], [48, 5]], [[34, 14]], [[9, 15]], [[154, 13]], [[8, 16]], [[108, 11]], [[152, 15]], [[120, 12]], [[199, 1], [91, 6], [81, 6]], [[197, 14]], [[131, 16]], [[151, 9], [173, 7]], [[144, 12]], [[166, 6], [28, 2], [3, 8]], [[97, 13]], [[66, 15]]]}</t>
@@ -3201,6 +3204,9 @@
 44-D (30)
 165-S (30)
 40-C (15) -&gt; 153-S (14)</t>
+  </si>
+  <si>
+    <t>Unlimited fleets</t>
   </si>
   <si>
     <t>{"0": [[[108, 14]], [[56, 9], [118, 7]], [[105, 7], [199, 9]], [[9, 5], [196, 10], [74, 1]], [[192, 16]], [[154, 16]], [[63, 16]], [[48, 13]], [[70, 14], [192, 2]], [[197, 13]], [[37, 1]], [[34, 15]], [[186, 16]], [[93, 10]], [[38, 14], [178, 2]], [[37, 1]], [[4, 10], [53, 6]], [[131, 13]], [[16, 6], [149, 8]], [[207, 16]], [[120, 16]], [[12, 7], [198, 6]], [[151, 1], [12, 7]], [[184, 16]], [[9, 13]], [[166, 10], [101, 2]], [[168, 8], [7, 4], [115, 4]], [[186, 14]], [[37, 2], [81, 1], [91, 13]], [[95, 16]], [[83, 16]], [[75, 9], [135, 6]], [[188, 12], [39, 1]], [[101, 7], [19, 6], [143, 1], [193, 2]], [[46, 16]]], "2": [[[123, 27], [151, 1]], [[55, 30]], [[81, 30]], [[151, 27]], [[44, 30]], [[77, 21], [44, 6]], [[194, 30]], [[159, 24], [6, 1], [187, 2], [194, 3]], [[100, 30]], [[110, 21], [17, 8], [164, 1]], [[68, 15], [200, 10], [72, 5]], [[72, 30]], [[149, 29], [148, 1]], [[165, 27]], [[15, 30]], [[35, 30]], [[41, 30]], [[172, 28]], [[79, 30]], [[208, 30]], [[40, 29], [41, 1]], [[117, 5], [126, 12], [125, 13]], [[119, 14], [2, 13]], [[19, 10], [28, 20]], [[110, 2], [15, 28]], [[91, 30]], [[32, 30]], [[151, 30]], [[28, 3], [182, 15], [95, 9]]], "1": [[[132, 20]], [[33, 22]], [[8, 20], [33, 2]], [[104, 11], [174, 11]], [[176, 17], [35, 5]], [[153, 12], [82, 1], [100, 9]], [[25, 20], [52, 2]], [[144, 20]], [[139, 20]], [[130, 22]], [[83, 22]], [[59, 22]], [[62, 22]], [[96, 17], [184, 2], [74, 2]], [[152, 22]], [[29, 18], [154, 4]], [[208, 22]], [[97, 21], [4, 1]], [[57, 21]], [[185, 2], [3, 9], [88, 6], [208, 3]], [[178, 21], [115, 1]], [[193, 9], [143, 3], [121, 10]], [[121, 4], [163, 12], [51, 1], [135, 4]], [[66, 22]]]}</t>
@@ -3430,6 +3436,9 @@
 </t>
   </si>
   <si>
+    <t>Performance Optimisations</t>
+  </si>
+  <si>
     <t>{"0": [[[66, 16]], [[79, 16]], [[96, 16]], [[66, 16]], [[40, 15]], [[144, 3], [117, 6], [174, 5]], [[131, 12]], [[151, 15]]], "1": [[[207, 20], [123, 2]], [[150, 8], [148, 6], [66, 2]], [[38, 22]], [[4, 11], [48, 4]]], "2": [[[208, 24]], [[4, 30]], [[165, 30]], [[81, 30]], [[104, 30]], [[53, 13], [63, 16]], [[32, 27]], [[140, 30]], [[149, 30]], [[70, 7], [154, 14], [1, 4]], [[3, 27], [193, 3]], [[24, 25], [74, 5]], [[97, 30]], [[44, 30]], [[6, 14], [139, 15]], [[121, 6], [163, 17], [182, 7]], [[15, 28]], [[16, 30]], [[92, 30]], [[100, 30]], [[77, 30]], [[59, 28]], [[104, 6], [176, 16]], [[25, 30]], [[101, 10], [9, 10], [33, 9]], [[194, 8], [187, 8], [41, 6]], [[197, 25]], [[72, 30]], [[125, 14], [126, 10]], [[134, 10], [42, 12]], [[88, 22], [75, 7]], [[188, 15], [39, 1], [132, 10]], [[17, 16], [143, 5], [19, 6]], [[81, 2], [91, 13], [199, 10]], [[186, 15]], [[152, 4], [108, 9], [18, 15]], [[2, 14], [119, 12], [83, 1]], [[49, 24]], [[172, 20], [25, 5]], [[168, 8], [120, 16]], [[200, 15], [37, 10]], [[156, 12], [46, 15]], [[29, 29]], [[83, 30]], [[57, 15], [94, 5], [62, 1]], [[82, 22]], [[34, 16], [171, 2]], [[97, 7], [28, 6], [95, 15]], [[192, 21], [198, 7]], [[55, 30]], [[153, 14], [98, 16]], [[77, 7], [79, 21]], [[33, 30]], [[35, 30]], [[209, 9], [196, 13]], [[35, 5], [149, 24]], [[172, 30]], [[110, 19]], [[153, 30]], [[41, 30]], [[194, 30]], [[159, 24], [135, 5]], [[8, 4], [157, 24], [191, 2]], [[8, 30]], [[68, 10], [93, 9]], [[40, 30]]]}</t>
   </si>
   <si>
@@ -3819,6 +3828,9 @@
 </t>
   </si>
   <si>
+    <t>Seeding solutions</t>
+  </si>
+  <si>
     <t>{"0": [[[37, 10], [123, 2]], [[9, 10], [48, 4]], [[196, 13], [157, 2]], [[154, 14]], [[144, 3]], [[34, 16]], [[63, 16]], [[108, 9]], [[120, 16]], [[199, 10], [74, 5]], [[93, 9], [70, 7]], [[151, 15]], [[91, 13], [81, 2]], [[53, 13]], [[197, 16]], [[131, 12], [8, 4]], [[66, 12]], [[83, 9]], [[79, 7], [77, 7]], [[198, 7]], [[96, 16]], [[46, 15]], [[188, 15], [39, 1]], [[17, 16]], [[42, 12]], [[134, 10], [171, 2]], [[62, 1], [57, 15]], [[191, 2], [94, 5]]], "1": [[[192, 21]], [[38, 22]], [[33, 9], [4, 11]], [[88, 22]], [[82, 22]], [[68, 10], [135, 5], [1, 4]], [[28, 6], [18, 15]], [[207, 20]], [[83, 22]], [[2, 14]], [[119, 12]], [[200, 15]], [[3, 22]], [[157, 22]], [[163, 17], [3, 5]], [[66, 22]]], "2": [[[33, 30]], [[4, 30]], [[32, 27]], [[81, 30]], [[8, 30]], [[55, 30]], [[44, 30]], [[77, 30]], [[159, 24], [41, 6]], [[150, 8], [172, 20]], [[98, 16], [153, 14]], [[149, 24], [148, 6]], [[149, 30]], [[165, 30]], [[172, 30]], [[15, 28]], [[6, 14], [187, 8], [194, 8]], [[176, 16], [35, 5], [209, 9]], [[153, 30]], [[104, 30]], [[100, 30]], [[110, 19], [174, 5], [104, 6]], [[16, 30]], [[156, 12], [168, 8], [132, 10]], [[72, 30]], [[29, 29]], [[35, 30]], [[41, 30]], [[194, 30]], [[79, 30]], [[208, 24], [152, 4]], [[24, 25], [25, 5]], [[25, 30]], [[117, 6], [126, 10], [125, 14]], [[40, 30]], [[59, 28]], [[92, 30]], [[139, 15], [40, 15]], [[75, 7], [121, 6], [143, 5], [193, 3], [19, 6]], [[97, 30]], [[97, 7], [186, 15]], [[95, 15], [182, 7]], [[101, 10]], [[49, 24]], [[197, 9]], [[140, 30]]]}</t>
   </si>
   <si>
@@ -3910,19 +3922,771 @@
 </t>
   </si>
   <si>
+    <t>{"2": [[[17, 24], [164, 4]], [[44, 30]], [[111, 2], [77, 30]], [[149, 27], [148, 3]], [[165, 30]], [[159, 19], [194, 11]], [[41, 30]], [[172, 30]], [[79, 30]], [[104, 30]], [[6, 23], [187, 7]], [[176, 30]], [[153, 30]], [[208, 30]], [[35, 30]], [[100, 30]], [[83, 18]], [[40, 30]], [[117, 7], [126, 14], [125, 9]], [[121, 30], [143, 29], [193, 19]], [[80, 20], [168, 9]], [[135, 15], [182, 15], [95, 10]], [[81, 30]], [[193, 0], [143, 0]], [[121, 1], [135, 0]]], "1": [[[75, 19]], [[149, 22]], [[24, 8], [25, 14]], [[207, 21]], [[72, 22]], [[119, 10], [2, 12]], [[157, 22]], [[46, 20]], [[188, 22]], [[186, 9], [53, 12]], [[130, 22]], [[83, 22]], [[116, 10], [177, 11], [203, 1]], [[27, 22]]], "0": [[[194, 16]], [[16, 10], [165, 4]], [[156, 15], [39, 1]], [[77, 9]], [[120, 16], [198, 5]], [[151, 16]], [[196, 8], [48, 5]], [[34, 14]], [[9, 15]], [[154, 14]], [[8, 16]], [[108, 11]], [[152, 15]], [[120, 7]], [[199, 1], [91, 6], [81, 6]], [[197, 14]], [[131, 16]], [[151, 9], [173, 7]], [[144, 12]], [[166, 6], [28, 2], [3, 8]], [[97, 13]], [[66, 15]]]}</t>
+  </si>
+  <si>
+    <t>{"0": [[[197, 14]], [[135, 15]], [[196, 8], [48, 5]], [[131, 16]], [[9, 15]], [[97, 13]], [[95, 10], [199, 1]], [[173, 7]], [[53, 12]], [[2, 12]], [[198, 5], [120, 1]], [[19, 11]], [[8, 16]], [[81, 16]], [[154, 14]], [[119, 10]], [[186, 9]], [[156, 15]], [[34, 14]], [[108, 11]], [[152, 15]]], "1": [[[27, 22]], [[72, 22]], [[120, 22]], [[144, 12], [16, 10]], [[188, 22]], [[91, 6]], [[81, 22]], [[46, 20]], [[159, 19]], [[207, 21]], [[130, 22]], [[80, 20]], [[25, 14], [24, 8]], [[166, 6]], [[182, 15], [28, 2]]], "2": [[[172, 30]], [[157, 22], [3, 8]], [[17, 24], [101, 6]], [[77, 30]], [[176, 30]], [[100, 30]], [[187, 7], [203, 1], [177, 11], [116, 10]], [[153, 30]], [[104, 30]], [[35, 30]], [[151, 25]], [[149, 30]], [[44, 30]], [[208, 30]], [[168, 9], [66, 15], [39, 1], [164, 4]], [[40, 30]], [[143, 29]], [[79, 30]], [[111, 2], [77, 9], [149, 19]], [[41, 30]], [[125, 9], [117, 7], [126, 14]], [[6, 23]], [[194, 27]]], "3": [[[165, 34], [148, 3]], [[193, 19], [75, 19]], [[121, 31]], [[83, 40]]]}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rigid (capacity 16):
+197-W (14)
+135-P (15)
+196-W (8) -&gt; 48-D (5)
+131-P (16)
+9-B (15)
+97-K (13)
+95-K (10) -&gt; 199-W (1)
+173-T (7)
+53-E (12)
+2-A (12)
+198-W (5) -&gt; 120-O (1)
+19-B (11)
+8-B (16)
+81-H (16)
+154-S (14)
+119-O (10)
+186-V (9)
+156-S (15)
+34-C (14)
+108-M (11)
+152-R (15)
+8 Metre (capacity 22):
+27-C (22)
+72-G (22)
+120-O (22)
+144-Q (12) -&gt; 16-B (10)
+188-V (22)
+91-K (6)
+81-H (22)
+46-D (20)
+159-S (19)
+207-Y (21)
+130-P (22)
+80-H (20)
+25-C (14) -&gt; 24-B (8)
+166-S (6)
+182-U (15) -&gt; 28-C (2)
+11 Metre (capacity 30):
+172-S (30)
+157-S (22) -&gt; 3-A (8)
+17-B (24) -&gt; 101-L (6)
+77-H (30)
+176-T (30)
+100-L (30)
+187-V (7) -&gt; 203-W (1) -&gt; 177-T (11) -&gt; 116-N (10)
+153-S (30)
+104-M (30)
+35-C (30)
+151-R (25)
+149-R (30)
+44-D (30)
+208-Z (30)
+168-S (9) -&gt; 66-G (15) -&gt; 39-C (1) -&gt; 164-S (4)
+40-C (30)
+143-P (29)
+79-H (30)
+111-M (2) -&gt; 77-H (9) -&gt; 149-R (19)
+41-C (30)
+125-P (9) -&gt; 117-N (7) -&gt; 126-P (14)
+6-B (23)
+194-V (27)
+Link (capacity 40):
+165-S (34) -&gt; 148-R (3)
+193-V (19) -&gt; 75-H (19)
+121-O (31)
+83-H (40)
+</t>
+  </si>
+  <si>
     <t>Excess vehicles used have increased costs</t>
   </si>
   <si>
-    <t>Seeding solutions</t>
-  </si>
-  <si>
-    <t>Unlimited fleets</t>
-  </si>
-  <si>
-    <t>Aspects added</t>
-  </si>
-  <si>
-    <t>Performance Optimisations</t>
+    <t>{"2": [[[149, 30]], [[172, 30]], [[165, 30]], [[44, 30]], [[149, 24], [148, 6]], [[159, 24], [41, 6]], [[77, 30]], [[15, 28]], [[150, 8], [172, 20]], [[98, 16], [153, 14]], [[194, 30]], [[79, 30]], [[6, 14], [187, 8], [194, 8]], [[104, 30]], [[41, 30]], [[153, 30]], [[176, 16], [35, 5], [209, 9]], [[100, 30]], [[208, 24], [152, 4]], [[16, 30]], [[24, 25], [25, 4], [66, 0]], [[110, 19], [174, 5], [104, 6]], [[35, 30]], [[156, 11], [168, 9], [132, 10]], [[25, 30]], [[59, 28]], [[117, 6], [126, 10], [125, 14]], [[40, 30]], [[92, 30]], [[72, 30]], [[29, 29]], [[139, 15], [40, 15]], [[121, 6], [143, 5], [193, 4], [19, 6], [97, 30]], [[186, 0], [95, 0], [182, 6], [101, 10], [75, 8]], [[33, 30]], [[4, 30]], [[49, 8], [197, 9]], [[32, 27]], [[81, 30]], [[8, 30]], [[55, 30]], [[97, 7]], [[140, 30]]], "0": [[[79, 7], [77, 7]], [[120, 16], [198, 6]], [[96, 16]], [[188, 15], [39, 1]], [[151, 15], [123, 2]], [[46, 16]], [[17, 15], [164, 1]], [[42, 12]], [[134, 10], [171, 2]], [[37, 10], [123, 0]], [[9, 10], [48, 5]], [[62, 1], [155, 1], [87, 1], [57, 13]], [[191, 2], [94, 5]], [[196, 13], [157, 2]], [[34, 16]], [[154, 15]], [[144, 3], [49, 16]], [[63, 16]], [[108, 9], [120, 1]], [[199, 10], [74, 5]], [[93, 9], [70, 7]], [[186, 15], [151, 0]], [[91, 13], [81, 2]], [[53, 13], [95, 15]], [[197, 16]], [[66, 13]], [[131, 12], [8, 4]], [[83, 9]]], "1": [[[207, 20]], [[83, 22], [2, 14]], [[82, 22]], [[119, 12], [2, 0]], [[68, 10], [1, 3], [18, 15], [112, 1]], [[18, 0], [200, 15]], [[157, 22]], [[163, 17], [3, 5]], [[192, 22]], [[66, 22]], [[38, 22]], [[33, 9], [4, 11]], [[88, 22]], [[3, 22]]]}</t>
+  </si>
+  <si>
+    <t>{"2": [[[149, 24]], [[172, 30]], [[165, 30]], [[44, 30]], [[149, 24], [148, 6]], [[159, 24], [41, 0]], [[77, 30]], [[15, 28]], [[150, 8], [172, 0]], [[98, 16], [153, 30]], [[194, 8]], [[79, 30]], [[6, 14], [187, 8], [194, 8]], [[104, 6]], [[41, 6]], [[153, 14]], [[176, 16], [35, 30], [209, 9]], [[100, 30]], [[208, 24], [152, 4]], [[16, 30]], [[24, 25], [25, 30], [66, 5]], [[110, 19], [174, 5], [104, 6]], [[35, 5]], [[156, 11], [168, 9], [132, 10]], [[25, 4]], [[59, 28]], [[117, 6], [126, 10], [125, 14]], [[40, 30]], [[92, 30]], [[72, 30]], [[29, 29]], [[139, 15], [40, 0]], [[121, 6], [143, 5], [193, 4], [19, 6], [97, 30]], [[186, 15], [95, 15], [182, 6], [101, 10], [75, 8]], [[33, 30]], [[4, 30]], [[49, 24], [197, 25]], [[32, 27]], [[81, 30]], [[8, 18]], [[55, 30]], [[97, 7]], [[140, 30]]], "0": [[[79, 16], [77, 16]], [[120, 16], [198, 6]], [[96, 16]], [[188, 15], [39, 1]], [[151, 15], [123, 2]], [[46, 16]], [[17, 15], [164, 1]], [[42, 12]], [[134, 10], [171, 2]], [[37, 10], [123, 0]], [[9, 10], [48, 5]], [[62, 1], [155, 1], [87, 1], [57, 13]], [[191, 2], [94, 5]], [[196, 13], [157, 16]], [[34, 16]], [[154, 15]], [[144, 3], [49, 0]], [[63, 16]], [[108, 9], [120, 1]], [[199, 10], [74, 5]], [[93, 9], [70, 7]], [[186, 0], [151, 0]], [[91, 13], [81, 16]], [[53, 13], [95, 0]], [[197, 16]], [[66, 0]], [[131, 12], [8, 16]], [[83, 16]]], "1": [[[207, 20]], [[83, 22], [2, 14]], [[82, 22]], [[119, 12], [2, 0]], [[68, 10], [1, 3], [18, 15], [112, 1]], [[18, 0], [200, 15]], [[157, 22]], [[163, 17], [3, 5]], [[192, 22]], [[66, 22]], [[38, 22]], [[33, 22], [4, 22]], [[88, 22]], [[3, 22]]]}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11 Metre (capacity 30):
+149-R (24)
+172-S (30)
+165-S (30)
+44-D (30)
+149-R (24) -&gt; 148-R (6)
+159-S (24) -&gt; 41-C (0)
+77-H (30)
+15-B (28)
+150-R (8) -&gt; 172-S (0)
+98-L (16) -&gt; 153-S (30)
+194-V (8)
+79-H (30)
+6-B (14) -&gt; 187-V (8) -&gt; 194-V (8)
+104-M (6)
+41-C (6)
+153-S (14)
+176-T (16) -&gt; 35-C (30) -&gt; 209-Z (9)
+100-L (30)
+208-Z (24) -&gt; 152-R (4)
+16-B (30)
+24-B (25) -&gt; 25-C (30) -&gt; 66-G (5)
+110-M (19) -&gt; 174-T (5) -&gt; 104-M (6)
+35-C (5)
+156-S (11) -&gt; 168-S (9) -&gt; 132-P (10)
+25-C (4)
+59-G (28)
+117-N (6) -&gt; 126-P (10) -&gt; 125-P (14)
+40-C (30)
+92-K (30)
+72-G (30)
+29-C (29)
+139-P (15) -&gt; 40-C (0)
+121-O (6) -&gt; 143-P (5) -&gt; 193-V (4) -&gt; 19-B (6) -&gt; 97-K (30)
+186-V (15) -&gt; 95-K (15) -&gt; 182-U (6) -&gt; 101-L (10) -&gt; 75-H (8)
+33-C (30)
+4-A (30)
+49-D (24) -&gt; 197-W (25)
+32-C (27)
+81-H (30)
+8-B (18)
+55-E (30)
+97-K (7)
+140-P (30)
+Rigid (capacity 16):
+79-H (16) -&gt; 77-H (16)
+120-O (16) -&gt; 198-W (6)
+96-K (16)
+188-V (15) -&gt; 39-C (1)
+151-R (15) -&gt; 123-O (2)
+46-D (16)
+17-B (15) -&gt; 164-S (1)
+42-C (12)
+134-P (10) -&gt; 171-S (2)
+37-C (10) -&gt; 123-O (0)
+9-B (10) -&gt; 48-D (5)
+62-G (1) -&gt; 155-S (1) -&gt; 87-K (1) -&gt; 57-F (13)
+191-V (2) -&gt; 94-K (5)
+196-W (13) -&gt; 157-S (16)
+34-C (16)
+154-S (15)
+144-Q (3) -&gt; 49-D (0)
+63-G (16)
+108-M (9) -&gt; 120-O (1)
+199-W (10) -&gt; 74-G (5)
+93-K (9) -&gt; 70-G (7)
+186-V (0) -&gt; 151-R (0)
+91-K (13) -&gt; 81-H (16)
+53-E (13) -&gt; 95-K (0)
+197-W (16)
+66-G (0)
+131-P (12) -&gt; 8-B (16)
+83-H (16)
+8 Metre (capacity 22):
+207-Y (20)
+83-H (22) -&gt; 2-A (14)
+82-H (22)
+119-O (12) -&gt; 2-A (0)
+68-G (10) -&gt; 1-A (3) -&gt; 18-B (15) -&gt; 112-M (1)
+18-B (0) -&gt; 200-W (15)
+157-S (22)
+163-S (17) -&gt; 3-A (5)
+192-V (22)
+66-G (22)
+38-C (22)
+33-C (22) -&gt; 4-A (22)
+88-K (22)
+3-A (22)
+</t>
+  </si>
+  <si>
+    <t>{"3": [[[22, 21]], [[41, 39]], [[23, 40]], [[85, 23]], []], "1": [[[156, 22], [132, 15]], [[17, 22], [164, 2], [197, 11]], [[207, 22]], [[83, 22]], [[119, 12], [2, 10]], [[46, 22]], [[188, 22]], [[151, 22]], [[56, 11], [118, 9]], [[72, 15], [18, 22]], [[58, 15], [22, 22]], [[142, 22]], [[50, 2], [78, 6], [113, 4], [94, 6], [102, 4]], [[35, 21]], [[168, 22], [17, 22]], [[163, 18], [3, 22]], [[186, 22]], [[205, 9], [45, 13], [206, 7]], [[144, 21], [106, 1]], [[157, 22], [28, 22], [11, 3]], [[121, 22], [143, 22], [193, 19], [185, 22]], [[135, 22], [95, 18], [182, 17]], [[151, 22]], [[173, 13], [131, 7]], [[40, 22]], [[57, 21]], [[89, 22]], [[158, 22]], [[84, 22]]], "2": [[[59, 30]], [[154, 1], [68, 8], [1, 30]], [[72, 30]], [[29, 30]], [[18, 2], [200, 13]], [[96, 29]], [[152, 4], [15, 26]], [[139, 30]], [[24, 9], [25, 7], [59, 11]], [[40, 30]], [[117, 2], [126, 14], [125, 14]], [[157, 4], [95, 0]], [[135, 10], [33, 10], [182, 0]], [[121, 7], [143, 11]], [[66, 19], [168, 2]], [[69, 30]], [[153, 30]], [[91, 30]], [[49, 30]], [[208, 30]], [[29, 30], [1, 11]], [[12, 30]], [[81, 5], [91, 20]], [[193, 0], [19, 14], [101, 21]], [[104, 12], [100, 15], [153, 3]], [[95, 30]], [[201, 30]], [[111, 30]], [[99, 30]], [[124, 30]], [[150, 30]], [[109, 30]], [[104, 30]], [[15, 30]], [[98, 30]], [[99, 10], [26, 20]], [[149, 30]], [[150, 19], [149, 7], [165, 4]], [[110, 7], [176, 8], [174, 14], [60, 1]], [[172, 20], [111, 10]], [[109, 28]], [[156, 15], [132, 0]], [[10, 30]], [[76, 20], [10, 10]], [[17, 2], [164, 0]], [[53, 27], [130, 19]], [[3, 8], [51, 16]], [[29, 8]], [[154, 30]], [[11, 0], [208, 11], [97, 29]], [[69, 30]], [[157, 0], [193, 0], [143, 0], [121, 0]], [[178, 28], [61, 2]], [[45, 0], [175, 23]], [[185, 0]], [[19, 0], [28, 6], [101, 0]], [[69, 30]], [], [[147, 7]], [[85, 30]], [[20, 30]], [[84, 30]], [[116, 5], [85, 30]], [[20, 18]]], "0": [[[7, 4], [188, 4], [39, 5]], [[120, 9], [198, 13]], [[80, 16]], [[69, 16]], [[134, 16]], [[92, 16]], [[112, 2], [198, 0], [42, 1]], [[51, 0]], [[62, 13], [155, 1], [87, 2]], [[47, 12], [166, 4]], [[128, 16]], [[105, 5], [46, 2], [115, 7]], [[191, 4], [48, 10], [96, 0]], [[186, 16]], [[134, 5], [171, 5]], [[93, 10], [151, 4]], [[8, 5], [33, 0]], [[142, 4], [12, 1]], [[130, 0], [53, 0]], [[13, 16]], [[9, 11]], [[97, 0]], [[75, 3], [135, 0]], [[90, 16]], [[128, 1]], [[128, 0]], [[128, 0]], [[195, 1]], [[83, 16]], [[69, 6]], [[158, 13]]]}</t>
+  </si>
+  <si>
+    <t>{"0": [[[115, 7]], [[2, 10]], [[132, 15]], [[24, 9], [25, 7]], [[113, 4]], [[119, 12]], [[135, 16]], [[198, 13]], [[39, 5]], [[17, 16]], [[84, 16]], [[72, 16]], [[105, 5]], [[154, 16]], [[83, 16], [102, 4]], [[72, 13]], [[62, 13]], [[56, 11]], [[80, 16]], [[174, 14]], [[48, 10]], [[90, 16]], [[135, 16]], [[112, 2]], [[78, 6]], [[154, 15], [195, 1]], [[164, 2], [47, 12]], [[66, 16]], [[9, 11]], [[33, 10]], [[100, 15]], [[13, 16]], [[143, 16]], [[171, 5]], [[173, 13]], [[72, 0]], [[45, 13], [11, 3]], [[120, 9]], [[1, 16]], [[22, 16]], [[68, 8]], [[59, 16]], [[208, 16]], [[19, 14]], [[200, 13]], [[58, 15]], [[93, 10]], [[165, 4], [75, 3]], [[118, 9]], [[7, 4]], [[51, 16]], [[191, 4]], [[205, 9]]], "1": [[[172, 20]], [[208, 22]], [[104, 22]], [[12, 22]], [[57, 21]], [[69, 22]], [[193, 19]], [[89, 22]], [[128, 17]], [[207, 22]]], "2": [[[97, 29]], [[206, 7], [175, 23]], [[49, 30]], [[17, 30]], [[121, 29]], [[28, 28]], [[22, 30], [66, 19]], [[59, 30]], [[92, 30]], [[178, 28]], [[201, 30]], [[149, 30]], [[109, 30]], [[23, 30]], [[15, 30]], [[176, 8], [117, 2], [8, 5]], [[186, 30]], [[151, 30]], [[35, 21]], [[163, 18]], [[46, 24]], [[41, 30]], [[83, 30]], [[85, 30], [147, 7]], [[84, 30], [20, 30]], [[53, 27]], [[92, 18]], [[94, 6], [155, 1], [87, 2]], [[153, 30]], [[3, 30]], [[139, 30]], [[149, 0]], [[85, 23]], [[130, 19]], [[91, 30], [81, 5]], [[188, 26]], [[26, 20], [99, 30]], [[150, 30]], [[69, 30]], [[96, 29]], [[186, 0]], [[185, 22], [131, 7]], [[134, 21]], [[142, 26]], [[151, 18]], [[10, 30]], [[20, 18]], [[15, 26]], [[41, 9], [144, 21]], [[166, 4]], [[91, 20]], [[126, 14], [197, 11]], [[168, 24]], [[101, 21]], [[60, 1], [116, 5], [40, 30], [42, 1]], [[182, 17], [152, 4]], [[98, 30]], [[12, 30]], [[29, 30]], [[110, 7], [153, 3]], [[109, 28], [106, 1]], [[40, 22]], [[143, 30]], [[157, 26]], [[18, 24]], [[10, 10], [76, 20]], [[23, 10], [150, 19]], [[99, 10]], [[69, 8]], [[125, 14], [61, 2], [208, 30]], [[104, 30], [95, 30]], [[84, 22]], [[50, 2]], [[85, 30]], [[124, 30]], [[69, 30]]], "3": [[[111, 40]], [[29, 28]], [[158, 35]], [[95, 40]], [[1, 25]], [[156, 37]]]}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rigid (capacity 16):
+115-N (7)
+2-A (10)
+132-P (15)
+24-B (9) -&gt; 25-C (7)
+113-M (4)
+119-O (12)
+135-P (16)
+198-W (13)
+39-C (5)
+17-B (16)
+84-K (16)
+72-G (16)
+105-M (5)
+154-S (16)
+83-H (16) -&gt; 102-L (4)
+72-G (13)
+62-G (13)
+56-F (11)
+80-H (16)
+174-T (14)
+48-D (10)
+90-K (16)
+135-P (16)
+112-M (2)
+78-H (6)
+154-S (15) -&gt; 195-W (1)
+164-S (2) -&gt; 47-D (12)
+66-G (16)
+9-B (11)
+33-C (10)
+100-L (15)
+13-B (16)
+143-P (16)
+171-S (5)
+173-T (13)
+72-G (0)
+45-D (13) -&gt; 11-B (3)
+120-O (9)
+1-A (16)
+22-B (16)
+68-G (8)
+59-G (16)
+208-Z (16)
+19-B (14)
+200-W (13)
+58-G (15)
+93-K (10)
+165-S (4) -&gt; 75-H (3)
+118-N (9)
+7-B (4)
+51-D (16)
+191-V (4)
+205-W (9)
+8 Metre (capacity 22):
+172-S (20)
+208-Z (22)
+104-M (22)
+12-B (22)
+57-F (21)
+69-G (22)
+193-V (19)
+89-K (22)
+128-P (17)
+207-Y (22)
+11 Metre (capacity 30):
+97-K (29)
+206-W (7) -&gt; 175-T (23)
+49-D (30)
+17-B (30)
+121-O (29)
+28-C (28)
+22-B (30) -&gt; 66-G (19)
+59-G (30)
+92-K (30)
+178-T (28)
+201-W (30)
+149-R (30)
+109-M (30)
+23-B (30)
+15-B (30)
+176-T (8) -&gt; 117-N (2) -&gt; 8-B (5)
+186-V (30)
+151-R (30)
+35-C (21)
+163-S (18)
+46-D (24)
+41-C (30)
+83-H (30)
+85-K (30) -&gt; 147-R (7)
+84-K (30) -&gt; 20-B (30)
+53-E (27)
+92-K (18)
+94-K (6) -&gt; 155-S (1) -&gt; 87-K (2)
+153-S (30)
+3-A (30)
+139-P (30)
+149-R (0)
+85-K (23)
+130-P (19)
+91-K (30) -&gt; 81-H (5)
+188-V (26)
+26-C (20) -&gt; 99-L (30)
+150-R (30)
+69-G (30)
+96-K (29)
+186-V (0)
+185-V (22) -&gt; 131-P (7)
+134-P (21)
+142-P (26)
+151-R (18)
+10-B (30)
+20-B (18)
+15-B (26)
+41-C (9) -&gt; 144-Q (21)
+166-S (4)
+91-K (20)
+126-P (14) -&gt; 197-W (11)
+168-S (24)
+101-L (21)
+60-G (1) -&gt; 116-N (5) -&gt; 40-C (30) -&gt; 42-C (1)
+182-U (17) -&gt; 152-R (4)
+98-L (30)
+12-B (30)
+29-C (30)
+110-M (7) -&gt; 153-S (3)
+109-M (28) -&gt; 106-M (1)
+40-C (22)
+143-P (30)
+157-S (26)
+18-B (24)
+10-B (10) -&gt; 76-H (20)
+23-B (10) -&gt; 150-R (19)
+99-L (10)
+69-G (8)
+125-P (14) -&gt; 61-G (2) -&gt; 208-Z (30)
+104-M (30) -&gt; 95-K (30)
+84-K (22)
+50-D (2)
+85-K (30)
+124-O (30)
+69-G (30)
+Link (capacity 40):
+111-M (40)
+29-C (28)
+158-S (35)
+95-K (40)
+1-A (25)
+156-S (37)
+</t>
+  </si>
+  <si>
+    <t>{"1": [[[192, 22]], [[123, 19], [2, 18]], [[154, 22]], [[32, 21]], [[186, 15], [53, 14]], [[95, 15], [197, 22]], [[44, 22]], [[98, 22]], [[110, 11], [174, 11]], [[156, 8], [168, 8], [132, 7]], [[25, 22]], [[153, 22]], [[207, 22]], [[18, 11], [200, 10]], [[59, 22]], [[68, 7], [1, 6], [112, 9]], [[62, 7], [155, 1], [87, 1], [57, 15]], [[17, 20], [164, 1]], [[101, 14], [95, 0], [75, 5]], [[4, 1], [8, 22], [55, 1]], [[3, 15], [19, 19]]], "0": [[[9, 7], [48, 5]], [[34, 14]], [[196, 16]], [[199, 6], [74, 7], [192, 2]], [[63, 16]], [[38, 16]], [[93, 2], [131, 14]], [[83, 15]], [[66, 10]], [[97, 16]], [[92, 13], [66, 0]], [[7, 13]], [[83, 16]], [[120, 13], [198, 6]], [[96, 15]], [[46, 16]], [[188, 14], [39, 2]], [[151, 16]], [[108, 11], [120, 0], [62, 0]], [[168, 0], [19, 0]], [[166, 9]], [[151, 8]], [[75, 0]]], "2": [[[81, 28], [91, 8]], [[55, 30]], [[77, 30]], [[187, 8], [6, 22]], [[159, 15], [40, 30], [194, 8]], [[150, 10], [172, 4], [149, 30]], [[194, 30]], [[176, 24], [35, 6]], [[153, 30]], [[16, 30]], [[149, 15], [148, 1]], [[165, 30]], [[172, 30]], [[15, 27]], [[41, 30]], [[79, 30]], [[35, 30]], [[100, 28]], [[208, 30]], [[24, 20], [209, 10]], [[104, 27]], [[139, 15], [41, 12]], [[82, 17], [197, 8]], [[29, 28]], [[157, 17], [182, 12], [88, 1]], [[117, 5], [126, 14], [125, 11]], [[119, 12], [2, 0]], [[121, 13], [143, 12], [193, 18], [19, 0]], [[66, 30]], [[152, 12], [186, 0], [81, 0], [91, 0]], [[163, 15], [51, 8], [3, 0]], [[189, 17], [140, 20]], [[8, 25]], [[193, 0], [143, 0], [101, 0], [121, 0], [135, 5]]], "3": [[[40, 16]], [[138, 1], [137, 38]]]}</t>
+  </si>
+  <si>
+    <t>{"1": [[[192, 22]], [[123, 19], [2, 18]], [[154, 22]], [[32, 21]], [[186, 15], [53, 14]], [[95, 15], [197, 22]], [[44, 22]], [[98, 22]], [[110, 11], [174, 11]], [[156, 8], [168, 8], [132, 7]], [[25, 22]], [[153, 22]], [[207, 22]], [[18, 11], [200, 10]], [[59, 22]], [[68, 7], [1, 6], [112, 9]], [[62, 7], [155, 1], [87, 1], [57, 15]], [[17, 20], [164, 1]], [[101, 14], [95, 0], [75, 5]], [[4, 1], [8, 22], [55, 22]], [[3, 15], [19, 19]]], "0": [[[9, 7], [48, 5]], [[34, 14]], [[196, 16]], [[199, 6], [74, 7], [192, 16]], [[63, 16]], [[38, 16]], [[93, 2], [131, 14]], [[83, 15]], [[66, 16]], [[97, 16]], [[92, 13], [66, 16]], [[7, 13]], [[83, 0]], [[120, 13], [198, 6]], [[96, 15]], [[46, 16]], [[188, 14], [39, 2]], [[151, 16]], [[108, 11], [120, 0], [62, 0]], [[168, 0], [19, 0]], [[166, 9]], [[151, 8]], [[75, 0]]], "2": [[[81, 28], [91, 8]], [[55, 15]], [[77, 30]], [[187, 8], [6, 22]], [[159, 15], [40, 16], [194, 30]], [[150, 10], [172, 4], [149, 30]], [[194, 8]], [[176, 24], [35, 30]], [[153, 22]], [[16, 30]], [[149, 15], [148, 1]], [[165, 30]], [[172, 4]], [[15, 27]], [[41, 30]], [[79, 30]], [[35, 6]], [[100, 28]], [[208, 30]], [[24, 20], [209, 10]], [[104, 27]], [[139, 15], [41, 12]], [[82, 17], [197, 30]], [[29, 28]], [[157, 17], [182, 12], [88, 1]], [[117, 5], [126, 14], [125, 11]], [[119, 12], [2, 0]], [[121, 13], [143, 12], [193, 18], [19, 0]], [[66, 30]], [[152, 12], [186, 0], [81, 0], [91, 0]], [[163, 15], [51, 8], [3, 0]], [[189, 17], [140, 20]], [[8, 17]], [[193, 0], [143, 0], [101, 0], [121, 0], [135, 5]]], "3": [[[40, 40]], [[138, 1], [137, 38]]]}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 Metre (capacity 22):
+192-V (22)
+123-O (19) -&gt; 2-A (18)
+154-S (22)
+32-C (21)
+186-V (15) -&gt; 53-E (14)
+95-K (15) -&gt; 197-W (22)
+44-D (22)
+98-L (22)
+110-M (11) -&gt; 174-T (11)
+156-S (8) -&gt; 168-S (8) -&gt; 132-P (7)
+25-C (22)
+153-S (22)
+207-Y (22)
+18-B (11) -&gt; 200-W (10)
+59-G (22)
+68-G (7) -&gt; 1-A (6) -&gt; 112-M (9)
+62-G (7) -&gt; 155-S (1) -&gt; 87-K (1) -&gt; 57-F (15)
+17-B (20) -&gt; 164-S (1)
+101-L (14) -&gt; 95-K (0) -&gt; 75-H (5)
+4-A (1) -&gt; 8-B (22) -&gt; 55-E (22)
+3-A (15) -&gt; 19-B (19)
+Rigid (capacity 16):
+9-B (7) -&gt; 48-D (5)
+34-C (14)
+196-W (16)
+199-W (6) -&gt; 74-G (7) -&gt; 192-V (16)
+63-G (16)
+38-C (16)
+93-K (2) -&gt; 131-P (14)
+83-H (15)
+66-G (16)
+97-K (16)
+92-K (13) -&gt; 66-G (16)
+7-B (13)
+83-H (0)
+120-O (13) -&gt; 198-W (6)
+96-K (15)
+46-D (16)
+188-V (14) -&gt; 39-C (2)
+151-R (16)
+108-M (11) -&gt; 120-O (0) -&gt; 62-G (0)
+168-S (0) -&gt; 19-B (0)
+166-S (9)
+151-R (8)
+75-H (0)
+11 Metre (capacity 30):
+81-H (28) -&gt; 91-K (8)
+55-E (15)
+77-H (30)
+187-V (8) -&gt; 6-B (22)
+159-S (15) -&gt; 40-C (16) -&gt; 194-V (30)
+150-R (10) -&gt; 172-S (4) -&gt; 149-R (30)
+194-V (8)
+176-T (24) -&gt; 35-C (30)
+153-S (22)
+16-B (30)
+149-R (15) -&gt; 148-R (1)
+165-S (30)
+172-S (4)
+15-B (27)
+41-C (30)
+79-H (30)
+35-C (6)
+100-L (28)
+208-Z (30)
+24-B (20) -&gt; 209-Z (10)
+104-M (27)
+139-P (15) -&gt; 41-C (12)
+82-H (17) -&gt; 197-W (30)
+29-C (28)
+157-S (17) -&gt; 182-U (12) -&gt; 88-K (1)
+117-N (5) -&gt; 126-P (14) -&gt; 125-P (11)
+119-O (12) -&gt; 2-A (0)
+121-O (13) -&gt; 143-P (12) -&gt; 193-V (18) -&gt; 19-B (0)
+66-G (30)
+152-R (12) -&gt; 186-V (0) -&gt; 81-H (0) -&gt; 91-K (0)
+163-S (15) -&gt; 51-D (8) -&gt; 3-A (0)
+189-V (17) -&gt; 140-P (20)
+8-B (17)
+193-V (0) -&gt; 143-P (0) -&gt; 101-L (0) -&gt; 121-O (0) -&gt; 135-P (5)
+Link (capacity 40):
+40-C (40)
+138-P (1) -&gt; 137-P (38)
+</t>
+  </si>
+  <si>
+    <t>{"2": [[[17, 24], [164, 4]], [[44, 30]], [[111, 2]], [[77, 30]], [[149, 27], [148, 3]], [[165, 30]], [[159, 19], [194, 11]], [[41, 30]], [[172, 30]], [[79, 30]], [[104, 30]], [[6, 23], [187, 7]], [[176, 30]], [[153, 30]], [[208, 30]], [[35, 30]], [[100, 30]], [[19, 11]], [[83, 30]], [[40, 30]], [[117, 7], [126, 14], [125, 9]], [[121, 30]], [[143, 29]], [[193, 19]], [[80, 20]], [[168, 9]], [[135, 15]], [[182, 15]], [[95, 10]], [[81, 30]], [[121, 1]]], "1": [[[75, 19]], [[149, 22]], [[24, 8]], [[25, 14]], [[207, 21]], [[72, 22]], [[119, 10]], [[2, 12]], [[157, 22]], [[46, 20]], [[188, 22]], [[186, 9]], [[53, 12]], [[130, 22]], [[83, 10]], [[116, 10], [177, 11], [203, 1]], [[27, 22]]], "0": [[[194, 16]], [[16, 10], [165, 4]], [[156, 15], [39, 1]], [[77, 9]], [[120, 16]], [[198, 5]], [[151, 16]], [[196, 8], [48, 5]], [[34, 14]], [[9, 15]], [[154, 14]], [[8, 16]], [[108, 11]], [[152, 15]], [[120, 7]], [[101, 6], [199, 1]], [[91, 6], [81, 6]], [[197, 14]], [[131, 16]], [[151, 9]], [[173, 7]], [[144, 12]], [[166, 6], [28, 2], [3, 8]], [[97, 13]], [[66, 15]]]}</t>
+  </si>
+  <si>
+    <t>{"0": [[[182, 15]], [[197, 14]], [[34, 14]], [[19, 11]], [[2, 12]], [[8, 16]], [[131, 16]], [[154, 14]], [[108, 11]], [[196, 8], [48, 5]], [[9, 15]], [[119, 10]], [[66, 15]]], "1": [[[188, 22]], [[16, 10], [144, 12]], [[27, 22]], [[81, 14], [199, 1]], [[81, 22]], [[91, 6]], [[198, 5]], [[75, 19]], [[72, 22]], [[207, 21]], [[97, 13], [121, 22]], [[157, 22]], [[83, 22]], [[149, 22]], [[83, 18]], [[46, 20]], [[152, 15]], [[186, 9]]], "2": [[[35, 30]], [[79, 30]], [[95, 10], [28, 2]], [[208, 30]], [[135, 15], [53, 12]], [[151, 25]], [[6, 23]], [[159, 19], [173, 7]], [[101, 6], [17, 24]], [[172, 30]], [[25, 14], [24, 8], [166, 6]], [[126, 14], [117, 7], [125, 9]], [[153, 30]], [[100, 30]], [[176, 30]], [[120, 23]], [[41, 30]], [[104, 30]], [[193, 19], [3, 8]], [[168, 9], [80, 20]], [[156, 15], [39, 1], [164, 4]], [[40, 30]], [[44, 30]], [[187, 7], [116, 10], [203, 1], [177, 11]], [[194, 27]], [[130, 22]], [[149, 30], [111, 2]], [[121, 30]], [[143, 29]]], "3": [[[77, 39]], [[148, 3], [165, 34]]]}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rigid (capacity 16):
+182-U (15)
+197-W (14)
+34-C (14)
+19-B (11)
+2-A (12)
+8-B (16)
+131-P (16)
+154-S (14)
+108-M (11)
+196-W (8) -&gt; 48-D (5)
+9-B (15)
+119-O (10)
+66-G (15)
+8 Metre (capacity 22):
+188-V (22)
+16-B (10) -&gt; 144-Q (12)
+27-C (22)
+81-H (14) -&gt; 199-W (1)
+81-H (22)
+91-K (6)
+198-W (5)
+75-H (19)
+72-G (22)
+207-Y (21)
+97-K (13) -&gt; 121-O (22)
+157-S (22)
+83-H (22)
+149-R (22)
+83-H (18)
+46-D (20)
+152-R (15)
+186-V (9)
+11 Metre (capacity 30):
+35-C (30)
+79-H (30)
+95-K (10) -&gt; 28-C (2)
+208-Z (30)
+135-P (15) -&gt; 53-E (12)
+151-R (25)
+6-B (23)
+159-S (19) -&gt; 173-T (7)
+101-L (6) -&gt; 17-B (24)
+172-S (30)
+25-C (14) -&gt; 24-B (8) -&gt; 166-S (6)
+126-P (14) -&gt; 117-N (7) -&gt; 125-P (9)
+153-S (30)
+100-L (30)
+176-T (30)
+120-O (23)
+41-C (30)
+104-M (30)
+193-V (19) -&gt; 3-A (8)
+168-S (9) -&gt; 80-H (20)
+156-S (15) -&gt; 39-C (1) -&gt; 164-S (4)
+40-C (30)
+44-D (30)
+187-V (7) -&gt; 116-N (10) -&gt; 203-W (1) -&gt; 177-T (11)
+194-V (27)
+130-P (22)
+149-R (30) -&gt; 111-M (2)
+121-O (30)
+143-P (29)
+Link (capacity 40):
+77-H (39)
+148-R (3) -&gt; 165-S (34)
+</t>
+  </si>
+  <si>
+    <t>{"2": [[[149, 30]], [[172, 30]], [[165, 30]], [[44, 30]], [[149, 24], [148, 6]], [[159, 24], [41, 6]], [[77, 30]], [[15, 28]], [[150, 8], [172, 20]], [[98, 16], [153, 14]], [[194, 30]], [[79, 30]], [[6, 14], [135, 6]], [[187, 8], [194, 8]], [[104, 30]], [[41, 30]], [[153, 30]], [[176, 16], [35, 5], [209, 9]], [[100, 30]], [[208, 24], [152, 4]], [[16, 30]], [[24, 25], [25, 4]], [[110, 19], [174, 5], [104, 6]], [[35, 30]], [[156, 11]], [[168, 9]], [[132, 10]], [[25, 30]], [[59, 28]], [[117, 6], [126, 10], [125, 14]], [[40, 30]], [[92, 30]], [[72, 30]], [[29, 29]], [[139, 15], [40, 15]], [[121, 6], [143, 5], [193, 4], [19, 6]], [[97, 30]], [[182, 6]], [[101, 10], [75, 8]], [[33, 30]], [[4, 30]], [[49, 8]], [[197, 9]], [[32, 27]], [[81, 30]], [[8, 30]], [[55, 30]], [[97, 7]], [[140, 30]]], "0": [[[79, 7], [77, 7]], [[120, 16]], [[198, 6]], [[96, 16]], [[188, 15], [39, 1]], [[151, 15]], [[123, 2]], [[46, 16]], [[17, 15], [164, 1]], [[42, 12]], [[134, 10], [171, 2]], [[37, 10]], [[9, 10]], [[48, 5], [62, 1], [155, 1], [87, 1]], [[57, 13]], [[191, 2]], [[94, 5]], [[196, 13]], [[157, 16]], [[34, 16]], [[154, 15]], [[144, 3]], [[49, 16]], [[63, 16]], [[108, 9]], [[120, 1]], [[199, 10]], [[74, 5]], [[93, 9]], [[70, 7]], [[186, 15]], [[91, 13], [81, 2]], [[53, 13]], [[95, 15]], [[197, 16]], [[66, 13]], [[28, 7]], [[131, 12], [8, 4]], [[83, 16]]], "1": [[[207, 20]], [[83, 15]], [[2, 14]], [[82, 22]], [[119, 12]], [[68, 10]], [[1, 3]], [[18, 15], [112, 1]], [[200, 15]], [[157, 8]], [[163, 17], [3, 5]], [[192, 22]], [[66, 22]], [[38, 22]], [[33, 9]], [[4, 11]], [[88, 22]], [[3, 22]]]}</t>
+  </si>
+  <si>
+    <t>{"0": [[[143, 5], [28, 7]], [[168, 9], [39, 1]], [[156, 11]], [[200, 15]], [[95, 15]], [[134, 10]], [[37, 10]], [[93, 9]], [[196, 13]], [[154, 15]], [[74, 5]], [[151, 15]], [[2, 14]], [[63, 16]], [[70, 7]], [[66, 16]], [[186, 15]], [[91, 13]], [[121, 6], [48, 5]], [[18, 15]], [[19, 6]], [[139, 15]], [[123, 2]], [[96, 16]], [[42, 12]], [[83, 15]], [[199, 10]], [[198, 6]], [[1, 3]]], "1": [[[82, 22]], [[4, 22]], [[110, 19]], [[125, 14], [97, 22]], [[119, 12]]], "2": [[[92, 30]], [[16, 30]], [[194, 30]], [[49, 24], [164, 1]], [[132, 10], [101, 10]], [[150, 8], [172, 30]], [[104, 0]], [[35, 30]], [[25, 30]], [[149, 30]], [[172, 20]], [[159, 24]], [[97, 30]], [[41, 30]], [[35, 5], [144, 3], [176, 16]], [[100, 30]], [[87, 1], [57, 13], [94, 5], [62, 1], [155, 1]], [[34, 16], [112, 1]], [[59, 28]], [[108, 9], [152, 4]], [[209, 9], [117, 6], [126, 10]], [[40, 30]], [[197, 25]], [[165, 30]], [[104, 0], [41, 6], [40, 15]], [[120, 17]], [[9, 10], [17, 15]], [[188, 15]], [[157, 24], [182, 6]], [[38, 22], [81, 30]], [[33, 9], [53, 13]], [[131, 12], [83, 30]], [[208, 24]], [[68, 10]], [[33, 30]], [[29, 29]], [[153, 30]], [[207, 20], [135, 6]], [[24, 25], [25, 4]], [[4, 30]], [[8, 30]], [[192, 22], [171, 2]], [[81, 2]], [[153, 14], [98, 16]], [[72, 30]], [[3, 27]], [[75, 8], [163, 17], [8, 4]], [[6, 14], [194, 8], [187, 8]], [[174, 5]], [[15, 28]], [[88, 22], [191, 2], [193, 4]], [[44, 30]], [[148, 6], [149, 24]], [[140, 30]], [[32, 27]], [[55, 30]]], "3": [[[46, 16], [66, 35]], [[77, 37]], [[79, 37]]]}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rigid (capacity 16):
+143-P (5) -&gt; 28-C (7)
+168-S (9) -&gt; 39-C (1)
+156-S (11)
+200-W (15)
+95-K (15)
+134-P (10)
+37-C (10)
+93-K (9)
+196-W (13)
+154-S (15)
+74-G (5)
+151-R (15)
+2-A (14)
+63-G (16)
+70-G (7)
+66-G (16)
+186-V (15)
+91-K (13)
+121-O (6) -&gt; 48-D (5)
+18-B (15)
+19-B (6)
+139-P (15)
+123-O (2)
+96-K (16)
+42-C (12)
+83-H (15)
+199-W (10)
+198-W (6)
+1-A (3)
+8 Metre (capacity 22):
+82-H (22)
+4-A (22)
+110-M (19)
+125-P (14) -&gt; 97-K (22)
+119-O (12)
+11 Metre (capacity 30):
+92-K (30)
+16-B (30)
+194-V (30)
+49-D (24) -&gt; 164-S (1)
+132-P (10) -&gt; 101-L (10)
+150-R (8) -&gt; 172-S (30)
+104-M (0)
+35-C (30)
+25-C (30)
+149-R (30)
+172-S (20)
+159-S (24)
+97-K (30)
+41-C (30)
+35-C (5) -&gt; 144-Q (3) -&gt; 176-T (16)
+100-L (30)
+87-K (1) -&gt; 57-F (13) -&gt; 94-K (5) -&gt; 62-G (1) -&gt; 155-S (1)
+34-C (16) -&gt; 112-M (1)
+59-G (28)
+108-M (9) -&gt; 152-R (4)
+209-Z (9) -&gt; 117-N (6) -&gt; 126-P (10)
+40-C (30)
+197-W (25)
+165-S (30)
+104-M (0) -&gt; 41-C (6) -&gt; 40-C (15)
+120-O (17)
+9-B (10) -&gt; 17-B (15)
+188-V (15)
+157-S (24) -&gt; 182-U (6)
+38-C (22) -&gt; 81-H (30)
+33-C (9) -&gt; 53-E (13)
+131-P (12) -&gt; 83-H (30)
+208-Z (24)
+68-G (10)
+33-C (30)
+29-C (29)
+153-S (30)
+207-Y (20) -&gt; 135-P (6)
+24-B (25) -&gt; 25-C (4)
+4-A (30)
+8-B (30)
+192-V (22) -&gt; 171-S (2)
+81-H (2)
+153-S (14) -&gt; 98-L (16)
+72-G (30)
+3-A (27)
+75-H (8) -&gt; 163-S (17) -&gt; 8-B (4)
+6-B (14) -&gt; 194-V (8) -&gt; 187-V (8)
+174-T (5)
+15-B (28)
+88-K (22) -&gt; 191-V (2) -&gt; 193-V (4)
+44-D (30)
+148-R (6) -&gt; 149-R (24)
+140-P (30)
+32-C (27)
+55-E (30)
+Link (capacity 40):
+46-D (16) -&gt; 66-G (35)
+77-H (37)
+79-H (37)
+</t>
+  </si>
+  <si>
+    <t>{"3": [[[92, 32]], [[22, 40]], [[41, 39]], [[23, 40]], [[85, 23]]], "1": [[[156, 7]], [[17, 16]], [[197, 11]], [[207, 22]], [[83, 22]], [[119, 12]], [[2, 10]], [[46, 22]], [[188, 22]], [[151, 22]], [[56, 11]], [[118, 9]], [[72, 15]], [[58, 15], [22, 3]], [[142, 22]], [[50, 2]], [[78, 6]], [[113, 4]], [[94, 6], [102, 4]], [[35, 21]], [[163, 18]], [[186, 22]], [[205, 9], [206, 7]], [[144, 21], [106, 1]], [[135, 2]], [[151, 22]], [[173, 13], [131, 7]], [[40, 22]], [[57, 21]], [[89, 22]], [[158, 22]], [[84, 22]]], "2": [[[59, 30]], [[154, 1]], [[68, 8]], [[1, 30]], [[72, 30]], [[29, 30]], [[18, 24]], [[200, 13]], [[96, 29]], [[152, 4]], [[15, 26]], [[139, 30]], [[24, 9], [25, 7], [59, 11]], [[40, 30]], [[117, 2], [126, 14], [125, 14]], [[157, 26]], [[95, 18]], [[135, 30]], [[33, 10]], [[182, 17]], [[121, 29]], [[143, 30]], [[66, 19]], [[168, 24]], [[69, 30]], [[153, 30]], [[91, 30]], [[49, 30]], [[208, 30]], [[29, 30]], [[1, 11]], [[12, 30]], [[81, 5]], [[91, 20]], [[193, 19]], [[19, 14]], [[101, 21]], [[104, 12], [100, 15], [153, 3]], [[95, 30]], [[201, 30]], [[111, 30]], [[99, 30]], [[124, 30]], [[150, 30]], [[109, 30]], [[104, 30]], [[15, 30]], [[98, 30]], [[99, 10], [26, 20]], [[149, 30]], [[150, 19], [149, 7], [165, 4]], [[110, 7], [176, 8], [174, 14], [60, 1]], [[172, 20], [111, 10]], [[109, 28]], [[156, 30]], [[132, 15]], [[10, 30]], [[76, 20], [10, 10]], [[17, 30]], [[164, 2]], [[53, 27]], [[130, 19]], [[3, 30]], [[51, 16]], [[29, 8]], [[154, 30]], [[11, 3]], [[208, 11]], [[97, 29]], [[69, 30]], [[143, 3]], [[178, 28]], [[61, 2], [45, 13]], [[175, 23]], [[185, 22]], [[28, 28]], [[69, 30]], [[147, 7]], [[85, 30]], [[20, 30]], [[84, 30]], [[116, 5]], [[85, 30]], [[20, 18]]], "0": [[[7, 4], [188, 4], [39, 5]], [[120, 9]], [[198, 13]], [[80, 16]], [[69, 16]], [[134, 16]], [[92, 16]], [[112, 2], [42, 1]], [[62, 13], [155, 1], [87, 2]], [[47, 12], [166, 4]], [[128, 16]], [[105, 5], [46, 2]], [[115, 7]], [[191, 4]], [[48, 10]], [[186, 16]], [[134, 5]], [[171, 5]], [[93, 10]], [[151, 4]], [[8, 5]], [[142, 4]], [[12, 1]], [[13, 16]], [[9, 11], [75, 3]], [[90, 16]], [[128, 1], [195, 1]], [[83, 16]], [[69, 6]], [[158, 13]]]}</t>
+  </si>
+  <si>
+    <t>{"0": [[[151, 16]], [[1, 16]], [[154, 15]], [[100, 15]], [[157, 16]], [[24, 9]], [[50, 2]], [[83, 16]], [[131, 7]], [[125, 14]], [[173, 13]], [[29, 16]], [[130, 3]], [[2, 10]], [[119, 12]], [[151, 16]], [[105, 5]], [[29, 16]], [[156, 15]], [[19, 14]], [[29, 4]], [[48, 10], [164, 2]], [[154, 15], [195, 1]], [[7, 4], [39, 5]], [[93, 10]], [[174, 14]], [[8, 5], [130, 3]], [[117, 2], [126, 14]], [[47, 12]], [[113, 4]], [[33, 10]], [[186, 6]], [[151, 16]], [[78, 6]], [[120, 9]], [[17, 16]], [[68, 8]], [[1, 16]], [[198, 13]], [[15, 16]], [[72, 16]], [[200, 13]], [[13, 16]], [[153, 1]], [[90, 16]], [[171, 5]], [[69, 16]], [[56, 11]], [[152, 4]], [[197, 11]]], "1": [[[69, 22]], [[15, 22]], [[153, 22]], [[91, 22]], [[156, 22]], [[80, 16]], [[15, 18]], [[157, 22]], [[69, 22]], [[57, 21], [12, 1]], [[92, 22]], [[95, 22]], [[185, 22]], [[193, 19]], [[134, 21]], [[69, 22]]], "2": [[[208, 30]], [[49, 30]], [[158, 5], [84, 22], [60, 1]], [[3, 30]], [[9, 11], [51, 16]], [[29, 20]], [[168, 24]], [[142, 26]], [[104, 30]], [[207, 22]], [[188, 26]], [[62, 13], [155, 1], [102, 4], [94, 6]], [[46, 24]], [[59, 11], [58, 15]], [[149, 30]], [[201, 30]], [[85, 30]], [[158, 30]], [[89, 22], [112, 2]], [[40, 30]], [[109, 28]], [[84, 30]], [[95, 30], [11, 3]], [[17, 30]], [[97, 29]], [[66, 19], [81, 5]], [[186, 22]], [[20, 30]], [[1, 9]], [[10, 10], [76, 20]], [[96, 29]], [[144, 21]], [[85, 30]], [[40, 22], [42, 1]], [[98, 30]], [[205, 9], [150, 19], [61, 2]], [[191, 4], [128, 17]], [[135, 30]], [[85, 23], [147, 7]], [[12, 30]], [[92, 30]], [[22, 30]], [[59, 30]], [[132, 15]], [[104, 12], [110, 7]], [[10, 30]], [[69, 30]], [[182, 17]], [[35, 21], [176, 8]], [[139, 30]], [[91, 30]], [[18, 24]], [[72, 29]], [[118, 9], [143, 3], [163, 18]], [[87, 2]], [[115, 7]], [[124, 30]], [[109, 30]], [[106, 1], [22, 13]], [[28, 28]], [[101, 21]], [[178, 28]], [[166, 4], [175, 23]], [[45, 13], [25, 7]], [[83, 22]], [[143, 30]], [[150, 30]], [[20, 18], [116, 5]], [[149, 7], [26, 20]], [[135, 2], [53, 27]], [[121, 29]]], "3": [[[206, 7], [165, 4], [172, 20]], [[208, 11], [75, 3]], [[111, 40]], [[99, 40]], [[23, 40]], [[41, 39]]]}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rigid (capacity 16):
+151-R (16)
+1-A (16)
+154-S (15)
+100-L (15)
+157-S (16)
+24-B (9)
+50-D (2)
+83-H (16)
+131-P (7)
+125-P (14)
+173-T (13)
+29-C (16)
+130-P (3)
+2-A (10)
+119-O (12)
+151-R (16)
+105-M (5)
+29-C (16)
+156-S (15)
+19-B (14)
+29-C (4)
+48-D (10) -&gt; 164-S (2)
+154-S (15) -&gt; 195-W (1)
+7-B (4) -&gt; 39-C (5)
+93-K (10)
+174-T (14)
+8-B (5) -&gt; 130-P (3)
+117-N (2) -&gt; 126-P (14)
+47-D (12)
+113-M (4)
+33-C (10)
+186-V (6)
+151-R (16)
+78-H (6)
+120-O (9)
+17-B (16)
+68-G (8)
+1-A (16)
+198-W (13)
+15-B (16)
+72-G (16)
+200-W (13)
+13-B (16)
+153-S (1)
+90-K (16)
+171-S (5)
+69-G (16)
+56-F (11)
+152-R (4)
+197-W (11)
+8 Metre (capacity 22):
+69-G (22)
+15-B (22)
+153-S (22)
+91-K (22)
+156-S (22)
+80-H (16)
+15-B (18)
+157-S (22)
+69-G (22)
+57-F (21) -&gt; 12-B (1)
+92-K (22)
+95-K (22)
+185-V (22)
+193-V (19)
+134-P (21)
+69-G (22)
+11 Metre (capacity 30):
+208-Z (30)
+49-D (30)
+158-S (5) -&gt; 84-K (22) -&gt; 60-G (1)
+3-A (30)
+9-B (11) -&gt; 51-D (16)
+29-C (20)
+168-S (24)
+142-P (26)
+104-M (30)
+207-Y (22)
+188-V (26)
+62-G (13) -&gt; 155-S (1) -&gt; 102-L (4) -&gt; 94-K (6)
+46-D (24)
+59-G (11) -&gt; 58-G (15)
+149-R (30)
+201-W (30)
+85-K (30)
+158-S (30)
+89-K (22) -&gt; 112-M (2)
+40-C (30)
+109-M (28)
+84-K (30)
+95-K (30) -&gt; 11-B (3)
+17-B (30)
+97-K (29)
+66-G (19) -&gt; 81-H (5)
+186-V (22)
+20-B (30)
+1-A (9)
+10-B (10) -&gt; 76-H (20)
+96-K (29)
+144-Q (21)
+85-K (30)
+40-C (22) -&gt; 42-C (1)
+98-L (30)
+205-W (9) -&gt; 150-R (19) -&gt; 61-G (2)
+191-V (4) -&gt; 128-P (17)
+135-P (30)
+85-K (23) -&gt; 147-R (7)
+12-B (30)
+92-K (30)
+22-B (30)
+59-G (30)
+132-P (15)
+104-M (12) -&gt; 110-M (7)
+10-B (30)
+69-G (30)
+182-U (17)
+35-C (21) -&gt; 176-T (8)
+139-P (30)
+91-K (30)
+18-B (24)
+72-G (29)
+118-N (9) -&gt; 143-P (3) -&gt; 163-S (18)
+87-K (2)
+115-N (7)
+124-O (30)
+109-M (30)
+106-M (1) -&gt; 22-B (13)
+28-C (28)
+101-L (21)
+178-T (28)
+166-S (4) -&gt; 175-T (23)
+45-D (13) -&gt; 25-C (7)
+83-H (22)
+143-P (30)
+150-R (30)
+20-B (18) -&gt; 116-N (5)
+149-R (7) -&gt; 26-C (20)
+135-P (2) -&gt; 53-E (27)
+121-O (29)
+Link (capacity 40):
+206-W (7) -&gt; 165-S (4) -&gt; 172-S (20)
+208-Z (11) -&gt; 75-H (3)
+111-M (40)
+99-L (40)
+23-B (40)
+41-C (39)
+</t>
+  </si>
+  <si>
+    <t>Seeded solutions will be split again if customer completion changed their chromosomes (I am also regenerating the model data sheets just in case of errors).</t>
   </si>
 </sst>
 </file>
@@ -4332,7 +5096,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-6705-486E-A71D-F6CCB68D3CE8}"/>
+              <c16:uniqueId val="{00000000-2D52-4DF8-A7CD-61A1A5E857FE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4405,7 +5169,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-6705-486E-A71D-F6CCB68D3CE8}"/>
+              <c16:uniqueId val="{00000001-2D52-4DF8-A7CD-61A1A5E857FE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4743,7 +5507,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0B1D-43EA-B535-E58CBDCA2CA1}"/>
+              <c16:uniqueId val="{00000000-CF65-42E6-B8A5-AE907BBEF5B2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4816,7 +5580,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-0B1D-43EA-B535-E58CBDCA2CA1}"/>
+              <c16:uniqueId val="{00000001-CF65-42E6-B8A5-AE907BBEF5B2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5155,7 +5919,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C73E-4D2F-9410-5BA422F19426}"/>
+              <c16:uniqueId val="{00000000-2BB3-4E34-914F-FAB19C30DA6C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5228,7 +5992,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-C73E-4D2F-9410-5BA422F19426}"/>
+              <c16:uniqueId val="{00000001-2BB3-4E34-914F-FAB19C30DA6C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5552,7 +6316,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-E006-472A-801A-EE9D1860B66A}"/>
+              <c16:uniqueId val="{00000000-2B3E-4C8A-BF0E-0649C35ADAFA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5611,7 +6375,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-E006-472A-801A-EE9D1860B66A}"/>
+              <c16:uniqueId val="{00000001-2B3E-4C8A-BF0E-0649C35ADAFA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5948,7 +6712,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-DFC2-4D3C-9D65-4FB52F68F248}"/>
+              <c16:uniqueId val="{00000000-8D9C-4A93-B830-DD2A0ADF47BE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6021,7 +6785,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-DFC2-4D3C-9D65-4FB52F68F248}"/>
+              <c16:uniqueId val="{00000001-8D9C-4A93-B830-DD2A0ADF47BE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6358,7 +7122,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0790-494B-8661-29D8889F656B}"/>
+              <c16:uniqueId val="{00000000-31AB-4365-9847-D4C31E726078}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6431,7 +7195,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-0790-494B-8661-29D8889F656B}"/>
+              <c16:uniqueId val="{00000001-31AB-4365-9847-D4C31E726078}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6485,7 +7249,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-0790-494B-8661-29D8889F656B}"/>
+              <c16:uniqueId val="{00000002-31AB-4365-9847-D4C31E726078}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6539,7 +7303,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-0790-494B-8661-29D8889F656B}"/>
+              <c16:uniqueId val="{00000003-31AB-4365-9847-D4C31E726078}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7694,7 +8458,7 @@
   <dimension ref="A1:V208"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="I29" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="I32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="O29" sqref="O29"/>
@@ -12442,10 +13206,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12461,7 +13225,7 @@
     <col min="9" max="9" width="12.85546875" style="11" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.5703125" style="11" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14" style="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="38.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="38.7109375" style="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -12499,7 +13263,7 @@
         <v>217</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>246</v>
+        <v>218</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -12507,13 +13271,13 @@
         <v>43745</v>
       </c>
       <c r="B2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C2">
         <v>469154.88979999977</v>
       </c>
       <c r="F2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="G2">
         <v>3603.7618333999999</v>
@@ -12526,7 +13290,7 @@
         <v>13622.672333333176</v>
       </c>
       <c r="K2" s="12">
-        <f t="shared" ref="K2:K9" si="0">J2/C2</f>
+        <f t="shared" ref="K2:K18" si="0">J2/C2</f>
         <v>2.9036620164271349E-2</v>
       </c>
     </row>
@@ -12535,13 +13299,13 @@
         <v>43768</v>
       </c>
       <c r="B3" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C3">
         <v>592286.43533333309</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="G3">
         <v>3600.6243162000001</v>
@@ -12558,7 +13322,7 @@
         <v>-2.8570731981184649E-2</v>
       </c>
       <c r="L3" t="s">
-        <v>245</v>
+        <v>223</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -12566,16 +13330,16 @@
         <v>43775</v>
       </c>
       <c r="B4" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C4">
         <v>471229.1394000001</v>
       </c>
       <c r="E4" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="F4" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="G4">
         <v>3893.4923675999999</v>
@@ -12584,7 +13348,7 @@
         <v>468885.14206666662</v>
       </c>
       <c r="J4">
-        <f t="shared" ref="J4:J9" si="1">C4-(H4+I4*10)</f>
+        <f t="shared" ref="J4:J18" si="1">C4-(H4+I4*10)</f>
         <v>2343.9973333334783</v>
       </c>
       <c r="K4" s="12">
@@ -12597,16 +13361,16 @@
         <v>43775</v>
       </c>
       <c r="B5" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C5">
         <v>1428685.831666667</v>
       </c>
       <c r="E5" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="F5" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="G5">
         <v>3661.4549959999999</v>
@@ -12623,7 +13387,7 @@
         <v>0.11307985414694049</v>
       </c>
       <c r="L5" t="s">
-        <v>247</v>
+        <v>230</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -12631,16 +13395,16 @@
         <v>43768</v>
       </c>
       <c r="B6" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C6">
         <v>592286.43533333309</v>
       </c>
       <c r="E6" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="F6" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="G6">
         <v>3786.4904317999999</v>
@@ -12662,16 +13426,16 @@
         <v>43745</v>
       </c>
       <c r="B7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C7">
         <v>469154.88979999977</v>
       </c>
       <c r="E7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="F7" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="G7">
         <v>3601.0539597000002</v>
@@ -12693,16 +13457,16 @@
         <v>43795</v>
       </c>
       <c r="B8" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="C8">
         <v>1275847.0800666669</v>
       </c>
       <c r="E8" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="F8" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="G8">
         <v>3902.6114637000001</v>
@@ -12724,16 +13488,16 @@
         <v>43768</v>
       </c>
       <c r="B9" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C9">
         <v>592286.43533333309</v>
       </c>
       <c r="E9" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="F9" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="G9">
         <v>7200.1489792000002</v>
@@ -12755,16 +13519,16 @@
         <v>43745</v>
       </c>
       <c r="B10" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="C10">
         <v>475403.35446666653</v>
       </c>
       <c r="E10" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="F10" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="G10">
         <v>3601.0659418</v>
@@ -12772,16 +13536,16 @@
       <c r="H10">
         <v>415161.92479999957</v>
       </c>
-      <c r="J10" s="11">
-        <f t="shared" ref="J10:J11" si="2">C10-(H10+I10*10)</f>
+      <c r="J10">
+        <f t="shared" si="1"/>
         <v>60241.429666666954</v>
       </c>
       <c r="K10" s="12">
-        <f t="shared" ref="K10:K11" si="3">J10/C10</f>
+        <f t="shared" si="0"/>
         <v>0.12671645898302314</v>
       </c>
       <c r="L10" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -12789,16 +13553,16 @@
         <v>43768</v>
       </c>
       <c r="B11" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="C11">
         <v>600912.63166666601</v>
       </c>
       <c r="E11" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="F11" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="G11">
         <v>3600.2064667</v>
@@ -12806,12 +13570,12 @@
       <c r="H11">
         <v>609615.0336666666</v>
       </c>
-      <c r="J11" s="11">
-        <f t="shared" si="2"/>
+      <c r="J11">
+        <f t="shared" si="1"/>
         <v>-8702.4020000005839</v>
       </c>
       <c r="K11" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>-1.4481975484296224E-2</v>
       </c>
     </row>
@@ -12819,18 +13583,223 @@
       <c r="A12" s="9">
         <v>43745</v>
       </c>
+      <c r="B12" t="s">
+        <v>247</v>
+      </c>
+      <c r="C12">
+        <v>494345.58179999999</v>
+      </c>
+      <c r="E12" t="s">
+        <v>248</v>
+      </c>
+      <c r="F12" t="s">
+        <v>249</v>
+      </c>
+      <c r="G12">
+        <v>7170.8296077000005</v>
+      </c>
+      <c r="H12">
+        <v>462138.49680000002</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="1"/>
+        <v>32207.084999999963</v>
+      </c>
+      <c r="K12" s="12">
+        <f t="shared" si="0"/>
+        <v>6.5150951451266648E-2</v>
+      </c>
       <c r="L12" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
         <v>43768</v>
       </c>
+      <c r="B13" t="s">
+        <v>251</v>
+      </c>
+      <c r="C13">
+        <v>593149.57433333329</v>
+      </c>
+      <c r="E13" t="s">
+        <v>252</v>
+      </c>
+      <c r="F13" t="s">
+        <v>253</v>
+      </c>
+      <c r="G13">
+        <v>5056.3446751000001</v>
+      </c>
+      <c r="H13">
+        <v>593149.57433333329</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K13" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>43795</v>
+      </c>
+      <c r="B14" t="s">
+        <v>254</v>
+      </c>
+      <c r="C14">
+        <v>1372973.317933334</v>
+      </c>
+      <c r="E14" t="s">
+        <v>255</v>
+      </c>
+      <c r="F14" t="s">
+        <v>256</v>
+      </c>
+      <c r="G14">
+        <v>7318.0830248000002</v>
+      </c>
+      <c r="H14">
+        <v>1254723.0476333329</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="1"/>
+        <v>118250.27030000114</v>
+      </c>
+      <c r="K14" s="12">
+        <f t="shared" si="0"/>
+        <v>8.6127143736483655E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="10">
+        <v>43754</v>
+      </c>
+      <c r="B15" t="s">
+        <v>257</v>
+      </c>
+      <c r="C15">
+        <v>636315.92813333333</v>
+      </c>
+      <c r="E15" t="s">
+        <v>258</v>
+      </c>
+      <c r="F15" t="s">
+        <v>259</v>
+      </c>
+      <c r="G15">
+        <v>4347.3198690999998</v>
+      </c>
+      <c r="H15">
+        <v>636315.92813333333</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K15" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="9">
+        <v>43745</v>
+      </c>
+      <c r="B16" t="s">
+        <v>260</v>
+      </c>
+      <c r="C16">
+        <v>538213.87013333349</v>
+      </c>
+      <c r="E16" t="s">
+        <v>261</v>
+      </c>
+      <c r="F16" t="s">
+        <v>262</v>
+      </c>
+      <c r="G16">
+        <v>7527.1272962000003</v>
+      </c>
+      <c r="H16">
+        <v>464391.88160000002</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="1"/>
+        <v>73821.988533333468</v>
+      </c>
+      <c r="K16" s="12">
+        <f t="shared" si="0"/>
+        <v>0.13716106668719871</v>
+      </c>
+      <c r="L16" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="10">
+        <v>43768</v>
+      </c>
+      <c r="B17" t="s">
+        <v>263</v>
+      </c>
+      <c r="C17">
+        <v>632705.85299999989</v>
+      </c>
+      <c r="E17" t="s">
+        <v>264</v>
+      </c>
+      <c r="F17" t="s">
+        <v>265</v>
+      </c>
+      <c r="G17">
+        <v>6666.2375192999998</v>
+      </c>
+      <c r="H17">
+        <v>590658.45699999982</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="1"/>
+        <v>42047.396000000066</v>
+      </c>
+      <c r="K17" s="12">
+        <f t="shared" si="0"/>
+        <v>6.6456467568034458E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="8">
+        <v>43795</v>
+      </c>
+      <c r="B18" t="s">
+        <v>266</v>
+      </c>
+      <c r="C18">
+        <v>1432583.6294</v>
+      </c>
+      <c r="E18" t="s">
+        <v>267</v>
+      </c>
+      <c r="F18" t="s">
+        <v>268</v>
+      </c>
+      <c r="G18">
+        <v>7733.803919</v>
+      </c>
+      <c r="H18">
+        <v>1254822.7691666661</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="1"/>
+        <v>177760.86023333389</v>
+      </c>
+      <c r="K18" s="12">
+        <f t="shared" si="0"/>
+        <v>0.12408410691373345</v>
       </c>
     </row>
   </sheetData>
